--- a/data/ACE.MI.xlsx
+++ b/data/ACE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="1509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="1510">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -50,13 +50,13 @@
     <t xml:space="preserve">9.18023681640625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33107089996338</t>
+    <t xml:space="preserve">9.33106899261475</t>
   </si>
   <si>
     <t xml:space="preserve">9.37906169891357</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52989482879639</t>
+    <t xml:space="preserve">9.52989387512207</t>
   </si>
   <si>
     <t xml:space="preserve">9.73557567596436</t>
@@ -68,19 +68,19 @@
     <t xml:space="preserve">9.18709182739258</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23508548736572</t>
+    <t xml:space="preserve">9.23508453369141</t>
   </si>
   <si>
     <t xml:space="preserve">9.07739639282227</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75516319274902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81686687469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00197982788086</t>
+    <t xml:space="preserve">8.75516128540039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81686592102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00197792053223</t>
   </si>
   <si>
     <t xml:space="preserve">9.01569175720215</t>
@@ -89,37 +89,37 @@
     <t xml:space="preserve">9.15281295776367</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27622127532959</t>
+    <t xml:space="preserve">9.27622032165527</t>
   </si>
   <si>
     <t xml:space="preserve">9.39277362823486</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40648746490479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28307723999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25565433502197</t>
+    <t xml:space="preserve">9.40648555755615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28307819366455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25565338134766</t>
   </si>
   <si>
     <t xml:space="preserve">9.21451663970947</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83743476867676</t>
+    <t xml:space="preserve">8.83743381500244</t>
   </si>
   <si>
     <t xml:space="preserve">8.39864826202393</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24781608581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09012699127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25467109680176</t>
+    <t xml:space="preserve">8.2478141784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09012603759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25467205047607</t>
   </si>
   <si>
     <t xml:space="preserve">8.48092079162598</t>
@@ -128,13 +128,13 @@
     <t xml:space="preserve">8.43978500366211</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46720790863037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46035289764404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23410224914551</t>
+    <t xml:space="preserve">8.46720886230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46035194396973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23410320281982</t>
   </si>
   <si>
     <t xml:space="preserve">8.40550422668457</t>
@@ -143,22 +143,22 @@
     <t xml:space="preserve">8.49463367462158</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3506555557251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50148868560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41236209869385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55633735656738</t>
+    <t xml:space="preserve">8.35065746307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50148773193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41236019134521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5563383102417</t>
   </si>
   <si>
     <t xml:space="preserve">8.4534969329834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37808036804199</t>
+    <t xml:space="preserve">8.37807941436768</t>
   </si>
   <si>
     <t xml:space="preserve">8.33008766174316</t>
@@ -167,22 +167,22 @@
     <t xml:space="preserve">8.86485958099365</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26936531066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59845542907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70129489898682</t>
+    <t xml:space="preserve">9.26936626434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59845352172852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7012939453125</t>
   </si>
   <si>
     <t xml:space="preserve">9.6944408416748</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76985549926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71500873565674</t>
+    <t xml:space="preserve">9.76985645294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71500682830811</t>
   </si>
   <si>
     <t xml:space="preserve">9.36534976959229</t>
@@ -194,85 +194,85 @@
     <t xml:space="preserve">9.22137260437012</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35163974761963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39962863922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49561500549316</t>
+    <t xml:space="preserve">9.351637840271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39963054656982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49561405181885</t>
   </si>
   <si>
     <t xml:space="preserve">9.32421398162842</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29679012298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22822952270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37220668792725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11853313446045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7414493560791</t>
+    <t xml:space="preserve">9.29678916931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22823047637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37220573425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11853218078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74145030975342</t>
   </si>
   <si>
     <t xml:space="preserve">8.7071704864502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54948139190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61804103851318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68660163879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73459529876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80315399169922</t>
+    <t xml:space="preserve">8.54948234558105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61804008483887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68660259246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73459339141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80315494537354</t>
   </si>
   <si>
     <t xml:space="preserve">8.89913845062256</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84429168701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81001091003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70031261444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60433006286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94713115692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97455596923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04311466217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87171459197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72088146209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65917682647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89228343963623</t>
+    <t xml:space="preserve">8.84428977966309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8100118637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70031356811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60432910919189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94713020324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97455501556396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04311561584473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87171363830566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72088241577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65917873382568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89228439331055</t>
   </si>
   <si>
     <t xml:space="preserve">8.85800266265869</t>
@@ -281,7 +281,7 @@
     <t xml:space="preserve">8.95398712158203</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06368255615234</t>
+    <t xml:space="preserve">9.06368541717529</t>
   </si>
   <si>
     <t xml:space="preserve">9.10481929779053</t>
@@ -293,25 +293,25 @@
     <t xml:space="preserve">8.91285133361816</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58376216888428</t>
+    <t xml:space="preserve">8.58376121520996</t>
   </si>
   <si>
     <t xml:space="preserve">8.32323265075684</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36436748504639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20668029785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95300722122192</t>
+    <t xml:space="preserve">8.3643684387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20667934417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95300674438477</t>
   </si>
   <si>
     <t xml:space="preserve">7.58277988433838</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7061882019043</t>
+    <t xml:space="preserve">7.70618772506714</t>
   </si>
   <si>
     <t xml:space="preserve">7.71304416656494</t>
@@ -320,46 +320,46 @@
     <t xml:space="preserve">7.87758874893188</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84174919128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79874086380005</t>
+    <t xml:space="preserve">7.84174871444702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79874181747437</t>
   </si>
   <si>
     <t xml:space="preserve">7.89909362792969</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80590915679932</t>
+    <t xml:space="preserve">7.80590963363647</t>
   </si>
   <si>
     <t xml:space="preserve">7.39016819000244</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05327367782593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.182297706604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31132030487061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83458137512207</t>
+    <t xml:space="preserve">7.05327415466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18229722976685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31131935119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83458042144775</t>
   </si>
   <si>
     <t xml:space="preserve">7.74139785766602</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78440523147583</t>
+    <t xml:space="preserve">7.78440570831299</t>
   </si>
   <si>
     <t xml:space="preserve">7.66971778869629</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50485467910767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46901512145996</t>
+    <t xml:space="preserve">7.50485563278198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46901559829712</t>
   </si>
   <si>
     <t xml:space="preserve">7.54786348342896</t>
@@ -368,31 +368,31 @@
     <t xml:space="preserve">7.59087085723877</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4546799659729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64821481704712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66255044937134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62671184539795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91342926025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90626096725464</t>
+    <t xml:space="preserve">7.45467853546143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64821434020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66255140304565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62671136856079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91342878341675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9062614440918</t>
   </si>
   <si>
     <t xml:space="preserve">8.38651466369629</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35784149169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92411231994629</t>
+    <t xml:space="preserve">8.35784339904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92411041259766</t>
   </si>
   <si>
     <t xml:space="preserve">8.89544010162354</t>
@@ -404,28 +404,28 @@
     <t xml:space="preserve">9.03163051605225</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04596710205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93127822875977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90977668762207</t>
+    <t xml:space="preserve">9.04596614837646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93127918243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90977573394775</t>
   </si>
   <si>
     <t xml:space="preserve">8.95995044708252</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79508876800537</t>
+    <t xml:space="preserve">8.79508781433105</t>
   </si>
   <si>
     <t xml:space="preserve">8.65889644622803</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70907402038574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74491119384766</t>
+    <t xml:space="preserve">8.70907306671143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74491214752197</t>
   </si>
   <si>
     <t xml:space="preserve">8.5872163772583</t>
@@ -434,7 +434,7 @@
     <t xml:space="preserve">8.58004951477051</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56571388244629</t>
+    <t xml:space="preserve">8.56571292877197</t>
   </si>
   <si>
     <t xml:space="preserve">8.59438514709473</t>
@@ -446,13 +446,13 @@
     <t xml:space="preserve">8.37934684753418</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46536159515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52270603179932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64456176757812</t>
+    <t xml:space="preserve">8.46536445617676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.522705078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64456081390381</t>
   </si>
   <si>
     <t xml:space="preserve">8.61589050292969</t>
@@ -461,34 +461,34 @@
     <t xml:space="preserve">8.5083703994751</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54421043395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51553821563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30049991607666</t>
+    <t xml:space="preserve">8.54420948028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51553726196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30049896240234</t>
   </si>
   <si>
     <t xml:space="preserve">8.15713882446289</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17864227294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26465797424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0997953414917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02094745635986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99227619171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94210004806519</t>
+    <t xml:space="preserve">8.17864418029785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26465892791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09979629516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02094841003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99227571487427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94210147857666</t>
   </si>
   <si>
     <t xml:space="preserve">7.96360492706299</t>
@@ -497,55 +497,55 @@
     <t xml:space="preserve">7.98510885238647</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94926929473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92776584625244</t>
+    <t xml:space="preserve">7.94926977157593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92776489257812</t>
   </si>
   <si>
     <t xml:space="preserve">7.92059755325317</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95643758773804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93493318557739</t>
+    <t xml:space="preserve">7.95643663406372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93493270874023</t>
   </si>
   <si>
     <t xml:space="preserve">7.82024574279785</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70555734634399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79157447814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7270622253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99944353103638</t>
+    <t xml:space="preserve">7.70555877685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79157257080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72706079483032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99944448471069</t>
   </si>
   <si>
     <t xml:space="preserve">8.12846851348877</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2001485824585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35067462921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32200241088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45102405548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40085124969482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42235374450684</t>
+    <t xml:space="preserve">8.20014762878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35067558288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32200145721436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45102596282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40085029602051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42235469818115</t>
   </si>
   <si>
     <t xml:space="preserve">8.4581937789917</t>
@@ -554,46 +554,46 @@
     <t xml:space="preserve">8.28616333007812</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17147445678711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25032234191895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1499719619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07829093933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56936693191528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26831388473511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28981637954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2396411895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16796016693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11778545379639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1643762588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21813678741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35432863235474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22530460357666</t>
+    <t xml:space="preserve">8.17147541046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25032329559326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14997100830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07829189300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5693678855896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26831340789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2898154258728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23964071273804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16796159744263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11778497695923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16437768936157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21813774108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35432767868042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22530508041382</t>
   </si>
   <si>
     <t xml:space="preserve">7.29698467254639</t>
@@ -602,10 +602,10 @@
     <t xml:space="preserve">7.2109694480896</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11061811447144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59803771972656</t>
+    <t xml:space="preserve">7.11061716079712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59803915023804</t>
   </si>
   <si>
     <t xml:space="preserve">7.85608577728271</t>
@@ -620,37 +620,37 @@
     <t xml:space="preserve">8.22165203094482</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21448421478271</t>
+    <t xml:space="preserve">8.21448230743408</t>
   </si>
   <si>
     <t xml:space="preserve">8.16430759429932</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31483459472656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30766773223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47969818115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49403476715088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52987194061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73057651519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62305736541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67323303222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12130165100098</t>
+    <t xml:space="preserve">8.31483554840088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30766677856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47969722747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49403381347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52987289428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73057746887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62305641174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67323207855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12129974365234</t>
   </si>
   <si>
     <t xml:space="preserve">8.18581104278564</t>
@@ -662,7 +662,7 @@
     <t xml:space="preserve">8.19297981262207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55854415893555</t>
+    <t xml:space="preserve">8.55854511260986</t>
   </si>
   <si>
     <t xml:space="preserve">8.50120162963867</t>
@@ -671,19 +671,19 @@
     <t xml:space="preserve">8.42952251434326</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44385814666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55137825012207</t>
+    <t xml:space="preserve">8.44385719299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55137729644775</t>
   </si>
   <si>
     <t xml:space="preserve">8.60155296325684</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66606330871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57288074493408</t>
+    <t xml:space="preserve">8.66606426239014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57288265228271</t>
   </si>
   <si>
     <t xml:space="preserve">8.43669033050537</t>
@@ -698,25 +698,25 @@
     <t xml:space="preserve">8.76641654968262</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88827228546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95278263092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9957914352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07463932037354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16782188415527</t>
+    <t xml:space="preserve">8.88827037811279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95278358459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99579048156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07463836669922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16782283782959</t>
   </si>
   <si>
     <t xml:space="preserve">9.11764621734619</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10330963134766</t>
+    <t xml:space="preserve">9.10331058502197</t>
   </si>
   <si>
     <t xml:space="preserve">9.09614276885986</t>
@@ -725,16 +725,16 @@
     <t xml:space="preserve">9.14631843566895</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36135673522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3541898727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32551860809326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31834888458252</t>
+    <t xml:space="preserve">9.36135768890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35418891906738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32551765441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31834983825684</t>
   </si>
   <si>
     <t xml:space="preserve">9.23950099945068</t>
@@ -743,13 +743,13 @@
     <t xml:space="preserve">9.46170902252197</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42586803436279</t>
+    <t xml:space="preserve">9.42586898803711</t>
   </si>
   <si>
     <t xml:space="preserve">9.28250885009766</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36852550506592</t>
+    <t xml:space="preserve">9.36852359771729</t>
   </si>
   <si>
     <t xml:space="preserve">9.51905155181885</t>
@@ -758,10 +758,10 @@
     <t xml:space="preserve">9.52622032165527</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5333890914917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46887683868408</t>
+    <t xml:space="preserve">9.53338813781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4688777923584</t>
   </si>
   <si>
     <t xml:space="preserve">9.74125957489014</t>
@@ -773,34 +773,34 @@
     <t xml:space="preserve">9.74842739105225</t>
   </si>
   <si>
-    <t xml:space="preserve">9.777099609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87028217315674</t>
+    <t xml:space="preserve">9.77709865570068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87028312683105</t>
   </si>
   <si>
     <t xml:space="preserve">10.0924892425537</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1498317718506</t>
+    <t xml:space="preserve">10.1498336791992</t>
   </si>
   <si>
     <t xml:space="preserve">9.95629787445068</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89895534515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94912910461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.157000541687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9706335067749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98497009277344</t>
+    <t xml:space="preserve">9.89895439147949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94913101196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1569995880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97063446044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98497104644775</t>
   </si>
   <si>
     <t xml:space="preserve">10.1785049438477</t>
@@ -818,25 +818,25 @@
     <t xml:space="preserve">10.4365520477295</t>
   </si>
   <si>
-    <t xml:space="preserve">10.314697265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4293823242188</t>
+    <t xml:space="preserve">10.3146953582764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4293832778931</t>
   </si>
   <si>
     <t xml:space="preserve">10.379207611084</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4150476455688</t>
+    <t xml:space="preserve">10.4150466918945</t>
   </si>
   <si>
     <t xml:space="preserve">10.3218641281128</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5082302093506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.515398979187</t>
+    <t xml:space="preserve">10.5082311630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5153980255127</t>
   </si>
   <si>
     <t xml:space="preserve">10.443717956543</t>
@@ -845,10 +845,10 @@
     <t xml:space="preserve">10.5584058761597</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4078798294067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3505353927612</t>
+    <t xml:space="preserve">10.4078788757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3505373001099</t>
   </si>
   <si>
     <t xml:space="preserve">10.5227956771851</t>
@@ -857,16 +857,16 @@
     <t xml:space="preserve">10.4104509353638</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6126699447632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5078144073486</t>
+    <t xml:space="preserve">10.6126680374146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5078153610229</t>
   </si>
   <si>
     <t xml:space="preserve">10.4478998184204</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4853467941284</t>
+    <t xml:space="preserve">10.4853458404541</t>
   </si>
   <si>
     <t xml:space="preserve">10.1857662200928</t>
@@ -875,10 +875,10 @@
     <t xml:space="preserve">10.0584440231323</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1183605194092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93861103057861</t>
+    <t xml:space="preserve">10.1183595657349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93861198425293</t>
   </si>
   <si>
     <t xml:space="preserve">9.7663516998291</t>
@@ -887,25 +887,25 @@
     <t xml:space="preserve">9.78133106231689</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8861837387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74388408660889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87869358062744</t>
+    <t xml:space="preserve">9.88618469238281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74388313293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87869453430176</t>
   </si>
   <si>
     <t xml:space="preserve">9.99852752685547</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81128883361816</t>
+    <t xml:space="preserve">9.81128978729248</t>
   </si>
   <si>
     <t xml:space="preserve">10.0060167312622</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0434646606445</t>
+    <t xml:space="preserve">10.0434637069702</t>
   </si>
   <si>
     <t xml:space="preserve">10.0659332275391</t>
@@ -914,19 +914,19 @@
     <t xml:space="preserve">10.178277015686</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0734233856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0884017944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96108055114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0359754562378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81877899169922</t>
+    <t xml:space="preserve">10.0734224319458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0884008407593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96107959747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0359745025635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81877708435059</t>
   </si>
   <si>
     <t xml:space="preserve">9.87120532989502</t>
@@ -938,31 +938,31 @@
     <t xml:space="preserve">9.42932319641113</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49672985076904</t>
+    <t xml:space="preserve">9.49672889709473</t>
   </si>
   <si>
     <t xml:space="preserve">9.45179080963135</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46677112579346</t>
+    <t xml:space="preserve">9.46677017211914</t>
   </si>
   <si>
     <t xml:space="preserve">9.60907173156738</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44430160522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33944797515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2196159362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36940765380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37689685821533</t>
+    <t xml:space="preserve">9.44430255889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33944892883301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21961688995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36940670013428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37689590454102</t>
   </si>
   <si>
     <t xml:space="preserve">9.30200099945068</t>
@@ -974,7 +974,7 @@
     <t xml:space="preserve">9.2720422744751</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27953338623047</t>
+    <t xml:space="preserve">9.27953243255615</t>
   </si>
   <si>
     <t xml:space="preserve">9.21212768554688</t>
@@ -986,58 +986,58 @@
     <t xml:space="preserve">9.14472103118896</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12225246429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06233596801758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03237819671631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08480358123779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2570629119873</t>
+    <t xml:space="preserve">9.12225341796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06233501434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03237724304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08480453491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25706386566162</t>
   </si>
   <si>
     <t xml:space="preserve">9.17467880249023</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28702259063721</t>
+    <t xml:space="preserve">9.28702068328857</t>
   </si>
   <si>
     <t xml:space="preserve">9.75137329101562</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92363166809082</t>
+    <t xml:space="preserve">9.92363262176514</t>
   </si>
   <si>
     <t xml:space="preserve">9.69145584106445</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59409332275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60158157348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61656093597412</t>
+    <t xml:space="preserve">9.59409236907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60158252716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61656188964844</t>
   </si>
   <si>
     <t xml:space="preserve">9.73639392852783</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79630947113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66898727416992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67647838592529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72141456604004</t>
+    <t xml:space="preserve">9.79631042480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66898822784424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67647743225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72141361236572</t>
   </si>
   <si>
     <t xml:space="preserve">9.82626819610596</t>
@@ -1046,25 +1046,25 @@
     <t xml:space="preserve">9.91614246368408</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85622596740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8337574005127</t>
+    <t xml:space="preserve">9.85622692108154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83375644683838</t>
   </si>
   <si>
     <t xml:space="preserve">10.1558074951172</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1707878112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2756404876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2232122421265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3580255508423</t>
+    <t xml:space="preserve">10.170786857605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2756395339966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2232131958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.358024597168</t>
   </si>
   <si>
     <t xml:space="preserve">10.4029626846313</t>
@@ -1073,22 +1073,22 @@
     <t xml:space="preserve">10.552752494812</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4703674316406</t>
+    <t xml:space="preserve">10.4703683853149</t>
   </si>
   <si>
     <t xml:space="preserve">10.3804941177368</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5302848815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5003261566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8822927474976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9122505187988</t>
+    <t xml:space="preserve">10.5302839279175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5003252029419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8822917938232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9122495651245</t>
   </si>
   <si>
     <t xml:space="preserve">10.9347190856934</t>
@@ -1097,100 +1097,100 @@
     <t xml:space="preserve">10.8748025894165</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7999086380005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7774391174316</t>
+    <t xml:space="preserve">10.7999076843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7774381637573</t>
   </si>
   <si>
     <t xml:space="preserve">10.7325019836426</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5976905822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7474813461304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6950531005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0245933532715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.002124786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9646787643433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0770206451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0171041488647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9721660614014</t>
+    <t xml:space="preserve">10.5976886749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7474822998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6950540542603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0245943069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0021238327026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9646768569946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0770196914673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0171051025391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.97216796875</t>
   </si>
   <si>
     <t xml:space="preserve">10.9496974945068</t>
   </si>
   <si>
-    <t xml:space="preserve">11.346643447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6573104858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7921228408813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7022495269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7322072982788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6648006439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6498212814331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.717227935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5524587631226</t>
+    <t xml:space="preserve">11.3466424942017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6573114395142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.792121887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7022485733032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7322082519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6648015975952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6498222351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7172288894653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5524597167969</t>
   </si>
   <si>
     <t xml:space="preserve">12.2453870773315</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1480226516724</t>
+    <t xml:space="preserve">12.1480236053467</t>
   </si>
   <si>
     <t xml:space="preserve">12.0281915664673</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3502407073975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9607858657837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7061405181885</t>
+    <t xml:space="preserve">12.3502416610718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9607849121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7061414718628</t>
   </si>
   <si>
     <t xml:space="preserve">11.5563507080078</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6836719512939</t>
+    <t xml:space="preserve">11.6836729049683</t>
   </si>
   <si>
     <t xml:space="preserve">11.6612033843994</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5338821411133</t>
+    <t xml:space="preserve">11.533881187439</t>
   </si>
   <si>
     <t xml:space="preserve">11.578818321228</t>
@@ -1199,31 +1199,31 @@
     <t xml:space="preserve">11.7585678100586</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9682750701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.073127746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1555128097534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9458074569702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8559331893921</t>
+    <t xml:space="preserve">11.9682741165161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0731287002563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1555137634277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9458055496216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8559312820435</t>
   </si>
   <si>
     <t xml:space="preserve">11.7510786056519</t>
   </si>
   <si>
-    <t xml:space="preserve">11.803505897522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9832534790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0955963134766</t>
+    <t xml:space="preserve">11.8035049438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9832544326782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0955972671509</t>
   </si>
   <si>
     <t xml:space="preserve">12.1630029678345</t>
@@ -1235,22 +1235,22 @@
     <t xml:space="preserve">12.3053045272827</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0881071090698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.990743637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9158477783203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8709106445312</t>
+    <t xml:space="preserve">12.0881061553955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9907426834106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9158487319946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8709115982056</t>
   </si>
   <si>
     <t xml:space="preserve">11.7136306762695</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6537132263184</t>
+    <t xml:space="preserve">11.653715133667</t>
   </si>
   <si>
     <t xml:space="preserve">11.6312456130981</t>
@@ -1262,25 +1262,25 @@
     <t xml:space="preserve">11.1668939590454</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9197406768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.27174949646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9796552658081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0994892120361</t>
+    <t xml:space="preserve">10.9197397232056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2717485427856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9796562194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0994882583618</t>
   </si>
   <si>
     <t xml:space="preserve">11.1219568252563</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1968536376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1519155502319</t>
+    <t xml:space="preserve">11.196852684021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1519165039062</t>
   </si>
   <si>
     <t xml:space="preserve">11.0320825576782</t>
@@ -1295,13 +1295,13 @@
     <t xml:space="preserve">10.4404096603394</t>
   </si>
   <si>
-    <t xml:space="preserve">10.665096282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6875648498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7025442123413</t>
+    <t xml:space="preserve">10.6650953292847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6875658035278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7025451660156</t>
   </si>
   <si>
     <t xml:space="preserve">10.4628791809082</t>
@@ -1310,250 +1310,253 @@
     <t xml:space="preserve">10.5677309036255</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3355560302734</t>
+    <t xml:space="preserve">10.3355579376221</t>
   </si>
   <si>
     <t xml:space="preserve">10.1932554244995</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1033821105957</t>
+    <t xml:space="preserve">10.1033802032471</t>
   </si>
   <si>
     <t xml:space="preserve">10.2082347869873</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0284862518311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1483173370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.32057762146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2606611251831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2157249450684</t>
+    <t xml:space="preserve">10.0284852981567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1483182907104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3205766677856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2606601715088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.215723991394</t>
   </si>
   <si>
     <t xml:space="preserve">10.1333389282227</t>
   </si>
   <si>
+    <t xml:space="preserve">10.2831287384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4254312515259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5452632904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6426267623901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8373556137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8448448181152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8073978424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0096139907837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8598251342773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7924184799194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.477858543396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.739990234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2906198501587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96857070922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72890472412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99103736877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3879823684692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2438802719116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.275279045105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2203321456909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0790376663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1182851791382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0162391662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0319395065308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99269008636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94559192657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0005397796631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97699069976807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1653823852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2595806121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3930253982544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1889324188232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0711879730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0947360992432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2046327590942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2517309188843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0868873596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1496849060059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.377326965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4401235580444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4087257385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6206674575806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7305631637573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5735683441162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6363668441772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6756162643433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7070150375366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5892677307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.683464050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5421705245972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4558229446411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5107717514038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.290979385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.338077545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.267430305481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2281818389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0554876327515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75719833374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6394510269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60020351409912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71794986724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92989253997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96914100646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1104354858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2124824523926</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.2831296920776</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4254302978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5452632904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6426277160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8373546600342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8448448181152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8073978424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0096139907837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8598232269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7924184799194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4778566360474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7399921417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2906188964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96856880187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72890377044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99103832244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3879833221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2438812255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.275279045105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2203321456909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0790367126465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1182861328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0162401199341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0319395065308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99268913269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94559288024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0005397796631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97699069976807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1653833389282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2595806121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3930253982544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1889324188232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0711870193481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0947370529175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2046327590942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2517309188843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0868873596191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1496839523315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.377326965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4401245117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4087257385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6206674575806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7305641174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5735692977905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6363658905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6756162643433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7070150375366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5892696380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6834650039673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5421705245972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4558219909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5107717514038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.290979385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3380765914917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2674293518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2281818389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0554885864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75719833374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63945198059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60020351409912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71794986724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92989158630371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96914100646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1104354858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2124824523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3851757049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4244232177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3694763183594</t>
+    <t xml:space="preserve">10.3851747512817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4244241714478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3694772720337</t>
   </si>
   <si>
     <t xml:space="preserve">10.1339845657349</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0083894729614</t>
+    <t xml:space="preserve">10.0083885192871</t>
   </si>
   <si>
     <t xml:space="preserve">10.1418352127075</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67085075378418</t>
+    <t xml:space="preserve">9.6708517074585</t>
   </si>
   <si>
     <t xml:space="preserve">9.61590385437012</t>
@@ -1562,7 +1565,7 @@
     <t xml:space="preserve">9.41181087493896</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38041305541992</t>
+    <t xml:space="preserve">9.38041210174561</t>
   </si>
   <si>
     <t xml:space="preserve">9.28621482849121</t>
@@ -1571,22 +1574,22 @@
     <t xml:space="preserve">9.50600814819336</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3961124420166</t>
+    <t xml:space="preserve">9.39611148834229</t>
   </si>
   <si>
     <t xml:space="preserve">9.14492034912109</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13707065582275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09782314300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89373016357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91727828979492</t>
+    <t xml:space="preserve">9.13707160949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09782218933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8937292098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91727924346924</t>
   </si>
   <si>
     <t xml:space="preserve">8.92512798309326</t>
@@ -1595,10 +1598,10 @@
     <t xml:space="preserve">8.7759838104248</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01147556304932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02717399597168</t>
+    <t xml:space="preserve">9.011474609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.027174949646</t>
   </si>
   <si>
     <t xml:space="preserve">9.11352062225342</t>
@@ -1607,10 +1610,10 @@
     <t xml:space="preserve">9.16061973571777</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27051639556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24696636199951</t>
+    <t xml:space="preserve">9.27051734924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24696731567383</t>
   </si>
   <si>
     <t xml:space="preserve">9.40396022796631</t>
@@ -1625,25 +1628,25 @@
     <t xml:space="preserve">10.0476379394531</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0240898132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74149894714355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74934864044189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57665538787842</t>
+    <t xml:space="preserve">10.0240888595581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74150085449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74934768676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5766544342041</t>
   </si>
   <si>
     <t xml:space="preserve">9.46675968170166</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48245811462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34116268157959</t>
+    <t xml:space="preserve">9.48245906829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34116172790527</t>
   </si>
   <si>
     <t xml:space="preserve">9.42751026153564</t>
@@ -1655,16 +1658,16 @@
     <t xml:space="preserve">9.29406547546387</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25481510162354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33331394195557</t>
+    <t xml:space="preserve">9.25481605529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33331489562988</t>
   </si>
   <si>
     <t xml:space="preserve">9.08212280273438</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73365020751953</t>
+    <t xml:space="preserve">9.73364925384521</t>
   </si>
   <si>
     <t xml:space="preserve">9.52170658111572</t>
@@ -1673,43 +1676,43 @@
     <t xml:space="preserve">9.22341728210449</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06642246246338</t>
+    <t xml:space="preserve">9.0664234161377</t>
   </si>
   <si>
     <t xml:space="preserve">9.26266574859619</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3568639755249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53740692138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27836513519287</t>
+    <t xml:space="preserve">9.35686302185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5374059677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27836608886719</t>
   </si>
   <si>
     <t xml:space="preserve">9.4353609085083</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60805320739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77289772033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79644680023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85139465332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2360315322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5186214447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5971183776855</t>
+    <t xml:space="preserve">9.60805416107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77289867401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79644775390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85139656066895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2360305786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5186204910278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5971193313599</t>
   </si>
   <si>
     <t xml:space="preserve">10.4793729782104</t>
@@ -1730,19 +1733,19 @@
     <t xml:space="preserve">10.6520662307739</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5264711380005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7148628234863</t>
+    <t xml:space="preserve">10.5264701843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7148637771606</t>
   </si>
   <si>
     <t xml:space="preserve">10.9582052230835</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9032573699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9268054962158</t>
+    <t xml:space="preserve">10.9032564163208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9268074035645</t>
   </si>
   <si>
     <t xml:space="preserve">10.793360710144</t>
@@ -1751,37 +1754,37 @@
     <t xml:space="preserve">10.9111061096191</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8954076766968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0838003158569</t>
+    <t xml:space="preserve">10.8954086303711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0838012695312</t>
   </si>
   <si>
     <t xml:space="preserve">11.3271427154541</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4213380813599</t>
+    <t xml:space="preserve">11.4213390350342</t>
   </si>
   <si>
     <t xml:space="preserve">11.7353277206421</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9001722335815</t>
+    <t xml:space="preserve">11.9001712799072</t>
   </si>
   <si>
     <t xml:space="preserve">11.7667255401611</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8138256072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7274770736694</t>
+    <t xml:space="preserve">11.8138236999512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7274761199951</t>
   </si>
   <si>
     <t xml:space="preserve">11.8452234268188</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8216753005981</t>
+    <t xml:space="preserve">11.8216743469238</t>
   </si>
   <si>
     <t xml:space="preserve">11.9158706665039</t>
@@ -1793,19 +1796,19 @@
     <t xml:space="preserve">11.9315700531006</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8923215866089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8766231536865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8530731201172</t>
+    <t xml:space="preserve">11.8923206329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8766222000122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8530740737915</t>
   </si>
   <si>
     <t xml:space="preserve">11.8295240402222</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0728645324707</t>
+    <t xml:space="preserve">12.072865486145</t>
   </si>
   <si>
     <t xml:space="preserve">12.5595474243164</t>
@@ -1820,7 +1823,7 @@
     <t xml:space="preserve">12.5124492645264</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6537437438965</t>
+    <t xml:space="preserve">12.6537446975708</t>
   </si>
   <si>
     <t xml:space="preserve">12.6380453109741</t>
@@ -1829,7 +1832,7 @@
     <t xml:space="preserve">12.4967498779297</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3397560119629</t>
+    <t xml:space="preserve">12.3397550582886</t>
   </si>
   <si>
     <t xml:space="preserve">12.1513614654541</t>
@@ -1847,10 +1850,10 @@
     <t xml:space="preserve">12.6223449707031</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7008428573608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6851425170898</t>
+    <t xml:space="preserve">12.7008419036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6851444244385</t>
   </si>
   <si>
     <t xml:space="preserve">12.842137336731</t>
@@ -1862,61 +1865,61 @@
     <t xml:space="preserve">13.1090278625488</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2032241821289</t>
+    <t xml:space="preserve">13.2032251358032</t>
   </si>
   <si>
     <t xml:space="preserve">13.3916177749634</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2503223419189</t>
+    <t xml:space="preserve">13.2503213882446</t>
   </si>
   <si>
     <t xml:space="preserve">13.1247272491455</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0776290893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.983434677124</t>
+    <t xml:space="preserve">13.0776281356812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9834337234497</t>
   </si>
   <si>
     <t xml:space="preserve">12.9206342697144</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0462312698364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1561260223389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1718273162842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0933284759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1404266357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0619287490845</t>
+    <t xml:space="preserve">13.0462293624878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1561269760132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1718263626099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0933294296265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1404256820679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0619297027588</t>
   </si>
   <si>
     <t xml:space="preserve">13.3445196151733</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4858131408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5800104141235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6114101409912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6585063934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7527055740356</t>
+    <t xml:space="preserve">13.4858140945435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5800094604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6114110946655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6585073471069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7527046203613</t>
   </si>
   <si>
     <t xml:space="preserve">13.831202507019</t>
@@ -1925,85 +1928,85 @@
     <t xml:space="preserve">13.8468999862671</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8626022338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9253988265991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0038948059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9724950790405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0509939193726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.173602104187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0101251602173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9774284362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6995143890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6831665039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6177759170532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7649059295654</t>
+    <t xml:space="preserve">13.8626003265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9253978729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0038957595825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9724960327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0509929656982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1736040115356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.010124206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9774293899536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6995153427124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6831655502319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6177749633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7649068832397</t>
   </si>
   <si>
     <t xml:space="preserve">14.1572542190552</t>
   </si>
   <si>
-    <t xml:space="preserve">14.075514793396</t>
+    <t xml:space="preserve">14.0755157470703</t>
   </si>
   <si>
     <t xml:space="preserve">13.8629922866821</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9120378494263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0918626785278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0264730453491</t>
+    <t xml:space="preserve">13.912036895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0918636322021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0264711380005</t>
   </si>
   <si>
     <t xml:space="preserve">14.2389945983887</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1409063339233</t>
+    <t xml:space="preserve">14.140905380249</t>
   </si>
   <si>
     <t xml:space="preserve">14.1245603561401</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1899499893188</t>
+    <t xml:space="preserve">14.1899518966675</t>
   </si>
   <si>
     <t xml:space="preserve">14.304386138916</t>
   </si>
   <si>
-    <t xml:space="preserve">14.042820930481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0591688156128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9283866882324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2716884613037</t>
+    <t xml:space="preserve">14.0428190231323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0591678619385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9283857345581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.271689414978</t>
   </si>
   <si>
     <t xml:space="preserve">14.2062978744507</t>
@@ -2012,31 +2015,31 @@
     <t xml:space="preserve">14.2553424835205</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4515180587769</t>
+    <t xml:space="preserve">14.4515161514282</t>
   </si>
   <si>
     <t xml:space="preserve">14.500560760498</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4351682662964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3534297943115</t>
+    <t xml:space="preserve">14.4351692199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3534278869629</t>
   </si>
   <si>
     <t xml:space="preserve">14.5332565307617</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4842138290405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4678649902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4024744033813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3207340240479</t>
+    <t xml:space="preserve">14.4842128753662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4678659439087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.402473449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3207330703735</t>
   </si>
   <si>
     <t xml:space="preserve">14.5496025085449</t>
@@ -2045,28 +2048,28 @@
     <t xml:space="preserve">14.3697776794434</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9447326660156</t>
+    <t xml:space="preserve">13.9447317123413</t>
   </si>
   <si>
     <t xml:space="preserve">14.2226457595825</t>
   </si>
   <si>
-    <t xml:space="preserve">13.879340171814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8765621185303</t>
+    <t xml:space="preserve">13.8793411254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8765630722046</t>
   </si>
   <si>
     <t xml:space="preserve">14.7457780838013</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9256048202515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7621250152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9746494293213</t>
+    <t xml:space="preserve">14.9256038665771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7621269226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.974648475647</t>
   </si>
   <si>
     <t xml:space="preserve">14.3370819091797</t>
@@ -2075,31 +2078,31 @@
     <t xml:space="preserve">14.5823001861572</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5659513473511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2880363464355</t>
+    <t xml:space="preserve">14.5659523010254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2880382537842</t>
   </si>
   <si>
     <t xml:space="preserve">14.6803865432739</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6640396118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6967353820801</t>
+    <t xml:space="preserve">14.6640405654907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6967334747314</t>
   </si>
   <si>
     <t xml:space="preserve">14.6476898193359</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5169076919556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2198667526245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4160404205322</t>
+    <t xml:space="preserve">14.5169086456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2198677062988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4160413742065</t>
   </si>
   <si>
     <t xml:space="preserve">14.9909973144531</t>
@@ -2108,76 +2111,76 @@
     <t xml:space="preserve">15.2035188674927</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4487342834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2362127304077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.072735786438</t>
+    <t xml:space="preserve">15.4487371444702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.236213684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0727367401123</t>
   </si>
   <si>
     <t xml:space="preserve">15.334300994873</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4323883056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8929090499878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9092578887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8602123260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2525606155396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4814338684082</t>
+    <t xml:space="preserve">15.4323863983154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8929100036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9092559814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8602151870728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2525634765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4814329147339</t>
   </si>
   <si>
     <t xml:space="preserve">15.5468235015869</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2852602005005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1381254196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.105429649353</t>
+    <t xml:space="preserve">15.2852582931519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1381273269653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1054306030273</t>
   </si>
   <si>
     <t xml:space="preserve">15.0563879013062</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9582986831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7784748077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6313428878784</t>
+    <t xml:space="preserve">14.9583005905151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7784729003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6313419342041</t>
   </si>
   <si>
     <t xml:space="preserve">15.3506498336792</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9882154464722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0045623779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1843910217285</t>
+    <t xml:space="preserve">15.9882164001465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0045642852783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1843891143799</t>
   </si>
   <si>
     <t xml:space="preserve">16.3887367248535</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6339588165283</t>
+    <t xml:space="preserve">16.6339569091797</t>
   </si>
   <si>
     <t xml:space="preserve">16.5113487243652</t>
@@ -2186,31 +2189,31 @@
     <t xml:space="preserve">16.5930862426758</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0017833709717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2061328887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6148300170898</t>
+    <t xml:space="preserve">17.001781463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2061309814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6148262023926</t>
   </si>
   <si>
     <t xml:space="preserve">17.8191776275635</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7374382019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4513492584229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3696098327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2878704071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1652641296387</t>
+    <t xml:space="preserve">17.7374401092529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4513511657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3696117401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2878723144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.16526222229</t>
   </si>
   <si>
     <t xml:space="preserve">17.0426540374756</t>
@@ -2219,13 +2222,13 @@
     <t xml:space="preserve">17.0835247039795</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8383045196533</t>
+    <t xml:space="preserve">16.838306427002</t>
   </si>
   <si>
     <t xml:space="preserve">16.8791751861572</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5739593505859</t>
+    <t xml:space="preserve">17.5739612579346</t>
   </si>
   <si>
     <t xml:space="preserve">16.5522174835205</t>
@@ -2234,16 +2237,16 @@
     <t xml:space="preserve">16.2988262176514</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4296112060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9391736984253</t>
+    <t xml:space="preserve">16.4296073913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9391717910767</t>
   </si>
   <si>
     <t xml:space="preserve">15.5795192718506</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8247375488281</t>
+    <t xml:space="preserve">15.8247365951538</t>
   </si>
   <si>
     <t xml:space="preserve">16.0536079406738</t>
@@ -2255,40 +2258,40 @@
     <t xml:space="preserve">13.0782957077026</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6859464645386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9203758239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2963771820068</t>
+    <t xml:space="preserve">12.6859474182129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9203767776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2963781356812</t>
   </si>
   <si>
     <t xml:space="preserve">10.5934200286865</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6588115692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1356782913208</t>
+    <t xml:space="preserve">10.6588106155396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1356792449951</t>
   </si>
   <si>
     <t xml:space="preserve">10.2828092575073</t>
   </si>
   <si>
-    <t xml:space="preserve">10.544376373291</t>
+    <t xml:space="preserve">10.5443754196167</t>
   </si>
   <si>
     <t xml:space="preserve">10.6751585006714</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6723785400391</t>
+    <t xml:space="preserve">11.6723794937134</t>
   </si>
   <si>
     <t xml:space="preserve">11.8358564376831</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7214231491089</t>
+    <t xml:space="preserve">11.7214221954346</t>
   </si>
   <si>
     <t xml:space="preserve">12.0974235534668</t>
@@ -2303,7 +2306,7 @@
     <t xml:space="preserve">12.3998584747314</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1955108642578</t>
+    <t xml:space="preserve">12.1955099105835</t>
   </si>
   <si>
     <t xml:space="preserve">12.1546411514282</t>
@@ -2315,19 +2318,19 @@
     <t xml:space="preserve">12.244553565979</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5142946243286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9829883575439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8113355636597</t>
+    <t xml:space="preserve">12.5142955780029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9829893112183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8113346099854</t>
   </si>
   <si>
     <t xml:space="preserve">11.8603792190552</t>
   </si>
   <si>
-    <t xml:space="preserve">11.778639793396</t>
+    <t xml:space="preserve">11.7786407470703</t>
   </si>
   <si>
     <t xml:space="preserve">11.6315088272095</t>
@@ -2339,13 +2342,13 @@
     <t xml:space="preserve">12.579686164856</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4652509689331</t>
+    <t xml:space="preserve">12.4652519226074</t>
   </si>
   <si>
     <t xml:space="preserve">12.7513380050659</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2417736053467</t>
+    <t xml:space="preserve">13.241774559021</t>
   </si>
   <si>
     <t xml:space="preserve">12.8330774307251</t>
@@ -2360,73 +2363,73 @@
     <t xml:space="preserve">12.9802083969116</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4134273529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7485580444336</t>
+    <t xml:space="preserve">13.413426399231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7485589981079</t>
   </si>
   <si>
     <t xml:space="preserve">13.8956890106201</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6913394927979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7567319869995</t>
+    <t xml:space="preserve">13.6913404464722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7567329406738</t>
   </si>
   <si>
     <t xml:space="preserve">13.7240371704102</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1163864135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2635154724121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1817770004272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3452548980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0482139587402</t>
+    <t xml:space="preserve">14.1163854598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2635164260864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1817779541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.345253944397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0482130050659</t>
   </si>
   <si>
     <t xml:space="preserve">15.26891040802</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3669967651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5304756164551</t>
+    <t xml:space="preserve">15.366997718811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5304746627808</t>
   </si>
   <si>
     <t xml:space="preserve">14.9664745330811</t>
   </si>
   <si>
-    <t xml:space="preserve">14.901083946228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4760360717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4433422088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9174308776855</t>
+    <t xml:space="preserve">14.9010829925537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.476037979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.443341255188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9174299240112</t>
   </si>
   <si>
     <t xml:space="preserve">14.7049083709717</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6547517776489</t>
+    <t xml:space="preserve">14.6547508239746</t>
   </si>
   <si>
     <t xml:space="preserve">14.8769226074219</t>
   </si>
   <si>
-    <t xml:space="preserve">14.526575088501</t>
+    <t xml:space="preserve">14.5265760421753</t>
   </si>
   <si>
     <t xml:space="preserve">14.3727655410767</t>
@@ -2435,16 +2438,16 @@
     <t xml:space="preserve">14.5522117614746</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8171072006226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6034812927246</t>
+    <t xml:space="preserve">14.8171091079712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6034822463989</t>
   </si>
   <si>
     <t xml:space="preserve">14.8427438735962</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9794645309448</t>
+    <t xml:space="preserve">14.9794635772705</t>
   </si>
   <si>
     <t xml:space="preserve">14.8683776855469</t>
@@ -2453,25 +2456,25 @@
     <t xml:space="preserve">14.9623737335205</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7743835449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.518030166626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4667615890503</t>
+    <t xml:space="preserve">14.7743825912476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5180311203003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.466760635376</t>
   </si>
   <si>
     <t xml:space="preserve">14.304404258728</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1676836013794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.330039024353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7060203552246</t>
+    <t xml:space="preserve">14.1676845550537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3300399780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7060222625732</t>
   </si>
   <si>
     <t xml:space="preserve">14.5436668395996</t>
@@ -2486,19 +2489,19 @@
     <t xml:space="preserve">14.1505928039551</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9284219741821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1164140701294</t>
+    <t xml:space="preserve">13.9284229278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1164150238037</t>
   </si>
   <si>
     <t xml:space="preserve">14.7402029037476</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6120262145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8598327636719</t>
+    <t xml:space="preserve">14.6120271682739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8598318099976</t>
   </si>
   <si>
     <t xml:space="preserve">15.0905485153198</t>
@@ -2507,34 +2510,34 @@
     <t xml:space="preserve">15.4067163467407</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9367370605469</t>
+    <t xml:space="preserve">14.9367380142212</t>
   </si>
   <si>
     <t xml:space="preserve">14.9538288116455</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9709196090698</t>
+    <t xml:space="preserve">14.9709186553955</t>
   </si>
   <si>
     <t xml:space="preserve">15.3212642669678</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2870855331421</t>
+    <t xml:space="preserve">15.2870845794678</t>
   </si>
   <si>
     <t xml:space="preserve">15.3554449081421</t>
   </si>
   <si>
-    <t xml:space="preserve">15.560525894165</t>
+    <t xml:space="preserve">15.5605268478394</t>
   </si>
   <si>
     <t xml:space="preserve">15.2443599700928</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1418199539185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8512878417969</t>
+    <t xml:space="preserve">15.1418190002441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8512868881226</t>
   </si>
   <si>
     <t xml:space="preserve">15.0649127960205</t>
@@ -2543,145 +2546,142 @@
     <t xml:space="preserve">15.0392789840698</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6803874969482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8940124511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1674547195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0136432647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7145662307739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0734596252441</t>
+    <t xml:space="preserve">14.8940134048462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1674537658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0136442184448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7145671844482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0734586715698</t>
   </si>
   <si>
     <t xml:space="preserve">14.9025583267212</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2529067993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0050983428955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9111032485962</t>
+    <t xml:space="preserve">15.2529058456421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0050973892212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9111022949219</t>
   </si>
   <si>
     <t xml:space="preserve">15.3127193450928</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3981714248657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4323501586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0307321548462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7829265594482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9880094528198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1930904388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4836225509644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3639907836914</t>
+    <t xml:space="preserve">15.3981704711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.43235206604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0307340621948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7829256057739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9880084991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1930894851685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.48362159729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3639898300171</t>
   </si>
   <si>
     <t xml:space="preserve">15.3810806274414</t>
   </si>
   <si>
-    <t xml:space="preserve">15.56907081604</t>
+    <t xml:space="preserve">15.5690717697144</t>
   </si>
   <si>
     <t xml:space="preserve">15.4152612686157</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3298110961914</t>
+    <t xml:space="preserve">15.3298120498657</t>
   </si>
   <si>
     <t xml:space="preserve">15.3041744232178</t>
   </si>
   <si>
-    <t xml:space="preserve">15.509256362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5348901748657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8510580062866</t>
+    <t xml:space="preserve">15.5092554092407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5348930358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8510570526123</t>
   </si>
   <si>
     <t xml:space="preserve">15.6887035369873</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6801567077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2785387039185</t>
+    <t xml:space="preserve">15.6801586151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2785396575928</t>
   </si>
   <si>
     <t xml:space="preserve">15.1503648757935</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7231111526489</t>
+    <t xml:space="preserve">14.7231121063232</t>
   </si>
   <si>
     <t xml:space="preserve">14.6718416213989</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6974782943726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7914724349976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5607576370239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2358140945435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2187242507935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2614517211914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0221881866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9196472167969</t>
+    <t xml:space="preserve">14.6974773406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7914714813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5607566833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2358150482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2187252044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2614507675171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0221900939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9196481704712</t>
   </si>
   <si>
     <t xml:space="preserve">14.9452838897705</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5007095336914</t>
+    <t xml:space="preserve">15.5007104873657</t>
   </si>
   <si>
     <t xml:space="preserve">15.0820035934448</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4240341186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2531356811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1847743988037</t>
+    <t xml:space="preserve">14.4240350723267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.253134727478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.184775352478</t>
   </si>
   <si>
     <t xml:space="preserve">14.2104082107544</t>
@@ -2702,22 +2702,22 @@
     <t xml:space="preserve">14.0309638977051</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1591396331787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2958583831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5351228713989</t>
+    <t xml:space="preserve">14.1591386795044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.295859336853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5351209640503</t>
   </si>
   <si>
     <t xml:space="preserve">14.7316570281982</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8341970443726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8256530761719</t>
+    <t xml:space="preserve">14.8341989517212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8256540298462</t>
   </si>
   <si>
     <t xml:space="preserve">14.5778455734253</t>
@@ -2732,7 +2732,7 @@
     <t xml:space="preserve">14.287314414978</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2189531326294</t>
+    <t xml:space="preserve">14.2189540863037</t>
   </si>
   <si>
     <t xml:space="preserve">13.9711484909058</t>
@@ -2741,22 +2741,22 @@
     <t xml:space="preserve">14.1249599456787</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0993242263794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5949363708496</t>
+    <t xml:space="preserve">14.0993232727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5949354171753</t>
   </si>
   <si>
     <t xml:space="preserve">14.4838514328003</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7572937011719</t>
+    <t xml:space="preserve">14.7572927474976</t>
   </si>
   <si>
     <t xml:space="preserve">14.6889324188232</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3556747436523</t>
+    <t xml:space="preserve">14.355673789978</t>
   </si>
   <si>
     <t xml:space="preserve">14.0651435852051</t>
@@ -2765,58 +2765,58 @@
     <t xml:space="preserve">14.0736875534058</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9796934127808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9540586471558</t>
+    <t xml:space="preserve">13.9796943664551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9540576934814</t>
   </si>
   <si>
     <t xml:space="preserve">14.0565996170044</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7746133804321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2445907592773</t>
+    <t xml:space="preserve">13.7746124267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.244589805603</t>
   </si>
   <si>
     <t xml:space="preserve">14.9965524673462</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1332721710205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4408950805664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.63743019104</t>
+    <t xml:space="preserve">15.1332740783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.440896987915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6374320983887</t>
   </si>
   <si>
     <t xml:space="preserve">15.8937835693359</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9365062713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0988655090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0732288360596</t>
+    <t xml:space="preserve">15.9365081787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0988636016846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0732307434082</t>
   </si>
   <si>
     <t xml:space="preserve">15.9279623031616</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7485160827637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7656097412109</t>
+    <t xml:space="preserve">15.7485179901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7656087875366</t>
   </si>
   <si>
     <t xml:space="preserve">15.9194173812866</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0903205871582</t>
+    <t xml:space="preserve">16.0903186798096</t>
   </si>
   <si>
     <t xml:space="preserve">16.5432071685791</t>
@@ -2828,10 +2828,10 @@
     <t xml:space="preserve">16.3723049163818</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1843147277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3295803070068</t>
+    <t xml:space="preserve">16.1843166351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3295822143555</t>
   </si>
   <si>
     <t xml:space="preserve">16.3210353851318</t>
@@ -2846,13 +2846,13 @@
     <t xml:space="preserve">16.2526741027832</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1928596496582</t>
+    <t xml:space="preserve">16.1928615570068</t>
   </si>
   <si>
     <t xml:space="preserve">16.1159534454346</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1501331329346</t>
+    <t xml:space="preserve">16.1501350402832</t>
   </si>
   <si>
     <t xml:space="preserve">16.1415882110596</t>
@@ -2864,10 +2864,10 @@
     <t xml:space="preserve">16.4064865112305</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5859317779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8081016540527</t>
+    <t xml:space="preserve">16.5859336853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8081035614014</t>
   </si>
   <si>
     <t xml:space="preserve">16.6799278259277</t>
@@ -2876,10 +2876,10 @@
     <t xml:space="preserve">16.6201114654541</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6970176696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7824687957764</t>
+    <t xml:space="preserve">16.6970195770264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7824668884277</t>
   </si>
   <si>
     <t xml:space="preserve">16.8166484832764</t>
@@ -2891,7 +2891,7 @@
     <t xml:space="preserve">16.4235744476318</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4406642913818</t>
+    <t xml:space="preserve">16.4406661987305</t>
   </si>
   <si>
     <t xml:space="preserve">16.5602970123291</t>
@@ -2912,22 +2912,22 @@
     <t xml:space="preserve">17.0473651885986</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5344333648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4831619262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2780799865723</t>
+    <t xml:space="preserve">17.5344314575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4831600189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2780780792236</t>
   </si>
   <si>
     <t xml:space="preserve">17.4318904876709</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6027927398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7736930847168</t>
+    <t xml:space="preserve">17.6027946472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7736911773682</t>
   </si>
   <si>
     <t xml:space="preserve">17.6711521148682</t>
@@ -2936,28 +2936,28 @@
     <t xml:space="preserve">17.5686111450195</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6882438659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8933238983154</t>
+    <t xml:space="preserve">17.6882419586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8933219909668</t>
   </si>
   <si>
     <t xml:space="preserve">17.7566032409668</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0813159942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2009449005127</t>
+    <t xml:space="preserve">18.0813140869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2009429931641</t>
   </si>
   <si>
     <t xml:space="preserve">17.9878616333008</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7570190429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5261783599854</t>
+    <t xml:space="preserve">17.7570209503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5261764526367</t>
   </si>
   <si>
     <t xml:space="preserve">17.455150604248</t>
@@ -2972,10 +2972,10 @@
     <t xml:space="preserve">17.3042144775391</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2065505981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3130950927734</t>
+    <t xml:space="preserve">17.2065525054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3130931854248</t>
   </si>
   <si>
     <t xml:space="preserve">17.3841228485107</t>
@@ -2990,43 +2990,43 @@
     <t xml:space="preserve">17.2509441375732</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2331867218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3752422332764</t>
+    <t xml:space="preserve">17.2331886291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.375244140625</t>
   </si>
   <si>
     <t xml:space="preserve">17.3929996490479</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2420654296875</t>
+    <t xml:space="preserve">17.2420673370361</t>
   </si>
   <si>
     <t xml:space="preserve">17.1532802581787</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8247756958008</t>
+    <t xml:space="preserve">16.8247776031494</t>
   </si>
   <si>
     <t xml:space="preserve">16.8780460357666</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1088886260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3219718933105</t>
+    <t xml:space="preserve">17.1088905334473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3219738006592</t>
   </si>
   <si>
     <t xml:space="preserve">17.5350570678711</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4018802642822</t>
+    <t xml:space="preserve">17.4018783569336</t>
   </si>
   <si>
     <t xml:space="preserve">17.5972061157227</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7126293182373</t>
+    <t xml:space="preserve">17.7126274108887</t>
   </si>
   <si>
     <t xml:space="preserve">17.4462718963623</t>
@@ -3041,10 +3041,10 @@
     <t xml:space="preserve">18.0766468048096</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2897300720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4317855834961</t>
+    <t xml:space="preserve">18.2897319793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4317874908447</t>
   </si>
   <si>
     <t xml:space="preserve">18.7869262695312</t>
@@ -3059,16 +3059,16 @@
     <t xml:space="preserve">18.3252429962158</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9523468017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7747764587402</t>
+    <t xml:space="preserve">17.9523448944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7747783660889</t>
   </si>
   <si>
     <t xml:space="preserve">18.1476745605469</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9168319702148</t>
+    <t xml:space="preserve">17.9168338775635</t>
   </si>
   <si>
     <t xml:space="preserve">18.0411319732666</t>
@@ -3077,7 +3077,7 @@
     <t xml:space="preserve">17.8458042144775</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0588893890381</t>
+    <t xml:space="preserve">18.0588874816895</t>
   </si>
   <si>
     <t xml:space="preserve">17.7925338745117</t>
@@ -3086,7 +3086,7 @@
     <t xml:space="preserve">17.7481422424316</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6771144866943</t>
+    <t xml:space="preserve">17.6771125793457</t>
   </si>
   <si>
     <t xml:space="preserve">18.0056190490723</t>
@@ -3095,7 +3095,7 @@
     <t xml:space="preserve">18.0233745574951</t>
   </si>
   <si>
-    <t xml:space="preserve">17.863561630249</t>
+    <t xml:space="preserve">17.8635635375977</t>
   </si>
   <si>
     <t xml:space="preserve">17.5439357757568</t>
@@ -3113,10 +3113,10 @@
     <t xml:space="preserve">16.3719730377197</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5672988891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5761775970459</t>
+    <t xml:space="preserve">16.5673007965088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5761795043945</t>
   </si>
   <si>
     <t xml:space="preserve">16.5495414733887</t>
@@ -3137,10 +3137,10 @@
     <t xml:space="preserve">16.4252433776855</t>
   </si>
   <si>
-    <t xml:space="preserve">16.700475692749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2299175262451</t>
+    <t xml:space="preserve">16.7004776000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2299156188965</t>
   </si>
   <si>
     <t xml:space="preserve">16.3542156219482</t>
@@ -3161,7 +3161,7 @@
     <t xml:space="preserve">17.0201034545898</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6560859680176</t>
+    <t xml:space="preserve">16.6560840606689</t>
   </si>
   <si>
     <t xml:space="preserve">16.6294479370117</t>
@@ -3170,19 +3170,19 @@
     <t xml:space="preserve">16.966833114624</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8691692352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8070182800293</t>
+    <t xml:space="preserve">16.8691673278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8070201873779</t>
   </si>
   <si>
     <t xml:space="preserve">17.1799163818359</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7271137237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6738433837891</t>
+    <t xml:space="preserve">16.7271118164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6738414764404</t>
   </si>
   <si>
     <t xml:space="preserve">16.7537479400635</t>
@@ -3197,19 +3197,19 @@
     <t xml:space="preserve">16.1588897705078</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2121601104736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6883277893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8215036392212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.874773979187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1233749389648</t>
+    <t xml:space="preserve">16.212158203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.688325881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8215045928955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8747749328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1233730316162</t>
   </si>
   <si>
     <t xml:space="preserve">15.8658981323242</t>
@@ -3221,7 +3221,7 @@
     <t xml:space="preserve">16.2565517425537</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1677646636963</t>
+    <t xml:space="preserve">16.1677665710449</t>
   </si>
   <si>
     <t xml:space="preserve">16.096736907959</t>
@@ -3245,10 +3245,10 @@
     <t xml:space="preserve">16.1144943237305</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9014110565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7327184677124</t>
+    <t xml:space="preserve">15.9014101028442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7327194213867</t>
   </si>
   <si>
     <t xml:space="preserve">15.6616907119751</t>
@@ -3257,34 +3257,34 @@
     <t xml:space="preserve">15.537392616272</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6972055435181</t>
+    <t xml:space="preserve">15.6972045898438</t>
   </si>
   <si>
     <t xml:space="preserve">15.2976722717285</t>
   </si>
   <si>
-    <t xml:space="preserve">15.200008392334</t>
+    <t xml:space="preserve">15.2000102996826</t>
   </si>
   <si>
     <t xml:space="preserve">15.3154296875</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2710380554199</t>
+    <t xml:space="preserve">15.2710371017456</t>
   </si>
   <si>
     <t xml:space="preserve">14.9691677093506</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0313177108765</t>
+    <t xml:space="preserve">15.0313167572021</t>
   </si>
   <si>
     <t xml:space="preserve">15.3065509796143</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4486074447632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8925333023071</t>
+    <t xml:space="preserve">15.4486064910889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8925313949585</t>
   </si>
   <si>
     <t xml:space="preserve">15.8481407165527</t>
@@ -3296,16 +3296,16 @@
     <t xml:space="preserve">15.3420658111572</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0934658050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7028121948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9425315856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9336528778076</t>
+    <t xml:space="preserve">15.093466758728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7028112411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9425325393677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9336538314819</t>
   </si>
   <si>
     <t xml:space="preserve">14.6495409011841</t>
@@ -3320,7 +3320,7 @@
     <t xml:space="preserve">14.827112197876</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4986066818237</t>
+    <t xml:space="preserve">14.4986057281494</t>
   </si>
   <si>
     <t xml:space="preserve">14.4719705581665</t>
@@ -3329,10 +3329,10 @@
     <t xml:space="preserve">14.6229047775269</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0135593414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1112232208252</t>
+    <t xml:space="preserve">15.013560295105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1112241744995</t>
   </si>
   <si>
     <t xml:space="preserve">14.5962705612183</t>
@@ -3341,10 +3341,10 @@
     <t xml:space="preserve">14.4009428024292</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2233734130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0546817779541</t>
+    <t xml:space="preserve">14.2233724594116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0546808242798</t>
   </si>
   <si>
     <t xml:space="preserve">13.9392604827881</t>
@@ -3359,13 +3359,13 @@
     <t xml:space="preserve">14.5163640975952</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1789808273315</t>
+    <t xml:space="preserve">14.1789798736572</t>
   </si>
   <si>
     <t xml:space="preserve">13.9747743606567</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3476715087891</t>
+    <t xml:space="preserve">14.3476724624634</t>
   </si>
   <si>
     <t xml:space="preserve">14.2766437530518</t>
@@ -3377,10 +3377,10 @@
     <t xml:space="preserve">14.5341215133667</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6761770248413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9869232177734</t>
+    <t xml:space="preserve">14.6761779785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9869241714478</t>
   </si>
   <si>
     <t xml:space="preserve">14.8004760742188</t>
@@ -3392,28 +3392,28 @@
     <t xml:space="preserve">14.8626251220703</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7649612426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1733732223511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4930000305176</t>
+    <t xml:space="preserve">14.7649602890015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1733741760254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4929990768433</t>
   </si>
   <si>
     <t xml:space="preserve">15.3509435653687</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9958019256592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0401954650879</t>
+    <t xml:space="preserve">14.9958028793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0401964187622</t>
   </si>
   <si>
     <t xml:space="preserve">14.8448677062988</t>
   </si>
   <si>
-    <t xml:space="preserve">14.71169090271</t>
+    <t xml:space="preserve">14.7116899490356</t>
   </si>
   <si>
     <t xml:space="preserve">14.791597366333</t>
@@ -3425,7 +3425,7 @@
     <t xml:space="preserve">14.4098215103149</t>
   </si>
   <si>
-    <t xml:space="preserve">14.489727973938</t>
+    <t xml:space="preserve">14.4897270202637</t>
   </si>
   <si>
     <t xml:space="preserve">14.4808492660522</t>
@@ -3434,7 +3434,7 @@
     <t xml:space="preserve">14.3210353851318</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0990743637085</t>
+    <t xml:space="preserve">14.0990734100342</t>
   </si>
   <si>
     <t xml:space="preserve">14.2500076293945</t>
@@ -3452,7 +3452,7 @@
     <t xml:space="preserve">14.303279876709</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1612234115601</t>
+    <t xml:space="preserve">14.1612224578857</t>
   </si>
   <si>
     <t xml:space="preserve">14.2944011688232</t>
@@ -3482,10 +3482,10 @@
     <t xml:space="preserve">14.0280456542969</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8060827255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6462688446045</t>
+    <t xml:space="preserve">13.8060836791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6462697982788</t>
   </si>
   <si>
     <t xml:space="preserve">13.859354019165</t>
@@ -4539,6 +4539,9 @@
   </si>
   <si>
     <t xml:space="preserve">17.2000007629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3600006103516</t>
   </si>
 </sst>
 </file>
@@ -22864,7 +22867,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G692" t="s">
-        <v>442</v>
+        <v>507</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -22890,7 +22893,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G693" t="s">
-        <v>442</v>
+        <v>507</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -22994,7 +22997,7 @@
         <v>13.2299995422363</v>
       </c>
       <c r="G697" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -23020,7 +23023,7 @@
         <v>13.2799997329712</v>
       </c>
       <c r="G698" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -23072,7 +23075,7 @@
         <v>13.210000038147</v>
       </c>
       <c r="G700" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -23098,7 +23101,7 @@
         <v>12.9099998474121</v>
       </c>
       <c r="G701" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -23124,7 +23127,7 @@
         <v>12.75</v>
       </c>
       <c r="G702" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -23150,7 +23153,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G703" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -23280,7 +23283,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G708" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -23306,7 +23309,7 @@
         <v>12.25</v>
       </c>
       <c r="G709" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -23332,7 +23335,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G710" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -23358,7 +23361,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G711" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -23384,7 +23387,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G712" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -23410,7 +23413,7 @@
         <v>12.1099996566772</v>
       </c>
       <c r="G713" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -23436,7 +23439,7 @@
         <v>11.9700002670288</v>
       </c>
       <c r="G714" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -23462,7 +23465,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G715" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -23488,7 +23491,7 @@
         <v>11.6400003433228</v>
       </c>
       <c r="G716" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -23514,7 +23517,7 @@
         <v>11.5900001525879</v>
       </c>
       <c r="G717" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -23540,7 +23543,7 @@
         <v>11.3299999237061</v>
       </c>
       <c r="G718" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -23566,7 +23569,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G719" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -23592,7 +23595,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G720" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -23618,7 +23621,7 @@
         <v>11.1800003051758</v>
       </c>
       <c r="G721" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -23644,7 +23647,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G722" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -23670,7 +23673,7 @@
         <v>11.5</v>
       </c>
       <c r="G723" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -23696,7 +23699,7 @@
         <v>11.6099996566772</v>
       </c>
       <c r="G724" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -23722,7 +23725,7 @@
         <v>11.6700000762939</v>
       </c>
       <c r="G725" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -23748,7 +23751,7 @@
         <v>11.8100004196167</v>
       </c>
       <c r="G726" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -23774,7 +23777,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G727" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -23800,7 +23803,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G728" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -23826,7 +23829,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G729" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -23852,7 +23855,7 @@
         <v>11.8699998855591</v>
       </c>
       <c r="G730" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -23878,7 +23881,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G731" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -23904,7 +23907,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G732" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -23930,7 +23933,7 @@
         <v>12.7700004577637</v>
       </c>
       <c r="G733" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -23982,7 +23985,7 @@
         <v>12.4099998474121</v>
       </c>
       <c r="G735" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -24008,7 +24011,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G736" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -24034,7 +24037,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G737" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -24060,7 +24063,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G738" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -24086,7 +24089,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G739" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -24112,7 +24115,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G740" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -24138,7 +24141,7 @@
         <v>12.0100002288818</v>
       </c>
       <c r="G741" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -24164,7 +24167,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G742" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -24190,7 +24193,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G743" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -24216,7 +24219,7 @@
         <v>12</v>
       </c>
       <c r="G744" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -24242,7 +24245,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G745" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -24268,7 +24271,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G746" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -24294,7 +24297,7 @@
         <v>12</v>
       </c>
       <c r="G747" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -24320,7 +24323,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G748" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -24346,7 +24349,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G749" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -24372,7 +24375,7 @@
         <v>11.789999961853</v>
       </c>
       <c r="G750" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -24398,7 +24401,7 @@
         <v>11.8900003433228</v>
       </c>
       <c r="G751" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -24424,7 +24427,7 @@
         <v>11.5699996948242</v>
       </c>
       <c r="G752" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -24450,7 +24453,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G753" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -24476,7 +24479,7 @@
         <v>11.8100004196167</v>
       </c>
       <c r="G754" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -24502,7 +24505,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G755" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -24528,7 +24531,7 @@
         <v>12.1300001144409</v>
       </c>
       <c r="G756" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -24554,7 +24557,7 @@
         <v>11.75</v>
       </c>
       <c r="G757" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -24580,7 +24583,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G758" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -24606,7 +24609,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G759" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -24632,7 +24635,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G760" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -24658,7 +24661,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G761" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -24684,7 +24687,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G762" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -24710,7 +24713,7 @@
         <v>12.0100002288818</v>
       </c>
       <c r="G763" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -24736,7 +24739,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G764" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -24762,7 +24765,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G765" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -24788,7 +24791,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G766" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -24814,7 +24817,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G767" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -24840,7 +24843,7 @@
         <v>12.2399997711182</v>
       </c>
       <c r="G768" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -24866,7 +24869,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G769" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -24892,7 +24895,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G770" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -24918,7 +24921,7 @@
         <v>12.4799995422363</v>
       </c>
       <c r="G771" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -24944,7 +24947,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G772" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -25048,7 +25051,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G776" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -25152,7 +25155,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G780" t="s">
-        <v>442</v>
+        <v>507</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -25178,7 +25181,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G781" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -25204,7 +25207,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G782" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -25360,7 +25363,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G788" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -25386,7 +25389,7 @@
         <v>13.5</v>
       </c>
       <c r="G789" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -25412,7 +25415,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G790" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -25438,7 +25441,7 @@
         <v>13.1800003051758</v>
       </c>
       <c r="G791" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -25490,7 +25493,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G793" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -25516,7 +25519,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G794" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -25542,7 +25545,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G795" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -25568,7 +25571,7 @@
         <v>13.539999961853</v>
       </c>
       <c r="G796" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -25594,7 +25597,7 @@
         <v>13.5699996948242</v>
       </c>
       <c r="G797" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -25620,7 +25623,7 @@
         <v>13.4099998474121</v>
       </c>
       <c r="G798" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -25672,7 +25675,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G800" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -25698,7 +25701,7 @@
         <v>13.960000038147</v>
       </c>
       <c r="G801" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -25724,7 +25727,7 @@
         <v>13.8900003433228</v>
       </c>
       <c r="G802" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -25750,7 +25753,7 @@
         <v>13.9200000762939</v>
       </c>
       <c r="G803" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -25776,7 +25779,7 @@
         <v>13.75</v>
       </c>
       <c r="G804" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -25802,7 +25805,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G805" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -25828,7 +25831,7 @@
         <v>13.8800001144409</v>
       </c>
       <c r="G806" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -25854,7 +25857,7 @@
         <v>14.1199998855591</v>
       </c>
       <c r="G807" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -25880,7 +25883,7 @@
         <v>14.4300003051758</v>
       </c>
       <c r="G808" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -25906,7 +25909,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G809" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -25932,7 +25935,7 @@
         <v>14.9499998092651</v>
       </c>
       <c r="G810" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -25958,7 +25961,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G811" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -25984,7 +25987,7 @@
         <v>14.9899997711182</v>
       </c>
       <c r="G812" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -26010,7 +26013,7 @@
         <v>15.0500001907349</v>
       </c>
       <c r="G813" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -26036,7 +26039,7 @@
         <v>14.9399995803833</v>
       </c>
       <c r="G814" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -26062,7 +26065,7 @@
         <v>15.0900001525879</v>
       </c>
       <c r="G815" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -26088,7 +26091,7 @@
         <v>15.0600004196167</v>
       </c>
       <c r="G816" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -26114,7 +26117,7 @@
         <v>15.0900001525879</v>
       </c>
       <c r="G817" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -26140,7 +26143,7 @@
         <v>15.1800003051758</v>
       </c>
       <c r="G818" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -26166,7 +26169,7 @@
         <v>14.9399995803833</v>
       </c>
       <c r="G819" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -26192,7 +26195,7 @@
         <v>15.1099996566772</v>
       </c>
       <c r="G820" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -26218,7 +26221,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G821" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -26244,7 +26247,7 @@
         <v>14.9899997711182</v>
       </c>
       <c r="G822" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -26270,7 +26273,7 @@
         <v>15.1499996185303</v>
       </c>
       <c r="G823" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -26296,7 +26299,7 @@
         <v>15.1300001144409</v>
       </c>
       <c r="G824" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -26322,7 +26325,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G825" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -26348,7 +26351,7 @@
         <v>15.0699996948242</v>
       </c>
       <c r="G826" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -26374,7 +26377,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G827" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -26400,7 +26403,7 @@
         <v>15.3800001144409</v>
       </c>
       <c r="G828" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -26426,7 +26429,7 @@
         <v>16</v>
       </c>
       <c r="G829" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -26452,7 +26455,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G830" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -26478,7 +26481,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G831" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -26504,7 +26507,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G832" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -26530,7 +26533,7 @@
         <v>15.9399995803833</v>
       </c>
       <c r="G833" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -26556,7 +26559,7 @@
         <v>16.1200008392334</v>
       </c>
       <c r="G834" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -26582,7 +26585,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G835" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -26608,7 +26611,7 @@
         <v>15.9200000762939</v>
       </c>
       <c r="G836" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -26634,7 +26637,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G837" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -26660,7 +26663,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G838" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -26686,7 +26689,7 @@
         <v>15.4799995422363</v>
       </c>
       <c r="G839" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -26712,7 +26715,7 @@
         <v>15.5</v>
       </c>
       <c r="G840" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -26738,7 +26741,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G841" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -26764,7 +26767,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G842" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -26790,7 +26793,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G843" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -26816,7 +26819,7 @@
         <v>16.0400009155273</v>
       </c>
       <c r="G844" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -26842,7 +26845,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G845" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -26868,7 +26871,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G846" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -26894,7 +26897,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G847" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -26920,7 +26923,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G848" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -26946,7 +26949,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G849" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -26972,7 +26975,7 @@
         <v>16.3600006103516</v>
       </c>
       <c r="G850" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -26998,7 +27001,7 @@
         <v>16.3600006103516</v>
       </c>
       <c r="G851" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -27024,7 +27027,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G852" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -27050,7 +27053,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G853" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -27076,7 +27079,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G854" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -27102,7 +27105,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G855" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -27128,7 +27131,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G856" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -27154,7 +27157,7 @@
         <v>16.7199993133545</v>
       </c>
       <c r="G857" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -27180,7 +27183,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G858" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -27206,7 +27209,7 @@
         <v>16.5400009155273</v>
       </c>
       <c r="G859" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -27232,7 +27235,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G860" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -27258,7 +27261,7 @@
         <v>16.6200008392334</v>
       </c>
       <c r="G861" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -27284,7 +27287,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G862" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -27310,7 +27313,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G863" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -27336,7 +27339,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G864" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -27362,7 +27365,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G865" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -27388,7 +27391,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G866" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -27414,7 +27417,7 @@
         <v>16.6200008392334</v>
       </c>
       <c r="G867" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -27440,7 +27443,7 @@
         <v>16.6399993896484</v>
       </c>
       <c r="G868" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -27466,7 +27469,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G869" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -27492,7 +27495,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G870" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -27518,7 +27521,7 @@
         <v>17</v>
       </c>
       <c r="G871" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -27544,7 +27547,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G872" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -27570,7 +27573,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G873" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -27596,7 +27599,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G874" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -27622,7 +27625,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G875" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -27648,7 +27651,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G876" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -27674,7 +27677,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G877" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -27700,7 +27703,7 @@
         <v>17.6399993896484</v>
       </c>
       <c r="G878" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -27726,7 +27729,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G879" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -27752,7 +27755,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G880" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -27778,7 +27781,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G881" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -27804,7 +27807,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G882" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -27830,7 +27833,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G883" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -27856,7 +27859,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G884" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -27882,7 +27885,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G885" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -27908,7 +27911,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G886" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -27934,7 +27937,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G887" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -27960,7 +27963,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G888" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -27986,7 +27989,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G889" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -28012,7 +28015,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G890" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -28038,7 +28041,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G891" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -28064,7 +28067,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G892" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -28090,7 +28093,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G893" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -28116,7 +28119,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G894" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -28142,7 +28145,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G895" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -28168,7 +28171,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G896" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -28194,7 +28197,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G897" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -28220,7 +28223,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G898" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -28246,7 +28249,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G899" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -28272,7 +28275,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G900" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -28298,7 +28301,7 @@
         <v>17.5</v>
       </c>
       <c r="G901" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -28324,7 +28327,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G902" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -28350,7 +28353,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G903" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -28376,7 +28379,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G904" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -28402,7 +28405,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G905" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -28428,7 +28431,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G906" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -28454,7 +28457,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G907" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -28480,7 +28483,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G908" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -28506,7 +28509,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G909" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -28532,7 +28535,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G910" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -28558,7 +28561,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G911" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -28584,7 +28587,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G912" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -28610,7 +28613,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G913" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -28636,7 +28639,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G914" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -28662,7 +28665,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G915" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -28688,7 +28691,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G916" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -28714,7 +28717,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G917" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -28740,7 +28743,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G918" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -28766,7 +28769,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G919" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -28792,7 +28795,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G920" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -28818,7 +28821,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G921" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -28844,7 +28847,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G922" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -28870,7 +28873,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G923" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -28896,7 +28899,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G924" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -28922,7 +28925,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G925" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -28948,7 +28951,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G926" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -28974,7 +28977,7 @@
         <v>17.5</v>
       </c>
       <c r="G927" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -29000,7 +29003,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G928" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -29026,7 +29029,7 @@
         <v>17.5</v>
       </c>
       <c r="G929" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -29052,7 +29055,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G930" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -29078,7 +29081,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G931" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -29104,7 +29107,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G932" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -29130,7 +29133,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G933" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -29156,7 +29159,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G934" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -29182,7 +29185,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G935" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -29208,7 +29211,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G936" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -29234,7 +29237,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G937" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -29260,7 +29263,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G938" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -29286,7 +29289,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G939" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -29312,7 +29315,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G940" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -29338,7 +29341,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G941" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -29364,7 +29367,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G942" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -29390,7 +29393,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G943" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -29416,7 +29419,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G944" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -29442,7 +29445,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G945" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -29468,7 +29471,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G946" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -29494,7 +29497,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G947" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -29520,7 +29523,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G948" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -29546,7 +29549,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G949" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -29572,7 +29575,7 @@
         <v>18.0400009155273</v>
       </c>
       <c r="G950" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -29598,7 +29601,7 @@
         <v>18.2600002288818</v>
       </c>
       <c r="G951" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -29624,7 +29627,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G952" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -29650,7 +29653,7 @@
         <v>18.3199996948242</v>
       </c>
       <c r="G953" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -29676,7 +29679,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G954" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -29702,7 +29705,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G955" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -29728,7 +29731,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G956" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -29754,7 +29757,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G957" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -29780,7 +29783,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G958" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -29806,7 +29809,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G959" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -29832,7 +29835,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G960" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -29858,7 +29861,7 @@
         <v>17.5</v>
       </c>
       <c r="G961" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -29884,7 +29887,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G962" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -29910,7 +29913,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G963" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -29936,7 +29939,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G964" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -29962,7 +29965,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G965" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -29988,7 +29991,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G966" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -30014,7 +30017,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G967" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -30040,7 +30043,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G968" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -30066,7 +30069,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G969" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -30092,7 +30095,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G970" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -30118,7 +30121,7 @@
         <v>17.5</v>
       </c>
       <c r="G971" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -30144,7 +30147,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G972" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -30170,7 +30173,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G973" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -30196,7 +30199,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G974" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -30222,7 +30225,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G975" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -30248,7 +30251,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G976" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -30274,7 +30277,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G977" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -30300,7 +30303,7 @@
         <v>17.9400005340576</v>
       </c>
       <c r="G978" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -30326,7 +30329,7 @@
         <v>17.9799995422363</v>
       </c>
       <c r="G979" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -30352,7 +30355,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G980" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -30378,7 +30381,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G981" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -30404,7 +30407,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G982" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -30430,7 +30433,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G983" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -30456,7 +30459,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G984" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -30482,7 +30485,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G985" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -30508,7 +30511,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G986" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -30534,7 +30537,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G987" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -30560,7 +30563,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G988" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -30586,7 +30589,7 @@
         <v>18.3400001525879</v>
       </c>
       <c r="G989" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -30612,7 +30615,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G990" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -30638,7 +30641,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G991" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -30664,7 +30667,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G992" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -30690,7 +30693,7 @@
         <v>18.4400005340576</v>
       </c>
       <c r="G993" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -30716,7 +30719,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G994" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -30742,7 +30745,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G995" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -30768,7 +30771,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G996" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -30794,7 +30797,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="G997" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -30820,7 +30823,7 @@
         <v>18.3400001525879</v>
       </c>
       <c r="G998" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -30846,7 +30849,7 @@
         <v>18.2199993133545</v>
       </c>
       <c r="G999" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -30872,7 +30875,7 @@
         <v>18.3400001525879</v>
       </c>
       <c r="G1000" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -30898,7 +30901,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1001" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -30924,7 +30927,7 @@
         <v>18.2399997711182</v>
       </c>
       <c r="G1002" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -30950,7 +30953,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G1003" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -30976,7 +30979,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G1004" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -31002,7 +31005,7 @@
         <v>18.9400005340576</v>
       </c>
       <c r="G1005" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -31028,7 +31031,7 @@
         <v>19.0200004577637</v>
       </c>
       <c r="G1006" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -31054,7 +31057,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1007" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -31080,7 +31083,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G1008" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -31106,7 +31109,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G1009" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -31132,7 +31135,7 @@
         <v>18.4799995422363</v>
       </c>
       <c r="G1010" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -31158,7 +31161,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G1011" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -31184,7 +31187,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G1012" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -31210,7 +31213,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G1013" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -31236,7 +31239,7 @@
         <v>18.4200000762939</v>
       </c>
       <c r="G1014" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -31262,7 +31265,7 @@
         <v>18.4400005340576</v>
       </c>
       <c r="G1015" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -31288,7 +31291,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1016" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -31314,7 +31317,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1017" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -31340,7 +31343,7 @@
         <v>18.0799999237061</v>
       </c>
       <c r="G1018" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -31366,7 +31369,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1019" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -31392,7 +31395,7 @@
         <v>17.9799995422363</v>
       </c>
       <c r="G1020" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -31418,7 +31421,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G1021" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -31444,7 +31447,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G1022" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -31470,7 +31473,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G1023" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -31496,7 +31499,7 @@
         <v>19.5599994659424</v>
       </c>
       <c r="G1024" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -31522,7 +31525,7 @@
         <v>19.5799999237061</v>
       </c>
       <c r="G1025" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -31548,7 +31551,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1026" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -31574,7 +31577,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1027" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -31600,7 +31603,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G1028" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -31626,7 +31629,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1029" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -31652,7 +31655,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1030" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -31678,7 +31681,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1031" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -31704,7 +31707,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1032" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -31730,7 +31733,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1033" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -31756,7 +31759,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G1034" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -31782,7 +31785,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1035" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -31808,7 +31811,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1036" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -31834,7 +31837,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1037" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -31860,7 +31863,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G1038" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -31886,7 +31889,7 @@
         <v>21.25</v>
       </c>
       <c r="G1039" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -31912,7 +31915,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1040" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -31938,7 +31941,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1041" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -31964,7 +31967,7 @@
         <v>21</v>
       </c>
       <c r="G1042" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -31990,7 +31993,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G1043" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -32016,7 +32019,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1044" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -32042,7 +32045,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1045" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -32068,7 +32071,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1046" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -32094,7 +32097,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G1047" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -32120,7 +32123,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1048" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -32146,7 +32149,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1049" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -32172,7 +32175,7 @@
         <v>21.5</v>
       </c>
       <c r="G1050" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -32198,7 +32201,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1051" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -32224,7 +32227,7 @@
         <v>21.25</v>
       </c>
       <c r="G1052" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -32250,7 +32253,7 @@
         <v>20.25</v>
       </c>
       <c r="G1053" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -32276,7 +32279,7 @@
         <v>19.9400005340576</v>
       </c>
       <c r="G1054" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -32302,7 +32305,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1055" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -32328,7 +32331,7 @@
         <v>19.5</v>
       </c>
       <c r="G1056" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -32354,7 +32357,7 @@
         <v>18.9400005340576</v>
       </c>
       <c r="G1057" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -32380,7 +32383,7 @@
         <v>19.0599994659424</v>
       </c>
       <c r="G1058" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -32406,7 +32409,7 @@
         <v>19.3600006103516</v>
       </c>
       <c r="G1059" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -32432,7 +32435,7 @@
         <v>19.6399993896484</v>
       </c>
       <c r="G1060" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -32458,7 +32461,7 @@
         <v>19.6599998474121</v>
       </c>
       <c r="G1061" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -32484,7 +32487,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G1062" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -32510,7 +32513,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G1063" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -32536,7 +32539,7 @@
         <v>16</v>
       </c>
       <c r="G1064" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -32562,7 +32565,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G1065" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -32588,7 +32591,7 @@
         <v>13.3599996566772</v>
       </c>
       <c r="G1066" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -32614,7 +32617,7 @@
         <v>13.8199996948242</v>
       </c>
       <c r="G1067" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -32640,7 +32643,7 @@
         <v>12.960000038147</v>
       </c>
       <c r="G1068" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -32666,7 +32669,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G1069" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -32692,7 +32695,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G1070" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -32718,7 +32721,7 @@
         <v>12.5799999237061</v>
       </c>
       <c r="G1071" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -32744,7 +32747,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G1072" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -32770,7 +32773,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G1073" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -32796,7 +32799,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1074" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -32822,7 +32825,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1075" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -32848,7 +32851,7 @@
         <v>14.3400001525879</v>
       </c>
       <c r="G1076" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -32874,7 +32877,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1077" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -32900,7 +32903,7 @@
         <v>14.5200004577637</v>
       </c>
       <c r="G1078" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -32926,7 +32929,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1079" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -32952,7 +32955,7 @@
         <v>14.75</v>
       </c>
       <c r="G1080" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -32978,7 +32981,7 @@
         <v>15.1700000762939</v>
       </c>
       <c r="G1081" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -33004,7 +33007,7 @@
         <v>14.9200000762939</v>
       </c>
       <c r="G1082" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -33030,7 +33033,7 @@
         <v>14.8699998855591</v>
       </c>
       <c r="G1083" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -33056,7 +33059,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1084" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -33082,7 +33085,7 @@
         <v>14.9799995422363</v>
       </c>
       <c r="G1085" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -33108,7 +33111,7 @@
         <v>15.3100004196167</v>
       </c>
       <c r="G1086" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -33134,7 +33137,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1087" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -33160,7 +33163,7 @@
         <v>13.8199996948242</v>
       </c>
       <c r="G1088" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -33186,7 +33189,7 @@
         <v>14.4499998092651</v>
       </c>
       <c r="G1089" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -33212,7 +33215,7 @@
         <v>14.5100002288818</v>
       </c>
       <c r="G1090" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -33238,7 +33241,7 @@
         <v>14.4099998474121</v>
       </c>
       <c r="G1091" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -33264,7 +33267,7 @@
         <v>14.2299995422363</v>
       </c>
       <c r="G1092" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -33290,7 +33293,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1093" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -33316,7 +33319,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1094" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -33342,7 +33345,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1095" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -33368,7 +33371,7 @@
         <v>14.75</v>
       </c>
       <c r="G1096" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -33394,7 +33397,7 @@
         <v>14.8100004196167</v>
       </c>
       <c r="G1097" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -33420,7 +33423,7 @@
         <v>15.3900003433228</v>
       </c>
       <c r="G1098" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -33446,7 +33449,7 @@
         <v>15.25</v>
       </c>
       <c r="G1099" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -33472,7 +33475,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1100" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -33498,7 +33501,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1101" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -33524,7 +33527,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1102" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -33550,7 +33553,7 @@
         <v>15.1800003051758</v>
       </c>
       <c r="G1103" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -33576,7 +33579,7 @@
         <v>15.5799999237061</v>
       </c>
       <c r="G1104" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -33602,7 +33605,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G1105" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -33628,7 +33631,7 @@
         <v>16.4099998474121</v>
       </c>
       <c r="G1106" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -33654,7 +33657,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G1107" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -33680,7 +33683,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G1108" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -33706,7 +33709,7 @@
         <v>17</v>
       </c>
       <c r="G1109" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -33732,7 +33735,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G1110" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -33758,7 +33761,7 @@
         <v>16.75</v>
       </c>
       <c r="G1111" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -33784,7 +33787,7 @@
         <v>16.8299999237061</v>
       </c>
       <c r="G1112" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -33810,7 +33813,7 @@
         <v>16.7900009155273</v>
       </c>
       <c r="G1113" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -33836,7 +33839,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G1114" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -33862,7 +33865,7 @@
         <v>17.2700004577637</v>
       </c>
       <c r="G1115" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -33888,7 +33891,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G1116" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -33914,7 +33917,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G1117" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -33940,7 +33943,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G1118" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -33966,7 +33969,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1119" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -33992,7 +33995,7 @@
         <v>17.5499992370605</v>
       </c>
       <c r="G1120" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -34018,7 +34021,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G1121" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -34044,7 +34047,7 @@
         <v>18.4099998474121</v>
       </c>
       <c r="G1122" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -34070,7 +34073,7 @@
         <v>18.6800003051758</v>
       </c>
       <c r="G1123" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -34096,7 +34099,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1124" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -34122,7 +34125,7 @@
         <v>19</v>
       </c>
       <c r="G1125" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -34148,7 +34151,7 @@
         <v>18.3099994659424</v>
       </c>
       <c r="G1126" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -34174,7 +34177,7 @@
         <v>18.2299995422363</v>
       </c>
       <c r="G1127" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -34200,7 +34203,7 @@
         <v>17.7099990844727</v>
       </c>
       <c r="G1128" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -34226,7 +34229,7 @@
         <v>17.6700000762939</v>
       </c>
       <c r="G1129" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -34252,7 +34255,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1130" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -34278,7 +34281,7 @@
         <v>18.25</v>
       </c>
       <c r="G1131" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -34304,7 +34307,7 @@
         <v>18.25</v>
       </c>
       <c r="G1132" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -34330,7 +34333,7 @@
         <v>17.9899997711182</v>
       </c>
       <c r="G1133" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -34356,7 +34359,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G1134" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -34382,7 +34385,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1135" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -34408,7 +34411,7 @@
         <v>17.4099998474121</v>
       </c>
       <c r="G1136" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -34434,7 +34437,7 @@
         <v>17</v>
       </c>
       <c r="G1137" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -34460,7 +34463,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G1138" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -34486,7 +34489,7 @@
         <v>17.0300006866455</v>
       </c>
       <c r="G1139" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -34512,7 +34515,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G1140" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -34538,7 +34541,7 @@
         <v>17.0900001525879</v>
       </c>
       <c r="G1141" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -34564,7 +34567,7 @@
         <v>17.3700008392334</v>
       </c>
       <c r="G1142" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -34590,7 +34593,7 @@
         <v>17.5300006866455</v>
       </c>
       <c r="G1143" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -34616,7 +34619,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1144" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -34642,7 +34645,7 @@
         <v>17.5100002288818</v>
       </c>
       <c r="G1145" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -34668,7 +34671,7 @@
         <v>17.2900009155273</v>
       </c>
       <c r="G1146" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -34694,7 +34697,7 @@
         <v>17.3700008392334</v>
       </c>
       <c r="G1147" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -34720,7 +34723,7 @@
         <v>16.9899997711182</v>
       </c>
       <c r="G1148" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -34746,7 +34749,7 @@
         <v>16.9300003051758</v>
       </c>
       <c r="G1149" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -34772,7 +34775,7 @@
         <v>16.9899997711182</v>
       </c>
       <c r="G1150" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -34798,7 +34801,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G1151" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -34824,7 +34827,7 @@
         <v>16.5799999237061</v>
       </c>
       <c r="G1152" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -34850,7 +34853,7 @@
         <v>16.7700004577637</v>
       </c>
       <c r="G1153" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -34876,7 +34879,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1154" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -34902,7 +34905,7 @@
         <v>17.2099990844727</v>
       </c>
       <c r="G1155" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -34928,7 +34931,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G1156" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -34954,7 +34957,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1157" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -34980,7 +34983,7 @@
         <v>17.0699996948242</v>
       </c>
       <c r="G1158" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -35006,7 +35009,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G1159" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -35032,7 +35035,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1160" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -35058,7 +35061,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G1161" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -35084,7 +35087,7 @@
         <v>17.25</v>
       </c>
       <c r="G1162" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -35110,7 +35113,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1163" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -35136,7 +35139,7 @@
         <v>17.3899993896484</v>
       </c>
       <c r="G1164" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -35162,7 +35165,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G1165" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -35188,7 +35191,7 @@
         <v>18.0300006866455</v>
       </c>
       <c r="G1166" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -35214,7 +35217,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1167" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -35240,7 +35243,7 @@
         <v>17.5</v>
       </c>
       <c r="G1168" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -35266,7 +35269,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G1169" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -35292,7 +35295,7 @@
         <v>17.9300003051758</v>
       </c>
       <c r="G1170" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -35318,7 +35321,7 @@
         <v>17.8899993896484</v>
       </c>
       <c r="G1171" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -35344,7 +35347,7 @@
         <v>17.9699993133545</v>
       </c>
       <c r="G1172" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -35370,7 +35373,7 @@
         <v>18.2099990844727</v>
       </c>
       <c r="G1173" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -35396,7 +35399,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G1174" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -35422,7 +35425,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G1175" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -35448,7 +35451,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G1176" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -35474,7 +35477,7 @@
         <v>17.6299991607666</v>
       </c>
       <c r="G1177" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -35500,7 +35503,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1178" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -35526,7 +35529,7 @@
         <v>17.2900009155273</v>
       </c>
       <c r="G1179" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -35552,7 +35555,7 @@
         <v>17.6299991607666</v>
       </c>
       <c r="G1180" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -35578,7 +35581,7 @@
         <v>17.6299991607666</v>
       </c>
       <c r="G1181" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -35604,7 +35607,7 @@
         <v>17.3899993896484</v>
       </c>
       <c r="G1182" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -35630,7 +35633,7 @@
         <v>17.2900009155273</v>
       </c>
       <c r="G1183" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -35656,7 +35659,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1184" t="s">
-        <v>843</v>
+        <v>690</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -35682,7 +35685,7 @@
         <v>17.25</v>
       </c>
       <c r="G1185" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -35890,7 +35893,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G1193" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -36124,7 +36127,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G1202" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -36150,7 +36153,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G1203" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -36592,7 +36595,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1220" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -36852,7 +36855,7 @@
         <v>17.3700008392334</v>
       </c>
       <c r="G1230" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -36878,7 +36881,7 @@
         <v>17.2099990844727</v>
       </c>
       <c r="G1231" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -36956,7 +36959,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1234" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -36982,7 +36985,7 @@
         <v>17.8899993896484</v>
       </c>
       <c r="G1235" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -37008,7 +37011,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1236" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -37086,7 +37089,7 @@
         <v>17.5100002288818</v>
       </c>
       <c r="G1239" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -37320,7 +37323,7 @@
         <v>17.8899993896484</v>
       </c>
       <c r="G1248" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -37398,7 +37401,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G1251" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -37476,7 +37479,7 @@
         <v>16.9300003051758</v>
       </c>
       <c r="G1254" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -37788,7 +37791,7 @@
         <v>16.7700004577637</v>
       </c>
       <c r="G1266" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -37814,7 +37817,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G1267" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -37840,7 +37843,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1268" t="s">
-        <v>843</v>
+        <v>690</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -37892,7 +37895,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1270" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -37918,7 +37921,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1271" t="s">
-        <v>843</v>
+        <v>690</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -37996,7 +37999,7 @@
         <v>17.0699996948242</v>
       </c>
       <c r="G1274" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -38048,7 +38051,7 @@
         <v>17.25</v>
       </c>
       <c r="G1276" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -38126,7 +38129,7 @@
         <v>17.3899993896484</v>
       </c>
       <c r="G1279" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -38204,7 +38207,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1282" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -38308,7 +38311,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G1286" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -38386,7 +38389,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G1289" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -38646,7 +38649,7 @@
         <v>17.5100002288818</v>
       </c>
       <c r="G1299" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -38698,7 +38701,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G1301" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -38724,7 +38727,7 @@
         <v>17.4099998474121</v>
       </c>
       <c r="G1302" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -38854,7 +38857,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G1307" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -39218,7 +39221,7 @@
         <v>17.8899993896484</v>
       </c>
       <c r="G1321" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -39244,7 +39247,7 @@
         <v>17.9699993133545</v>
       </c>
       <c r="G1322" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -60572,7 +60575,7 @@
     </row>
     <row r="2143">
       <c r="A2143" s="1" t="n">
-        <v>45446.6494907407</v>
+        <v>45446.2916666667</v>
       </c>
       <c r="B2143" t="n">
         <v>247012</v>
@@ -60581,7 +60584,7 @@
         <v>17.4099998474121</v>
       </c>
       <c r="D2143" t="n">
-        <v>17.2199993133545</v>
+        <v>17.2000007629395</v>
       </c>
       <c r="E2143" t="n">
         <v>17.3999996185303</v>
@@ -60593,6 +60596,32 @@
         <v>1508</v>
       </c>
       <c r="H2143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" s="1" t="n">
+        <v>45447.6493055556</v>
+      </c>
+      <c r="B2144" t="n">
+        <v>184908</v>
+      </c>
+      <c r="C2144" t="n">
+        <v>17.4099998474121</v>
+      </c>
+      <c r="D2144" t="n">
+        <v>17.1800003051758</v>
+      </c>
+      <c r="E2144" t="n">
+        <v>17.2099990844727</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>17.3600006103516</v>
+      </c>
+      <c r="G2144" t="s">
+        <v>1509</v>
+      </c>
+      <c r="H2144" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ACE.MI.xlsx
+++ b/data/ACE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="1512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="1513">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,37 +38,37 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50932598114014</t>
+    <t xml:space="preserve">9.50932693481445</t>
   </si>
   <si>
     <t xml:space="preserve">ACE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52303981781006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18023777008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33106803894043</t>
+    <t xml:space="preserve">9.52303886413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18023681640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33106899261475</t>
   </si>
   <si>
     <t xml:space="preserve">9.37906169891357</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52989387512207</t>
+    <t xml:space="preserve">9.52989482879639</t>
   </si>
   <si>
     <t xml:space="preserve">9.73557472229004</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60531139373779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18709278106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23508453369141</t>
+    <t xml:space="preserve">9.60531234741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18709182739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23508739471436</t>
   </si>
   <si>
     <t xml:space="preserve">9.07739639282227</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">9.27622127532959</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39277458190918</t>
+    <t xml:space="preserve">9.39277267456055</t>
   </si>
   <si>
     <t xml:space="preserve">9.40648651123047</t>
@@ -101,100 +101,100 @@
     <t xml:space="preserve">9.28307723999023</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25565338134766</t>
+    <t xml:space="preserve">9.25565242767334</t>
   </si>
   <si>
     <t xml:space="preserve">9.21451663970947</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83743572235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39864826202393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24781513214111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09012603759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25467014312744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48091983795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43978595733643</t>
+    <t xml:space="preserve">8.83743476867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39864730834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2478141784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09012699127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25467109680176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48092079162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43978404998779</t>
   </si>
   <si>
     <t xml:space="preserve">8.46720886230469</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46035289764404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23410415649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40550422668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49463367462158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35065650939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50148773193359</t>
+    <t xml:space="preserve">8.46035385131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23410224914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40550327301025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49463176727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3506555557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50148868560791</t>
   </si>
   <si>
     <t xml:space="preserve">8.41236114501953</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55633640289307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45349597930908</t>
+    <t xml:space="preserve">8.55633735656738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4534969329834</t>
   </si>
   <si>
     <t xml:space="preserve">8.37808036804199</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33008670806885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86485862731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26936626434326</t>
+    <t xml:space="preserve">8.33008861541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86485958099365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26936531066895</t>
   </si>
   <si>
     <t xml:space="preserve">9.59845542907715</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7012939453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69443988800049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76985740661621</t>
+    <t xml:space="preserve">9.70129585266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69443893432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76985549926758</t>
   </si>
   <si>
     <t xml:space="preserve">9.71500873565674</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3653507232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31050300598145</t>
+    <t xml:space="preserve">9.36534881591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31050205230713</t>
   </si>
   <si>
     <t xml:space="preserve">9.22137355804443</t>
   </si>
   <si>
-    <t xml:space="preserve">9.351637840271</t>
+    <t xml:space="preserve">9.35163879394531</t>
   </si>
   <si>
     <t xml:space="preserve">9.39962959289551</t>
@@ -212,37 +212,37 @@
     <t xml:space="preserve">9.22822952270508</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37220573425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11853218078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7414493560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70716857910156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54948139190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61804008483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68660163879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73459529876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80315399169922</t>
+    <t xml:space="preserve">9.37220478057861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11853408813477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74145030975342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70716953277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54948043823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6180419921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68660259246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73459434509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80315494537354</t>
   </si>
   <si>
     <t xml:space="preserve">8.89913845062256</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84428977966309</t>
+    <t xml:space="preserve">8.8442907333374</t>
   </si>
   <si>
     <t xml:space="preserve">8.81001091003418</t>
@@ -251,7 +251,7 @@
     <t xml:space="preserve">8.70031356811523</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60432910919189</t>
+    <t xml:space="preserve">8.60432815551758</t>
   </si>
   <si>
     <t xml:space="preserve">8.94713115692139</t>
@@ -260,19 +260,19 @@
     <t xml:space="preserve">8.97455501556396</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04311561584473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87171363830566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7208833694458</t>
+    <t xml:space="preserve">9.04311656951904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87171459197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72088241577148</t>
   </si>
   <si>
     <t xml:space="preserve">8.65917778015137</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89228439331055</t>
+    <t xml:space="preserve">8.89228343963623</t>
   </si>
   <si>
     <t xml:space="preserve">8.85800361633301</t>
@@ -281,85 +281,85 @@
     <t xml:space="preserve">8.95398712158203</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06368541717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10481929779053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04997253417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91285037994385</t>
+    <t xml:space="preserve">9.06368446350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10482025146484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.049973487854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91285133361816</t>
   </si>
   <si>
     <t xml:space="preserve">8.58376121520996</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32323169708252</t>
+    <t xml:space="preserve">8.32323360443115</t>
   </si>
   <si>
     <t xml:space="preserve">8.36436748504639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20668029785156</t>
+    <t xml:space="preserve">8.20667934417725</t>
   </si>
   <si>
     <t xml:space="preserve">7.95300579071045</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58277988433838</t>
+    <t xml:space="preserve">7.58277940750122</t>
   </si>
   <si>
     <t xml:space="preserve">7.70618867874146</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71304321289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87758779525757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84174871444702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79874086380005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89909362792969</t>
+    <t xml:space="preserve">7.7130446434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87758827209473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84174966812134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79874229431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89909267425537</t>
   </si>
   <si>
     <t xml:space="preserve">7.80590963363647</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39016771316528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05327415466309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.182297706604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31132030487061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83458089828491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74139785766602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78440475463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66971778869629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50485610961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4690146446228</t>
+    <t xml:space="preserve">7.3901686668396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05327320098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18229722976685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31132125854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83458232879639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74139833450317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78440570831299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66971874237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50485515594482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46901559829712</t>
   </si>
   <si>
     <t xml:space="preserve">7.54786252975464</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">7.59087133407593</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45467948913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64821481704712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66255044937134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62671136856079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91342878341675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9062614440918</t>
+    <t xml:space="preserve">7.45467853546143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64821434020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66254997253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62671089172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91342926025391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90626096725464</t>
   </si>
   <si>
     <t xml:space="preserve">8.38651466369629</t>
@@ -395,10 +395,10 @@
     <t xml:space="preserve">8.92411136627197</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89544010162354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85960006713867</t>
+    <t xml:space="preserve">8.89544105529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85959911346436</t>
   </si>
   <si>
     <t xml:space="preserve">9.03163051605225</t>
@@ -407,7 +407,7 @@
     <t xml:space="preserve">9.04596710205078</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93127918243408</t>
+    <t xml:space="preserve">8.9312801361084</t>
   </si>
   <si>
     <t xml:space="preserve">8.90977573394775</t>
@@ -428,10 +428,10 @@
     <t xml:space="preserve">8.74491214752197</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58721733093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58005046844482</t>
+    <t xml:space="preserve">8.5872163772583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58004856109619</t>
   </si>
   <si>
     <t xml:space="preserve">8.56571292877197</t>
@@ -443,22 +443,22 @@
     <t xml:space="preserve">8.53704166412354</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37934684753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46536159515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.522705078125</t>
+    <t xml:space="preserve">8.37934589385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46536254882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52270698547363</t>
   </si>
   <si>
     <t xml:space="preserve">8.64456176757812</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61588859558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5083703994751</t>
+    <t xml:space="preserve">8.61588954925537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50836944580078</t>
   </si>
   <si>
     <t xml:space="preserve">8.54420948028564</t>
@@ -467,7 +467,7 @@
     <t xml:space="preserve">8.51553821563721</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30049896240234</t>
+    <t xml:space="preserve">8.30049800872803</t>
   </si>
   <si>
     <t xml:space="preserve">8.15713882446289</t>
@@ -479,13 +479,13 @@
     <t xml:space="preserve">8.26465892791748</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09979724884033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02094841003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99227666854858</t>
+    <t xml:space="preserve">8.09979629516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02094745635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99227619171143</t>
   </si>
   <si>
     <t xml:space="preserve">7.94210147857666</t>
@@ -494,61 +494,61 @@
     <t xml:space="preserve">7.96360492706299</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98510980606079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94926977157593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92776584625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92059755325317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95643758773804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93493270874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82024478912354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70555782318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79157543182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72706174850464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99944353103638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12846660614014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20014762878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35067558288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32200336456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45102691650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40085029602051</t>
+    <t xml:space="preserve">7.98510885238647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94926881790161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92776489257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92059659957886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95643663406372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93493223190308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82024621963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70555830001831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79157400131226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72706270217896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99944448471069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12846851348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20014667510986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35067462921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32200241088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45102596282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40085124969482</t>
   </si>
   <si>
     <t xml:space="preserve">8.42235469818115</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45819473266602</t>
+    <t xml:space="preserve">8.4581937789917</t>
   </si>
   <si>
     <t xml:space="preserve">8.28616237640381</t>
@@ -557,13 +557,13 @@
     <t xml:space="preserve">8.17147541046143</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25032329559326</t>
+    <t xml:space="preserve">8.25032234191895</t>
   </si>
   <si>
     <t xml:space="preserve">8.14997100830078</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07829189300537</t>
+    <t xml:space="preserve">8.07829284667969</t>
   </si>
   <si>
     <t xml:space="preserve">7.56936740875244</t>
@@ -572,55 +572,55 @@
     <t xml:space="preserve">7.26831293106079</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28981590270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23964071273804</t>
+    <t xml:space="preserve">7.28981685638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2396411895752</t>
   </si>
   <si>
     <t xml:space="preserve">7.16796112060547</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11778593063354</t>
+    <t xml:space="preserve">7.11778545379639</t>
   </si>
   <si>
     <t xml:space="preserve">7.16437721252441</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21813726425171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35432863235474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22530460357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29698467254639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21096897125244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11061811447144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59803819656372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8560848236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02811717987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27899551391602</t>
+    <t xml:space="preserve">7.21813535690308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35432815551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2253041267395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29698514938354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21096849441528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11061763763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59803915023804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85608625411987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02811431884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2789945602417</t>
   </si>
   <si>
     <t xml:space="preserve">8.22165203094482</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21448230743408</t>
+    <t xml:space="preserve">8.2144832611084</t>
   </si>
   <si>
     <t xml:space="preserve">8.16430854797363</t>
@@ -629,25 +629,25 @@
     <t xml:space="preserve">8.31483459472656</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30766582489014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47969818115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49403476715088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52987384796143</t>
+    <t xml:space="preserve">8.30766677856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47969722747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49403381347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52987289428711</t>
   </si>
   <si>
     <t xml:space="preserve">8.73057746887207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62305641174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67323207855225</t>
+    <t xml:space="preserve">8.62305736541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67323303222656</t>
   </si>
   <si>
     <t xml:space="preserve">8.12129974365234</t>
@@ -656,19 +656,19 @@
     <t xml:space="preserve">8.18581104278564</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25749015808105</t>
+    <t xml:space="preserve">8.25749206542969</t>
   </si>
   <si>
     <t xml:space="preserve">8.19297981262207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55854511260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50120258331299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42952346801758</t>
+    <t xml:space="preserve">8.55854415893555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50120162963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42952156066895</t>
   </si>
   <si>
     <t xml:space="preserve">8.44385719299316</t>
@@ -677,31 +677,31 @@
     <t xml:space="preserve">8.55137729644775</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60155296325684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66606426239014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5728816986084</t>
+    <t xml:space="preserve">8.60155487060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66606616973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57288074493408</t>
   </si>
   <si>
     <t xml:space="preserve">8.43669033050537</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81659317016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6875696182251</t>
+    <t xml:space="preserve">8.8165922164917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68756771087646</t>
   </si>
   <si>
     <t xml:space="preserve">8.76641750335693</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88827037811279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95278358459473</t>
+    <t xml:space="preserve">8.88827133178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95278453826904</t>
   </si>
   <si>
     <t xml:space="preserve">8.99579048156738</t>
@@ -710,13 +710,13 @@
     <t xml:space="preserve">9.07463836669922</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16782188415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11764717102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10330963134766</t>
+    <t xml:space="preserve">9.16782283782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11764621734619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10331058502197</t>
   </si>
   <si>
     <t xml:space="preserve">9.09614276885986</t>
@@ -725,19 +725,19 @@
     <t xml:space="preserve">9.14631748199463</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36135673522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35419082641602</t>
+    <t xml:space="preserve">9.36135768890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3541898727417</t>
   </si>
   <si>
     <t xml:space="preserve">9.32551765441895</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31834888458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23950290679932</t>
+    <t xml:space="preserve">9.31834983825684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.239501953125</t>
   </si>
   <si>
     <t xml:space="preserve">9.46170902252197</t>
@@ -752,7 +752,7 @@
     <t xml:space="preserve">9.36852550506592</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51905059814453</t>
+    <t xml:space="preserve">9.51905155181885</t>
   </si>
   <si>
     <t xml:space="preserve">9.52622032165527</t>
@@ -761,25 +761,25 @@
     <t xml:space="preserve">9.53338813781738</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46887588500977</t>
+    <t xml:space="preserve">9.46887683868408</t>
   </si>
   <si>
     <t xml:space="preserve">9.74125957489014</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59789943695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74842739105225</t>
+    <t xml:space="preserve">9.597900390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74842834472656</t>
   </si>
   <si>
     <t xml:space="preserve">9.77709865570068</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87028312683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.092490196228</t>
+    <t xml:space="preserve">9.87028217315674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0924882888794</t>
   </si>
   <si>
     <t xml:space="preserve">10.1498336791992</t>
@@ -788,31 +788,31 @@
     <t xml:space="preserve">9.95629787445068</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89895439147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94913101196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.157000541687</t>
+    <t xml:space="preserve">9.89895534515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94913005828857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1570014953613</t>
   </si>
   <si>
     <t xml:space="preserve">9.9706335067749</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98497009277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1785049438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2645196914673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2931909561157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3361978530884</t>
+    <t xml:space="preserve">9.98497104644775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.178505897522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2645206451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.29319190979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3361988067627</t>
   </si>
   <si>
     <t xml:space="preserve">10.4365520477295</t>
@@ -824,10 +824,10 @@
     <t xml:space="preserve">10.4293832778931</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3792066574097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4150457382202</t>
+    <t xml:space="preserve">10.379207611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4150476455688</t>
   </si>
   <si>
     <t xml:space="preserve">10.3218641281128</t>
@@ -839,7 +839,7 @@
     <t xml:space="preserve">10.515398979187</t>
   </si>
   <si>
-    <t xml:space="preserve">10.443717956543</t>
+    <t xml:space="preserve">10.4437189102173</t>
   </si>
   <si>
     <t xml:space="preserve">10.558406829834</t>
@@ -848,19 +848,19 @@
     <t xml:space="preserve">10.4078798294067</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3505363464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5227956771851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4104509353638</t>
+    <t xml:space="preserve">10.3505353927612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5227947235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4104518890381</t>
   </si>
   <si>
     <t xml:space="preserve">10.6126689910889</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5078163146973</t>
+    <t xml:space="preserve">10.5078153610229</t>
   </si>
   <si>
     <t xml:space="preserve">10.4478998184204</t>
@@ -872,19 +872,19 @@
     <t xml:space="preserve">10.1857662200928</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0584449768066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1183614730835</t>
+    <t xml:space="preserve">10.0584440231323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1183595657349</t>
   </si>
   <si>
     <t xml:space="preserve">9.93861103057861</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76635265350342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78133010864258</t>
+    <t xml:space="preserve">9.76635074615479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78133106231689</t>
   </si>
   <si>
     <t xml:space="preserve">9.88618469238281</t>
@@ -902,13 +902,13 @@
     <t xml:space="preserve">9.81128978729248</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0060157775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0434646606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0659332275391</t>
+    <t xml:space="preserve">10.0060167312622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0434637069702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0659322738647</t>
   </si>
   <si>
     <t xml:space="preserve">10.178277015686</t>
@@ -923,13 +923,13 @@
     <t xml:space="preserve">9.96107959747314</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0359754562378</t>
+    <t xml:space="preserve">10.0359745025635</t>
   </si>
   <si>
     <t xml:space="preserve">9.8187780380249</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87120532989502</t>
+    <t xml:space="preserve">9.87120628356934</t>
   </si>
   <si>
     <t xml:space="preserve">9.84873676300049</t>
@@ -938,7 +938,7 @@
     <t xml:space="preserve">9.42932319641113</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49672889709473</t>
+    <t xml:space="preserve">9.49672794342041</t>
   </si>
   <si>
     <t xml:space="preserve">9.45179176330566</t>
@@ -947,7 +947,7 @@
     <t xml:space="preserve">9.46677112579346</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6090726852417</t>
+    <t xml:space="preserve">9.60907173156738</t>
   </si>
   <si>
     <t xml:space="preserve">9.44430160522461</t>
@@ -956,16 +956,16 @@
     <t xml:space="preserve">9.33944892883301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21961688995361</t>
+    <t xml:space="preserve">9.2196159362793</t>
   </si>
   <si>
     <t xml:space="preserve">9.36940670013428</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37689590454102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30200099945068</t>
+    <t xml:space="preserve">9.37689685821533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.302001953125</t>
   </si>
   <si>
     <t xml:space="preserve">9.31698036193848</t>
@@ -974,10 +974,10 @@
     <t xml:space="preserve">9.2720422744751</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27953338623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21212768554688</t>
+    <t xml:space="preserve">9.27953243255615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21212673187256</t>
   </si>
   <si>
     <t xml:space="preserve">9.15970039367676</t>
@@ -989,7 +989,7 @@
     <t xml:space="preserve">9.12225246429443</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06233501434326</t>
+    <t xml:space="preserve">9.06233596801758</t>
   </si>
   <si>
     <t xml:space="preserve">9.03237819671631</t>
@@ -998,13 +998,13 @@
     <t xml:space="preserve">9.08480358123779</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25706386566162</t>
+    <t xml:space="preserve">9.2570629119873</t>
   </si>
   <si>
     <t xml:space="preserve">9.17467880249023</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28702068328857</t>
+    <t xml:space="preserve">9.28702163696289</t>
   </si>
   <si>
     <t xml:space="preserve">9.75137329101562</t>
@@ -1040,22 +1040,22 @@
     <t xml:space="preserve">9.72141456604004</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82626819610596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91614246368408</t>
+    <t xml:space="preserve">9.82626724243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9161434173584</t>
   </si>
   <si>
     <t xml:space="preserve">9.85622692108154</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8337574005127</t>
+    <t xml:space="preserve">9.83375835418701</t>
   </si>
   <si>
     <t xml:space="preserve">10.1558074951172</t>
   </si>
   <si>
-    <t xml:space="preserve">10.170786857605</t>
+    <t xml:space="preserve">10.1707859039307</t>
   </si>
   <si>
     <t xml:space="preserve">10.2756404876709</t>
@@ -1064,10 +1064,10 @@
     <t xml:space="preserve">10.2232131958008</t>
   </si>
   <si>
-    <t xml:space="preserve">10.358024597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.402961730957</t>
+    <t xml:space="preserve">10.3580255508423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4029626846313</t>
   </si>
   <si>
     <t xml:space="preserve">10.552752494812</t>
@@ -1082,34 +1082,34 @@
     <t xml:space="preserve">10.5302848815918</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5003271102905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8822908401489</t>
+    <t xml:space="preserve">10.5003261566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8822917938232</t>
   </si>
   <si>
     <t xml:space="preserve">10.9122495651245</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9347190856934</t>
+    <t xml:space="preserve">10.9347200393677</t>
   </si>
   <si>
     <t xml:space="preserve">10.8748035430908</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7999057769775</t>
+    <t xml:space="preserve">10.7999076843262</t>
   </si>
   <si>
     <t xml:space="preserve">10.7774391174316</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7325019836426</t>
+    <t xml:space="preserve">10.7325029373169</t>
   </si>
   <si>
     <t xml:space="preserve">10.5976896286011</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7474803924561</t>
+    <t xml:space="preserve">10.7474822998047</t>
   </si>
   <si>
     <t xml:space="preserve">10.6950540542603</t>
@@ -1121,10 +1121,10 @@
     <t xml:space="preserve">11.002124786377</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9646778106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0770206451416</t>
+    <t xml:space="preserve">10.9646768569946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0770215988159</t>
   </si>
   <si>
     <t xml:space="preserve">11.0171041488647</t>
@@ -1133,19 +1133,19 @@
     <t xml:space="preserve">10.9721670150757</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9496994018555</t>
+    <t xml:space="preserve">10.9496974945068</t>
   </si>
   <si>
     <t xml:space="preserve">11.3466424942017</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6573104858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7921237945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7022495269775</t>
+    <t xml:space="preserve">12.6573114395142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7921228408813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7022476196289</t>
   </si>
   <si>
     <t xml:space="preserve">12.7322063446045</t>
@@ -1157,28 +1157,28 @@
     <t xml:space="preserve">12.6498222351074</t>
   </si>
   <si>
-    <t xml:space="preserve">12.717227935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5524578094482</t>
+    <t xml:space="preserve">12.7172269821167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5524587631226</t>
   </si>
   <si>
     <t xml:space="preserve">12.2453870773315</t>
   </si>
   <si>
-    <t xml:space="preserve">12.148021697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0281915664673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3502416610718</t>
+    <t xml:space="preserve">12.1480236053467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.028190612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3502397537231</t>
   </si>
   <si>
     <t xml:space="preserve">11.9607858657837</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7061414718628</t>
+    <t xml:space="preserve">11.7061405181885</t>
   </si>
   <si>
     <t xml:space="preserve">11.5563507080078</t>
@@ -1187,34 +1187,34 @@
     <t xml:space="preserve">11.6836729049683</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6612033843994</t>
+    <t xml:space="preserve">11.6612043380737</t>
   </si>
   <si>
     <t xml:space="preserve">11.533881187439</t>
   </si>
   <si>
-    <t xml:space="preserve">11.578818321228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7585668563843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9682750701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0731296539307</t>
+    <t xml:space="preserve">11.5788192749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7585678100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9682741165161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.073127746582</t>
   </si>
   <si>
     <t xml:space="preserve">12.1555128097534</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9458065032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8559322357178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7510776519775</t>
+    <t xml:space="preserve">11.9458055496216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8559312820435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7510786056519</t>
   </si>
   <si>
     <t xml:space="preserve">11.8035049438477</t>
@@ -1223,7 +1223,7 @@
     <t xml:space="preserve">11.9832534790039</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0955972671509</t>
+    <t xml:space="preserve">12.0955963134766</t>
   </si>
   <si>
     <t xml:space="preserve">12.1630029678345</t>
@@ -1235,7 +1235,7 @@
     <t xml:space="preserve">12.3053035736084</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0881061553955</t>
+    <t xml:space="preserve">12.0881071090698</t>
   </si>
   <si>
     <t xml:space="preserve">11.9907445907593</t>
@@ -1247,7 +1247,7 @@
     <t xml:space="preserve">11.8709115982056</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7136297225952</t>
+    <t xml:space="preserve">11.7136306762695</t>
   </si>
   <si>
     <t xml:space="preserve">11.6537141799927</t>
@@ -1256,10 +1256,10 @@
     <t xml:space="preserve">11.6312456130981</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4589872360229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1668949127197</t>
+    <t xml:space="preserve">11.4589862823486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1668939590454</t>
   </si>
   <si>
     <t xml:space="preserve">10.9197397232056</t>
@@ -1268,10 +1268,10 @@
     <t xml:space="preserve">11.2717485427856</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9796562194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0994892120361</t>
+    <t xml:space="preserve">10.9796552658081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0994901657104</t>
   </si>
   <si>
     <t xml:space="preserve">11.1219568252563</t>
@@ -1280,19 +1280,19 @@
     <t xml:space="preserve">11.196852684021</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1519155502319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0320835113525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7250118255615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5153045654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.440408706665</t>
+    <t xml:space="preserve">11.1519165039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0320825576782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7250127792358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5153064727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4404106140137</t>
   </si>
   <si>
     <t xml:space="preserve">10.6650953292847</t>
@@ -1301,10 +1301,10 @@
     <t xml:space="preserve">10.6875648498535</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7025442123413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4628782272339</t>
+    <t xml:space="preserve">10.702543258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4628791809082</t>
   </si>
   <si>
     <t xml:space="preserve">10.5677328109741</t>
@@ -1316,10 +1316,10 @@
     <t xml:space="preserve">10.1932544708252</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1033802032471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2082347869873</t>
+    <t xml:space="preserve">10.1033792495728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.208233833313</t>
   </si>
   <si>
     <t xml:space="preserve">10.0284852981567</t>
@@ -1331,22 +1331,22 @@
     <t xml:space="preserve">10.32057762146</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2606620788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.215723991394</t>
+    <t xml:space="preserve">10.2606611251831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2157249450684</t>
   </si>
   <si>
     <t xml:space="preserve">10.1333389282227</t>
   </si>
   <si>
-    <t xml:space="preserve">10.283130645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4254302978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5452642440796</t>
+    <t xml:space="preserve">10.2831296920776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4254312515259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5452632904053</t>
   </si>
   <si>
     <t xml:space="preserve">10.6426277160645</t>
@@ -1355,7 +1355,7 @@
     <t xml:space="preserve">10.8373546600342</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8448438644409</t>
+    <t xml:space="preserve">10.8448448181152</t>
   </si>
   <si>
     <t xml:space="preserve">10.8073978424072</t>
@@ -1367,22 +1367,22 @@
     <t xml:space="preserve">10.8598232269287</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7924184799194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4778575897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7399921417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2906179428101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96856880187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72890377044678</t>
+    <t xml:space="preserve">10.7924175262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.477858543396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7399911880493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2906188964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9685697555542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72890472412109</t>
   </si>
   <si>
     <t xml:space="preserve">9.99103832244873</t>
@@ -1391,7 +1391,7 @@
     <t xml:space="preserve">10.3879823684692</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2438812255859</t>
+    <t xml:space="preserve">10.2438802719116</t>
   </si>
   <si>
     <t xml:space="preserve">10.2752799987793</t>
@@ -1403,7 +1403,7 @@
     <t xml:space="preserve">10.0790376663208</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1182870864868</t>
+    <t xml:space="preserve">10.1182861328125</t>
   </si>
   <si>
     <t xml:space="preserve">10.0162382125854</t>
@@ -1415,16 +1415,16 @@
     <t xml:space="preserve">9.99268817901611</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94559192657471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0005397796631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97699069976807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1653833389282</t>
+    <t xml:space="preserve">9.94559097290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0005388259888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97698974609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1653842926025</t>
   </si>
   <si>
     <t xml:space="preserve">10.2595806121826</t>
@@ -1439,22 +1439,22 @@
     <t xml:space="preserve">10.0711879730225</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0947370529175</t>
+    <t xml:space="preserve">10.0947360992432</t>
   </si>
   <si>
     <t xml:space="preserve">10.2046318054199</t>
   </si>
   <si>
-    <t xml:space="preserve">10.25172996521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0868873596191</t>
+    <t xml:space="preserve">10.2517309188843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0868883132935</t>
   </si>
   <si>
     <t xml:space="preserve">10.1496849060059</t>
   </si>
   <si>
-    <t xml:space="preserve">10.377326965332</t>
+    <t xml:space="preserve">10.3773260116577</t>
   </si>
   <si>
     <t xml:space="preserve">10.4401235580444</t>
@@ -1484,13 +1484,13 @@
     <t xml:space="preserve">10.5892686843872</t>
   </si>
   <si>
-    <t xml:space="preserve">10.683464050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5421714782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4558219909668</t>
+    <t xml:space="preserve">10.6834650039673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5421705245972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4558229446411</t>
   </si>
   <si>
     <t xml:space="preserve">10.5107717514038</t>
@@ -1505,13 +1505,13 @@
     <t xml:space="preserve">10.267430305481</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2281799316406</t>
+    <t xml:space="preserve">10.2281808853149</t>
   </si>
   <si>
     <t xml:space="preserve">10.0554885864258</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75719833374023</t>
+    <t xml:space="preserve">9.75719928741455</t>
   </si>
   <si>
     <t xml:space="preserve">9.63945293426514</t>
@@ -1523,25 +1523,25 @@
     <t xml:space="preserve">9.71794986724854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92989158630371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96913909912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1104354858398</t>
+    <t xml:space="preserve">9.92989063262939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96914005279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1104373931885</t>
   </si>
   <si>
     <t xml:space="preserve">10.2124824523926</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3851747512817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4244232177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3694753646851</t>
+    <t xml:space="preserve">10.3851757049561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4244241714478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3694772720337</t>
   </si>
   <si>
     <t xml:space="preserve">10.1339845657349</t>
@@ -1562,16 +1562,16 @@
     <t xml:space="preserve">9.41180992126465</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38041210174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28621578216553</t>
+    <t xml:space="preserve">9.38041114807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28621482849121</t>
   </si>
   <si>
     <t xml:space="preserve">9.50600624084473</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3961124420166</t>
+    <t xml:space="preserve">9.39611148834229</t>
   </si>
   <si>
     <t xml:space="preserve">9.14492130279541</t>
@@ -1589,7 +1589,7 @@
     <t xml:space="preserve">8.91727828979492</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92512798309326</t>
+    <t xml:space="preserve">8.92512893676758</t>
   </si>
   <si>
     <t xml:space="preserve">8.7759838104248</t>
@@ -1598,7 +1598,7 @@
     <t xml:space="preserve">9.011474609375</t>
   </si>
   <si>
-    <t xml:space="preserve">9.027174949646</t>
+    <t xml:space="preserve">9.02717399597168</t>
   </si>
   <si>
     <t xml:space="preserve">9.11352252960205</t>
@@ -1607,19 +1607,19 @@
     <t xml:space="preserve">9.16062068939209</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27051544189453</t>
+    <t xml:space="preserve">9.27051639556885</t>
   </si>
   <si>
     <t xml:space="preserve">9.24696636199951</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40396118164062</t>
+    <t xml:space="preserve">9.40396022796631</t>
   </si>
   <si>
     <t xml:space="preserve">9.31761455535889</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1261348724365</t>
+    <t xml:space="preserve">10.1261358261108</t>
   </si>
   <si>
     <t xml:space="preserve">10.0476388931274</t>
@@ -1628,7 +1628,7 @@
     <t xml:space="preserve">10.0240888595581</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74149894714355</t>
+    <t xml:space="preserve">9.74149990081787</t>
   </si>
   <si>
     <t xml:space="preserve">9.74934864044189</t>
@@ -1637,37 +1637,37 @@
     <t xml:space="preserve">9.57665538787842</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46675968170166</t>
+    <t xml:space="preserve">9.46675872802734</t>
   </si>
   <si>
     <t xml:space="preserve">9.48245811462402</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34116363525391</t>
+    <t xml:space="preserve">9.34116268157959</t>
   </si>
   <si>
     <t xml:space="preserve">9.42751121520996</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4196605682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29406452178955</t>
+    <t xml:space="preserve">9.41966152191162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29406547546387</t>
   </si>
   <si>
     <t xml:space="preserve">9.25481700897217</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33331394195557</t>
+    <t xml:space="preserve">9.33331489562988</t>
   </si>
   <si>
     <t xml:space="preserve">9.08212280273438</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7336483001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52170658111572</t>
+    <t xml:space="preserve">9.73364925384521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52170562744141</t>
   </si>
   <si>
     <t xml:space="preserve">9.22341823577881</t>
@@ -1676,34 +1676,34 @@
     <t xml:space="preserve">9.06642246246338</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26266670227051</t>
+    <t xml:space="preserve">9.26266574859619</t>
   </si>
   <si>
     <t xml:space="preserve">9.35686302185059</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53740501403809</t>
+    <t xml:space="preserve">9.5374059677124</t>
   </si>
   <si>
     <t xml:space="preserve">9.27836513519287</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43535995483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60805511474609</t>
+    <t xml:space="preserve">9.4353609085083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60805416107178</t>
   </si>
   <si>
     <t xml:space="preserve">9.77289772033691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79644680023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85139465332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2360315322876</t>
+    <t xml:space="preserve">9.79644775390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85139560699463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2360305786133</t>
   </si>
   <si>
     <t xml:space="preserve">10.5186214447021</t>
@@ -1715,16 +1715,16 @@
     <t xml:space="preserve">10.4793720245361</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3459272384644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5578708648682</t>
+    <t xml:space="preserve">10.3459281921387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5578699111938</t>
   </si>
   <si>
     <t xml:space="preserve">10.6913146972656</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6285171508789</t>
+    <t xml:space="preserve">10.6285181045532</t>
   </si>
   <si>
     <t xml:space="preserve">10.6520662307739</t>
@@ -1733,13 +1733,13 @@
     <t xml:space="preserve">10.5264711380005</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7148628234863</t>
+    <t xml:space="preserve">10.7148637771606</t>
   </si>
   <si>
     <t xml:space="preserve">10.9582052230835</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9032564163208</t>
+    <t xml:space="preserve">10.9032573699951</t>
   </si>
   <si>
     <t xml:space="preserve">10.9268054962158</t>
@@ -1751,10 +1751,10 @@
     <t xml:space="preserve">10.9111061096191</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8954076766968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0838003158569</t>
+    <t xml:space="preserve">10.8954067230225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0838012695312</t>
   </si>
   <si>
     <t xml:space="preserve">11.3271427154541</t>
@@ -1763,7 +1763,7 @@
     <t xml:space="preserve">11.4213380813599</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7353267669678</t>
+    <t xml:space="preserve">11.7353277206421</t>
   </si>
   <si>
     <t xml:space="preserve">11.9001703262329</t>
@@ -1772,10 +1772,10 @@
     <t xml:space="preserve">11.7667255401611</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8138246536255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7274780273438</t>
+    <t xml:space="preserve">11.8138236999512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7274770736694</t>
   </si>
   <si>
     <t xml:space="preserve">11.8452234268188</t>
@@ -1796,7 +1796,7 @@
     <t xml:space="preserve">11.8923206329346</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8766212463379</t>
+    <t xml:space="preserve">11.8766222000122</t>
   </si>
   <si>
     <t xml:space="preserve">11.8530731201172</t>
@@ -1805,7 +1805,7 @@
     <t xml:space="preserve">11.8295230865479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.072865486145</t>
+    <t xml:space="preserve">12.0728645324707</t>
   </si>
   <si>
     <t xml:space="preserve">12.5595474243164</t>
@@ -1814,13 +1814,13 @@
     <t xml:space="preserve">12.5752468109131</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7165422439575</t>
+    <t xml:space="preserve">12.7165412902832</t>
   </si>
   <si>
     <t xml:space="preserve">12.5124492645264</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6537456512451</t>
+    <t xml:space="preserve">12.6537446975708</t>
   </si>
   <si>
     <t xml:space="preserve">12.6380453109741</t>
@@ -1835,22 +1835,22 @@
     <t xml:space="preserve">12.1513624191284</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1670627593994</t>
+    <t xml:space="preserve">12.1670618057251</t>
   </si>
   <si>
     <t xml:space="preserve">12.3711538314819</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5909471511841</t>
+    <t xml:space="preserve">12.5909461975098</t>
   </si>
   <si>
     <t xml:space="preserve">12.6223459243774</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7008428573608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6851434707642</t>
+    <t xml:space="preserve">12.7008419036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6851425170898</t>
   </si>
   <si>
     <t xml:space="preserve">12.842137336731</t>
@@ -1862,7 +1862,7 @@
     <t xml:space="preserve">13.1090288162231</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2032241821289</t>
+    <t xml:space="preserve">13.2032232284546</t>
   </si>
   <si>
     <t xml:space="preserve">13.3916168212891</t>
@@ -1871,25 +1871,25 @@
     <t xml:space="preserve">13.2503213882446</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1247272491455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0776281356812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9834337234497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9206342697144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0462293624878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1561260223389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1718273162842</t>
+    <t xml:space="preserve">13.1247262954712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0776290893555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9834327697754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.92063331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0462312698364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1561269760132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1718263626099</t>
   </si>
   <si>
     <t xml:space="preserve">13.0933284759521</t>
@@ -1907,67 +1907,67 @@
     <t xml:space="preserve">13.4858150482178</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5800094604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6114110946655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6585063934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7527046203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.831202507019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.84690284729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8626012802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9253988265991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0038957595825</t>
+    <t xml:space="preserve">13.5800113677979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6114101409912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6585073471069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.752703666687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8312034606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8468999862671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8626003265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9253969192505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0038938522339</t>
   </si>
   <si>
     <t xml:space="preserve">13.9724950790405</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0509929656982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1736040115356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0101232528687</t>
+    <t xml:space="preserve">14.0509939193726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1736030578613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0101251602173</t>
   </si>
   <si>
     <t xml:space="preserve">13.9774284362793</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6995143890381</t>
+    <t xml:space="preserve">13.6995153427124</t>
   </si>
   <si>
     <t xml:space="preserve">13.6831665039062</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6177749633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7649049758911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1572542190552</t>
+    <t xml:space="preserve">13.6177759170532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7649059295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1572551727295</t>
   </si>
   <si>
     <t xml:space="preserve">14.0755157470703</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8629932403564</t>
+    <t xml:space="preserve">13.8629922866821</t>
   </si>
   <si>
     <t xml:space="preserve">13.9120378494263</t>
@@ -1976,13 +1976,13 @@
     <t xml:space="preserve">14.0918636322021</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0264720916748</t>
+    <t xml:space="preserve">14.0264730453491</t>
   </si>
   <si>
     <t xml:space="preserve">14.2389945983887</t>
   </si>
   <si>
-    <t xml:space="preserve">14.140905380249</t>
+    <t xml:space="preserve">14.1409072875977</t>
   </si>
   <si>
     <t xml:space="preserve">14.1245603561401</t>
@@ -1997,28 +1997,28 @@
     <t xml:space="preserve">14.042820930481</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0591678619385</t>
+    <t xml:space="preserve">14.0591697692871</t>
   </si>
   <si>
     <t xml:space="preserve">13.9283857345581</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2716884613037</t>
+    <t xml:space="preserve">14.271689414978</t>
   </si>
   <si>
     <t xml:space="preserve">14.2062978744507</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2553434371948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4515171051025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.500560760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4351692199707</t>
+    <t xml:space="preserve">14.2553424835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4515180587769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5005588531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4351682662964</t>
   </si>
   <si>
     <t xml:space="preserve">14.3534297943115</t>
@@ -2027,16 +2027,16 @@
     <t xml:space="preserve">14.5332565307617</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4842128753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4678640365601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.402473449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3207340240479</t>
+    <t xml:space="preserve">14.4842119216919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4678649902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4024744033813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3207330703735</t>
   </si>
   <si>
     <t xml:space="preserve">14.5496025085449</t>
@@ -2048,31 +2048,31 @@
     <t xml:space="preserve">13.9447317123413</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2226448059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8793411254883</t>
+    <t xml:space="preserve">14.2226457595825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.879340171814</t>
   </si>
   <si>
     <t xml:space="preserve">14.8765621185303</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7457790374756</t>
+    <t xml:space="preserve">14.7457799911499</t>
   </si>
   <si>
     <t xml:space="preserve">14.9256048202515</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7621240615845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.974648475647</t>
+    <t xml:space="preserve">14.7621250152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9746475219727</t>
   </si>
   <si>
     <t xml:space="preserve">14.3370819091797</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5823001861572</t>
+    <t xml:space="preserve">14.5822982788086</t>
   </si>
   <si>
     <t xml:space="preserve">14.5659513473511</t>
@@ -2081,34 +2081,34 @@
     <t xml:space="preserve">14.2880373001099</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6803855895996</t>
+    <t xml:space="preserve">14.6803865432739</t>
   </si>
   <si>
     <t xml:space="preserve">14.6640405654907</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6967334747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6476898193359</t>
+    <t xml:space="preserve">14.6967353820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6476917266846</t>
   </si>
   <si>
     <t xml:space="preserve">14.5169076919556</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2198667526245</t>
+    <t xml:space="preserve">15.2198648452759</t>
   </si>
   <si>
     <t xml:space="preserve">15.4160423278809</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9909963607788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2035207748413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4487380981445</t>
+    <t xml:space="preserve">14.9909973144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2035188674927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4487361907959</t>
   </si>
   <si>
     <t xml:space="preserve">15.2362127304077</t>
@@ -2117,7 +2117,7 @@
     <t xml:space="preserve">15.072735786438</t>
   </si>
   <si>
-    <t xml:space="preserve">15.334300994873</t>
+    <t xml:space="preserve">15.3343019485474</t>
   </si>
   <si>
     <t xml:space="preserve">15.4323883056641</t>
@@ -2132,43 +2132,43 @@
     <t xml:space="preserve">14.8602142333984</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2525625228882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4814319610596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5468235015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2852582931519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1381273269653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1054315567017</t>
+    <t xml:space="preserve">15.2525606155396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4814338684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5468254089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2852602005005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1381254196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.105429649353</t>
   </si>
   <si>
     <t xml:space="preserve">15.0563879013062</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9583015441895</t>
+    <t xml:space="preserve">14.9583005905151</t>
   </si>
   <si>
     <t xml:space="preserve">14.7784748077393</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6313419342041</t>
+    <t xml:space="preserve">14.6313428878784</t>
   </si>
   <si>
     <t xml:space="preserve">15.3506498336792</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9882173538208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0045623779297</t>
+    <t xml:space="preserve">15.9882154464722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0045642852783</t>
   </si>
   <si>
     <t xml:space="preserve">16.1843910217285</t>
@@ -2183,7 +2183,7 @@
     <t xml:space="preserve">16.5113487243652</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5930862426758</t>
+    <t xml:space="preserve">16.5930881500244</t>
   </si>
   <si>
     <t xml:space="preserve">17.0017833709717</t>
@@ -2192,10 +2192,10 @@
     <t xml:space="preserve">17.2061328887939</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6148281097412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8191757202148</t>
+    <t xml:space="preserve">17.6148300170898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8191776275635</t>
   </si>
   <si>
     <t xml:space="preserve">17.7374382019043</t>
@@ -2210,10 +2210,10 @@
     <t xml:space="preserve">17.2878723144531</t>
   </si>
   <si>
-    <t xml:space="preserve">17.16526222229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0426559448242</t>
+    <t xml:space="preserve">17.1652641296387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0426540374756</t>
   </si>
   <si>
     <t xml:space="preserve">17.0835227966309</t>
@@ -2255,7 +2255,7 @@
     <t xml:space="preserve">13.0782957077026</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6859464645386</t>
+    <t xml:space="preserve">12.6859474182129</t>
   </si>
   <si>
     <t xml:space="preserve">10.9203758239746</t>
@@ -2264,28 +2264,28 @@
     <t xml:space="preserve">11.2963771820068</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5934200286865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6588115692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1356782913208</t>
+    <t xml:space="preserve">10.5934190750122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6588106155396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1356792449951</t>
   </si>
   <si>
     <t xml:space="preserve">10.2828092575073</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5443754196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6751585006714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6723794937134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8358564376831</t>
+    <t xml:space="preserve">10.544376373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6751594543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6723785400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8358573913574</t>
   </si>
   <si>
     <t xml:space="preserve">11.7214231491089</t>
@@ -2297,10 +2297,10 @@
     <t xml:space="preserve">11.8685531616211</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0565528869629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3998594284058</t>
+    <t xml:space="preserve">12.0565538406372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3998584747314</t>
   </si>
   <si>
     <t xml:space="preserve">12.1955108642578</t>
@@ -2309,10 +2309,10 @@
     <t xml:space="preserve">12.1546411514282</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1791620254517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.244553565979</t>
+    <t xml:space="preserve">12.179162979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2445526123047</t>
   </si>
   <si>
     <t xml:space="preserve">12.5142946243286</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">11.9829883575439</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8113346099854</t>
+    <t xml:space="preserve">11.8113355636597</t>
   </si>
   <si>
     <t xml:space="preserve">11.8603792190552</t>
@@ -2330,10 +2330,10 @@
     <t xml:space="preserve">11.778639793396</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6315088272095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1055974960327</t>
+    <t xml:space="preserve">11.6315078735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.105598449707</t>
   </si>
   <si>
     <t xml:space="preserve">12.579686164856</t>
@@ -2342,13 +2342,13 @@
     <t xml:space="preserve">12.4652509689331</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7513389587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.241774559021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8330764770508</t>
+    <t xml:space="preserve">12.7513380050659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2417736053467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8330774307251</t>
   </si>
   <si>
     <t xml:space="preserve">12.4080333709717</t>
@@ -2357,28 +2357,28 @@
     <t xml:space="preserve">12.7349901199341</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9802083969116</t>
+    <t xml:space="preserve">12.9802093505859</t>
   </si>
   <si>
     <t xml:space="preserve">13.4134273529053</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7485580444336</t>
+    <t xml:space="preserve">13.7485570907593</t>
   </si>
   <si>
     <t xml:space="preserve">13.8956890106201</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6913414001465</t>
+    <t xml:space="preserve">13.6913404464722</t>
   </si>
   <si>
     <t xml:space="preserve">13.7567319869995</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7240371704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1163845062256</t>
+    <t xml:space="preserve">13.7240362167358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1163854598999</t>
   </si>
   <si>
     <t xml:space="preserve">14.2635154724121</t>
@@ -2402,7 +2402,7 @@
     <t xml:space="preserve">15.5304756164551</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9664735794067</t>
+    <t xml:space="preserve">14.9664745330811</t>
   </si>
   <si>
     <t xml:space="preserve">14.9010820388794</t>
@@ -2411,10 +2411,10 @@
     <t xml:space="preserve">14.476037979126</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4433431625366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9174299240112</t>
+    <t xml:space="preserve">14.4433441162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9174308776855</t>
   </si>
   <si>
     <t xml:space="preserve">14.7049083709717</t>
@@ -2429,34 +2429,34 @@
     <t xml:space="preserve">14.526575088501</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3727655410767</t>
+    <t xml:space="preserve">14.3727645874023</t>
   </si>
   <si>
     <t xml:space="preserve">14.5522117614746</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8171072006226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6034812927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8427438735962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9794645309448</t>
+    <t xml:space="preserve">14.8171081542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6034822463989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8427429199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9794635772705</t>
   </si>
   <si>
     <t xml:space="preserve">14.8683776855469</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9623737335205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7743835449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.518030166626</t>
+    <t xml:space="preserve">14.9623727798462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7743825912476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5180311203003</t>
   </si>
   <si>
     <t xml:space="preserve">14.4667615890503</t>
@@ -2465,25 +2465,25 @@
     <t xml:space="preserve">14.304404258728</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1676836013794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.330039024353</t>
+    <t xml:space="preserve">14.1676845550537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3300399780273</t>
   </si>
   <si>
     <t xml:space="preserve">14.7060203552246</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5436668395996</t>
+    <t xml:space="preserve">14.5436658859253</t>
   </si>
   <si>
     <t xml:space="preserve">14.7487478256226</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5863904953003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1505928039551</t>
+    <t xml:space="preserve">14.5863914489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1505937576294</t>
   </si>
   <si>
     <t xml:space="preserve">13.9284219741821</t>
@@ -2492,13 +2492,13 @@
     <t xml:space="preserve">14.1164140701294</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7402029037476</t>
+    <t xml:space="preserve">14.7402019500732</t>
   </si>
   <si>
     <t xml:space="preserve">14.6120262145996</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8598327636719</t>
+    <t xml:space="preserve">14.8598318099976</t>
   </si>
   <si>
     <t xml:space="preserve">15.0905485153198</t>
@@ -2507,16 +2507,16 @@
     <t xml:space="preserve">15.4067163467407</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9367370605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9538288116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9709196090698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3212642669678</t>
+    <t xml:space="preserve">14.9367380142212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9538278579712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9709186553955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3212661743164</t>
   </si>
   <si>
     <t xml:space="preserve">15.2870855331421</t>
@@ -2525,19 +2525,19 @@
     <t xml:space="preserve">15.3554449081421</t>
   </si>
   <si>
-    <t xml:space="preserve">15.560525894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2443599700928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1418199539185</t>
+    <t xml:space="preserve">15.5605239868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2443580627441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1418190002441</t>
   </si>
   <si>
     <t xml:space="preserve">14.8512878417969</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0649127960205</t>
+    <t xml:space="preserve">15.0649147033691</t>
   </si>
   <si>
     <t xml:space="preserve">15.0392789840698</t>
@@ -2552,19 +2552,19 @@
     <t xml:space="preserve">15.1674547195435</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0136432647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7145662307739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0734596252441</t>
+    <t xml:space="preserve">15.0136442184448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7145671844482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0734577178955</t>
   </si>
   <si>
     <t xml:space="preserve">14.9025583267212</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2529067993164</t>
+    <t xml:space="preserve">15.2529048919678</t>
   </si>
   <si>
     <t xml:space="preserve">15.0050983428955</t>
@@ -2573,7 +2573,7 @@
     <t xml:space="preserve">14.9111032485962</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3127193450928</t>
+    <t xml:space="preserve">15.3127212524414</t>
   </si>
   <si>
     <t xml:space="preserve">15.3981714248657</t>
@@ -2582,10 +2582,10 @@
     <t xml:space="preserve">15.4323501586914</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0307321548462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7829265594482</t>
+    <t xml:space="preserve">15.0307340621948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7829275131226</t>
   </si>
   <si>
     <t xml:space="preserve">14.9880094528198</t>
@@ -2606,10 +2606,10 @@
     <t xml:space="preserve">15.56907081604</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4152612686157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3298110961914</t>
+    <t xml:space="preserve">15.4152631759644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3298120498657</t>
   </si>
   <si>
     <t xml:space="preserve">15.3041744232178</t>
@@ -2618,16 +2618,16 @@
     <t xml:space="preserve">15.509256362915</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5348901748657</t>
+    <t xml:space="preserve">15.5348920822144</t>
   </si>
   <si>
     <t xml:space="preserve">15.8510580062866</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6887035369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6801567077637</t>
+    <t xml:space="preserve">15.6887016296387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6801586151123</t>
   </si>
   <si>
     <t xml:space="preserve">15.2785387039185</t>
@@ -2636,7 +2636,7 @@
     <t xml:space="preserve">15.1503648757935</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7231111526489</t>
+    <t xml:space="preserve">14.7231121063232</t>
   </si>
   <si>
     <t xml:space="preserve">14.6718416213989</t>
@@ -2645,31 +2645,31 @@
     <t xml:space="preserve">14.6974782943726</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7914724349976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5607576370239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2358140945435</t>
+    <t xml:space="preserve">14.7914714813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5607566833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2358150482178</t>
   </si>
   <si>
     <t xml:space="preserve">15.2187242507935</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2614517211914</t>
+    <t xml:space="preserve">15.2614498138428</t>
   </si>
   <si>
     <t xml:space="preserve">15.0221881866455</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9196472167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9452838897705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5007095336914</t>
+    <t xml:space="preserve">14.9196481704712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9452829360962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.50071144104</t>
   </si>
   <si>
     <t xml:space="preserve">15.0820035934448</t>
@@ -2681,13 +2681,13 @@
     <t xml:space="preserve">14.2531356811523</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1847743988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2104082107544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1078691482544</t>
+    <t xml:space="preserve">14.184775352478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2104091644287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1078681945801</t>
   </si>
   <si>
     <t xml:space="preserve">13.9198789596558</t>
@@ -2705,16 +2705,16 @@
     <t xml:space="preserve">14.1591396331787</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2958583831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5351228713989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7316570281982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8341970443726</t>
+    <t xml:space="preserve">14.295859336853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5351219177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7316579818726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8341979980469</t>
   </si>
   <si>
     <t xml:space="preserve">14.8256530761719</t>
@@ -2723,7 +2723,7 @@
     <t xml:space="preserve">14.5778455734253</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2018642425537</t>
+    <t xml:space="preserve">14.201865196228</t>
   </si>
   <si>
     <t xml:space="preserve">14.236044883728</t>
@@ -2732,7 +2732,7 @@
     <t xml:space="preserve">14.287314414978</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2189531326294</t>
+    <t xml:space="preserve">14.2189540863037</t>
   </si>
   <si>
     <t xml:space="preserve">13.9711484909058</t>
@@ -2744,13 +2744,13 @@
     <t xml:space="preserve">14.0993242263794</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5949363708496</t>
+    <t xml:space="preserve">14.5949354171753</t>
   </si>
   <si>
     <t xml:space="preserve">14.4838514328003</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7572937011719</t>
+    <t xml:space="preserve">14.7572927474976</t>
   </si>
   <si>
     <t xml:space="preserve">14.6889324188232</t>
@@ -2759,7 +2759,7 @@
     <t xml:space="preserve">14.3556747436523</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0651435852051</t>
+    <t xml:space="preserve">14.0651426315308</t>
   </si>
   <si>
     <t xml:space="preserve">14.0736875534058</t>
@@ -2768,34 +2768,34 @@
     <t xml:space="preserve">13.9796934127808</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9540586471558</t>
+    <t xml:space="preserve">13.9540576934814</t>
   </si>
   <si>
     <t xml:space="preserve">14.0565996170044</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7746133804321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2445907592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9965524673462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1332721710205</t>
+    <t xml:space="preserve">13.7746124267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.244589805603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9965534210205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1332740783691</t>
   </si>
   <si>
     <t xml:space="preserve">15.4408950805664</t>
   </si>
   <si>
-    <t xml:space="preserve">15.63743019104</t>
+    <t xml:space="preserve">15.6374320983887</t>
   </si>
   <si>
     <t xml:space="preserve">15.8937835693359</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9365062713623</t>
+    <t xml:space="preserve">15.9365081787109</t>
   </si>
   <si>
     <t xml:space="preserve">16.0988655090332</t>
@@ -2807,7 +2807,7 @@
     <t xml:space="preserve">15.9279623031616</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7485160827637</t>
+    <t xml:space="preserve">15.7485179901123</t>
   </si>
   <si>
     <t xml:space="preserve">15.7656097412109</t>
@@ -2816,7 +2816,7 @@
     <t xml:space="preserve">15.9194173812866</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0903205871582</t>
+    <t xml:space="preserve">16.0903186798096</t>
   </si>
   <si>
     <t xml:space="preserve">16.5432071685791</t>
@@ -2831,7 +2831,7 @@
     <t xml:space="preserve">16.1843147277832</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3295803070068</t>
+    <t xml:space="preserve">16.3295822143555</t>
   </si>
   <si>
     <t xml:space="preserve">16.3210353851318</t>
@@ -2843,16 +2843,16 @@
     <t xml:space="preserve">16.0646839141846</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2526741027832</t>
+    <t xml:space="preserve">16.2526760101318</t>
   </si>
   <si>
     <t xml:space="preserve">16.1928596496582</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1159534454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1501331329346</t>
+    <t xml:space="preserve">16.1159553527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1501350402832</t>
   </si>
   <si>
     <t xml:space="preserve">16.1415882110596</t>
@@ -2876,7 +2876,7 @@
     <t xml:space="preserve">16.6201114654541</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6970176696777</t>
+    <t xml:space="preserve">16.6970195770264</t>
   </si>
   <si>
     <t xml:space="preserve">16.7824687957764</t>
@@ -2894,13 +2894,13 @@
     <t xml:space="preserve">16.4406642913818</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5602970123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6542911529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5944786071777</t>
+    <t xml:space="preserve">16.5602951049805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6542930603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5944766998291</t>
   </si>
   <si>
     <t xml:space="preserve">16.5090255737305</t>
@@ -2918,7 +2918,7 @@
     <t xml:space="preserve">17.4831619262695</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2780799865723</t>
+    <t xml:space="preserve">17.2780818939209</t>
   </si>
   <si>
     <t xml:space="preserve">17.4318904876709</t>
@@ -2927,16 +2927,16 @@
     <t xml:space="preserve">17.6027927398682</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7736930847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6711521148682</t>
+    <t xml:space="preserve">17.7736911773682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6711540222168</t>
   </si>
   <si>
     <t xml:space="preserve">17.5686111450195</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6882438659668</t>
+    <t xml:space="preserve">17.6882419586182</t>
   </si>
   <si>
     <t xml:space="preserve">17.8933238983154</t>
@@ -2945,7 +2945,7 @@
     <t xml:space="preserve">17.7566032409668</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0813159942627</t>
+    <t xml:space="preserve">18.0813140869141</t>
   </si>
   <si>
     <t xml:space="preserve">18.2009449005127</t>
@@ -4548,6 +4548,9 @@
   </si>
   <si>
     <t xml:space="preserve">17.0499992370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9099998474121</t>
   </si>
 </sst>
 </file>
@@ -60659,7 +60662,7 @@
     </row>
     <row r="2146">
       <c r="A2146" s="1" t="n">
-        <v>45449.6505902778</v>
+        <v>45449.2916666667</v>
       </c>
       <c r="B2146" t="n">
         <v>280888</v>
@@ -60680,6 +60683,32 @@
         <v>1511</v>
       </c>
       <c r="H2146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" s="1" t="n">
+        <v>45450.6522569444</v>
+      </c>
+      <c r="B2147" t="n">
+        <v>153702</v>
+      </c>
+      <c r="C2147" t="n">
+        <v>17.1499996185303</v>
+      </c>
+      <c r="D2147" t="n">
+        <v>16.8500003814697</v>
+      </c>
+      <c r="E2147" t="n">
+        <v>17.1000003814697</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>16.9099998474121</v>
+      </c>
+      <c r="G2147" t="s">
+        <v>1512</v>
+      </c>
+      <c r="H2147" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ACE.MI.xlsx
+++ b/data/ACE.MI.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">ACE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52303886413574</t>
+    <t xml:space="preserve">9.52303791046143</t>
   </si>
   <si>
     <t xml:space="preserve">9.18023681640625</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">9.52989482879639</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73557567596436</t>
+    <t xml:space="preserve">9.73557472229004</t>
   </si>
   <si>
     <t xml:space="preserve">9.60531139373779</t>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">9.18709278106689</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23508453369141</t>
+    <t xml:space="preserve">9.23508548736572</t>
   </si>
   <si>
     <t xml:space="preserve">9.07739639282227</t>
@@ -80,31 +80,31 @@
     <t xml:space="preserve">8.81686687469482</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00197982788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01569271087646</t>
+    <t xml:space="preserve">9.00198078155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01569080352783</t>
   </si>
   <si>
     <t xml:space="preserve">9.15281391143799</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27622222900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39277267456055</t>
+    <t xml:space="preserve">9.27622127532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39277362823486</t>
   </si>
   <si>
     <t xml:space="preserve">9.40648555755615</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28307819366455</t>
+    <t xml:space="preserve">9.28307723999023</t>
   </si>
   <si>
     <t xml:space="preserve">9.25565242767334</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21451568603516</t>
+    <t xml:space="preserve">9.21451663970947</t>
   </si>
   <si>
     <t xml:space="preserve">8.83743572235107</t>
@@ -125,28 +125,28 @@
     <t xml:space="preserve">8.48091983795166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43978404998779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.467209815979</t>
+    <t xml:space="preserve">8.43978309631348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46720886230469</t>
   </si>
   <si>
     <t xml:space="preserve">8.46035385131836</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23410320281982</t>
+    <t xml:space="preserve">8.23410511016846</t>
   </si>
   <si>
     <t xml:space="preserve">8.40550422668457</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49463272094727</t>
+    <t xml:space="preserve">8.4946346282959</t>
   </si>
   <si>
     <t xml:space="preserve">8.35065650939941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50149059295654</t>
+    <t xml:space="preserve">8.50148773193359</t>
   </si>
   <si>
     <t xml:space="preserve">8.41236019134521</t>
@@ -158,22 +158,22 @@
     <t xml:space="preserve">8.4534969329834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37807941436768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33008766174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86485958099365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26936435699463</t>
+    <t xml:space="preserve">8.37808036804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33008670806885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86485862731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26936626434326</t>
   </si>
   <si>
     <t xml:space="preserve">9.59845447540283</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7012939453125</t>
+    <t xml:space="preserve">9.70129585266113</t>
   </si>
   <si>
     <t xml:space="preserve">9.69443988800049</t>
@@ -182,25 +182,25 @@
     <t xml:space="preserve">9.76985645294189</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71500873565674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36534881591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31050205230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22137260437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35163879394531</t>
+    <t xml:space="preserve">9.71500778198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3653507232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31050109863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22137451171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.351637840271</t>
   </si>
   <si>
     <t xml:space="preserve">9.39962863922119</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49561405181885</t>
+    <t xml:space="preserve">9.49561500549316</t>
   </si>
   <si>
     <t xml:space="preserve">9.32421398162842</t>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">9.22822856903076</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37220478057861</t>
+    <t xml:space="preserve">9.37220668792725</t>
   </si>
   <si>
     <t xml:space="preserve">9.11853313446045</t>
@@ -221,19 +221,19 @@
     <t xml:space="preserve">8.74145030975342</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7071704864502</t>
+    <t xml:space="preserve">8.70716857910156</t>
   </si>
   <si>
     <t xml:space="preserve">8.54948139190674</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61804103851318</t>
+    <t xml:space="preserve">8.6180419921875</t>
   </si>
   <si>
     <t xml:space="preserve">8.68660259246826</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73459434509277</t>
+    <t xml:space="preserve">8.73459529876709</t>
   </si>
   <si>
     <t xml:space="preserve">8.80315399169922</t>
@@ -242,16 +242,16 @@
     <t xml:space="preserve">8.89913845062256</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84429168701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8100118637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70031356811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60433006286621</t>
+    <t xml:space="preserve">8.84428977966309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81001091003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70031452178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60432815551758</t>
   </si>
   <si>
     <t xml:space="preserve">8.9471321105957</t>
@@ -263,31 +263,31 @@
     <t xml:space="preserve">9.04311561584473</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87171459197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72088146209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65917873382568</t>
+    <t xml:space="preserve">8.87171363830566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72088241577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65917778015137</t>
   </si>
   <si>
     <t xml:space="preserve">8.89228343963623</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85800266265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95398807525635</t>
+    <t xml:space="preserve">8.85800361633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95398712158203</t>
   </si>
   <si>
     <t xml:space="preserve">9.06368446350098</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10482025146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04997253417969</t>
+    <t xml:space="preserve">9.10481929779053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04997158050537</t>
   </si>
   <si>
     <t xml:space="preserve">8.91285133361816</t>
@@ -302,79 +302,79 @@
     <t xml:space="preserve">8.36436748504639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20667839050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95300531387329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58277988433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7061882019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71304416656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87758779525757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84174919128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79874277114868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89909267425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80591106414795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39016723632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05327367782593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18229722976685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31131982803345</t>
+    <t xml:space="preserve">8.20668029785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95300579071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5827808380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70618867874146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7130446434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87758827209473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84174871444702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79874229431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89909362792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80590963363647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3901686668396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05327272415161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18229675292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31131935119629</t>
   </si>
   <si>
     <t xml:space="preserve">7.83458232879639</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74139785766602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78440618515015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66971874237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50485420227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46901559829712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5478630065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59087085723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45467853546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64821481704712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66255044937134</t>
+    <t xml:space="preserve">7.74139833450317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78440475463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66971778869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50485515594482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46901512145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54786157608032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59087133407593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4546799659729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64821529388428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66254997253418</t>
   </si>
   <si>
     <t xml:space="preserve">7.62671136856079</t>
@@ -389,58 +389,58 @@
     <t xml:space="preserve">8.38651466369629</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35784244537354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92411231994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89544105529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85959911346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03163146972656</t>
+    <t xml:space="preserve">8.35784149169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92411136627197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89543914794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85960006713867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03163051605225</t>
   </si>
   <si>
     <t xml:space="preserve">9.04596710205078</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9312801361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90977668762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95995140075684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79508781433105</t>
+    <t xml:space="preserve">8.93127918243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90977573394775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95995235443115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79508876800537</t>
   </si>
   <si>
     <t xml:space="preserve">8.65889739990234</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70907306671143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74491119384766</t>
+    <t xml:space="preserve">8.70907211303711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74491310119629</t>
   </si>
   <si>
     <t xml:space="preserve">8.5872163772583</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58004951477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56571197509766</t>
+    <t xml:space="preserve">8.58005046844482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56571292877197</t>
   </si>
   <si>
     <t xml:space="preserve">8.59438514709473</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53704166412354</t>
+    <t xml:space="preserve">8.53704261779785</t>
   </si>
   <si>
     <t xml:space="preserve">8.37934589385986</t>
@@ -452,7 +452,7 @@
     <t xml:space="preserve">8.52270603179932</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64456272125244</t>
+    <t xml:space="preserve">8.64456176757812</t>
   </si>
   <si>
     <t xml:space="preserve">8.61588954925537</t>
@@ -461,13 +461,13 @@
     <t xml:space="preserve">8.50836944580078</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54420852661133</t>
+    <t xml:space="preserve">8.54420948028564</t>
   </si>
   <si>
     <t xml:space="preserve">8.51553726196289</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30049896240234</t>
+    <t xml:space="preserve">8.30049991607666</t>
   </si>
   <si>
     <t xml:space="preserve">8.15713882446289</t>
@@ -476,7 +476,7 @@
     <t xml:space="preserve">8.17864322662354</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26465797424316</t>
+    <t xml:space="preserve">8.26466083526611</t>
   </si>
   <si>
     <t xml:space="preserve">8.09979629516602</t>
@@ -488,7 +488,7 @@
     <t xml:space="preserve">7.99227619171143</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94210147857666</t>
+    <t xml:space="preserve">7.9421010017395</t>
   </si>
   <si>
     <t xml:space="preserve">7.96360492706299</t>
@@ -497,7 +497,7 @@
     <t xml:space="preserve">7.98510885238647</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94926834106445</t>
+    <t xml:space="preserve">7.94927024841309</t>
   </si>
   <si>
     <t xml:space="preserve">7.92776584625244</t>
@@ -506,31 +506,31 @@
     <t xml:space="preserve">7.92059755325317</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95643663406372</t>
+    <t xml:space="preserve">7.95643758773804</t>
   </si>
   <si>
     <t xml:space="preserve">7.93493223190308</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82024574279785</t>
+    <t xml:space="preserve">7.82024621963501</t>
   </si>
   <si>
     <t xml:space="preserve">7.70555830001831</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7915735244751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72706127166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99944353103638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12846851348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2001485824585</t>
+    <t xml:space="preserve">7.79157400131226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72706174850464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99944400787354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12846755981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20014667510986</t>
   </si>
   <si>
     <t xml:space="preserve">8.35067462921143</t>
@@ -539,85 +539,85 @@
     <t xml:space="preserve">8.32200241088867</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45102500915527</t>
+    <t xml:space="preserve">8.45102596282959</t>
   </si>
   <si>
     <t xml:space="preserve">8.40085029602051</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42235469818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45819473266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28616333007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17147445678711</t>
+    <t xml:space="preserve">8.42235374450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4581937789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28616237640381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17147541046143</t>
   </si>
   <si>
     <t xml:space="preserve">8.25032329559326</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14997291564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07829284667969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56936836242676</t>
+    <t xml:space="preserve">8.1499719619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07829189300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56936740875244</t>
   </si>
   <si>
     <t xml:space="preserve">7.26831293106079</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28981685638428</t>
+    <t xml:space="preserve">7.28981637954712</t>
   </si>
   <si>
     <t xml:space="preserve">7.23964071273804</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16796064376831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11778545379639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16437768936157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21813583374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35432863235474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22530364990234</t>
+    <t xml:space="preserve">7.16796112060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11778593063354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16437673568726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21813726425171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35432910919189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22530508041382</t>
   </si>
   <si>
     <t xml:space="preserve">7.29698514938354</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21096849441528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11061716079712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59803915023804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85608673095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02811622619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2789945602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22165107727051</t>
+    <t xml:space="preserve">7.21096897125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11061763763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59803867340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85608530044556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02811717987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27899551391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22165203094482</t>
   </si>
   <si>
     <t xml:space="preserve">8.2144832611084</t>
@@ -635,25 +635,25 @@
     <t xml:space="preserve">8.47969818115234</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49403381347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52987194061279</t>
+    <t xml:space="preserve">8.49403476715088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52987384796143</t>
   </si>
   <si>
     <t xml:space="preserve">8.73057651519775</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62305641174316</t>
+    <t xml:space="preserve">8.62305736541748</t>
   </si>
   <si>
     <t xml:space="preserve">8.67323303222656</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12129974365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18581104278564</t>
+    <t xml:space="preserve">8.12129878997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18581199645996</t>
   </si>
   <si>
     <t xml:space="preserve">8.25749206542969</t>
@@ -662,73 +662,73 @@
     <t xml:space="preserve">8.19297981262207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55854415893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50120162963867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42952251434326</t>
+    <t xml:space="preserve">8.55854511260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50120258331299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42952346801758</t>
   </si>
   <si>
     <t xml:space="preserve">8.44385814666748</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55137825012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60155391693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66606426239014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57288074493408</t>
+    <t xml:space="preserve">8.55137634277344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60155296325684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66606521606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5728816986084</t>
   </si>
   <si>
     <t xml:space="preserve">8.43669033050537</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81659317016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68756771087646</t>
+    <t xml:space="preserve">8.8165922164917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68756866455078</t>
   </si>
   <si>
     <t xml:space="preserve">8.7664155960083</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88827228546143</t>
+    <t xml:space="preserve">8.88827133178711</t>
   </si>
   <si>
     <t xml:space="preserve">8.95278358459473</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9957914352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07463836669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16782283782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11764621734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10331058502197</t>
+    <t xml:space="preserve">8.99578952789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07463932037354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16782188415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11764717102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10330963134766</t>
   </si>
   <si>
     <t xml:space="preserve">9.09614276885986</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14631843566895</t>
+    <t xml:space="preserve">9.14631748199463</t>
   </si>
   <si>
     <t xml:space="preserve">9.36135673522949</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35418891906738</t>
+    <t xml:space="preserve">9.35419082641602</t>
   </si>
   <si>
     <t xml:space="preserve">9.32551765441895</t>
@@ -740,13 +740,13 @@
     <t xml:space="preserve">9.23950290679932</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46170902252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42586994171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28250980377197</t>
+    <t xml:space="preserve">9.46170806884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42586803436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28250885009766</t>
   </si>
   <si>
     <t xml:space="preserve">9.36852550506592</t>
@@ -755,31 +755,31 @@
     <t xml:space="preserve">9.51905155181885</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52622032165527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53338718414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46887683868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74125957489014</t>
+    <t xml:space="preserve">9.52622127532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5333890914917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46887588500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7412576675415</t>
   </si>
   <si>
     <t xml:space="preserve">9.597900390625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74842643737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.777099609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87028312683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0924892425537</t>
+    <t xml:space="preserve">9.74842834472656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77709865570068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87028217315674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0924882888794</t>
   </si>
   <si>
     <t xml:space="preserve">10.1498327255249</t>
@@ -788,10 +788,10 @@
     <t xml:space="preserve">9.95629692077637</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89895439147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94912910461426</t>
+    <t xml:space="preserve">9.89895534515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94913101196289</t>
   </si>
   <si>
     <t xml:space="preserve">10.1570014953613</t>
@@ -800,31 +800,31 @@
     <t xml:space="preserve">9.9706335067749</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98496913909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1785049438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2645206451416</t>
+    <t xml:space="preserve">9.98497009277344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1785039901733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2645196914673</t>
   </si>
   <si>
     <t xml:space="preserve">10.29319190979</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3362007141113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4365520477295</t>
+    <t xml:space="preserve">10.3361988067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4365510940552</t>
   </si>
   <si>
     <t xml:space="preserve">10.3146963119507</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4293832778931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.379207611084</t>
+    <t xml:space="preserve">10.4293823242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3792066574097</t>
   </si>
   <si>
     <t xml:space="preserve">10.4150466918945</t>
@@ -839,10 +839,10 @@
     <t xml:space="preserve">10.515398979187</t>
   </si>
   <si>
-    <t xml:space="preserve">10.443717956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5584077835083</t>
+    <t xml:space="preserve">10.4437189102173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5584058761597</t>
   </si>
   <si>
     <t xml:space="preserve">10.4078798294067</t>
@@ -851,31 +851,31 @@
     <t xml:space="preserve">10.3505353927612</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5227956771851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4104509353638</t>
+    <t xml:space="preserve">10.5227947235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4104518890381</t>
   </si>
   <si>
     <t xml:space="preserve">10.6126699447632</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5078153610229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4478998184204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4853458404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1857662200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0584440231323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1183595657349</t>
+    <t xml:space="preserve">10.5078163146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4478988647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4853467941284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1857671737671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0584449768066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1183605194092</t>
   </si>
   <si>
     <t xml:space="preserve">9.93861103057861</t>
@@ -890,10 +890,10 @@
     <t xml:space="preserve">9.88618469238281</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74388408660889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87869358062744</t>
+    <t xml:space="preserve">9.74388313293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87869453430176</t>
   </si>
   <si>
     <t xml:space="preserve">9.99852752685547</t>
@@ -902,67 +902,67 @@
     <t xml:space="preserve">9.81128883361816</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0060176849365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0434637069702</t>
+    <t xml:space="preserve">10.0060167312622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0434646606445</t>
   </si>
   <si>
     <t xml:space="preserve">10.0659322738647</t>
   </si>
   <si>
-    <t xml:space="preserve">10.178277015686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0734224319458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0884008407593</t>
+    <t xml:space="preserve">10.1782760620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0734233856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0884017944336</t>
   </si>
   <si>
     <t xml:space="preserve">9.96107959747314</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0359745025635</t>
+    <t xml:space="preserve">10.0359754562378</t>
   </si>
   <si>
     <t xml:space="preserve">9.81877899169922</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87120628356934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8487377166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42932415008545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49672889709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45179176330566</t>
+    <t xml:space="preserve">9.87120532989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84873676300049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42932319641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49672985076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45179271697998</t>
   </si>
   <si>
     <t xml:space="preserve">9.46677112579346</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6090726852417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44430160522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33944892883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2196159362793</t>
+    <t xml:space="preserve">9.60907173156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44430065155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33944797515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21961688995361</t>
   </si>
   <si>
     <t xml:space="preserve">9.36940765380859</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37689685821533</t>
+    <t xml:space="preserve">9.37689590454102</t>
   </si>
   <si>
     <t xml:space="preserve">9.30200099945068</t>
@@ -974,7 +974,7 @@
     <t xml:space="preserve">9.2720422744751</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27953243255615</t>
+    <t xml:space="preserve">9.27953338623047</t>
   </si>
   <si>
     <t xml:space="preserve">9.21212673187256</t>
@@ -983,7 +983,7 @@
     <t xml:space="preserve">9.15969848632812</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14472007751465</t>
+    <t xml:space="preserve">9.14472103118896</t>
   </si>
   <si>
     <t xml:space="preserve">9.12225151062012</t>
@@ -995,16 +995,16 @@
     <t xml:space="preserve">9.03237819671631</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08480358123779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25706386566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17467784881592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28702259063721</t>
+    <t xml:space="preserve">9.08480548858643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2570629119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17467880249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28702163696289</t>
   </si>
   <si>
     <t xml:space="preserve">9.75137329101562</t>
@@ -1013,16 +1013,16 @@
     <t xml:space="preserve">9.92363262176514</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69145584106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59409332275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60158157348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61656188964844</t>
+    <t xml:space="preserve">9.69145679473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59409236907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60158252716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61656093597412</t>
   </si>
   <si>
     <t xml:space="preserve">9.73639392852783</t>
@@ -1034,13 +1034,13 @@
     <t xml:space="preserve">9.66898727416992</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67647838592529</t>
+    <t xml:space="preserve">9.67647743225098</t>
   </si>
   <si>
     <t xml:space="preserve">9.72141456604004</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82626724243164</t>
+    <t xml:space="preserve">9.82626819610596</t>
   </si>
   <si>
     <t xml:space="preserve">9.91614246368408</t>
@@ -1049,7 +1049,7 @@
     <t xml:space="preserve">9.85622596740723</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83375644683838</t>
+    <t xml:space="preserve">9.8337574005127</t>
   </si>
   <si>
     <t xml:space="preserve">10.1558074951172</t>
@@ -1058,7 +1058,7 @@
     <t xml:space="preserve">10.170786857605</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2756395339966</t>
+    <t xml:space="preserve">10.2756414413452</t>
   </si>
   <si>
     <t xml:space="preserve">10.2232131958008</t>
@@ -1067,37 +1067,37 @@
     <t xml:space="preserve">10.358024597168</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4029607772827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5527534484863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4703693389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3804922103882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5302858352661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5003271102905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8822917938232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9122505187988</t>
+    <t xml:space="preserve">10.402961730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.552752494812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4703674316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3804931640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5302848815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5003261566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8822927474976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9122495651245</t>
   </si>
   <si>
     <t xml:space="preserve">10.934718132019</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8748025894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7999076843262</t>
+    <t xml:space="preserve">10.8748035430908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7999057769775</t>
   </si>
   <si>
     <t xml:space="preserve">10.777440071106</t>
@@ -1106,22 +1106,22 @@
     <t xml:space="preserve">10.7325019836426</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5976896286011</t>
+    <t xml:space="preserve">10.5976905822754</t>
   </si>
   <si>
     <t xml:space="preserve">10.7474813461304</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6950540542603</t>
+    <t xml:space="preserve">10.6950550079346</t>
   </si>
   <si>
     <t xml:space="preserve">11.0245943069458</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0021257400513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9646778106689</t>
+    <t xml:space="preserve">11.002124786377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9646787643433</t>
   </si>
   <si>
     <t xml:space="preserve">11.0770206451416</t>
@@ -1136,34 +1136,34 @@
     <t xml:space="preserve">10.9496984481812</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3466424942017</t>
+    <t xml:space="preserve">11.346643447876</t>
   </si>
   <si>
     <t xml:space="preserve">12.6573114395142</t>
   </si>
   <si>
-    <t xml:space="preserve">12.792121887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7022476196289</t>
+    <t xml:space="preserve">12.79212474823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7022485733032</t>
   </si>
   <si>
     <t xml:space="preserve">12.7322063446045</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6648006439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6498212814331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7172269821167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5524587631226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2453880310059</t>
+    <t xml:space="preserve">12.6648015975952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6498231887817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.717227935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5524578094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2453870773315</t>
   </si>
   <si>
     <t xml:space="preserve">12.1480226516724</t>
@@ -1172,7 +1172,7 @@
     <t xml:space="preserve">12.028190612793</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3502407073975</t>
+    <t xml:space="preserve">12.3502416610718</t>
   </si>
   <si>
     <t xml:space="preserve">11.9607858657837</t>
@@ -1181,10 +1181,10 @@
     <t xml:space="preserve">11.7061405181885</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5563497543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6836719512939</t>
+    <t xml:space="preserve">11.5563507080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6836729049683</t>
   </si>
   <si>
     <t xml:space="preserve">11.6612033843994</t>
@@ -1193,34 +1193,34 @@
     <t xml:space="preserve">11.533881187439</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5788192749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7585678100586</t>
+    <t xml:space="preserve">11.578818321228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7585668563843</t>
   </si>
   <si>
     <t xml:space="preserve">11.9682750701904</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0731287002563</t>
+    <t xml:space="preserve">12.0731296539307</t>
   </si>
   <si>
     <t xml:space="preserve">12.1555137634277</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9458074569702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8559331893921</t>
+    <t xml:space="preserve">11.9458055496216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8559322357178</t>
   </si>
   <si>
     <t xml:space="preserve">11.7510776519775</t>
   </si>
   <si>
-    <t xml:space="preserve">11.803505897522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9832534790039</t>
+    <t xml:space="preserve">11.8035049438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9832544326782</t>
   </si>
   <si>
     <t xml:space="preserve">12.0955963134766</t>
@@ -1229,7 +1229,7 @@
     <t xml:space="preserve">12.1630029678345</t>
   </si>
   <si>
-    <t xml:space="preserve">12.215428352356</t>
+    <t xml:space="preserve">12.2154293060303</t>
   </si>
   <si>
     <t xml:space="preserve">12.3053045272827</t>
@@ -1238,37 +1238,37 @@
     <t xml:space="preserve">12.0881061553955</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9907445907593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9158487319946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8709106445312</t>
+    <t xml:space="preserve">11.990743637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9158477783203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8709115982056</t>
   </si>
   <si>
     <t xml:space="preserve">11.7136306762695</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6537141799927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6312456130981</t>
+    <t xml:space="preserve">11.653715133667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6312465667725</t>
   </si>
   <si>
     <t xml:space="preserve">11.4589862823486</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1668939590454</t>
+    <t xml:space="preserve">11.1668949127197</t>
   </si>
   <si>
     <t xml:space="preserve">10.9197406768799</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2717475891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9796552658081</t>
+    <t xml:space="preserve">11.2717485427856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9796562194824</t>
   </si>
   <si>
     <t xml:space="preserve">11.0994892120361</t>
@@ -1289,13 +1289,13 @@
     <t xml:space="preserve">10.7250118255615</t>
   </si>
   <si>
-    <t xml:space="preserve">10.515305519104</t>
+    <t xml:space="preserve">10.5153045654297</t>
   </si>
   <si>
     <t xml:space="preserve">10.440408706665</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6650953292847</t>
+    <t xml:space="preserve">10.665096282959</t>
   </si>
   <si>
     <t xml:space="preserve">10.6875648498535</t>
@@ -1304,7 +1304,7 @@
     <t xml:space="preserve">10.7025442123413</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4628782272339</t>
+    <t xml:space="preserve">10.4628791809082</t>
   </si>
   <si>
     <t xml:space="preserve">10.5677318572998</t>
@@ -1313,28 +1313,28 @@
     <t xml:space="preserve">10.3355560302734</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1932544708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1033802032471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.208233833313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0284862518311</t>
+    <t xml:space="preserve">10.1932554244995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1033811569214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2082357406616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0284852981567</t>
   </si>
   <si>
     <t xml:space="preserve">10.1483192443848</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3205766677856</t>
+    <t xml:space="preserve">10.3205785751343</t>
   </si>
   <si>
     <t xml:space="preserve">10.2606611251831</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2157249450684</t>
+    <t xml:space="preserve">10.2157230377197</t>
   </si>
   <si>
     <t xml:space="preserve">10.1333389282227</t>
@@ -1343,40 +1343,40 @@
     <t xml:space="preserve">10.2831296920776</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4254322052002</t>
+    <t xml:space="preserve">10.4254312515259</t>
   </si>
   <si>
     <t xml:space="preserve">10.5452632904053</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6426277160645</t>
+    <t xml:space="preserve">10.6426286697388</t>
   </si>
   <si>
     <t xml:space="preserve">10.8373556137085</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8448448181152</t>
+    <t xml:space="preserve">10.8448438644409</t>
   </si>
   <si>
     <t xml:space="preserve">10.8073978424072</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0096139907837</t>
+    <t xml:space="preserve">11.009614944458</t>
   </si>
   <si>
     <t xml:space="preserve">10.859824180603</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7924175262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.477858543396</t>
+    <t xml:space="preserve">10.7924184799194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4778575897217</t>
   </si>
   <si>
     <t xml:space="preserve">10.7399921417236</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2906198501587</t>
+    <t xml:space="preserve">10.2906188964844</t>
   </si>
   <si>
     <t xml:space="preserve">9.9685697555542</t>
@@ -1385,13 +1385,13 @@
     <t xml:space="preserve">9.72890377044678</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99103736877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3879823684692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2438802719116</t>
+    <t xml:space="preserve">9.99103832244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3879833221436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2438821792603</t>
   </si>
   <si>
     <t xml:space="preserve">10.275279045105</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">10.2203321456909</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0790376663208</t>
+    <t xml:space="preserve">10.0790367126465</t>
   </si>
   <si>
     <t xml:space="preserve">10.1182861328125</t>
@@ -1409,19 +1409,19 @@
     <t xml:space="preserve">10.0162391662598</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0319395065308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99269008636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94559192657471</t>
+    <t xml:space="preserve">10.0319385528564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99268817901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94559288024902</t>
   </si>
   <si>
     <t xml:space="preserve">10.0005397796631</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97698974609375</t>
+    <t xml:space="preserve">9.97699165344238</t>
   </si>
   <si>
     <t xml:space="preserve">10.1653833389282</t>
@@ -1436,13 +1436,13 @@
     <t xml:space="preserve">10.1889324188232</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0711879730225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0947360992432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2046327590942</t>
+    <t xml:space="preserve">10.0711870193481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0947370529175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2046318054199</t>
   </si>
   <si>
     <t xml:space="preserve">10.2517309188843</t>
@@ -1451,22 +1451,22 @@
     <t xml:space="preserve">10.0868873596191</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1496849060059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.377326965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4401235580444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4087257385254</t>
+    <t xml:space="preserve">10.1496839523315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3773279190063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4401245117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4087247848511</t>
   </si>
   <si>
     <t xml:space="preserve">10.6206674575806</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7305631637573</t>
+    <t xml:space="preserve">10.7305641174316</t>
   </si>
   <si>
     <t xml:space="preserve">10.5735683441162</t>
@@ -1478,10 +1478,10 @@
     <t xml:space="preserve">10.6756162643433</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7070150375366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5892677307129</t>
+    <t xml:space="preserve">10.7070140838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5892686843872</t>
   </si>
   <si>
     <t xml:space="preserve">10.683464050293</t>
@@ -1496,64 +1496,64 @@
     <t xml:space="preserve">10.5107717514038</t>
   </si>
   <si>
-    <t xml:space="preserve">10.290979385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3380784988403</t>
+    <t xml:space="preserve">10.2909784317017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.338077545166</t>
   </si>
   <si>
     <t xml:space="preserve">10.2674293518066</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2281818389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0554885864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75719928741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6394510269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6002025604248</t>
+    <t xml:space="preserve">10.2281808853149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0554876327515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75719833374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63945198059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60020351409912</t>
   </si>
   <si>
     <t xml:space="preserve">9.71794986724854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92989253997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96914100646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1104364395142</t>
+    <t xml:space="preserve">9.92989158630371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96914005279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1104354858398</t>
   </si>
   <si>
     <t xml:space="preserve">10.2124824523926</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3851747512817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4244241714478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3694772720337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1339845657349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0083885192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1418352127075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6708517074585</t>
+    <t xml:space="preserve">10.3851757049561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4244232177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3694763183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1339836120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0083894729614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1418342590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67085075378418</t>
   </si>
   <si>
     <t xml:space="preserve">9.6159029006958</t>
@@ -1562,22 +1562,22 @@
     <t xml:space="preserve">9.41180992126465</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38041114807129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28621482849121</t>
+    <t xml:space="preserve">9.38041210174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28621578216553</t>
   </si>
   <si>
     <t xml:space="preserve">9.50600719451904</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39611148834229</t>
+    <t xml:space="preserve">9.3961124420166</t>
   </si>
   <si>
     <t xml:space="preserve">9.14492034912109</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13707160949707</t>
+    <t xml:space="preserve">9.13707065582275</t>
   </si>
   <si>
     <t xml:space="preserve">9.09782218933105</t>
@@ -1586,67 +1586,67 @@
     <t xml:space="preserve">8.8937292098999</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91727924346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92512893676758</t>
+    <t xml:space="preserve">8.91727828979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92512798309326</t>
   </si>
   <si>
     <t xml:space="preserve">8.7759838104248</t>
   </si>
   <si>
-    <t xml:space="preserve">9.011474609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.027174949646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11352062225342</t>
+    <t xml:space="preserve">9.01147556304932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02717590332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11352157592773</t>
   </si>
   <si>
     <t xml:space="preserve">9.16062068939209</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27051639556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24696731567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40396022796631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31761360168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1261348724365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0476388931274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0240888595581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74150085449219</t>
+    <t xml:space="preserve">9.27051544189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24696636199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40396118164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31761455535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1261339187622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0476379394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0240898132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74149894714355</t>
   </si>
   <si>
     <t xml:space="preserve">9.74934864044189</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5766544342041</t>
+    <t xml:space="preserve">9.57665538787842</t>
   </si>
   <si>
     <t xml:space="preserve">9.46675968170166</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48245906829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34116172790527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42751026153564</t>
+    <t xml:space="preserve">9.48245811462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34116268157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42751121520996</t>
   </si>
   <si>
     <t xml:space="preserve">9.4196605682373</t>
@@ -1655,58 +1655,58 @@
     <t xml:space="preserve">9.29406547546387</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25481605529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33331489562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08212184906006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73365020751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52170658111572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22341728210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0664234161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26266574859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35686302185059</t>
+    <t xml:space="preserve">9.25481700897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33331298828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08212280273438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7336483001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52170753479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22341823577881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06642246246338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26266670227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35686206817627</t>
   </si>
   <si>
     <t xml:space="preserve">9.5374059677124</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27836608886719</t>
+    <t xml:space="preserve">9.27836513519287</t>
   </si>
   <si>
     <t xml:space="preserve">9.4353609085083</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60805320739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77289867401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79644775390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85139656066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2360305786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5186204910278</t>
+    <t xml:space="preserve">9.60805416107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77289772033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79644680023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85139465332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2360324859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5186214447021</t>
   </si>
   <si>
     <t xml:space="preserve">10.5971183776855</t>
@@ -1715,10 +1715,10 @@
     <t xml:space="preserve">10.4793729782104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3459281921387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5578689575195</t>
+    <t xml:space="preserve">10.3459272384644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5578699111938</t>
   </si>
   <si>
     <t xml:space="preserve">10.6913146972656</t>
@@ -1733,28 +1733,28 @@
     <t xml:space="preserve">10.5264701843262</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7148637771606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9582052230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9032554626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9268074035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7933597564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9111061096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8954076766968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0838012695312</t>
+    <t xml:space="preserve">10.7148628234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9582061767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9032573699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9268054962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.793360710144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9111070632935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8954086303711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0838003158569</t>
   </si>
   <si>
     <t xml:space="preserve">11.3271427154541</t>
@@ -1772,10 +1772,10 @@
     <t xml:space="preserve">11.7667255401611</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8138236999512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7274761199951</t>
+    <t xml:space="preserve">11.8138256072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7274770736694</t>
   </si>
   <si>
     <t xml:space="preserve">11.8452234268188</t>
@@ -1787,43 +1787,43 @@
     <t xml:space="preserve">11.9158706665039</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8609228134155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9315700531006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8923206329346</t>
+    <t xml:space="preserve">11.8609218597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9315710067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8923215866089</t>
   </si>
   <si>
     <t xml:space="preserve">11.8766222000122</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8530740737915</t>
+    <t xml:space="preserve">11.8530731201172</t>
   </si>
   <si>
     <t xml:space="preserve">11.8295240402222</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0728645324707</t>
+    <t xml:space="preserve">12.072865486145</t>
   </si>
   <si>
     <t xml:space="preserve">12.5595474243164</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5752487182617</t>
+    <t xml:space="preserve">12.5752468109131</t>
   </si>
   <si>
     <t xml:space="preserve">12.7165422439575</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5124492645264</t>
+    <t xml:space="preserve">12.5124483108521</t>
   </si>
   <si>
     <t xml:space="preserve">12.6537446975708</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6380453109741</t>
+    <t xml:space="preserve">12.6380443572998</t>
   </si>
   <si>
     <t xml:space="preserve">12.4967498779297</t>
@@ -1835,31 +1835,31 @@
     <t xml:space="preserve">12.1513614654541</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1670618057251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3711547851562</t>
+    <t xml:space="preserve">12.1670627593994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3711538314819</t>
   </si>
   <si>
     <t xml:space="preserve">12.5909471511841</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6223449707031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7008419036865</t>
+    <t xml:space="preserve">12.6223459243774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7008428573608</t>
   </si>
   <si>
     <t xml:space="preserve">12.6851434707642</t>
   </si>
   <si>
-    <t xml:space="preserve">12.842137336731</t>
+    <t xml:space="preserve">12.8421382904053</t>
   </si>
   <si>
     <t xml:space="preserve">12.7636404037476</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1090278625488</t>
+    <t xml:space="preserve">13.1090288162231</t>
   </si>
   <si>
     <t xml:space="preserve">13.2032241821289</t>
@@ -1868,7 +1868,7 @@
     <t xml:space="preserve">13.3916168212891</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2503213882446</t>
+    <t xml:space="preserve">13.2503223419189</t>
   </si>
   <si>
     <t xml:space="preserve">13.1247272491455</t>
@@ -1883,94 +1883,94 @@
     <t xml:space="preserve">12.92063331604</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0462303161621</t>
+    <t xml:space="preserve">13.0462293624878</t>
   </si>
   <si>
     <t xml:space="preserve">13.1561260223389</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1718263626099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0933294296265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1404256820679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0619297027588</t>
+    <t xml:space="preserve">13.1718273162842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0933284759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1404266357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0619287490845</t>
   </si>
   <si>
     <t xml:space="preserve">13.344518661499</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4858140945435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5800113677979</t>
+    <t xml:space="preserve">13.4858150482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5800085067749</t>
   </si>
   <si>
     <t xml:space="preserve">13.6114110946655</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6585073471069</t>
+    <t xml:space="preserve">13.6585063934326</t>
   </si>
   <si>
     <t xml:space="preserve">13.7527055740356</t>
   </si>
   <si>
-    <t xml:space="preserve">13.831202507019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8468999862671</t>
+    <t xml:space="preserve">13.8312015533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8469018936157</t>
   </si>
   <si>
     <t xml:space="preserve">13.8626003265381</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9253978729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0038948059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9724960327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0509948730469</t>
+    <t xml:space="preserve">13.9253988265991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0038957595825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9724950790405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0509929656982</t>
   </si>
   <si>
     <t xml:space="preserve">14.1736040115356</t>
   </si>
   <si>
-    <t xml:space="preserve">14.010124206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.977427482605</t>
+    <t xml:space="preserve">14.0101232528687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9774284362793</t>
   </si>
   <si>
     <t xml:space="preserve">13.6995143890381</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6831655502319</t>
+    <t xml:space="preserve">13.6831665039062</t>
   </si>
   <si>
     <t xml:space="preserve">13.6177749633789</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7649059295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1572561264038</t>
+    <t xml:space="preserve">13.7649049758911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1572542190552</t>
   </si>
   <si>
     <t xml:space="preserve">14.0755157470703</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8629913330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9120359420776</t>
+    <t xml:space="preserve">13.8629932403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9120378494263</t>
   </si>
   <si>
     <t xml:space="preserve">14.0918636322021</t>
@@ -1982,7 +1982,7 @@
     <t xml:space="preserve">14.2389945983887</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1409072875977</t>
+    <t xml:space="preserve">14.140905380249</t>
   </si>
   <si>
     <t xml:space="preserve">14.1245603561401</t>
@@ -1991,22 +1991,22 @@
     <t xml:space="preserve">14.1899509429932</t>
   </si>
   <si>
-    <t xml:space="preserve">14.304386138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0428199768066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0591688156128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9283847808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.271689414978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.206298828125</t>
+    <t xml:space="preserve">14.3043851852417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.042820930481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0591678619385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9283857345581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2716884613037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2062978744507</t>
   </si>
   <si>
     <t xml:space="preserve">14.2553434371948</t>
@@ -2015,22 +2015,22 @@
     <t xml:space="preserve">14.4515171051025</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5005598068237</t>
+    <t xml:space="preserve">14.500560760498</t>
   </si>
   <si>
     <t xml:space="preserve">14.4351692199707</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3534288406372</t>
+    <t xml:space="preserve">14.3534297943115</t>
   </si>
   <si>
     <t xml:space="preserve">14.5332565307617</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4842119216919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4678649902344</t>
+    <t xml:space="preserve">14.4842128753662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4678640365601</t>
   </si>
   <si>
     <t xml:space="preserve">14.402473449707</t>
@@ -2042,142 +2042,142 @@
     <t xml:space="preserve">14.5496025085449</t>
   </si>
   <si>
-    <t xml:space="preserve">14.369776725769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.944730758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2226467132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.879340171814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8765630722046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7457780838013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9256057739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7621250152588</t>
+    <t xml:space="preserve">14.3697776794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9447317123413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2226448059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8793411254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8765621185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7457790374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9256048202515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7621240615845</t>
   </si>
   <si>
     <t xml:space="preserve">14.974648475647</t>
   </si>
   <si>
-    <t xml:space="preserve">14.337082862854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5822992324829</t>
+    <t xml:space="preserve">14.3370819091797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5823001861572</t>
   </si>
   <si>
     <t xml:space="preserve">14.5659513473511</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2880382537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6803865432739</t>
+    <t xml:space="preserve">14.2880373001099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6803855895996</t>
   </si>
   <si>
     <t xml:space="preserve">14.6640405654907</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6967344284058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6476917266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5169086456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2198677062988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4160413742065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9909973144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2035188674927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4487371444702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.236213684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0727367401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3343029022217</t>
+    <t xml:space="preserve">14.6967334747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6476898193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5169076919556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2198667526245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4160423278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9909963607788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2035207748413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4487380981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2362127304077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.072735786438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.334300994873</t>
   </si>
   <si>
     <t xml:space="preserve">15.4323883056641</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8929100036621</t>
+    <t xml:space="preserve">14.8929090499878</t>
   </si>
   <si>
     <t xml:space="preserve">14.9092578887939</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8602151870728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2525615692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4814329147339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5468254089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2852602005005</t>
+    <t xml:space="preserve">14.8602142333984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2525625228882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4814319610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5468235015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2852582931519</t>
   </si>
   <si>
     <t xml:space="preserve">15.1381273269653</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1054306030273</t>
+    <t xml:space="preserve">15.1054315567017</t>
   </si>
   <si>
     <t xml:space="preserve">15.0563879013062</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9583005905151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7784729003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6313438415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3506517410278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9882164001465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0045642852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1843891143799</t>
+    <t xml:space="preserve">14.9583015441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7784748077393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6313419342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3506498336792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9882173538208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0045623779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1843910217285</t>
   </si>
   <si>
     <t xml:space="preserve">16.3887386322021</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6339569091797</t>
+    <t xml:space="preserve">16.6339588165283</t>
   </si>
   <si>
     <t xml:space="preserve">16.5113487243652</t>
@@ -2186,25 +2186,25 @@
     <t xml:space="preserve">16.5930862426758</t>
   </si>
   <si>
-    <t xml:space="preserve">17.001781463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2061309814453</t>
+    <t xml:space="preserve">17.0017833709717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2061328887939</t>
   </si>
   <si>
     <t xml:space="preserve">17.6148281097412</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8191776275635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7374401092529</t>
+    <t xml:space="preserve">17.8191757202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7374382019043</t>
   </si>
   <si>
     <t xml:space="preserve">17.4513511657715</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3696117401123</t>
+    <t xml:space="preserve">17.3696098327637</t>
   </si>
   <si>
     <t xml:space="preserve">17.2878723144531</t>
@@ -2213,7 +2213,7 @@
     <t xml:space="preserve">17.16526222229</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0426540374756</t>
+    <t xml:space="preserve">17.0426559448242</t>
   </si>
   <si>
     <t xml:space="preserve">17.0835227966309</t>
@@ -2222,10 +2222,10 @@
     <t xml:space="preserve">16.8383045196533</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8791770935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5739612579346</t>
+    <t xml:space="preserve">16.8791751861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5739593505859</t>
   </si>
   <si>
     <t xml:space="preserve">16.5522174835205</t>
@@ -2234,7 +2234,7 @@
     <t xml:space="preserve">16.2988262176514</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4296073913574</t>
+    <t xml:space="preserve">16.4296092987061</t>
   </si>
   <si>
     <t xml:space="preserve">15.9391736984253</t>
@@ -2243,7 +2243,7 @@
     <t xml:space="preserve">15.5795192718506</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8247365951538</t>
+    <t xml:space="preserve">15.8247375488281</t>
   </si>
   <si>
     <t xml:space="preserve">16.0536079406738</t>
@@ -2255,10 +2255,10 @@
     <t xml:space="preserve">13.0782957077026</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6859474182129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9203767776489</t>
+    <t xml:space="preserve">12.6859464645386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9203758239746</t>
   </si>
   <si>
     <t xml:space="preserve">11.2963771820068</t>
@@ -2267,13 +2267,13 @@
     <t xml:space="preserve">10.5934200286865</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6588106155396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1356801986694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2828102111816</t>
+    <t xml:space="preserve">10.6588115692139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1356782913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2828092575073</t>
   </si>
   <si>
     <t xml:space="preserve">10.5443754196167</t>
@@ -2297,13 +2297,13 @@
     <t xml:space="preserve">11.8685531616211</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0565538406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3998584747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1955099105835</t>
+    <t xml:space="preserve">12.0565528869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3998594284058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1955108642578</t>
   </si>
   <si>
     <t xml:space="preserve">12.1546411514282</t>
@@ -2321,34 +2321,34 @@
     <t xml:space="preserve">11.9829883575439</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8113355636597</t>
+    <t xml:space="preserve">11.8113346099854</t>
   </si>
   <si>
     <t xml:space="preserve">11.8603792190552</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7786407470703</t>
+    <t xml:space="preserve">11.778639793396</t>
   </si>
   <si>
     <t xml:space="preserve">11.6315088272095</t>
   </si>
   <si>
-    <t xml:space="preserve">12.105598449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5796852111816</t>
+    <t xml:space="preserve">12.1055974960327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.579686164856</t>
   </si>
   <si>
     <t xml:space="preserve">12.4652509689331</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7513380050659</t>
+    <t xml:space="preserve">12.7513389587402</t>
   </si>
   <si>
     <t xml:space="preserve">13.241774559021</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8330774307251</t>
+    <t xml:space="preserve">12.8330764770508</t>
   </si>
   <si>
     <t xml:space="preserve">12.4080333709717</t>
@@ -2357,19 +2357,19 @@
     <t xml:space="preserve">12.7349901199341</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9802093505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.413426399231</t>
+    <t xml:space="preserve">12.9802083969116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4134273529053</t>
   </si>
   <si>
     <t xml:space="preserve">13.7485580444336</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8956880569458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6913404464722</t>
+    <t xml:space="preserve">13.8956890106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6913414001465</t>
   </si>
   <si>
     <t xml:space="preserve">13.7567319869995</t>
@@ -2381,31 +2381,31 @@
     <t xml:space="preserve">14.1163845062256</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2635173797607</t>
+    <t xml:space="preserve">14.2635154724121</t>
   </si>
   <si>
     <t xml:space="preserve">14.1817770004272</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3452558517456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0482149124146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2689123153687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.366997718811</t>
+    <t xml:space="preserve">14.3452548980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0482139587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.26891040802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3669967651367</t>
   </si>
   <si>
     <t xml:space="preserve">15.5304756164551</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9664745330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9010810852051</t>
+    <t xml:space="preserve">14.9664735794067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9010820388794</t>
   </si>
   <si>
     <t xml:space="preserve">14.476037979126</t>
@@ -2420,7 +2420,7 @@
     <t xml:space="preserve">14.7049083709717</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6547508239746</t>
+    <t xml:space="preserve">14.6547517776489</t>
   </si>
   <si>
     <t xml:space="preserve">14.8769226074219</t>
@@ -2429,13 +2429,13 @@
     <t xml:space="preserve">14.526575088501</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3727645874023</t>
+    <t xml:space="preserve">14.3727655410767</t>
   </si>
   <si>
     <t xml:space="preserve">14.5522117614746</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8171091079712</t>
+    <t xml:space="preserve">14.8171072006226</t>
   </si>
   <si>
     <t xml:space="preserve">14.6034812927246</t>
@@ -2444,19 +2444,19 @@
     <t xml:space="preserve">14.8427438735962</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9794635772705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8683786392212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9623727798462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7743825912476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5180311203003</t>
+    <t xml:space="preserve">14.9794645309448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8683776855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9623737335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7743835449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.518030166626</t>
   </si>
   <si>
     <t xml:space="preserve">14.4667615890503</t>
@@ -2465,16 +2465,16 @@
     <t xml:space="preserve">14.304404258728</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1676845550537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3300399780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7060213088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5436658859253</t>
+    <t xml:space="preserve">14.1676836013794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.330039024353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7060203552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5436668395996</t>
   </si>
   <si>
     <t xml:space="preserve">14.7487478256226</t>
@@ -2483,10 +2483,10 @@
     <t xml:space="preserve">14.5863904953003</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1505937576294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9284229278564</t>
+    <t xml:space="preserve">14.1505928039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9284219741821</t>
   </si>
   <si>
     <t xml:space="preserve">14.1164140701294</t>
@@ -2498,7 +2498,7 @@
     <t xml:space="preserve">14.6120262145996</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8598318099976</t>
+    <t xml:space="preserve">14.8598327636719</t>
   </si>
   <si>
     <t xml:space="preserve">15.0905485153198</t>
@@ -2507,7 +2507,7 @@
     <t xml:space="preserve">15.4067163467407</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9367380142212</t>
+    <t xml:space="preserve">14.9367370605469</t>
   </si>
   <si>
     <t xml:space="preserve">14.9538288116455</t>
@@ -2516,28 +2516,28 @@
     <t xml:space="preserve">14.9709196090698</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3212652206421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2870845794678</t>
+    <t xml:space="preserve">15.3212642669678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2870855331421</t>
   </si>
   <si>
     <t xml:space="preserve">15.3554449081421</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5605249404907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2443590164185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1418180465698</t>
+    <t xml:space="preserve">15.560525894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2443599700928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1418199539185</t>
   </si>
   <si>
     <t xml:space="preserve">14.8512878417969</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0649137496948</t>
+    <t xml:space="preserve">15.0649127960205</t>
   </si>
   <si>
     <t xml:space="preserve">15.0392789840698</t>
@@ -2546,25 +2546,25 @@
     <t xml:space="preserve">14.6803874969482</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8940134048462</t>
+    <t xml:space="preserve">14.8940124511719</t>
   </si>
   <si>
     <t xml:space="preserve">15.1674547195435</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0136442184448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7145671844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0734586715698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9025592803955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2529058456421</t>
+    <t xml:space="preserve">15.0136432647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7145662307739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0734596252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9025583267212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2529067993164</t>
   </si>
   <si>
     <t xml:space="preserve">15.0050983428955</t>
@@ -2573,7 +2573,7 @@
     <t xml:space="preserve">14.9111032485962</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3127212524414</t>
+    <t xml:space="preserve">15.3127193450928</t>
   </si>
   <si>
     <t xml:space="preserve">15.3981714248657</t>
@@ -2582,52 +2582,52 @@
     <t xml:space="preserve">15.4323501586914</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0307350158691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7829275131226</t>
+    <t xml:space="preserve">15.0307321548462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7829265594482</t>
   </si>
   <si>
     <t xml:space="preserve">14.9880094528198</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1930894851685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.48362159729</t>
+    <t xml:space="preserve">15.1930904388428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4836225509644</t>
   </si>
   <si>
     <t xml:space="preserve">15.3639907836914</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3810815811157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5690717697144</t>
+    <t xml:space="preserve">15.3810806274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.56907081604</t>
   </si>
   <si>
     <t xml:space="preserve">15.4152612686157</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3298120498657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3041753768921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5092554092407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5348930358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8510570526123</t>
+    <t xml:space="preserve">15.3298110961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3041744232178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.509256362915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5348901748657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8510580062866</t>
   </si>
   <si>
     <t xml:space="preserve">15.6887035369873</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6801586151123</t>
+    <t xml:space="preserve">15.6801567077637</t>
   </si>
   <si>
     <t xml:space="preserve">15.2785387039185</t>
@@ -2636,7 +2636,7 @@
     <t xml:space="preserve">15.1503648757935</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7231121063232</t>
+    <t xml:space="preserve">14.7231111526489</t>
   </si>
   <si>
     <t xml:space="preserve">14.6718416213989</t>
@@ -2648,43 +2648,43 @@
     <t xml:space="preserve">14.7914724349976</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5607557296753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2358150482178</t>
+    <t xml:space="preserve">14.5607576370239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2358140945435</t>
   </si>
   <si>
     <t xml:space="preserve">15.2187242507935</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2614498138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0221891403198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9196481704712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9452829360962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.50071144104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0820045471191</t>
+    <t xml:space="preserve">15.2614517211914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0221881866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9196472167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9452838897705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5007095336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0820035934448</t>
   </si>
   <si>
     <t xml:space="preserve">14.4240341186523</t>
   </si>
   <si>
-    <t xml:space="preserve">14.253134727478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.184775352478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2104091644287</t>
+    <t xml:space="preserve">14.2531356811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1847743988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2104082107544</t>
   </si>
   <si>
     <t xml:space="preserve">14.1078691482544</t>
@@ -2705,25 +2705,25 @@
     <t xml:space="preserve">14.1591396331787</t>
   </si>
   <si>
-    <t xml:space="preserve">14.295859336853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5351209640503</t>
+    <t xml:space="preserve">14.2958583831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5351228713989</t>
   </si>
   <si>
     <t xml:space="preserve">14.7316570281982</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8341979980469</t>
+    <t xml:space="preserve">14.8341970443726</t>
   </si>
   <si>
     <t xml:space="preserve">14.8256530761719</t>
   </si>
   <si>
-    <t xml:space="preserve">14.577844619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.201865196228</t>
+    <t xml:space="preserve">14.5778455734253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2018642425537</t>
   </si>
   <si>
     <t xml:space="preserve">14.236044883728</t>
@@ -2732,40 +2732,40 @@
     <t xml:space="preserve">14.287314414978</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2189540863037</t>
+    <t xml:space="preserve">14.2189531326294</t>
   </si>
   <si>
     <t xml:space="preserve">13.9711484909058</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1249589920044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0993232727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5949354171753</t>
+    <t xml:space="preserve">14.1249599456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0993242263794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5949363708496</t>
   </si>
   <si>
     <t xml:space="preserve">14.4838514328003</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7572917938232</t>
+    <t xml:space="preserve">14.7572937011719</t>
   </si>
   <si>
     <t xml:space="preserve">14.6889324188232</t>
   </si>
   <si>
-    <t xml:space="preserve">14.355673789978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0651426315308</t>
+    <t xml:space="preserve">14.3556747436523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0651435852051</t>
   </si>
   <si>
     <t xml:space="preserve">14.0736875534058</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9796943664551</t>
+    <t xml:space="preserve">13.9796934127808</t>
   </si>
   <si>
     <t xml:space="preserve">13.9540586471558</t>
@@ -2774,28 +2774,28 @@
     <t xml:space="preserve">14.0565996170044</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7746124267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.244589805603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9965543746948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1332740783691</t>
+    <t xml:space="preserve">13.7746133804321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2445907592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9965524673462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1332721710205</t>
   </si>
   <si>
     <t xml:space="preserve">15.4408950805664</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6374320983887</t>
+    <t xml:space="preserve">15.63743019104</t>
   </si>
   <si>
     <t xml:space="preserve">15.8937835693359</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9365081787109</t>
+    <t xml:space="preserve">15.9365062713623</t>
   </si>
   <si>
     <t xml:space="preserve">16.0988655090332</t>
@@ -2807,58 +2807,58 @@
     <t xml:space="preserve">15.9279623031616</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7485179901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7656087875366</t>
+    <t xml:space="preserve">15.7485160827637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7656097412109</t>
   </si>
   <si>
     <t xml:space="preserve">15.9194173812866</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0903186798096</t>
+    <t xml:space="preserve">16.0903205871582</t>
   </si>
   <si>
     <t xml:space="preserve">16.5432071685791</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7226505279541</t>
+    <t xml:space="preserve">16.7226524353027</t>
   </si>
   <si>
     <t xml:space="preserve">16.3723049163818</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1843166351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3295822143555</t>
+    <t xml:space="preserve">16.1843147277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3295803070068</t>
   </si>
   <si>
     <t xml:space="preserve">16.3210353851318</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2355861663818</t>
+    <t xml:space="preserve">16.2355842590332</t>
   </si>
   <si>
     <t xml:space="preserve">16.0646839141846</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2526760101318</t>
+    <t xml:space="preserve">16.2526741027832</t>
   </si>
   <si>
     <t xml:space="preserve">16.1928596496582</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1159553527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1501350402832</t>
+    <t xml:space="preserve">16.1159534454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1501331329346</t>
   </si>
   <si>
     <t xml:space="preserve">16.1415882110596</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2099475860596</t>
+    <t xml:space="preserve">16.2099494934082</t>
   </si>
   <si>
     <t xml:space="preserve">16.4064865112305</t>
@@ -2876,31 +2876,31 @@
     <t xml:space="preserve">16.6201114654541</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6970195770264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7824668884277</t>
+    <t xml:space="preserve">16.6970176696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7824687957764</t>
   </si>
   <si>
     <t xml:space="preserve">16.8166484832764</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6713809967041</t>
+    <t xml:space="preserve">16.6713829040527</t>
   </si>
   <si>
     <t xml:space="preserve">16.4235744476318</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4406661987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5602951049805</t>
+    <t xml:space="preserve">16.4406642913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5602970123291</t>
   </si>
   <si>
     <t xml:space="preserve">16.6542911529541</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5944766998291</t>
+    <t xml:space="preserve">16.5944786071777</t>
   </si>
   <si>
     <t xml:space="preserve">16.5090255737305</t>
@@ -2909,13 +2909,13 @@
     <t xml:space="preserve">16.7568321228027</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0473670959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5344314575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4831600189209</t>
+    <t xml:space="preserve">17.0473651885986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5344333648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4831619262695</t>
   </si>
   <si>
     <t xml:space="preserve">17.2780799865723</t>
@@ -2927,7 +2927,7 @@
     <t xml:space="preserve">17.6027927398682</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7736911773682</t>
+    <t xml:space="preserve">17.7736930847168</t>
   </si>
   <si>
     <t xml:space="preserve">17.6711521148682</t>
@@ -2936,19 +2936,19 @@
     <t xml:space="preserve">17.5686111450195</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6882419586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8933219909668</t>
+    <t xml:space="preserve">17.6882438659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8933238983154</t>
   </si>
   <si>
     <t xml:space="preserve">17.7566032409668</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0813140869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2009429931641</t>
+    <t xml:space="preserve">18.0813159942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2009449005127</t>
   </si>
   <si>
     <t xml:space="preserve">17.9878616333008</t>

--- a/data/ACE.MI.xlsx
+++ b/data/ACE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="1514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="1516">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,28 +38,28 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50932598114014</t>
+    <t xml:space="preserve">9.50932788848877</t>
   </si>
   <si>
     <t xml:space="preserve">ACE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52303791046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18023681640625</t>
+    <t xml:space="preserve">9.52303981781006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18023586273193</t>
   </si>
   <si>
     <t xml:space="preserve">9.33106899261475</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37906169891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52989482879639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73557472229004</t>
+    <t xml:space="preserve">9.37906360626221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52989387512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73557567596436</t>
   </si>
   <si>
     <t xml:space="preserve">9.60531139373779</t>
@@ -71,19 +71,19 @@
     <t xml:space="preserve">9.23508548736572</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07739639282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75516223907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81686687469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00198078155518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01569080352783</t>
+    <t xml:space="preserve">9.07739543914795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75516319274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81686782836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00197887420654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01569175720215</t>
   </si>
   <si>
     <t xml:space="preserve">9.15281391143799</t>
@@ -95,52 +95,52 @@
     <t xml:space="preserve">9.39277362823486</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40648555755615</t>
+    <t xml:space="preserve">9.40648651123047</t>
   </si>
   <si>
     <t xml:space="preserve">9.28307723999023</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25565242767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21451663970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83743572235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39864826202393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24781513214111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09012699127197</t>
+    <t xml:space="preserve">9.25565338134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21451759338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83743476867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39864730834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2478141784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09012508392334</t>
   </si>
   <si>
     <t xml:space="preserve">8.25467109680176</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48091983795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43978309631348</t>
+    <t xml:space="preserve">8.48092079162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43978500366211</t>
   </si>
   <si>
     <t xml:space="preserve">8.46720886230469</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46035385131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23410511016846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40550422668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4946346282959</t>
+    <t xml:space="preserve">8.46035194396973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23410415649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40550327301025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49463272094727</t>
   </si>
   <si>
     <t xml:space="preserve">8.35065650939941</t>
@@ -149,25 +149,25 @@
     <t xml:space="preserve">8.50148773193359</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41236019134521</t>
+    <t xml:space="preserve">8.41236114501953</t>
   </si>
   <si>
     <t xml:space="preserve">8.55633640289307</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4534969329834</t>
+    <t xml:space="preserve">8.45349597930908</t>
   </si>
   <si>
     <t xml:space="preserve">8.37808036804199</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33008670806885</t>
+    <t xml:space="preserve">8.33008766174316</t>
   </si>
   <si>
     <t xml:space="preserve">8.86485862731934</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26936626434326</t>
+    <t xml:space="preserve">9.26936531066895</t>
   </si>
   <si>
     <t xml:space="preserve">9.59845447540283</t>
@@ -182,16 +182,16 @@
     <t xml:space="preserve">9.76985645294189</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71500778198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3653507232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31050109863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22137451171875</t>
+    <t xml:space="preserve">9.71500873565674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36534881591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31050300598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22137260437012</t>
   </si>
   <si>
     <t xml:space="preserve">9.351637840271</t>
@@ -203,58 +203,58 @@
     <t xml:space="preserve">9.49561500549316</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32421398162842</t>
+    <t xml:space="preserve">9.3242130279541</t>
   </si>
   <si>
     <t xml:space="preserve">9.29678916931152</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22822856903076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37220668792725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11853313446045</t>
+    <t xml:space="preserve">9.22823047637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37220573425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11853218078613</t>
   </si>
   <si>
     <t xml:space="preserve">8.74145030975342</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70716857910156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54948139190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6180419921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68660259246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73459529876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80315399169922</t>
+    <t xml:space="preserve">8.70716953277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54948043823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61804103851318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68660354614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73459434509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80315589904785</t>
   </si>
   <si>
     <t xml:space="preserve">8.89913845062256</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84428977966309</t>
+    <t xml:space="preserve">8.84429168701172</t>
   </si>
   <si>
     <t xml:space="preserve">8.81001091003418</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70031452178955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60432815551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9471321105957</t>
+    <t xml:space="preserve">8.70031261444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60433006286621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94713115692139</t>
   </si>
   <si>
     <t xml:space="preserve">8.97455501556396</t>
@@ -266,91 +266,91 @@
     <t xml:space="preserve">8.87171363830566</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72088241577148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65917778015137</t>
+    <t xml:space="preserve">8.7208833694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65917873382568</t>
   </si>
   <si>
     <t xml:space="preserve">8.89228343963623</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85800361633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95398712158203</t>
+    <t xml:space="preserve">8.85800266265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95398807525635</t>
   </si>
   <si>
     <t xml:space="preserve">9.06368446350098</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10481929779053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04997158050537</t>
+    <t xml:space="preserve">9.10482025146484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04997253417969</t>
   </si>
   <si>
     <t xml:space="preserve">8.91285133361816</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58376216888428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32323169708252</t>
+    <t xml:space="preserve">8.58376026153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32323265075684</t>
   </si>
   <si>
     <t xml:space="preserve">8.36436748504639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20668029785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95300579071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5827808380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70618867874146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7130446434021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87758827209473</t>
+    <t xml:space="preserve">8.20667839050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95300674438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58278036117554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70618772506714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71304368972778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87758922576904</t>
   </si>
   <si>
     <t xml:space="preserve">7.84174871444702</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79874229431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89909362792969</t>
+    <t xml:space="preserve">7.79874134063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89909267425537</t>
   </si>
   <si>
     <t xml:space="preserve">7.80590963363647</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3901686668396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05327272415161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18229675292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31131935119629</t>
+    <t xml:space="preserve">7.39016914367676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05327415466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18229722976685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31131982803345</t>
   </si>
   <si>
     <t xml:space="preserve">7.83458232879639</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74139833450317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78440475463867</t>
+    <t xml:space="preserve">7.74139738082886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78440570831299</t>
   </si>
   <si>
     <t xml:space="preserve">7.66971778869629</t>
@@ -359,49 +359,49 @@
     <t xml:space="preserve">7.50485515594482</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46901512145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54786157608032</t>
+    <t xml:space="preserve">7.46901607513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5478630065918</t>
   </si>
   <si>
     <t xml:space="preserve">7.59087133407593</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4546799659729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64821529388428</t>
+    <t xml:space="preserve">7.45467853546143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64821434020996</t>
   </si>
   <si>
     <t xml:space="preserve">7.66254997253418</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62671136856079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91342926025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90626192092896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38651466369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35784149169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92411136627197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89543914794922</t>
+    <t xml:space="preserve">7.62671089172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91343021392822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90626096725464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38651371002197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35784339904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92411231994629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89544105529785</t>
   </si>
   <si>
     <t xml:space="preserve">8.85960006713867</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03163051605225</t>
+    <t xml:space="preserve">9.03163146972656</t>
   </si>
   <si>
     <t xml:space="preserve">9.04596710205078</t>
@@ -419,34 +419,34 @@
     <t xml:space="preserve">8.79508876800537</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65889739990234</t>
+    <t xml:space="preserve">8.65889644622803</t>
   </si>
   <si>
     <t xml:space="preserve">8.70907211303711</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74491310119629</t>
+    <t xml:space="preserve">8.74491214752197</t>
   </si>
   <si>
     <t xml:space="preserve">8.5872163772583</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58005046844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56571292877197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59438514709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53704261779785</t>
+    <t xml:space="preserve">8.58004951477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56571388244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59438610076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53704071044922</t>
   </si>
   <si>
     <t xml:space="preserve">8.37934589385986</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46536159515381</t>
+    <t xml:space="preserve">8.46536350250244</t>
   </si>
   <si>
     <t xml:space="preserve">8.52270603179932</t>
@@ -458,37 +458,37 @@
     <t xml:space="preserve">8.61588954925537</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50836944580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54420948028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51553726196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30049991607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15713882446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17864322662354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26466083526611</t>
+    <t xml:space="preserve">8.50836849212646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54420852661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51553916931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30049896240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15713977813721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17864418029785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26465892791748</t>
   </si>
   <si>
     <t xml:space="preserve">8.09979629516602</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02094841003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99227619171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9421010017395</t>
+    <t xml:space="preserve">8.02094745635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99227714538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94210052490234</t>
   </si>
   <si>
     <t xml:space="preserve">7.96360492706299</t>
@@ -497,22 +497,22 @@
     <t xml:space="preserve">7.98510885238647</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94927024841309</t>
+    <t xml:space="preserve">7.94926881790161</t>
   </si>
   <si>
     <t xml:space="preserve">7.92776584625244</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92059755325317</t>
+    <t xml:space="preserve">7.92059659957886</t>
   </si>
   <si>
     <t xml:space="preserve">7.95643758773804</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93493223190308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82024621963501</t>
+    <t xml:space="preserve">7.93493127822876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82024526596069</t>
   </si>
   <si>
     <t xml:space="preserve">7.70555830001831</t>
@@ -521,13 +521,13 @@
     <t xml:space="preserve">7.79157400131226</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72706174850464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99944400787354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12846755981445</t>
+    <t xml:space="preserve">7.72706270217896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99944353103638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12846851348877</t>
   </si>
   <si>
     <t xml:space="preserve">8.20014667510986</t>
@@ -536,7 +536,7 @@
     <t xml:space="preserve">8.35067462921143</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32200241088867</t>
+    <t xml:space="preserve">8.32200145721436</t>
   </si>
   <si>
     <t xml:space="preserve">8.45102596282959</t>
@@ -545,7 +545,7 @@
     <t xml:space="preserve">8.40085029602051</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42235374450684</t>
+    <t xml:space="preserve">8.42235469818115</t>
   </si>
   <si>
     <t xml:space="preserve">8.4581937789917</t>
@@ -554,58 +554,58 @@
     <t xml:space="preserve">8.28616237640381</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17147541046143</t>
+    <t xml:space="preserve">8.17147636413574</t>
   </si>
   <si>
     <t xml:space="preserve">8.25032329559326</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1499719619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07829189300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56936740875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26831293106079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28981637954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23964071273804</t>
+    <t xml:space="preserve">8.14997100830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.078293800354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56936645507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26831340789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28981590270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23964166641235</t>
   </si>
   <si>
     <t xml:space="preserve">7.16796112060547</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11778593063354</t>
+    <t xml:space="preserve">7.11778545379639</t>
   </si>
   <si>
     <t xml:space="preserve">7.16437673568726</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21813726425171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35432910919189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22530508041382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29698514938354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21096897125244</t>
+    <t xml:space="preserve">7.21813583374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35432767868042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2253041267395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2969856262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21096992492676</t>
   </si>
   <si>
     <t xml:space="preserve">7.11061763763428</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59803867340088</t>
+    <t xml:space="preserve">7.5980396270752</t>
   </si>
   <si>
     <t xml:space="preserve">7.85608530044556</t>
@@ -617,7 +617,7 @@
     <t xml:space="preserve">8.27899551391602</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22165203094482</t>
+    <t xml:space="preserve">8.22165107727051</t>
   </si>
   <si>
     <t xml:space="preserve">8.2144832611084</t>
@@ -635,28 +635,28 @@
     <t xml:space="preserve">8.47969818115234</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49403476715088</t>
+    <t xml:space="preserve">8.49403381347656</t>
   </si>
   <si>
     <t xml:space="preserve">8.52987384796143</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73057651519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62305736541748</t>
+    <t xml:space="preserve">8.73057746887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62305545806885</t>
   </si>
   <si>
     <t xml:space="preserve">8.67323303222656</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12129878997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18581199645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25749206542969</t>
+    <t xml:space="preserve">8.12129974365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18581008911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25749111175537</t>
   </si>
   <si>
     <t xml:space="preserve">8.19297981262207</t>
@@ -665,37 +665,37 @@
     <t xml:space="preserve">8.55854511260986</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50120258331299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42952346801758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44385814666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55137634277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60155296325684</t>
+    <t xml:space="preserve">8.50120162963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42952251434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44385719299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55137825012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60155391693115</t>
   </si>
   <si>
     <t xml:space="preserve">8.66606521606445</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5728816986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43669033050537</t>
+    <t xml:space="preserve">8.57288074493408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43669128417969</t>
   </si>
   <si>
     <t xml:space="preserve">8.8165922164917</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68756866455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7664155960083</t>
+    <t xml:space="preserve">8.68756771087646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76641750335693</t>
   </si>
   <si>
     <t xml:space="preserve">8.88827133178711</t>
@@ -704,10 +704,10 @@
     <t xml:space="preserve">8.95278358459473</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99578952789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07463932037354</t>
+    <t xml:space="preserve">8.9957914352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07463836669922</t>
   </si>
   <si>
     <t xml:space="preserve">9.16782188415527</t>
@@ -719,34 +719,34 @@
     <t xml:space="preserve">9.10330963134766</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09614276885986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14631748199463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36135673522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35419082641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32551765441895</t>
+    <t xml:space="preserve">9.09614181518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14631843566895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36135768890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35418891906738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32551670074463</t>
   </si>
   <si>
     <t xml:space="preserve">9.31834983825684</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23950290679932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46170806884766</t>
+    <t xml:space="preserve">9.239501953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46170902252197</t>
   </si>
   <si>
     <t xml:space="preserve">9.42586803436279</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28250885009766</t>
+    <t xml:space="preserve">9.28250980377197</t>
   </si>
   <si>
     <t xml:space="preserve">9.36852550506592</t>
@@ -755,79 +755,79 @@
     <t xml:space="preserve">9.51905155181885</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52622127532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5333890914917</t>
+    <t xml:space="preserve">9.52622032165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53338718414307</t>
   </si>
   <si>
     <t xml:space="preserve">9.46887588500977</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7412576675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.597900390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74842834472656</t>
+    <t xml:space="preserve">9.74125957489014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59789943695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74842643737793</t>
   </si>
   <si>
     <t xml:space="preserve">9.77709865570068</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87028217315674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0924882888794</t>
+    <t xml:space="preserve">9.87028312683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0924892425537</t>
   </si>
   <si>
     <t xml:space="preserve">10.1498327255249</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95629692077637</t>
+    <t xml:space="preserve">9.95629787445068</t>
   </si>
   <si>
     <t xml:space="preserve">9.89895534515381</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94913101196289</t>
+    <t xml:space="preserve">9.94912910461426</t>
   </si>
   <si>
     <t xml:space="preserve">10.1570014953613</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9706335067749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98497009277344</t>
+    <t xml:space="preserve">9.97063446044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98497104644775</t>
   </si>
   <si>
     <t xml:space="preserve">10.1785039901733</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2645196914673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.29319190979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3361988067627</t>
+    <t xml:space="preserve">10.2645206451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2931928634644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3362007141113</t>
   </si>
   <si>
     <t xml:space="preserve">10.4365510940552</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3146963119507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4293823242188</t>
+    <t xml:space="preserve">10.3146953582764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4293832778931</t>
   </si>
   <si>
     <t xml:space="preserve">10.3792066574097</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4150466918945</t>
+    <t xml:space="preserve">10.4150476455688</t>
   </si>
   <si>
     <t xml:space="preserve">10.3218641281128</t>
@@ -842,10 +842,10 @@
     <t xml:space="preserve">10.4437189102173</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5584058761597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4078798294067</t>
+    <t xml:space="preserve">10.558406829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4078788757324</t>
   </si>
   <si>
     <t xml:space="preserve">10.3505353927612</t>
@@ -854,25 +854,25 @@
     <t xml:space="preserve">10.5227947235107</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4104518890381</t>
+    <t xml:space="preserve">10.4104509353638</t>
   </si>
   <si>
     <t xml:space="preserve">10.6126699447632</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5078163146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4478988647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4853467941284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1857671737671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0584449768066</t>
+    <t xml:space="preserve">10.5078153610229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4478998184204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4853477478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1857652664185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.058443069458</t>
   </si>
   <si>
     <t xml:space="preserve">10.1183605194092</t>
@@ -893,25 +893,25 @@
     <t xml:space="preserve">9.74388313293457</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87869453430176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99852752685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81128883361816</t>
+    <t xml:space="preserve">9.87869358062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99852848052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81128978729248</t>
   </si>
   <si>
     <t xml:space="preserve">10.0060167312622</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0434646606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0659322738647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1782760620117</t>
+    <t xml:space="preserve">10.0434637069702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0659332275391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.178277015686</t>
   </si>
   <si>
     <t xml:space="preserve">10.0734233856201</t>
@@ -920,13 +920,13 @@
     <t xml:space="preserve">10.0884017944336</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96107959747314</t>
+    <t xml:space="preserve">9.96107864379883</t>
   </si>
   <si>
     <t xml:space="preserve">10.0359754562378</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81877899169922</t>
+    <t xml:space="preserve">9.81877708435059</t>
   </si>
   <si>
     <t xml:space="preserve">9.87120532989502</t>
@@ -938,28 +938,28 @@
     <t xml:space="preserve">9.42932319641113</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49672985076904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45179271697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46677112579346</t>
+    <t xml:space="preserve">9.49672889709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45179176330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46677017211914</t>
   </si>
   <si>
     <t xml:space="preserve">9.60907173156738</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44430065155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33944797515869</t>
+    <t xml:space="preserve">9.44430160522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33944892883301</t>
   </si>
   <si>
     <t xml:space="preserve">9.21961688995361</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36940765380859</t>
+    <t xml:space="preserve">9.36940574645996</t>
   </si>
   <si>
     <t xml:space="preserve">9.37689590454102</t>
@@ -968,25 +968,25 @@
     <t xml:space="preserve">9.30200099945068</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31698036193848</t>
+    <t xml:space="preserve">9.31697845458984</t>
   </si>
   <si>
     <t xml:space="preserve">9.2720422744751</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27953338623047</t>
+    <t xml:space="preserve">9.27953243255615</t>
   </si>
   <si>
     <t xml:space="preserve">9.21212673187256</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15969848632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14472103118896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12225151062012</t>
+    <t xml:space="preserve">9.15970039367676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14471912384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12225246429443</t>
   </si>
   <si>
     <t xml:space="preserve">9.06233596801758</t>
@@ -995,10 +995,10 @@
     <t xml:space="preserve">9.03237819671631</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08480548858643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2570629119873</t>
+    <t xml:space="preserve">9.08480453491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25706386566162</t>
   </si>
   <si>
     <t xml:space="preserve">9.17467880249023</t>
@@ -1007,10 +1007,10 @@
     <t xml:space="preserve">9.28702163696289</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75137329101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92363262176514</t>
+    <t xml:space="preserve">9.75137424468994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92363166809082</t>
   </si>
   <si>
     <t xml:space="preserve">9.69145679473877</t>
@@ -1019,46 +1019,46 @@
     <t xml:space="preserve">9.59409236907959</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60158252716064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61656093597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73639392852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79630947113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66898727416992</t>
+    <t xml:space="preserve">9.60158157348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61656188964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73639297485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79631042480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66898822784424</t>
   </si>
   <si>
     <t xml:space="preserve">9.67647743225098</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72141456604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82626819610596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91614246368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85622596740723</t>
+    <t xml:space="preserve">9.72141361236572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82626724243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9161434173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85622692108154</t>
   </si>
   <si>
     <t xml:space="preserve">9.8337574005127</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1558074951172</t>
+    <t xml:space="preserve">10.1558084487915</t>
   </si>
   <si>
     <t xml:space="preserve">10.170786857605</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2756414413452</t>
+    <t xml:space="preserve">10.2756404876709</t>
   </si>
   <si>
     <t xml:space="preserve">10.2232131958008</t>
@@ -1067,7 +1067,7 @@
     <t xml:space="preserve">10.358024597168</t>
   </si>
   <si>
-    <t xml:space="preserve">10.402961730957</t>
+    <t xml:space="preserve">10.4029626846313</t>
   </si>
   <si>
     <t xml:space="preserve">10.552752494812</t>
@@ -1076,13 +1076,13 @@
     <t xml:space="preserve">10.4703674316406</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3804931640625</t>
+    <t xml:space="preserve">10.3804941177368</t>
   </si>
   <si>
     <t xml:space="preserve">10.5302848815918</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5003261566162</t>
+    <t xml:space="preserve">10.5003271102905</t>
   </si>
   <si>
     <t xml:space="preserve">10.8822927474976</t>
@@ -1091,43 +1091,43 @@
     <t xml:space="preserve">10.9122495651245</t>
   </si>
   <si>
-    <t xml:space="preserve">10.934718132019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8748035430908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7999057769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.777440071106</t>
+    <t xml:space="preserve">10.9347200393677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8748025894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7999076843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7774381637573</t>
   </si>
   <si>
     <t xml:space="preserve">10.7325019836426</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5976905822754</t>
+    <t xml:space="preserve">10.5976896286011</t>
   </si>
   <si>
     <t xml:space="preserve">10.7474813461304</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6950550079346</t>
+    <t xml:space="preserve">10.6950540542603</t>
   </si>
   <si>
     <t xml:space="preserve">11.0245943069458</t>
   </si>
   <si>
-    <t xml:space="preserve">11.002124786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9646787643433</t>
+    <t xml:space="preserve">11.0021238327026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9646768569946</t>
   </si>
   <si>
     <t xml:space="preserve">11.0770206451416</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0171041488647</t>
+    <t xml:space="preserve">11.0171051025391</t>
   </si>
   <si>
     <t xml:space="preserve">10.9721660614014</t>
@@ -1142,43 +1142,43 @@
     <t xml:space="preserve">12.6573114395142</t>
   </si>
   <si>
-    <t xml:space="preserve">12.79212474823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7022485733032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7322063446045</t>
+    <t xml:space="preserve">12.7921237945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7022476196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7322072982788</t>
   </si>
   <si>
     <t xml:space="preserve">12.6648015975952</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6498231887817</t>
+    <t xml:space="preserve">12.6498222351074</t>
   </si>
   <si>
     <t xml:space="preserve">12.717227935791</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5524578094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2453870773315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1480226516724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.028190612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3502416610718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9607858657837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7061405181885</t>
+    <t xml:space="preserve">12.5524587631226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2453880310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1480236053467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0281896591187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3502397537231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9607839584351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7061424255371</t>
   </si>
   <si>
     <t xml:space="preserve">11.5563507080078</t>
@@ -1193,7 +1193,7 @@
     <t xml:space="preserve">11.533881187439</t>
   </si>
   <si>
-    <t xml:space="preserve">11.578818321228</t>
+    <t xml:space="preserve">11.5788192749023</t>
   </si>
   <si>
     <t xml:space="preserve">11.7585668563843</t>
@@ -1205,25 +1205,25 @@
     <t xml:space="preserve">12.0731296539307</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1555137634277</t>
+    <t xml:space="preserve">12.1555128097534</t>
   </si>
   <si>
     <t xml:space="preserve">11.9458055496216</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8559322357178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7510776519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8035049438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9832544326782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0955963134766</t>
+    <t xml:space="preserve">11.8559303283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7510786056519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.803505897522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9832534790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0955972671509</t>
   </si>
   <si>
     <t xml:space="preserve">12.1630029678345</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">12.2154293060303</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3053045272827</t>
+    <t xml:space="preserve">12.3053035736084</t>
   </si>
   <si>
     <t xml:space="preserve">12.0881061553955</t>
@@ -1250,49 +1250,49 @@
     <t xml:space="preserve">11.7136306762695</t>
   </si>
   <si>
-    <t xml:space="preserve">11.653715133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6312465667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4589862823486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1668949127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9197406768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2717485427856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9796562194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0994892120361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1219568252563</t>
+    <t xml:space="preserve">11.6537141799927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6312446594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4589872360229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1668939590454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9197397232056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2717475891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9796552658081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0994882583618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.121958732605</t>
   </si>
   <si>
     <t xml:space="preserve">11.196852684021</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1519155502319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0320835113525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7250118255615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5153045654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.440408706665</t>
+    <t xml:space="preserve">11.1519165039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0320825576782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7250127792358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.515305519104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4404106140137</t>
   </si>
   <si>
     <t xml:space="preserve">10.665096282959</t>
@@ -1304,19 +1304,19 @@
     <t xml:space="preserve">10.7025442123413</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4628791809082</t>
+    <t xml:space="preserve">10.4628782272339</t>
   </si>
   <si>
     <t xml:space="preserve">10.5677318572998</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3355560302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1932554244995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1033811569214</t>
+    <t xml:space="preserve">10.3355569839478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1932544708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1033802032471</t>
   </si>
   <si>
     <t xml:space="preserve">10.2082357406616</t>
@@ -1325,265 +1325,268 @@
     <t xml:space="preserve">10.0284852981567</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1483192443848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3205785751343</t>
+    <t xml:space="preserve">10.1483182907104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.32057762146</t>
   </si>
   <si>
     <t xml:space="preserve">10.2606611251831</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2157230377197</t>
+    <t xml:space="preserve">10.215723991394</t>
   </si>
   <si>
     <t xml:space="preserve">10.1333389282227</t>
   </si>
   <si>
+    <t xml:space="preserve">10.2831287384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4254312515259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5452642440796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6426277160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8373556137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8448438644409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8073968887329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0096139907837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8598232269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7924184799194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4778575897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.739990234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2906188964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9685697555542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72890472412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99103736877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3879823684692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2438812255859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2752799987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2203321456909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0790376663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1182851791382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0162391662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0319395065308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99268913269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94559192657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0005397796631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97699165344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1653833389282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2595806121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3930253982544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1889324188232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0711879730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0947370529175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2046318054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.25172996521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0868873596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1496839523315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.377326965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4401245117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4087257385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6206674575806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7305631637573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5735692977905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6363658905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6756153106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7070140838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5892677307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6834650039673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5421705245972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4558229446411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5107717514038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.290979385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.338077545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2674312591553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2281808853149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0554876327515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75719833374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63945198059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60020446777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71794986724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92989253997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96914005279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1104354858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2124824523926</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.2831296920776</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4254312515259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5452632904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6426286697388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8373556137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8448438644409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8073978424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.009614944458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.859824180603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7924184799194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4778575897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7399921417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2906188964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9685697555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72890377044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99103832244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3879833221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2438821792603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.275279045105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2203321456909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0790367126465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1182861328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0162391662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0319385528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99268817901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94559288024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0005397796631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97699165344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1653833389282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2595806121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3930253982544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1889324188232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0711870193481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0947370529175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2046318054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2517309188843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0868873596191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1496839523315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3773279190063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4401245117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4087247848511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6206674575806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7305641174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5735683441162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6363677978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6756162643433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7070140838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5892686843872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.683464050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5421705245972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4558229446411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5107717514038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2909784317017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.338077545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2674293518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2281808853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0554876327515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75719833374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63945198059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60020351409912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71794986724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92989158630371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96914005279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1104354858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2124824523926</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.3851757049561</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4244232177734</t>
+    <t xml:space="preserve">10.4244241714478</t>
   </si>
   <si>
     <t xml:space="preserve">10.3694763183594</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1339836120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0083894729614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1418342590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67085075378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6159029006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41180992126465</t>
+    <t xml:space="preserve">10.1339845657349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0083885192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1418352127075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6708517074585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61590385437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41181087493896</t>
   </si>
   <si>
     <t xml:space="preserve">9.38041210174561</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28621578216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50600719451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3961124420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14492034912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13707065582275</t>
+    <t xml:space="preserve">9.28621482849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50600814819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39611148834229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14492130279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13707160949707</t>
   </si>
   <si>
     <t xml:space="preserve">9.09782218933105</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8937292098999</t>
+    <t xml:space="preserve">8.89373016357422</t>
   </si>
   <si>
     <t xml:space="preserve">8.91727828979492</t>
@@ -1595,37 +1598,37 @@
     <t xml:space="preserve">8.7759838104248</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01147556304932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02717590332031</t>
+    <t xml:space="preserve">9.011474609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.027174949646</t>
   </si>
   <si>
     <t xml:space="preserve">9.11352157592773</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16062068939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27051544189453</t>
+    <t xml:space="preserve">9.16061973571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27051734924316</t>
   </si>
   <si>
     <t xml:space="preserve">9.24696636199951</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40396118164062</t>
+    <t xml:space="preserve">9.40396022796631</t>
   </si>
   <si>
     <t xml:space="preserve">9.31761455535889</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1261339187622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0476379394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0240898132324</t>
+    <t xml:space="preserve">10.1261348724365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0476388931274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0240888595581</t>
   </si>
   <si>
     <t xml:space="preserve">9.74149894714355</t>
@@ -1634,7 +1637,7 @@
     <t xml:space="preserve">9.74934864044189</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57665538787842</t>
+    <t xml:space="preserve">9.5766544342041</t>
   </si>
   <si>
     <t xml:space="preserve">9.46675968170166</t>
@@ -1643,31 +1646,31 @@
     <t xml:space="preserve">9.48245811462402</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34116268157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42751121520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4196605682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29406547546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25481700897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33331298828125</t>
+    <t xml:space="preserve">9.34116363525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42751026153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41966152191162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29406452178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25481605529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33331394195557</t>
   </si>
   <si>
     <t xml:space="preserve">9.08212280273438</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7336483001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52170753479004</t>
+    <t xml:space="preserve">9.73364925384521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52170658111572</t>
   </si>
   <si>
     <t xml:space="preserve">9.22341823577881</t>
@@ -1676,16 +1679,16 @@
     <t xml:space="preserve">9.06642246246338</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26266670227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35686206817627</t>
+    <t xml:space="preserve">9.26266574859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35686302185059</t>
   </si>
   <si>
     <t xml:space="preserve">9.5374059677124</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27836513519287</t>
+    <t xml:space="preserve">9.27836418151855</t>
   </si>
   <si>
     <t xml:space="preserve">9.4353609085083</t>
@@ -1694,34 +1697,34 @@
     <t xml:space="preserve">9.60805416107178</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77289772033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79644680023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85139465332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2360324859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5186214447021</t>
+    <t xml:space="preserve">9.7728967666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79644775390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85139656066895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2360305786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5186204910278</t>
   </si>
   <si>
     <t xml:space="preserve">10.5971183776855</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4793729782104</t>
+    <t xml:space="preserve">10.4793720245361</t>
   </si>
   <si>
     <t xml:space="preserve">10.3459272384644</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5578699111938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6913146972656</t>
+    <t xml:space="preserve">10.5578708648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6913137435913</t>
   </si>
   <si>
     <t xml:space="preserve">10.6285171508789</t>
@@ -1730,49 +1733,49 @@
     <t xml:space="preserve">10.6520662307739</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5264701843262</t>
+    <t xml:space="preserve">10.5264711380005</t>
   </si>
   <si>
     <t xml:space="preserve">10.7148628234863</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9582061767578</t>
+    <t xml:space="preserve">10.9582042694092</t>
   </si>
   <si>
     <t xml:space="preserve">10.9032573699951</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9268054962158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.793360710144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9111070632935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8954086303711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0838003158569</t>
+    <t xml:space="preserve">10.9268064498901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7933616638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9111061096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8954076766968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0838012695312</t>
   </si>
   <si>
     <t xml:space="preserve">11.3271427154541</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4213390350342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7353267669678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9001712799072</t>
+    <t xml:space="preserve">11.4213380813599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7353277206421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9001703262329</t>
   </si>
   <si>
     <t xml:space="preserve">11.7667255401611</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8138256072998</t>
+    <t xml:space="preserve">11.8138236999512</t>
   </si>
   <si>
     <t xml:space="preserve">11.7274770736694</t>
@@ -1781,31 +1784,31 @@
     <t xml:space="preserve">11.8452234268188</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8216753005981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9158706665039</t>
+    <t xml:space="preserve">11.8216743469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9158716201782</t>
   </si>
   <si>
     <t xml:space="preserve">11.8609218597412</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9315710067749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8923215866089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8766222000122</t>
+    <t xml:space="preserve">11.9315700531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8923206329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8766212463379</t>
   </si>
   <si>
     <t xml:space="preserve">11.8530731201172</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8295240402222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.072865486145</t>
+    <t xml:space="preserve">11.8295230865479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0728645324707</t>
   </si>
   <si>
     <t xml:space="preserve">12.5595474243164</t>
@@ -1817,22 +1820,22 @@
     <t xml:space="preserve">12.7165422439575</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5124483108521</t>
+    <t xml:space="preserve">12.5124492645264</t>
   </si>
   <si>
     <t xml:space="preserve">12.6537446975708</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6380443572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4967498779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3397560119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1513614654541</t>
+    <t xml:space="preserve">12.6380453109741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.496750831604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3397541046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1513624191284</t>
   </si>
   <si>
     <t xml:space="preserve">12.1670627593994</t>
@@ -1856,13 +1859,13 @@
     <t xml:space="preserve">12.8421382904053</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7636404037476</t>
+    <t xml:space="preserve">12.7636394500732</t>
   </si>
   <si>
     <t xml:space="preserve">13.1090288162231</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2032241821289</t>
+    <t xml:space="preserve">13.2032251358032</t>
   </si>
   <si>
     <t xml:space="preserve">13.3916168212891</t>
@@ -1871,61 +1874,61 @@
     <t xml:space="preserve">13.2503223419189</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1247272491455</t>
+    <t xml:space="preserve">13.1247262954712</t>
   </si>
   <si>
     <t xml:space="preserve">13.0776281356812</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9834337234497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.92063331604</t>
+    <t xml:space="preserve">12.9834327697754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9206352233887</t>
   </si>
   <si>
     <t xml:space="preserve">13.0462293624878</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1561260223389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1718273162842</t>
+    <t xml:space="preserve">13.1561269760132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1718263626099</t>
   </si>
   <si>
     <t xml:space="preserve">13.0933284759521</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1404266357422</t>
+    <t xml:space="preserve">13.1404256820679</t>
   </si>
   <si>
     <t xml:space="preserve">13.0619287490845</t>
   </si>
   <si>
-    <t xml:space="preserve">13.344518661499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4858150482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5800085067749</t>
+    <t xml:space="preserve">13.3445196151733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4858131408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5800094604492</t>
   </si>
   <si>
     <t xml:space="preserve">13.6114110946655</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6585063934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7527055740356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8312015533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8469018936157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8626003265381</t>
+    <t xml:space="preserve">13.6585073471069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.752703666687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.831202507019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8469009399414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8626012802124</t>
   </si>
   <si>
     <t xml:space="preserve">13.9253988265991</t>
@@ -1943,22 +1946,22 @@
     <t xml:space="preserve">14.1736040115356</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0101232528687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9774284362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6995143890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6831665039062</t>
+    <t xml:space="preserve">14.010124206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9774293899536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6995153427124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6831655502319</t>
   </si>
   <si>
     <t xml:space="preserve">13.6177749633789</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7649049758911</t>
+    <t xml:space="preserve">13.7649068832397</t>
   </si>
   <si>
     <t xml:space="preserve">14.1572542190552</t>
@@ -1967,16 +1970,16 @@
     <t xml:space="preserve">14.0755157470703</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8629932403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9120378494263</t>
+    <t xml:space="preserve">13.8629922866821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.912036895752</t>
   </si>
   <si>
     <t xml:space="preserve">14.0918636322021</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0264720916748</t>
+    <t xml:space="preserve">14.0264711380005</t>
   </si>
   <si>
     <t xml:space="preserve">14.2389945983887</t>
@@ -1988,13 +1991,13 @@
     <t xml:space="preserve">14.1245603561401</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1899509429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3043851852417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.042820930481</t>
+    <t xml:space="preserve">14.1899518966675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.304386138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0428190231323</t>
   </si>
   <si>
     <t xml:space="preserve">14.0591678619385</t>
@@ -2003,16 +2006,16 @@
     <t xml:space="preserve">13.9283857345581</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2716884613037</t>
+    <t xml:space="preserve">14.271689414978</t>
   </si>
   <si>
     <t xml:space="preserve">14.2062978744507</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2553434371948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4515171051025</t>
+    <t xml:space="preserve">14.2553424835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4515161514282</t>
   </si>
   <si>
     <t xml:space="preserve">14.500560760498</t>
@@ -2021,7 +2024,7 @@
     <t xml:space="preserve">14.4351692199707</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3534297943115</t>
+    <t xml:space="preserve">14.3534278869629</t>
   </si>
   <si>
     <t xml:space="preserve">14.5332565307617</t>
@@ -2030,13 +2033,13 @@
     <t xml:space="preserve">14.4842128753662</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4678640365601</t>
+    <t xml:space="preserve">14.4678659439087</t>
   </si>
   <si>
     <t xml:space="preserve">14.402473449707</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3207340240479</t>
+    <t xml:space="preserve">14.3207330703735</t>
   </si>
   <si>
     <t xml:space="preserve">14.5496025085449</t>
@@ -2048,22 +2051,22 @@
     <t xml:space="preserve">13.9447317123413</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2226448059082</t>
+    <t xml:space="preserve">14.2226457595825</t>
   </si>
   <si>
     <t xml:space="preserve">13.8793411254883</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8765621185303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7457790374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9256048202515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7621240615845</t>
+    <t xml:space="preserve">14.8765630722046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7457780838013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9256038665771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7621269226074</t>
   </si>
   <si>
     <t xml:space="preserve">14.974648475647</t>
@@ -2075,13 +2078,13 @@
     <t xml:space="preserve">14.5823001861572</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5659513473511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2880373001099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6803855895996</t>
+    <t xml:space="preserve">14.5659523010254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2880382537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6803865432739</t>
   </si>
   <si>
     <t xml:space="preserve">14.6640405654907</t>
@@ -2093,49 +2096,49 @@
     <t xml:space="preserve">14.6476898193359</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5169076919556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2198667526245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4160423278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9909963607788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2035207748413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4487380981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2362127304077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.072735786438</t>
+    <t xml:space="preserve">14.5169086456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2198677062988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4160413742065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9909973144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2035188674927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4487371444702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.236213684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0727367401123</t>
   </si>
   <si>
     <t xml:space="preserve">15.334300994873</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4323883056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8929090499878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9092578887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8602142333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2525625228882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4814319610596</t>
+    <t xml:space="preserve">15.4323863983154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8929100036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9092559814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8602151870728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2525634765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4814329147339</t>
   </si>
   <si>
     <t xml:space="preserve">15.5468235015869</t>
@@ -2147,16 +2150,16 @@
     <t xml:space="preserve">15.1381273269653</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1054315567017</t>
+    <t xml:space="preserve">15.1054306030273</t>
   </si>
   <si>
     <t xml:space="preserve">15.0563879013062</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9583015441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7784748077393</t>
+    <t xml:space="preserve">14.9583005905151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7784729003906</t>
   </si>
   <si>
     <t xml:space="preserve">14.6313419342041</t>
@@ -2165,19 +2168,19 @@
     <t xml:space="preserve">15.3506498336792</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9882173538208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0045623779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1843910217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3887386322021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6339588165283</t>
+    <t xml:space="preserve">15.9882164001465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0045642852783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1843891143799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3887367248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6339569091797</t>
   </si>
   <si>
     <t xml:space="preserve">16.5113487243652</t>
@@ -2186,25 +2189,25 @@
     <t xml:space="preserve">16.5930862426758</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0017833709717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2061328887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6148281097412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8191757202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7374382019043</t>
+    <t xml:space="preserve">17.001781463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2061309814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6148262023926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8191776275635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7374401092529</t>
   </si>
   <si>
     <t xml:space="preserve">17.4513511657715</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3696098327637</t>
+    <t xml:space="preserve">17.3696117401123</t>
   </si>
   <si>
     <t xml:space="preserve">17.2878723144531</t>
@@ -2213,19 +2216,19 @@
     <t xml:space="preserve">17.16526222229</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0426559448242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0835227966309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8383045196533</t>
+    <t xml:space="preserve">17.0426540374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0835247039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.838306427002</t>
   </si>
   <si>
     <t xml:space="preserve">16.8791751861572</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5739593505859</t>
+    <t xml:space="preserve">17.5739612579346</t>
   </si>
   <si>
     <t xml:space="preserve">16.5522174835205</t>
@@ -2234,16 +2237,16 @@
     <t xml:space="preserve">16.2988262176514</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4296092987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9391736984253</t>
+    <t xml:space="preserve">16.4296073913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9391717910767</t>
   </si>
   <si>
     <t xml:space="preserve">15.5795192718506</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8247375488281</t>
+    <t xml:space="preserve">15.8247365951538</t>
   </si>
   <si>
     <t xml:space="preserve">16.0536079406738</t>
@@ -2255,22 +2258,22 @@
     <t xml:space="preserve">13.0782957077026</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6859464645386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9203758239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2963771820068</t>
+    <t xml:space="preserve">12.6859474182129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9203767776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2963781356812</t>
   </si>
   <si>
     <t xml:space="preserve">10.5934200286865</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6588115692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1356782913208</t>
+    <t xml:space="preserve">10.6588106155396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1356792449951</t>
   </si>
   <si>
     <t xml:space="preserve">10.2828092575073</t>
@@ -2288,7 +2291,7 @@
     <t xml:space="preserve">11.8358564376831</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7214231491089</t>
+    <t xml:space="preserve">11.7214221954346</t>
   </si>
   <si>
     <t xml:space="preserve">12.0974235534668</t>
@@ -2297,13 +2300,13 @@
     <t xml:space="preserve">11.8685531616211</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0565528869629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3998594284058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1955108642578</t>
+    <t xml:space="preserve">12.0565538406372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3998584747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1955099105835</t>
   </si>
   <si>
     <t xml:space="preserve">12.1546411514282</t>
@@ -2315,10 +2318,10 @@
     <t xml:space="preserve">12.244553565979</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5142946243286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9829883575439</t>
+    <t xml:space="preserve">12.5142955780029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9829893112183</t>
   </si>
   <si>
     <t xml:space="preserve">11.8113346099854</t>
@@ -2327,28 +2330,28 @@
     <t xml:space="preserve">11.8603792190552</t>
   </si>
   <si>
-    <t xml:space="preserve">11.778639793396</t>
+    <t xml:space="preserve">11.7786407470703</t>
   </si>
   <si>
     <t xml:space="preserve">11.6315088272095</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1055974960327</t>
+    <t xml:space="preserve">12.105598449707</t>
   </si>
   <si>
     <t xml:space="preserve">12.579686164856</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4652509689331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7513389587402</t>
+    <t xml:space="preserve">12.4652519226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7513380050659</t>
   </si>
   <si>
     <t xml:space="preserve">13.241774559021</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8330764770508</t>
+    <t xml:space="preserve">12.8330774307251</t>
   </si>
   <si>
     <t xml:space="preserve">12.4080333709717</t>
@@ -2360,58 +2363,58 @@
     <t xml:space="preserve">12.9802083969116</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4134273529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7485580444336</t>
+    <t xml:space="preserve">13.413426399231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7485589981079</t>
   </si>
   <si>
     <t xml:space="preserve">13.8956890106201</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6913414001465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7567319869995</t>
+    <t xml:space="preserve">13.6913404464722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7567329406738</t>
   </si>
   <si>
     <t xml:space="preserve">13.7240371704102</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1163845062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2635154724121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1817770004272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3452548980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0482139587402</t>
+    <t xml:space="preserve">14.1163854598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2635164260864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1817779541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.345253944397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0482130050659</t>
   </si>
   <si>
     <t xml:space="preserve">15.26891040802</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3669967651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5304756164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9664735794067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9010820388794</t>
+    <t xml:space="preserve">15.366997718811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5304746627808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9664745330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9010829925537</t>
   </si>
   <si>
     <t xml:space="preserve">14.476037979126</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4433431625366</t>
+    <t xml:space="preserve">14.443341255188</t>
   </si>
   <si>
     <t xml:space="preserve">14.9174299240112</t>
@@ -2420,13 +2423,13 @@
     <t xml:space="preserve">14.7049083709717</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6547517776489</t>
+    <t xml:space="preserve">14.6547508239746</t>
   </si>
   <si>
     <t xml:space="preserve">14.8769226074219</t>
   </si>
   <si>
-    <t xml:space="preserve">14.526575088501</t>
+    <t xml:space="preserve">14.5265760421753</t>
   </si>
   <si>
     <t xml:space="preserve">14.3727655410767</t>
@@ -2435,16 +2438,16 @@
     <t xml:space="preserve">14.5522117614746</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8171072006226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6034812927246</t>
+    <t xml:space="preserve">14.8171091079712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6034822463989</t>
   </si>
   <si>
     <t xml:space="preserve">14.8427438735962</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9794645309448</t>
+    <t xml:space="preserve">14.9794635772705</t>
   </si>
   <si>
     <t xml:space="preserve">14.8683776855469</t>
@@ -2453,25 +2456,25 @@
     <t xml:space="preserve">14.9623737335205</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7743835449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.518030166626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4667615890503</t>
+    <t xml:space="preserve">14.7743825912476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5180311203003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.466760635376</t>
   </si>
   <si>
     <t xml:space="preserve">14.304404258728</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1676836013794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.330039024353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7060203552246</t>
+    <t xml:space="preserve">14.1676845550537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3300399780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7060222625732</t>
   </si>
   <si>
     <t xml:space="preserve">14.5436668395996</t>
@@ -2486,19 +2489,19 @@
     <t xml:space="preserve">14.1505928039551</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9284219741821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1164140701294</t>
+    <t xml:space="preserve">13.9284229278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1164150238037</t>
   </si>
   <si>
     <t xml:space="preserve">14.7402029037476</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6120262145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8598327636719</t>
+    <t xml:space="preserve">14.6120271682739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8598318099976</t>
   </si>
   <si>
     <t xml:space="preserve">15.0905485153198</t>
@@ -2507,34 +2510,34 @@
     <t xml:space="preserve">15.4067163467407</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9367370605469</t>
+    <t xml:space="preserve">14.9367380142212</t>
   </si>
   <si>
     <t xml:space="preserve">14.9538288116455</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9709196090698</t>
+    <t xml:space="preserve">14.9709186553955</t>
   </si>
   <si>
     <t xml:space="preserve">15.3212642669678</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2870855331421</t>
+    <t xml:space="preserve">15.2870845794678</t>
   </si>
   <si>
     <t xml:space="preserve">15.3554449081421</t>
   </si>
   <si>
-    <t xml:space="preserve">15.560525894165</t>
+    <t xml:space="preserve">15.5605268478394</t>
   </si>
   <si>
     <t xml:space="preserve">15.2443599700928</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1418199539185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8512878417969</t>
+    <t xml:space="preserve">15.1418190002441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8512868881226</t>
   </si>
   <si>
     <t xml:space="preserve">15.0649127960205</t>
@@ -2543,145 +2546,142 @@
     <t xml:space="preserve">15.0392789840698</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6803874969482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8940124511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1674547195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0136432647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7145662307739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0734596252441</t>
+    <t xml:space="preserve">14.8940134048462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1674537658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0136442184448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7145671844482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0734586715698</t>
   </si>
   <si>
     <t xml:space="preserve">14.9025583267212</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2529067993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0050983428955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9111032485962</t>
+    <t xml:space="preserve">15.2529058456421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0050973892212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9111022949219</t>
   </si>
   <si>
     <t xml:space="preserve">15.3127193450928</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3981714248657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4323501586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0307321548462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7829265594482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9880094528198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1930904388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4836225509644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3639907836914</t>
+    <t xml:space="preserve">15.3981704711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.43235206604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0307340621948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7829256057739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9880084991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1930894851685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.48362159729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3639898300171</t>
   </si>
   <si>
     <t xml:space="preserve">15.3810806274414</t>
   </si>
   <si>
-    <t xml:space="preserve">15.56907081604</t>
+    <t xml:space="preserve">15.5690717697144</t>
   </si>
   <si>
     <t xml:space="preserve">15.4152612686157</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3298110961914</t>
+    <t xml:space="preserve">15.3298120498657</t>
   </si>
   <si>
     <t xml:space="preserve">15.3041744232178</t>
   </si>
   <si>
-    <t xml:space="preserve">15.509256362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5348901748657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8510580062866</t>
+    <t xml:space="preserve">15.5092554092407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5348930358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8510570526123</t>
   </si>
   <si>
     <t xml:space="preserve">15.6887035369873</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6801567077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2785387039185</t>
+    <t xml:space="preserve">15.6801586151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2785396575928</t>
   </si>
   <si>
     <t xml:space="preserve">15.1503648757935</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7231111526489</t>
+    <t xml:space="preserve">14.7231121063232</t>
   </si>
   <si>
     <t xml:space="preserve">14.6718416213989</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6974782943726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7914724349976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5607576370239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2358140945435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2187242507935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2614517211914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0221881866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9196472167969</t>
+    <t xml:space="preserve">14.6974773406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7914714813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5607566833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2358150482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2187252044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2614507675171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0221900939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9196481704712</t>
   </si>
   <si>
     <t xml:space="preserve">14.9452838897705</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5007095336914</t>
+    <t xml:space="preserve">15.5007104873657</t>
   </si>
   <si>
     <t xml:space="preserve">15.0820035934448</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4240341186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2531356811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1847743988037</t>
+    <t xml:space="preserve">14.4240350723267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.253134727478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.184775352478</t>
   </si>
   <si>
     <t xml:space="preserve">14.2104082107544</t>
@@ -2702,22 +2702,22 @@
     <t xml:space="preserve">14.0309638977051</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1591396331787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2958583831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5351228713989</t>
+    <t xml:space="preserve">14.1591386795044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.295859336853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5351209640503</t>
   </si>
   <si>
     <t xml:space="preserve">14.7316570281982</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8341970443726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8256530761719</t>
+    <t xml:space="preserve">14.8341989517212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8256540298462</t>
   </si>
   <si>
     <t xml:space="preserve">14.5778455734253</t>
@@ -2732,7 +2732,7 @@
     <t xml:space="preserve">14.287314414978</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2189531326294</t>
+    <t xml:space="preserve">14.2189540863037</t>
   </si>
   <si>
     <t xml:space="preserve">13.9711484909058</t>
@@ -2741,22 +2741,22 @@
     <t xml:space="preserve">14.1249599456787</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0993242263794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5949363708496</t>
+    <t xml:space="preserve">14.0993232727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5949354171753</t>
   </si>
   <si>
     <t xml:space="preserve">14.4838514328003</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7572937011719</t>
+    <t xml:space="preserve">14.7572927474976</t>
   </si>
   <si>
     <t xml:space="preserve">14.6889324188232</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3556747436523</t>
+    <t xml:space="preserve">14.355673789978</t>
   </si>
   <si>
     <t xml:space="preserve">14.0651435852051</t>
@@ -2765,58 +2765,58 @@
     <t xml:space="preserve">14.0736875534058</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9796934127808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9540586471558</t>
+    <t xml:space="preserve">13.9796943664551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9540576934814</t>
   </si>
   <si>
     <t xml:space="preserve">14.0565996170044</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7746133804321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2445907592773</t>
+    <t xml:space="preserve">13.7746124267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.244589805603</t>
   </si>
   <si>
     <t xml:space="preserve">14.9965524673462</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1332721710205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4408950805664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.63743019104</t>
+    <t xml:space="preserve">15.1332740783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.440896987915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6374320983887</t>
   </si>
   <si>
     <t xml:space="preserve">15.8937835693359</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9365062713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0988655090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0732288360596</t>
+    <t xml:space="preserve">15.9365081787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0988636016846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0732307434082</t>
   </si>
   <si>
     <t xml:space="preserve">15.9279623031616</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7485160827637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7656097412109</t>
+    <t xml:space="preserve">15.7485179901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7656087875366</t>
   </si>
   <si>
     <t xml:space="preserve">15.9194173812866</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0903205871582</t>
+    <t xml:space="preserve">16.0903186798096</t>
   </si>
   <si>
     <t xml:space="preserve">16.5432071685791</t>
@@ -2828,10 +2828,10 @@
     <t xml:space="preserve">16.3723049163818</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1843147277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3295803070068</t>
+    <t xml:space="preserve">16.1843166351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3295822143555</t>
   </si>
   <si>
     <t xml:space="preserve">16.3210353851318</t>
@@ -2846,13 +2846,13 @@
     <t xml:space="preserve">16.2526741027832</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1928596496582</t>
+    <t xml:space="preserve">16.1928615570068</t>
   </si>
   <si>
     <t xml:space="preserve">16.1159534454346</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1501331329346</t>
+    <t xml:space="preserve">16.1501350402832</t>
   </si>
   <si>
     <t xml:space="preserve">16.1415882110596</t>
@@ -2864,10 +2864,10 @@
     <t xml:space="preserve">16.4064865112305</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5859317779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8081016540527</t>
+    <t xml:space="preserve">16.5859336853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8081035614014</t>
   </si>
   <si>
     <t xml:space="preserve">16.6799278259277</t>
@@ -2876,10 +2876,10 @@
     <t xml:space="preserve">16.6201114654541</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6970176696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7824687957764</t>
+    <t xml:space="preserve">16.6970195770264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7824668884277</t>
   </si>
   <si>
     <t xml:space="preserve">16.8166484832764</t>
@@ -2891,7 +2891,7 @@
     <t xml:space="preserve">16.4235744476318</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4406642913818</t>
+    <t xml:space="preserve">16.4406661987305</t>
   </si>
   <si>
     <t xml:space="preserve">16.5602970123291</t>
@@ -2912,22 +2912,22 @@
     <t xml:space="preserve">17.0473651885986</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5344333648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4831619262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2780799865723</t>
+    <t xml:space="preserve">17.5344314575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4831600189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2780780792236</t>
   </si>
   <si>
     <t xml:space="preserve">17.4318904876709</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6027927398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7736930847168</t>
+    <t xml:space="preserve">17.6027946472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7736911773682</t>
   </si>
   <si>
     <t xml:space="preserve">17.6711521148682</t>
@@ -2936,28 +2936,28 @@
     <t xml:space="preserve">17.5686111450195</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6882438659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8933238983154</t>
+    <t xml:space="preserve">17.6882419586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8933219909668</t>
   </si>
   <si>
     <t xml:space="preserve">17.7566032409668</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0813159942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2009449005127</t>
+    <t xml:space="preserve">18.0813140869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2009429931641</t>
   </si>
   <si>
     <t xml:space="preserve">17.9878616333008</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7570190429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5261783599854</t>
+    <t xml:space="preserve">17.7570209503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5261764526367</t>
   </si>
   <si>
     <t xml:space="preserve">17.455150604248</t>
@@ -2972,10 +2972,10 @@
     <t xml:space="preserve">17.3042144775391</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2065505981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3130950927734</t>
+    <t xml:space="preserve">17.2065525054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3130931854248</t>
   </si>
   <si>
     <t xml:space="preserve">17.3841228485107</t>
@@ -2990,43 +2990,43 @@
     <t xml:space="preserve">17.2509441375732</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2331867218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3752422332764</t>
+    <t xml:space="preserve">17.2331886291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.375244140625</t>
   </si>
   <si>
     <t xml:space="preserve">17.3929996490479</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2420654296875</t>
+    <t xml:space="preserve">17.2420673370361</t>
   </si>
   <si>
     <t xml:space="preserve">17.1532802581787</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8247756958008</t>
+    <t xml:space="preserve">16.8247776031494</t>
   </si>
   <si>
     <t xml:space="preserve">16.8780460357666</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1088886260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3219718933105</t>
+    <t xml:space="preserve">17.1088905334473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3219738006592</t>
   </si>
   <si>
     <t xml:space="preserve">17.5350570678711</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4018802642822</t>
+    <t xml:space="preserve">17.4018783569336</t>
   </si>
   <si>
     <t xml:space="preserve">17.5972061157227</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7126293182373</t>
+    <t xml:space="preserve">17.7126274108887</t>
   </si>
   <si>
     <t xml:space="preserve">17.4462718963623</t>
@@ -3041,10 +3041,10 @@
     <t xml:space="preserve">18.0766468048096</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2897300720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4317855834961</t>
+    <t xml:space="preserve">18.2897319793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4317874908447</t>
   </si>
   <si>
     <t xml:space="preserve">18.7869262695312</t>
@@ -3059,16 +3059,16 @@
     <t xml:space="preserve">18.3252429962158</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9523468017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7747764587402</t>
+    <t xml:space="preserve">17.9523448944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7747783660889</t>
   </si>
   <si>
     <t xml:space="preserve">18.1476745605469</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9168319702148</t>
+    <t xml:space="preserve">17.9168338775635</t>
   </si>
   <si>
     <t xml:space="preserve">18.0411319732666</t>
@@ -3077,7 +3077,7 @@
     <t xml:space="preserve">17.8458042144775</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0588893890381</t>
+    <t xml:space="preserve">18.0588874816895</t>
   </si>
   <si>
     <t xml:space="preserve">17.7925338745117</t>
@@ -3086,7 +3086,7 @@
     <t xml:space="preserve">17.7481422424316</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6771144866943</t>
+    <t xml:space="preserve">17.6771125793457</t>
   </si>
   <si>
     <t xml:space="preserve">18.0056190490723</t>
@@ -3095,7 +3095,7 @@
     <t xml:space="preserve">18.0233745574951</t>
   </si>
   <si>
-    <t xml:space="preserve">17.863561630249</t>
+    <t xml:space="preserve">17.8635635375977</t>
   </si>
   <si>
     <t xml:space="preserve">17.5439357757568</t>
@@ -3113,10 +3113,10 @@
     <t xml:space="preserve">16.3719730377197</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5672988891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5761775970459</t>
+    <t xml:space="preserve">16.5673007965088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5761795043945</t>
   </si>
   <si>
     <t xml:space="preserve">16.5495414733887</t>
@@ -3137,10 +3137,10 @@
     <t xml:space="preserve">16.4252433776855</t>
   </si>
   <si>
-    <t xml:space="preserve">16.700475692749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2299175262451</t>
+    <t xml:space="preserve">16.7004776000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2299156188965</t>
   </si>
   <si>
     <t xml:space="preserve">16.3542156219482</t>
@@ -3161,7 +3161,7 @@
     <t xml:space="preserve">17.0201034545898</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6560859680176</t>
+    <t xml:space="preserve">16.6560840606689</t>
   </si>
   <si>
     <t xml:space="preserve">16.6294479370117</t>
@@ -3170,19 +3170,19 @@
     <t xml:space="preserve">16.966833114624</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8691692352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8070182800293</t>
+    <t xml:space="preserve">16.8691673278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8070201873779</t>
   </si>
   <si>
     <t xml:space="preserve">17.1799163818359</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7271137237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6738433837891</t>
+    <t xml:space="preserve">16.7271118164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6738414764404</t>
   </si>
   <si>
     <t xml:space="preserve">16.7537479400635</t>
@@ -3197,19 +3197,19 @@
     <t xml:space="preserve">16.1588897705078</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2121601104736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6883277893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8215036392212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.874773979187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1233749389648</t>
+    <t xml:space="preserve">16.212158203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.688325881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8215045928955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8747749328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1233730316162</t>
   </si>
   <si>
     <t xml:space="preserve">15.8658981323242</t>
@@ -3221,7 +3221,7 @@
     <t xml:space="preserve">16.2565517425537</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1677646636963</t>
+    <t xml:space="preserve">16.1677665710449</t>
   </si>
   <si>
     <t xml:space="preserve">16.096736907959</t>
@@ -3245,10 +3245,10 @@
     <t xml:space="preserve">16.1144943237305</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9014110565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7327184677124</t>
+    <t xml:space="preserve">15.9014101028442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7327194213867</t>
   </si>
   <si>
     <t xml:space="preserve">15.6616907119751</t>
@@ -3257,34 +3257,34 @@
     <t xml:space="preserve">15.537392616272</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6972055435181</t>
+    <t xml:space="preserve">15.6972045898438</t>
   </si>
   <si>
     <t xml:space="preserve">15.2976722717285</t>
   </si>
   <si>
-    <t xml:space="preserve">15.200008392334</t>
+    <t xml:space="preserve">15.2000102996826</t>
   </si>
   <si>
     <t xml:space="preserve">15.3154296875</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2710380554199</t>
+    <t xml:space="preserve">15.2710371017456</t>
   </si>
   <si>
     <t xml:space="preserve">14.9691677093506</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0313177108765</t>
+    <t xml:space="preserve">15.0313167572021</t>
   </si>
   <si>
     <t xml:space="preserve">15.3065509796143</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4486074447632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8925333023071</t>
+    <t xml:space="preserve">15.4486064910889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8925313949585</t>
   </si>
   <si>
     <t xml:space="preserve">15.8481407165527</t>
@@ -3296,16 +3296,16 @@
     <t xml:space="preserve">15.3420658111572</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0934658050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7028121948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9425315856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9336528778076</t>
+    <t xml:space="preserve">15.093466758728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7028112411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9425325393677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9336538314819</t>
   </si>
   <si>
     <t xml:space="preserve">14.6495409011841</t>
@@ -3320,7 +3320,7 @@
     <t xml:space="preserve">14.827112197876</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4986066818237</t>
+    <t xml:space="preserve">14.4986057281494</t>
   </si>
   <si>
     <t xml:space="preserve">14.4719705581665</t>
@@ -3329,10 +3329,10 @@
     <t xml:space="preserve">14.6229047775269</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0135593414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1112232208252</t>
+    <t xml:space="preserve">15.013560295105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1112241744995</t>
   </si>
   <si>
     <t xml:space="preserve">14.5962705612183</t>
@@ -3341,10 +3341,10 @@
     <t xml:space="preserve">14.4009428024292</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2233734130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0546817779541</t>
+    <t xml:space="preserve">14.2233724594116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0546808242798</t>
   </si>
   <si>
     <t xml:space="preserve">13.9392604827881</t>
@@ -3359,13 +3359,13 @@
     <t xml:space="preserve">14.5163640975952</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1789808273315</t>
+    <t xml:space="preserve">14.1789798736572</t>
   </si>
   <si>
     <t xml:space="preserve">13.9747743606567</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3476715087891</t>
+    <t xml:space="preserve">14.3476724624634</t>
   </si>
   <si>
     <t xml:space="preserve">14.2766437530518</t>
@@ -3377,10 +3377,10 @@
     <t xml:space="preserve">14.5341215133667</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6761770248413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9869232177734</t>
+    <t xml:space="preserve">14.6761779785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9869241714478</t>
   </si>
   <si>
     <t xml:space="preserve">14.8004760742188</t>
@@ -3392,28 +3392,28 @@
     <t xml:space="preserve">14.8626251220703</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7649612426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1733732223511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4930000305176</t>
+    <t xml:space="preserve">14.7649602890015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1733741760254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4929990768433</t>
   </si>
   <si>
     <t xml:space="preserve">15.3509435653687</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9958019256592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0401954650879</t>
+    <t xml:space="preserve">14.9958028793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0401964187622</t>
   </si>
   <si>
     <t xml:space="preserve">14.8448677062988</t>
   </si>
   <si>
-    <t xml:space="preserve">14.71169090271</t>
+    <t xml:space="preserve">14.7116899490356</t>
   </si>
   <si>
     <t xml:space="preserve">14.791597366333</t>
@@ -3425,7 +3425,7 @@
     <t xml:space="preserve">14.4098215103149</t>
   </si>
   <si>
-    <t xml:space="preserve">14.489727973938</t>
+    <t xml:space="preserve">14.4897270202637</t>
   </si>
   <si>
     <t xml:space="preserve">14.4808492660522</t>
@@ -3434,7 +3434,7 @@
     <t xml:space="preserve">14.3210353851318</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0990743637085</t>
+    <t xml:space="preserve">14.0990734100342</t>
   </si>
   <si>
     <t xml:space="preserve">14.2500076293945</t>
@@ -3452,7 +3452,7 @@
     <t xml:space="preserve">14.303279876709</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1612234115601</t>
+    <t xml:space="preserve">14.1612224578857</t>
   </si>
   <si>
     <t xml:space="preserve">14.2944011688232</t>
@@ -3482,10 +3482,10 @@
     <t xml:space="preserve">14.0280456542969</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8060827255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6462688446045</t>
+    <t xml:space="preserve">13.8060836791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6462697982788</t>
   </si>
   <si>
     <t xml:space="preserve">13.859354019165</t>
@@ -4553,7 +4553,13 @@
     <t xml:space="preserve">16.9099998474121</t>
   </si>
   <si>
+    <t xml:space="preserve">16.5900001525879</t>
+  </si>
+  <si>
     <t xml:space="preserve">16.8199996948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7299995422363</t>
   </si>
 </sst>
 </file>
@@ -22879,7 +22885,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G692" t="s">
-        <v>442</v>
+        <v>507</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -22905,7 +22911,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G693" t="s">
-        <v>442</v>
+        <v>507</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -23009,7 +23015,7 @@
         <v>13.2299995422363</v>
       </c>
       <c r="G697" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -23035,7 +23041,7 @@
         <v>13.2799997329712</v>
       </c>
       <c r="G698" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -23087,7 +23093,7 @@
         <v>13.210000038147</v>
       </c>
       <c r="G700" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -23113,7 +23119,7 @@
         <v>12.9099998474121</v>
       </c>
       <c r="G701" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -23139,7 +23145,7 @@
         <v>12.75</v>
       </c>
       <c r="G702" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -23165,7 +23171,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G703" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -23295,7 +23301,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G708" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -23321,7 +23327,7 @@
         <v>12.25</v>
       </c>
       <c r="G709" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -23347,7 +23353,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G710" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -23373,7 +23379,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G711" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -23399,7 +23405,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G712" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -23425,7 +23431,7 @@
         <v>12.1099996566772</v>
       </c>
       <c r="G713" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -23451,7 +23457,7 @@
         <v>11.9700002670288</v>
       </c>
       <c r="G714" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -23477,7 +23483,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G715" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -23503,7 +23509,7 @@
         <v>11.6400003433228</v>
       </c>
       <c r="G716" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -23529,7 +23535,7 @@
         <v>11.5900001525879</v>
       </c>
       <c r="G717" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -23555,7 +23561,7 @@
         <v>11.3299999237061</v>
       </c>
       <c r="G718" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -23581,7 +23587,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G719" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -23607,7 +23613,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G720" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -23633,7 +23639,7 @@
         <v>11.1800003051758</v>
       </c>
       <c r="G721" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -23659,7 +23665,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G722" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -23685,7 +23691,7 @@
         <v>11.5</v>
       </c>
       <c r="G723" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -23711,7 +23717,7 @@
         <v>11.6099996566772</v>
       </c>
       <c r="G724" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -23737,7 +23743,7 @@
         <v>11.6700000762939</v>
       </c>
       <c r="G725" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -23763,7 +23769,7 @@
         <v>11.8100004196167</v>
       </c>
       <c r="G726" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -23789,7 +23795,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G727" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -23815,7 +23821,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G728" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -23841,7 +23847,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G729" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -23867,7 +23873,7 @@
         <v>11.8699998855591</v>
       </c>
       <c r="G730" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -23893,7 +23899,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G731" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -23919,7 +23925,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G732" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -23945,7 +23951,7 @@
         <v>12.7700004577637</v>
       </c>
       <c r="G733" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -23997,7 +24003,7 @@
         <v>12.4099998474121</v>
       </c>
       <c r="G735" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -24023,7 +24029,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G736" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -24049,7 +24055,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G737" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -24075,7 +24081,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G738" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -24101,7 +24107,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G739" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -24127,7 +24133,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G740" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -24153,7 +24159,7 @@
         <v>12.0100002288818</v>
       </c>
       <c r="G741" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -24179,7 +24185,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G742" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -24205,7 +24211,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G743" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -24231,7 +24237,7 @@
         <v>12</v>
       </c>
       <c r="G744" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -24257,7 +24263,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G745" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -24283,7 +24289,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G746" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -24309,7 +24315,7 @@
         <v>12</v>
       </c>
       <c r="G747" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -24335,7 +24341,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G748" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -24361,7 +24367,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G749" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -24387,7 +24393,7 @@
         <v>11.789999961853</v>
       </c>
       <c r="G750" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -24413,7 +24419,7 @@
         <v>11.8900003433228</v>
       </c>
       <c r="G751" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -24439,7 +24445,7 @@
         <v>11.5699996948242</v>
       </c>
       <c r="G752" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -24465,7 +24471,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G753" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -24491,7 +24497,7 @@
         <v>11.8100004196167</v>
       </c>
       <c r="G754" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -24517,7 +24523,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G755" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -24543,7 +24549,7 @@
         <v>12.1300001144409</v>
       </c>
       <c r="G756" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -24569,7 +24575,7 @@
         <v>11.75</v>
       </c>
       <c r="G757" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -24595,7 +24601,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G758" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -24621,7 +24627,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G759" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -24647,7 +24653,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G760" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -24673,7 +24679,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G761" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -24699,7 +24705,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G762" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -24725,7 +24731,7 @@
         <v>12.0100002288818</v>
       </c>
       <c r="G763" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -24751,7 +24757,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G764" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -24777,7 +24783,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G765" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -24803,7 +24809,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G766" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -24829,7 +24835,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G767" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -24855,7 +24861,7 @@
         <v>12.2399997711182</v>
       </c>
       <c r="G768" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -24881,7 +24887,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G769" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -24907,7 +24913,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G770" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -24933,7 +24939,7 @@
         <v>12.4799995422363</v>
       </c>
       <c r="G771" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -24959,7 +24965,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G772" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -25063,7 +25069,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G776" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -25167,7 +25173,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G780" t="s">
-        <v>442</v>
+        <v>507</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -25193,7 +25199,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G781" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -25219,7 +25225,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G782" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -25375,7 +25381,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G788" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -25401,7 +25407,7 @@
         <v>13.5</v>
       </c>
       <c r="G789" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -25427,7 +25433,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G790" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -25453,7 +25459,7 @@
         <v>13.1800003051758</v>
       </c>
       <c r="G791" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -25505,7 +25511,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G793" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -25531,7 +25537,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G794" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -25557,7 +25563,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G795" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -25583,7 +25589,7 @@
         <v>13.539999961853</v>
       </c>
       <c r="G796" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -25609,7 +25615,7 @@
         <v>13.5699996948242</v>
       </c>
       <c r="G797" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -25635,7 +25641,7 @@
         <v>13.4099998474121</v>
       </c>
       <c r="G798" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -25687,7 +25693,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G800" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -25713,7 +25719,7 @@
         <v>13.960000038147</v>
       </c>
       <c r="G801" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -25739,7 +25745,7 @@
         <v>13.8900003433228</v>
       </c>
       <c r="G802" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -25765,7 +25771,7 @@
         <v>13.9200000762939</v>
       </c>
       <c r="G803" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -25791,7 +25797,7 @@
         <v>13.75</v>
       </c>
       <c r="G804" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -25817,7 +25823,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G805" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -25843,7 +25849,7 @@
         <v>13.8800001144409</v>
       </c>
       <c r="G806" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -25869,7 +25875,7 @@
         <v>14.1199998855591</v>
       </c>
       <c r="G807" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -25895,7 +25901,7 @@
         <v>14.4300003051758</v>
       </c>
       <c r="G808" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -25921,7 +25927,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G809" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -25947,7 +25953,7 @@
         <v>14.9499998092651</v>
       </c>
       <c r="G810" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -25973,7 +25979,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G811" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -25999,7 +26005,7 @@
         <v>14.9899997711182</v>
       </c>
       <c r="G812" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -26025,7 +26031,7 @@
         <v>15.0500001907349</v>
       </c>
       <c r="G813" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -26051,7 +26057,7 @@
         <v>14.9399995803833</v>
       </c>
       <c r="G814" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -26077,7 +26083,7 @@
         <v>15.0900001525879</v>
       </c>
       <c r="G815" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -26103,7 +26109,7 @@
         <v>15.0600004196167</v>
       </c>
       <c r="G816" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -26129,7 +26135,7 @@
         <v>15.0900001525879</v>
       </c>
       <c r="G817" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -26155,7 +26161,7 @@
         <v>15.1800003051758</v>
       </c>
       <c r="G818" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -26181,7 +26187,7 @@
         <v>14.9399995803833</v>
       </c>
       <c r="G819" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -26207,7 +26213,7 @@
         <v>15.1099996566772</v>
       </c>
       <c r="G820" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -26233,7 +26239,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G821" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -26259,7 +26265,7 @@
         <v>14.9899997711182</v>
       </c>
       <c r="G822" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -26285,7 +26291,7 @@
         <v>15.1499996185303</v>
       </c>
       <c r="G823" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -26311,7 +26317,7 @@
         <v>15.1300001144409</v>
       </c>
       <c r="G824" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -26337,7 +26343,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G825" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -26363,7 +26369,7 @@
         <v>15.0699996948242</v>
       </c>
       <c r="G826" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -26389,7 +26395,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G827" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -26415,7 +26421,7 @@
         <v>15.3800001144409</v>
       </c>
       <c r="G828" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -26441,7 +26447,7 @@
         <v>16</v>
       </c>
       <c r="G829" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -26467,7 +26473,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G830" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -26493,7 +26499,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G831" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -26519,7 +26525,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G832" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -26545,7 +26551,7 @@
         <v>15.9399995803833</v>
       </c>
       <c r="G833" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -26571,7 +26577,7 @@
         <v>16.1200008392334</v>
       </c>
       <c r="G834" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -26597,7 +26603,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G835" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -26623,7 +26629,7 @@
         <v>15.9200000762939</v>
       </c>
       <c r="G836" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -26649,7 +26655,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G837" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -26675,7 +26681,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G838" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -26701,7 +26707,7 @@
         <v>15.4799995422363</v>
       </c>
       <c r="G839" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -26727,7 +26733,7 @@
         <v>15.5</v>
       </c>
       <c r="G840" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -26753,7 +26759,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G841" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -26779,7 +26785,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G842" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -26805,7 +26811,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G843" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -26831,7 +26837,7 @@
         <v>16.0400009155273</v>
       </c>
       <c r="G844" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -26857,7 +26863,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G845" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -26883,7 +26889,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G846" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -26909,7 +26915,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G847" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -26935,7 +26941,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G848" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -26961,7 +26967,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G849" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -26987,7 +26993,7 @@
         <v>16.3600006103516</v>
       </c>
       <c r="G850" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -27013,7 +27019,7 @@
         <v>16.3600006103516</v>
       </c>
       <c r="G851" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -27039,7 +27045,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G852" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -27065,7 +27071,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G853" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -27091,7 +27097,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G854" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -27117,7 +27123,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G855" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -27143,7 +27149,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G856" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -27169,7 +27175,7 @@
         <v>16.7199993133545</v>
       </c>
       <c r="G857" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -27195,7 +27201,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G858" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -27221,7 +27227,7 @@
         <v>16.5400009155273</v>
       </c>
       <c r="G859" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -27247,7 +27253,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G860" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -27273,7 +27279,7 @@
         <v>16.6200008392334</v>
       </c>
       <c r="G861" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -27299,7 +27305,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G862" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -27325,7 +27331,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G863" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -27351,7 +27357,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G864" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -27377,7 +27383,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G865" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -27403,7 +27409,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G866" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -27429,7 +27435,7 @@
         <v>16.6200008392334</v>
       </c>
       <c r="G867" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -27455,7 +27461,7 @@
         <v>16.6399993896484</v>
       </c>
       <c r="G868" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -27481,7 +27487,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G869" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -27507,7 +27513,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G870" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -27533,7 +27539,7 @@
         <v>17</v>
       </c>
       <c r="G871" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -27559,7 +27565,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G872" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -27585,7 +27591,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G873" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -27611,7 +27617,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G874" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -27637,7 +27643,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G875" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -27663,7 +27669,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G876" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -27689,7 +27695,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G877" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -27715,7 +27721,7 @@
         <v>17.6399993896484</v>
       </c>
       <c r="G878" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -27741,7 +27747,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G879" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -27767,7 +27773,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G880" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -27793,7 +27799,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G881" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -27819,7 +27825,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G882" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -27845,7 +27851,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G883" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -27871,7 +27877,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G884" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -27897,7 +27903,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G885" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -27923,7 +27929,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G886" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -27949,7 +27955,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G887" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -27975,7 +27981,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G888" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -28001,7 +28007,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G889" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -28027,7 +28033,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G890" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -28053,7 +28059,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G891" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -28079,7 +28085,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G892" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -28105,7 +28111,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G893" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -28131,7 +28137,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G894" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -28157,7 +28163,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G895" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -28183,7 +28189,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G896" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -28209,7 +28215,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G897" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -28235,7 +28241,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G898" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -28261,7 +28267,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G899" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -28287,7 +28293,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G900" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -28313,7 +28319,7 @@
         <v>17.5</v>
       </c>
       <c r="G901" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -28339,7 +28345,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G902" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -28365,7 +28371,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G903" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -28391,7 +28397,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G904" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -28417,7 +28423,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G905" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -28443,7 +28449,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G906" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -28469,7 +28475,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G907" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -28495,7 +28501,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G908" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -28521,7 +28527,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G909" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -28547,7 +28553,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G910" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -28573,7 +28579,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G911" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -28599,7 +28605,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G912" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -28625,7 +28631,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G913" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -28651,7 +28657,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G914" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -28677,7 +28683,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G915" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -28703,7 +28709,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G916" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -28729,7 +28735,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G917" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -28755,7 +28761,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G918" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -28781,7 +28787,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G919" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -28807,7 +28813,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G920" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -28833,7 +28839,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G921" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -28859,7 +28865,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G922" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -28885,7 +28891,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G923" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -28911,7 +28917,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G924" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -28937,7 +28943,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G925" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -28963,7 +28969,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G926" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -28989,7 +28995,7 @@
         <v>17.5</v>
       </c>
       <c r="G927" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -29015,7 +29021,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G928" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -29041,7 +29047,7 @@
         <v>17.5</v>
       </c>
       <c r="G929" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -29067,7 +29073,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G930" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -29093,7 +29099,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G931" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -29119,7 +29125,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G932" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -29145,7 +29151,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G933" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -29171,7 +29177,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G934" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -29197,7 +29203,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G935" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -29223,7 +29229,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G936" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -29249,7 +29255,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G937" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -29275,7 +29281,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G938" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -29301,7 +29307,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G939" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -29327,7 +29333,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G940" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -29353,7 +29359,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G941" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -29379,7 +29385,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G942" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -29405,7 +29411,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G943" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -29431,7 +29437,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G944" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -29457,7 +29463,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G945" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -29483,7 +29489,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G946" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -29509,7 +29515,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G947" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -29535,7 +29541,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G948" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -29561,7 +29567,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G949" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -29587,7 +29593,7 @@
         <v>18.0400009155273</v>
       </c>
       <c r="G950" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -29613,7 +29619,7 @@
         <v>18.2600002288818</v>
       </c>
       <c r="G951" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -29639,7 +29645,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G952" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -29665,7 +29671,7 @@
         <v>18.3199996948242</v>
       </c>
       <c r="G953" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -29691,7 +29697,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G954" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -29717,7 +29723,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G955" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -29743,7 +29749,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G956" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -29769,7 +29775,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G957" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -29795,7 +29801,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G958" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -29821,7 +29827,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G959" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -29847,7 +29853,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G960" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -29873,7 +29879,7 @@
         <v>17.5</v>
       </c>
       <c r="G961" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -29899,7 +29905,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G962" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -29925,7 +29931,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G963" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -29951,7 +29957,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G964" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -29977,7 +29983,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G965" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -30003,7 +30009,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G966" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -30029,7 +30035,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G967" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -30055,7 +30061,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G968" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -30081,7 +30087,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G969" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -30107,7 +30113,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G970" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -30133,7 +30139,7 @@
         <v>17.5</v>
       </c>
       <c r="G971" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -30159,7 +30165,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G972" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -30185,7 +30191,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G973" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -30211,7 +30217,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G974" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -30237,7 +30243,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G975" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -30263,7 +30269,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G976" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -30289,7 +30295,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G977" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -30315,7 +30321,7 @@
         <v>17.9400005340576</v>
       </c>
       <c r="G978" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -30341,7 +30347,7 @@
         <v>17.9799995422363</v>
       </c>
       <c r="G979" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -30367,7 +30373,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G980" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -30393,7 +30399,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G981" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -30419,7 +30425,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G982" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -30445,7 +30451,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G983" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -30471,7 +30477,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G984" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -30497,7 +30503,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G985" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -30523,7 +30529,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G986" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -30549,7 +30555,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G987" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -30575,7 +30581,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G988" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -30601,7 +30607,7 @@
         <v>18.3400001525879</v>
       </c>
       <c r="G989" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -30627,7 +30633,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G990" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -30653,7 +30659,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G991" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -30679,7 +30685,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G992" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -30705,7 +30711,7 @@
         <v>18.4400005340576</v>
       </c>
       <c r="G993" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -30731,7 +30737,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G994" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -30757,7 +30763,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G995" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -30783,7 +30789,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G996" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -30809,7 +30815,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="G997" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -30835,7 +30841,7 @@
         <v>18.3400001525879</v>
       </c>
       <c r="G998" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -30861,7 +30867,7 @@
         <v>18.2199993133545</v>
       </c>
       <c r="G999" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -30887,7 +30893,7 @@
         <v>18.3400001525879</v>
       </c>
       <c r="G1000" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -30913,7 +30919,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1001" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -30939,7 +30945,7 @@
         <v>18.2399997711182</v>
       </c>
       <c r="G1002" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -30965,7 +30971,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G1003" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -30991,7 +30997,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G1004" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -31017,7 +31023,7 @@
         <v>18.9400005340576</v>
       </c>
       <c r="G1005" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -31043,7 +31049,7 @@
         <v>19.0200004577637</v>
       </c>
       <c r="G1006" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -31069,7 +31075,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1007" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -31095,7 +31101,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G1008" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -31121,7 +31127,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G1009" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -31147,7 +31153,7 @@
         <v>18.4799995422363</v>
       </c>
       <c r="G1010" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -31173,7 +31179,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G1011" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -31199,7 +31205,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G1012" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -31225,7 +31231,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G1013" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -31251,7 +31257,7 @@
         <v>18.4200000762939</v>
       </c>
       <c r="G1014" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -31277,7 +31283,7 @@
         <v>18.4400005340576</v>
       </c>
       <c r="G1015" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -31303,7 +31309,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1016" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -31329,7 +31335,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1017" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -31355,7 +31361,7 @@
         <v>18.0799999237061</v>
       </c>
       <c r="G1018" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -31381,7 +31387,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1019" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -31407,7 +31413,7 @@
         <v>17.9799995422363</v>
       </c>
       <c r="G1020" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -31433,7 +31439,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G1021" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -31459,7 +31465,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G1022" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -31485,7 +31491,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G1023" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -31511,7 +31517,7 @@
         <v>19.5599994659424</v>
       </c>
       <c r="G1024" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -31537,7 +31543,7 @@
         <v>19.5799999237061</v>
       </c>
       <c r="G1025" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -31563,7 +31569,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1026" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -31589,7 +31595,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1027" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -31615,7 +31621,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G1028" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -31641,7 +31647,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1029" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -31667,7 +31673,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1030" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -31693,7 +31699,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1031" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -31719,7 +31725,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1032" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -31745,7 +31751,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1033" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -31771,7 +31777,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G1034" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -31797,7 +31803,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1035" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -31823,7 +31829,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1036" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -31849,7 +31855,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1037" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -31875,7 +31881,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G1038" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -31901,7 +31907,7 @@
         <v>21.25</v>
       </c>
       <c r="G1039" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -31927,7 +31933,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1040" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -31953,7 +31959,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1041" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -31979,7 +31985,7 @@
         <v>21</v>
       </c>
       <c r="G1042" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -32005,7 +32011,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G1043" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -32031,7 +32037,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1044" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -32057,7 +32063,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1045" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -32083,7 +32089,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1046" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -32109,7 +32115,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G1047" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -32135,7 +32141,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1048" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -32161,7 +32167,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1049" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -32187,7 +32193,7 @@
         <v>21.5</v>
       </c>
       <c r="G1050" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -32213,7 +32219,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1051" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -32239,7 +32245,7 @@
         <v>21.25</v>
       </c>
       <c r="G1052" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -32265,7 +32271,7 @@
         <v>20.25</v>
       </c>
       <c r="G1053" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -32291,7 +32297,7 @@
         <v>19.9400005340576</v>
       </c>
       <c r="G1054" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -32317,7 +32323,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1055" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -32343,7 +32349,7 @@
         <v>19.5</v>
       </c>
       <c r="G1056" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -32369,7 +32375,7 @@
         <v>18.9400005340576</v>
       </c>
       <c r="G1057" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -32395,7 +32401,7 @@
         <v>19.0599994659424</v>
       </c>
       <c r="G1058" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -32421,7 +32427,7 @@
         <v>19.3600006103516</v>
       </c>
       <c r="G1059" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -32447,7 +32453,7 @@
         <v>19.6399993896484</v>
       </c>
       <c r="G1060" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -32473,7 +32479,7 @@
         <v>19.6599998474121</v>
       </c>
       <c r="G1061" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -32499,7 +32505,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G1062" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -32525,7 +32531,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G1063" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -32551,7 +32557,7 @@
         <v>16</v>
       </c>
       <c r="G1064" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -32577,7 +32583,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G1065" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -32603,7 +32609,7 @@
         <v>13.3599996566772</v>
       </c>
       <c r="G1066" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -32629,7 +32635,7 @@
         <v>13.8199996948242</v>
       </c>
       <c r="G1067" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -32655,7 +32661,7 @@
         <v>12.960000038147</v>
       </c>
       <c r="G1068" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -32681,7 +32687,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G1069" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -32707,7 +32713,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G1070" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -32733,7 +32739,7 @@
         <v>12.5799999237061</v>
       </c>
       <c r="G1071" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -32759,7 +32765,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G1072" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -32785,7 +32791,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G1073" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -32811,7 +32817,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1074" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -32837,7 +32843,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1075" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -32863,7 +32869,7 @@
         <v>14.3400001525879</v>
       </c>
       <c r="G1076" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -32889,7 +32895,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1077" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -32915,7 +32921,7 @@
         <v>14.5200004577637</v>
       </c>
       <c r="G1078" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -32941,7 +32947,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1079" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -32967,7 +32973,7 @@
         <v>14.75</v>
       </c>
       <c r="G1080" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -32993,7 +32999,7 @@
         <v>15.1700000762939</v>
       </c>
       <c r="G1081" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -33019,7 +33025,7 @@
         <v>14.9200000762939</v>
       </c>
       <c r="G1082" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -33045,7 +33051,7 @@
         <v>14.8699998855591</v>
       </c>
       <c r="G1083" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -33071,7 +33077,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1084" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -33097,7 +33103,7 @@
         <v>14.9799995422363</v>
       </c>
       <c r="G1085" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -33123,7 +33129,7 @@
         <v>15.3100004196167</v>
       </c>
       <c r="G1086" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -33149,7 +33155,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1087" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -33175,7 +33181,7 @@
         <v>13.8199996948242</v>
       </c>
       <c r="G1088" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -33201,7 +33207,7 @@
         <v>14.4499998092651</v>
       </c>
       <c r="G1089" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -33227,7 +33233,7 @@
         <v>14.5100002288818</v>
       </c>
       <c r="G1090" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -33253,7 +33259,7 @@
         <v>14.4099998474121</v>
       </c>
       <c r="G1091" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -33279,7 +33285,7 @@
         <v>14.2299995422363</v>
       </c>
       <c r="G1092" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -33305,7 +33311,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1093" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -33331,7 +33337,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1094" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -33357,7 +33363,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1095" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -33383,7 +33389,7 @@
         <v>14.75</v>
       </c>
       <c r="G1096" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -33409,7 +33415,7 @@
         <v>14.8100004196167</v>
       </c>
       <c r="G1097" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -33435,7 +33441,7 @@
         <v>15.3900003433228</v>
       </c>
       <c r="G1098" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -33461,7 +33467,7 @@
         <v>15.25</v>
       </c>
       <c r="G1099" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -33487,7 +33493,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1100" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -33513,7 +33519,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1101" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -33539,7 +33545,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1102" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -33565,7 +33571,7 @@
         <v>15.1800003051758</v>
       </c>
       <c r="G1103" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -33591,7 +33597,7 @@
         <v>15.5799999237061</v>
       </c>
       <c r="G1104" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -33617,7 +33623,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G1105" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -33643,7 +33649,7 @@
         <v>16.4099998474121</v>
       </c>
       <c r="G1106" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -33669,7 +33675,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G1107" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -33695,7 +33701,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G1108" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -33721,7 +33727,7 @@
         <v>17</v>
       </c>
       <c r="G1109" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -33747,7 +33753,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G1110" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -33773,7 +33779,7 @@
         <v>16.75</v>
       </c>
       <c r="G1111" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -33799,7 +33805,7 @@
         <v>16.8299999237061</v>
       </c>
       <c r="G1112" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -33825,7 +33831,7 @@
         <v>16.7900009155273</v>
       </c>
       <c r="G1113" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -33851,7 +33857,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G1114" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -33877,7 +33883,7 @@
         <v>17.2700004577637</v>
       </c>
       <c r="G1115" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -33903,7 +33909,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G1116" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -33929,7 +33935,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G1117" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -33955,7 +33961,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G1118" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -33981,7 +33987,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1119" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -34007,7 +34013,7 @@
         <v>17.5499992370605</v>
       </c>
       <c r="G1120" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -34033,7 +34039,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G1121" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -34059,7 +34065,7 @@
         <v>18.4099998474121</v>
       </c>
       <c r="G1122" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -34085,7 +34091,7 @@
         <v>18.6800003051758</v>
       </c>
       <c r="G1123" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -34111,7 +34117,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1124" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -34137,7 +34143,7 @@
         <v>19</v>
       </c>
       <c r="G1125" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -34163,7 +34169,7 @@
         <v>18.3099994659424</v>
       </c>
       <c r="G1126" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -34189,7 +34195,7 @@
         <v>18.2299995422363</v>
       </c>
       <c r="G1127" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -34215,7 +34221,7 @@
         <v>17.7099990844727</v>
       </c>
       <c r="G1128" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -34241,7 +34247,7 @@
         <v>17.6700000762939</v>
       </c>
       <c r="G1129" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -34267,7 +34273,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1130" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -34293,7 +34299,7 @@
         <v>18.25</v>
       </c>
       <c r="G1131" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -34319,7 +34325,7 @@
         <v>18.25</v>
       </c>
       <c r="G1132" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -34345,7 +34351,7 @@
         <v>17.9899997711182</v>
       </c>
       <c r="G1133" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -34371,7 +34377,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G1134" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -34397,7 +34403,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1135" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -34423,7 +34429,7 @@
         <v>17.4099998474121</v>
       </c>
       <c r="G1136" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -34449,7 +34455,7 @@
         <v>17</v>
       </c>
       <c r="G1137" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -34475,7 +34481,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G1138" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -34501,7 +34507,7 @@
         <v>17.0300006866455</v>
       </c>
       <c r="G1139" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -34527,7 +34533,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G1140" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -34553,7 +34559,7 @@
         <v>17.0900001525879</v>
       </c>
       <c r="G1141" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -34579,7 +34585,7 @@
         <v>17.3700008392334</v>
       </c>
       <c r="G1142" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -34605,7 +34611,7 @@
         <v>17.5300006866455</v>
       </c>
       <c r="G1143" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -34631,7 +34637,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1144" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -34657,7 +34663,7 @@
         <v>17.5100002288818</v>
       </c>
       <c r="G1145" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -34683,7 +34689,7 @@
         <v>17.2900009155273</v>
       </c>
       <c r="G1146" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -34709,7 +34715,7 @@
         <v>17.3700008392334</v>
       </c>
       <c r="G1147" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -34735,7 +34741,7 @@
         <v>16.9899997711182</v>
       </c>
       <c r="G1148" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -34761,7 +34767,7 @@
         <v>16.9300003051758</v>
       </c>
       <c r="G1149" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -34787,7 +34793,7 @@
         <v>16.9899997711182</v>
       </c>
       <c r="G1150" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -34813,7 +34819,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G1151" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -34839,7 +34845,7 @@
         <v>16.5799999237061</v>
       </c>
       <c r="G1152" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -34865,7 +34871,7 @@
         <v>16.7700004577637</v>
       </c>
       <c r="G1153" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -34891,7 +34897,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1154" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -34917,7 +34923,7 @@
         <v>17.2099990844727</v>
       </c>
       <c r="G1155" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -34943,7 +34949,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G1156" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -34969,7 +34975,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1157" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -34995,7 +35001,7 @@
         <v>17.0699996948242</v>
       </c>
       <c r="G1158" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -35021,7 +35027,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G1159" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -35047,7 +35053,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1160" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -35073,7 +35079,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G1161" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -35099,7 +35105,7 @@
         <v>17.25</v>
       </c>
       <c r="G1162" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -35125,7 +35131,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1163" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -35151,7 +35157,7 @@
         <v>17.3899993896484</v>
       </c>
       <c r="G1164" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -35177,7 +35183,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G1165" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -35203,7 +35209,7 @@
         <v>18.0300006866455</v>
       </c>
       <c r="G1166" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -35229,7 +35235,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1167" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -35255,7 +35261,7 @@
         <v>17.5</v>
       </c>
       <c r="G1168" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -35281,7 +35287,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G1169" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -35307,7 +35313,7 @@
         <v>17.9300003051758</v>
       </c>
       <c r="G1170" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -35333,7 +35339,7 @@
         <v>17.8899993896484</v>
       </c>
       <c r="G1171" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -35359,7 +35365,7 @@
         <v>17.9699993133545</v>
       </c>
       <c r="G1172" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -35385,7 +35391,7 @@
         <v>18.2099990844727</v>
       </c>
       <c r="G1173" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -35411,7 +35417,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G1174" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -35437,7 +35443,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G1175" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -35463,7 +35469,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G1176" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -35489,7 +35495,7 @@
         <v>17.6299991607666</v>
       </c>
       <c r="G1177" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -35515,7 +35521,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1178" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -35541,7 +35547,7 @@
         <v>17.2900009155273</v>
       </c>
       <c r="G1179" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -35567,7 +35573,7 @@
         <v>17.6299991607666</v>
       </c>
       <c r="G1180" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -35593,7 +35599,7 @@
         <v>17.6299991607666</v>
       </c>
       <c r="G1181" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -35619,7 +35625,7 @@
         <v>17.3899993896484</v>
       </c>
       <c r="G1182" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -35645,7 +35651,7 @@
         <v>17.2900009155273</v>
       </c>
       <c r="G1183" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -35671,7 +35677,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1184" t="s">
-        <v>843</v>
+        <v>690</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -35697,7 +35703,7 @@
         <v>17.25</v>
       </c>
       <c r="G1185" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -35905,7 +35911,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G1193" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -36139,7 +36145,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G1202" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -36165,7 +36171,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G1203" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -36607,7 +36613,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1220" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -36867,7 +36873,7 @@
         <v>17.3700008392334</v>
       </c>
       <c r="G1230" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -36893,7 +36899,7 @@
         <v>17.2099990844727</v>
       </c>
       <c r="G1231" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -36971,7 +36977,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1234" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -36997,7 +37003,7 @@
         <v>17.8899993896484</v>
       </c>
       <c r="G1235" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -37023,7 +37029,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1236" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -37101,7 +37107,7 @@
         <v>17.5100002288818</v>
       </c>
       <c r="G1239" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -37335,7 +37341,7 @@
         <v>17.8899993896484</v>
       </c>
       <c r="G1248" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -37413,7 +37419,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G1251" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -37491,7 +37497,7 @@
         <v>16.9300003051758</v>
       </c>
       <c r="G1254" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -37803,7 +37809,7 @@
         <v>16.7700004577637</v>
       </c>
       <c r="G1266" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -37829,7 +37835,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G1267" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -37855,7 +37861,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1268" t="s">
-        <v>843</v>
+        <v>690</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -37907,7 +37913,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1270" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -37933,7 +37939,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1271" t="s">
-        <v>843</v>
+        <v>690</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -38011,7 +38017,7 @@
         <v>17.0699996948242</v>
       </c>
       <c r="G1274" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -38063,7 +38069,7 @@
         <v>17.25</v>
       </c>
       <c r="G1276" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -38141,7 +38147,7 @@
         <v>17.3899993896484</v>
       </c>
       <c r="G1279" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -38219,7 +38225,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1282" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -38323,7 +38329,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G1286" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -38401,7 +38407,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G1289" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -38661,7 +38667,7 @@
         <v>17.5100002288818</v>
       </c>
       <c r="G1299" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -38713,7 +38719,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G1301" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -38739,7 +38745,7 @@
         <v>17.4099998474121</v>
       </c>
       <c r="G1302" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -38869,7 +38875,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G1307" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -39233,7 +39239,7 @@
         <v>17.8899993896484</v>
       </c>
       <c r="G1321" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -39259,7 +39265,7 @@
         <v>17.9699993133545</v>
       </c>
       <c r="G1322" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -60743,27 +60749,79 @@
     </row>
     <row r="2149">
       <c r="A2149" s="1" t="n">
-        <v>45455.6496412037</v>
+        <v>45454.2916666667</v>
       </c>
       <c r="B2149" t="n">
-        <v>105427</v>
+        <v>118019</v>
       </c>
       <c r="C2149" t="n">
+        <v>17.0100002288818</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>16.5300006866455</v>
+      </c>
+      <c r="E2149" t="n">
         <v>16.8899993896484</v>
       </c>
-      <c r="D2149" t="n">
-        <v>16.4400005340576</v>
-      </c>
-      <c r="E2149" t="n">
+      <c r="F2149" t="n">
         <v>16.5900001525879</v>
-      </c>
-      <c r="F2149" t="n">
-        <v>16.8199996948242</v>
       </c>
       <c r="G2149" t="s">
         <v>1513</v>
       </c>
       <c r="H2149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B2150" t="n">
+        <v>105427</v>
+      </c>
+      <c r="C2150" t="n">
+        <v>16.8899993896484</v>
+      </c>
+      <c r="D2150" t="n">
+        <v>16.4400005340576</v>
+      </c>
+      <c r="E2150" t="n">
+        <v>16.5900001525879</v>
+      </c>
+      <c r="F2150" t="n">
+        <v>16.8199996948242</v>
+      </c>
+      <c r="G2150" t="s">
+        <v>1514</v>
+      </c>
+      <c r="H2150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" s="1" t="n">
+        <v>45456.6494444444</v>
+      </c>
+      <c r="B2151" t="n">
+        <v>100686</v>
+      </c>
+      <c r="C2151" t="n">
+        <v>16.9599990844727</v>
+      </c>
+      <c r="D2151" t="n">
+        <v>16.5599994659424</v>
+      </c>
+      <c r="E2151" t="n">
+        <v>16.8199996948242</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>16.7299995422363</v>
+      </c>
+      <c r="G2151" t="s">
+        <v>1515</v>
+      </c>
+      <c r="H2151" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ACE.MI.xlsx
+++ b/data/ACE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="1516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="1517">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,25 +38,25 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50932788848877</t>
+    <t xml:space="preserve">9.50932693481445</t>
   </si>
   <si>
     <t xml:space="preserve">ACE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52303981781006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18023586273193</t>
+    <t xml:space="preserve">9.52303886413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18023681640625</t>
   </si>
   <si>
     <t xml:space="preserve">9.33106899261475</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37906360626221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52989387512207</t>
+    <t xml:space="preserve">9.37906265258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52989482879639</t>
   </si>
   <si>
     <t xml:space="preserve">9.73557567596436</t>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">9.60531139373779</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18709278106689</t>
+    <t xml:space="preserve">9.18709182739258</t>
   </si>
   <si>
     <t xml:space="preserve">9.23508548736572</t>
@@ -74,31 +74,31 @@
     <t xml:space="preserve">9.07739543914795</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75516319274902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81686782836914</t>
+    <t xml:space="preserve">8.75516223907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81686592102051</t>
   </si>
   <si>
     <t xml:space="preserve">9.00197887420654</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01569175720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15281391143799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27622127532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39277362823486</t>
+    <t xml:space="preserve">9.01569271087646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15281200408936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27622032165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39277458190918</t>
   </si>
   <si>
     <t xml:space="preserve">9.40648651123047</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28307723999023</t>
+    <t xml:space="preserve">9.28307819366455</t>
   </si>
   <si>
     <t xml:space="preserve">9.25565338134766</t>
@@ -110,43 +110,43 @@
     <t xml:space="preserve">8.83743476867676</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39864730834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2478141784668</t>
+    <t xml:space="preserve">8.39864826202393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24781513214111</t>
   </si>
   <si>
     <t xml:space="preserve">8.09012508392334</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25467109680176</t>
+    <t xml:space="preserve">8.25467014312744</t>
   </si>
   <si>
     <t xml:space="preserve">8.48092079162598</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43978500366211</t>
+    <t xml:space="preserve">8.43978595733643</t>
   </si>
   <si>
     <t xml:space="preserve">8.46720886230469</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46035194396973</t>
+    <t xml:space="preserve">8.46035289764404</t>
   </si>
   <si>
     <t xml:space="preserve">8.23410415649414</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40550327301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49463272094727</t>
+    <t xml:space="preserve">8.40550422668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49463367462158</t>
   </si>
   <si>
     <t xml:space="preserve">8.35065650939941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50148773193359</t>
+    <t xml:space="preserve">8.50148868560791</t>
   </si>
   <si>
     <t xml:space="preserve">8.41236114501953</t>
@@ -155,19 +155,19 @@
     <t xml:space="preserve">8.55633640289307</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45349597930908</t>
+    <t xml:space="preserve">8.4534969329834</t>
   </si>
   <si>
     <t xml:space="preserve">8.37808036804199</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33008766174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86485862731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26936531066895</t>
+    <t xml:space="preserve">8.33008861541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86485958099365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26936626434326</t>
   </si>
   <si>
     <t xml:space="preserve">9.59845447540283</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">9.70129585266113</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69443988800049</t>
+    <t xml:space="preserve">9.69443893432617</t>
   </si>
   <si>
     <t xml:space="preserve">9.76985645294189</t>
@@ -185,34 +185,34 @@
     <t xml:space="preserve">9.71500873565674</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36534881591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31050300598145</t>
+    <t xml:space="preserve">9.36534976959229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31050205230713</t>
   </si>
   <si>
     <t xml:space="preserve">9.22137260437012</t>
   </si>
   <si>
-    <t xml:space="preserve">9.351637840271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39962863922119</t>
+    <t xml:space="preserve">9.35163879394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39962959289551</t>
   </si>
   <si>
     <t xml:space="preserve">9.49561500549316</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3242130279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29678916931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22823047637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37220573425293</t>
+    <t xml:space="preserve">9.32421493530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29679012298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22822952270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37220668792725</t>
   </si>
   <si>
     <t xml:space="preserve">9.11853218078613</t>
@@ -224,25 +224,25 @@
     <t xml:space="preserve">8.70716953277588</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54948043823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61804103851318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68660354614258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73459434509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80315589904785</t>
+    <t xml:space="preserve">8.54948139190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6180419921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68660163879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73459339141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80315494537354</t>
   </si>
   <si>
     <t xml:space="preserve">8.89913845062256</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84429168701172</t>
+    <t xml:space="preserve">8.8442907333374</t>
   </si>
   <si>
     <t xml:space="preserve">8.81001091003418</t>
@@ -251,13 +251,13 @@
     <t xml:space="preserve">8.70031261444092</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60433006286621</t>
+    <t xml:space="preserve">8.60432815551758</t>
   </si>
   <si>
     <t xml:space="preserve">8.94713115692139</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97455501556396</t>
+    <t xml:space="preserve">8.97455406188965</t>
   </si>
   <si>
     <t xml:space="preserve">9.04311561584473</t>
@@ -269,73 +269,73 @@
     <t xml:space="preserve">8.7208833694458</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65917873382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89228343963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85800266265869</t>
+    <t xml:space="preserve">8.65917682647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89228248596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85800361633301</t>
   </si>
   <si>
     <t xml:space="preserve">8.95398807525635</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06368446350098</t>
+    <t xml:space="preserve">9.06368350982666</t>
   </si>
   <si>
     <t xml:space="preserve">9.10482025146484</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04997253417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91285133361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58376026153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32323265075684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36436748504639</t>
+    <t xml:space="preserve">9.04997158050537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91285228729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58376121520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32323169708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3643684387207</t>
   </si>
   <si>
     <t xml:space="preserve">8.20667839050293</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95300674438477</t>
+    <t xml:space="preserve">7.95300579071045</t>
   </si>
   <si>
     <t xml:space="preserve">7.58278036117554</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70618772506714</t>
+    <t xml:space="preserve">7.70618867874146</t>
   </si>
   <si>
     <t xml:space="preserve">7.71304368972778</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87758922576904</t>
+    <t xml:space="preserve">7.87758827209473</t>
   </si>
   <si>
     <t xml:space="preserve">7.84174871444702</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79874134063721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89909267425537</t>
+    <t xml:space="preserve">7.79874229431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89909362792969</t>
   </si>
   <si>
     <t xml:space="preserve">7.80590963363647</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39016914367676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05327415466309</t>
+    <t xml:space="preserve">7.39016771316528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05327367782593</t>
   </si>
   <si>
     <t xml:space="preserve">7.18229722976685</t>
@@ -344,7 +344,7 @@
     <t xml:space="preserve">7.31131982803345</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83458232879639</t>
+    <t xml:space="preserve">7.83458137512207</t>
   </si>
   <si>
     <t xml:space="preserve">7.74139738082886</t>
@@ -353,16 +353,16 @@
     <t xml:space="preserve">7.78440570831299</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66971778869629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50485515594482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46901607513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5478630065918</t>
+    <t xml:space="preserve">7.66971826553345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50485563278198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46901559829712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54786252975464</t>
   </si>
   <si>
     <t xml:space="preserve">7.59087133407593</t>
@@ -371,7 +371,7 @@
     <t xml:space="preserve">7.45467853546143</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64821434020996</t>
+    <t xml:space="preserve">7.64821481704712</t>
   </si>
   <si>
     <t xml:space="preserve">7.66254997253418</t>
@@ -386,13 +386,13 @@
     <t xml:space="preserve">7.90626096725464</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38651371002197</t>
+    <t xml:space="preserve">8.38651561737061</t>
   </si>
   <si>
     <t xml:space="preserve">8.35784339904785</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92411231994629</t>
+    <t xml:space="preserve">8.92411136627197</t>
   </si>
   <si>
     <t xml:space="preserve">8.89544105529785</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">8.85960006713867</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03163146972656</t>
+    <t xml:space="preserve">9.03163051605225</t>
   </si>
   <si>
     <t xml:space="preserve">9.04596710205078</t>
@@ -410,10 +410,10 @@
     <t xml:space="preserve">8.93127918243408</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90977573394775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95995235443115</t>
+    <t xml:space="preserve">8.90977668762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95995140075684</t>
   </si>
   <si>
     <t xml:space="preserve">8.79508876800537</t>
@@ -431,28 +431,28 @@
     <t xml:space="preserve">8.5872163772583</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58004951477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56571388244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59438610076904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53704071044922</t>
+    <t xml:space="preserve">8.58004856109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56571197509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59438419342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53704166412354</t>
   </si>
   <si>
     <t xml:space="preserve">8.37934589385986</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46536350250244</t>
+    <t xml:space="preserve">8.46536254882812</t>
   </si>
   <si>
     <t xml:space="preserve">8.52270603179932</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64456176757812</t>
+    <t xml:space="preserve">8.64456081390381</t>
   </si>
   <si>
     <t xml:space="preserve">8.61588954925537</t>
@@ -464,7 +464,7 @@
     <t xml:space="preserve">8.54420852661133</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51553916931152</t>
+    <t xml:space="preserve">8.51553726196289</t>
   </si>
   <si>
     <t xml:space="preserve">8.30049896240234</t>
@@ -473,19 +473,19 @@
     <t xml:space="preserve">8.15713977813721</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17864418029785</t>
+    <t xml:space="preserve">8.17864322662354</t>
   </si>
   <si>
     <t xml:space="preserve">8.26465892791748</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09979629516602</t>
+    <t xml:space="preserve">8.09979724884033</t>
   </si>
   <si>
     <t xml:space="preserve">8.02094745635986</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99227714538574</t>
+    <t xml:space="preserve">7.99227619171143</t>
   </si>
   <si>
     <t xml:space="preserve">7.94210052490234</t>
@@ -494,10 +494,10 @@
     <t xml:space="preserve">7.96360492706299</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98510885238647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94926881790161</t>
+    <t xml:space="preserve">7.98510980606079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94926977157593</t>
   </si>
   <si>
     <t xml:space="preserve">7.92776584625244</t>
@@ -509,22 +509,22 @@
     <t xml:space="preserve">7.95643758773804</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93493127822876</t>
+    <t xml:space="preserve">7.93493318557739</t>
   </si>
   <si>
     <t xml:space="preserve">7.82024526596069</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70555830001831</t>
+    <t xml:space="preserve">7.70555782318115</t>
   </si>
   <si>
     <t xml:space="preserve">7.79157400131226</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72706270217896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99944353103638</t>
+    <t xml:space="preserve">7.72706174850464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99944448471069</t>
   </si>
   <si>
     <t xml:space="preserve">8.12846851348877</t>
@@ -533,10 +533,10 @@
     <t xml:space="preserve">8.20014667510986</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35067462921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32200145721436</t>
+    <t xml:space="preserve">8.35067558288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32200336456299</t>
   </si>
   <si>
     <t xml:space="preserve">8.45102596282959</t>
@@ -551,31 +551,31 @@
     <t xml:space="preserve">8.4581937789917</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28616237640381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17147636413574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25032329559326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14997100830078</t>
+    <t xml:space="preserve">8.28616333007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17147541046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25032234191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1499719619751</t>
   </si>
   <si>
     <t xml:space="preserve">8.078293800354</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56936645507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26831340789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28981590270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23964166641235</t>
+    <t xml:space="preserve">7.56936693191528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26831293106079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28981685638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2396411895752</t>
   </si>
   <si>
     <t xml:space="preserve">7.16796112060547</t>
@@ -590,28 +590,28 @@
     <t xml:space="preserve">7.21813583374023</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35432767868042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2253041267395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2969856262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21096992492676</t>
+    <t xml:space="preserve">7.35432815551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22530460357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29698467254639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21096801757812</t>
   </si>
   <si>
     <t xml:space="preserve">7.11061763763428</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5980396270752</t>
+    <t xml:space="preserve">7.59803915023804</t>
   </si>
   <si>
     <t xml:space="preserve">7.85608530044556</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02811717987061</t>
+    <t xml:space="preserve">8.02811622619629</t>
   </si>
   <si>
     <t xml:space="preserve">8.27899551391602</t>
@@ -620,46 +620,46 @@
     <t xml:space="preserve">8.22165107727051</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2144832611084</t>
+    <t xml:space="preserve">8.21448230743408</t>
   </si>
   <si>
     <t xml:space="preserve">8.16430854797363</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31483554840088</t>
+    <t xml:space="preserve">8.31483459472656</t>
   </si>
   <si>
     <t xml:space="preserve">8.30766677856445</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47969818115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49403381347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52987384796143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73057746887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62305545806885</t>
+    <t xml:space="preserve">8.47969722747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49403285980225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52987194061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73057651519775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62305641174316</t>
   </si>
   <si>
     <t xml:space="preserve">8.67323303222656</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12129974365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18581008911133</t>
+    <t xml:space="preserve">8.12129878997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18581199645996</t>
   </si>
   <si>
     <t xml:space="preserve">8.25749111175537</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19297981262207</t>
+    <t xml:space="preserve">8.19298076629639</t>
   </si>
   <si>
     <t xml:space="preserve">8.55854511260986</t>
@@ -674,7 +674,7 @@
     <t xml:space="preserve">8.44385719299316</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55137825012207</t>
+    <t xml:space="preserve">8.55137729644775</t>
   </si>
   <si>
     <t xml:space="preserve">8.60155391693115</t>
@@ -686,7 +686,7 @@
     <t xml:space="preserve">8.57288074493408</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43669128417969</t>
+    <t xml:space="preserve">8.43669033050537</t>
   </si>
   <si>
     <t xml:space="preserve">8.8165922164917</t>
@@ -695,7 +695,7 @@
     <t xml:space="preserve">8.68756771087646</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76641750335693</t>
+    <t xml:space="preserve">8.76641654968262</t>
   </si>
   <si>
     <t xml:space="preserve">8.88827133178711</t>
@@ -704,7 +704,7 @@
     <t xml:space="preserve">8.95278358459473</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9957914352417</t>
+    <t xml:space="preserve">8.99579048156738</t>
   </si>
   <si>
     <t xml:space="preserve">9.07463836669922</t>
@@ -713,16 +713,16 @@
     <t xml:space="preserve">9.16782188415527</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11764717102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10330963134766</t>
+    <t xml:space="preserve">9.11764621734619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10331058502197</t>
   </si>
   <si>
     <t xml:space="preserve">9.09614181518555</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14631843566895</t>
+    <t xml:space="preserve">9.14631748199463</t>
   </si>
   <si>
     <t xml:space="preserve">9.36135768890381</t>
@@ -731,7 +731,7 @@
     <t xml:space="preserve">9.35418891906738</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32551670074463</t>
+    <t xml:space="preserve">9.32551765441895</t>
   </si>
   <si>
     <t xml:space="preserve">9.31834983825684</t>
@@ -743,25 +743,25 @@
     <t xml:space="preserve">9.46170902252197</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42586803436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28250980377197</t>
+    <t xml:space="preserve">9.42586898803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28251075744629</t>
   </si>
   <si>
     <t xml:space="preserve">9.36852550506592</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51905155181885</t>
+    <t xml:space="preserve">9.51905250549316</t>
   </si>
   <si>
     <t xml:space="preserve">9.52622032165527</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53338718414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46887588500977</t>
+    <t xml:space="preserve">9.53338813781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46887683868408</t>
   </si>
   <si>
     <t xml:space="preserve">9.74125957489014</t>
@@ -770,7 +770,7 @@
     <t xml:space="preserve">9.59789943695068</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74842643737793</t>
+    <t xml:space="preserve">9.74842739105225</t>
   </si>
   <si>
     <t xml:space="preserve">9.77709865570068</t>
@@ -788,7 +788,7 @@
     <t xml:space="preserve">9.95629787445068</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89895534515381</t>
+    <t xml:space="preserve">9.89895439147949</t>
   </si>
   <si>
     <t xml:space="preserve">9.94912910461426</t>
@@ -800,19 +800,19 @@
     <t xml:space="preserve">9.97063446044922</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98497104644775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1785039901733</t>
+    <t xml:space="preserve">9.98497009277344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1785049438477</t>
   </si>
   <si>
     <t xml:space="preserve">10.2645206451416</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2931928634644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3362007141113</t>
+    <t xml:space="preserve">10.29319190979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.336199760437</t>
   </si>
   <si>
     <t xml:space="preserve">10.4365510940552</t>
@@ -824,43 +824,43 @@
     <t xml:space="preserve">10.4293832778931</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3792066574097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4150476455688</t>
+    <t xml:space="preserve">10.379207611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4150466918945</t>
   </si>
   <si>
     <t xml:space="preserve">10.3218641281128</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5082311630249</t>
+    <t xml:space="preserve">10.5082321166992</t>
   </si>
   <si>
     <t xml:space="preserve">10.515398979187</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4437189102173</t>
+    <t xml:space="preserve">10.4437198638916</t>
   </si>
   <si>
     <t xml:space="preserve">10.558406829834</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4078788757324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3505353927612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5227947235107</t>
+    <t xml:space="preserve">10.4078798294067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3505344390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5227956771851</t>
   </si>
   <si>
     <t xml:space="preserve">10.4104509353638</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6126699447632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5078153610229</t>
+    <t xml:space="preserve">10.6126689910889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5078163146973</t>
   </si>
   <si>
     <t xml:space="preserve">10.4478998184204</t>
@@ -869,10 +869,10 @@
     <t xml:space="preserve">10.4853477478027</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1857652664185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.058443069458</t>
+    <t xml:space="preserve">10.1857662200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0584440231323</t>
   </si>
   <si>
     <t xml:space="preserve">10.1183605194092</t>
@@ -890,22 +890,22 @@
     <t xml:space="preserve">9.88618469238281</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74388313293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87869358062744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99852848052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81128978729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0060167312622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0434637069702</t>
+    <t xml:space="preserve">9.74388408660889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87869453430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99852752685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81128883361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0060157775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0434646606445</t>
   </si>
   <si>
     <t xml:space="preserve">10.0659332275391</t>
@@ -920,16 +920,16 @@
     <t xml:space="preserve">10.0884017944336</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96107864379883</t>
+    <t xml:space="preserve">9.96107959747314</t>
   </si>
   <si>
     <t xml:space="preserve">10.0359754562378</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81877708435059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87120532989502</t>
+    <t xml:space="preserve">9.8187780380249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87120628356934</t>
   </si>
   <si>
     <t xml:space="preserve">9.84873676300049</t>
@@ -938,16 +938,16 @@
     <t xml:space="preserve">9.42932319641113</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49672889709473</t>
+    <t xml:space="preserve">9.49672794342041</t>
   </si>
   <si>
     <t xml:space="preserve">9.45179176330566</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46677017211914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60907173156738</t>
+    <t xml:space="preserve">9.46677112579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6090726852417</t>
   </si>
   <si>
     <t xml:space="preserve">9.44430160522461</t>
@@ -959,7 +959,7 @@
     <t xml:space="preserve">9.21961688995361</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36940574645996</t>
+    <t xml:space="preserve">9.36940670013428</t>
   </si>
   <si>
     <t xml:space="preserve">9.37689590454102</t>
@@ -968,7 +968,7 @@
     <t xml:space="preserve">9.30200099945068</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31697845458984</t>
+    <t xml:space="preserve">9.31698036193848</t>
   </si>
   <si>
     <t xml:space="preserve">9.2720422744751</t>
@@ -983,7 +983,7 @@
     <t xml:space="preserve">9.15970039367676</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14471912384033</t>
+    <t xml:space="preserve">9.14472007751465</t>
   </si>
   <si>
     <t xml:space="preserve">9.12225246429443</t>
@@ -992,10 +992,10 @@
     <t xml:space="preserve">9.06233596801758</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03237819671631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08480453491211</t>
+    <t xml:space="preserve">9.03237724304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08480262756348</t>
   </si>
   <si>
     <t xml:space="preserve">9.25706386566162</t>
@@ -1007,7 +1007,7 @@
     <t xml:space="preserve">9.28702163696289</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75137424468994</t>
+    <t xml:space="preserve">9.75137329101562</t>
   </si>
   <si>
     <t xml:space="preserve">9.92363166809082</t>
@@ -1019,7 +1019,7 @@
     <t xml:space="preserve">9.59409236907959</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60158157348633</t>
+    <t xml:space="preserve">9.60158252716064</t>
   </si>
   <si>
     <t xml:space="preserve">9.61656188964844</t>
@@ -1028,7 +1028,7 @@
     <t xml:space="preserve">9.73639297485352</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79631042480469</t>
+    <t xml:space="preserve">9.79630947113037</t>
   </si>
   <si>
     <t xml:space="preserve">9.66898822784424</t>
@@ -1037,13 +1037,13 @@
     <t xml:space="preserve">9.67647743225098</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72141361236572</t>
+    <t xml:space="preserve">9.72141456604004</t>
   </si>
   <si>
     <t xml:space="preserve">9.82626724243164</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9161434173584</t>
+    <t xml:space="preserve">9.91614246368408</t>
   </si>
   <si>
     <t xml:space="preserve">9.85622692108154</t>
@@ -1061,7 +1061,7 @@
     <t xml:space="preserve">10.2756404876709</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2232131958008</t>
+    <t xml:space="preserve">10.2232141494751</t>
   </si>
   <si>
     <t xml:space="preserve">10.358024597168</t>
@@ -1070,58 +1070,58 @@
     <t xml:space="preserve">10.4029626846313</t>
   </si>
   <si>
-    <t xml:space="preserve">10.552752494812</t>
+    <t xml:space="preserve">10.5527534484863</t>
   </si>
   <si>
     <t xml:space="preserve">10.4703674316406</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3804941177368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5302848815918</t>
+    <t xml:space="preserve">10.3804931640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5302839279175</t>
   </si>
   <si>
     <t xml:space="preserve">10.5003271102905</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8822927474976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9122495651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9347200393677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8748025894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7999076843262</t>
+    <t xml:space="preserve">10.8822908401489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9122505187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9347190856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8748035430908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7999067306519</t>
   </si>
   <si>
     <t xml:space="preserve">10.7774381637573</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7325019836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5976896286011</t>
+    <t xml:space="preserve">10.7325029373169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5976905822754</t>
   </si>
   <si>
     <t xml:space="preserve">10.7474813461304</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6950540542603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0245943069458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0021238327026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9646768569946</t>
+    <t xml:space="preserve">10.6950531005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0245933532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0021257400513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9646778106689</t>
   </si>
   <si>
     <t xml:space="preserve">11.0770206451416</t>
@@ -1136,52 +1136,52 @@
     <t xml:space="preserve">10.9496984481812</t>
   </si>
   <si>
-    <t xml:space="preserve">11.346643447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6573114395142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7921237945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7022476196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7322072982788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6648015975952</t>
+    <t xml:space="preserve">11.3466424942017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6573104858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7921228408813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7022485733032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7322063446045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6648006439209</t>
   </si>
   <si>
     <t xml:space="preserve">12.6498222351074</t>
   </si>
   <si>
-    <t xml:space="preserve">12.717227935791</t>
+    <t xml:space="preserve">12.7172269821167</t>
   </si>
   <si>
     <t xml:space="preserve">12.5524587631226</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2453880310059</t>
+    <t xml:space="preserve">12.2453870773315</t>
   </si>
   <si>
     <t xml:space="preserve">12.1480236053467</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0281896591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3502397537231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9607839584351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7061424255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5563507080078</t>
+    <t xml:space="preserve">12.028190612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3502407073975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9607849121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7061414718628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5563497543335</t>
   </si>
   <si>
     <t xml:space="preserve">11.6836729049683</t>
@@ -1196,34 +1196,34 @@
     <t xml:space="preserve">11.5788192749023</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7585668563843</t>
+    <t xml:space="preserve">11.7585678100586</t>
   </si>
   <si>
     <t xml:space="preserve">11.9682750701904</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0731296539307</t>
+    <t xml:space="preserve">12.0731287002563</t>
   </si>
   <si>
     <t xml:space="preserve">12.1555128097534</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9458055496216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8559303283691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7510786056519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.803505897522</t>
+    <t xml:space="preserve">11.9458065032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8559322357178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7510776519775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8035049438477</t>
   </si>
   <si>
     <t xml:space="preserve">11.9832534790039</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0955972671509</t>
+    <t xml:space="preserve">12.0955963134766</t>
   </si>
   <si>
     <t xml:space="preserve">12.1630029678345</t>
@@ -1238,19 +1238,19 @@
     <t xml:space="preserve">12.0881061553955</t>
   </si>
   <si>
-    <t xml:space="preserve">11.990743637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9158477783203</t>
+    <t xml:space="preserve">11.9907445907593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9158487319946</t>
   </si>
   <si>
     <t xml:space="preserve">11.8709115982056</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7136306762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6537141799927</t>
+    <t xml:space="preserve">11.7136297225952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.653715133667</t>
   </si>
   <si>
     <t xml:space="preserve">11.6312446594238</t>
@@ -1268,25 +1268,25 @@
     <t xml:space="preserve">11.2717475891113</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9796552658081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0994882583618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.121958732605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.196852684021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1519165039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0320825576782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7250127792358</t>
+    <t xml:space="preserve">10.9796562194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0994892120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1219568252563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1968536376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1519155502319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0320835113525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7250118255615</t>
   </si>
   <si>
     <t xml:space="preserve">10.515305519104</t>
@@ -1295,7 +1295,7 @@
     <t xml:space="preserve">10.4404106140137</t>
   </si>
   <si>
-    <t xml:space="preserve">10.665096282959</t>
+    <t xml:space="preserve">10.6650953292847</t>
   </si>
   <si>
     <t xml:space="preserve">10.6875648498535</t>
@@ -1310,28 +1310,28 @@
     <t xml:space="preserve">10.5677318572998</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3355569839478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1932544708252</t>
+    <t xml:space="preserve">10.3355560302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1932554244995</t>
   </si>
   <si>
     <t xml:space="preserve">10.1033802032471</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2082357406616</t>
+    <t xml:space="preserve">10.2082347869873</t>
   </si>
   <si>
     <t xml:space="preserve">10.0284852981567</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1483182907104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.32057762146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2606611251831</t>
+    <t xml:space="preserve">10.1483192443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3205766677856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2606620788574</t>
   </si>
   <si>
     <t xml:space="preserve">10.215723991394</t>
@@ -1340,28 +1340,28 @@
     <t xml:space="preserve">10.1333389282227</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2831287384033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4254312515259</t>
+    <t xml:space="preserve">10.2831296920776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4254302978516</t>
   </si>
   <si>
     <t xml:space="preserve">10.5452642440796</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6426277160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8373556137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8448438644409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8073968887329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0096139907837</t>
+    <t xml:space="preserve">10.6426267623901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8373546600342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8448448181152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8073978424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.009614944458</t>
   </si>
   <si>
     <t xml:space="preserve">10.8598232269287</t>
@@ -1373,25 +1373,25 @@
     <t xml:space="preserve">10.4778575897217</t>
   </si>
   <si>
-    <t xml:space="preserve">10.739990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2906188964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9685697555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72890472412109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99103736877441</t>
+    <t xml:space="preserve">10.7399921417236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2906179428101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96856880187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72890377044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99103832244873</t>
   </si>
   <si>
     <t xml:space="preserve">10.3879823684692</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2438812255859</t>
+    <t xml:space="preserve">10.2438802719116</t>
   </si>
   <si>
     <t xml:space="preserve">10.2752799987793</t>
@@ -1403,28 +1403,28 @@
     <t xml:space="preserve">10.0790376663208</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1182851791382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0162391662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0319395065308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99268913269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94559192657471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0005397796631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97699165344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1653833389282</t>
+    <t xml:space="preserve">10.1182861328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0162382125854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0319385528564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99268817901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94559097290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0005388259888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97698974609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1653842926025</t>
   </si>
   <si>
     <t xml:space="preserve">10.2595806121826</t>
@@ -1439,28 +1439,28 @@
     <t xml:space="preserve">10.0711879730225</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0947370529175</t>
+    <t xml:space="preserve">10.0947360992432</t>
   </si>
   <si>
     <t xml:space="preserve">10.2046318054199</t>
   </si>
   <si>
-    <t xml:space="preserve">10.25172996521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0868873596191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1496839523315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.377326965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4401245117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4087257385254</t>
+    <t xml:space="preserve">10.2517309188843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0868883132935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1496849060059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3773260116577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4401235580444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4087247848511</t>
   </si>
   <si>
     <t xml:space="preserve">10.6206674575806</t>
@@ -1472,16 +1472,16 @@
     <t xml:space="preserve">10.5735692977905</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6363658905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6756153106689</t>
+    <t xml:space="preserve">10.6363677978516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6756162643433</t>
   </si>
   <si>
     <t xml:space="preserve">10.7070140838623</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5892677307129</t>
+    <t xml:space="preserve">10.5892686843872</t>
   </si>
   <si>
     <t xml:space="preserve">10.6834650039673</t>
@@ -1502,19 +1502,19 @@
     <t xml:space="preserve">10.338077545166</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2674312591553</t>
+    <t xml:space="preserve">10.267430305481</t>
   </si>
   <si>
     <t xml:space="preserve">10.2281808853149</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0554876327515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75719833374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63945198059082</t>
+    <t xml:space="preserve">10.0554885864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75719928741455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63945293426514</t>
   </si>
   <si>
     <t xml:space="preserve">9.60020446777344</t>
@@ -1523,28 +1523,25 @@
     <t xml:space="preserve">9.71794986724854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92989253997803</t>
+    <t xml:space="preserve">9.92989063262939</t>
   </si>
   <si>
     <t xml:space="preserve">9.96914005279541</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1104354858398</t>
+    <t xml:space="preserve">10.1104373931885</t>
   </si>
   <si>
     <t xml:space="preserve">10.2124824523926</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2831296920776</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.3851757049561</t>
   </si>
   <si>
     <t xml:space="preserve">10.4244241714478</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3694763183594</t>
+    <t xml:space="preserve">10.3694772720337</t>
   </si>
   <si>
     <t xml:space="preserve">10.1339845657349</t>
@@ -1556,22 +1553,22 @@
     <t xml:space="preserve">10.1418352127075</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6708517074585</t>
+    <t xml:space="preserve">9.67085075378418</t>
   </si>
   <si>
     <t xml:space="preserve">9.61590385437012</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41181087493896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38041210174561</t>
+    <t xml:space="preserve">9.41180992126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38041114807129</t>
   </si>
   <si>
     <t xml:space="preserve">9.28621482849121</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50600814819336</t>
+    <t xml:space="preserve">9.50600624084473</t>
   </si>
   <si>
     <t xml:space="preserve">9.39611148834229</t>
@@ -1586,13 +1583,13 @@
     <t xml:space="preserve">9.09782218933105</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89373016357422</t>
+    <t xml:space="preserve">8.8937292098999</t>
   </si>
   <si>
     <t xml:space="preserve">8.91727828979492</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92512798309326</t>
+    <t xml:space="preserve">8.92512893676758</t>
   </si>
   <si>
     <t xml:space="preserve">8.7759838104248</t>
@@ -1601,16 +1598,16 @@
     <t xml:space="preserve">9.011474609375</t>
   </si>
   <si>
-    <t xml:space="preserve">9.027174949646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11352157592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16061973571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27051734924316</t>
+    <t xml:space="preserve">9.02717399597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11352252960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16062068939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27051639556885</t>
   </si>
   <si>
     <t xml:space="preserve">9.24696636199951</t>
@@ -1622,7 +1619,7 @@
     <t xml:space="preserve">9.31761455535889</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1261348724365</t>
+    <t xml:space="preserve">10.1261358261108</t>
   </si>
   <si>
     <t xml:space="preserve">10.0476388931274</t>
@@ -1631,37 +1628,37 @@
     <t xml:space="preserve">10.0240888595581</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74149894714355</t>
+    <t xml:space="preserve">9.74149990081787</t>
   </si>
   <si>
     <t xml:space="preserve">9.74934864044189</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5766544342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46675968170166</t>
+    <t xml:space="preserve">9.57665538787842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46675872802734</t>
   </si>
   <si>
     <t xml:space="preserve">9.48245811462402</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34116363525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42751026153564</t>
+    <t xml:space="preserve">9.34116268157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42751121520996</t>
   </si>
   <si>
     <t xml:space="preserve">9.41966152191162</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29406452178955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25481605529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33331394195557</t>
+    <t xml:space="preserve">9.29406547546387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25481700897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33331489562988</t>
   </si>
   <si>
     <t xml:space="preserve">9.08212280273438</t>
@@ -1670,7 +1667,7 @@
     <t xml:space="preserve">9.73364925384521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52170658111572</t>
+    <t xml:space="preserve">9.52170562744141</t>
   </si>
   <si>
     <t xml:space="preserve">9.22341823577881</t>
@@ -1688,7 +1685,7 @@
     <t xml:space="preserve">9.5374059677124</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27836418151855</t>
+    <t xml:space="preserve">9.27836513519287</t>
   </si>
   <si>
     <t xml:space="preserve">9.4353609085083</t>
@@ -1697,19 +1694,19 @@
     <t xml:space="preserve">9.60805416107178</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7728967666626</t>
+    <t xml:space="preserve">9.77289772033691</t>
   </si>
   <si>
     <t xml:space="preserve">9.79644775390625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85139656066895</t>
+    <t xml:space="preserve">9.85139560699463</t>
   </si>
   <si>
     <t xml:space="preserve">10.2360305786133</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5186204910278</t>
+    <t xml:space="preserve">10.5186214447021</t>
   </si>
   <si>
     <t xml:space="preserve">10.5971183776855</t>
@@ -1718,16 +1715,16 @@
     <t xml:space="preserve">10.4793720245361</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3459272384644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5578708648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6913137435913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6285171508789</t>
+    <t xml:space="preserve">10.3459281921387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5578699111938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6913146972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6285181045532</t>
   </si>
   <si>
     <t xml:space="preserve">10.6520662307739</t>
@@ -1736,16 +1733,16 @@
     <t xml:space="preserve">10.5264711380005</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7148628234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9582042694092</t>
+    <t xml:space="preserve">10.7148637771606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9582052230835</t>
   </si>
   <si>
     <t xml:space="preserve">10.9032573699951</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9268064498901</t>
+    <t xml:space="preserve">10.9268054962158</t>
   </si>
   <si>
     <t xml:space="preserve">10.7933616638184</t>
@@ -1754,7 +1751,7 @@
     <t xml:space="preserve">10.9111061096191</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8954076766968</t>
+    <t xml:space="preserve">10.8954067230225</t>
   </si>
   <si>
     <t xml:space="preserve">11.0838012695312</t>
@@ -1793,13 +1790,13 @@
     <t xml:space="preserve">11.8609218597412</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9315700531006</t>
+    <t xml:space="preserve">11.9315710067749</t>
   </si>
   <si>
     <t xml:space="preserve">11.8923206329346</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8766212463379</t>
+    <t xml:space="preserve">11.8766222000122</t>
   </si>
   <si>
     <t xml:space="preserve">11.8530731201172</t>
@@ -1817,7 +1814,7 @@
     <t xml:space="preserve">12.5752468109131</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7165422439575</t>
+    <t xml:space="preserve">12.7165412902832</t>
   </si>
   <si>
     <t xml:space="preserve">12.5124492645264</t>
@@ -1829,64 +1826,64 @@
     <t xml:space="preserve">12.6380453109741</t>
   </si>
   <si>
-    <t xml:space="preserve">12.496750831604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3397541046143</t>
+    <t xml:space="preserve">12.4967498779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3397550582886</t>
   </si>
   <si>
     <t xml:space="preserve">12.1513624191284</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1670627593994</t>
+    <t xml:space="preserve">12.1670618057251</t>
   </si>
   <si>
     <t xml:space="preserve">12.3711538314819</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5909471511841</t>
+    <t xml:space="preserve">12.5909461975098</t>
   </si>
   <si>
     <t xml:space="preserve">12.6223459243774</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7008428573608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6851434707642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8421382904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7636394500732</t>
+    <t xml:space="preserve">12.7008419036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6851425170898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.842137336731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7636404037476</t>
   </si>
   <si>
     <t xml:space="preserve">13.1090288162231</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2032251358032</t>
+    <t xml:space="preserve">13.2032232284546</t>
   </si>
   <si>
     <t xml:space="preserve">13.3916168212891</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2503223419189</t>
+    <t xml:space="preserve">13.2503213882446</t>
   </si>
   <si>
     <t xml:space="preserve">13.1247262954712</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0776281356812</t>
+    <t xml:space="preserve">13.0776290893555</t>
   </si>
   <si>
     <t xml:space="preserve">12.9834327697754</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9206352233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0462293624878</t>
+    <t xml:space="preserve">12.92063331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0462312698364</t>
   </si>
   <si>
     <t xml:space="preserve">13.1561269760132</t>
@@ -1898,7 +1895,7 @@
     <t xml:space="preserve">13.0933284759521</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1404256820679</t>
+    <t xml:space="preserve">13.1404266357422</t>
   </si>
   <si>
     <t xml:space="preserve">13.0619287490845</t>
@@ -1907,13 +1904,13 @@
     <t xml:space="preserve">13.3445196151733</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4858131408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5800094604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6114110946655</t>
+    <t xml:space="preserve">13.4858150482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5800113677979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6114101409912</t>
   </si>
   <si>
     <t xml:space="preserve">13.6585073471069</t>
@@ -1922,49 +1919,49 @@
     <t xml:space="preserve">13.752703666687</t>
   </si>
   <si>
-    <t xml:space="preserve">13.831202507019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8469009399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8626012802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9253988265991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0038957595825</t>
+    <t xml:space="preserve">13.8312034606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8468999862671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8626003265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9253969192505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0038938522339</t>
   </si>
   <si>
     <t xml:space="preserve">13.9724950790405</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0509929656982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1736040115356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.010124206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9774293899536</t>
+    <t xml:space="preserve">14.0509939193726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1736030578613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0101251602173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9774284362793</t>
   </si>
   <si>
     <t xml:space="preserve">13.6995153427124</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6831655502319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6177749633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7649068832397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1572542190552</t>
+    <t xml:space="preserve">13.6831665039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6177759170532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7649059295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1572551727295</t>
   </si>
   <si>
     <t xml:space="preserve">14.0755157470703</t>
@@ -1973,34 +1970,34 @@
     <t xml:space="preserve">13.8629922866821</t>
   </si>
   <si>
-    <t xml:space="preserve">13.912036895752</t>
+    <t xml:space="preserve">13.9120378494263</t>
   </si>
   <si>
     <t xml:space="preserve">14.0918636322021</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0264711380005</t>
+    <t xml:space="preserve">14.0264730453491</t>
   </si>
   <si>
     <t xml:space="preserve">14.2389945983887</t>
   </si>
   <si>
-    <t xml:space="preserve">14.140905380249</t>
+    <t xml:space="preserve">14.1409072875977</t>
   </si>
   <si>
     <t xml:space="preserve">14.1245603561401</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1899518966675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.304386138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0428190231323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0591678619385</t>
+    <t xml:space="preserve">14.1899509429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3043851852417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.042820930481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0591697692871</t>
   </si>
   <si>
     <t xml:space="preserve">13.9283857345581</t>
@@ -2015,28 +2012,28 @@
     <t xml:space="preserve">14.2553424835205</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4515161514282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.500560760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4351692199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3534278869629</t>
+    <t xml:space="preserve">14.4515180587769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5005588531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4351682662964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3534297943115</t>
   </si>
   <si>
     <t xml:space="preserve">14.5332565307617</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4842128753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4678659439087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.402473449707</t>
+    <t xml:space="preserve">14.4842119216919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4678649902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4024744033813</t>
   </si>
   <si>
     <t xml:space="preserve">14.3207330703735</t>
@@ -2054,34 +2051,34 @@
     <t xml:space="preserve">14.2226457595825</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8793411254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8765630722046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7457780838013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9256038665771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7621269226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.974648475647</t>
+    <t xml:space="preserve">13.879340171814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8765621185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7457799911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9256048202515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7621250152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9746475219727</t>
   </si>
   <si>
     <t xml:space="preserve">14.3370819091797</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5823001861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5659523010254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2880382537842</t>
+    <t xml:space="preserve">14.5822982788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5659513473511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2880373001099</t>
   </si>
   <si>
     <t xml:space="preserve">14.6803865432739</t>
@@ -2090,19 +2087,19 @@
     <t xml:space="preserve">14.6640405654907</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6967334747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6476898193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5169086456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2198677062988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4160413742065</t>
+    <t xml:space="preserve">14.6967353820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6476917266846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5169076919556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2198648452759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4160423278809</t>
   </si>
   <si>
     <t xml:space="preserve">14.9909973144531</t>
@@ -2111,46 +2108,46 @@
     <t xml:space="preserve">15.2035188674927</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4487371444702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.236213684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0727367401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.334300994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4323863983154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8929100036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9092559814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8602151870728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2525634765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4814329147339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5468235015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2852582931519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1381273269653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1054306030273</t>
+    <t xml:space="preserve">15.4487361907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2362127304077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.072735786438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3343019485474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4323883056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8929090499878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9092578887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8602142333984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2525606155396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4814338684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5468254089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2852602005005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1381254196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.105429649353</t>
   </si>
   <si>
     <t xml:space="preserve">15.0563879013062</t>
@@ -2159,76 +2156,76 @@
     <t xml:space="preserve">14.9583005905151</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7784729003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6313419342041</t>
+    <t xml:space="preserve">14.7784748077393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6313428878784</t>
   </si>
   <si>
     <t xml:space="preserve">15.3506498336792</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9882164001465</t>
+    <t xml:space="preserve">15.9882154464722</t>
   </si>
   <si>
     <t xml:space="preserve">16.0045642852783</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1843891143799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3887367248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6339569091797</t>
+    <t xml:space="preserve">16.1843910217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3887386322021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6339588165283</t>
   </si>
   <si>
     <t xml:space="preserve">16.5113487243652</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5930862426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.001781463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2061309814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6148262023926</t>
+    <t xml:space="preserve">16.5930881500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0017833709717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2061328887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6148300170898</t>
   </si>
   <si>
     <t xml:space="preserve">17.8191776275635</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7374401092529</t>
+    <t xml:space="preserve">17.7374382019043</t>
   </si>
   <si>
     <t xml:space="preserve">17.4513511657715</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3696117401123</t>
+    <t xml:space="preserve">17.3696098327637</t>
   </si>
   <si>
     <t xml:space="preserve">17.2878723144531</t>
   </si>
   <si>
-    <t xml:space="preserve">17.16526222229</t>
+    <t xml:space="preserve">17.1652641296387</t>
   </si>
   <si>
     <t xml:space="preserve">17.0426540374756</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0835247039795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.838306427002</t>
+    <t xml:space="preserve">17.0835227966309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8383045196533</t>
   </si>
   <si>
     <t xml:space="preserve">16.8791751861572</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5739612579346</t>
+    <t xml:space="preserve">17.5739593505859</t>
   </si>
   <si>
     <t xml:space="preserve">16.5522174835205</t>
@@ -2237,16 +2234,16 @@
     <t xml:space="preserve">16.2988262176514</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4296073913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9391717910767</t>
+    <t xml:space="preserve">16.4296092987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9391736984253</t>
   </si>
   <si>
     <t xml:space="preserve">15.5795192718506</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8247365951538</t>
+    <t xml:space="preserve">15.8247375488281</t>
   </si>
   <si>
     <t xml:space="preserve">16.0536079406738</t>
@@ -2261,13 +2258,13 @@
     <t xml:space="preserve">12.6859474182129</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9203767776489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2963781356812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5934200286865</t>
+    <t xml:space="preserve">10.9203758239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2963771820068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5934190750122</t>
   </si>
   <si>
     <t xml:space="preserve">10.6588106155396</t>
@@ -2279,19 +2276,19 @@
     <t xml:space="preserve">10.2828092575073</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5443754196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6751585006714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6723794937134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8358564376831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7214221954346</t>
+    <t xml:space="preserve">10.544376373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6751594543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6723785400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8358573913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7214231491089</t>
   </si>
   <si>
     <t xml:space="preserve">12.0974235534668</t>
@@ -2306,34 +2303,34 @@
     <t xml:space="preserve">12.3998584747314</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1955099105835</t>
+    <t xml:space="preserve">12.1955108642578</t>
   </si>
   <si>
     <t xml:space="preserve">12.1546411514282</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1791620254517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.244553565979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5142955780029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9829893112183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8113346099854</t>
+    <t xml:space="preserve">12.179162979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2445526123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5142946243286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9829883575439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8113355636597</t>
   </si>
   <si>
     <t xml:space="preserve">11.8603792190552</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7786407470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6315088272095</t>
+    <t xml:space="preserve">11.778639793396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6315078735352</t>
   </si>
   <si>
     <t xml:space="preserve">12.105598449707</t>
@@ -2342,13 +2339,13 @@
     <t xml:space="preserve">12.579686164856</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4652519226074</t>
+    <t xml:space="preserve">12.4652509689331</t>
   </si>
   <si>
     <t xml:space="preserve">12.7513380050659</t>
   </si>
   <si>
-    <t xml:space="preserve">13.241774559021</t>
+    <t xml:space="preserve">13.2417736053467</t>
   </si>
   <si>
     <t xml:space="preserve">12.8330774307251</t>
@@ -2360,13 +2357,13 @@
     <t xml:space="preserve">12.7349901199341</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9802083969116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.413426399231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7485589981079</t>
+    <t xml:space="preserve">12.9802093505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4134273529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7485570907593</t>
   </si>
   <si>
     <t xml:space="preserve">13.8956890106201</t>
@@ -2375,76 +2372,76 @@
     <t xml:space="preserve">13.6913404464722</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7567329406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7240371704102</t>
+    <t xml:space="preserve">13.7567319869995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7240362167358</t>
   </si>
   <si>
     <t xml:space="preserve">14.1163854598999</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2635164260864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1817779541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.345253944397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0482130050659</t>
+    <t xml:space="preserve">14.2635154724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1817770004272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3452548980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0482139587402</t>
   </si>
   <si>
     <t xml:space="preserve">15.26891040802</t>
   </si>
   <si>
-    <t xml:space="preserve">15.366997718811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5304746627808</t>
+    <t xml:space="preserve">15.3669967651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5304756164551</t>
   </si>
   <si>
     <t xml:space="preserve">14.9664745330811</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9010829925537</t>
+    <t xml:space="preserve">14.9010820388794</t>
   </si>
   <si>
     <t xml:space="preserve">14.476037979126</t>
   </si>
   <si>
-    <t xml:space="preserve">14.443341255188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9174299240112</t>
+    <t xml:space="preserve">14.4433441162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9174308776855</t>
   </si>
   <si>
     <t xml:space="preserve">14.7049083709717</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6547508239746</t>
+    <t xml:space="preserve">14.6547517776489</t>
   </si>
   <si>
     <t xml:space="preserve">14.8769226074219</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5265760421753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3727655410767</t>
+    <t xml:space="preserve">14.526575088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3727645874023</t>
   </si>
   <si>
     <t xml:space="preserve">14.5522117614746</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8171091079712</t>
+    <t xml:space="preserve">14.8171081542969</t>
   </si>
   <si>
     <t xml:space="preserve">14.6034822463989</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8427438735962</t>
+    <t xml:space="preserve">14.8427429199219</t>
   </si>
   <si>
     <t xml:space="preserve">14.9794635772705</t>
@@ -2453,7 +2450,7 @@
     <t xml:space="preserve">14.8683776855469</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9623737335205</t>
+    <t xml:space="preserve">14.9623727798462</t>
   </si>
   <si>
     <t xml:space="preserve">14.7743825912476</t>
@@ -2462,7 +2459,7 @@
     <t xml:space="preserve">14.5180311203003</t>
   </si>
   <si>
-    <t xml:space="preserve">14.466760635376</t>
+    <t xml:space="preserve">14.4667615890503</t>
   </si>
   <si>
     <t xml:space="preserve">14.304404258728</t>
@@ -2474,31 +2471,31 @@
     <t xml:space="preserve">14.3300399780273</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7060222625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5436668395996</t>
+    <t xml:space="preserve">14.7060203552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5436658859253</t>
   </si>
   <si>
     <t xml:space="preserve">14.7487478256226</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5863904953003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1505928039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9284229278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1164150238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7402029037476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6120271682739</t>
+    <t xml:space="preserve">14.5863914489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1505937576294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9284219741821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1164140701294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7402019500732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6120262145996</t>
   </si>
   <si>
     <t xml:space="preserve">14.8598318099976</t>
@@ -2513,43 +2510,46 @@
     <t xml:space="preserve">14.9367380142212</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9538288116455</t>
+    <t xml:space="preserve">14.9538278579712</t>
   </si>
   <si>
     <t xml:space="preserve">14.9709186553955</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3212642669678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2870845794678</t>
+    <t xml:space="preserve">15.3212661743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2870855331421</t>
   </si>
   <si>
     <t xml:space="preserve">15.3554449081421</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5605268478394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2443599700928</t>
+    <t xml:space="preserve">15.5605239868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2443580627441</t>
   </si>
   <si>
     <t xml:space="preserve">15.1418190002441</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8512868881226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0649127960205</t>
+    <t xml:space="preserve">14.8512878417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0649147033691</t>
   </si>
   <si>
     <t xml:space="preserve">15.0392789840698</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8940134048462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1674537658691</t>
+    <t xml:space="preserve">14.6803874969482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8940124511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1674547195435</t>
   </si>
   <si>
     <t xml:space="preserve">15.0136442184448</t>
@@ -2558,55 +2558,55 @@
     <t xml:space="preserve">14.7145671844482</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0734586715698</t>
+    <t xml:space="preserve">15.0734577178955</t>
   </si>
   <si>
     <t xml:space="preserve">14.9025583267212</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2529058456421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0050973892212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9111022949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3127193450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3981704711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.43235206604</t>
+    <t xml:space="preserve">15.2529048919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0050983428955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9111032485962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3127212524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3981714248657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4323501586914</t>
   </si>
   <si>
     <t xml:space="preserve">15.0307340621948</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7829256057739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9880084991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1930894851685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.48362159729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3639898300171</t>
+    <t xml:space="preserve">14.7829275131226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9880094528198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1930904388428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4836225509644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3639907836914</t>
   </si>
   <si>
     <t xml:space="preserve">15.3810806274414</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5690717697144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4152612686157</t>
+    <t xml:space="preserve">15.56907081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4152631759644</t>
   </si>
   <si>
     <t xml:space="preserve">15.3298120498657</t>
@@ -2615,22 +2615,22 @@
     <t xml:space="preserve">15.3041744232178</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5092554092407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5348930358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8510570526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6887035369873</t>
+    <t xml:space="preserve">15.509256362915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5348920822144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8510580062866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6887016296387</t>
   </si>
   <si>
     <t xml:space="preserve">15.6801586151123</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2785396575928</t>
+    <t xml:space="preserve">15.2785387039185</t>
   </si>
   <si>
     <t xml:space="preserve">15.1503648757935</t>
@@ -2642,7 +2642,7 @@
     <t xml:space="preserve">14.6718416213989</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6974773406982</t>
+    <t xml:space="preserve">14.6974782943726</t>
   </si>
   <si>
     <t xml:space="preserve">14.7914714813232</t>
@@ -2654,40 +2654,40 @@
     <t xml:space="preserve">15.2358150482178</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2187252044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2614507675171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0221900939941</t>
+    <t xml:space="preserve">15.2187242507935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2614498138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0221881866455</t>
   </si>
   <si>
     <t xml:space="preserve">14.9196481704712</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9452838897705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5007104873657</t>
+    <t xml:space="preserve">14.9452829360962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.50071144104</t>
   </si>
   <si>
     <t xml:space="preserve">15.0820035934448</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4240350723267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.253134727478</t>
+    <t xml:space="preserve">14.4240341186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2531356811523</t>
   </si>
   <si>
     <t xml:space="preserve">14.184775352478</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2104082107544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1078691482544</t>
+    <t xml:space="preserve">14.2104091644287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1078681945801</t>
   </si>
   <si>
     <t xml:space="preserve">13.9198789596558</t>
@@ -2702,28 +2702,28 @@
     <t xml:space="preserve">14.0309638977051</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1591386795044</t>
+    <t xml:space="preserve">14.1591396331787</t>
   </si>
   <si>
     <t xml:space="preserve">14.295859336853</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5351209640503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7316570281982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8341989517212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8256540298462</t>
+    <t xml:space="preserve">14.5351219177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7316579818726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8341979980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8256530761719</t>
   </si>
   <si>
     <t xml:space="preserve">14.5778455734253</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2018642425537</t>
+    <t xml:space="preserve">14.201865196228</t>
   </si>
   <si>
     <t xml:space="preserve">14.236044883728</t>
@@ -2741,7 +2741,7 @@
     <t xml:space="preserve">14.1249599456787</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0993232727051</t>
+    <t xml:space="preserve">14.0993242263794</t>
   </si>
   <si>
     <t xml:space="preserve">14.5949354171753</t>
@@ -2756,16 +2756,16 @@
     <t xml:space="preserve">14.6889324188232</t>
   </si>
   <si>
-    <t xml:space="preserve">14.355673789978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0651435852051</t>
+    <t xml:space="preserve">14.3556747436523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0651426315308</t>
   </si>
   <si>
     <t xml:space="preserve">14.0736875534058</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9796943664551</t>
+    <t xml:space="preserve">13.9796934127808</t>
   </si>
   <si>
     <t xml:space="preserve">13.9540576934814</t>
@@ -2780,13 +2780,13 @@
     <t xml:space="preserve">14.244589805603</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9965524673462</t>
+    <t xml:space="preserve">14.9965534210205</t>
   </si>
   <si>
     <t xml:space="preserve">15.1332740783691</t>
   </si>
   <si>
-    <t xml:space="preserve">15.440896987915</t>
+    <t xml:space="preserve">15.4408950805664</t>
   </si>
   <si>
     <t xml:space="preserve">15.6374320983887</t>
@@ -2798,10 +2798,10 @@
     <t xml:space="preserve">15.9365081787109</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0988636016846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0732307434082</t>
+    <t xml:space="preserve">16.0988655090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0732288360596</t>
   </si>
   <si>
     <t xml:space="preserve">15.9279623031616</t>
@@ -2810,7 +2810,7 @@
     <t xml:space="preserve">15.7485179901123</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7656087875366</t>
+    <t xml:space="preserve">15.7656097412109</t>
   </si>
   <si>
     <t xml:space="preserve">15.9194173812866</t>
@@ -2828,7 +2828,7 @@
     <t xml:space="preserve">16.3723049163818</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1843166351318</t>
+    <t xml:space="preserve">16.1843147277832</t>
   </si>
   <si>
     <t xml:space="preserve">16.3295822143555</t>
@@ -2843,13 +2843,13 @@
     <t xml:space="preserve">16.0646839141846</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2526741027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1928615570068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1159534454346</t>
+    <t xml:space="preserve">16.2526760101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1928596496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1159553527832</t>
   </si>
   <si>
     <t xml:space="preserve">16.1501350402832</t>
@@ -2864,10 +2864,10 @@
     <t xml:space="preserve">16.4064865112305</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5859336853027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8081035614014</t>
+    <t xml:space="preserve">16.5859317779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8081016540527</t>
   </si>
   <si>
     <t xml:space="preserve">16.6799278259277</t>
@@ -2879,7 +2879,7 @@
     <t xml:space="preserve">16.6970195770264</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7824668884277</t>
+    <t xml:space="preserve">16.7824687957764</t>
   </si>
   <si>
     <t xml:space="preserve">16.8166484832764</t>
@@ -2891,16 +2891,16 @@
     <t xml:space="preserve">16.4235744476318</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4406661987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5602970123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6542911529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5944786071777</t>
+    <t xml:space="preserve">16.4406642913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5602951049805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6542930603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5944766998291</t>
   </si>
   <si>
     <t xml:space="preserve">16.5090255737305</t>
@@ -2912,25 +2912,25 @@
     <t xml:space="preserve">17.0473651885986</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5344314575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4831600189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2780780792236</t>
+    <t xml:space="preserve">17.5344333648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4831619262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2780818939209</t>
   </si>
   <si>
     <t xml:space="preserve">17.4318904876709</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6027946472168</t>
+    <t xml:space="preserve">17.6027927398682</t>
   </si>
   <si>
     <t xml:space="preserve">17.7736911773682</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6711521148682</t>
+    <t xml:space="preserve">17.6711540222168</t>
   </si>
   <si>
     <t xml:space="preserve">17.5686111450195</t>
@@ -2939,7 +2939,7 @@
     <t xml:space="preserve">17.6882419586182</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8933219909668</t>
+    <t xml:space="preserve">17.8933238983154</t>
   </si>
   <si>
     <t xml:space="preserve">17.7566032409668</t>
@@ -2948,16 +2948,16 @@
     <t xml:space="preserve">18.0813140869141</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2009429931641</t>
+    <t xml:space="preserve">18.2009449005127</t>
   </si>
   <si>
     <t xml:space="preserve">17.9878616333008</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7570209503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5261764526367</t>
+    <t xml:space="preserve">17.7570190429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5261783599854</t>
   </si>
   <si>
     <t xml:space="preserve">17.455150604248</t>
@@ -2972,10 +2972,10 @@
     <t xml:space="preserve">17.3042144775391</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2065525054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3130931854248</t>
+    <t xml:space="preserve">17.2065505981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3130950927734</t>
   </si>
   <si>
     <t xml:space="preserve">17.3841228485107</t>
@@ -2990,43 +2990,43 @@
     <t xml:space="preserve">17.2509441375732</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2331886291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.375244140625</t>
+    <t xml:space="preserve">17.2331867218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3752422332764</t>
   </si>
   <si>
     <t xml:space="preserve">17.3929996490479</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2420673370361</t>
+    <t xml:space="preserve">17.2420654296875</t>
   </si>
   <si>
     <t xml:space="preserve">17.1532802581787</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8247776031494</t>
+    <t xml:space="preserve">16.8247756958008</t>
   </si>
   <si>
     <t xml:space="preserve">16.8780460357666</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1088905334473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3219738006592</t>
+    <t xml:space="preserve">17.1088886260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3219718933105</t>
   </si>
   <si>
     <t xml:space="preserve">17.5350570678711</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4018783569336</t>
+    <t xml:space="preserve">17.4018802642822</t>
   </si>
   <si>
     <t xml:space="preserve">17.5972061157227</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7126274108887</t>
+    <t xml:space="preserve">17.7126293182373</t>
   </si>
   <si>
     <t xml:space="preserve">17.4462718963623</t>
@@ -3041,10 +3041,10 @@
     <t xml:space="preserve">18.0766468048096</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2897319793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4317874908447</t>
+    <t xml:space="preserve">18.2897300720215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4317855834961</t>
   </si>
   <si>
     <t xml:space="preserve">18.7869262695312</t>
@@ -3059,16 +3059,16 @@
     <t xml:space="preserve">18.3252429962158</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9523448944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7747783660889</t>
+    <t xml:space="preserve">17.9523468017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7747764587402</t>
   </si>
   <si>
     <t xml:space="preserve">18.1476745605469</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9168338775635</t>
+    <t xml:space="preserve">17.9168319702148</t>
   </si>
   <si>
     <t xml:space="preserve">18.0411319732666</t>
@@ -3077,7 +3077,7 @@
     <t xml:space="preserve">17.8458042144775</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0588874816895</t>
+    <t xml:space="preserve">18.0588893890381</t>
   </si>
   <si>
     <t xml:space="preserve">17.7925338745117</t>
@@ -3086,7 +3086,7 @@
     <t xml:space="preserve">17.7481422424316</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6771125793457</t>
+    <t xml:space="preserve">17.6771144866943</t>
   </si>
   <si>
     <t xml:space="preserve">18.0056190490723</t>
@@ -3095,7 +3095,7 @@
     <t xml:space="preserve">18.0233745574951</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8635635375977</t>
+    <t xml:space="preserve">17.863561630249</t>
   </si>
   <si>
     <t xml:space="preserve">17.5439357757568</t>
@@ -3113,10 +3113,10 @@
     <t xml:space="preserve">16.3719730377197</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5673007965088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5761795043945</t>
+    <t xml:space="preserve">16.5672988891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5761775970459</t>
   </si>
   <si>
     <t xml:space="preserve">16.5495414733887</t>
@@ -3137,10 +3137,10 @@
     <t xml:space="preserve">16.4252433776855</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7004776000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2299156188965</t>
+    <t xml:space="preserve">16.700475692749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2299175262451</t>
   </si>
   <si>
     <t xml:space="preserve">16.3542156219482</t>
@@ -3161,7 +3161,7 @@
     <t xml:space="preserve">17.0201034545898</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6560840606689</t>
+    <t xml:space="preserve">16.6560859680176</t>
   </si>
   <si>
     <t xml:space="preserve">16.6294479370117</t>
@@ -3170,19 +3170,19 @@
     <t xml:space="preserve">16.966833114624</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8691673278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8070201873779</t>
+    <t xml:space="preserve">16.8691692352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8070182800293</t>
   </si>
   <si>
     <t xml:space="preserve">17.1799163818359</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7271118164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6738414764404</t>
+    <t xml:space="preserve">16.7271137237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6738433837891</t>
   </si>
   <si>
     <t xml:space="preserve">16.7537479400635</t>
@@ -3197,19 +3197,19 @@
     <t xml:space="preserve">16.1588897705078</t>
   </si>
   <si>
-    <t xml:space="preserve">16.212158203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.688325881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8215045928955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8747749328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1233730316162</t>
+    <t xml:space="preserve">16.2121601104736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6883277893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8215036392212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.874773979187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1233749389648</t>
   </si>
   <si>
     <t xml:space="preserve">15.8658981323242</t>
@@ -3221,7 +3221,7 @@
     <t xml:space="preserve">16.2565517425537</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1677665710449</t>
+    <t xml:space="preserve">16.1677646636963</t>
   </si>
   <si>
     <t xml:space="preserve">16.096736907959</t>
@@ -3245,10 +3245,10 @@
     <t xml:space="preserve">16.1144943237305</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9014101028442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7327194213867</t>
+    <t xml:space="preserve">15.9014110565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7327184677124</t>
   </si>
   <si>
     <t xml:space="preserve">15.6616907119751</t>
@@ -3257,34 +3257,34 @@
     <t xml:space="preserve">15.537392616272</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6972045898438</t>
+    <t xml:space="preserve">15.6972055435181</t>
   </si>
   <si>
     <t xml:space="preserve">15.2976722717285</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2000102996826</t>
+    <t xml:space="preserve">15.200008392334</t>
   </si>
   <si>
     <t xml:space="preserve">15.3154296875</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2710371017456</t>
+    <t xml:space="preserve">15.2710380554199</t>
   </si>
   <si>
     <t xml:space="preserve">14.9691677093506</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0313167572021</t>
+    <t xml:space="preserve">15.0313177108765</t>
   </si>
   <si>
     <t xml:space="preserve">15.3065509796143</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4486064910889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8925313949585</t>
+    <t xml:space="preserve">15.4486074447632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8925333023071</t>
   </si>
   <si>
     <t xml:space="preserve">15.8481407165527</t>
@@ -3296,16 +3296,16 @@
     <t xml:space="preserve">15.3420658111572</t>
   </si>
   <si>
-    <t xml:space="preserve">15.093466758728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7028112411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9425325393677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9336538314819</t>
+    <t xml:space="preserve">15.0934658050537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7028121948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9425315856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9336528778076</t>
   </si>
   <si>
     <t xml:space="preserve">14.6495409011841</t>
@@ -3320,7 +3320,7 @@
     <t xml:space="preserve">14.827112197876</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4986057281494</t>
+    <t xml:space="preserve">14.4986066818237</t>
   </si>
   <si>
     <t xml:space="preserve">14.4719705581665</t>
@@ -3329,10 +3329,10 @@
     <t xml:space="preserve">14.6229047775269</t>
   </si>
   <si>
-    <t xml:space="preserve">15.013560295105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1112241744995</t>
+    <t xml:space="preserve">15.0135593414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1112232208252</t>
   </si>
   <si>
     <t xml:space="preserve">14.5962705612183</t>
@@ -3341,10 +3341,10 @@
     <t xml:space="preserve">14.4009428024292</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2233724594116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0546808242798</t>
+    <t xml:space="preserve">14.2233734130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0546817779541</t>
   </si>
   <si>
     <t xml:space="preserve">13.9392604827881</t>
@@ -3359,13 +3359,13 @@
     <t xml:space="preserve">14.5163640975952</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1789798736572</t>
+    <t xml:space="preserve">14.1789808273315</t>
   </si>
   <si>
     <t xml:space="preserve">13.9747743606567</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3476724624634</t>
+    <t xml:space="preserve">14.3476715087891</t>
   </si>
   <si>
     <t xml:space="preserve">14.2766437530518</t>
@@ -3377,10 +3377,10 @@
     <t xml:space="preserve">14.5341215133667</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6761779785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9869241714478</t>
+    <t xml:space="preserve">14.6761770248413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9869232177734</t>
   </si>
   <si>
     <t xml:space="preserve">14.8004760742188</t>
@@ -3392,28 +3392,28 @@
     <t xml:space="preserve">14.8626251220703</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7649602890015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1733741760254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4929990768433</t>
+    <t xml:space="preserve">14.7649612426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1733732223511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4930000305176</t>
   </si>
   <si>
     <t xml:space="preserve">15.3509435653687</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9958028793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0401964187622</t>
+    <t xml:space="preserve">14.9958019256592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0401954650879</t>
   </si>
   <si>
     <t xml:space="preserve">14.8448677062988</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7116899490356</t>
+    <t xml:space="preserve">14.71169090271</t>
   </si>
   <si>
     <t xml:space="preserve">14.791597366333</t>
@@ -3425,7 +3425,7 @@
     <t xml:space="preserve">14.4098215103149</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4897270202637</t>
+    <t xml:space="preserve">14.489727973938</t>
   </si>
   <si>
     <t xml:space="preserve">14.4808492660522</t>
@@ -3434,7 +3434,7 @@
     <t xml:space="preserve">14.3210353851318</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0990734100342</t>
+    <t xml:space="preserve">14.0990743637085</t>
   </si>
   <si>
     <t xml:space="preserve">14.2500076293945</t>
@@ -3452,7 +3452,7 @@
     <t xml:space="preserve">14.303279876709</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1612224578857</t>
+    <t xml:space="preserve">14.1612234115601</t>
   </si>
   <si>
     <t xml:space="preserve">14.2944011688232</t>
@@ -3482,10 +3482,10 @@
     <t xml:space="preserve">14.0280456542969</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8060836791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6462697982788</t>
+    <t xml:space="preserve">13.8060827255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6462688446045</t>
   </si>
   <si>
     <t xml:space="preserve">13.859354019165</t>
@@ -4560,6 +4560,9 @@
   </si>
   <si>
     <t xml:space="preserve">16.7299995422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0499992370605</t>
   </si>
 </sst>
 </file>
@@ -22885,7 +22888,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G692" t="s">
-        <v>507</v>
+        <v>442</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -22911,7 +22914,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G693" t="s">
-        <v>507</v>
+        <v>442</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -23015,7 +23018,7 @@
         <v>13.2299995422363</v>
       </c>
       <c r="G697" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -23041,7 +23044,7 @@
         <v>13.2799997329712</v>
       </c>
       <c r="G698" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -23093,7 +23096,7 @@
         <v>13.210000038147</v>
       </c>
       <c r="G700" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -23119,7 +23122,7 @@
         <v>12.9099998474121</v>
       </c>
       <c r="G701" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -23145,7 +23148,7 @@
         <v>12.75</v>
       </c>
       <c r="G702" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -23171,7 +23174,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G703" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -23301,7 +23304,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G708" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -23327,7 +23330,7 @@
         <v>12.25</v>
       </c>
       <c r="G709" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -23353,7 +23356,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G710" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -23379,7 +23382,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G711" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -23405,7 +23408,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G712" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -23431,7 +23434,7 @@
         <v>12.1099996566772</v>
       </c>
       <c r="G713" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -23457,7 +23460,7 @@
         <v>11.9700002670288</v>
       </c>
       <c r="G714" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -23483,7 +23486,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G715" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -23509,7 +23512,7 @@
         <v>11.6400003433228</v>
       </c>
       <c r="G716" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -23535,7 +23538,7 @@
         <v>11.5900001525879</v>
       </c>
       <c r="G717" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -23561,7 +23564,7 @@
         <v>11.3299999237061</v>
       </c>
       <c r="G718" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -23587,7 +23590,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G719" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -23613,7 +23616,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G720" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -23639,7 +23642,7 @@
         <v>11.1800003051758</v>
       </c>
       <c r="G721" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -23665,7 +23668,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G722" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -23691,7 +23694,7 @@
         <v>11.5</v>
       </c>
       <c r="G723" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -23717,7 +23720,7 @@
         <v>11.6099996566772</v>
       </c>
       <c r="G724" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -23743,7 +23746,7 @@
         <v>11.6700000762939</v>
       </c>
       <c r="G725" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -23769,7 +23772,7 @@
         <v>11.8100004196167</v>
       </c>
       <c r="G726" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -23795,7 +23798,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G727" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -23821,7 +23824,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G728" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -23847,7 +23850,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G729" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -23873,7 +23876,7 @@
         <v>11.8699998855591</v>
       </c>
       <c r="G730" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -23899,7 +23902,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G731" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -23925,7 +23928,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G732" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -23951,7 +23954,7 @@
         <v>12.7700004577637</v>
       </c>
       <c r="G733" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -24003,7 +24006,7 @@
         <v>12.4099998474121</v>
       </c>
       <c r="G735" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -24029,7 +24032,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G736" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -24055,7 +24058,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G737" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -24081,7 +24084,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G738" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -24107,7 +24110,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G739" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -24133,7 +24136,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G740" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -24159,7 +24162,7 @@
         <v>12.0100002288818</v>
       </c>
       <c r="G741" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -24185,7 +24188,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G742" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -24211,7 +24214,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G743" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -24237,7 +24240,7 @@
         <v>12</v>
       </c>
       <c r="G744" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -24263,7 +24266,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G745" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -24289,7 +24292,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G746" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -24315,7 +24318,7 @@
         <v>12</v>
       </c>
       <c r="G747" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -24341,7 +24344,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G748" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -24367,7 +24370,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G749" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -24393,7 +24396,7 @@
         <v>11.789999961853</v>
       </c>
       <c r="G750" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -24419,7 +24422,7 @@
         <v>11.8900003433228</v>
       </c>
       <c r="G751" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -24445,7 +24448,7 @@
         <v>11.5699996948242</v>
       </c>
       <c r="G752" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -24471,7 +24474,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G753" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -24497,7 +24500,7 @@
         <v>11.8100004196167</v>
       </c>
       <c r="G754" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -24523,7 +24526,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G755" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -24549,7 +24552,7 @@
         <v>12.1300001144409</v>
       </c>
       <c r="G756" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -24575,7 +24578,7 @@
         <v>11.75</v>
       </c>
       <c r="G757" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -24601,7 +24604,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G758" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -24627,7 +24630,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G759" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -24653,7 +24656,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G760" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -24679,7 +24682,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G761" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -24705,7 +24708,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G762" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -24731,7 +24734,7 @@
         <v>12.0100002288818</v>
       </c>
       <c r="G763" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -24757,7 +24760,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G764" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -24783,7 +24786,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G765" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -24809,7 +24812,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G766" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -24835,7 +24838,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G767" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -24861,7 +24864,7 @@
         <v>12.2399997711182</v>
       </c>
       <c r="G768" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -24887,7 +24890,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G769" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -24913,7 +24916,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G770" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -24939,7 +24942,7 @@
         <v>12.4799995422363</v>
       </c>
       <c r="G771" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -24965,7 +24968,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G772" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -25069,7 +25072,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G776" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -25173,7 +25176,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G780" t="s">
-        <v>507</v>
+        <v>442</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -25199,7 +25202,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G781" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -25225,7 +25228,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G782" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -25381,7 +25384,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G788" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -25407,7 +25410,7 @@
         <v>13.5</v>
       </c>
       <c r="G789" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -25433,7 +25436,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G790" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -25459,7 +25462,7 @@
         <v>13.1800003051758</v>
       </c>
       <c r="G791" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -25511,7 +25514,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G793" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -25537,7 +25540,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G794" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -25563,7 +25566,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G795" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -25589,7 +25592,7 @@
         <v>13.539999961853</v>
       </c>
       <c r="G796" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -25615,7 +25618,7 @@
         <v>13.5699996948242</v>
       </c>
       <c r="G797" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -25641,7 +25644,7 @@
         <v>13.4099998474121</v>
       </c>
       <c r="G798" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -25693,7 +25696,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G800" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -25719,7 +25722,7 @@
         <v>13.960000038147</v>
       </c>
       <c r="G801" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -25745,7 +25748,7 @@
         <v>13.8900003433228</v>
       </c>
       <c r="G802" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -25771,7 +25774,7 @@
         <v>13.9200000762939</v>
       </c>
       <c r="G803" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -25797,7 +25800,7 @@
         <v>13.75</v>
       </c>
       <c r="G804" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -25823,7 +25826,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G805" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -25849,7 +25852,7 @@
         <v>13.8800001144409</v>
       </c>
       <c r="G806" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -25875,7 +25878,7 @@
         <v>14.1199998855591</v>
       </c>
       <c r="G807" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -25901,7 +25904,7 @@
         <v>14.4300003051758</v>
       </c>
       <c r="G808" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -25927,7 +25930,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G809" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -25953,7 +25956,7 @@
         <v>14.9499998092651</v>
       </c>
       <c r="G810" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -25979,7 +25982,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G811" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -26005,7 +26008,7 @@
         <v>14.9899997711182</v>
       </c>
       <c r="G812" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -26031,7 +26034,7 @@
         <v>15.0500001907349</v>
       </c>
       <c r="G813" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -26057,7 +26060,7 @@
         <v>14.9399995803833</v>
       </c>
       <c r="G814" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -26083,7 +26086,7 @@
         <v>15.0900001525879</v>
       </c>
       <c r="G815" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -26109,7 +26112,7 @@
         <v>15.0600004196167</v>
       </c>
       <c r="G816" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -26135,7 +26138,7 @@
         <v>15.0900001525879</v>
       </c>
       <c r="G817" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -26161,7 +26164,7 @@
         <v>15.1800003051758</v>
       </c>
       <c r="G818" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -26187,7 +26190,7 @@
         <v>14.9399995803833</v>
       </c>
       <c r="G819" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -26213,7 +26216,7 @@
         <v>15.1099996566772</v>
       </c>
       <c r="G820" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -26239,7 +26242,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G821" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -26265,7 +26268,7 @@
         <v>14.9899997711182</v>
       </c>
       <c r="G822" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -26291,7 +26294,7 @@
         <v>15.1499996185303</v>
       </c>
       <c r="G823" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -26317,7 +26320,7 @@
         <v>15.1300001144409</v>
       </c>
       <c r="G824" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -26343,7 +26346,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G825" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -26369,7 +26372,7 @@
         <v>15.0699996948242</v>
       </c>
       <c r="G826" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -26395,7 +26398,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G827" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -26421,7 +26424,7 @@
         <v>15.3800001144409</v>
       </c>
       <c r="G828" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -26447,7 +26450,7 @@
         <v>16</v>
       </c>
       <c r="G829" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -26473,7 +26476,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G830" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -26499,7 +26502,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G831" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -26525,7 +26528,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G832" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -26551,7 +26554,7 @@
         <v>15.9399995803833</v>
       </c>
       <c r="G833" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -26577,7 +26580,7 @@
         <v>16.1200008392334</v>
       </c>
       <c r="G834" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -26603,7 +26606,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G835" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -26629,7 +26632,7 @@
         <v>15.9200000762939</v>
       </c>
       <c r="G836" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -26655,7 +26658,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G837" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -26681,7 +26684,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G838" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -26707,7 +26710,7 @@
         <v>15.4799995422363</v>
       </c>
       <c r="G839" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -26733,7 +26736,7 @@
         <v>15.5</v>
       </c>
       <c r="G840" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -26759,7 +26762,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G841" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -26785,7 +26788,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G842" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -26811,7 +26814,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G843" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -26837,7 +26840,7 @@
         <v>16.0400009155273</v>
       </c>
       <c r="G844" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -26863,7 +26866,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G845" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -26889,7 +26892,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G846" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -26915,7 +26918,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G847" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -26941,7 +26944,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G848" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -26967,7 +26970,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G849" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -26993,7 +26996,7 @@
         <v>16.3600006103516</v>
       </c>
       <c r="G850" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -27019,7 +27022,7 @@
         <v>16.3600006103516</v>
       </c>
       <c r="G851" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -27045,7 +27048,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G852" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -27071,7 +27074,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G853" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -27097,7 +27100,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G854" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -27123,7 +27126,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G855" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -27149,7 +27152,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G856" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -27175,7 +27178,7 @@
         <v>16.7199993133545</v>
       </c>
       <c r="G857" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -27201,7 +27204,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G858" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -27227,7 +27230,7 @@
         <v>16.5400009155273</v>
       </c>
       <c r="G859" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -27253,7 +27256,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G860" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -27279,7 +27282,7 @@
         <v>16.6200008392334</v>
       </c>
       <c r="G861" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -27305,7 +27308,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G862" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -27331,7 +27334,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G863" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -27357,7 +27360,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G864" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -27383,7 +27386,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G865" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -27409,7 +27412,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G866" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -27435,7 +27438,7 @@
         <v>16.6200008392334</v>
       </c>
       <c r="G867" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -27461,7 +27464,7 @@
         <v>16.6399993896484</v>
       </c>
       <c r="G868" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -27487,7 +27490,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G869" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -27513,7 +27516,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G870" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -27539,7 +27542,7 @@
         <v>17</v>
       </c>
       <c r="G871" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -27565,7 +27568,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G872" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -27591,7 +27594,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G873" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -27617,7 +27620,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G874" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -27643,7 +27646,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G875" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -27669,7 +27672,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G876" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -27695,7 +27698,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G877" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -27721,7 +27724,7 @@
         <v>17.6399993896484</v>
       </c>
       <c r="G878" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -27747,7 +27750,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G879" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -27773,7 +27776,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G880" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -27799,7 +27802,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G881" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -27825,7 +27828,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G882" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -27851,7 +27854,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G883" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -27877,7 +27880,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G884" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -27903,7 +27906,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G885" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -27929,7 +27932,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G886" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -27955,7 +27958,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G887" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -27981,7 +27984,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G888" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -28007,7 +28010,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G889" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -28033,7 +28036,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G890" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -28059,7 +28062,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G891" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -28085,7 +28088,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G892" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -28111,7 +28114,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G893" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -28137,7 +28140,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G894" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -28163,7 +28166,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G895" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -28189,7 +28192,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G896" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -28215,7 +28218,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G897" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -28241,7 +28244,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G898" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -28267,7 +28270,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G899" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -28293,7 +28296,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G900" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -28319,7 +28322,7 @@
         <v>17.5</v>
       </c>
       <c r="G901" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -28345,7 +28348,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G902" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -28371,7 +28374,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G903" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -28397,7 +28400,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G904" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -28423,7 +28426,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G905" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -28449,7 +28452,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G906" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -28475,7 +28478,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G907" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -28501,7 +28504,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G908" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -28527,7 +28530,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G909" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -28553,7 +28556,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G910" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -28579,7 +28582,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G911" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -28605,7 +28608,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G912" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -28631,7 +28634,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G913" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -28657,7 +28660,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G914" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -28683,7 +28686,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G915" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -28709,7 +28712,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G916" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -28735,7 +28738,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G917" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -28761,7 +28764,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G918" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -28787,7 +28790,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G919" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -28813,7 +28816,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G920" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -28839,7 +28842,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G921" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -28865,7 +28868,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G922" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -28891,7 +28894,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G923" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -28917,7 +28920,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G924" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -28943,7 +28946,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G925" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -28969,7 +28972,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G926" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -28995,7 +28998,7 @@
         <v>17.5</v>
       </c>
       <c r="G927" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -29021,7 +29024,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G928" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -29047,7 +29050,7 @@
         <v>17.5</v>
       </c>
       <c r="G929" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -29073,7 +29076,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G930" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -29099,7 +29102,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G931" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -29125,7 +29128,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G932" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -29151,7 +29154,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G933" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -29177,7 +29180,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G934" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -29203,7 +29206,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G935" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -29229,7 +29232,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G936" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -29255,7 +29258,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G937" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -29281,7 +29284,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G938" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -29307,7 +29310,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G939" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -29333,7 +29336,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G940" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -29359,7 +29362,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G941" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -29385,7 +29388,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G942" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -29411,7 +29414,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G943" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -29437,7 +29440,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G944" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -29463,7 +29466,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G945" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -29489,7 +29492,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G946" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -29515,7 +29518,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G947" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -29541,7 +29544,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G948" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -29567,7 +29570,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G949" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -29593,7 +29596,7 @@
         <v>18.0400009155273</v>
       </c>
       <c r="G950" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -29619,7 +29622,7 @@
         <v>18.2600002288818</v>
       </c>
       <c r="G951" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -29645,7 +29648,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G952" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -29671,7 +29674,7 @@
         <v>18.3199996948242</v>
       </c>
       <c r="G953" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -29697,7 +29700,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G954" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -29723,7 +29726,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G955" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -29749,7 +29752,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G956" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -29775,7 +29778,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G957" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -29801,7 +29804,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G958" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -29827,7 +29830,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G959" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -29853,7 +29856,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G960" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -29879,7 +29882,7 @@
         <v>17.5</v>
       </c>
       <c r="G961" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -29905,7 +29908,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G962" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -29931,7 +29934,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G963" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -29957,7 +29960,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G964" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -29983,7 +29986,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G965" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -30009,7 +30012,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G966" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -30035,7 +30038,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G967" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -30061,7 +30064,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G968" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -30087,7 +30090,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G969" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -30113,7 +30116,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G970" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -30139,7 +30142,7 @@
         <v>17.5</v>
       </c>
       <c r="G971" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -30165,7 +30168,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G972" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -30191,7 +30194,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G973" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -30217,7 +30220,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G974" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -30243,7 +30246,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G975" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -30269,7 +30272,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G976" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -30295,7 +30298,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G977" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -30321,7 +30324,7 @@
         <v>17.9400005340576</v>
       </c>
       <c r="G978" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -30347,7 +30350,7 @@
         <v>17.9799995422363</v>
       </c>
       <c r="G979" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -30373,7 +30376,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G980" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -30399,7 +30402,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G981" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -30425,7 +30428,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G982" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -30451,7 +30454,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G983" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -30477,7 +30480,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G984" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -30503,7 +30506,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G985" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -30529,7 +30532,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G986" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -30555,7 +30558,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G987" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -30581,7 +30584,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G988" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -30607,7 +30610,7 @@
         <v>18.3400001525879</v>
       </c>
       <c r="G989" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -30633,7 +30636,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G990" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -30659,7 +30662,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G991" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -30685,7 +30688,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G992" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -30711,7 +30714,7 @@
         <v>18.4400005340576</v>
       </c>
       <c r="G993" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -30737,7 +30740,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G994" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -30763,7 +30766,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G995" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -30789,7 +30792,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G996" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -30815,7 +30818,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="G997" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -30841,7 +30844,7 @@
         <v>18.3400001525879</v>
       </c>
       <c r="G998" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -30867,7 +30870,7 @@
         <v>18.2199993133545</v>
       </c>
       <c r="G999" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -30893,7 +30896,7 @@
         <v>18.3400001525879</v>
       </c>
       <c r="G1000" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -30919,7 +30922,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1001" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -30945,7 +30948,7 @@
         <v>18.2399997711182</v>
       </c>
       <c r="G1002" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -30971,7 +30974,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G1003" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -30997,7 +31000,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G1004" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -31023,7 +31026,7 @@
         <v>18.9400005340576</v>
       </c>
       <c r="G1005" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -31049,7 +31052,7 @@
         <v>19.0200004577637</v>
       </c>
       <c r="G1006" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -31075,7 +31078,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1007" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -31101,7 +31104,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G1008" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -31127,7 +31130,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G1009" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -31153,7 +31156,7 @@
         <v>18.4799995422363</v>
       </c>
       <c r="G1010" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -31179,7 +31182,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G1011" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -31205,7 +31208,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G1012" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -31231,7 +31234,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G1013" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -31257,7 +31260,7 @@
         <v>18.4200000762939</v>
       </c>
       <c r="G1014" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -31283,7 +31286,7 @@
         <v>18.4400005340576</v>
       </c>
       <c r="G1015" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -31309,7 +31312,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1016" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -31335,7 +31338,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1017" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -31361,7 +31364,7 @@
         <v>18.0799999237061</v>
       </c>
       <c r="G1018" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -31387,7 +31390,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1019" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -31413,7 +31416,7 @@
         <v>17.9799995422363</v>
       </c>
       <c r="G1020" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -31439,7 +31442,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G1021" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -31465,7 +31468,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G1022" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -31491,7 +31494,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G1023" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -31517,7 +31520,7 @@
         <v>19.5599994659424</v>
       </c>
       <c r="G1024" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -31543,7 +31546,7 @@
         <v>19.5799999237061</v>
       </c>
       <c r="G1025" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -31569,7 +31572,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1026" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -31595,7 +31598,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1027" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -31621,7 +31624,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G1028" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -31647,7 +31650,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1029" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -31673,7 +31676,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1030" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -31699,7 +31702,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1031" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -31725,7 +31728,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1032" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -31751,7 +31754,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1033" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -31777,7 +31780,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G1034" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -31803,7 +31806,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1035" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -31829,7 +31832,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1036" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -31855,7 +31858,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1037" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -31881,7 +31884,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G1038" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -31907,7 +31910,7 @@
         <v>21.25</v>
       </c>
       <c r="G1039" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -31933,7 +31936,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1040" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -31959,7 +31962,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1041" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -31985,7 +31988,7 @@
         <v>21</v>
       </c>
       <c r="G1042" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -32011,7 +32014,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G1043" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -32037,7 +32040,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1044" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -32063,7 +32066,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1045" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -32089,7 +32092,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1046" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -32115,7 +32118,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G1047" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -32141,7 +32144,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1048" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -32167,7 +32170,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1049" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -32193,7 +32196,7 @@
         <v>21.5</v>
       </c>
       <c r="G1050" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -32219,7 +32222,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1051" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -32245,7 +32248,7 @@
         <v>21.25</v>
       </c>
       <c r="G1052" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -32271,7 +32274,7 @@
         <v>20.25</v>
       </c>
       <c r="G1053" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -32297,7 +32300,7 @@
         <v>19.9400005340576</v>
       </c>
       <c r="G1054" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -32323,7 +32326,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1055" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -32349,7 +32352,7 @@
         <v>19.5</v>
       </c>
       <c r="G1056" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -32375,7 +32378,7 @@
         <v>18.9400005340576</v>
       </c>
       <c r="G1057" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -32401,7 +32404,7 @@
         <v>19.0599994659424</v>
       </c>
       <c r="G1058" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -32427,7 +32430,7 @@
         <v>19.3600006103516</v>
       </c>
       <c r="G1059" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -32453,7 +32456,7 @@
         <v>19.6399993896484</v>
       </c>
       <c r="G1060" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -32479,7 +32482,7 @@
         <v>19.6599998474121</v>
       </c>
       <c r="G1061" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -32505,7 +32508,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G1062" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -32531,7 +32534,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G1063" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -32557,7 +32560,7 @@
         <v>16</v>
       </c>
       <c r="G1064" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -32583,7 +32586,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G1065" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -32609,7 +32612,7 @@
         <v>13.3599996566772</v>
       </c>
       <c r="G1066" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -32635,7 +32638,7 @@
         <v>13.8199996948242</v>
       </c>
       <c r="G1067" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -32661,7 +32664,7 @@
         <v>12.960000038147</v>
       </c>
       <c r="G1068" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -32687,7 +32690,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G1069" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -32713,7 +32716,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G1070" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -32739,7 +32742,7 @@
         <v>12.5799999237061</v>
       </c>
       <c r="G1071" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -32765,7 +32768,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G1072" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -32791,7 +32794,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G1073" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -32817,7 +32820,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1074" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -32843,7 +32846,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1075" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -32869,7 +32872,7 @@
         <v>14.3400001525879</v>
       </c>
       <c r="G1076" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -32895,7 +32898,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1077" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -32921,7 +32924,7 @@
         <v>14.5200004577637</v>
       </c>
       <c r="G1078" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -32947,7 +32950,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1079" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -32973,7 +32976,7 @@
         <v>14.75</v>
       </c>
       <c r="G1080" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -32999,7 +33002,7 @@
         <v>15.1700000762939</v>
       </c>
       <c r="G1081" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -33025,7 +33028,7 @@
         <v>14.9200000762939</v>
       </c>
       <c r="G1082" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -33051,7 +33054,7 @@
         <v>14.8699998855591</v>
       </c>
       <c r="G1083" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -33077,7 +33080,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1084" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -33103,7 +33106,7 @@
         <v>14.9799995422363</v>
       </c>
       <c r="G1085" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -33129,7 +33132,7 @@
         <v>15.3100004196167</v>
       </c>
       <c r="G1086" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -33155,7 +33158,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1087" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -33181,7 +33184,7 @@
         <v>13.8199996948242</v>
       </c>
       <c r="G1088" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -33207,7 +33210,7 @@
         <v>14.4499998092651</v>
       </c>
       <c r="G1089" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -33233,7 +33236,7 @@
         <v>14.5100002288818</v>
       </c>
       <c r="G1090" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -33259,7 +33262,7 @@
         <v>14.4099998474121</v>
       </c>
       <c r="G1091" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -33285,7 +33288,7 @@
         <v>14.2299995422363</v>
       </c>
       <c r="G1092" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -33311,7 +33314,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1093" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -33337,7 +33340,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1094" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -33363,7 +33366,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1095" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -33389,7 +33392,7 @@
         <v>14.75</v>
       </c>
       <c r="G1096" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -33415,7 +33418,7 @@
         <v>14.8100004196167</v>
       </c>
       <c r="G1097" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -33441,7 +33444,7 @@
         <v>15.3900003433228</v>
       </c>
       <c r="G1098" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -33467,7 +33470,7 @@
         <v>15.25</v>
       </c>
       <c r="G1099" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -33493,7 +33496,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1100" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -33519,7 +33522,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1101" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -33545,7 +33548,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1102" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -33571,7 +33574,7 @@
         <v>15.1800003051758</v>
       </c>
       <c r="G1103" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -33597,7 +33600,7 @@
         <v>15.5799999237061</v>
       </c>
       <c r="G1104" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -33623,7 +33626,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G1105" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -33649,7 +33652,7 @@
         <v>16.4099998474121</v>
       </c>
       <c r="G1106" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -33675,7 +33678,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G1107" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -33701,7 +33704,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G1108" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -33727,7 +33730,7 @@
         <v>17</v>
       </c>
       <c r="G1109" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -33753,7 +33756,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G1110" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -33779,7 +33782,7 @@
         <v>16.75</v>
       </c>
       <c r="G1111" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -33805,7 +33808,7 @@
         <v>16.8299999237061</v>
       </c>
       <c r="G1112" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -33831,7 +33834,7 @@
         <v>16.7900009155273</v>
       </c>
       <c r="G1113" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -33857,7 +33860,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G1114" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -33883,7 +33886,7 @@
         <v>17.2700004577637</v>
       </c>
       <c r="G1115" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -33909,7 +33912,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G1116" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -33935,7 +33938,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G1117" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -33961,7 +33964,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G1118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -33987,7 +33990,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1119" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -34013,7 +34016,7 @@
         <v>17.5499992370605</v>
       </c>
       <c r="G1120" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -34039,7 +34042,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G1121" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -34065,7 +34068,7 @@
         <v>18.4099998474121</v>
       </c>
       <c r="G1122" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -34091,7 +34094,7 @@
         <v>18.6800003051758</v>
       </c>
       <c r="G1123" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -34117,7 +34120,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1124" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -34143,7 +34146,7 @@
         <v>19</v>
       </c>
       <c r="G1125" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -34169,7 +34172,7 @@
         <v>18.3099994659424</v>
       </c>
       <c r="G1126" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -34195,7 +34198,7 @@
         <v>18.2299995422363</v>
       </c>
       <c r="G1127" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -34221,7 +34224,7 @@
         <v>17.7099990844727</v>
       </c>
       <c r="G1128" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -34247,7 +34250,7 @@
         <v>17.6700000762939</v>
       </c>
       <c r="G1129" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -34273,7 +34276,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1130" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -34299,7 +34302,7 @@
         <v>18.25</v>
       </c>
       <c r="G1131" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -34325,7 +34328,7 @@
         <v>18.25</v>
       </c>
       <c r="G1132" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -34351,7 +34354,7 @@
         <v>17.9899997711182</v>
       </c>
       <c r="G1133" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -34377,7 +34380,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G1134" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -34403,7 +34406,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1135" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -34429,7 +34432,7 @@
         <v>17.4099998474121</v>
       </c>
       <c r="G1136" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -34455,7 +34458,7 @@
         <v>17</v>
       </c>
       <c r="G1137" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -34481,7 +34484,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G1138" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -34507,7 +34510,7 @@
         <v>17.0300006866455</v>
       </c>
       <c r="G1139" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -34533,7 +34536,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G1140" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -34559,7 +34562,7 @@
         <v>17.0900001525879</v>
       </c>
       <c r="G1141" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -34585,7 +34588,7 @@
         <v>17.3700008392334</v>
       </c>
       <c r="G1142" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -34611,7 +34614,7 @@
         <v>17.5300006866455</v>
       </c>
       <c r="G1143" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -34637,7 +34640,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1144" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -34663,7 +34666,7 @@
         <v>17.5100002288818</v>
       </c>
       <c r="G1145" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -34689,7 +34692,7 @@
         <v>17.2900009155273</v>
       </c>
       <c r="G1146" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -34715,7 +34718,7 @@
         <v>17.3700008392334</v>
       </c>
       <c r="G1147" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -34741,7 +34744,7 @@
         <v>16.9899997711182</v>
       </c>
       <c r="G1148" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -34767,7 +34770,7 @@
         <v>16.9300003051758</v>
       </c>
       <c r="G1149" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -34793,7 +34796,7 @@
         <v>16.9899997711182</v>
       </c>
       <c r="G1150" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -34819,7 +34822,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G1151" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -34845,7 +34848,7 @@
         <v>16.5799999237061</v>
       </c>
       <c r="G1152" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -34871,7 +34874,7 @@
         <v>16.7700004577637</v>
       </c>
       <c r="G1153" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -34897,7 +34900,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1154" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -34923,7 +34926,7 @@
         <v>17.2099990844727</v>
       </c>
       <c r="G1155" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -34949,7 +34952,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G1156" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -34975,7 +34978,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1157" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -35001,7 +35004,7 @@
         <v>17.0699996948242</v>
       </c>
       <c r="G1158" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -35027,7 +35030,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G1159" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -35053,7 +35056,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1160" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -35079,7 +35082,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G1161" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -35105,7 +35108,7 @@
         <v>17.25</v>
       </c>
       <c r="G1162" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -35131,7 +35134,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1163" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -35157,7 +35160,7 @@
         <v>17.3899993896484</v>
       </c>
       <c r="G1164" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -35183,7 +35186,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G1165" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -35209,7 +35212,7 @@
         <v>18.0300006866455</v>
       </c>
       <c r="G1166" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -35235,7 +35238,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1167" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -35261,7 +35264,7 @@
         <v>17.5</v>
       </c>
       <c r="G1168" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -35287,7 +35290,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G1169" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -35313,7 +35316,7 @@
         <v>17.9300003051758</v>
       </c>
       <c r="G1170" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -35339,7 +35342,7 @@
         <v>17.8899993896484</v>
       </c>
       <c r="G1171" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -35365,7 +35368,7 @@
         <v>17.9699993133545</v>
       </c>
       <c r="G1172" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -35391,7 +35394,7 @@
         <v>18.2099990844727</v>
       </c>
       <c r="G1173" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -35417,7 +35420,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G1174" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -35443,7 +35446,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G1175" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -35469,7 +35472,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G1176" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -35495,7 +35498,7 @@
         <v>17.6299991607666</v>
       </c>
       <c r="G1177" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -35521,7 +35524,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1178" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -35547,7 +35550,7 @@
         <v>17.2900009155273</v>
       </c>
       <c r="G1179" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -35573,7 +35576,7 @@
         <v>17.6299991607666</v>
       </c>
       <c r="G1180" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -35599,7 +35602,7 @@
         <v>17.6299991607666</v>
       </c>
       <c r="G1181" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -35625,7 +35628,7 @@
         <v>17.3899993896484</v>
       </c>
       <c r="G1182" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -35651,7 +35654,7 @@
         <v>17.2900009155273</v>
       </c>
       <c r="G1183" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -35677,7 +35680,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1184" t="s">
-        <v>690</v>
+        <v>843</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -35703,7 +35706,7 @@
         <v>17.25</v>
       </c>
       <c r="G1185" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -35911,7 +35914,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G1193" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -36145,7 +36148,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G1202" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -36171,7 +36174,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G1203" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -36613,7 +36616,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1220" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -36873,7 +36876,7 @@
         <v>17.3700008392334</v>
       </c>
       <c r="G1230" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -36899,7 +36902,7 @@
         <v>17.2099990844727</v>
       </c>
       <c r="G1231" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -36977,7 +36980,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1234" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -37003,7 +37006,7 @@
         <v>17.8899993896484</v>
       </c>
       <c r="G1235" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -37029,7 +37032,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1236" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -37107,7 +37110,7 @@
         <v>17.5100002288818</v>
       </c>
       <c r="G1239" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -37341,7 +37344,7 @@
         <v>17.8899993896484</v>
       </c>
       <c r="G1248" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -37419,7 +37422,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G1251" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -37497,7 +37500,7 @@
         <v>16.9300003051758</v>
       </c>
       <c r="G1254" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -37809,7 +37812,7 @@
         <v>16.7700004577637</v>
       </c>
       <c r="G1266" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -37835,7 +37838,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G1267" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -37861,7 +37864,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1268" t="s">
-        <v>690</v>
+        <v>843</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -37913,7 +37916,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1270" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -37939,7 +37942,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1271" t="s">
-        <v>690</v>
+        <v>843</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -38017,7 +38020,7 @@
         <v>17.0699996948242</v>
       </c>
       <c r="G1274" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -38069,7 +38072,7 @@
         <v>17.25</v>
       </c>
       <c r="G1276" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -38147,7 +38150,7 @@
         <v>17.3899993896484</v>
       </c>
       <c r="G1279" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -38225,7 +38228,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1282" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -38329,7 +38332,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G1286" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -38407,7 +38410,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G1289" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -38667,7 +38670,7 @@
         <v>17.5100002288818</v>
       </c>
       <c r="G1299" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -38719,7 +38722,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G1301" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -38745,7 +38748,7 @@
         <v>17.4099998474121</v>
       </c>
       <c r="G1302" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -38875,7 +38878,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G1307" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -39239,7 +39242,7 @@
         <v>17.8899993896484</v>
       </c>
       <c r="G1321" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -39265,7 +39268,7 @@
         <v>17.9699993133545</v>
       </c>
       <c r="G1322" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -60801,7 +60804,7 @@
     </row>
     <row r="2151">
       <c r="A2151" s="1" t="n">
-        <v>45456.6494444444</v>
+        <v>45456.2916666667</v>
       </c>
       <c r="B2151" t="n">
         <v>100686</v>
@@ -60822,6 +60825,32 @@
         <v>1515</v>
       </c>
       <c r="H2151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" s="1" t="n">
+        <v>45457.6494328704</v>
+      </c>
+      <c r="B2152" t="n">
+        <v>266641</v>
+      </c>
+      <c r="C2152" t="n">
+        <v>16.7199993133545</v>
+      </c>
+      <c r="D2152" t="n">
+        <v>15.8800001144409</v>
+      </c>
+      <c r="E2152" t="n">
+        <v>16.7099990844727</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>16.0499992370605</v>
+      </c>
+      <c r="G2152" t="s">
+        <v>1516</v>
+      </c>
+      <c r="H2152" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ACE.MI.xlsx
+++ b/data/ACE.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50932693481445</t>
+    <t xml:space="preserve">9.50932598114014</t>
   </si>
   <si>
     <t xml:space="preserve">ACE.MI</t>
@@ -59,46 +59,46 @@
     <t xml:space="preserve">9.52989482879639</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73557567596436</t>
+    <t xml:space="preserve">9.73557472229004</t>
   </si>
   <si>
     <t xml:space="preserve">9.60531139373779</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18709182739258</t>
+    <t xml:space="preserve">9.18709373474121</t>
   </si>
   <si>
     <t xml:space="preserve">9.23508548736572</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07739543914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75516223907471</t>
+    <t xml:space="preserve">9.07739639282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75516319274902</t>
   </si>
   <si>
     <t xml:space="preserve">8.81686592102051</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00197887420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01569271087646</t>
+    <t xml:space="preserve">9.00198078155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01569175720215</t>
   </si>
   <si>
     <t xml:space="preserve">9.15281200408936</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27622032165527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39277458190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40648651123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28307819366455</t>
+    <t xml:space="preserve">9.27622127532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39277362823486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40648746490479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28307628631592</t>
   </si>
   <si>
     <t xml:space="preserve">9.25565338134766</t>
@@ -110,22 +110,22 @@
     <t xml:space="preserve">8.83743476867676</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39864826202393</t>
+    <t xml:space="preserve">8.39864635467529</t>
   </si>
   <si>
     <t xml:space="preserve">8.24781513214111</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09012508392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25467014312744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48092079162598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43978595733643</t>
+    <t xml:space="preserve">8.09012699127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25467109680176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48091983795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43978404998779</t>
   </si>
   <si>
     <t xml:space="preserve">8.46720886230469</t>
@@ -134,19 +134,19 @@
     <t xml:space="preserve">8.46035289764404</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23410415649414</t>
+    <t xml:space="preserve">8.23410224914551</t>
   </si>
   <si>
     <t xml:space="preserve">8.40550422668457</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49463367462158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35065650939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50148868560791</t>
+    <t xml:space="preserve">8.49463272094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3506555557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50148773193359</t>
   </si>
   <si>
     <t xml:space="preserve">8.41236114501953</t>
@@ -155,13 +155,13 @@
     <t xml:space="preserve">8.55633640289307</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4534969329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37808036804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33008861541748</t>
+    <t xml:space="preserve">8.45349597930908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37807941436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33008766174316</t>
   </si>
   <si>
     <t xml:space="preserve">8.86485958099365</t>
@@ -170,37 +170,37 @@
     <t xml:space="preserve">9.26936626434326</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59845447540283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70129585266113</t>
+    <t xml:space="preserve">9.59845542907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7012939453125</t>
   </si>
   <si>
     <t xml:space="preserve">9.69443893432617</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76985645294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71500873565674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36534976959229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31050205230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22137260437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35163879394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39962959289551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49561500549316</t>
+    <t xml:space="preserve">9.76985549926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71500682830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36534881591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31050109863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22137355804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35163974761963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39963150024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49561405181885</t>
   </si>
   <si>
     <t xml:space="preserve">9.32421493530273</t>
@@ -227,13 +227,13 @@
     <t xml:space="preserve">8.54948139190674</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6180419921875</t>
+    <t xml:space="preserve">8.61804103851318</t>
   </si>
   <si>
     <t xml:space="preserve">8.68660163879395</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73459339141846</t>
+    <t xml:space="preserve">8.73459434509277</t>
   </si>
   <si>
     <t xml:space="preserve">8.80315494537354</t>
@@ -242,136 +242,136 @@
     <t xml:space="preserve">8.89913845062256</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8442907333374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81001091003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70031261444092</t>
+    <t xml:space="preserve">8.84428977966309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81000995635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70031452178955</t>
   </si>
   <si>
     <t xml:space="preserve">8.60432815551758</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94713115692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97455406188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04311561584473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87171363830566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7208833694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65917682647705</t>
+    <t xml:space="preserve">8.9471321105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97455501556396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04311466217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87171459197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72088241577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65917778015137</t>
   </si>
   <si>
     <t xml:space="preserve">8.89228248596191</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85800361633301</t>
+    <t xml:space="preserve">8.85800266265869</t>
   </si>
   <si>
     <t xml:space="preserve">8.95398807525635</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06368350982666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10482025146484</t>
+    <t xml:space="preserve">9.06368446350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10481929779053</t>
   </si>
   <si>
     <t xml:space="preserve">9.04997158050537</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91285228729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58376121520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32323169708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3643684387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20667839050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95300579071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58278036117554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70618867874146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71304368972778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87758827209473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84174871444702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79874229431152</t>
+    <t xml:space="preserve">8.91285037994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58376026153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32323265075684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36436653137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20667934417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95300626754761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58277988433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7061882019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71304416656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87758922576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84174919128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79874134063721</t>
   </si>
   <si>
     <t xml:space="preserve">7.89909362792969</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80590963363647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39016771316528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05327367782593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18229722976685</t>
+    <t xml:space="preserve">7.80591011047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39016819000244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05327272415161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18229675292969</t>
   </si>
   <si>
     <t xml:space="preserve">7.31131982803345</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83458137512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74139738082886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78440570831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66971826553345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50485563278198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46901559829712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54786252975464</t>
+    <t xml:space="preserve">7.83458232879639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74139785766602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78440523147583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66971778869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50485467910767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46901512145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54786205291748</t>
   </si>
   <si>
     <t xml:space="preserve">7.59087133407593</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45467853546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64821481704712</t>
+    <t xml:space="preserve">7.45467948913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6482138633728</t>
   </si>
   <si>
     <t xml:space="preserve">7.66254997253418</t>
@@ -380,22 +380,22 @@
     <t xml:space="preserve">7.62671089172363</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91343021392822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90626096725464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38651561737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35784339904785</t>
+    <t xml:space="preserve">7.91342878341675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90626001358032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38651371002197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35784149169922</t>
   </si>
   <si>
     <t xml:space="preserve">8.92411136627197</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89544105529785</t>
+    <t xml:space="preserve">8.89543914794922</t>
   </si>
   <si>
     <t xml:space="preserve">8.85960006713867</t>
@@ -404,22 +404,22 @@
     <t xml:space="preserve">9.03163051605225</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04596710205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93127918243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90977668762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95995140075684</t>
+    <t xml:space="preserve">9.0459680557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9312801361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90977573394775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95995235443115</t>
   </si>
   <si>
     <t xml:space="preserve">8.79508876800537</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65889644622803</t>
+    <t xml:space="preserve">8.65889739990234</t>
   </si>
   <si>
     <t xml:space="preserve">8.70907211303711</t>
@@ -428,40 +428,40 @@
     <t xml:space="preserve">8.74491214752197</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5872163772583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58004856109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56571197509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59438419342041</t>
+    <t xml:space="preserve">8.58721733093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58004951477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56571388244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59438514709473</t>
   </si>
   <si>
     <t xml:space="preserve">8.53704166412354</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37934589385986</t>
+    <t xml:space="preserve">8.37934494018555</t>
   </si>
   <si>
     <t xml:space="preserve">8.46536254882812</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52270603179932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64456081390381</t>
+    <t xml:space="preserve">8.522705078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64456272125244</t>
   </si>
   <si>
     <t xml:space="preserve">8.61588954925537</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50836849212646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54420852661133</t>
+    <t xml:space="preserve">8.5083703994751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54421043395996</t>
   </si>
   <si>
     <t xml:space="preserve">8.51553726196289</t>
@@ -470,13 +470,13 @@
     <t xml:space="preserve">8.30049896240234</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15713977813721</t>
+    <t xml:space="preserve">8.15713882446289</t>
   </si>
   <si>
     <t xml:space="preserve">8.17864322662354</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26465892791748</t>
+    <t xml:space="preserve">8.26465797424316</t>
   </si>
   <si>
     <t xml:space="preserve">8.09979724884033</t>
@@ -485,61 +485,61 @@
     <t xml:space="preserve">8.02094745635986</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99227619171143</t>
+    <t xml:space="preserve">7.99227666854858</t>
   </si>
   <si>
     <t xml:space="preserve">7.94210052490234</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96360492706299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98510980606079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94926977157593</t>
+    <t xml:space="preserve">7.96360445022583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98510837554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94926881790161</t>
   </si>
   <si>
     <t xml:space="preserve">7.92776584625244</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92059659957886</t>
+    <t xml:space="preserve">7.92059755325317</t>
   </si>
   <si>
     <t xml:space="preserve">7.95643758773804</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93493318557739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82024526596069</t>
+    <t xml:space="preserve">7.93493366241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82024621963501</t>
   </si>
   <si>
     <t xml:space="preserve">7.70555782318115</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79157400131226</t>
+    <t xml:space="preserve">7.7915735244751</t>
   </si>
   <si>
     <t xml:space="preserve">7.72706174850464</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99944448471069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12846851348877</t>
+    <t xml:space="preserve">7.99944353103638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12846660614014</t>
   </si>
   <si>
     <t xml:space="preserve">8.20014667510986</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35067558288574</t>
+    <t xml:space="preserve">8.35067462921143</t>
   </si>
   <si>
     <t xml:space="preserve">8.32200336456299</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45102596282959</t>
+    <t xml:space="preserve">8.45102691650391</t>
   </si>
   <si>
     <t xml:space="preserve">8.40085029602051</t>
@@ -548,31 +548,31 @@
     <t xml:space="preserve">8.42235469818115</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4581937789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28616333007812</t>
+    <t xml:space="preserve">8.45819568634033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28616237640381</t>
   </si>
   <si>
     <t xml:space="preserve">8.17147541046143</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25032234191895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1499719619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.078293800354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56936693191528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26831293106079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28981685638428</t>
+    <t xml:space="preserve">8.25032329559326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14997291564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07829284667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56936740875244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26831245422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2898154258728</t>
   </si>
   <si>
     <t xml:space="preserve">7.2396411895752</t>
@@ -581,25 +581,25 @@
     <t xml:space="preserve">7.16796112060547</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11778545379639</t>
+    <t xml:space="preserve">7.1177864074707</t>
   </si>
   <si>
     <t xml:space="preserve">7.16437673568726</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21813583374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35432815551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22530460357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29698467254639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21096801757812</t>
+    <t xml:space="preserve">7.21813631057739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35432910919189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22530508041382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29698514938354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2109694480896</t>
   </si>
   <si>
     <t xml:space="preserve">7.11061763763428</t>
@@ -608,22 +608,22 @@
     <t xml:space="preserve">7.59803915023804</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85608530044556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02811622619629</t>
+    <t xml:space="preserve">7.85608625411987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02811717987061</t>
   </si>
   <si>
     <t xml:space="preserve">8.27899551391602</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22165107727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21448230743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16430854797363</t>
+    <t xml:space="preserve">8.22165203094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21448421478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16430759429932</t>
   </si>
   <si>
     <t xml:space="preserve">8.31483459472656</t>
@@ -635,10 +635,10 @@
     <t xml:space="preserve">8.47969722747803</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49403285980225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52987194061279</t>
+    <t xml:space="preserve">8.49403381347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52987384796143</t>
   </si>
   <si>
     <t xml:space="preserve">8.73057651519775</t>
@@ -647,13 +647,13 @@
     <t xml:space="preserve">8.62305641174316</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67323303222656</t>
+    <t xml:space="preserve">8.67323207855225</t>
   </si>
   <si>
     <t xml:space="preserve">8.12129878997803</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18581199645996</t>
+    <t xml:space="preserve">8.18581295013428</t>
   </si>
   <si>
     <t xml:space="preserve">8.25749111175537</t>
@@ -665,7 +665,7 @@
     <t xml:space="preserve">8.55854511260986</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50120162963867</t>
+    <t xml:space="preserve">8.50120258331299</t>
   </si>
   <si>
     <t xml:space="preserve">8.42952251434326</t>
@@ -674,34 +674,34 @@
     <t xml:space="preserve">8.44385719299316</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55137729644775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60155391693115</t>
+    <t xml:space="preserve">8.55137825012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60155296325684</t>
   </si>
   <si>
     <t xml:space="preserve">8.66606521606445</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57288074493408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43669033050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8165922164917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68756771087646</t>
+    <t xml:space="preserve">8.5728816986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43669128417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81659317016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6875696182251</t>
   </si>
   <si>
     <t xml:space="preserve">8.76641654968262</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88827133178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95278358459473</t>
+    <t xml:space="preserve">8.88827037811279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95278453826904</t>
   </si>
   <si>
     <t xml:space="preserve">8.99579048156738</t>
@@ -713,25 +713,25 @@
     <t xml:space="preserve">9.16782188415527</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11764621734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10331058502197</t>
+    <t xml:space="preserve">9.11764717102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10330867767334</t>
   </si>
   <si>
     <t xml:space="preserve">9.09614181518555</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14631748199463</t>
+    <t xml:space="preserve">9.14631843566895</t>
   </si>
   <si>
     <t xml:space="preserve">9.36135768890381</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35418891906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32551765441895</t>
+    <t xml:space="preserve">9.3541898727417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32551670074463</t>
   </si>
   <si>
     <t xml:space="preserve">9.31834983825684</t>
@@ -740,31 +740,31 @@
     <t xml:space="preserve">9.239501953125</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46170902252197</t>
+    <t xml:space="preserve">9.46170806884766</t>
   </si>
   <si>
     <t xml:space="preserve">9.42586898803711</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28251075744629</t>
+    <t xml:space="preserve">9.28250885009766</t>
   </si>
   <si>
     <t xml:space="preserve">9.36852550506592</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51905250549316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52622032165527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53338813781738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46887683868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74125957489014</t>
+    <t xml:space="preserve">9.51905155181885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52621936798096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5333890914917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46887588500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74125862121582</t>
   </si>
   <si>
     <t xml:space="preserve">9.59789943695068</t>
@@ -785,22 +785,22 @@
     <t xml:space="preserve">10.1498327255249</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95629787445068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89895439147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94912910461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1570014953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97063446044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98497009277344</t>
+    <t xml:space="preserve">9.95629692077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89895534515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94913101196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.157000541687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9706335067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98497104644775</t>
   </si>
   <si>
     <t xml:space="preserve">10.1785049438477</t>
@@ -815,55 +815,55 @@
     <t xml:space="preserve">10.336199760437</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4365510940552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3146953582764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4293832778931</t>
+    <t xml:space="preserve">10.4365520477295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3146963119507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4293823242188</t>
   </si>
   <si>
     <t xml:space="preserve">10.379207611084</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4150466918945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3218641281128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5082321166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.515398979187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4437198638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.558406829834</t>
+    <t xml:space="preserve">10.4150476455688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3218631744385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5082311630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5153999328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4437189102173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5584058761597</t>
   </si>
   <si>
     <t xml:space="preserve">10.4078798294067</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3505344390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5227956771851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4104509353638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6126689910889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5078163146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4478998184204</t>
+    <t xml:space="preserve">10.3505353927612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5227947235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4104518890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6126699447632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5078153610229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4478988647461</t>
   </si>
   <si>
     <t xml:space="preserve">10.4853477478027</t>
@@ -872,16 +872,16 @@
     <t xml:space="preserve">10.1857662200928</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0584440231323</t>
+    <t xml:space="preserve">10.0584449768066</t>
   </si>
   <si>
     <t xml:space="preserve">10.1183605194092</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93861103057861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7663516998291</t>
+    <t xml:space="preserve">9.93861198425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76635265350342</t>
   </si>
   <si>
     <t xml:space="preserve">9.78133106231689</t>
@@ -905,10 +905,10 @@
     <t xml:space="preserve">10.0060157775879</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0434646606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0659332275391</t>
+    <t xml:space="preserve">10.0434637069702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0659341812134</t>
   </si>
   <si>
     <t xml:space="preserve">10.178277015686</t>
@@ -917,10 +917,10 @@
     <t xml:space="preserve">10.0734233856201</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0884017944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96107959747314</t>
+    <t xml:space="preserve">10.0884027481079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96108055114746</t>
   </si>
   <si>
     <t xml:space="preserve">10.0359754562378</t>
@@ -929,7 +929,7 @@
     <t xml:space="preserve">9.8187780380249</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87120628356934</t>
+    <t xml:space="preserve">9.87120532989502</t>
   </si>
   <si>
     <t xml:space="preserve">9.84873676300049</t>
@@ -941,16 +941,16 @@
     <t xml:space="preserve">9.49672794342041</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45179176330566</t>
+    <t xml:space="preserve">9.45179271697998</t>
   </si>
   <si>
     <t xml:space="preserve">9.46677112579346</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6090726852417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44430160522461</t>
+    <t xml:space="preserve">9.60907173156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44430255889893</t>
   </si>
   <si>
     <t xml:space="preserve">9.33944892883301</t>
@@ -968,40 +968,40 @@
     <t xml:space="preserve">9.30200099945068</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31698036193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2720422744751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27953243255615</t>
+    <t xml:space="preserve">9.31697940826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27204322814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27953338623047</t>
   </si>
   <si>
     <t xml:space="preserve">9.21212673187256</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15970039367676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14472007751465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12225246429443</t>
+    <t xml:space="preserve">9.15969944000244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14472103118896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12225151062012</t>
   </si>
   <si>
     <t xml:space="preserve">9.06233596801758</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03237724304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08480262756348</t>
+    <t xml:space="preserve">9.03237819671631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08480453491211</t>
   </si>
   <si>
     <t xml:space="preserve">9.25706386566162</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17467880249023</t>
+    <t xml:space="preserve">9.17467784881592</t>
   </si>
   <si>
     <t xml:space="preserve">9.28702163696289</t>
@@ -1016,22 +1016,22 @@
     <t xml:space="preserve">9.69145679473877</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59409236907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60158252716064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61656188964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73639297485352</t>
+    <t xml:space="preserve">9.59409332275391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60158348083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61656093597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73639392852783</t>
   </si>
   <si>
     <t xml:space="preserve">9.79630947113037</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66898822784424</t>
+    <t xml:space="preserve">9.66898727416992</t>
   </si>
   <si>
     <t xml:space="preserve">9.67647743225098</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">9.72141456604004</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82626724243164</t>
+    <t xml:space="preserve">9.82626819610596</t>
   </si>
   <si>
     <t xml:space="preserve">9.91614246368408</t>
@@ -1052,16 +1052,16 @@
     <t xml:space="preserve">9.8337574005127</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1558084487915</t>
+    <t xml:space="preserve">10.1558065414429</t>
   </si>
   <si>
     <t xml:space="preserve">10.170786857605</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2756404876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2232141494751</t>
+    <t xml:space="preserve">10.2756395339966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2232131958008</t>
   </si>
   <si>
     <t xml:space="preserve">10.358024597168</t>
@@ -1070,28 +1070,28 @@
     <t xml:space="preserve">10.4029626846313</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5527534484863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4703674316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3804931640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5302839279175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5003271102905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8822908401489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9122505187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9347190856934</t>
+    <t xml:space="preserve">10.552752494812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4703683853149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3804941177368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5302848815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5003261566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8822927474976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9122486114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.934718132019</t>
   </si>
   <si>
     <t xml:space="preserve">10.8748035430908</t>
@@ -1100,31 +1100,31 @@
     <t xml:space="preserve">10.7999067306519</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7774381637573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7325029373169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5976905822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7474813461304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6950531005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0245933532715</t>
+    <t xml:space="preserve">10.7774391174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7325019836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5976896286011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7474803924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6950550079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0245943069458</t>
   </si>
   <si>
     <t xml:space="preserve">11.0021257400513</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9646778106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0770206451416</t>
+    <t xml:space="preserve">10.9646768569946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0770196914673</t>
   </si>
   <si>
     <t xml:space="preserve">11.0171051025391</t>
@@ -1136,52 +1136,52 @@
     <t xml:space="preserve">10.9496984481812</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3466424942017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6573104858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7921228408813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7022485733032</t>
+    <t xml:space="preserve">11.346643447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6573114395142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.79212474823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7022476196289</t>
   </si>
   <si>
     <t xml:space="preserve">12.7322063446045</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6648006439209</t>
+    <t xml:space="preserve">12.6648025512695</t>
   </si>
   <si>
     <t xml:space="preserve">12.6498222351074</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7172269821167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5524587631226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2453870773315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1480236053467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.028190612793</t>
+    <t xml:space="preserve">12.717227935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5524578094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2453880310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1480226516724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0281915664673</t>
   </si>
   <si>
     <t xml:space="preserve">12.3502407073975</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9607849121094</t>
+    <t xml:space="preserve">11.9607858657837</t>
   </si>
   <si>
     <t xml:space="preserve">11.7061414718628</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5563497543335</t>
+    <t xml:space="preserve">11.5563507080078</t>
   </si>
   <si>
     <t xml:space="preserve">11.6836729049683</t>
@@ -1190,10 +1190,10 @@
     <t xml:space="preserve">11.6612033843994</t>
   </si>
   <si>
-    <t xml:space="preserve">11.533881187439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5788192749023</t>
+    <t xml:space="preserve">11.5338821411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.578818321228</t>
   </si>
   <si>
     <t xml:space="preserve">11.7585678100586</t>
@@ -1205,10 +1205,10 @@
     <t xml:space="preserve">12.0731287002563</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1555128097534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9458065032959</t>
+    <t xml:space="preserve">12.1555137634277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9458055496216</t>
   </si>
   <si>
     <t xml:space="preserve">11.8559322357178</t>
@@ -1217,7 +1217,7 @@
     <t xml:space="preserve">11.7510776519775</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8035049438477</t>
+    <t xml:space="preserve">11.8035039901733</t>
   </si>
   <si>
     <t xml:space="preserve">11.9832534790039</t>
@@ -1229,7 +1229,7 @@
     <t xml:space="preserve">12.1630029678345</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2154293060303</t>
+    <t xml:space="preserve">12.215428352356</t>
   </si>
   <si>
     <t xml:space="preserve">12.3053035736084</t>
@@ -1241,22 +1241,22 @@
     <t xml:space="preserve">11.9907445907593</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9158487319946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8709115982056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7136297225952</t>
+    <t xml:space="preserve">11.9158477783203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8709106445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7136306762695</t>
   </si>
   <si>
     <t xml:space="preserve">11.653715133667</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6312446594238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4589872360229</t>
+    <t xml:space="preserve">11.6312465667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4589862823486</t>
   </si>
   <si>
     <t xml:space="preserve">11.1668939590454</t>
@@ -1265,7 +1265,7 @@
     <t xml:space="preserve">10.9197397232056</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2717475891113</t>
+    <t xml:space="preserve">11.2717485427856</t>
   </si>
   <si>
     <t xml:space="preserve">10.9796562194824</t>
@@ -1274,25 +1274,25 @@
     <t xml:space="preserve">11.0994892120361</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1219568252563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1968536376953</t>
+    <t xml:space="preserve">11.1219577789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.196852684021</t>
   </si>
   <si>
     <t xml:space="preserve">11.1519155502319</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0320835113525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7250118255615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.515305519104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4404106140137</t>
+    <t xml:space="preserve">11.0320825576782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7250127792358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5153045654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.440408706665</t>
   </si>
   <si>
     <t xml:space="preserve">10.6650953292847</t>
@@ -1313,31 +1313,31 @@
     <t xml:space="preserve">10.3355560302734</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1932554244995</t>
+    <t xml:space="preserve">10.1932544708252</t>
   </si>
   <si>
     <t xml:space="preserve">10.1033802032471</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2082347869873</t>
+    <t xml:space="preserve">10.2082357406616</t>
   </si>
   <si>
     <t xml:space="preserve">10.0284852981567</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1483192443848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3205766677856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2606620788574</t>
+    <t xml:space="preserve">10.1483182907104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.32057762146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2606611251831</t>
   </si>
   <si>
     <t xml:space="preserve">10.215723991394</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1333389282227</t>
+    <t xml:space="preserve">10.1333379745483</t>
   </si>
   <si>
     <t xml:space="preserve">10.2831296920776</t>
@@ -1346,13 +1346,13 @@
     <t xml:space="preserve">10.4254302978516</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5452642440796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6426267623901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8373546600342</t>
+    <t xml:space="preserve">10.5452632904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6426277160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8373556137085</t>
   </si>
   <si>
     <t xml:space="preserve">10.8448448181152</t>
@@ -1364,22 +1364,22 @@
     <t xml:space="preserve">11.009614944458</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8598232269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7924184799194</t>
+    <t xml:space="preserve">10.859824180603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7924175262451</t>
   </si>
   <si>
     <t xml:space="preserve">10.4778575897217</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7399921417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2906179428101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96856880187988</t>
+    <t xml:space="preserve">10.7399911880493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2906188964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9685697555542</t>
   </si>
   <si>
     <t xml:space="preserve">9.72890377044678</t>
@@ -1391,7 +1391,7 @@
     <t xml:space="preserve">10.3879823684692</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2438802719116</t>
+    <t xml:space="preserve">10.2438812255859</t>
   </si>
   <si>
     <t xml:space="preserve">10.2752799987793</t>
@@ -1400,31 +1400,31 @@
     <t xml:space="preserve">10.2203321456909</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0790376663208</t>
+    <t xml:space="preserve">10.0790367126465</t>
   </si>
   <si>
     <t xml:space="preserve">10.1182861328125</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0162382125854</t>
+    <t xml:space="preserve">10.0162391662598</t>
   </si>
   <si>
     <t xml:space="preserve">10.0319385528564</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99268817901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94559097290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0005388259888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97698974609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1653842926025</t>
+    <t xml:space="preserve">9.99268913269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94559192657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0005397796631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97699069976807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1653833389282</t>
   </si>
   <si>
     <t xml:space="preserve">10.2595806121826</t>
@@ -1436,31 +1436,31 @@
     <t xml:space="preserve">10.1889324188232</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0711879730225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0947360992432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2046318054199</t>
+    <t xml:space="preserve">10.0711870193481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0947351455688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2046327590942</t>
   </si>
   <si>
     <t xml:space="preserve">10.2517309188843</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0868883132935</t>
+    <t xml:space="preserve">10.0868864059448</t>
   </si>
   <si>
     <t xml:space="preserve">10.1496849060059</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3773260116577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4401235580444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4087247848511</t>
+    <t xml:space="preserve">10.377326965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4401245117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4087257385254</t>
   </si>
   <si>
     <t xml:space="preserve">10.6206674575806</t>
@@ -1478,7 +1478,7 @@
     <t xml:space="preserve">10.6756162643433</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7070140838623</t>
+    <t xml:space="preserve">10.7070150375366</t>
   </si>
   <si>
     <t xml:space="preserve">10.5892686843872</t>
@@ -1499,16 +1499,16 @@
     <t xml:space="preserve">10.290979385376</t>
   </si>
   <si>
-    <t xml:space="preserve">10.338077545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.267430305481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2281808853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0554885864258</t>
+    <t xml:space="preserve">10.3380784988403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2674293518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2281799316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0554876327515</t>
   </si>
   <si>
     <t xml:space="preserve">9.75719928741455</t>
@@ -1520,28 +1520,28 @@
     <t xml:space="preserve">9.60020446777344</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71794986724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92989063262939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96914005279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1104373931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2124824523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3851757049561</t>
+    <t xml:space="preserve">9.71795082092285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92989158630371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96913909912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1104345321655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2124814987183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3851747512817</t>
   </si>
   <si>
     <t xml:space="preserve">10.4244241714478</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3694772720337</t>
+    <t xml:space="preserve">10.3694753646851</t>
   </si>
   <si>
     <t xml:space="preserve">10.1339845657349</t>
@@ -1550,31 +1550,31 @@
     <t xml:space="preserve">10.0083885192871</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1418352127075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67085075378418</t>
+    <t xml:space="preserve">10.1418342590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6708517074585</t>
   </si>
   <si>
     <t xml:space="preserve">9.61590385437012</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41180992126465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38041114807129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28621482849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50600624084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39611148834229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14492130279541</t>
+    <t xml:space="preserve">9.41181087493896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38041210174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28621578216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50600719451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3961124420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14491939544678</t>
   </si>
   <si>
     <t xml:space="preserve">9.13707160949707</t>
@@ -1595,16 +1595,16 @@
     <t xml:space="preserve">8.7759838104248</t>
   </si>
   <si>
-    <t xml:space="preserve">9.011474609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02717399597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11352252960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16062068939209</t>
+    <t xml:space="preserve">9.01147556304932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.027174949646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11352157592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16061878204346</t>
   </si>
   <si>
     <t xml:space="preserve">9.27051639556885</t>
@@ -1613,16 +1613,16 @@
     <t xml:space="preserve">9.24696636199951</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40396022796631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31761455535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1261358261108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0476388931274</t>
+    <t xml:space="preserve">9.40396118164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31761360168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1261339187622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0476379394531</t>
   </si>
   <si>
     <t xml:space="preserve">10.0240888595581</t>
@@ -1634,31 +1634,31 @@
     <t xml:space="preserve">9.74934864044189</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57665538787842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46675872802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48245811462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34116268157959</t>
+    <t xml:space="preserve">9.5766544342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46675968170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48245906829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34116363525391</t>
   </si>
   <si>
     <t xml:space="preserve">9.42751121520996</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41966152191162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29406547546387</t>
+    <t xml:space="preserve">9.41965961456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29406452178955</t>
   </si>
   <si>
     <t xml:space="preserve">9.25481700897217</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33331489562988</t>
+    <t xml:space="preserve">9.33331298828125</t>
   </si>
   <si>
     <t xml:space="preserve">9.08212280273438</t>
@@ -1667,16 +1667,16 @@
     <t xml:space="preserve">9.73364925384521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52170562744141</t>
+    <t xml:space="preserve">9.52170753479004</t>
   </si>
   <si>
     <t xml:space="preserve">9.22341823577881</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06642246246338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26266574859619</t>
+    <t xml:space="preserve">9.0664234161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26266670227051</t>
   </si>
   <si>
     <t xml:space="preserve">9.35686302185059</t>
@@ -1688,49 +1688,49 @@
     <t xml:space="preserve">9.27836513519287</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4353609085083</t>
+    <t xml:space="preserve">9.43535995483398</t>
   </si>
   <si>
     <t xml:space="preserve">9.60805416107178</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77289772033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79644775390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85139560699463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2360305786133</t>
+    <t xml:space="preserve">9.77289867401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79644680023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85139465332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2360315322876</t>
   </si>
   <si>
     <t xml:space="preserve">10.5186214447021</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5971183776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4793720245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3459281921387</t>
+    <t xml:space="preserve">10.5971193313599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4793729782104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3459272384644</t>
   </si>
   <si>
     <t xml:space="preserve">10.5578699111938</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6913146972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6285181045532</t>
+    <t xml:space="preserve">10.6913156509399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6285161972046</t>
   </si>
   <si>
     <t xml:space="preserve">10.6520662307739</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5264711380005</t>
+    <t xml:space="preserve">10.5264701843262</t>
   </si>
   <si>
     <t xml:space="preserve">10.7148637771606</t>
@@ -1739,22 +1739,22 @@
     <t xml:space="preserve">10.9582052230835</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9032573699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9268054962158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7933616638184</t>
+    <t xml:space="preserve">10.9032564163208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9268064498901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.793360710144</t>
   </si>
   <si>
     <t xml:space="preserve">10.9111061096191</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8954067230225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0838012695312</t>
+    <t xml:space="preserve">10.8954076766968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0838003158569</t>
   </si>
   <si>
     <t xml:space="preserve">11.3271427154541</t>
@@ -1763,16 +1763,16 @@
     <t xml:space="preserve">11.4213380813599</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7353277206421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9001703262329</t>
+    <t xml:space="preserve">11.7353267669678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9001712799072</t>
   </si>
   <si>
     <t xml:space="preserve">11.7667255401611</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8138236999512</t>
+    <t xml:space="preserve">11.8138246536255</t>
   </si>
   <si>
     <t xml:space="preserve">11.7274770736694</t>
@@ -1784,7 +1784,7 @@
     <t xml:space="preserve">11.8216743469238</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9158716201782</t>
+    <t xml:space="preserve">11.9158706665039</t>
   </si>
   <si>
     <t xml:space="preserve">11.8609218597412</t>
@@ -1793,7 +1793,7 @@
     <t xml:space="preserve">11.9315710067749</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8923206329346</t>
+    <t xml:space="preserve">11.8923215866089</t>
   </si>
   <si>
     <t xml:space="preserve">11.8766222000122</t>
@@ -1805,55 +1805,55 @@
     <t xml:space="preserve">11.8295230865479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0728645324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5595474243164</t>
+    <t xml:space="preserve">12.072865486145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5595464706421</t>
   </si>
   <si>
     <t xml:space="preserve">12.5752468109131</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7165412902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5124492645264</t>
+    <t xml:space="preserve">12.7165422439575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5124483108521</t>
   </si>
   <si>
     <t xml:space="preserve">12.6537446975708</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6380453109741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4967498779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3397550582886</t>
+    <t xml:space="preserve">12.6380443572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4967489242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3397569656372</t>
   </si>
   <si>
     <t xml:space="preserve">12.1513624191284</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1670618057251</t>
+    <t xml:space="preserve">12.1670627593994</t>
   </si>
   <si>
     <t xml:space="preserve">12.3711538314819</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5909461975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6223459243774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7008419036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6851425170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.842137336731</t>
+    <t xml:space="preserve">12.5909471511841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6223449707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7008428573608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6851434707642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8421382904053</t>
   </si>
   <si>
     <t xml:space="preserve">12.7636404037476</t>
@@ -1862,34 +1862,34 @@
     <t xml:space="preserve">13.1090288162231</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2032232284546</t>
+    <t xml:space="preserve">13.2032251358032</t>
   </si>
   <si>
     <t xml:space="preserve">13.3916168212891</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2503213882446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1247262954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0776290893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9834327697754</t>
+    <t xml:space="preserve">13.2503223419189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1247272491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0776281356812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9834337234497</t>
   </si>
   <si>
     <t xml:space="preserve">12.92063331604</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0462312698364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1561269760132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1718263626099</t>
+    <t xml:space="preserve">13.0462303161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1561260223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1718273162842</t>
   </si>
   <si>
     <t xml:space="preserve">13.0933284759521</t>
@@ -1898,70 +1898,70 @@
     <t xml:space="preserve">13.1404266357422</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0619287490845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3445196151733</t>
+    <t xml:space="preserve">13.0619297027588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.344518661499</t>
   </si>
   <si>
     <t xml:space="preserve">13.4858150482178</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5800113677979</t>
+    <t xml:space="preserve">13.5800094604492</t>
   </si>
   <si>
     <t xml:space="preserve">13.6114101409912</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6585073471069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.752703666687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8312034606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8468999862671</t>
+    <t xml:space="preserve">13.6585063934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7527055740356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8312015533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8469018936157</t>
   </si>
   <si>
     <t xml:space="preserve">13.8626003265381</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9253969192505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0038938522339</t>
+    <t xml:space="preserve">13.9253997802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0038957595825</t>
   </si>
   <si>
     <t xml:space="preserve">13.9724950790405</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0509939193726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1736030578613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0101251602173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9774284362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6995153427124</t>
+    <t xml:space="preserve">14.0509929656982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1736040115356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0101232528687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.977427482605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6995143890381</t>
   </si>
   <si>
     <t xml:space="preserve">13.6831665039062</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6177759170532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7649059295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1572551727295</t>
+    <t xml:space="preserve">13.6177749633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7649049758911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1572542190552</t>
   </si>
   <si>
     <t xml:space="preserve">14.0755157470703</t>
@@ -1973,22 +1973,22 @@
     <t xml:space="preserve">13.9120378494263</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0918636322021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0264730453491</t>
+    <t xml:space="preserve">14.0918645858765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0264711380005</t>
   </si>
   <si>
     <t xml:space="preserve">14.2389945983887</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1409072875977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1245603561401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1899509429932</t>
+    <t xml:space="preserve">14.140905380249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1245594024658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1899518966675</t>
   </si>
   <si>
     <t xml:space="preserve">14.3043851852417</t>
@@ -1997,25 +1997,25 @@
     <t xml:space="preserve">14.042820930481</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0591697692871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9283857345581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.271689414978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2062978744507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2553424835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4515180587769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5005588531494</t>
+    <t xml:space="preserve">14.0591678619385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9283847808838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2716884613037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.206298828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2553434371948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4515171051025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.500560760498</t>
   </si>
   <si>
     <t xml:space="preserve">14.4351682662964</t>
@@ -2024,34 +2024,34 @@
     <t xml:space="preserve">14.3534297943115</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5332565307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4842119216919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4678649902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4024744033813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3207330703735</t>
+    <t xml:space="preserve">14.5332555770874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4842128753662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4678640365601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4024724960327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3207340240479</t>
   </si>
   <si>
     <t xml:space="preserve">14.5496025085449</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3697776794434</t>
+    <t xml:space="preserve">14.3697786331177</t>
   </si>
   <si>
     <t xml:space="preserve">13.9447317123413</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2226457595825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.879340171814</t>
+    <t xml:space="preserve">14.2226448059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8793411254883</t>
   </si>
   <si>
     <t xml:space="preserve">14.8765621185303</t>
@@ -2069,10 +2069,10 @@
     <t xml:space="preserve">14.9746475219727</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3370819091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5822982788086</t>
+    <t xml:space="preserve">14.337082862854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5822992324829</t>
   </si>
   <si>
     <t xml:space="preserve">14.5659513473511</t>
@@ -2081,490 +2081,490 @@
     <t xml:space="preserve">14.2880373001099</t>
   </si>
   <si>
+    <t xml:space="preserve">14.6803855895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6640405654907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6967334747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6476907730103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5169076919556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2198667526245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4160423278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9909963607788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.203519821167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4487361907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.236213684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.072735786438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.334300994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4323873519897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8929090499878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9092578887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8602132797241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2525615692139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4814319610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5468225479126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2852592468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1381282806396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1054306030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0563869476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9583005905151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7784748077393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6313419342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3506498336792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9882164001465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0045623779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1843910217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3887405395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6339588165283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5113487243652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5930862426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0017833709717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2061328887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6148281097412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8191757202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7374382019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4513530731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3696117401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2878723144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.16526222229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0426540374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0835227966309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8383045196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8791751861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5739593505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5522193908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2988262176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4296092987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9391736984253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5795202255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8247385025024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0536060333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0699558258057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0782957077026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6859474182129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9203758239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2963781356812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5934200286865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6588106155396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1356782913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2828092575073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5443754196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6751585006714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6723794937134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8358573913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7214231491089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0974235534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8685531616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0565528869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3998594284058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1955108642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1546421051025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1791610717773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.244553565979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5142946243286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9829883575439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8113355636597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8603801727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.778639793396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6315078735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1055974960327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5796852111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4652509689331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7513389587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2417755126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8330774307251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4080333709717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7349901199341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9802093505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.413426399231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7485580444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8956890106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6913404464722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7567319869995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7240371704102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1163845062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2635154724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1817770004272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3452558517456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0482149124146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.26891040802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3669967651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5304756164551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9664735794067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9010820388794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.476037979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4433422088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9174299240112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7049083709717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6547517776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8769226074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.526575088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3727645874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5522117614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8171072006226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6034812927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8427438735962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9794645309448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8683776855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9623737335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7743825912476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.518030166626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.466760635376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.304404258728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1676845550537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.330039024353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7060213088989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5436668395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7487478256226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5863904953003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1505928039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9284219741821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1164140701294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7402029037476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6120262145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8598327636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0905494689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.406717300415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9367370605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9538288116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9709186553955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3212661743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2870845794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3554458618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.560525894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2443618774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1418190002441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8512878417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0649137496948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0392789840698</t>
+  </si>
+  <si>
     <t xml:space="preserve">14.6803865432739</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6640405654907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6967353820801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6476917266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5169076919556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2198648452759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4160423278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9909973144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2035188674927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4487361907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2362127304077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.072735786438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3343019485474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4323883056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8929090499878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9092578887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8602142333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2525606155396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4814338684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5468254089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2852602005005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1381254196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.105429649353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0563879013062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9583005905151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7784748077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6313428878784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3506498336792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9882154464722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0045642852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1843910217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3887386322021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6339588165283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5113487243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5930881500244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0017833709717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2061328887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6148300170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8191776275635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7374382019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4513511657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3696098327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2878723144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1652641296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0426540374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0835227966309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8383045196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8791751861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5739593505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5522174835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2988262176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4296092987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9391736984253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5795192718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8247375488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0536079406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0699558258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0782957077026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6859474182129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9203758239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2963771820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5934190750122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6588106155396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1356792449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2828092575073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.544376373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6751594543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6723785400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8358573913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7214231491089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0974235534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8685531616211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0565538406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3998584747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1955108642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1546411514282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.179162979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2445526123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5142946243286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9829883575439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8113355636597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8603792190552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.778639793396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6315078735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.105598449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.579686164856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4652509689331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7513380050659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2417736053467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8330774307251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4080333709717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7349901199341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9802093505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4134273529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7485570907593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8956890106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6913404464722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7567319869995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7240362167358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1163854598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2635154724121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1817770004272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3452548980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0482139587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.26891040802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3669967651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5304756164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9664745330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9010820388794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.476037979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4433441162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9174308776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7049083709717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6547517776489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8769226074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.526575088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3727645874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5522117614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8171081542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6034822463989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8427429199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9794635772705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8683776855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9623727798462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7743825912476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5180311203003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4667615890503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.304404258728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1676845550537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3300399780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7060203552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5436658859253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7487478256226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5863914489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1505937576294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9284219741821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1164140701294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7402019500732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6120262145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8598318099976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0905485153198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4067163467407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9367380142212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9538278579712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9709186553955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3212661743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2870855331421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3554449081421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5605239868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2443580627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1418190002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8512878417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0649147033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0392789840698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6803874969482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8940124511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1674547195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0136442184448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7145671844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0734577178955</t>
+    <t xml:space="preserve">14.8940134048462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1674556732178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0136432647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7145662307739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0734586715698</t>
   </si>
   <si>
     <t xml:space="preserve">14.9025583267212</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2529048919678</t>
+    <t xml:space="preserve">15.2529067993164</t>
   </si>
   <si>
     <t xml:space="preserve">15.0050983428955</t>
@@ -2573,19 +2573,19 @@
     <t xml:space="preserve">14.9111032485962</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3127212524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3981714248657</t>
+    <t xml:space="preserve">15.3127193450928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3981704711914</t>
   </si>
   <si>
     <t xml:space="preserve">15.4323501586914</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0307340621948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7829275131226</t>
+    <t xml:space="preserve">15.0307331085205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7829265594482</t>
   </si>
   <si>
     <t xml:space="preserve">14.9880094528198</t>
@@ -2594,7 +2594,7 @@
     <t xml:space="preserve">15.1930904388428</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4836225509644</t>
+    <t xml:space="preserve">15.48362159729</t>
   </si>
   <si>
     <t xml:space="preserve">15.3639907836914</t>
@@ -2606,10 +2606,10 @@
     <t xml:space="preserve">15.56907081604</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4152631759644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3298120498657</t>
+    <t xml:space="preserve">15.41526222229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3298110961914</t>
   </si>
   <si>
     <t xml:space="preserve">15.3041744232178</t>
@@ -2618,91 +2618,91 @@
     <t xml:space="preserve">15.509256362915</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5348920822144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8510580062866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6887016296387</t>
+    <t xml:space="preserve">15.53489112854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8510589599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6887035369873</t>
   </si>
   <si>
     <t xml:space="preserve">15.6801586151123</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2785387039185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1503648757935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7231121063232</t>
+    <t xml:space="preserve">15.2785396575928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1503658294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7231111526489</t>
   </si>
   <si>
     <t xml:space="preserve">14.6718416213989</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6974782943726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7914714813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5607566833496</t>
+    <t xml:space="preserve">14.6974773406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7914724349976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5607576370239</t>
   </si>
   <si>
     <t xml:space="preserve">15.2358150482178</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2187242507935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2614498138428</t>
+    <t xml:space="preserve">15.2187232971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2614517211914</t>
   </si>
   <si>
     <t xml:space="preserve">15.0221881866455</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9196481704712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9452829360962</t>
+    <t xml:space="preserve">14.9196472167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9452838897705</t>
   </si>
   <si>
     <t xml:space="preserve">15.50071144104</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0820035934448</t>
+    <t xml:space="preserve">15.0820045471191</t>
   </si>
   <si>
     <t xml:space="preserve">14.4240341186523</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2531356811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.184775352478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2104091644287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1078681945801</t>
+    <t xml:space="preserve">14.253134727478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1847743988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2104082107544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1078691482544</t>
   </si>
   <si>
     <t xml:space="preserve">13.9198789596558</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9369678497314</t>
+    <t xml:space="preserve">13.9369668960571</t>
   </si>
   <si>
     <t xml:space="preserve">13.9626035690308</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0309638977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1591396331787</t>
+    <t xml:space="preserve">14.0309629440308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1591386795044</t>
   </si>
   <si>
     <t xml:space="preserve">14.295859336853</t>
@@ -2711,28 +2711,28 @@
     <t xml:space="preserve">14.5351219177246</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7316579818726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8341979980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8256530761719</t>
+    <t xml:space="preserve">14.7316560745239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8341970443726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8256521224976</t>
   </si>
   <si>
     <t xml:space="preserve">14.5778455734253</t>
   </si>
   <si>
-    <t xml:space="preserve">14.201865196228</t>
+    <t xml:space="preserve">14.2018642425537</t>
   </si>
   <si>
     <t xml:space="preserve">14.236044883728</t>
   </si>
   <si>
-    <t xml:space="preserve">14.287314414978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2189540863037</t>
+    <t xml:space="preserve">14.2873134613037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2189531326294</t>
   </si>
   <si>
     <t xml:space="preserve">13.9711484909058</t>
@@ -2741,7 +2741,7 @@
     <t xml:space="preserve">14.1249599456787</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0993242263794</t>
+    <t xml:space="preserve">14.0993232727051</t>
   </si>
   <si>
     <t xml:space="preserve">14.5949354171753</t>
@@ -2768,7 +2768,7 @@
     <t xml:space="preserve">13.9796934127808</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9540576934814</t>
+    <t xml:space="preserve">13.9540586471558</t>
   </si>
   <si>
     <t xml:space="preserve">14.0565996170044</t>
@@ -2783,13 +2783,13 @@
     <t xml:space="preserve">14.9965534210205</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1332740783691</t>
+    <t xml:space="preserve">15.1332721710205</t>
   </si>
   <si>
     <t xml:space="preserve">15.4408950805664</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6374320983887</t>
+    <t xml:space="preserve">15.63743019104</t>
   </si>
   <si>
     <t xml:space="preserve">15.8937835693359</t>
@@ -2804,7 +2804,7 @@
     <t xml:space="preserve">16.0732288360596</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9279623031616</t>
+    <t xml:space="preserve">15.9279632568359</t>
   </si>
   <si>
     <t xml:space="preserve">15.7485179901123</t>
@@ -2813,7 +2813,7 @@
     <t xml:space="preserve">15.7656097412109</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9194173812866</t>
+    <t xml:space="preserve">15.9194183349609</t>
   </si>
   <si>
     <t xml:space="preserve">16.0903186798096</t>
@@ -2825,13 +2825,13 @@
     <t xml:space="preserve">16.7226524353027</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3723049163818</t>
+    <t xml:space="preserve">16.3723068237305</t>
   </si>
   <si>
     <t xml:space="preserve">16.1843147277832</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3295822143555</t>
+    <t xml:space="preserve">16.3295803070068</t>
   </si>
   <si>
     <t xml:space="preserve">16.3210353851318</t>
@@ -2843,16 +2843,16 @@
     <t xml:space="preserve">16.0646839141846</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2526760101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1928596496582</t>
+    <t xml:space="preserve">16.2526741027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1928615570068</t>
   </si>
   <si>
     <t xml:space="preserve">16.1159553527832</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1501350402832</t>
+    <t xml:space="preserve">16.1501331329346</t>
   </si>
   <si>
     <t xml:space="preserve">16.1415882110596</t>
@@ -2867,19 +2867,19 @@
     <t xml:space="preserve">16.5859317779541</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8081016540527</t>
+    <t xml:space="preserve">16.8081035614014</t>
   </si>
   <si>
     <t xml:space="preserve">16.6799278259277</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6201114654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6970195770264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7824687957764</t>
+    <t xml:space="preserve">16.6201133728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6970176696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7824668884277</t>
   </si>
   <si>
     <t xml:space="preserve">16.8166484832764</t>
@@ -2894,10 +2894,10 @@
     <t xml:space="preserve">16.4406642913818</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5602951049805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6542930603027</t>
+    <t xml:space="preserve">16.5602970123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6542911529541</t>
   </si>
   <si>
     <t xml:space="preserve">16.5944766998291</t>
@@ -2909,16 +2909,16 @@
     <t xml:space="preserve">16.7568321228027</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0473651885986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5344333648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4831619262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2780818939209</t>
+    <t xml:space="preserve">17.04736328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5344314575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4831600189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2780799865723</t>
   </si>
   <si>
     <t xml:space="preserve">17.4318904876709</t>
@@ -2927,16 +2927,16 @@
     <t xml:space="preserve">17.6027927398682</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7736911773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6711540222168</t>
+    <t xml:space="preserve">17.7736930847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6711521148682</t>
   </si>
   <si>
     <t xml:space="preserve">17.5686111450195</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6882419586182</t>
+    <t xml:space="preserve">17.6882438659668</t>
   </si>
   <si>
     <t xml:space="preserve">17.8933238983154</t>
@@ -2954,10 +2954,10 @@
     <t xml:space="preserve">17.9878616333008</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7570190429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5261783599854</t>
+    <t xml:space="preserve">17.7570209503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5261764526367</t>
   </si>
   <si>
     <t xml:space="preserve">17.455150604248</t>
@@ -2972,10 +2972,10 @@
     <t xml:space="preserve">17.3042144775391</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2065505981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3130950927734</t>
+    <t xml:space="preserve">17.2065525054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3130931854248</t>
   </si>
   <si>
     <t xml:space="preserve">17.3841228485107</t>
@@ -2990,43 +2990,43 @@
     <t xml:space="preserve">17.2509441375732</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2331867218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3752422332764</t>
+    <t xml:space="preserve">17.2331886291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.375244140625</t>
   </si>
   <si>
     <t xml:space="preserve">17.3929996490479</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2420654296875</t>
+    <t xml:space="preserve">17.2420673370361</t>
   </si>
   <si>
     <t xml:space="preserve">17.1532802581787</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8247756958008</t>
+    <t xml:space="preserve">16.8247776031494</t>
   </si>
   <si>
     <t xml:space="preserve">16.8780460357666</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1088886260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3219718933105</t>
+    <t xml:space="preserve">17.1088905334473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3219738006592</t>
   </si>
   <si>
     <t xml:space="preserve">17.5350570678711</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4018802642822</t>
+    <t xml:space="preserve">17.4018783569336</t>
   </si>
   <si>
     <t xml:space="preserve">17.5972061157227</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7126293182373</t>
+    <t xml:space="preserve">17.7126274108887</t>
   </si>
   <si>
     <t xml:space="preserve">17.4462718963623</t>
@@ -3041,10 +3041,10 @@
     <t xml:space="preserve">18.0766468048096</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2897300720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4317855834961</t>
+    <t xml:space="preserve">18.2897319793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4317874908447</t>
   </si>
   <si>
     <t xml:space="preserve">18.7869262695312</t>
@@ -3059,16 +3059,16 @@
     <t xml:space="preserve">18.3252429962158</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9523468017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7747764587402</t>
+    <t xml:space="preserve">17.9523448944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7747783660889</t>
   </si>
   <si>
     <t xml:space="preserve">18.1476745605469</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9168319702148</t>
+    <t xml:space="preserve">17.9168338775635</t>
   </si>
   <si>
     <t xml:space="preserve">18.0411319732666</t>
@@ -3077,7 +3077,7 @@
     <t xml:space="preserve">17.8458042144775</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0588893890381</t>
+    <t xml:space="preserve">18.0588874816895</t>
   </si>
   <si>
     <t xml:space="preserve">17.7925338745117</t>
@@ -3086,7 +3086,7 @@
     <t xml:space="preserve">17.7481422424316</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6771144866943</t>
+    <t xml:space="preserve">17.6771125793457</t>
   </si>
   <si>
     <t xml:space="preserve">18.0056190490723</t>
@@ -3095,7 +3095,7 @@
     <t xml:space="preserve">18.0233745574951</t>
   </si>
   <si>
-    <t xml:space="preserve">17.863561630249</t>
+    <t xml:space="preserve">17.8635635375977</t>
   </si>
   <si>
     <t xml:space="preserve">17.5439357757568</t>
@@ -3113,10 +3113,10 @@
     <t xml:space="preserve">16.3719730377197</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5672988891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5761775970459</t>
+    <t xml:space="preserve">16.5673007965088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5761795043945</t>
   </si>
   <si>
     <t xml:space="preserve">16.5495414733887</t>
@@ -3137,10 +3137,10 @@
     <t xml:space="preserve">16.4252433776855</t>
   </si>
   <si>
-    <t xml:space="preserve">16.700475692749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2299175262451</t>
+    <t xml:space="preserve">16.7004776000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2299156188965</t>
   </si>
   <si>
     <t xml:space="preserve">16.3542156219482</t>
@@ -3161,7 +3161,7 @@
     <t xml:space="preserve">17.0201034545898</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6560859680176</t>
+    <t xml:space="preserve">16.6560840606689</t>
   </si>
   <si>
     <t xml:space="preserve">16.6294479370117</t>
@@ -3170,19 +3170,19 @@
     <t xml:space="preserve">16.966833114624</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8691692352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8070182800293</t>
+    <t xml:space="preserve">16.8691673278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8070201873779</t>
   </si>
   <si>
     <t xml:space="preserve">17.1799163818359</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7271137237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6738433837891</t>
+    <t xml:space="preserve">16.7271118164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6738414764404</t>
   </si>
   <si>
     <t xml:space="preserve">16.7537479400635</t>
@@ -3197,19 +3197,19 @@
     <t xml:space="preserve">16.1588897705078</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2121601104736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6883277893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8215036392212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.874773979187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1233749389648</t>
+    <t xml:space="preserve">16.212158203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.688325881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8215045928955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8747749328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1233730316162</t>
   </si>
   <si>
     <t xml:space="preserve">15.8658981323242</t>
@@ -3221,7 +3221,7 @@
     <t xml:space="preserve">16.2565517425537</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1677646636963</t>
+    <t xml:space="preserve">16.1677665710449</t>
   </si>
   <si>
     <t xml:space="preserve">16.096736907959</t>
@@ -3245,10 +3245,10 @@
     <t xml:space="preserve">16.1144943237305</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9014110565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7327184677124</t>
+    <t xml:space="preserve">15.9014101028442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7327194213867</t>
   </si>
   <si>
     <t xml:space="preserve">15.6616907119751</t>
@@ -3257,34 +3257,34 @@
     <t xml:space="preserve">15.537392616272</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6972055435181</t>
+    <t xml:space="preserve">15.6972045898438</t>
   </si>
   <si>
     <t xml:space="preserve">15.2976722717285</t>
   </si>
   <si>
-    <t xml:space="preserve">15.200008392334</t>
+    <t xml:space="preserve">15.2000102996826</t>
   </si>
   <si>
     <t xml:space="preserve">15.3154296875</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2710380554199</t>
+    <t xml:space="preserve">15.2710371017456</t>
   </si>
   <si>
     <t xml:space="preserve">14.9691677093506</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0313177108765</t>
+    <t xml:space="preserve">15.0313167572021</t>
   </si>
   <si>
     <t xml:space="preserve">15.3065509796143</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4486074447632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8925333023071</t>
+    <t xml:space="preserve">15.4486064910889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8925313949585</t>
   </si>
   <si>
     <t xml:space="preserve">15.8481407165527</t>
@@ -3296,16 +3296,16 @@
     <t xml:space="preserve">15.3420658111572</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0934658050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7028121948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9425315856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9336528778076</t>
+    <t xml:space="preserve">15.093466758728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7028112411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9425325393677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9336538314819</t>
   </si>
   <si>
     <t xml:space="preserve">14.6495409011841</t>
@@ -3320,7 +3320,7 @@
     <t xml:space="preserve">14.827112197876</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4986066818237</t>
+    <t xml:space="preserve">14.4986057281494</t>
   </si>
   <si>
     <t xml:space="preserve">14.4719705581665</t>
@@ -3329,10 +3329,10 @@
     <t xml:space="preserve">14.6229047775269</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0135593414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1112232208252</t>
+    <t xml:space="preserve">15.013560295105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1112241744995</t>
   </si>
   <si>
     <t xml:space="preserve">14.5962705612183</t>
@@ -3341,10 +3341,10 @@
     <t xml:space="preserve">14.4009428024292</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2233734130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0546817779541</t>
+    <t xml:space="preserve">14.2233724594116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0546808242798</t>
   </si>
   <si>
     <t xml:space="preserve">13.9392604827881</t>
@@ -3359,13 +3359,13 @@
     <t xml:space="preserve">14.5163640975952</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1789808273315</t>
+    <t xml:space="preserve">14.1789798736572</t>
   </si>
   <si>
     <t xml:space="preserve">13.9747743606567</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3476715087891</t>
+    <t xml:space="preserve">14.3476724624634</t>
   </si>
   <si>
     <t xml:space="preserve">14.2766437530518</t>
@@ -3377,10 +3377,10 @@
     <t xml:space="preserve">14.5341215133667</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6761770248413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9869232177734</t>
+    <t xml:space="preserve">14.6761779785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9869241714478</t>
   </si>
   <si>
     <t xml:space="preserve">14.8004760742188</t>
@@ -3392,28 +3392,28 @@
     <t xml:space="preserve">14.8626251220703</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7649612426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1733732223511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4930000305176</t>
+    <t xml:space="preserve">14.7649602890015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1733741760254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4929990768433</t>
   </si>
   <si>
     <t xml:space="preserve">15.3509435653687</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9958019256592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0401954650879</t>
+    <t xml:space="preserve">14.9958028793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0401964187622</t>
   </si>
   <si>
     <t xml:space="preserve">14.8448677062988</t>
   </si>
   <si>
-    <t xml:space="preserve">14.71169090271</t>
+    <t xml:space="preserve">14.7116899490356</t>
   </si>
   <si>
     <t xml:space="preserve">14.791597366333</t>
@@ -3425,7 +3425,7 @@
     <t xml:space="preserve">14.4098215103149</t>
   </si>
   <si>
-    <t xml:space="preserve">14.489727973938</t>
+    <t xml:space="preserve">14.4897270202637</t>
   </si>
   <si>
     <t xml:space="preserve">14.4808492660522</t>
@@ -3434,7 +3434,7 @@
     <t xml:space="preserve">14.3210353851318</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0990743637085</t>
+    <t xml:space="preserve">14.0990734100342</t>
   </si>
   <si>
     <t xml:space="preserve">14.2500076293945</t>
@@ -3452,7 +3452,7 @@
     <t xml:space="preserve">14.303279876709</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1612234115601</t>
+    <t xml:space="preserve">14.1612224578857</t>
   </si>
   <si>
     <t xml:space="preserve">14.2944011688232</t>
@@ -3482,10 +3482,10 @@
     <t xml:space="preserve">14.0280456542969</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8060827255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6462688446045</t>
+    <t xml:space="preserve">13.8060836791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6462697982788</t>
   </si>
   <si>
     <t xml:space="preserve">13.859354019165</t>
@@ -60830,7 +60830,7 @@
     </row>
     <row r="2152">
       <c r="A2152" s="1" t="n">
-        <v>45457.6494328704</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B2152" t="n">
         <v>266641</v>
@@ -60851,6 +60851,32 @@
         <v>1516</v>
       </c>
       <c r="H2152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="1" t="n">
+        <v>45460.6494791667</v>
+      </c>
+      <c r="B2153" t="n">
+        <v>143394</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>16.3700008392334</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>16.0200004577637</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>16.0499992370605</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>16.0900001525879</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>1487</v>
+      </c>
+      <c r="H2153" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ACE.MI.xlsx
+++ b/data/ACE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="1518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="1519">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,22 +47,22 @@
     <t xml:space="preserve">9.52303791046143</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18023586273193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33106899261475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37906265258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52989387512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73557472229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60531044006348</t>
+    <t xml:space="preserve">9.18023777008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33106994628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37906169891357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52989482879639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73557567596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60531139373779</t>
   </si>
   <si>
     <t xml:space="preserve">9.18709278106689</t>
@@ -77,16 +77,16 @@
     <t xml:space="preserve">8.75516223907471</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81686687469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00198078155518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01569080352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15281391143799</t>
+    <t xml:space="preserve">8.81686592102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00197887420654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01569271087646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15281200408936</t>
   </si>
   <si>
     <t xml:space="preserve">9.27622127532959</t>
@@ -95,73 +95,73 @@
     <t xml:space="preserve">9.39277362823486</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40648555755615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28307628631592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25565242767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21451759338379</t>
+    <t xml:space="preserve">9.40648746490479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28307819366455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25565433502197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21451663970947</t>
   </si>
   <si>
     <t xml:space="preserve">8.83743572235107</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39864730834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2478141784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09012699127197</t>
+    <t xml:space="preserve">8.39864921569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24781608581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09012603759766</t>
   </si>
   <si>
     <t xml:space="preserve">8.25467109680176</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48092079162598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43978500366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46720886230469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46035194396973</t>
+    <t xml:space="preserve">8.48092174530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43978404998779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46720790863037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46035289764404</t>
   </si>
   <si>
     <t xml:space="preserve">8.23410320281982</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40550518035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49463367462158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35065650939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50148868560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41236019134521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55633640289307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45349597930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37807941436768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33008861541748</t>
+    <t xml:space="preserve">8.40550422668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49463272094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35065746307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50148773193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41236114501953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55633735656738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45349788665771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37808036804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33008766174316</t>
   </si>
   <si>
     <t xml:space="preserve">8.86485958099365</t>
@@ -173,13 +173,13 @@
     <t xml:space="preserve">9.59845542907715</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70129489898682</t>
+    <t xml:space="preserve">9.70129680633545</t>
   </si>
   <si>
     <t xml:space="preserve">9.69443893432617</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76985645294189</t>
+    <t xml:space="preserve">9.76985549926758</t>
   </si>
   <si>
     <t xml:space="preserve">9.71500778198242</t>
@@ -188,28 +188,28 @@
     <t xml:space="preserve">9.36534976959229</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3105001449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22137260437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.351637840271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39962863922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49561405181885</t>
+    <t xml:space="preserve">9.31050109863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22137355804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35163879394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39962959289551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49561500549316</t>
   </si>
   <si>
     <t xml:space="preserve">9.32421398162842</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29679107666016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22822856903076</t>
+    <t xml:space="preserve">9.29678916931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22822952270508</t>
   </si>
   <si>
     <t xml:space="preserve">9.37220478057861</t>
@@ -227,13 +227,13 @@
     <t xml:space="preserve">8.54948139190674</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6180419921875</t>
+    <t xml:space="preserve">8.61804103851318</t>
   </si>
   <si>
     <t xml:space="preserve">8.68660163879395</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73459339141846</t>
+    <t xml:space="preserve">8.73459529876709</t>
   </si>
   <si>
     <t xml:space="preserve">8.80315494537354</t>
@@ -242,10 +242,10 @@
     <t xml:space="preserve">8.89913845062256</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84428977966309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81001091003418</t>
+    <t xml:space="preserve">8.8442907333374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8100118637085</t>
   </si>
   <si>
     <t xml:space="preserve">8.70031356811523</t>
@@ -254,109 +254,109 @@
     <t xml:space="preserve">8.60433006286621</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9471321105957</t>
+    <t xml:space="preserve">8.94713115692139</t>
   </si>
   <si>
     <t xml:space="preserve">8.97455596923828</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04311466217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87171363830566</t>
+    <t xml:space="preserve">9.04311656951904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87171459197998</t>
   </si>
   <si>
     <t xml:space="preserve">8.72088241577148</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65917778015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89228343963623</t>
+    <t xml:space="preserve">8.65917873382568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89228248596191</t>
   </si>
   <si>
     <t xml:space="preserve">8.85800170898438</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95398807525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06368446350098</t>
+    <t xml:space="preserve">8.95398712158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06368350982666</t>
   </si>
   <si>
     <t xml:space="preserve">9.10482025146484</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04997253417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91285133361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58376121520996</t>
+    <t xml:space="preserve">9.04997158050537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91285037994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58376216888428</t>
   </si>
   <si>
     <t xml:space="preserve">8.32323265075684</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3643684387207</t>
+    <t xml:space="preserve">8.36436748504639</t>
   </si>
   <si>
     <t xml:space="preserve">8.20667839050293</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95300579071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58277940750122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70618772506714</t>
+    <t xml:space="preserve">7.95300531387329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58277988433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70618724822998</t>
   </si>
   <si>
     <t xml:space="preserve">7.71304416656494</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87758922576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84174871444702</t>
+    <t xml:space="preserve">7.8775897026062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84174919128418</t>
   </si>
   <si>
     <t xml:space="preserve">7.79874181747437</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89909267425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80591011047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39016819000244</t>
+    <t xml:space="preserve">7.89909172058105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80590915679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3901686668396</t>
   </si>
   <si>
     <t xml:space="preserve">7.05327367782593</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18229722976685</t>
+    <t xml:space="preserve">7.182297706604</t>
   </si>
   <si>
     <t xml:space="preserve">7.31131982803345</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83458185195923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74139785766602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78440570831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66971921920776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50485563278198</t>
+    <t xml:space="preserve">7.83458137512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74139881134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78440618515015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66971778869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50485467910767</t>
   </si>
   <si>
     <t xml:space="preserve">7.46901559829712</t>
@@ -365,55 +365,55 @@
     <t xml:space="preserve">7.54786252975464</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59087085723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45467853546143</t>
+    <t xml:space="preserve">7.59087038040161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4546799659729</t>
   </si>
   <si>
     <t xml:space="preserve">7.64821481704712</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66254997253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62671089172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91342973709106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90626001358032</t>
+    <t xml:space="preserve">7.66255140304565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62670993804932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91342926025391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90626096725464</t>
   </si>
   <si>
     <t xml:space="preserve">8.38651466369629</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35784244537354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92411136627197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89543914794922</t>
+    <t xml:space="preserve">8.35784149169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92411231994629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89544105529785</t>
   </si>
   <si>
     <t xml:space="preserve">8.85960006713867</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03163051605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04596710205078</t>
+    <t xml:space="preserve">9.03163146972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04596519470215</t>
   </si>
   <si>
     <t xml:space="preserve">8.9312801361084</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90977668762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95995235443115</t>
+    <t xml:space="preserve">8.90977573394775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95995140075684</t>
   </si>
   <si>
     <t xml:space="preserve">8.79508876800537</t>
@@ -425,10 +425,10 @@
     <t xml:space="preserve">8.70907306671143</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74491310119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5872163772583</t>
+    <t xml:space="preserve">8.74491214752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58721828460693</t>
   </si>
   <si>
     <t xml:space="preserve">8.58004856109619</t>
@@ -437,28 +437,28 @@
     <t xml:space="preserve">8.56571388244629</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59438610076904</t>
+    <t xml:space="preserve">8.59438514709473</t>
   </si>
   <si>
     <t xml:space="preserve">8.53704166412354</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37934684753418</t>
+    <t xml:space="preserve">8.3793478012085</t>
   </si>
   <si>
     <t xml:space="preserve">8.46536254882812</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52270603179932</t>
+    <t xml:space="preserve">8.522705078125</t>
   </si>
   <si>
     <t xml:space="preserve">8.64456081390381</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61588954925537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50836944580078</t>
+    <t xml:space="preserve">8.61588859558105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5083703994751</t>
   </si>
   <si>
     <t xml:space="preserve">8.54420948028564</t>
@@ -467,43 +467,43 @@
     <t xml:space="preserve">8.51553726196289</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30049800872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15714073181152</t>
+    <t xml:space="preserve">8.30049896240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15713977813721</t>
   </si>
   <si>
     <t xml:space="preserve">8.17864322662354</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2646598815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09979629516602</t>
+    <t xml:space="preserve">8.26465797424316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0997953414917</t>
   </si>
   <si>
     <t xml:space="preserve">8.02094841003418</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99227619171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94210147857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96360397338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98510837554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94926881790161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92776536941528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92059707641602</t>
+    <t xml:space="preserve">7.99227523803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9421010017395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96360492706299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98510980606079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94926977157593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92776489257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92059755325317</t>
   </si>
   <si>
     <t xml:space="preserve">7.95643663406372</t>
@@ -512,22 +512,22 @@
     <t xml:space="preserve">7.93493223190308</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82024621963501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70555830001831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79157304763794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72706270217896</t>
+    <t xml:space="preserve">7.82024574279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70555734634399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79157447814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7270622253418</t>
   </si>
   <si>
     <t xml:space="preserve">7.99944448471069</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12846755981445</t>
+    <t xml:space="preserve">8.12846851348877</t>
   </si>
   <si>
     <t xml:space="preserve">8.20014762878418</t>
@@ -539,43 +539,43 @@
     <t xml:space="preserve">8.32200241088867</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45102596282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40085124969482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42235469818115</t>
+    <t xml:space="preserve">8.45102500915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40085220336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42235374450684</t>
   </si>
   <si>
     <t xml:space="preserve">8.4581937789917</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28616237640381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17147541046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25032424926758</t>
+    <t xml:space="preserve">8.28616333007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17147445678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25032234191895</t>
   </si>
   <si>
     <t xml:space="preserve">8.1499719619751</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07829284667969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56936645507812</t>
+    <t xml:space="preserve">8.07829189300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56936740875244</t>
   </si>
   <si>
     <t xml:space="preserve">7.26831340789795</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28981590270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23964166641235</t>
+    <t xml:space="preserve">7.28981637954712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23964071273804</t>
   </si>
   <si>
     <t xml:space="preserve">7.16796207427979</t>
@@ -587,28 +587,28 @@
     <t xml:space="preserve">7.16437721252441</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21813678741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35432720184326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22530460357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29698514938354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21096992492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11061716079712</t>
+    <t xml:space="preserve">7.21813631057739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35432815551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2253041267395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2969856262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21096897125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11061763763428</t>
   </si>
   <si>
     <t xml:space="preserve">7.59803915023804</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85608577728271</t>
+    <t xml:space="preserve">7.85608673095703</t>
   </si>
   <si>
     <t xml:space="preserve">8.02811622619629</t>
@@ -620,22 +620,22 @@
     <t xml:space="preserve">8.22165203094482</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21448421478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16430759429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31483554840088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30766773223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47969913482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49403381347656</t>
+    <t xml:space="preserve">8.2144832611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16430854797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31483459472656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30766677856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47969818115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49403476715088</t>
   </si>
   <si>
     <t xml:space="preserve">8.52987384796143</t>
@@ -644,46 +644,46 @@
     <t xml:space="preserve">8.73057746887207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62305545806885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67323207855225</t>
+    <t xml:space="preserve">8.62305736541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67323303222656</t>
   </si>
   <si>
     <t xml:space="preserve">8.12129878997803</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18581199645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25749111175537</t>
+    <t xml:space="preserve">8.18581104278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25749206542969</t>
   </si>
   <si>
     <t xml:space="preserve">8.19297981262207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55854415893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50120162963867</t>
+    <t xml:space="preserve">8.55854511260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50120067596436</t>
   </si>
   <si>
     <t xml:space="preserve">8.42952251434326</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44385719299316</t>
+    <t xml:space="preserve">8.44385814666748</t>
   </si>
   <si>
     <t xml:space="preserve">8.55137729644775</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60155296325684</t>
+    <t xml:space="preserve">8.60155391693115</t>
   </si>
   <si>
     <t xml:space="preserve">8.66606426239014</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57288074493408</t>
+    <t xml:space="preserve">8.5728816986084</t>
   </si>
   <si>
     <t xml:space="preserve">8.43669128417969</t>
@@ -692,22 +692,22 @@
     <t xml:space="preserve">8.8165922164917</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68756771087646</t>
+    <t xml:space="preserve">8.68756866455078</t>
   </si>
   <si>
     <t xml:space="preserve">8.76641654968262</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88827133178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95278358459473</t>
+    <t xml:space="preserve">8.88827037811279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95278167724609</t>
   </si>
   <si>
     <t xml:space="preserve">8.9957914352417</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07463932037354</t>
+    <t xml:space="preserve">9.07463836669922</t>
   </si>
   <si>
     <t xml:space="preserve">9.16782188415527</t>
@@ -725,28 +725,28 @@
     <t xml:space="preserve">9.14631843566895</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36135768890381</t>
+    <t xml:space="preserve">9.36135673522949</t>
   </si>
   <si>
     <t xml:space="preserve">9.35418891906738</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32551670074463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31834983825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23950099945068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46170902252197</t>
+    <t xml:space="preserve">9.32551860809326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3183479309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.239501953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46170806884766</t>
   </si>
   <si>
     <t xml:space="preserve">9.42586898803711</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28250885009766</t>
+    <t xml:space="preserve">9.28250980377197</t>
   </si>
   <si>
     <t xml:space="preserve">9.3685245513916</t>
@@ -758,7 +758,7 @@
     <t xml:space="preserve">9.52622032165527</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53338813781738</t>
+    <t xml:space="preserve">9.53338718414307</t>
   </si>
   <si>
     <t xml:space="preserve">9.46887683868408</t>
@@ -767,7 +767,7 @@
     <t xml:space="preserve">9.74125957489014</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59789943695068</t>
+    <t xml:space="preserve">9.597900390625</t>
   </si>
   <si>
     <t xml:space="preserve">9.74842739105225</t>
@@ -776,22 +776,22 @@
     <t xml:space="preserve">9.777099609375</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87028408050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0924892425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1498327255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95629787445068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89895534515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94913005828857</t>
+    <t xml:space="preserve">9.87028312683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0924882888794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1498317718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95629692077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89895439147949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94913101196289</t>
   </si>
   <si>
     <t xml:space="preserve">10.157000541687</t>
@@ -803,7 +803,7 @@
     <t xml:space="preserve">9.98497009277344</t>
   </si>
   <si>
-    <t xml:space="preserve">10.178503036499</t>
+    <t xml:space="preserve">10.1785039901733</t>
   </si>
   <si>
     <t xml:space="preserve">10.2645196914673</t>
@@ -815,40 +815,40 @@
     <t xml:space="preserve">10.336199760437</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4365510940552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3146953582764</t>
+    <t xml:space="preserve">10.4365520477295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3146963119507</t>
   </si>
   <si>
     <t xml:space="preserve">10.4293832778931</t>
   </si>
   <si>
-    <t xml:space="preserve">10.379207611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4150485992432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3218641281128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5082302093506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5153999328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4437189102173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5584058761597</t>
+    <t xml:space="preserve">10.3792085647583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4150476455688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3218631744385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5082311630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.515398979187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.443717956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.558406829834</t>
   </si>
   <si>
     <t xml:space="preserve">10.4078798294067</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3505363464355</t>
+    <t xml:space="preserve">10.3505353927612</t>
   </si>
   <si>
     <t xml:space="preserve">10.5227956771851</t>
@@ -857,40 +857,40 @@
     <t xml:space="preserve">10.4104509353638</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6126699447632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5078163146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4478998184204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4853467941284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1857662200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.058443069458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1183595657349</t>
+    <t xml:space="preserve">10.6126689910889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5078153610229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4478988647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4853477478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1857652664185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0584449768066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1183605194092</t>
   </si>
   <si>
     <t xml:space="preserve">9.93861198425293</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76635265350342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78133201599121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88618469238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74388313293457</t>
+    <t xml:space="preserve">9.7663516998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78133010864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88618564605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74388408660889</t>
   </si>
   <si>
     <t xml:space="preserve">9.87869453430176</t>
@@ -911,16 +911,16 @@
     <t xml:space="preserve">10.0659332275391</t>
   </si>
   <si>
-    <t xml:space="preserve">10.178277015686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0734224319458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0884008407593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96107864379883</t>
+    <t xml:space="preserve">10.1782760620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0734233856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0884017944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96107959747314</t>
   </si>
   <si>
     <t xml:space="preserve">10.0359754562378</t>
@@ -929,31 +929,31 @@
     <t xml:space="preserve">9.8187780380249</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87120628356934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84873580932617</t>
+    <t xml:space="preserve">9.87120532989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84873676300049</t>
   </si>
   <si>
     <t xml:space="preserve">9.42932319641113</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49672889709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45179080963135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46677017211914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6090726852417</t>
+    <t xml:space="preserve">9.49672794342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45179176330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46677112579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60907173156738</t>
   </si>
   <si>
     <t xml:space="preserve">9.44430160522461</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33944892883301</t>
+    <t xml:space="preserve">9.33944797515869</t>
   </si>
   <si>
     <t xml:space="preserve">9.21961688995361</t>
@@ -962,22 +962,22 @@
     <t xml:space="preserve">9.36940765380859</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37689590454102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.302001953125</t>
+    <t xml:space="preserve">9.37689685821533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30200004577637</t>
   </si>
   <si>
     <t xml:space="preserve">9.31697940826416</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2720422744751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27953147888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21212768554688</t>
+    <t xml:space="preserve">9.27204132080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27953243255615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21212673187256</t>
   </si>
   <si>
     <t xml:space="preserve">9.15970039367676</t>
@@ -989,10 +989,10 @@
     <t xml:space="preserve">9.12225246429443</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06233596801758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03237724304199</t>
+    <t xml:space="preserve">9.06233501434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03237819671631</t>
   </si>
   <si>
     <t xml:space="preserve">9.08480453491211</t>
@@ -1004,22 +1004,22 @@
     <t xml:space="preserve">9.17467880249023</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28702259063721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75137424468994</t>
+    <t xml:space="preserve">9.28702068328857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75137233734131</t>
   </si>
   <si>
     <t xml:space="preserve">9.92363166809082</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69145679473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59409236907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60158061981201</t>
+    <t xml:space="preserve">9.69145584106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59409332275391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60158157348633</t>
   </si>
   <si>
     <t xml:space="preserve">9.61656093597412</t>
@@ -1028,25 +1028,25 @@
     <t xml:space="preserve">9.73639392852783</t>
   </si>
   <si>
-    <t xml:space="preserve">9.796311378479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66898822784424</t>
+    <t xml:space="preserve">9.79631042480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66898727416992</t>
   </si>
   <si>
     <t xml:space="preserve">9.67647743225098</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72141361236572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82626724243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91614151000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85622692108154</t>
+    <t xml:space="preserve">9.72141456604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82626914978027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91614246368408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85622596740723</t>
   </si>
   <si>
     <t xml:space="preserve">9.8337574005127</t>
@@ -1055,43 +1055,43 @@
     <t xml:space="preserve">10.1558074951172</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1707859039307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2756404876709</t>
+    <t xml:space="preserve">10.1707878112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2756395339966</t>
   </si>
   <si>
     <t xml:space="preserve">10.2232131958008</t>
   </si>
   <si>
-    <t xml:space="preserve">10.358024597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4029626846313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.552752494812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4703674316406</t>
+    <t xml:space="preserve">10.3580255508423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.402961730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5527534484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4703683853149</t>
   </si>
   <si>
     <t xml:space="preserve">10.3804941177368</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5302839279175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5003252029419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8822927474976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9122495651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9347200393677</t>
+    <t xml:space="preserve">10.5302848815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5003271102905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8822917938232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9122505187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9347190856934</t>
   </si>
   <si>
     <t xml:space="preserve">10.8748025894165</t>
@@ -1100,7 +1100,7 @@
     <t xml:space="preserve">10.7999076843262</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7774391174316</t>
+    <t xml:space="preserve">10.777440071106</t>
   </si>
   <si>
     <t xml:space="preserve">10.7325019836426</t>
@@ -1109,7 +1109,7 @@
     <t xml:space="preserve">10.5976896286011</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7474822998047</t>
+    <t xml:space="preserve">10.7474803924561</t>
   </si>
   <si>
     <t xml:space="preserve">10.6950540542603</t>
@@ -1121,19 +1121,19 @@
     <t xml:space="preserve">11.002124786377</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9646768569946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0770196914673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0171051025391</t>
+    <t xml:space="preserve">10.9646778106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0770206451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0171041488647</t>
   </si>
   <si>
     <t xml:space="preserve">10.9721670150757</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9496984481812</t>
+    <t xml:space="preserve">10.9496994018555</t>
   </si>
   <si>
     <t xml:space="preserve">11.346643447876</t>
@@ -1142,19 +1142,19 @@
     <t xml:space="preserve">12.6573114395142</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7921228408813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7022485733032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7322082519531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6648015975952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6498231887817</t>
+    <t xml:space="preserve">12.79212474823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7022476196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7322072982788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6648006439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6498222351074</t>
   </si>
   <si>
     <t xml:space="preserve">12.7172288894653</t>
@@ -1163,19 +1163,19 @@
     <t xml:space="preserve">12.5524587631226</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2453880310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.148024559021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.028190612793</t>
+    <t xml:space="preserve">12.2453870773315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1480226516724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0281896591187</t>
   </si>
   <si>
     <t xml:space="preserve">12.3502407073975</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9607839584351</t>
+    <t xml:space="preserve">11.9607849121094</t>
   </si>
   <si>
     <t xml:space="preserve">11.7061405181885</t>
@@ -1184,7 +1184,7 @@
     <t xml:space="preserve">11.5563507080078</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6836729049683</t>
+    <t xml:space="preserve">11.6836719512939</t>
   </si>
   <si>
     <t xml:space="preserve">11.6612043380737</t>
@@ -1193,19 +1193,19 @@
     <t xml:space="preserve">11.533881187439</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5788192749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7585668563843</t>
+    <t xml:space="preserve">11.578818321228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7585678100586</t>
   </si>
   <si>
     <t xml:space="preserve">11.9682750701904</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0731296539307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1555128097534</t>
+    <t xml:space="preserve">12.0731287002563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1555137634277</t>
   </si>
   <si>
     <t xml:space="preserve">11.9458055496216</t>
@@ -1214,13 +1214,13 @@
     <t xml:space="preserve">11.8559322357178</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7510786056519</t>
+    <t xml:space="preserve">11.7510776519775</t>
   </si>
   <si>
     <t xml:space="preserve">11.8035049438477</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9832544326782</t>
+    <t xml:space="preserve">11.9832534790039</t>
   </si>
   <si>
     <t xml:space="preserve">12.0955972671509</t>
@@ -1232,25 +1232,25 @@
     <t xml:space="preserve">12.215428352356</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3053035736084</t>
+    <t xml:space="preserve">12.3053045272827</t>
   </si>
   <si>
     <t xml:space="preserve">12.0881061553955</t>
   </si>
   <si>
-    <t xml:space="preserve">11.990743637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9158487319946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8709115982056</t>
+    <t xml:space="preserve">11.9907445907593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9158477783203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8709106445312</t>
   </si>
   <si>
     <t xml:space="preserve">11.7136306762695</t>
   </si>
   <si>
-    <t xml:space="preserve">11.653715133667</t>
+    <t xml:space="preserve">11.6537141799927</t>
   </si>
   <si>
     <t xml:space="preserve">11.6312456130981</t>
@@ -1268,22 +1268,22 @@
     <t xml:space="preserve">11.2717485427856</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9796552658081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0994882583618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1219577789307</t>
+    <t xml:space="preserve">10.9796562194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0994892120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1219568252563</t>
   </si>
   <si>
     <t xml:space="preserve">11.196852684021</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1519145965576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0320825576782</t>
+    <t xml:space="preserve">11.1519174575806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0320835113525</t>
   </si>
   <si>
     <t xml:space="preserve">10.7250118255615</t>
@@ -1292,37 +1292,37 @@
     <t xml:space="preserve">10.515305519104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4404106140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6650953292847</t>
+    <t xml:space="preserve">10.440408706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.665096282959</t>
   </si>
   <si>
     <t xml:space="preserve">10.6875648498535</t>
   </si>
   <si>
-    <t xml:space="preserve">10.702543258667</t>
+    <t xml:space="preserve">10.7025442123413</t>
   </si>
   <si>
     <t xml:space="preserve">10.4628782272339</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5677309036255</t>
+    <t xml:space="preserve">10.5677318572998</t>
   </si>
   <si>
     <t xml:space="preserve">10.3355569839478</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1932554244995</t>
+    <t xml:space="preserve">10.1932544708252</t>
   </si>
   <si>
     <t xml:space="preserve">10.1033802032471</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2082357406616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0284862518311</t>
+    <t xml:space="preserve">10.2082347869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0284872055054</t>
   </si>
   <si>
     <t xml:space="preserve">10.1483182907104</t>
@@ -1331,58 +1331,58 @@
     <t xml:space="preserve">10.32057762146</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2606601715088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2157249450684</t>
+    <t xml:space="preserve">10.2606620788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.215723991394</t>
   </si>
   <si>
     <t xml:space="preserve">10.1333389282227</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2831296920776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4254302978516</t>
+    <t xml:space="preserve">10.283130645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4254312515259</t>
   </si>
   <si>
     <t xml:space="preserve">10.5452642440796</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6426267623901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8373556137085</t>
+    <t xml:space="preserve">10.6426277160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8373546600342</t>
   </si>
   <si>
     <t xml:space="preserve">10.8448448181152</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8073968887329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0096139907837</t>
+    <t xml:space="preserve">10.8073978424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.009614944458</t>
   </si>
   <si>
     <t xml:space="preserve">10.859824180603</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7924184799194</t>
+    <t xml:space="preserve">10.7924175262451</t>
   </si>
   <si>
     <t xml:space="preserve">10.4778575897217</t>
   </si>
   <si>
-    <t xml:space="preserve">10.739990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2906198501587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9685697555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72890472412109</t>
+    <t xml:space="preserve">10.7399911880493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2906188964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96856880187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72890377044678</t>
   </si>
   <si>
     <t xml:space="preserve">9.99103736877441</t>
@@ -1394,22 +1394,22 @@
     <t xml:space="preserve">10.2438812255859</t>
   </si>
   <si>
-    <t xml:space="preserve">10.275279045105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2203330993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0790376663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1182851791382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0162382125854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0319385528564</t>
+    <t xml:space="preserve">10.2752799987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2203311920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0790367126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1182861328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0162391662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0319395065308</t>
   </si>
   <si>
     <t xml:space="preserve">9.99269008636475</t>
@@ -1424,16 +1424,16 @@
     <t xml:space="preserve">9.97699069976807</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1653823852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2595796585083</t>
+    <t xml:space="preserve">10.1653833389282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2595806121826</t>
   </si>
   <si>
     <t xml:space="preserve">10.3930253982544</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1889333724976</t>
+    <t xml:space="preserve">10.1889324188232</t>
   </si>
   <si>
     <t xml:space="preserve">10.0711870193481</t>
@@ -1445,7 +1445,7 @@
     <t xml:space="preserve">10.2046327590942</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2517309188843</t>
+    <t xml:space="preserve">10.25172996521</t>
   </si>
   <si>
     <t xml:space="preserve">10.0868864059448</t>
@@ -1457,10 +1457,10 @@
     <t xml:space="preserve">10.377326965332</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4401245117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4087266921997</t>
+    <t xml:space="preserve">10.4401235580444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4087238311768</t>
   </si>
   <si>
     <t xml:space="preserve">10.6206674575806</t>
@@ -1469,7 +1469,7 @@
     <t xml:space="preserve">10.7305631637573</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5735683441162</t>
+    <t xml:space="preserve">10.5735692977905</t>
   </si>
   <si>
     <t xml:space="preserve">10.6363668441772</t>
@@ -1478,7 +1478,7 @@
     <t xml:space="preserve">10.6756153106689</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7070150375366</t>
+    <t xml:space="preserve">10.7070140838623</t>
   </si>
   <si>
     <t xml:space="preserve">10.5892677307129</t>
@@ -1487,34 +1487,34 @@
     <t xml:space="preserve">10.683464050293</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5421705245972</t>
+    <t xml:space="preserve">10.5421714782715</t>
   </si>
   <si>
     <t xml:space="preserve">10.4558229446411</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5107717514038</t>
+    <t xml:space="preserve">10.5107727050781</t>
   </si>
   <si>
     <t xml:space="preserve">10.2909784317017</t>
   </si>
   <si>
-    <t xml:space="preserve">10.338077545166</t>
+    <t xml:space="preserve">10.3380784988403</t>
   </si>
   <si>
     <t xml:space="preserve">10.267430305481</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2281818389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0554866790771</t>
+    <t xml:space="preserve">10.2281799316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0554885864258</t>
   </si>
   <si>
     <t xml:space="preserve">9.75719833374023</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63945198059082</t>
+    <t xml:space="preserve">9.63945293426514</t>
   </si>
   <si>
     <t xml:space="preserve">9.60020446777344</t>
@@ -1523,25 +1523,22 @@
     <t xml:space="preserve">9.71794891357422</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92989349365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96914100646973</t>
+    <t xml:space="preserve">9.92989063262939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96914005279541</t>
   </si>
   <si>
     <t xml:space="preserve">10.1104354858398</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2124814987183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.283130645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3851747512817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4244241714478</t>
+    <t xml:space="preserve">10.2124824523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3851757049561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4244232177734</t>
   </si>
   <si>
     <t xml:space="preserve">10.3694763183594</t>
@@ -1550,10 +1547,10 @@
     <t xml:space="preserve">10.1339845657349</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0083894729614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1418352127075</t>
+    <t xml:space="preserve">10.0083885192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1418342590332</t>
   </si>
   <si>
     <t xml:space="preserve">9.6708517074585</t>
@@ -1562,16 +1559,16 @@
     <t xml:space="preserve">9.61590385437012</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41181087493896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38041210174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28621578216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50600814819336</t>
+    <t xml:space="preserve">9.41180992126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38041114807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28621482849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50600719451904</t>
   </si>
   <si>
     <t xml:space="preserve">9.39611148834229</t>
@@ -1592,13 +1589,13 @@
     <t xml:space="preserve">8.91727828979492</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92512893676758</t>
+    <t xml:space="preserve">8.92512798309326</t>
   </si>
   <si>
     <t xml:space="preserve">8.7759838104248</t>
   </si>
   <si>
-    <t xml:space="preserve">9.011474609375</t>
+    <t xml:space="preserve">9.01147556304932</t>
   </si>
   <si>
     <t xml:space="preserve">9.027174949646</t>
@@ -1607,13 +1604,13 @@
     <t xml:space="preserve">9.11352062225342</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16061973571777</t>
+    <t xml:space="preserve">9.16062068939209</t>
   </si>
   <si>
     <t xml:space="preserve">9.27051639556885</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24696731567383</t>
+    <t xml:space="preserve">9.24696636199951</t>
   </si>
   <si>
     <t xml:space="preserve">9.40396118164062</t>
@@ -1628,16 +1625,16 @@
     <t xml:space="preserve">10.0476379394531</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0240888595581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74149990081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74934864044189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5766544342041</t>
+    <t xml:space="preserve">10.0240898132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74149799346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74934768676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57665538787842</t>
   </si>
   <si>
     <t xml:space="preserve">9.46675968170166</t>
@@ -1649,19 +1646,19 @@
     <t xml:space="preserve">9.34116363525391</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42751026153564</t>
+    <t xml:space="preserve">9.42751121520996</t>
   </si>
   <si>
     <t xml:space="preserve">9.4196605682373</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29406547546387</t>
+    <t xml:space="preserve">9.29406452178955</t>
   </si>
   <si>
     <t xml:space="preserve">9.25481605529785</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33331394195557</t>
+    <t xml:space="preserve">9.33331489562988</t>
   </si>
   <si>
     <t xml:space="preserve">9.08212280273438</t>
@@ -1679,28 +1676,28 @@
     <t xml:space="preserve">9.0664234161377</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26266670227051</t>
+    <t xml:space="preserve">9.26266574859619</t>
   </si>
   <si>
     <t xml:space="preserve">9.35686302185059</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53740501403809</t>
+    <t xml:space="preserve">9.5374059677124</t>
   </si>
   <si>
     <t xml:space="preserve">9.27836513519287</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4353609085083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60805320739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77289772033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79644584655762</t>
+    <t xml:space="preserve">9.43535995483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60805416107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7728967666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79644680023193</t>
   </si>
   <si>
     <t xml:space="preserve">9.85139560699463</t>
@@ -1727,10 +1724,10 @@
     <t xml:space="preserve">10.6913146972656</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6285161972046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6520662307739</t>
+    <t xml:space="preserve">10.6285171508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6520652770996</t>
   </si>
   <si>
     <t xml:space="preserve">10.5264711380005</t>
@@ -1742,28 +1739,28 @@
     <t xml:space="preserve">10.9582052230835</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9032573699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9268074035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.793360710144</t>
+    <t xml:space="preserve">10.9032564163208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9268064498901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7933616638184</t>
   </si>
   <si>
     <t xml:space="preserve">10.9111061096191</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8954076766968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0838012695312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3271417617798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4213390350342</t>
+    <t xml:space="preserve">10.8954067230225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0838003158569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3271427154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4213380813599</t>
   </si>
   <si>
     <t xml:space="preserve">11.7353267669678</t>
@@ -1775,10 +1772,10 @@
     <t xml:space="preserve">11.7667255401611</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8138236999512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7274770736694</t>
+    <t xml:space="preserve">11.8138246536255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7274780273438</t>
   </si>
   <si>
     <t xml:space="preserve">11.8452234268188</t>
@@ -1787,7 +1784,7 @@
     <t xml:space="preserve">11.8216743469238</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9158697128296</t>
+    <t xml:space="preserve">11.9158706665039</t>
   </si>
   <si>
     <t xml:space="preserve">11.8609228134155</t>
@@ -1805,19 +1802,19 @@
     <t xml:space="preserve">11.8530731201172</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8295240402222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0728645324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5595483779907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5752477645874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7165422439575</t>
+    <t xml:space="preserve">11.8295230865479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.072865486145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5595474243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5752468109131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7165431976318</t>
   </si>
   <si>
     <t xml:space="preserve">12.5124483108521</t>
@@ -1826,52 +1823,52 @@
     <t xml:space="preserve">12.6537446975708</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6380462646484</t>
+    <t xml:space="preserve">12.6380453109741</t>
   </si>
   <si>
     <t xml:space="preserve">12.4967498779297</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3397560119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1513614654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1670618057251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3711547851562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5909471511841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6223449707031</t>
+    <t xml:space="preserve">12.3397550582886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1513624191284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1670627593994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3711538314819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5909461975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6223459243774</t>
   </si>
   <si>
     <t xml:space="preserve">12.7008428573608</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6851444244385</t>
+    <t xml:space="preserve">12.6851434707642</t>
   </si>
   <si>
     <t xml:space="preserve">12.842137336731</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7636404037476</t>
+    <t xml:space="preserve">12.7636394500732</t>
   </si>
   <si>
     <t xml:space="preserve">13.1090278625488</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2032251358032</t>
+    <t xml:space="preserve">13.2032241821289</t>
   </si>
   <si>
     <t xml:space="preserve">13.3916168212891</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2503213882446</t>
+    <t xml:space="preserve">13.2503232955933</t>
   </si>
   <si>
     <t xml:space="preserve">13.1247262954712</t>
@@ -1883,7 +1880,7 @@
     <t xml:space="preserve">12.9834337234497</t>
   </si>
   <si>
-    <t xml:space="preserve">12.92063331604</t>
+    <t xml:space="preserve">12.9206352233887</t>
   </si>
   <si>
     <t xml:space="preserve">13.0462303161621</t>
@@ -1892,7 +1889,7 @@
     <t xml:space="preserve">13.1561260223389</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1718263626099</t>
+    <t xml:space="preserve">13.1718273162842</t>
   </si>
   <si>
     <t xml:space="preserve">13.0933284759521</t>
@@ -1901,7 +1898,7 @@
     <t xml:space="preserve">13.1404256820679</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0619297027588</t>
+    <t xml:space="preserve">13.0619287490845</t>
   </si>
   <si>
     <t xml:space="preserve">13.3445196151733</t>
@@ -1916,7 +1913,7 @@
     <t xml:space="preserve">13.6114110946655</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6585073471069</t>
+    <t xml:space="preserve">13.6585063934326</t>
   </si>
   <si>
     <t xml:space="preserve">13.7527046203613</t>
@@ -1925,49 +1922,49 @@
     <t xml:space="preserve">13.831202507019</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8468999862671</t>
+    <t xml:space="preserve">13.8469009399414</t>
   </si>
   <si>
     <t xml:space="preserve">13.8626003265381</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9253978729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0038948059082</t>
+    <t xml:space="preserve">13.9253988265991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0038967132568</t>
   </si>
   <si>
     <t xml:space="preserve">13.9724950790405</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0509929656982</t>
+    <t xml:space="preserve">14.0509920120239</t>
   </si>
   <si>
     <t xml:space="preserve">14.1736040115356</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0101232528687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9774293899536</t>
+    <t xml:space="preserve">14.0101222991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9774284362793</t>
   </si>
   <si>
     <t xml:space="preserve">13.6995143890381</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6831665039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6177749633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7649068832397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1572542190552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0755157470703</t>
+    <t xml:space="preserve">13.6831655502319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6177759170532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7649059295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1572551727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.075514793396</t>
   </si>
   <si>
     <t xml:space="preserve">13.8629922866821</t>
@@ -1976,13 +1973,13 @@
     <t xml:space="preserve">13.9120378494263</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0918636322021</t>
+    <t xml:space="preserve">14.0918645858765</t>
   </si>
   <si>
     <t xml:space="preserve">14.0264711380005</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2389936447144</t>
+    <t xml:space="preserve">14.2389945983887</t>
   </si>
   <si>
     <t xml:space="preserve">14.1409063339233</t>
@@ -1991,13 +1988,13 @@
     <t xml:space="preserve">14.1245603561401</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1899518966675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.304386138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0428190231323</t>
+    <t xml:space="preserve">14.1899509429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3043851852417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0428199768066</t>
   </si>
   <si>
     <t xml:space="preserve">14.0591678619385</t>
@@ -2009,10 +2006,10 @@
     <t xml:space="preserve">14.271689414978</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2062978744507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2553415298462</t>
+    <t xml:space="preserve">14.206298828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2553434371948</t>
   </si>
   <si>
     <t xml:space="preserve">14.4515171051025</t>
@@ -2021,7 +2018,7 @@
     <t xml:space="preserve">14.500560760498</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4351692199707</t>
+    <t xml:space="preserve">14.4351682662964</t>
   </si>
   <si>
     <t xml:space="preserve">14.3534278869629</t>
@@ -2030,16 +2027,16 @@
     <t xml:space="preserve">14.5332565307617</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4842119216919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4678659439087</t>
+    <t xml:space="preserve">14.4842128753662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4678649902344</t>
   </si>
   <si>
     <t xml:space="preserve">14.402473449707</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3207330703735</t>
+    <t xml:space="preserve">14.3207340240479</t>
   </si>
   <si>
     <t xml:space="preserve">14.5496025085449</t>
@@ -2051,31 +2048,31 @@
     <t xml:space="preserve">13.9447317123413</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2226467132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.879340171814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8765640258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.745777130127</t>
+    <t xml:space="preserve">14.2226448059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8793411254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8765630722046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7457799911499</t>
   </si>
   <si>
     <t xml:space="preserve">14.9256057739258</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7621259689331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.974648475647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3370819091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5822992324829</t>
+    <t xml:space="preserve">14.7621250152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9746465682983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.337082862854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5823011398315</t>
   </si>
   <si>
     <t xml:space="preserve">14.5659523010254</t>
@@ -2084,472 +2081,475 @@
     <t xml:space="preserve">14.2880382537842</t>
   </si>
   <si>
+    <t xml:space="preserve">14.6803855895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6640396118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6967334747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6476907730103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5169076919556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2198667526245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4160423278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9909963607788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.203519821167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4487361907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2362146377563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.072735786438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3343000411987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4323873519897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8929090499878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9092578887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8602132797241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2525615692139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4814338684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5468244552612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2852592468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1381273269653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1054306030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0563869476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9582996368408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7784738540649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6313409805298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3506498336792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9882173538208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0045642852783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1843910217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3887386322021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6339588165283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5113487243652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5930862426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0017833709717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2061328887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6148300170898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8191757202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7374401092529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4513511657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3696136474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2878723144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.16526222229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0426540374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0835208892822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8383045196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8791751861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5739593505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5522193908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.298828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4296092987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9391736984253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5795202255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8247385025024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0536060333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0699558258057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0782957077026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6859474182129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9203767776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2963781356812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5934200286865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6588106155396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1356782913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2828102111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5443754196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6751585006714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6723794937134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8358573913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7214221954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0974225997925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8685531616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0565528869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3998584747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1955118179321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1546411514282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1791620254517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2445526123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5142946243286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9829883575439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8113355636597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8603801727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.778639793396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6315088272095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1055974960327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5796852111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4652509689331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7513380050659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2417755126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8330774307251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4080324172974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7349910736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9802093505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.413426399231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7485580444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8956890106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6913404464722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7567319869995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7240371704102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1163854598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2635164260864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1817770004272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3452548980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0482130050659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.26891040802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3669967651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5304756164551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9664735794067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9010829925537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.476037979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4433431625366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9174308776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7049083709717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6547508239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8769226074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5265760421753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3727655410767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5522117614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8171081542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6034822463989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8427429199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9794645309448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8683776855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9623737335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7743825912476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.518030166626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.466760635376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.304404258728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1676845550537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3300409317017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7060213088989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5436668395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7487468719482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5863904953003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1505928039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9284219741821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1164150238037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7402019500732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6120271682739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8598327636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0905485153198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4067153930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9367389678955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9538288116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9709186553955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3212642669678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2870845794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3554458618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.560525894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2443599700928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1418190002441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8512878417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0649137496948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0392799377441</t>
+  </si>
+  <si>
     <t xml:space="preserve">14.6803865432739</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6640396118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6967334747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6476898193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5169086456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2198677062988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4160413742065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9909963607788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2035188674927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4487371444702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2362127304077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.072735786438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3343019485474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4323863983154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8929090499878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9092559814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8602142333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2525634765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4814329147339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5468235015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2852582931519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.138126373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1054306030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0563888549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9583015441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7784738540649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6313428878784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3506488800049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9882164001465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0045642852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1843891143799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3887386322021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6339588165283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5113487243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5930862426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0017833709717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2061309814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6148262023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8191757202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7374401092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4513511657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3696117401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2878723144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.16526222229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0426559448242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0835247039795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.838306427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8791751861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5739593505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5522174835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2988262176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4296092987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9391717910767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5795192718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8247365951538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0536079406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0699558258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0782957077026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6859474182129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9203767776489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2963781356812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5934200286865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6588106155396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1356782913208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2828092575073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.544376373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6751585006714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6723785400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8358573913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7214212417603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0974235534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8685531616211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0565538406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3998584747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1955099105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1546401977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1791620254517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2445545196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5142955780029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9829883575439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8113355636597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8603792190552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.778639793396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6315088272095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1055974960327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.579686164856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4652509689331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7513380050659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2417736053467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8330774307251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4080324172974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7349901199341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9802093505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4134273529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7485589981079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8956890106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6913404464722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7567319869995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7240371704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1163864135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2635164260864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1817779541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3452548980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0482139587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2689113616943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3669967651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5304746627808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9664745330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9010820388794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.476037979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4433422088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9174308776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7049083709717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6547508239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8769226074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5265760421753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3727655410767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5522117614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8171091079712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6034822463989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8427438735962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9794635772705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8683776855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9623737335205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7743825912476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5180311203003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.466760635376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.304404258728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1676845550537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3300399780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7060222625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5436668395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7487478256226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5863904953003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1505928039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9284229278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1164150238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7402029037476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6120271682739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8598318099976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0905485153198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4067163467407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9367380142212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9538288116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9709186553955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3212642669678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2870845794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3554449081421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5605268478394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2443599700928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1418190002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8512868881226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0649127960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0392789840698</t>
-  </si>
-  <si>
     <t xml:space="preserve">14.8940134048462</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1674537658691</t>
+    <t xml:space="preserve">15.1674556732178</t>
   </si>
   <si>
     <t xml:space="preserve">15.0136442184448</t>
@@ -2564,13 +2564,13 @@
     <t xml:space="preserve">14.9025583267212</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2529058456421</t>
+    <t xml:space="preserve">15.2529067993164</t>
   </si>
   <si>
     <t xml:space="preserve">15.0050973892212</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9111022949219</t>
+    <t xml:space="preserve">14.9111032485962</t>
   </si>
   <si>
     <t xml:space="preserve">15.3127193450928</t>
@@ -2582,46 +2582,46 @@
     <t xml:space="preserve">15.43235206604</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0307340621948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7829256057739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9880084991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1930894851685</t>
+    <t xml:space="preserve">15.0307350158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7829265594482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9880094528198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1930904388428</t>
   </si>
   <si>
     <t xml:space="preserve">15.48362159729</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3639898300171</t>
+    <t xml:space="preserve">15.3639907836914</t>
   </si>
   <si>
     <t xml:space="preserve">15.3810806274414</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5690717697144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4152612686157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3298120498657</t>
+    <t xml:space="preserve">15.56907081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4152603149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3298110961914</t>
   </si>
   <si>
     <t xml:space="preserve">15.3041744232178</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5092554092407</t>
+    <t xml:space="preserve">15.509256362915</t>
   </si>
   <si>
     <t xml:space="preserve">15.5348930358887</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8510570526123</t>
+    <t xml:space="preserve">15.8510589599609</t>
   </si>
   <si>
     <t xml:space="preserve">15.6887035369873</t>
@@ -2633,7 +2633,7 @@
     <t xml:space="preserve">15.2785396575928</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1503648757935</t>
+    <t xml:space="preserve">15.1503639221191</t>
   </si>
   <si>
     <t xml:space="preserve">14.7231121063232</t>
@@ -2642,7 +2642,7 @@
     <t xml:space="preserve">14.6718416213989</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6974773406982</t>
+    <t xml:space="preserve">14.6974763870239</t>
   </si>
   <si>
     <t xml:space="preserve">14.7914714813232</t>
@@ -2657,10 +2657,10 @@
     <t xml:space="preserve">15.2187252044678</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2614507675171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0221900939941</t>
+    <t xml:space="preserve">15.2614517211914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0221891403198</t>
   </si>
   <si>
     <t xml:space="preserve">14.9196481704712</t>
@@ -2669,7 +2669,7 @@
     <t xml:space="preserve">14.9452838897705</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5007104873657</t>
+    <t xml:space="preserve">15.5007095336914</t>
   </si>
   <si>
     <t xml:space="preserve">15.0820035934448</t>
@@ -2681,19 +2681,19 @@
     <t xml:space="preserve">14.253134727478</t>
   </si>
   <si>
-    <t xml:space="preserve">14.184775352478</t>
+    <t xml:space="preserve">14.1847743988037</t>
   </si>
   <si>
     <t xml:space="preserve">14.2104082107544</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1078691482544</t>
+    <t xml:space="preserve">14.1078681945801</t>
   </si>
   <si>
     <t xml:space="preserve">13.9198789596558</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9369678497314</t>
+    <t xml:space="preserve">13.9369668960571</t>
   </si>
   <si>
     <t xml:space="preserve">13.9626035690308</t>
@@ -2714,19 +2714,19 @@
     <t xml:space="preserve">14.7316570281982</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8341989517212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8256540298462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5778455734253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2018642425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.236044883728</t>
+    <t xml:space="preserve">14.8341979980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8256530761719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.577844619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.201865196228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2360439300537</t>
   </si>
   <si>
     <t xml:space="preserve">14.287314414978</t>
@@ -2753,25 +2753,25 @@
     <t xml:space="preserve">14.7572927474976</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6889324188232</t>
+    <t xml:space="preserve">14.6889314651489</t>
   </si>
   <si>
     <t xml:space="preserve">14.355673789978</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0651435852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0736875534058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9796943664551</t>
+    <t xml:space="preserve">14.0651426315308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0736885070801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9796934127808</t>
   </si>
   <si>
     <t xml:space="preserve">13.9540576934814</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0565996170044</t>
+    <t xml:space="preserve">14.0565986633301</t>
   </si>
   <si>
     <t xml:space="preserve">13.7746124267578</t>
@@ -2801,19 +2801,19 @@
     <t xml:space="preserve">16.0988636016846</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0732307434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9279623031616</t>
+    <t xml:space="preserve">16.0732288360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9279632568359</t>
   </si>
   <si>
     <t xml:space="preserve">15.7485179901123</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7656087875366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9194173812866</t>
+    <t xml:space="preserve">15.7656097412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9194164276123</t>
   </si>
   <si>
     <t xml:space="preserve">16.0903186798096</t>
@@ -2825,13 +2825,13 @@
     <t xml:space="preserve">16.7226524353027</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3723049163818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1843166351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3295822143555</t>
+    <t xml:space="preserve">16.3723068237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1843147277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3295803070068</t>
   </si>
   <si>
     <t xml:space="preserve">16.3210353851318</t>
@@ -2849,7 +2849,7 @@
     <t xml:space="preserve">16.1928615570068</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1159534454346</t>
+    <t xml:space="preserve">16.1159553527832</t>
   </si>
   <si>
     <t xml:space="preserve">16.1501350402832</t>
@@ -2864,7 +2864,7 @@
     <t xml:space="preserve">16.4064865112305</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5859336853027</t>
+    <t xml:space="preserve">16.5859317779541</t>
   </si>
   <si>
     <t xml:space="preserve">16.8081035614014</t>
@@ -2873,10 +2873,10 @@
     <t xml:space="preserve">16.6799278259277</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6201114654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6970195770264</t>
+    <t xml:space="preserve">16.6201133728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6970176696777</t>
   </si>
   <si>
     <t xml:space="preserve">16.7824668884277</t>
@@ -2891,7 +2891,7 @@
     <t xml:space="preserve">16.4235744476318</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4406661987305</t>
+    <t xml:space="preserve">16.4406642913818</t>
   </si>
   <si>
     <t xml:space="preserve">16.5602970123291</t>
@@ -2900,7 +2900,7 @@
     <t xml:space="preserve">16.6542911529541</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5944786071777</t>
+    <t xml:space="preserve">16.5944766998291</t>
   </si>
   <si>
     <t xml:space="preserve">16.5090255737305</t>
@@ -2924,7 +2924,7 @@
     <t xml:space="preserve">17.4318904876709</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6027946472168</t>
+    <t xml:space="preserve">17.6027927398682</t>
   </si>
   <si>
     <t xml:space="preserve">17.7736911773682</t>
@@ -4566,6 +4566,9 @@
   </si>
   <si>
     <t xml:space="preserve">16.2199993133545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3799991607666</t>
   </si>
 </sst>
 </file>
@@ -22891,7 +22894,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G692" t="s">
-        <v>507</v>
+        <v>442</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -22917,7 +22920,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G693" t="s">
-        <v>507</v>
+        <v>442</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -23021,7 +23024,7 @@
         <v>13.2299995422363</v>
       </c>
       <c r="G697" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -23047,7 +23050,7 @@
         <v>13.2799997329712</v>
       </c>
       <c r="G698" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -23099,7 +23102,7 @@
         <v>13.210000038147</v>
       </c>
       <c r="G700" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -23125,7 +23128,7 @@
         <v>12.9099998474121</v>
       </c>
       <c r="G701" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -23151,7 +23154,7 @@
         <v>12.75</v>
       </c>
       <c r="G702" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -23177,7 +23180,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G703" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -23307,7 +23310,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G708" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -23333,7 +23336,7 @@
         <v>12.25</v>
       </c>
       <c r="G709" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -23359,7 +23362,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G710" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -23385,7 +23388,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G711" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -23411,7 +23414,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G712" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -23437,7 +23440,7 @@
         <v>12.1099996566772</v>
       </c>
       <c r="G713" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -23463,7 +23466,7 @@
         <v>11.9700002670288</v>
       </c>
       <c r="G714" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -23489,7 +23492,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G715" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -23515,7 +23518,7 @@
         <v>11.6400003433228</v>
       </c>
       <c r="G716" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -23541,7 +23544,7 @@
         <v>11.5900001525879</v>
       </c>
       <c r="G717" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -23567,7 +23570,7 @@
         <v>11.3299999237061</v>
       </c>
       <c r="G718" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -23593,7 +23596,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G719" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -23619,7 +23622,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G720" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -23645,7 +23648,7 @@
         <v>11.1800003051758</v>
       </c>
       <c r="G721" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -23671,7 +23674,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G722" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -23697,7 +23700,7 @@
         <v>11.5</v>
       </c>
       <c r="G723" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -23723,7 +23726,7 @@
         <v>11.6099996566772</v>
       </c>
       <c r="G724" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -23749,7 +23752,7 @@
         <v>11.6700000762939</v>
       </c>
       <c r="G725" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -23775,7 +23778,7 @@
         <v>11.8100004196167</v>
       </c>
       <c r="G726" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -23801,7 +23804,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G727" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -23827,7 +23830,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G728" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -23853,7 +23856,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G729" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -23879,7 +23882,7 @@
         <v>11.8699998855591</v>
       </c>
       <c r="G730" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -23905,7 +23908,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G731" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -23931,7 +23934,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G732" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -23957,7 +23960,7 @@
         <v>12.7700004577637</v>
       </c>
       <c r="G733" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -24009,7 +24012,7 @@
         <v>12.4099998474121</v>
       </c>
       <c r="G735" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -24035,7 +24038,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G736" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -24061,7 +24064,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G737" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -24087,7 +24090,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G738" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -24113,7 +24116,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G739" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -24139,7 +24142,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G740" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -24165,7 +24168,7 @@
         <v>12.0100002288818</v>
       </c>
       <c r="G741" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -24191,7 +24194,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G742" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -24217,7 +24220,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G743" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -24243,7 +24246,7 @@
         <v>12</v>
       </c>
       <c r="G744" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -24269,7 +24272,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G745" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -24295,7 +24298,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G746" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -24321,7 +24324,7 @@
         <v>12</v>
       </c>
       <c r="G747" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -24347,7 +24350,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G748" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -24373,7 +24376,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G749" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -24399,7 +24402,7 @@
         <v>11.789999961853</v>
       </c>
       <c r="G750" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -24425,7 +24428,7 @@
         <v>11.8900003433228</v>
       </c>
       <c r="G751" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -24451,7 +24454,7 @@
         <v>11.5699996948242</v>
       </c>
       <c r="G752" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -24477,7 +24480,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G753" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -24503,7 +24506,7 @@
         <v>11.8100004196167</v>
       </c>
       <c r="G754" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -24529,7 +24532,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G755" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -24555,7 +24558,7 @@
         <v>12.1300001144409</v>
       </c>
       <c r="G756" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -24581,7 +24584,7 @@
         <v>11.75</v>
       </c>
       <c r="G757" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -24607,7 +24610,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G758" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -24633,7 +24636,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G759" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -24659,7 +24662,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G760" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -24685,7 +24688,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G761" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -24711,7 +24714,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G762" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -24737,7 +24740,7 @@
         <v>12.0100002288818</v>
       </c>
       <c r="G763" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -24763,7 +24766,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G764" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -24789,7 +24792,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G765" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -24815,7 +24818,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G766" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -24841,7 +24844,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G767" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -24867,7 +24870,7 @@
         <v>12.2399997711182</v>
       </c>
       <c r="G768" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -24893,7 +24896,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G769" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -24919,7 +24922,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G770" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -24945,7 +24948,7 @@
         <v>12.4799995422363</v>
       </c>
       <c r="G771" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -24971,7 +24974,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G772" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -25075,7 +25078,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G776" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -25179,7 +25182,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G780" t="s">
-        <v>507</v>
+        <v>442</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -25205,7 +25208,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G781" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -25231,7 +25234,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G782" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -25387,7 +25390,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G788" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -25413,7 +25416,7 @@
         <v>13.5</v>
       </c>
       <c r="G789" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -25439,7 +25442,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G790" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -25465,7 +25468,7 @@
         <v>13.1800003051758</v>
       </c>
       <c r="G791" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -25517,7 +25520,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G793" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -25543,7 +25546,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G794" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -25569,7 +25572,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G795" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -25595,7 +25598,7 @@
         <v>13.539999961853</v>
       </c>
       <c r="G796" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -25621,7 +25624,7 @@
         <v>13.5699996948242</v>
       </c>
       <c r="G797" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -25647,7 +25650,7 @@
         <v>13.4099998474121</v>
       </c>
       <c r="G798" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -25699,7 +25702,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G800" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -25725,7 +25728,7 @@
         <v>13.960000038147</v>
       </c>
       <c r="G801" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -25751,7 +25754,7 @@
         <v>13.8900003433228</v>
       </c>
       <c r="G802" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -25777,7 +25780,7 @@
         <v>13.9200000762939</v>
       </c>
       <c r="G803" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -25803,7 +25806,7 @@
         <v>13.75</v>
       </c>
       <c r="G804" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -25829,7 +25832,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G805" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -25855,7 +25858,7 @@
         <v>13.8800001144409</v>
       </c>
       <c r="G806" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -25881,7 +25884,7 @@
         <v>14.1199998855591</v>
       </c>
       <c r="G807" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -25907,7 +25910,7 @@
         <v>14.4300003051758</v>
       </c>
       <c r="G808" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -25933,7 +25936,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G809" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -25959,7 +25962,7 @@
         <v>14.9499998092651</v>
       </c>
       <c r="G810" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -25985,7 +25988,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G811" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -26011,7 +26014,7 @@
         <v>14.9899997711182</v>
       </c>
       <c r="G812" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -26037,7 +26040,7 @@
         <v>15.0500001907349</v>
       </c>
       <c r="G813" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -26063,7 +26066,7 @@
         <v>14.9399995803833</v>
       </c>
       <c r="G814" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -26089,7 +26092,7 @@
         <v>15.0900001525879</v>
       </c>
       <c r="G815" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -26115,7 +26118,7 @@
         <v>15.0600004196167</v>
       </c>
       <c r="G816" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -26141,7 +26144,7 @@
         <v>15.0900001525879</v>
       </c>
       <c r="G817" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -26167,7 +26170,7 @@
         <v>15.1800003051758</v>
       </c>
       <c r="G818" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -26193,7 +26196,7 @@
         <v>14.9399995803833</v>
       </c>
       <c r="G819" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -26219,7 +26222,7 @@
         <v>15.1099996566772</v>
       </c>
       <c r="G820" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -26245,7 +26248,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G821" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -26271,7 +26274,7 @@
         <v>14.9899997711182</v>
       </c>
       <c r="G822" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -26297,7 +26300,7 @@
         <v>15.1499996185303</v>
       </c>
       <c r="G823" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -26323,7 +26326,7 @@
         <v>15.1300001144409</v>
       </c>
       <c r="G824" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -26349,7 +26352,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G825" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -26375,7 +26378,7 @@
         <v>15.0699996948242</v>
       </c>
       <c r="G826" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -26401,7 +26404,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G827" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -26427,7 +26430,7 @@
         <v>15.3800001144409</v>
       </c>
       <c r="G828" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -26453,7 +26456,7 @@
         <v>16</v>
       </c>
       <c r="G829" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -26479,7 +26482,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G830" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -26505,7 +26508,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G831" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -26531,7 +26534,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G832" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -26557,7 +26560,7 @@
         <v>15.9399995803833</v>
       </c>
       <c r="G833" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -26583,7 +26586,7 @@
         <v>16.1200008392334</v>
       </c>
       <c r="G834" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -26609,7 +26612,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G835" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -26635,7 +26638,7 @@
         <v>15.9200000762939</v>
       </c>
       <c r="G836" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -26661,7 +26664,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G837" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -26687,7 +26690,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G838" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -26713,7 +26716,7 @@
         <v>15.4799995422363</v>
       </c>
       <c r="G839" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -26739,7 +26742,7 @@
         <v>15.5</v>
       </c>
       <c r="G840" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -26765,7 +26768,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G841" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -26791,7 +26794,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G842" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -26817,7 +26820,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G843" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -26843,7 +26846,7 @@
         <v>16.0400009155273</v>
       </c>
       <c r="G844" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -26869,7 +26872,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G845" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -26895,7 +26898,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G846" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -26921,7 +26924,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G847" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -26947,7 +26950,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G848" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -26973,7 +26976,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G849" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -26999,7 +27002,7 @@
         <v>16.3600006103516</v>
       </c>
       <c r="G850" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -27025,7 +27028,7 @@
         <v>16.3600006103516</v>
       </c>
       <c r="G851" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -27051,7 +27054,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G852" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -27077,7 +27080,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G853" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -27103,7 +27106,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G854" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -27129,7 +27132,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G855" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -27155,7 +27158,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G856" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -27181,7 +27184,7 @@
         <v>16.7199993133545</v>
       </c>
       <c r="G857" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -27207,7 +27210,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G858" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -27233,7 +27236,7 @@
         <v>16.5400009155273</v>
       </c>
       <c r="G859" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -27259,7 +27262,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G860" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -27285,7 +27288,7 @@
         <v>16.6200008392334</v>
       </c>
       <c r="G861" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -27311,7 +27314,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G862" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -27337,7 +27340,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G863" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -27363,7 +27366,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G864" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -27389,7 +27392,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G865" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -27415,7 +27418,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G866" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -27441,7 +27444,7 @@
         <v>16.6200008392334</v>
       </c>
       <c r="G867" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -27467,7 +27470,7 @@
         <v>16.6399993896484</v>
       </c>
       <c r="G868" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -27493,7 +27496,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G869" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -27519,7 +27522,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G870" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -27545,7 +27548,7 @@
         <v>17</v>
       </c>
       <c r="G871" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -27571,7 +27574,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G872" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -27597,7 +27600,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G873" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -27623,7 +27626,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G874" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -27649,7 +27652,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G875" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -27675,7 +27678,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G876" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -27701,7 +27704,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G877" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -27727,7 +27730,7 @@
         <v>17.6399993896484</v>
       </c>
       <c r="G878" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -27753,7 +27756,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G879" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -27779,7 +27782,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G880" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -27805,7 +27808,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G881" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -27831,7 +27834,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G882" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -27857,7 +27860,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G883" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -27883,7 +27886,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G884" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -27909,7 +27912,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G885" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -27935,7 +27938,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G886" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -27961,7 +27964,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G887" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -27987,7 +27990,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G888" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -28013,7 +28016,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G889" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -28039,7 +28042,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G890" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -28065,7 +28068,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G891" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -28091,7 +28094,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G892" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -28117,7 +28120,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G893" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -28143,7 +28146,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G894" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -28169,7 +28172,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G895" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -28195,7 +28198,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G896" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -28221,7 +28224,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G897" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -28247,7 +28250,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G898" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -28273,7 +28276,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G899" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -28299,7 +28302,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G900" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -28325,7 +28328,7 @@
         <v>17.5</v>
       </c>
       <c r="G901" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -28351,7 +28354,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G902" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -28377,7 +28380,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G903" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -28403,7 +28406,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G904" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -28429,7 +28432,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G905" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -28455,7 +28458,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G906" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -28481,7 +28484,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G907" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -28507,7 +28510,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G908" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -28533,7 +28536,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G909" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -28559,7 +28562,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G910" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -28585,7 +28588,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G911" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -28611,7 +28614,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G912" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -28637,7 +28640,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G913" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -28663,7 +28666,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G914" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -28689,7 +28692,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G915" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -28715,7 +28718,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G916" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -28741,7 +28744,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G917" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -28767,7 +28770,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G918" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -28793,7 +28796,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G919" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -28819,7 +28822,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G920" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -28845,7 +28848,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G921" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -28871,7 +28874,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G922" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -28897,7 +28900,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G923" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -28923,7 +28926,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G924" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -28949,7 +28952,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G925" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -28975,7 +28978,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G926" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -29001,7 +29004,7 @@
         <v>17.5</v>
       </c>
       <c r="G927" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -29027,7 +29030,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G928" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -29053,7 +29056,7 @@
         <v>17.5</v>
       </c>
       <c r="G929" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -29079,7 +29082,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G930" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -29105,7 +29108,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G931" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -29131,7 +29134,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G932" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -29157,7 +29160,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G933" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -29183,7 +29186,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G934" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -29209,7 +29212,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G935" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -29235,7 +29238,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G936" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -29261,7 +29264,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G937" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -29287,7 +29290,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G938" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -29313,7 +29316,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G939" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -29339,7 +29342,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G940" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -29365,7 +29368,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G941" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -29391,7 +29394,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G942" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -29417,7 +29420,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G943" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -29443,7 +29446,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G944" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -29469,7 +29472,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G945" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -29495,7 +29498,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G946" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -29521,7 +29524,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G947" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -29547,7 +29550,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G948" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -29573,7 +29576,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G949" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -29599,7 +29602,7 @@
         <v>18.0400009155273</v>
       </c>
       <c r="G950" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -29625,7 +29628,7 @@
         <v>18.2600002288818</v>
       </c>
       <c r="G951" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -29651,7 +29654,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G952" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -29677,7 +29680,7 @@
         <v>18.3199996948242</v>
       </c>
       <c r="G953" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -29703,7 +29706,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G954" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -29729,7 +29732,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G955" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -29755,7 +29758,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G956" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -29781,7 +29784,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G957" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -29807,7 +29810,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G958" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -29833,7 +29836,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G959" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -29859,7 +29862,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G960" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -29885,7 +29888,7 @@
         <v>17.5</v>
       </c>
       <c r="G961" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -29911,7 +29914,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G962" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -29937,7 +29940,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G963" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -29963,7 +29966,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G964" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -29989,7 +29992,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G965" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -30015,7 +30018,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G966" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -30041,7 +30044,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G967" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -30067,7 +30070,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G968" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -30093,7 +30096,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G969" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -30119,7 +30122,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G970" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -30145,7 +30148,7 @@
         <v>17.5</v>
       </c>
       <c r="G971" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -30171,7 +30174,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G972" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -30197,7 +30200,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G973" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -30223,7 +30226,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G974" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -30249,7 +30252,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G975" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -30275,7 +30278,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G976" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -30301,7 +30304,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G977" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -30327,7 +30330,7 @@
         <v>17.9400005340576</v>
       </c>
       <c r="G978" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -30353,7 +30356,7 @@
         <v>17.9799995422363</v>
       </c>
       <c r="G979" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -30379,7 +30382,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G980" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -30405,7 +30408,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G981" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -30431,7 +30434,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G982" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -30457,7 +30460,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G983" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -30483,7 +30486,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G984" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -30509,7 +30512,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G985" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -30535,7 +30538,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G986" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -30561,7 +30564,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G987" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -30587,7 +30590,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G988" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -30613,7 +30616,7 @@
         <v>18.3400001525879</v>
       </c>
       <c r="G989" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -30639,7 +30642,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G990" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -30665,7 +30668,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G991" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -30691,7 +30694,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G992" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -30717,7 +30720,7 @@
         <v>18.4400005340576</v>
       </c>
       <c r="G993" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -30743,7 +30746,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G994" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -30769,7 +30772,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G995" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -30795,7 +30798,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G996" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -30821,7 +30824,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="G997" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -30847,7 +30850,7 @@
         <v>18.3400001525879</v>
       </c>
       <c r="G998" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -30873,7 +30876,7 @@
         <v>18.2199993133545</v>
       </c>
       <c r="G999" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -30899,7 +30902,7 @@
         <v>18.3400001525879</v>
       </c>
       <c r="G1000" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -30925,7 +30928,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1001" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -30951,7 +30954,7 @@
         <v>18.2399997711182</v>
       </c>
       <c r="G1002" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -30977,7 +30980,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G1003" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -31003,7 +31006,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G1004" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -31029,7 +31032,7 @@
         <v>18.9400005340576</v>
       </c>
       <c r="G1005" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -31055,7 +31058,7 @@
         <v>19.0200004577637</v>
       </c>
       <c r="G1006" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -31081,7 +31084,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1007" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -31107,7 +31110,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G1008" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -31133,7 +31136,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G1009" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -31159,7 +31162,7 @@
         <v>18.4799995422363</v>
       </c>
       <c r="G1010" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -31185,7 +31188,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G1011" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -31211,7 +31214,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G1012" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -31237,7 +31240,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G1013" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -31263,7 +31266,7 @@
         <v>18.4200000762939</v>
       </c>
       <c r="G1014" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -31289,7 +31292,7 @@
         <v>18.4400005340576</v>
       </c>
       <c r="G1015" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -31315,7 +31318,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1016" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -31341,7 +31344,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1017" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -31367,7 +31370,7 @@
         <v>18.0799999237061</v>
       </c>
       <c r="G1018" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -31393,7 +31396,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1019" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -31419,7 +31422,7 @@
         <v>17.9799995422363</v>
       </c>
       <c r="G1020" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -31445,7 +31448,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G1021" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -31471,7 +31474,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G1022" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -31497,7 +31500,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G1023" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -31523,7 +31526,7 @@
         <v>19.5599994659424</v>
       </c>
       <c r="G1024" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -31549,7 +31552,7 @@
         <v>19.5799999237061</v>
       </c>
       <c r="G1025" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -31575,7 +31578,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1026" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -31601,7 +31604,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1027" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -31627,7 +31630,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G1028" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -31653,7 +31656,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1029" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -31679,7 +31682,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1030" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -31705,7 +31708,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1031" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -31731,7 +31734,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1032" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -31757,7 +31760,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1033" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -31783,7 +31786,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G1034" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -31809,7 +31812,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1035" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -31835,7 +31838,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1036" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -31861,7 +31864,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1037" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -31887,7 +31890,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G1038" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -31913,7 +31916,7 @@
         <v>21.25</v>
       </c>
       <c r="G1039" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -31939,7 +31942,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1040" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -31965,7 +31968,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1041" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -31991,7 +31994,7 @@
         <v>21</v>
       </c>
       <c r="G1042" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -32017,7 +32020,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G1043" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -32043,7 +32046,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1044" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -32069,7 +32072,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1045" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -32095,7 +32098,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1046" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -32121,7 +32124,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G1047" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -32147,7 +32150,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1048" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -32173,7 +32176,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1049" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -32199,7 +32202,7 @@
         <v>21.5</v>
       </c>
       <c r="G1050" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -32225,7 +32228,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1051" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -32251,7 +32254,7 @@
         <v>21.25</v>
       </c>
       <c r="G1052" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -32277,7 +32280,7 @@
         <v>20.25</v>
       </c>
       <c r="G1053" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -32303,7 +32306,7 @@
         <v>19.9400005340576</v>
       </c>
       <c r="G1054" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -32329,7 +32332,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1055" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -32355,7 +32358,7 @@
         <v>19.5</v>
       </c>
       <c r="G1056" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -32381,7 +32384,7 @@
         <v>18.9400005340576</v>
       </c>
       <c r="G1057" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -32407,7 +32410,7 @@
         <v>19.0599994659424</v>
       </c>
       <c r="G1058" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -32433,7 +32436,7 @@
         <v>19.3600006103516</v>
       </c>
       <c r="G1059" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -32459,7 +32462,7 @@
         <v>19.6399993896484</v>
       </c>
       <c r="G1060" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -32485,7 +32488,7 @@
         <v>19.6599998474121</v>
       </c>
       <c r="G1061" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -32511,7 +32514,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G1062" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -32537,7 +32540,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G1063" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -32563,7 +32566,7 @@
         <v>16</v>
       </c>
       <c r="G1064" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -32589,7 +32592,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G1065" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -32615,7 +32618,7 @@
         <v>13.3599996566772</v>
       </c>
       <c r="G1066" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -32641,7 +32644,7 @@
         <v>13.8199996948242</v>
       </c>
       <c r="G1067" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -32667,7 +32670,7 @@
         <v>12.960000038147</v>
       </c>
       <c r="G1068" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -32693,7 +32696,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G1069" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -32719,7 +32722,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G1070" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -32745,7 +32748,7 @@
         <v>12.5799999237061</v>
       </c>
       <c r="G1071" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -32771,7 +32774,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G1072" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -32797,7 +32800,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G1073" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -32823,7 +32826,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1074" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -32849,7 +32852,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1075" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -32875,7 +32878,7 @@
         <v>14.3400001525879</v>
       </c>
       <c r="G1076" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -32901,7 +32904,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1077" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -32927,7 +32930,7 @@
         <v>14.5200004577637</v>
       </c>
       <c r="G1078" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -32953,7 +32956,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1079" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -32979,7 +32982,7 @@
         <v>14.75</v>
       </c>
       <c r="G1080" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -33005,7 +33008,7 @@
         <v>15.1700000762939</v>
       </c>
       <c r="G1081" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -33031,7 +33034,7 @@
         <v>14.9200000762939</v>
       </c>
       <c r="G1082" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -33057,7 +33060,7 @@
         <v>14.8699998855591</v>
       </c>
       <c r="G1083" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -33083,7 +33086,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1084" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -33109,7 +33112,7 @@
         <v>14.9799995422363</v>
       </c>
       <c r="G1085" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -33135,7 +33138,7 @@
         <v>15.3100004196167</v>
       </c>
       <c r="G1086" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -33161,7 +33164,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1087" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -33187,7 +33190,7 @@
         <v>13.8199996948242</v>
       </c>
       <c r="G1088" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -33213,7 +33216,7 @@
         <v>14.4499998092651</v>
       </c>
       <c r="G1089" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -33239,7 +33242,7 @@
         <v>14.5100002288818</v>
       </c>
       <c r="G1090" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -33265,7 +33268,7 @@
         <v>14.4099998474121</v>
       </c>
       <c r="G1091" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -33291,7 +33294,7 @@
         <v>14.2299995422363</v>
       </c>
       <c r="G1092" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -33317,7 +33320,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1093" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -33343,7 +33346,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1094" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -33369,7 +33372,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1095" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -33395,7 +33398,7 @@
         <v>14.75</v>
       </c>
       <c r="G1096" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -33421,7 +33424,7 @@
         <v>14.8100004196167</v>
       </c>
       <c r="G1097" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -33447,7 +33450,7 @@
         <v>15.3900003433228</v>
       </c>
       <c r="G1098" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -33473,7 +33476,7 @@
         <v>15.25</v>
       </c>
       <c r="G1099" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -33499,7 +33502,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1100" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -33525,7 +33528,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1101" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -33551,7 +33554,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1102" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -33577,7 +33580,7 @@
         <v>15.1800003051758</v>
       </c>
       <c r="G1103" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -33603,7 +33606,7 @@
         <v>15.5799999237061</v>
       </c>
       <c r="G1104" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -33629,7 +33632,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G1105" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -33655,7 +33658,7 @@
         <v>16.4099998474121</v>
       </c>
       <c r="G1106" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -33681,7 +33684,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G1107" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -33707,7 +33710,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G1108" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -33733,7 +33736,7 @@
         <v>17</v>
       </c>
       <c r="G1109" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -33759,7 +33762,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G1110" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -33785,7 +33788,7 @@
         <v>16.75</v>
       </c>
       <c r="G1111" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -33811,7 +33814,7 @@
         <v>16.8299999237061</v>
       </c>
       <c r="G1112" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -33837,7 +33840,7 @@
         <v>16.7900009155273</v>
       </c>
       <c r="G1113" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -33863,7 +33866,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G1114" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -33889,7 +33892,7 @@
         <v>17.2700004577637</v>
       </c>
       <c r="G1115" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -33915,7 +33918,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G1116" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -33941,7 +33944,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G1117" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -33967,7 +33970,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G1118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -33993,7 +33996,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1119" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -34019,7 +34022,7 @@
         <v>17.5499992370605</v>
       </c>
       <c r="G1120" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -34045,7 +34048,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G1121" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -34071,7 +34074,7 @@
         <v>18.4099998474121</v>
       </c>
       <c r="G1122" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -34097,7 +34100,7 @@
         <v>18.6800003051758</v>
       </c>
       <c r="G1123" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -34123,7 +34126,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1124" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -34149,7 +34152,7 @@
         <v>19</v>
       </c>
       <c r="G1125" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -34175,7 +34178,7 @@
         <v>18.3099994659424</v>
       </c>
       <c r="G1126" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -34201,7 +34204,7 @@
         <v>18.2299995422363</v>
       </c>
       <c r="G1127" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -34227,7 +34230,7 @@
         <v>17.7099990844727</v>
       </c>
       <c r="G1128" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -34253,7 +34256,7 @@
         <v>17.6700000762939</v>
       </c>
       <c r="G1129" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -34279,7 +34282,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1130" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -34305,7 +34308,7 @@
         <v>18.25</v>
       </c>
       <c r="G1131" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -34331,7 +34334,7 @@
         <v>18.25</v>
       </c>
       <c r="G1132" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -34357,7 +34360,7 @@
         <v>17.9899997711182</v>
       </c>
       <c r="G1133" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -34383,7 +34386,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G1134" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -34409,7 +34412,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1135" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -34435,7 +34438,7 @@
         <v>17.4099998474121</v>
       </c>
       <c r="G1136" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -34461,7 +34464,7 @@
         <v>17</v>
       </c>
       <c r="G1137" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -34487,7 +34490,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G1138" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -34513,7 +34516,7 @@
         <v>17.0300006866455</v>
       </c>
       <c r="G1139" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -34539,7 +34542,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G1140" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -34565,7 +34568,7 @@
         <v>17.0900001525879</v>
       </c>
       <c r="G1141" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -34591,7 +34594,7 @@
         <v>17.3700008392334</v>
       </c>
       <c r="G1142" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -34617,7 +34620,7 @@
         <v>17.5300006866455</v>
       </c>
       <c r="G1143" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -34643,7 +34646,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1144" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -34669,7 +34672,7 @@
         <v>17.5100002288818</v>
       </c>
       <c r="G1145" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -34695,7 +34698,7 @@
         <v>17.2900009155273</v>
       </c>
       <c r="G1146" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -34721,7 +34724,7 @@
         <v>17.3700008392334</v>
       </c>
       <c r="G1147" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -34747,7 +34750,7 @@
         <v>16.9899997711182</v>
       </c>
       <c r="G1148" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -34773,7 +34776,7 @@
         <v>16.9300003051758</v>
       </c>
       <c r="G1149" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -34799,7 +34802,7 @@
         <v>16.9899997711182</v>
       </c>
       <c r="G1150" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -34825,7 +34828,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G1151" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -34851,7 +34854,7 @@
         <v>16.5799999237061</v>
       </c>
       <c r="G1152" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -34877,7 +34880,7 @@
         <v>16.7700004577637</v>
       </c>
       <c r="G1153" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -34903,7 +34906,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1154" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -34929,7 +34932,7 @@
         <v>17.2099990844727</v>
       </c>
       <c r="G1155" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -34955,7 +34958,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G1156" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -34981,7 +34984,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1157" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -35007,7 +35010,7 @@
         <v>17.0699996948242</v>
       </c>
       <c r="G1158" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -35033,7 +35036,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G1159" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -35059,7 +35062,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1160" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -35085,7 +35088,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G1161" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -35111,7 +35114,7 @@
         <v>17.25</v>
       </c>
       <c r="G1162" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -35137,7 +35140,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1163" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -35163,7 +35166,7 @@
         <v>17.3899993896484</v>
       </c>
       <c r="G1164" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -35189,7 +35192,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G1165" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -35215,7 +35218,7 @@
         <v>18.0300006866455</v>
       </c>
       <c r="G1166" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -35241,7 +35244,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1167" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -35267,7 +35270,7 @@
         <v>17.5</v>
       </c>
       <c r="G1168" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -35293,7 +35296,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G1169" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -35319,7 +35322,7 @@
         <v>17.9300003051758</v>
       </c>
       <c r="G1170" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -35345,7 +35348,7 @@
         <v>17.8899993896484</v>
       </c>
       <c r="G1171" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -35371,7 +35374,7 @@
         <v>17.9699993133545</v>
       </c>
       <c r="G1172" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -35397,7 +35400,7 @@
         <v>18.2099990844727</v>
       </c>
       <c r="G1173" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -35423,7 +35426,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G1174" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -35449,7 +35452,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G1175" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -35475,7 +35478,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G1176" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -35501,7 +35504,7 @@
         <v>17.6299991607666</v>
       </c>
       <c r="G1177" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -35527,7 +35530,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1178" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -35553,7 +35556,7 @@
         <v>17.2900009155273</v>
       </c>
       <c r="G1179" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -35579,7 +35582,7 @@
         <v>17.6299991607666</v>
       </c>
       <c r="G1180" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -35605,7 +35608,7 @@
         <v>17.6299991607666</v>
       </c>
       <c r="G1181" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -35631,7 +35634,7 @@
         <v>17.3899993896484</v>
       </c>
       <c r="G1182" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -35657,7 +35660,7 @@
         <v>17.2900009155273</v>
       </c>
       <c r="G1183" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -35683,7 +35686,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1184" t="s">
-        <v>690</v>
+        <v>843</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -35709,7 +35712,7 @@
         <v>17.25</v>
       </c>
       <c r="G1185" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -35917,7 +35920,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G1193" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -36151,7 +36154,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G1202" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -36177,7 +36180,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G1203" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -36619,7 +36622,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1220" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -36879,7 +36882,7 @@
         <v>17.3700008392334</v>
       </c>
       <c r="G1230" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -36905,7 +36908,7 @@
         <v>17.2099990844727</v>
       </c>
       <c r="G1231" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -36983,7 +36986,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1234" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -37009,7 +37012,7 @@
         <v>17.8899993896484</v>
       </c>
       <c r="G1235" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -37035,7 +37038,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1236" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -37113,7 +37116,7 @@
         <v>17.5100002288818</v>
       </c>
       <c r="G1239" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -37347,7 +37350,7 @@
         <v>17.8899993896484</v>
       </c>
       <c r="G1248" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -37425,7 +37428,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G1251" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -37503,7 +37506,7 @@
         <v>16.9300003051758</v>
       </c>
       <c r="G1254" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -37815,7 +37818,7 @@
         <v>16.7700004577637</v>
       </c>
       <c r="G1266" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -37841,7 +37844,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G1267" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -37867,7 +37870,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1268" t="s">
-        <v>690</v>
+        <v>843</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -37919,7 +37922,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1270" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -37945,7 +37948,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1271" t="s">
-        <v>690</v>
+        <v>843</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -38023,7 +38026,7 @@
         <v>17.0699996948242</v>
       </c>
       <c r="G1274" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -38075,7 +38078,7 @@
         <v>17.25</v>
       </c>
       <c r="G1276" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -38153,7 +38156,7 @@
         <v>17.3899993896484</v>
       </c>
       <c r="G1279" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -38231,7 +38234,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1282" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -38335,7 +38338,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G1286" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -38413,7 +38416,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G1289" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -38673,7 +38676,7 @@
         <v>17.5100002288818</v>
       </c>
       <c r="G1299" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -38725,7 +38728,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G1301" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -38751,7 +38754,7 @@
         <v>17.4099998474121</v>
       </c>
       <c r="G1302" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -38881,7 +38884,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G1307" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -39245,7 +39248,7 @@
         <v>17.8899993896484</v>
       </c>
       <c r="G1321" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -39271,7 +39274,7 @@
         <v>17.9699993133545</v>
       </c>
       <c r="G1322" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -60937,13 +60940,13 @@
     </row>
     <row r="2156">
       <c r="A2156" s="1" t="n">
-        <v>45463.6495833333</v>
+        <v>45463.2916666667</v>
       </c>
       <c r="B2156" t="n">
         <v>134117</v>
       </c>
       <c r="C2156" t="n">
-        <v>16.5100002288818</v>
+        <v>16.5200004577637</v>
       </c>
       <c r="D2156" t="n">
         <v>16.0799999237061</v>
@@ -60958,6 +60961,32 @@
         <v>1469</v>
       </c>
       <c r="H2156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" s="1" t="n">
+        <v>45464.6494560185</v>
+      </c>
+      <c r="B2157" t="n">
+        <v>309421</v>
+      </c>
+      <c r="C2157" t="n">
+        <v>16.6000003814697</v>
+      </c>
+      <c r="D2157" t="n">
+        <v>16.3099994659424</v>
+      </c>
+      <c r="E2157" t="n">
+        <v>16.4699993133545</v>
+      </c>
+      <c r="F2157" t="n">
+        <v>16.3799991607666</v>
+      </c>
+      <c r="G2157" t="s">
+        <v>1518</v>
+      </c>
+      <c r="H2157" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ACE.MI.xlsx
+++ b/data/ACE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="1519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="1520">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,4537 +38,4540 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50932693481445</t>
+    <t xml:space="preserve">8.99844646453857</t>
   </si>
   <si>
     <t xml:space="preserve">ACE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52303791046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18023777008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33106994628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37906169891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52989482879639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73557567596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60531139373779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18709278106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23508453369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07739639282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75516223907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81686592102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00197887420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01569271087646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15281200408936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27622127532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39277362823486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40648746490479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28307819366455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25565433502197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21451663970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83743572235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39864921569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24781608581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09012603759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25467109680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48092174530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43978404998779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46720790863037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46035289764404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23410320281982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40550422668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49463272094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35065746307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50148773193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41236114501953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55633735656738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45349788665771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37808036804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33008766174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86485958099365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26936531066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59845542907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70129680633545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69443893432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76985549926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71500778198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36534976959229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31050109863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22137355804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35163879394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39962959289551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49561500549316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32421398162842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29678916931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22822952270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37220478057861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11853218078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74145030975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70716953277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54948139190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61804103851318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68660163879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73459529876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80315494537354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89913845062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8442907333374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8100118637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70031356811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60433006286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94713115692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97455596923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04311656951904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87171459197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72088241577148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65917873382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89228248596191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85800170898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95398712158203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06368350982666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10482025146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04997158050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91285037994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58376216888428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32323265075684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36436748504639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20667839050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95300531387329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58277988433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70618724822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71304416656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8775897026062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84174919128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79874181747437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89909172058105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80590915679932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3901686668396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05327367782593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.182297706604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31131982803345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83458137512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74139881134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78440618515015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66971778869629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50485467910767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46901559829712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54786252975464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59087038040161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4546799659729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64821481704712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66255140304565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62670993804932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91342926025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90626096725464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38651466369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35784149169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92411231994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89544105529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85960006713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03163146972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04596519470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9312801361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90977573394775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95995140075684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79508876800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65889739990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70907306671143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74491214752197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58721828460693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58004856109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56571388244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59438514709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53704166412354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3793478012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46536254882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.522705078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64456081390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61588859558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5083703994751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54420948028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51553726196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30049896240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15713977813721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17864322662354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26465797424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0997953414917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02094841003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99227523803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9421010017395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96360492706299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98510980606079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94926977157593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92776489257812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92059755325317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95643663406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93493223190308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82024574279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70555734634399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79157447814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7270622253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99944448471069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12846851348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20014762878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35067462921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32200241088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45102500915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40085220336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42235374450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4581937789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28616333007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17147445678711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25032234191895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1499719619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07829189300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56936740875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26831340789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28981637954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23964071273804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16796207427979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11778593063354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16437721252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21813631057739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35432815551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2253041267395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2969856262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21096897125244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11061763763428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59803915023804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85608673095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02811622619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2789945602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22165203094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2144832611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16430854797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31483459472656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30766677856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47969818115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49403476715088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52987384796143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73057746887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62305736541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67323303222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12129878997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18581104278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25749206542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19297981262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55854511260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50120067596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42952251434326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44385814666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55137729644775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60155391693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66606426239014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5728816986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43669128417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8165922164917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68756866455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76641654968262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88827037811279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95278167724609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9957914352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07463836669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16782188415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11764717102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10330963134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09614276885986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14631843566895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36135673522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35418891906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32551860809326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3183479309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.239501953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46170806884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42586898803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28250980377197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3685245513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51905250549316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52622032165527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53338718414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46887683868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74125957489014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.597900390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74842739105225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.777099609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87028312683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0924882888794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1498317718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95629692077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89895439147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94913101196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.157000541687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9706335067749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98497009277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1785039901733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2645196914673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.29319190979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.336199760437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4365520477295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3146963119507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4293832778931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3792085647583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4150476455688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3218631744385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5082311630249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.515398979187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.443717956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.558406829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4078798294067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3505353927612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5227956771851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4104509353638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6126689910889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5078153610229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4478988647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4853477478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1857652664185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0584449768066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1183605194092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93861198425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7663516998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78133010864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88618564605713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74388408660889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87869453430176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99852752685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81128978729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0060167312622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0434646606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0659332275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1782760620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0734233856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0884017944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96107959747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0359754562378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8187780380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87120532989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84873676300049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42932319641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49672794342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45179176330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46677112579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60907173156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44430160522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33944797515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21961688995361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36940765380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37689685821533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30200004577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31697940826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27204132080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27953243255615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21212673187256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15970039367676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14472103118896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12225246429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06233501434326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03237819671631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08480453491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25706386566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17467880249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28702068328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75137233734131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92363166809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69145584106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59409332275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60158157348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61656093597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73639392852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79631042480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66898727416992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67647743225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72141456604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82626914978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91614246368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85622596740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8337574005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1558074951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1707878112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2756395339966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2232131958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3580255508423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.402961730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5527534484863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4703683853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3804941177368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5302848815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5003271102905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8822917938232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9122505187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9347190856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8748025894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7999076843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.777440071106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7325019836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5976896286011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7474803924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6950540542603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0245943069458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.002124786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9646778106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0770206451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0171041488647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9721670150757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9496994018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.346643447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6573114395142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.79212474823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7022476196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7322072982788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6648006439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6498222351074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7172288894653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5524587631226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2453870773315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1480226516724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0281896591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3502407073975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9607849121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7061405181885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5563507080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6836719512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6612043380737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.533881187439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.578818321228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7585678100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9682750701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0731287002563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1555137634277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9458055496216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8559322357178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7510776519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8035049438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9832534790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0955972671509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1630029678345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.215428352356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3053045272827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0881061553955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9907445907593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9158477783203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8709106445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7136306762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6537141799927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6312456130981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4589872360229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1668949127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9197406768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2717485427856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9796562194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0994892120361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1219568252563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.196852684021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1519174575806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0320835113525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7250118255615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.515305519104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.440408706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.665096282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6875648498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7025442123413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4628782272339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5677318572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3355569839478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1932544708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1033802032471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2082347869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0284872055054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1483182907104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.32057762146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2606620788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.215723991394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1333389282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.283130645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4254312515259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5452642440796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6426277160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8373546600342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8448448181152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8073978424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.009614944458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.859824180603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7924175262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4778575897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7399911880493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2906188964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96856880187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72890377044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99103736877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3879833221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2438812255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2752799987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2203311920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0790367126465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1182861328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0162391662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0319395065308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99269008636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94559192657471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0005397796631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97699069976807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1653833389282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2595806121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3930253982544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1889324188232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0711870193481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0947360992432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2046327590942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.25172996521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0868864059448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1496849060059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.377326965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4401235580444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4087238311768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6206674575806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7305631637573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5735692977905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6363668441772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6756153106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7070140838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5892677307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.683464050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5421714782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4558229446411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5107727050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2909784317017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3380784988403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.267430305481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2281799316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0554885864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75719833374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63945293426514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60020446777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71794891357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92989063262939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96914005279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1104354858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2124824523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3851757049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4244232177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3694763183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1339845657349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0083885192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1418342590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6708517074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61590385437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41180992126465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38041114807129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28621482849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50600719451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39611148834229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14492034912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13707160949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09782218933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8937292098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91727828979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92512798309326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7759838104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01147556304932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.027174949646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11352062225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16062068939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27051639556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24696636199951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40396118164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31761455535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1261348724365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0476379394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0240898132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74149799346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74934768676758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57665538787842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46675968170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48245906829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34116363525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42751121520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4196605682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29406452178955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25481605529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33331489562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08212280273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7336483001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52170753479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22341728210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0664234161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26266574859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35686302185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5374059677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27836513519287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43535995483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60805416107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7728967666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79644680023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85139560699463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2360305786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5186214447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5971183776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4793729782104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3459272384644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5578699111938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6913146972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6285171508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6520652770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5264711380005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7148637771606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9582052230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9032564163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9268064498901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7933616638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9111061096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8954067230225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0838003158569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3271427154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4213380813599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7353267669678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9001712799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7667255401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8138246536255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7274780273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8452234268188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8216743469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9158706665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8609228134155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9315700531006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8923215866089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8766222000122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8530731201172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8295230865479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.072865486145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5595474243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5752468109131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7165431976318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5124483108521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6537446975708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6380453109741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4967498779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3397550582886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1513624191284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1670627593994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3711538314819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5909461975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6223459243774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7008428573608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6851434707642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.842137336731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7636394500732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1090278625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2032241821289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3916168212891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2503232955933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1247262954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0776290893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9834337234497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9206352233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0462303161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1561260223389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1718273162842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0933284759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1404256820679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0619287490845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3445196151733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4858140945435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5800104141235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6114110946655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6585063934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7527046203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.831202507019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8469009399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8626003265381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9253988265991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0038967132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9724950790405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0509920120239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1736040115356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0101222991943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9774284362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6995143890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6831655502319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6177759170532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7649059295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1572551727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.075514793396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8629922866821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9120378494263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0918645858765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0264711380005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2389945983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1409063339233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1245603561401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1899509429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3043851852417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0428199768066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0591678619385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9283847808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.271689414978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.206298828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2553434371948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4515171051025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.500560760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4351682662964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3534278869629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5332565307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4842128753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4678649902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.402473449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3207340240479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5496025085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3697776794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9447317123413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2226448059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8793411254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8765630722046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7457799911499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9256057739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7621250152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9746465682983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.337082862854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5823011398315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5659523010254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2880382537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6803855895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6640396118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6967334747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6476907730103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5169076919556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2198667526245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4160423278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9909963607788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.203519821167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4487361907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2362146377563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.072735786438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3343000411987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4323873519897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8929090499878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9092578887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8602132797241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2525615692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4814338684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5468244552612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2852592468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1381273269653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1054306030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0563869476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9582996368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7784738540649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6313409805298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3506498336792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9882173538208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0045642852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1843910217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3887386322021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6339588165283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5113487243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5930862426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0017833709717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2061328887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6148300170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8191757202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7374401092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4513511657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3696136474609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2878723144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.16526222229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0426540374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0835208892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8383045196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8791751861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5739593505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5522193908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.298828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4296092987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9391736984253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5795202255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8247385025024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0536060333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0699558258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0782957077026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6859474182129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9203767776489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2963781356812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5934200286865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6588106155396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1356782913208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2828102111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5443754196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6751585006714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6723794937134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8358573913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7214221954346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0974225997925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8685531616211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0565528869629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3998584747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1955118179321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1546411514282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1791620254517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2445526123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5142946243286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9829883575439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8113355636597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8603801727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.778639793396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6315088272095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1055974960327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5796852111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4652509689331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7513380050659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2417755126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8330774307251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4080324172974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7349910736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9802093505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.413426399231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7485580444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8956890106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6913404464722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7567319869995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7240371704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1163854598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2635164260864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1817770004272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3452548980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0482130050659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.26891040802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3669967651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5304756164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9664735794067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9010829925537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.476037979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4433431625366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9174308776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7049083709717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6547508239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8769226074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5265760421753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3727655410767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5522117614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8171081542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6034822463989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8427429199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9794645309448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8683776855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9623737335205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7743825912476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.518030166626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.466760635376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.304404258728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1676845550537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3300409317017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7060213088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5436668395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7487468719482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5863904953003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1505928039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9284219741821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1164150238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7402019500732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6120271682739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8598327636719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0905485153198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4067153930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9367389678955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9538288116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9709186553955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3212642669678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2870845794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3554458618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.560525894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2443599700928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1418190002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8512878417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0649137496948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0392799377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6803865432739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8940134048462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1674556732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0136442184448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7145671844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0734586715698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9025583267212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2529067993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0050973892212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9111032485962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3127193450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3981704711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.43235206604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0307350158691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7829265594482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9880094528198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1930904388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.48362159729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3639907836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3810806274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.56907081604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4152603149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3298110961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3041744232178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.509256362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5348930358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8510589599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6887035369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6801586151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2785396575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1503639221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7231121063232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6718416213989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6974763870239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7914714813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5607566833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2358150482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2187252044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2614517211914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0221891403198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9196481704712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9452838897705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5007095336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0820035934448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4240350723267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.253134727478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1847743988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2104082107544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1078681945801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9198789596558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9369668960571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9626035690308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0309638977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1591386795044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.295859336853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5351209640503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7316570281982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8341979980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8256530761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.577844619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.201865196228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2360439300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.287314414978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2189540863037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9711484909058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1249599456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0993232727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5949354171753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4838514328003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7572927474976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6889314651489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.355673789978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0651426315308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0736885070801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9796934127808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9540576934814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0565986633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7746124267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.244589805603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9965524673462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1332740783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.440896987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6374320983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8937835693359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9365081787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0988636016846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0732288360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9279632568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7485179901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7656097412109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9194164276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0903186798096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5432071685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7226524353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3723068237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1843147277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3295803070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3210353851318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2355842590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0646839141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2526741027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1928615570068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1159553527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1501350402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1415882110596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2099494934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4064865112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5859317779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8081035614014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6799278259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6201133728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6970176696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7824668884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8166484832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6713829040527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4235744476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4406642913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5602970123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6542911529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5944766998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5090255737305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7568321228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0473651885986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5344314575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4831600189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2780780792236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4318904876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6027927398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7736911773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6711521148682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5686111450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6882419586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8933219909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7566032409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0813140869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2009429931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9878616333008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7570209503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5261764526367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.455150604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5528144836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3486099243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3042144775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2065525054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3130931854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3841228485107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4373931884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8102893829346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2509441375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2331886291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.375244140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3929996490479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2420673370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1532802581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8247776031494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8780460357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1088905334473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3219738006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5350570678711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4018783569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5972061157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7126274108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4462718963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6859912872314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9701042175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0766468048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2897319793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4317874908447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7869262695312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.87571144104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6981410980225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3252429962158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9523448944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7747783660889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1476745605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9168338775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0411319732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8458042144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0588874816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7925338745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7481422424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6771125793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0056190490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0233745574951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8635635375977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5439357757568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0289821624756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7093563079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4962711334229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3719730377197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5673007965088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5761795043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5495414733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3098239898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4696350097656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3808517456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4785137176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4252433776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7004776000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2299156188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3542156219482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7182331085205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.851411819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6915988922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9135608673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0201034545898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6560840606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6294479370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.966833114624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8691673278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8070201873779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1799163818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7271118164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6738414764404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7537479400635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4163646697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2654304504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1588897705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.212158203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.688325881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8215045928955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8747749328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1233730316162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8658981323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8303833007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2565517425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1677665710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.096736907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0612239837646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0878601074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1766452789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3897285461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5051498413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1144943237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9014101028442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7327194213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6616907119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.537392616272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6972045898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2976722717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2000102996826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3154296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2710371017456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9691677093506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0313167572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3065509796143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4486064910889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8925313949585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8481407165527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.723840713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3420658111572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.093466758728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7028112411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9425325393677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9336538314819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6495409011841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8359889984131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7294483184814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.827112197876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4986057281494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4719705581665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6229047775269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.013560295105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1112241744995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5962705612183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4009428024292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2233724594116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0546808242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9392604827881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3920640945435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7738399505615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5163640975952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1789798736572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9747743606567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3476724624634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2766437530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2411308288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5341215133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6761779785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9869241714478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8004760742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8093547821045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8626251220703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7649602890015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1733741760254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4929990768433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3509435653687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9958028793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0401964187622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8448677062988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7116899490356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.791597366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6317834854126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4098215103149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4897270202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4808492660522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3210353851318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0990734100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2500076293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8504753112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9836530685425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1523447036743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.303279876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1612224578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2944011688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.525242805481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3565502166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8892612457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0224380493164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7383270263672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.605149269104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6850557327271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0280456542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8060836791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6462697982788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.859354019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4743728637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.051830291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.986102104187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2208471298218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6152191162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3898639678955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4462022781372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3616943359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2490167617798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5401010513306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2114572525024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2584066390991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2865753173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3710842132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2020683288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8452558517456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6950187683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7795257568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9015941619873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8922033309937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9954919815063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9767122268677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0893898010254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0048818588257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1457290649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2302370071411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9109840393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7983064651489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7513570785522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8264751434326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7701368331909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8076963424683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6856288909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5729513168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5447807312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4978322982788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4414930343628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0940704345703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7654275894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7560377120972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2208185195923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1081409454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.267767906189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9109544754028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7419385910034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8827857971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1269207000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3992252349854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.248987197876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1363096237183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9672937393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1550903320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7231588363647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4790239334106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7607183456421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2442789077759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5447521209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2536687850952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.460244178772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7794971466064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9579038619995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5729217529297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4132957458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3569564819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4978036880493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3757362365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0470924377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4696340560913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7513284683228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0893621444702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1738691329956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1926488876343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8452262878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.324107170105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7466478347778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9907827377319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0095624923706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9720029830933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0189523696899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9813928604126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9156637191772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9626131057739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1879682540894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2443075180054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4790525436401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4696626663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6574583053589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3194255828857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3945446014404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3382062911987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3569850921631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1973581314087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4508838653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4884424209595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2912569046021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3475952148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4321031570435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6292896270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5917301177979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6011199951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5635614395142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.206748008728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.169189453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3006467819214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4039344787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1316299438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4133243560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6198997497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7419672012329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7607469558716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2396278381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3992538452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4368133544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4649820327759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3241348266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2677965164185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5025415420532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4180335998535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4931516647339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5213212966919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4274234771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3429145812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2771863937378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1269493103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9579334259033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.070611000061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7889165878296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0565118789673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6809186935425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5306816101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7842073440552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7278680801392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0283422470093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8217668533325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.150408744812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9344444274902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9532232284546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0001726150513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8311567306519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7935972213745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8687152862549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9438343048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1785793304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5072221755981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.263087272644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5823402404785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7231874465942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.86403465271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7325782775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6762390136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9391527175903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.920373916626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.014271736145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0800008773804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8699998855591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7399997711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6800003051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4300003051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4499998092651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3299999237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.210000038147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0299997329712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8699998855591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9799995422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.039999961853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.789999961853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3999996185303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2299995422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2200002670288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4200000762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4499998092651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5200004577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3400001525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4899997711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5100002288818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4799995422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6000003814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4300003051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1800003051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0699996948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1400003433228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0100002288818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8999996185303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7399997711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5900001525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3299999237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3999996185303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4700002670288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4300003051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2700004577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.289999961853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3199996948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5299997329712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8000001907349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.960000038147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9700002670288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9499998092651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9200000762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8699998855591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6899995803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8500003814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7799997329712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7200002670288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9300003051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8800001144409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9899997711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6400003433228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3400001525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1300001144409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0900001525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3100004196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1800003051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1599998474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2200002670288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8199996948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8599996566772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9399995803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8900003433228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0900001525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1000003814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2700004577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3699998855591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5900001525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6700000762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8500003814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6099996566772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3900003433228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3800001144409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2600002288818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6899995803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8999996185303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3999996185303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7799997329712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7200002670288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7299995422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5299997329712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4399995803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8800001144409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.960000038147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.210000038147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2299995422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1700000762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1099996566772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3299999237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8000001907349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8299999237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4399995803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6199998855591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.460000038147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4700002670288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3900003433228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5100002288818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5699996948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8100004196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9200000762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1400003433228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8900003433228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1800003051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9899997711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.789999961853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9300003051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1300001144409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8500003814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8999996185303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0699996948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1999998092651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.460000038147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4799995422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3800001144409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6199998855591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3000001907349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.289999961853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3199996948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1899995803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1099996566772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0200004577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5600004196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8800001144409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9099998474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7799997329712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6599998474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6899995803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5500001907349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7200002670288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6700000762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7399997711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4499998092651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3500003814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6999998092651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9399995803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7200002670288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6999998092651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5699996948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3699998855591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.460000038147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4899997711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4399995803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8500003814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.789999961853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8800001144409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2000007629395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4200000762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1100006103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2399997711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3700008392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2999992370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4400005340576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6599998474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6499996185303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6899995803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8199996948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4099998474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3299999237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6400003433228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8100004196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9799995422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2900009155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0300006866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0900001525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4500007629395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2800006866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1599998474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1800003051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5200004577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5799999237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5499992370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2099990844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4699993133545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5599994659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6800003051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1100006103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7999992370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8799991607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3899993896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9200000762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8099994659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3899993896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2000007629395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3600006103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0499992370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9099998474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5900001525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8199996948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7299995422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0499992370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2199993133545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3799991607666</t>
+    <t xml:space="preserve">9.01142311096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68703746795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82976627349854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87518119812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01791000366211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2125415802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08927440643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69352531433105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73893928527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5897216796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28479957580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34318923950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5183572769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53133201599121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66108798980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77786540985107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88815593719482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90113067626953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78435325622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75840187072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71947479248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36265277862549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94743824005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80470991134644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65549230575562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81119728088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02529144287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9863657951355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01231670379639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00582790374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7917332649231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9539270401001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03826713562012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90202569961548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04475402832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96041488647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09665679931641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99934101104736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92797708511353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88256311416626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3886022567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77137756347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08278656005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18010139465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17361354827881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24497890472412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19307804107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86220550537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81030368804932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7259635925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84923076629639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89464378356934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98547172546387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82328033447266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79732799530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73245239257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86869335174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62864685058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27182483673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23938465118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09016799926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15504550933838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21992301940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26533794403076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33021354675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42104053497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36913967132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33670043945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23289775848389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14207077026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46645545959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49240589141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55728340148926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3950891494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25236034393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19397163391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41455364227295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38211441040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47294235229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57674694061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61567306518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56377029418945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43401718139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12260723114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87607383728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91499996185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76578330993652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52573823928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17540264129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29218053817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29866886138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45437240600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42045831680298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37976169586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47472190856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38654518127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9931378364563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67434358596802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79643535614014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91852617263794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4136757850647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32549858093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3661961555481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25767040252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1016640663147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0677490234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14236211776733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18305826187134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05418395996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23732137680054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25088691711426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21697330474854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48828744888306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4815034866333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9359564781189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9088249206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44467163085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41754150390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38362598419189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54641532897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55997943878174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45145606994629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43110752105713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4785852432251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32258129119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19370651245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24118709564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27510070800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12587833404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11909484863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10552883148193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13266086578369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07839679718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9291729927063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01056861877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06483173370361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18014049530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15300846099854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05126571655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08518028259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05804920196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85456228256226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71890497207642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7392520904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82064819335938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66464138031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59003019332886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56289911270142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5154185295105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53576755523682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55611658096313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52220249176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50185394287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49506998062134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52898502349854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50863599777222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40011119842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29158449172974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37297821044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31193399429321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56968259811401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69177436828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75960350036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9020414352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87491083145142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99700164794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94952344894409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96987152099609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00378608703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84099674224854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73247051239014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80708169937134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71212244033813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64429426193237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16271018981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87782859802246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8981785774231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85069847106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7828688621521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7353892326355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77947807312012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83034944534302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95922422409058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8371319770813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90496110916138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82356691360474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72860670089722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18984079360962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43402433395386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5968132019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83421325683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7799506187439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77316808700562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72568845748901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86812829971313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86134481430054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02413463592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03770065307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07161426544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26153564453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15979194641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20727252960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68498992919922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7460355758667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81386566162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7528190612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09874534606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04448223114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97665405273438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99021911621094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09196376800537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13944339752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20048904418945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11231136322021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98343753814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34292984008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2208366394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29544830322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41075706481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47180271148682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51250076293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58711242675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67528915405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62780952453613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61424255371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60746097564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65494251251221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85842609405518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85164356231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82451248168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81772994995117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74311828613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95338726043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91947269439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78381443023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86520862579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00765037536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01443290710449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02121639251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96016979217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21791934967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08226203918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22470283508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25183391571045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34001064300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55027961730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60454177856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42140579223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36714267730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41462230682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61132526397705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43497180938721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44853782653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63167381286621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71306800842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74020099639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78089714050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87585735321045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76054859161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86907482147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82159328460693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85550785064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76733207702637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94368648529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95046997070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88263988494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99116706848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84872531890869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79446220397949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95746803283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85116004943848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0425128936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94329357147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88659572601318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92203140258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63854598999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51806354522705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57476139068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4046688079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24166393280029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25583839416504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35505771636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22040271759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34797096252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46136665344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28418731689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46845436096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5038890838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52515029907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6314582824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5322380065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54641246795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42593002319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49680137634277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29127407073975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3408842086792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31962203979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9227409362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98652648925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94400215148926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95817756652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09283351898193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93691539764404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83769512176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7243013381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86604499816895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87313175201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80225944519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81643390655518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77391147613525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78099822998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71721458435059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66760349273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65342998504639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63216876983643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57547092437744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54712295532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5967321395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75973701477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68177795410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78808498382568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22748947143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39049339294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17079162597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0786600112915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0857458114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09992027282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2133150100708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27001190185547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14953136444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15661716461182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19914054870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29836082458496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38340759277344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32670879364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30544853210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61019706726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62437152862549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72359085083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67398166656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80155086517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84407329559326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98581695556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90785789489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82281112670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96455574035645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93620586395264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2976503372192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.326000213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3472604751587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.290563583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2196922302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.198431968689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1559076309204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0283374786377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1700820922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1204719543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4323081970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4110469818115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3756122589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4819183349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.425220489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.382698059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3614358901978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7370557785034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9773082733154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1048784255981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.019832611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0481815338135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.984395980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9702215194702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0340070724487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8780908584595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5875158309937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4953832626343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3819875717163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6867361068726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3182039260864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0772399902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9354972839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0559778213501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0347166061401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9142351150513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9567575454712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1268482208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.325288772583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4245119094849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5024690628052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3040285110474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2189817428589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1197624206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1693735122681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3394632339478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4457721710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.509557723999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5591669082642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6442136764526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4386854171753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3465518951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2756795883179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2331571578979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0843276977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0276308059692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0063676834106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8433637619019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5669631958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3330869674683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6661853790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3897857666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5031795501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5244407653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5953130722046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5527906417847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4393949508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1488199234009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95038032531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87950897216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0921230316162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1133842468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1275596618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90077018737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99999141693115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78028869628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64563179016113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56058692932129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6598072052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48971462249756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60310935974121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76611423492432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70941734313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66689491271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58893489837646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73067855834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86533355712891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97872924804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0708637237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2551279067993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2622146606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2267799377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4181327819824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2763891220093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2126064300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91494369506836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1629962921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73776626586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43301773071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20622825622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45427894592285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8298978805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69353771209717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72325038909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67125511169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53754997253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57469081878662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47812652587891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49298191070557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45584106445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41127395629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46327018737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44098663330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6192569732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70839309692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8346700668335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64154148101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53012180328369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55240631103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65639877319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70096492767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54497814178467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60440254211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81981468200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87923812866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84952545166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0500812530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.15407371521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0055150985718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0649394989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1020793914795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1317901611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0203704833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1095056533813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97580146789551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89409351348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94609069824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73810577392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78267478942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71582126617432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67868137359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51526641845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23300266265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12158298492432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08444118499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19586277008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39641761779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43355751037598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56726169586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66382694244385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82724189758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86438274383545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81238555908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58954620361328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47069835662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59697437286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15129375457764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09929847717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90616989135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8764591217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78732204437256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99530601501465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89131450653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65361785888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64618968963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60904979705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41592216491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43820571899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44563484191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30450248718262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52734184265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54219818115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62390613555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66847324371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77246761322021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75018119812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89874267578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81703472137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58211803436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50783824920654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48555469512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21814632415771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22557353973389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06215763092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95816707611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97302341461182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83931827545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9210262298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91359901428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79475021362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75760936737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83189105987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59419441223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21071815490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01016330718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72789764404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57933807373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76503849029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85417556762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0250186920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77989482879639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92845439910889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09187030792236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24785804748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27014255523682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3221378326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.686110496521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95351791381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0277986526489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91637897491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79010200500488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9906587600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1169328689575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0575094223022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.079794883728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96094608306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1392183303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3694858551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3174905776978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3397741317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2134981155396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3249177932739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3100624084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4883337020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.718602180481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8077383041382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1048574447632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2608451843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1345691680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1791381835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0974292755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2088499069214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1865653991699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2757024765015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2237062454224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2905588150024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.25341796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2385625839233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2162790298462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1939945220947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.424262046814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8847970962524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8996534347534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0333585739136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8402299880981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9739351272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.959077835083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8253726959229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6768140792847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4985418319702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5133981704712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7065267562866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9145097732544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9442224502563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0185022354126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0036458969116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1522054672241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0779256820679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4047584533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4938926696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6721649169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5384607315063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4196147918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3750457763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2859106063843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2264842987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3453350067139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4493265151978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4641828536987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3899011611938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4344692230225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3601884841919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6275978088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7613010406494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8504362106323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8801488876343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9247169494629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0138549804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0881328582764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1029872894287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1178455352783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1772689819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2515487670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2218360900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2961177825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4121379852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2574434280396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2265043258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9635210037231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9480504989624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.886173248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0254001617432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3966703414917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3193206787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1182174682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.164626121521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3347911834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2729120254517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4740180969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.381199836731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3657312393188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4276103973389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5358972549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2883834838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3038530349731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1800956726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5049562454224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4430770874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4894886016846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6751232147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7215309143066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6596536636353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5823040008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7524709701538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7060623168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6905918121338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6287155151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.551365852356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7679405212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5977735519409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1955642700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4585475921631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1336851119995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0773334503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.953577041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1237421035767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9690437316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1701498031616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5668363571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7988805770874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.783408164978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5204267501831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8916969299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8762273788452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9071674346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8607578277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7370004653931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4021940231323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5878286361694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1856203079224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3867244720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6187677383423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4176626205444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2629671096802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5104808807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6032981872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0928020477295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1082706451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0618619918823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4331321716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6497077941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7115869522095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.464072227478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3248453140259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2939052581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2474975585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1546783447266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9845151901245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8452882766724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5259504318237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1292638778687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1447343826294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3149003982544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5082693099976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7403144836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6242914199829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7016382217407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0883808135986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2817497253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6684894561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8618583679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7845115661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5137939453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4364452362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3590984344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2430744171143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1270542144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1657276153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9336833953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.972357749939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6298141479492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6629657745361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4231863021851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5469455718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0828552246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7425241470337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9745674133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1911420822144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2066125869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3756761550903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0044059753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3336896896362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6894903182983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0242986679077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0861768722534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59114933013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73037528991699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97789001464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016454696655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0452909469604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1999864578247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.091700553894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4475002288818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2309265136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4088268280029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7336883544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5403175354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5016441345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5248489379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5867261886597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8419752120972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3392124176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1767816543579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2231912612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1458435058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0066165924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4552354812622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9038534164429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7955675125122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0662841796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5303735733032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1436319351196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7414236068726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0508146286011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2828588485718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6928033828735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0099296569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1491565704346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9557876586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0176649093628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9867267608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3579959869385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4972229003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4198741912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5745697021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2397623062134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4486026763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5414199829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6961154937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1624155044556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1005373001099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6983270645142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.667387008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1160068511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9149017333984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8674392700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0776748657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7461500167847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6006021499634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7704076766968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.021071434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.818922996521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0453310012817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1747064590454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0695877075195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1585340499878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9806442260742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7380628585815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.689549446106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5359134674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4065380096436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5601720809937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9159545898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.762321472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9563856124878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8027505874634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3903656005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1801309585571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3580226898193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9482984542847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8270092010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.061502456665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.279824256897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5790042877197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1342763900757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1504487991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1666202545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4981460571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4658012390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5304870605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7245512008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4253721237183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3283395767212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0534152984619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2555656433105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2313079833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.891697883606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.093846321106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3525981903076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2070503234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9240398406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2636499404907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1019334793091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4334564208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1989631652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1100187301636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4900588989258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5709199905396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6032609939575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2232227325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9887285232544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1827926635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3768558502197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6517782211304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5385751724243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5547456741333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7326383590698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5870923995972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5062303543091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4819717407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6760349273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7002935409546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9994735717773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8458414077759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8377561569214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4577131271362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3364238739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9321269989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8836107254028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9078693389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9968128204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7784938812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4172859191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4011135101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4415445327759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2151346206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1181030273438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1423606872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.667950630188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2717380523682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6491165161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4873991012573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4227113723755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4469680786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3499374389648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.172046661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1882171630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2124757766724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2771635055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3984537124634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5278272628784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7542352676392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9402122497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0372457504272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0291585922241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7946643829346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4388828277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4712266921997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5197429656982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4550542831421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2205619812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3661088943481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.341851234436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8108377456665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7057189941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9644708633423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8997831344604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5844287872314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3095073699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3175926208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.22864818573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2043895721436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3014221191406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0345849990845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4793119430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1908769607544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3202533721924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.611349105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.797324180603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0399055480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0803337097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2339677810669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2097091674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0722484588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9024429321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9186153411865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0641613006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2258806228638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6544370651245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8242425918579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4927196502686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3148288726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4522895812988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4442043304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3633432388306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.201623916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3795166015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3229141235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2501401901245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2824840545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2743968963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3390846252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5250635147095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6948690414429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9051036834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7838153839111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7272109985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7999858856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8808450698853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9131908416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7757272720337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5412340164185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5574073791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6706104278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7595567703247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7029523849487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6220951080322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8565883636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1315116882324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5924110412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5438938140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.34983253479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4953784942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6570987701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8188190460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7217864990234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6247539520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7379589080811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9320240020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8026466369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1099147796631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2231178283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0214805603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8030395507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5846004486084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5173892974854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.609806060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4165725708008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3745632171631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2821445465088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3829650878906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4501781463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5005855560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8534507751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3241558074951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3073501586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4417762756348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4585781097412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3157520294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2317371368408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9208822250366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9712905883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1897296905518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3913669586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5930023193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4669799804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6518135070801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7610340118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5089874267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7358283996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0046768188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1054954528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3071308135986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.441556930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7776165008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8616313934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6936016082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3407363891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9878730773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.819845199585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1727085113525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9542675018311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0718898773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.887056350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0886917114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8366470336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7946395874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7274284362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0382843017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0550842285156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9038581848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6014060974121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1141147613525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8116598129272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6100244522095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4924039840698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6772365570068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6856374740601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6604318618774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4335927963257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5848188400269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.500804901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5932207107544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5428133010864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.803258895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3579816818237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4755992889404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8200635910034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9460868835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7948589324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0048942565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1057147979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7612524032593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7360467910767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.055305480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9628877639771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9040775299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2569427490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8284645080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.77805519104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8536701202393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5344095230103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3915853500366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2907667160034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.34117603302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8454856872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9715089797974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0219173431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2571611404419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0135173797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9799108505249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3831834793091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2991676330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2319574356079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1983509063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2235546112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3075704574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5092077255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.618426322937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.24875831604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0471220016479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8874931335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8202810287476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7026605606079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8538885116577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4758195877075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3834037780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4926223754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4506158828735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.164963722229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2237739562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4842205047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6186447143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0387210845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9967136383057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8790922164917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5178270339966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2825841903687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.912917137146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1397590637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1313571929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8625078201294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0389404296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9381217956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0305395126343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7196826934814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6944770812988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8373031616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2069702148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2993879318237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8120994567871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6272659301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4592351913452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2996072769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1903867721558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6188640594482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9801292419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7364854812622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4172286987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2239933013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5768575668335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5096445083618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4760398864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7532892227173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.887713432312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1817655563354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0053339004517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0137357711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0641450881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9717273712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3581981658936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6606531143188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5262298583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.190167427063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2321758270264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0473413467407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9213190078735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9969329833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8457050323486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.635666847229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7112808227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7028799057007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5516519546509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3416147232056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4844388961792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1063718795776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2323942184448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3920230865479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5348491668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4004249572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5264492034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7448883056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5852575302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0893497467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2153720855713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9465246200562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8205013275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8961153030396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2744026184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0643644332886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9131364822388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1147727966309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7504749298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3506336212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2884359359741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5105695724487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8837547302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.670506477356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7238178253174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6438503265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5372257232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.812671661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5016841888428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5461111068726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5727663040161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6527347564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4927988052368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1551561355591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0129909515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0929584503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2084674835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1995830535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2973222732544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2795505523682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3861751556396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3062076568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4394874572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5194549560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2173538208008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1107292175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0663022994995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1373853683472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0840740203857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1196155548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0041055679321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8974809646606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8708248138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8263988494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7730865478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4443283081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1333408355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1244554519653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6179904937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5113668441772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6624174118042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3247747421265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1648378372192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2981185913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5291376113892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7868127822876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6446466445923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5380229949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3780870437622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.555793762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1470680236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91604804992676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1826086044312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69391441345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97824573516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70279979705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89827823638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2003793716431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3692007064819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0049018859863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85385131835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80053901672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93381977081299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81830978393555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50732231140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9071626663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1737232208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4935960769653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5735635757446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5913352966309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2625770568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7157297134399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1155710220337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3465900421143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3643598556519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3288192749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3732452392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.337703704834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2755060195923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3199329376221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5331811904907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5864934921265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8086271286011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7997417449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9774484634399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6575765609741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7286596298218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6753482818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6931180953979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.542067527771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7819709777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.817512512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6309204101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6842317581177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7642002105713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9507923126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9152507781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9241371154785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8885955810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5509519577026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5154113769531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6398067474365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7375450134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4798698425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7464303970337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9419069290161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0574169158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0751876831055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.528341293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6793918609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7149333953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7415895462036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6083078384399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5549964904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7771310806274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6971626281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7682447433472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.794900894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7060470581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6260795593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5638828277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4217157363892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2617797851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3684043884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1018438339233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4087867736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0533723831177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9112071990967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1511116027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0977993011475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3821315765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.186653137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4976396560669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2932767868042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3110475540161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3554744720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1955394744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1599969863892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2310800552368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3021631240845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5242967605591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8352823257446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6042642593384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9063663482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.039647102356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.172926902771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0485315322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9952192306519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2440090179443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2262392044067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.315092086792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3772897720337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1785717010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0555553436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.998779296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7622098922729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.781135559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6675825119019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5540294647217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3836994171143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2322950363159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3363857269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.393162727356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3553113937378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1565933227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7875452041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6266784667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6172161102295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.806471824646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8348598480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9010992050171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7307691574097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8727102279663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8916368484497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8632478713989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9768009185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8159341812134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5793657302856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4752740859985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5415143966675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4184980392456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3144073486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1630039215088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0210628509521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7750301361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84126949310303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90750980377197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86965847015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71825408935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69932842254639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73717975616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76556777954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9642858505249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1724662780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2197799682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3711843490601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3806476593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3617210388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3333330154419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2860193252563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1156892776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2670946121216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2008543014526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1440782546997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3427963256836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.295482635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3995723724365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0683765411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7844934463501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58577537536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54792404174805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75610542297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63308906555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61416339874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67094039916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93589782714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2387056350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2765560150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.352258682251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3049449920654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4942007064819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5036630630493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4090356826782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6645307540894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7591571807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9673385620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0430402755737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2133703231812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9862632751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7780838012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7686204910278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6550674438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0619649887085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2606830596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5918807983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7338218688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0934066772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0366306304932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0460920333862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.856837272644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7716722488403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1880340576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0650186538696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2637367248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5003051757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5192308425903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4624547958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4056777954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6138582229614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0586080551147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0869960784912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7179479598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8882780075073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7368745803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7463369369507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6706352233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7841882705688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8409643173218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0680713653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1721611022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3803424835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1437730789185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4181928634644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2384004592896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0491456985474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1816244125366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3708791732788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1059226989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1532354354858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3141021728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4371185302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.484432220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6831502914429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7020750045776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6074485778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8345546722412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5317459106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5222835540771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5506715774536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4276552200317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3519535064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2667894363403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8315019607544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1343107223511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1626987457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0396823883057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9261293411255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.954517364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.822039604187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9829063415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9355926513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0018310546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0112943649292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6736869812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5790605545044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9102563858032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1373624801636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8754577636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8565320968628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7335166931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5442609786987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6294260025024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6578140258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6105003356934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9984741210938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9416971206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0268621444702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3296709060669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5378513336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2445058822632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3675212860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4905376434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4242973327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5567770004272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8186807632446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8092184066772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8470687866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.970085144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5821123123169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5064105987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6672773361206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7997560501099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9606227874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1214895248413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4148359298706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1688041687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2255802154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5662403106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4053735733032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2918195724487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3107452392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6324787139893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6892547607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6608657836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.33913230896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5851640701294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6703290939331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7838830947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1907825469971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8974351882935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9731369018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8501224517822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5094623565674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0109882354736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9068984985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.08669090271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.455738067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2759475708008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4273509979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5598297119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1340045928955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0015258789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6987180709839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9163608551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8311958312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1877279281616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3485956192017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4999990463257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1800003051758</t>
   </si>
 </sst>
 </file>
@@ -60966,7 +60969,7 @@
     </row>
     <row r="2157">
       <c r="A2157" s="1" t="n">
-        <v>45464.6494560185</v>
+        <v>45464.2916666667</v>
       </c>
       <c r="B2157" t="n">
         <v>309421</v>
@@ -60987,6 +60990,32 @@
         <v>1518</v>
       </c>
       <c r="H2157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" s="1" t="n">
+        <v>45467.649525463</v>
+      </c>
+      <c r="B2158" t="n">
+        <v>606312</v>
+      </c>
+      <c r="C2158" t="n">
+        <v>15.4799995422363</v>
+      </c>
+      <c r="D2158" t="n">
+        <v>14.8199996948242</v>
+      </c>
+      <c r="E2158" t="n">
+        <v>16.4699993133545</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>15.1800003051758</v>
+      </c>
+      <c r="G2158" t="s">
+        <v>1519</v>
+      </c>
+      <c r="H2158" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ACE.MI.xlsx
+++ b/data/ACE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="1520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="1521">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99844646453857</t>
+    <t xml:space="preserve">8.99844551086426</t>
   </si>
   <si>
     <t xml:space="preserve">ACE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01142311096191</t>
+    <t xml:space="preserve">9.01142120361328</t>
   </si>
   <si>
     <t xml:space="preserve">8.68703746795654</t>
@@ -53,76 +53,76 @@
     <t xml:space="preserve">8.82976627349854</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87518119812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01791000366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2125415802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08927440643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69352531433105</t>
+    <t xml:space="preserve">8.8751802444458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01790904998779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21254062652588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08927536010742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69352436065674</t>
   </si>
   <si>
     <t xml:space="preserve">8.73893928527832</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5897216796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28479957580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34318923950195</t>
+    <t xml:space="preserve">8.58972072601318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28479862213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34318733215332</t>
   </si>
   <si>
     <t xml:space="preserve">8.5183572769165</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53133201599121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66108798980713</t>
+    <t xml:space="preserve">8.53133106231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6610860824585</t>
   </si>
   <si>
     <t xml:space="preserve">8.77786540985107</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88815593719482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90113067626953</t>
+    <t xml:space="preserve">8.88815689086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90113162994385</t>
   </si>
   <si>
     <t xml:space="preserve">8.78435325622559</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75840187072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71947479248047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36265277862549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94743824005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80470991134644</t>
+    <t xml:space="preserve">8.75840377807617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7194766998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36265087127686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94743967056274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80470943450928</t>
   </si>
   <si>
     <t xml:space="preserve">7.65549230575562</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81119728088379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02529144287109</t>
+    <t xml:space="preserve">7.81119680404663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02529048919678</t>
   </si>
   <si>
     <t xml:space="preserve">7.9863657951355</t>
@@ -131,58 +131,58 @@
     <t xml:space="preserve">8.01231670379639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00582790374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7917332649231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9539270401001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03826713562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90202569961548</t>
+    <t xml:space="preserve">8.00582885742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79173517227173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95392751693726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0382661819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.902024269104</t>
   </si>
   <si>
     <t xml:space="preserve">8.04475402832031</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96041488647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09665679931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99934101104736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92797708511353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88256311416626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3886022567749</t>
+    <t xml:space="preserve">7.96041345596313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09665584564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99934005737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92797613143921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88256120681763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38860321044922</t>
   </si>
   <si>
     <t xml:space="preserve">8.77137756347656</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08278656005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18010139465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17361354827881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24497890472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19307804107666</t>
+    <t xml:space="preserve">9.08278846740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18010330200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17361545562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24497985839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19307899475098</t>
   </si>
   <si>
     <t xml:space="preserve">8.86220550537109</t>
@@ -194,22 +194,22 @@
     <t xml:space="preserve">8.7259635925293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84923076629639</t>
+    <t xml:space="preserve">8.8492317199707</t>
   </si>
   <si>
     <t xml:space="preserve">8.89464378356934</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98547172546387</t>
+    <t xml:space="preserve">8.98547267913818</t>
   </si>
   <si>
     <t xml:space="preserve">8.82328033447266</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79732799530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73245239257812</t>
+    <t xml:space="preserve">8.79732894897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73245048522949</t>
   </si>
   <si>
     <t xml:space="preserve">8.86869335174561</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">8.27182483673096</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23938465118408</t>
+    <t xml:space="preserve">8.2393856048584</t>
   </si>
   <si>
     <t xml:space="preserve">8.09016799926758</t>
@@ -233,22 +233,22 @@
     <t xml:space="preserve">8.21992301940918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26533794403076</t>
+    <t xml:space="preserve">8.26533508300781</t>
   </si>
   <si>
     <t xml:space="preserve">8.33021354675293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42104053497314</t>
+    <t xml:space="preserve">8.42104148864746</t>
   </si>
   <si>
     <t xml:space="preserve">8.36913967132568</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33670043945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23289775848389</t>
+    <t xml:space="preserve">8.33670139312744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23289680480957</t>
   </si>
   <si>
     <t xml:space="preserve">8.14207077026367</t>
@@ -260,19 +260,19 @@
     <t xml:space="preserve">8.49240589141846</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55728340148926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3950891494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25236034393311</t>
+    <t xml:space="preserve">8.55728244781494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39509010314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25236129760742</t>
   </si>
   <si>
     <t xml:space="preserve">8.19397163391113</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41455364227295</t>
+    <t xml:space="preserve">8.41455459594727</t>
   </si>
   <si>
     <t xml:space="preserve">8.38211441040039</t>
@@ -281,7 +281,7 @@
     <t xml:space="preserve">8.47294235229492</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57674694061279</t>
+    <t xml:space="preserve">8.57674598693848</t>
   </si>
   <si>
     <t xml:space="preserve">8.61567306518555</t>
@@ -290,37 +290,37 @@
     <t xml:space="preserve">8.56377029418945</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43401718139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12260723114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87607383728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91499996185303</t>
+    <t xml:space="preserve">8.43401622772217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12260627746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87607479095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91499948501587</t>
   </si>
   <si>
     <t xml:space="preserve">7.76578330993652</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52573823928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17540264129639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29218053817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29866886138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45437240600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42045831680298</t>
+    <t xml:space="preserve">7.52573871612549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17540168762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29217910766602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29866933822632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45437335968018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42045879364014</t>
   </si>
   <si>
     <t xml:space="preserve">7.37976169586182</t>
@@ -332,13 +332,13 @@
     <t xml:space="preserve">7.38654518127441</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9931378364563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67434358596802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79643535614014</t>
+    <t xml:space="preserve">6.99313879013062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67434406280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79643583297729</t>
   </si>
   <si>
     <t xml:space="preserve">6.91852617263794</t>
@@ -350,43 +350,43 @@
     <t xml:space="preserve">7.32549858093262</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3661961555481</t>
+    <t xml:space="preserve">7.36619520187378</t>
   </si>
   <si>
     <t xml:space="preserve">7.25767040252686</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1016640663147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0677490234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14236211776733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18305826187134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05418395996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23732137680054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25088691711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21697330474854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48828744888306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4815034866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9359564781189</t>
+    <t xml:space="preserve">7.10166358947754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06775045394897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14236116409302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1830587387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05418300628662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23732233047485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25088596343994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21697235107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48828792572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48150539398193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93595600128174</t>
   </si>
   <si>
     <t xml:space="preserve">7.9088249206543</t>
@@ -395,7 +395,7 @@
     <t xml:space="preserve">8.44467163085938</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41754150390625</t>
+    <t xml:space="preserve">8.41754055023193</t>
   </si>
   <si>
     <t xml:space="preserve">8.38362598419189</t>
@@ -404,148 +404,148 @@
     <t xml:space="preserve">8.54641532897949</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55997943878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45145606994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43110752105713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4785852432251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32258129119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19370651245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24118709564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27510070800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12587833404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11909484863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10552883148193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13266086578369</t>
+    <t xml:space="preserve">8.55998134613037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45145416259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4311056137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47858619689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3225793838501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19370555877686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24118518829346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2750997543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12587738037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1190938949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10552978515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13265991210938</t>
   </si>
   <si>
     <t xml:space="preserve">8.07839679718018</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9291729927063</t>
+    <t xml:space="preserve">7.92917346954346</t>
   </si>
   <si>
     <t xml:space="preserve">8.01056861877441</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06483173370361</t>
+    <t xml:space="preserve">8.0648307800293</t>
   </si>
   <si>
     <t xml:space="preserve">8.18014049530029</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15300846099854</t>
+    <t xml:space="preserve">8.15300941467285</t>
   </si>
   <si>
     <t xml:space="preserve">8.05126571655273</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08518028259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05804920196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85456228256226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71890497207642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7392520904541</t>
+    <t xml:space="preserve">8.08517932891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05804824829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85456323623657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71890592575073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73925304412842</t>
   </si>
   <si>
     <t xml:space="preserve">7.82064819335938</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66464138031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59003019332886</t>
+    <t xml:space="preserve">7.66464328765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59003114700317</t>
   </si>
   <si>
     <t xml:space="preserve">7.56289911270142</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5154185295105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53576755523682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55611658096313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52220249176025</t>
+    <t xml:space="preserve">7.51541948318481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53576803207397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55611610412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5222020149231</t>
   </si>
   <si>
     <t xml:space="preserve">7.50185394287109</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49506998062134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52898502349854</t>
+    <t xml:space="preserve">7.4950704574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52898454666138</t>
   </si>
   <si>
     <t xml:space="preserve">7.50863599777222</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40011119842529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29158449172974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37297821044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31193399429321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56968259811401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69177436828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75960350036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9020414352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87491083145142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99700164794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94952344894409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96987152099609</t>
+    <t xml:space="preserve">7.40010976791382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29158401489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37297868728638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31193256378174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5696816444397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69177389144897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75960159301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90204238891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87491178512573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99700260162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94952249526978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96987199783325</t>
   </si>
   <si>
     <t xml:space="preserve">8.00378608703613</t>
@@ -563,70 +563,70 @@
     <t xml:space="preserve">7.71212244033813</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64429426193237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16271018981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87782859802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8981785774231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85069847106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7828688621521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7353892326355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77947807312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83034944534302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95922422409058</t>
+    <t xml:space="preserve">7.64429330825806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16270971298218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87782907485962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89817762374878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85069751739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78286981582642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73538970947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7794771194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83034896850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95922374725342</t>
   </si>
   <si>
     <t xml:space="preserve">6.8371319770813</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90496110916138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82356691360474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72860670089722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18984079360962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43402433395386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5968132019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83421325683594</t>
+    <t xml:space="preserve">6.90496063232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82356643676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7286057472229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18984174728394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43402481079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59681272506714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83421421051025</t>
   </si>
   <si>
     <t xml:space="preserve">7.7799506187439</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77316808700562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72568845748901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86812829971313</t>
+    <t xml:space="preserve">7.77316904067993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7256875038147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86812925338745</t>
   </si>
   <si>
     <t xml:space="preserve">7.86134481430054</t>
@@ -635,67 +635,67 @@
     <t xml:space="preserve">8.02413463592529</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03770065307617</t>
+    <t xml:space="preserve">8.03769969940186</t>
   </si>
   <si>
     <t xml:space="preserve">8.07161426544189</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26153564453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15979194641113</t>
+    <t xml:space="preserve">8.26153469085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15979099273682</t>
   </si>
   <si>
     <t xml:space="preserve">8.20727252960205</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68498992919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7460355758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81386566162109</t>
+    <t xml:space="preserve">7.68499040603638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74603652954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81386661529541</t>
   </si>
   <si>
     <t xml:space="preserve">7.7528190612793</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09874534606934</t>
+    <t xml:space="preserve">8.09874439239502</t>
   </si>
   <si>
     <t xml:space="preserve">8.04448223114014</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97665405273438</t>
+    <t xml:space="preserve">7.97665548324585</t>
   </si>
   <si>
     <t xml:space="preserve">7.99021911621094</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09196376800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13944339752197</t>
+    <t xml:space="preserve">8.09196281433105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13944244384766</t>
   </si>
   <si>
     <t xml:space="preserve">8.20048904418945</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11231136322021</t>
+    <t xml:space="preserve">8.11231231689453</t>
   </si>
   <si>
     <t xml:space="preserve">7.98343753814697</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34292984008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2208366394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29544830322266</t>
+    <t xml:space="preserve">8.34292888641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22083759307861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29544925689697</t>
   </si>
   <si>
     <t xml:space="preserve">8.41075706481934</t>
@@ -704,10 +704,10 @@
     <t xml:space="preserve">8.47180271148682</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51250076293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58711242675781</t>
+    <t xml:space="preserve">8.51250171661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5871114730835</t>
   </si>
   <si>
     <t xml:space="preserve">8.67528915405273</t>
@@ -716,52 +716,52 @@
     <t xml:space="preserve">8.62780952453613</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61424255371094</t>
+    <t xml:space="preserve">8.61424350738525</t>
   </si>
   <si>
     <t xml:space="preserve">8.60746097564697</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65494251251221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85842609405518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85164356231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82451248168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81772994995117</t>
+    <t xml:space="preserve">8.65494155883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85842704772949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85164451599121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82451152801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81772899627686</t>
   </si>
   <si>
     <t xml:space="preserve">8.74311828613281</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95338726043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91947269439697</t>
+    <t xml:space="preserve">8.9533863067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91947364807129</t>
   </si>
   <si>
     <t xml:space="preserve">8.78381443023682</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86520862579346</t>
+    <t xml:space="preserve">8.86520957946777</t>
   </si>
   <si>
     <t xml:space="preserve">9.00765037536621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01443290710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02121639251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96016979217529</t>
+    <t xml:space="preserve">9.01443195343018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02121543884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96017074584961</t>
   </si>
   <si>
     <t xml:space="preserve">9.21791934967041</t>
@@ -773,43 +773,43 @@
     <t xml:space="preserve">9.22470283508301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25183391571045</t>
+    <t xml:space="preserve">9.25183582305908</t>
   </si>
   <si>
     <t xml:space="preserve">9.34001064300537</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55027961730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60454177856445</t>
+    <t xml:space="preserve">9.55027866363525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60454368591309</t>
   </si>
   <si>
     <t xml:space="preserve">9.42140579223633</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36714267730713</t>
+    <t xml:space="preserve">9.36714172363281</t>
   </si>
   <si>
     <t xml:space="preserve">9.41462230682373</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61132526397705</t>
+    <t xml:space="preserve">9.61132621765137</t>
   </si>
   <si>
     <t xml:space="preserve">9.43497180938721</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44853782653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63167381286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71306800842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74020099639893</t>
+    <t xml:space="preserve">9.44853687286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63167285919189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71306705474854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74019908905029</t>
   </si>
   <si>
     <t xml:space="preserve">9.78089714050293</t>
@@ -818,7 +818,7 @@
     <t xml:space="preserve">9.87585735321045</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76054859161377</t>
+    <t xml:space="preserve">9.76054954528809</t>
   </si>
   <si>
     <t xml:space="preserve">9.86907482147217</t>
@@ -836,16 +836,16 @@
     <t xml:space="preserve">9.94368648529053</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95046997070312</t>
+    <t xml:space="preserve">9.95046901702881</t>
   </si>
   <si>
     <t xml:space="preserve">9.88263988494873</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99116706848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84872531890869</t>
+    <t xml:space="preserve">9.99116611480713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84872722625732</t>
   </si>
   <si>
     <t xml:space="preserve">9.79446220397949</t>
@@ -854,25 +854,25 @@
     <t xml:space="preserve">9.95746803283691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85116004943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0425128936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94329357147217</t>
+    <t xml:space="preserve">9.85115909576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0425138473511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94329261779785</t>
   </si>
   <si>
     <t xml:space="preserve">9.88659572601318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92203140258789</t>
+    <t xml:space="preserve">9.92203235626221</t>
   </si>
   <si>
     <t xml:space="preserve">9.63854598999023</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51806354522705</t>
+    <t xml:space="preserve">9.51806259155273</t>
   </si>
   <si>
     <t xml:space="preserve">9.57476139068604</t>
@@ -890,25 +890,25 @@
     <t xml:space="preserve">9.35505771636963</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22040271759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34797096252441</t>
+    <t xml:space="preserve">9.2204008102417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3479700088501</t>
   </si>
   <si>
     <t xml:space="preserve">9.46136665344238</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28418731689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46845436096191</t>
+    <t xml:space="preserve">9.28418827056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46845245361328</t>
   </si>
   <si>
     <t xml:space="preserve">9.5038890838623</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52515029907227</t>
+    <t xml:space="preserve">9.52514934539795</t>
   </si>
   <si>
     <t xml:space="preserve">9.6314582824707</t>
@@ -917,31 +917,31 @@
     <t xml:space="preserve">9.5322380065918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54641246795654</t>
+    <t xml:space="preserve">9.54641151428223</t>
   </si>
   <si>
     <t xml:space="preserve">9.42593002319336</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49680137634277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29127407073975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3408842086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31962203979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9227409362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98652648925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94400215148926</t>
+    <t xml:space="preserve">9.49680233001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29127502441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34088516235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31962299346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92274188995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9865255355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94400310516357</t>
   </si>
   <si>
     <t xml:space="preserve">8.95817756652832</t>
@@ -950,19 +950,19 @@
     <t xml:space="preserve">9.09283351898193</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93691539764404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83769512176514</t>
+    <t xml:space="preserve">8.93691635131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83769607543945</t>
   </si>
   <si>
     <t xml:space="preserve">8.7243013381958</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86604499816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87313175201416</t>
+    <t xml:space="preserve">8.86604309082031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87313079833984</t>
   </si>
   <si>
     <t xml:space="preserve">8.80225944519043</t>
@@ -977,28 +977,28 @@
     <t xml:space="preserve">8.78099822998047</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71721458435059</t>
+    <t xml:space="preserve">8.71721363067627</t>
   </si>
   <si>
     <t xml:space="preserve">8.66760349273682</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65342998504639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63216876983643</t>
+    <t xml:space="preserve">8.65342807769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63216781616211</t>
   </si>
   <si>
     <t xml:space="preserve">8.57547092437744</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54712295532227</t>
+    <t xml:space="preserve">8.54712200164795</t>
   </si>
   <si>
     <t xml:space="preserve">8.5967321395874</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75973701477051</t>
+    <t xml:space="preserve">8.75973606109619</t>
   </si>
   <si>
     <t xml:space="preserve">8.68177795410156</t>
@@ -1007,7 +1007,7 @@
     <t xml:space="preserve">8.78808498382568</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22748947143555</t>
+    <t xml:space="preserve">9.22749042510986</t>
   </si>
   <si>
     <t xml:space="preserve">9.39049339294434</t>
@@ -1019,16 +1019,16 @@
     <t xml:space="preserve">9.0786600112915</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0857458114624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09992027282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2133150100708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27001190185547</t>
+    <t xml:space="preserve">9.08574676513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09992122650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21331405639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27001285552979</t>
   </si>
   <si>
     <t xml:space="preserve">9.14953136444092</t>
@@ -1040,13 +1040,13 @@
     <t xml:space="preserve">9.19914054870605</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29836082458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38340759277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32670879364014</t>
+    <t xml:space="preserve">9.29836177825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38340663909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32670974731445</t>
   </si>
   <si>
     <t xml:space="preserve">9.30544853210449</t>
@@ -1055,28 +1055,28 @@
     <t xml:space="preserve">9.61019706726074</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62437152862549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72359085083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67398166656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80155086517334</t>
+    <t xml:space="preserve">9.62437057495117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72359180450439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67397975921631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80154991149902</t>
   </si>
   <si>
     <t xml:space="preserve">9.84407329559326</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98581695556641</t>
+    <t xml:space="preserve">9.98581600189209</t>
   </si>
   <si>
     <t xml:space="preserve">9.90785789489746</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82281112670898</t>
+    <t xml:space="preserve">9.8228120803833</t>
   </si>
   <si>
     <t xml:space="preserve">9.96455574035645</t>
@@ -1091,10 +1091,10 @@
     <t xml:space="preserve">10.326000213623</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3472604751587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.290563583374</t>
+    <t xml:space="preserve">10.347261428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2905654907227</t>
   </si>
   <si>
     <t xml:space="preserve">10.2196922302246</t>
@@ -1103,31 +1103,31 @@
     <t xml:space="preserve">10.198431968689</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1559076309204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0283374786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1700820922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1204719543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4323081970215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4110469818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3756122589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4819183349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.425220489502</t>
+    <t xml:space="preserve">10.1559085845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0283393859863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1700830459595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.12047290802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4323072433472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4110460281372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3756113052368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4819173812866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4252214431763</t>
   </si>
   <si>
     <t xml:space="preserve">10.382698059082</t>
@@ -1136,7 +1136,7 @@
     <t xml:space="preserve">10.3614358901978</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7370557785034</t>
+    <t xml:space="preserve">10.7370548248291</t>
   </si>
   <si>
     <t xml:space="preserve">11.9773082733154</t>
@@ -1145,43 +1145,43 @@
     <t xml:space="preserve">12.1048784255981</t>
   </si>
   <si>
-    <t xml:space="preserve">12.019832611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0481815338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.984395980835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9702215194702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0340070724487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8780908584595</t>
+    <t xml:space="preserve">12.0198307037354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0481824874878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9843978881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9702224731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0340061187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8780899047852</t>
   </si>
   <si>
     <t xml:space="preserve">11.5875158309937</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4953832626343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3819875717163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6867361068726</t>
+    <t xml:space="preserve">11.49538230896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.381986618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6867351531982</t>
   </si>
   <si>
     <t xml:space="preserve">11.3182039260864</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0772399902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9354972839355</t>
+    <t xml:space="preserve">11.0772409439087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9354963302612</t>
   </si>
   <si>
     <t xml:space="preserve">11.0559778213501</t>
@@ -1190,37 +1190,37 @@
     <t xml:space="preserve">11.0347166061401</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9142351150513</t>
+    <t xml:space="preserve">10.914234161377</t>
   </si>
   <si>
     <t xml:space="preserve">10.9567575454712</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1268482208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.325288772583</t>
+    <t xml:space="preserve">11.1268501281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3252906799316</t>
   </si>
   <si>
     <t xml:space="preserve">11.4245119094849</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5024690628052</t>
+    <t xml:space="preserve">11.5024709701538</t>
   </si>
   <si>
     <t xml:space="preserve">11.3040285110474</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2189817428589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1197624206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1693735122681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3394632339478</t>
+    <t xml:space="preserve">11.2189826965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1197633743286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1693725585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3394651412964</t>
   </si>
   <si>
     <t xml:space="preserve">11.4457721710205</t>
@@ -1232,13 +1232,13 @@
     <t xml:space="preserve">11.5591669082642</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6442136764526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4386854171753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3465518951416</t>
+    <t xml:space="preserve">11.6442127227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4386835098267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3465528488159</t>
   </si>
   <si>
     <t xml:space="preserve">11.2756795883179</t>
@@ -1247,13 +1247,13 @@
     <t xml:space="preserve">11.2331571578979</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0843276977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0276308059692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0063676834106</t>
+    <t xml:space="preserve">11.0843267440796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0276298522949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.006368637085</t>
   </si>
   <si>
     <t xml:space="preserve">10.8433637619019</t>
@@ -1262,25 +1262,25 @@
     <t xml:space="preserve">10.5669631958008</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3330869674683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6661853790283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3897857666016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5031795501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5244407653809</t>
+    <t xml:space="preserve">10.3330879211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.666184425354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3897848129272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5031785964966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5244398117065</t>
   </si>
   <si>
     <t xml:space="preserve">10.5953130722046</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5527906417847</t>
+    <t xml:space="preserve">10.552788734436</t>
   </si>
   <si>
     <t xml:space="preserve">10.4393949508667</t>
@@ -1295,253 +1295,256 @@
     <t xml:space="preserve">9.87950897216797</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0921230316162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1133842468262</t>
+    <t xml:space="preserve">10.0921239852905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1133852005005</t>
   </si>
   <si>
     <t xml:space="preserve">10.1275596618652</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90077018737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99999141693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78028869628906</t>
+    <t xml:space="preserve">9.90077114105225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99999046325684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78028774261475</t>
   </si>
   <si>
     <t xml:space="preserve">9.64563179016113</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56058692932129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6598072052002</t>
+    <t xml:space="preserve">9.56058597564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65980815887451</t>
   </si>
   <si>
     <t xml:space="preserve">9.48971462249756</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60310935974121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76611423492432</t>
+    <t xml:space="preserve">9.60310840606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76611328125</t>
   </si>
   <si>
     <t xml:space="preserve">9.70941734313965</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66689491271973</t>
+    <t xml:space="preserve">9.66689586639404</t>
   </si>
   <si>
     <t xml:space="preserve">9.58893489837646</t>
   </si>
   <si>
+    <t xml:space="preserve">9.73067760467529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86533546447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97872829437256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0708618164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2551288604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2622146606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2267808914185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4181337356567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2763891220093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2126064300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91494464874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1629953384399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73776435852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43301677703857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2062292098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45427989959717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82989883422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69353866577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72325038909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67125415802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53754901885986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5746898651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47812747955322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49298191070557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45584106445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41127395629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46327114105225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44098567962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61925792694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70839405059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8346700668335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6415433883667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53012180328369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55240535736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65639877319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70096588134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54497814178467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60440254211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81981468200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87923812866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84952545166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0500831604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.15407371521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0055150985718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0649394989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1020793914795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1317911148071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0203714370728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1095056533813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97580146789551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89409351348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94608974456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7381067276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78267383575439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71582126617432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67868232727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51526641845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23300266265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12158203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08444118499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19586277008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39641857147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43355846405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56726169586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66382598876953</t>
+  </si>
+  <si>
     <t xml:space="preserve">9.73067855834961</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86533355712891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97872924804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0708637237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2551279067993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2622146606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2267799377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4181327819824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2763891220093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2126064300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91494369506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1629962921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73776626586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43301773071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20622825622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45427894592285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8298978805542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69353771209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72325038909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67125511169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53754997253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57469081878662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47812652587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49298191070557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45584106445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41127395629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46327018737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44098663330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6192569732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70839309692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8346700668335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64154148101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53012180328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55240631103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65639877319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70096492767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54497814178467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60440254211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81981468200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87923812866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84952545166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0500812530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.15407371521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0055150985718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0649394989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1020793914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1317901611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0203704833984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1095056533813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97580146789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89409351348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94609069824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73810577392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78267478942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71582126617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67868137359619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51526641845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23300266265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12158298492432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08444118499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19586277008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39641761779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43355751037598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56726169586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66382694244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82724189758301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86438274383545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81238555908203</t>
+    <t xml:space="preserve">9.82724094390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86438179016113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81238460540771</t>
   </si>
   <si>
     <t xml:space="preserve">9.58954620361328</t>
@@ -1556,7 +1559,7 @@
     <t xml:space="preserve">9.15129375457764</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09929847717285</t>
+    <t xml:space="preserve">9.09929656982422</t>
   </si>
   <si>
     <t xml:space="preserve">8.90616989135742</t>
@@ -1565,10 +1568,10 @@
     <t xml:space="preserve">8.8764591217041</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78732204437256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99530601501465</t>
+    <t xml:space="preserve">8.78732299804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99530506134033</t>
   </si>
   <si>
     <t xml:space="preserve">8.89131450653076</t>
@@ -1577,22 +1580,22 @@
     <t xml:space="preserve">8.65361785888672</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64618968963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60904979705811</t>
+    <t xml:space="preserve">8.64619064331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60905075073242</t>
   </si>
   <si>
     <t xml:space="preserve">8.41592216491699</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43820571899414</t>
+    <t xml:space="preserve">8.43820762634277</t>
   </si>
   <si>
     <t xml:space="preserve">8.44563484191895</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30450248718262</t>
+    <t xml:space="preserve">8.3045015335083</t>
   </si>
   <si>
     <t xml:space="preserve">8.52734184265137</t>
@@ -1607,31 +1610,31 @@
     <t xml:space="preserve">8.66847324371338</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77246761322021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75018119812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89874267578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81703472137451</t>
+    <t xml:space="preserve">8.7724666595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75018215179443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89874172210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8170337677002</t>
   </si>
   <si>
     <t xml:space="preserve">9.58211803436279</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50783824920654</t>
+    <t xml:space="preserve">9.50783729553223</t>
   </si>
   <si>
     <t xml:space="preserve">9.48555469512939</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21814632415771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22557353973389</t>
+    <t xml:space="preserve">9.21814727783203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2255744934082</t>
   </si>
   <si>
     <t xml:space="preserve">9.06215763092041</t>
@@ -1640,34 +1643,34 @@
     <t xml:space="preserve">8.95816707611084</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97302341461182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83931827545166</t>
+    <t xml:space="preserve">8.9730224609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83931732177734</t>
   </si>
   <si>
     <t xml:space="preserve">8.9210262298584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91359901428223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79475021362305</t>
+    <t xml:space="preserve">8.91359806060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79475116729736</t>
   </si>
   <si>
     <t xml:space="preserve">8.75760936737061</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83189105987549</t>
+    <t xml:space="preserve">8.83189010620117</t>
   </si>
   <si>
     <t xml:space="preserve">8.59419441223145</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21071815490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01016330718994</t>
+    <t xml:space="preserve">9.21071910858154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01016235351562</t>
   </si>
   <si>
     <t xml:space="preserve">8.72789764404297</t>
@@ -1676,22 +1679,22 @@
     <t xml:space="preserve">8.57933807373047</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76503849029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85417556762695</t>
+    <t xml:space="preserve">8.76503944396973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85417461395264</t>
   </si>
   <si>
     <t xml:space="preserve">9.0250186920166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77989482879639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92845439910889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09187030792236</t>
+    <t xml:space="preserve">8.7798957824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9284553527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09186935424805</t>
   </si>
   <si>
     <t xml:space="preserve">9.24785804748535</t>
@@ -1700,10 +1703,10 @@
     <t xml:space="preserve">9.27014255523682</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3221378326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.686110496521</t>
+    <t xml:space="preserve">9.32213878631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68610954284668</t>
   </si>
   <si>
     <t xml:space="preserve">9.95351791381836</t>
@@ -1718,28 +1721,28 @@
     <t xml:space="preserve">9.79010200500488</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9906587600708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1169328689575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0575094223022</t>
+    <t xml:space="preserve">9.99065780639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1169347763062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0575103759766</t>
   </si>
   <si>
     <t xml:space="preserve">10.079794883728</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96094608306885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1392183303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3694858551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3174905776978</t>
+    <t xml:space="preserve">9.96094512939453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.139217376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3694849014282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3174896240234</t>
   </si>
   <si>
     <t xml:space="preserve">10.3397741317749</t>
@@ -1754,22 +1757,22 @@
     <t xml:space="preserve">10.3100624084473</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4883337020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.718602180481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8077383041382</t>
+    <t xml:space="preserve">10.4883346557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7186031341553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8077373504639</t>
   </si>
   <si>
     <t xml:space="preserve">11.1048574447632</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2608451843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1345691680908</t>
+    <t xml:space="preserve">11.2608461380005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1345682144165</t>
   </si>
   <si>
     <t xml:space="preserve">11.1791381835938</t>
@@ -1778,19 +1781,19 @@
     <t xml:space="preserve">11.0974292755127</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2088499069214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1865653991699</t>
+    <t xml:space="preserve">11.2088489532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1865663528442</t>
   </si>
   <si>
     <t xml:space="preserve">11.2757024765015</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2237062454224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2905588150024</t>
+    <t xml:space="preserve">11.223705291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2905578613281</t>
   </si>
   <si>
     <t xml:space="preserve">11.25341796875</t>
@@ -1799,19 +1802,19 @@
     <t xml:space="preserve">11.2385625839233</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2162790298462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1939945220947</t>
+    <t xml:space="preserve">11.2162771224976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1939935684204</t>
   </si>
   <si>
     <t xml:space="preserve">11.424262046814</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8847970962524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8996534347534</t>
+    <t xml:space="preserve">11.8847980499268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8996524810791</t>
   </si>
   <si>
     <t xml:space="preserve">12.0333585739136</t>
@@ -1820,16 +1823,16 @@
     <t xml:space="preserve">11.8402299880981</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9739351272583</t>
+    <t xml:space="preserve">11.973934173584</t>
   </si>
   <si>
     <t xml:space="preserve">11.959077835083</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8253726959229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6768140792847</t>
+    <t xml:space="preserve">11.8253736495972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.676815032959</t>
   </si>
   <si>
     <t xml:space="preserve">11.4985418319702</t>
@@ -1841,28 +1844,28 @@
     <t xml:space="preserve">11.7065267562866</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9145097732544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9442224502563</t>
+    <t xml:space="preserve">11.9145088195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.944221496582</t>
   </si>
   <si>
     <t xml:space="preserve">12.0185022354126</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0036458969116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1522054672241</t>
+    <t xml:space="preserve">12.0036449432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1522073745728</t>
   </si>
   <si>
     <t xml:space="preserve">12.0779256820679</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4047584533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4938926696777</t>
+    <t xml:space="preserve">12.4047565460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4938936233521</t>
   </si>
   <si>
     <t xml:space="preserve">12.6721649169922</t>
@@ -1871,31 +1874,31 @@
     <t xml:space="preserve">12.5384607315063</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4196147918701</t>
+    <t xml:space="preserve">12.4196128845215</t>
   </si>
   <si>
     <t xml:space="preserve">12.3750457763672</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2859106063843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2264842987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3453350067139</t>
+    <t xml:space="preserve">12.2859115600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2264852523804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3453340530396</t>
   </si>
   <si>
     <t xml:space="preserve">12.4493265151978</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4641828536987</t>
+    <t xml:space="preserve">12.4641819000244</t>
   </si>
   <si>
     <t xml:space="preserve">12.3899011611938</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4344692230225</t>
+    <t xml:space="preserve">12.4344701766968</t>
   </si>
   <si>
     <t xml:space="preserve">12.3601884841919</t>
@@ -1904,13 +1907,13 @@
     <t xml:space="preserve">12.6275978088379</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7613010406494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8504362106323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8801488876343</t>
+    <t xml:space="preserve">12.7613000869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.850438117981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8801507949829</t>
   </si>
   <si>
     <t xml:space="preserve">12.9247169494629</t>
@@ -1922,67 +1925,67 @@
     <t xml:space="preserve">13.0881328582764</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1029872894287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1178455352783</t>
+    <t xml:space="preserve">13.102988243103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1178464889526</t>
   </si>
   <si>
     <t xml:space="preserve">13.1772689819336</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2515487670898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2218360900879</t>
+    <t xml:space="preserve">13.2515497207642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2218370437622</t>
   </si>
   <si>
     <t xml:space="preserve">13.2961177825928</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4121379852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2574434280396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2265043258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9635210037231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9480504989624</t>
+    <t xml:space="preserve">13.4121408462524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2574424743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.226505279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9635219573975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9480514526367</t>
   </si>
   <si>
     <t xml:space="preserve">12.886173248291</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0254001617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3966703414917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3193206787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1182174682617</t>
+    <t xml:space="preserve">13.0253992080688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3966684341431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3193225860596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1182165145874</t>
   </si>
   <si>
     <t xml:space="preserve">13.164626121521</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3347911834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2729120254517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4740180969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.381199836731</t>
+    <t xml:space="preserve">13.334792137146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.272912979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4740171432495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3811988830566</t>
   </si>
   <si>
     <t xml:space="preserve">13.3657312393188</t>
@@ -1994,31 +1997,31 @@
     <t xml:space="preserve">13.5358972549438</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2883834838867</t>
+    <t xml:space="preserve">13.2883825302124</t>
   </si>
   <si>
     <t xml:space="preserve">13.3038530349731</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1800956726074</t>
+    <t xml:space="preserve">13.1800966262817</t>
   </si>
   <si>
     <t xml:space="preserve">13.5049562454224</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4430770874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4894886016846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6751232147217</t>
+    <t xml:space="preserve">13.4430780410767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4894876480103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6751222610474</t>
   </si>
   <si>
     <t xml:space="preserve">13.7215309143066</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6596536636353</t>
+    <t xml:space="preserve">13.6596527099609</t>
   </si>
   <si>
     <t xml:space="preserve">13.5823040008545</t>
@@ -2030,19 +2033,19 @@
     <t xml:space="preserve">13.7060623168945</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6905918121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6287155151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.551365852356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7679405212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5977735519409</t>
+    <t xml:space="preserve">13.6905937194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6287136077881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5513668060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7679395675659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5977745056152</t>
   </si>
   <si>
     <t xml:space="preserve">13.1955642700195</t>
@@ -2051,16 +2054,16 @@
     <t xml:space="preserve">13.4585475921631</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1336851119995</t>
+    <t xml:space="preserve">13.1336860656738</t>
   </si>
   <si>
     <t xml:space="preserve">14.0773334503174</t>
   </si>
   <si>
-    <t xml:space="preserve">13.953577041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1237421035767</t>
+    <t xml:space="preserve">13.953574180603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1237411499023</t>
   </si>
   <si>
     <t xml:space="preserve">13.9690437316895</t>
@@ -2075,7 +2078,7 @@
     <t xml:space="preserve">13.7988805770874</t>
   </si>
   <si>
-    <t xml:space="preserve">13.783408164978</t>
+    <t xml:space="preserve">13.783411026001</t>
   </si>
   <si>
     <t xml:space="preserve">13.5204267501831</t>
@@ -2084,64 +2087,64 @@
     <t xml:space="preserve">13.8916969299316</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8762273788452</t>
+    <t xml:space="preserve">13.8762283325195</t>
   </si>
   <si>
     <t xml:space="preserve">13.9071674346924</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8607578277588</t>
+    <t xml:space="preserve">13.8607568740845</t>
   </si>
   <si>
     <t xml:space="preserve">13.7370004653931</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4021940231323</t>
+    <t xml:space="preserve">14.402193069458</t>
   </si>
   <si>
     <t xml:space="preserve">14.5878286361694</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1856203079224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3867244720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6187677383423</t>
+    <t xml:space="preserve">14.185619354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3867235183716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6187686920166</t>
   </si>
   <si>
     <t xml:space="preserve">14.4176626205444</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2629671096802</t>
+    <t xml:space="preserve">14.2629680633545</t>
   </si>
   <si>
     <t xml:space="preserve">14.5104808807373</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6032981872559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0928020477295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1082706451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0618619918823</t>
+    <t xml:space="preserve">14.6032962799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0928010940552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1082715988159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.061863899231</t>
   </si>
   <si>
     <t xml:space="preserve">14.4331321716309</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6497077941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7115869522095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.464072227478</t>
+    <t xml:space="preserve">14.6497087478638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7115850448608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4640741348267</t>
   </si>
   <si>
     <t xml:space="preserve">14.3248453140259</t>
@@ -2150,49 +2153,49 @@
     <t xml:space="preserve">14.2939052581787</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2474975585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1546783447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9845151901245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8452882766724</t>
+    <t xml:space="preserve">14.2474985122681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1546802520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9845142364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8452863693237</t>
   </si>
   <si>
     <t xml:space="preserve">14.5259504318237</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1292638778687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1447343826294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3149003982544</t>
+    <t xml:space="preserve">15.129264831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1447334289551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3149013519287</t>
   </si>
   <si>
     <t xml:space="preserve">15.5082693099976</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7403144836426</t>
+    <t xml:space="preserve">15.7403135299683</t>
   </si>
   <si>
     <t xml:space="preserve">15.6242914199829</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7016382217407</t>
+    <t xml:space="preserve">15.7016401290894</t>
   </si>
   <si>
     <t xml:space="preserve">16.0883808135986</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2817497253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6684894561768</t>
+    <t xml:space="preserve">16.2817478179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6684875488281</t>
   </si>
   <si>
     <t xml:space="preserve">16.8618583679199</t>
@@ -2210,7 +2213,7 @@
     <t xml:space="preserve">16.3590984344482</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2430744171143</t>
+    <t xml:space="preserve">16.2430763244629</t>
   </si>
   <si>
     <t xml:space="preserve">16.1270542144775</t>
@@ -2231,10 +2234,10 @@
     <t xml:space="preserve">15.6629657745361</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4231863021851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5469455718994</t>
+    <t xml:space="preserve">15.4231882095337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5469436645508</t>
   </si>
   <si>
     <t xml:space="preserve">15.0828552246094</t>
@@ -2243,7 +2246,7 @@
     <t xml:space="preserve">14.7425241470337</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9745674133301</t>
+    <t xml:space="preserve">14.9745683670044</t>
   </si>
   <si>
     <t xml:space="preserve">15.1911420822144</t>
@@ -2252,7 +2255,7 @@
     <t xml:space="preserve">15.2066125869751</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3756761550903</t>
+    <t xml:space="preserve">12.3756771087646</t>
   </si>
   <si>
     <t xml:space="preserve">12.0044059753418</t>
@@ -2267,40 +2270,40 @@
     <t xml:space="preserve">10.0242986679077</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0861768722534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59114933013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73037528991699</t>
+    <t xml:space="preserve">10.0861759185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59114837646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73037624359131</t>
   </si>
   <si>
     <t xml:space="preserve">9.97789001464844</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1016454696655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0452909469604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1999864578247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.091700553894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4475002288818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2309265136719</t>
+    <t xml:space="preserve">10.1016464233398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0452919006348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.199987411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0916996002197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4475011825562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2309274673462</t>
   </si>
   <si>
     <t xml:space="preserve">11.4088268280029</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7336883544922</t>
+    <t xml:space="preserve">11.7336874008179</t>
   </si>
   <si>
     <t xml:space="preserve">11.5403175354004</t>
@@ -2309,49 +2312,49 @@
     <t xml:space="preserve">11.5016441345215</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5248489379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5867261886597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8419752120972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3392124176025</t>
+    <t xml:space="preserve">11.524847984314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.586727142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8419761657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3392143249512</t>
   </si>
   <si>
     <t xml:space="preserve">11.1767816543579</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2231912612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1458435058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0066165924072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4552354812622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9038534164429</t>
+    <t xml:space="preserve">11.2231922149658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1458444595337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0066175460815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4552364349365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9038543701172</t>
   </si>
   <si>
     <t xml:space="preserve">11.7955675125122</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0662841796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5303735733032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1436319351196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7414236068726</t>
+    <t xml:space="preserve">12.0662851333618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5303726196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1436328887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7414226531982</t>
   </si>
   <si>
     <t xml:space="preserve">12.0508146286011</t>
@@ -2369,7 +2372,7 @@
     <t xml:space="preserve">13.1491565704346</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9557876586914</t>
+    <t xml:space="preserve">12.9557857513428</t>
   </si>
   <si>
     <t xml:space="preserve">13.0176649093628</t>
@@ -2378,22 +2381,22 @@
     <t xml:space="preserve">12.9867267608643</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3579959869385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4972229003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4198741912842</t>
+    <t xml:space="preserve">13.3579969406128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4972219467163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4198751449585</t>
   </si>
   <si>
     <t xml:space="preserve">13.5745697021484</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2397623062134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4486026763916</t>
+    <t xml:space="preserve">14.2397632598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4486045837402</t>
   </si>
   <si>
     <t xml:space="preserve">14.5414199829102</t>
@@ -2402,10 +2405,10 @@
     <t xml:space="preserve">14.6961154937744</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1624155044556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1005373001099</t>
+    <t xml:space="preserve">14.1624135971069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1005363464355</t>
   </si>
   <si>
     <t xml:space="preserve">13.6983270645142</t>
@@ -2414,16 +2417,16 @@
     <t xml:space="preserve">13.667387008667</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1160068511963</t>
+    <t xml:space="preserve">14.116005897522</t>
   </si>
   <si>
     <t xml:space="preserve">13.9149017333984</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8674392700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0776748657227</t>
+    <t xml:space="preserve">13.8674383163452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0776739120483</t>
   </si>
   <si>
     <t xml:space="preserve">13.7461500167847</t>
@@ -2435,13 +2438,13 @@
     <t xml:space="preserve">13.7704076766968</t>
   </si>
   <si>
-    <t xml:space="preserve">14.021071434021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.818922996521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0453310012817</t>
+    <t xml:space="preserve">14.0210733413696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8189239501953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0453319549561</t>
   </si>
   <si>
     <t xml:space="preserve">14.1747064590454</t>
@@ -2450,28 +2453,28 @@
     <t xml:space="preserve">14.0695877075195</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1585340499878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9806442260742</t>
+    <t xml:space="preserve">14.1585350036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9806432723999</t>
   </si>
   <si>
     <t xml:space="preserve">13.7380628585815</t>
   </si>
   <si>
-    <t xml:space="preserve">13.689549446106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5359134674072</t>
+    <t xml:space="preserve">13.6895484924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5359144210815</t>
   </si>
   <si>
     <t xml:space="preserve">13.4065380096436</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5601720809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9159545898438</t>
+    <t xml:space="preserve">13.560173034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9159555435181</t>
   </si>
   <si>
     <t xml:space="preserve">13.762321472168</t>
@@ -2489,25 +2492,25 @@
     <t xml:space="preserve">13.1801309585571</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3580226898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9482984542847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8270092010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.061502456665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.279824256897</t>
+    <t xml:space="preserve">13.3580236434937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.948299407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8270101547241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0615015029907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2798233032227</t>
   </si>
   <si>
     <t xml:space="preserve">14.5790042877197</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1342763900757</t>
+    <t xml:space="preserve">14.13427734375</t>
   </si>
   <si>
     <t xml:space="preserve">14.1504487991333</t>
@@ -2516,13 +2519,13 @@
     <t xml:space="preserve">14.1666202545166</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4981460571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4658012390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5304870605469</t>
+    <t xml:space="preserve">14.4981441497803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.465799331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5304880142212</t>
   </si>
   <si>
     <t xml:space="preserve">14.7245512008667</t>
@@ -2543,49 +2546,46 @@
     <t xml:space="preserve">14.2313079833984</t>
   </si>
   <si>
-    <t xml:space="preserve">13.891697883606</t>
-  </si>
-  <si>
     <t xml:space="preserve">14.093846321106</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3525981903076</t>
+    <t xml:space="preserve">14.3525972366333</t>
   </si>
   <si>
     <t xml:space="preserve">14.2070503234863</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9240398406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2636499404907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1019334793091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4334564208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1989631652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1100187301636</t>
+    <t xml:space="preserve">13.9240417480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.263650894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1019325256348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4334573745728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1989622116089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1100177764893</t>
   </si>
   <si>
     <t xml:space="preserve">14.4900588989258</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5709199905396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6032609939575</t>
+    <t xml:space="preserve">14.5709180831909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6032619476318</t>
   </si>
   <si>
     <t xml:space="preserve">14.2232227325439</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9887285232544</t>
+    <t xml:space="preserve">13.9887275695801</t>
   </si>
   <si>
     <t xml:space="preserve">14.1827926635742</t>
@@ -2600,16 +2600,16 @@
     <t xml:space="preserve">14.5385751724243</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5547456741333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7326383590698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5870923995972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5062303543091</t>
+    <t xml:space="preserve">14.5547466278076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7326374053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5870895385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5062322616577</t>
   </si>
   <si>
     <t xml:space="preserve">14.4819717407227</t>
@@ -2618,22 +2618,22 @@
     <t xml:space="preserve">14.6760349273682</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7002935409546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9994735717773</t>
+    <t xml:space="preserve">14.7002954483032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.999475479126</t>
   </si>
   <si>
     <t xml:space="preserve">14.8458414077759</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8377561569214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4577131271362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3364238739014</t>
+    <t xml:space="preserve">14.8377552032471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4577140808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.33642578125</t>
   </si>
   <si>
     <t xml:space="preserve">13.9321269989014</t>
@@ -2648,7 +2648,7 @@
     <t xml:space="preserve">13.9968128204346</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7784938812256</t>
+    <t xml:space="preserve">13.7784948348999</t>
   </si>
   <si>
     <t xml:space="preserve">14.4172859191895</t>
@@ -2657,25 +2657,25 @@
     <t xml:space="preserve">14.4011135101318</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4415445327759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2151346206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1181030273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1423606872559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.667950630188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2717380523682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6491165161133</t>
+    <t xml:space="preserve">14.4415435791016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2151365280151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1181039810181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1423625946045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6679496765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2717370986938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6491174697876</t>
   </si>
   <si>
     <t xml:space="preserve">13.4873991012573</t>
@@ -2687,10 +2687,10 @@
     <t xml:space="preserve">13.4469680786133</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3499374389648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.172046661377</t>
+    <t xml:space="preserve">13.3499364852905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1720457077026</t>
   </si>
   <si>
     <t xml:space="preserve">13.1882171630859</t>
@@ -2702,22 +2702,22 @@
     <t xml:space="preserve">13.2771635055542</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3984537124634</t>
+    <t xml:space="preserve">13.3984518051147</t>
   </si>
   <si>
     <t xml:space="preserve">13.5278272628784</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7542352676392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9402122497559</t>
+    <t xml:space="preserve">13.7542362213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9402132034302</t>
   </si>
   <si>
     <t xml:space="preserve">14.0372457504272</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0291585922241</t>
+    <t xml:space="preserve">14.0291595458984</t>
   </si>
   <si>
     <t xml:space="preserve">13.7946643829346</t>
@@ -2729,31 +2729,31 @@
     <t xml:space="preserve">13.4712266921997</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5197429656982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4550542831421</t>
+    <t xml:space="preserve">13.5197420120239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4550552368164</t>
   </si>
   <si>
     <t xml:space="preserve">13.2205619812012</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3661088943481</t>
+    <t xml:space="preserve">13.3661098480225</t>
   </si>
   <si>
     <t xml:space="preserve">13.341851234436</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8108377456665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7057189941406</t>
+    <t xml:space="preserve">13.8108367919922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7057209014893</t>
   </si>
   <si>
     <t xml:space="preserve">13.9644708633423</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8997831344604</t>
+    <t xml:space="preserve">13.8997840881348</t>
   </si>
   <si>
     <t xml:space="preserve">13.5844287872314</t>
@@ -2765,10 +2765,10 @@
     <t xml:space="preserve">13.3175926208496</t>
   </si>
   <si>
-    <t xml:space="preserve">13.22864818573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2043895721436</t>
+    <t xml:space="preserve">13.2286472320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2043886184692</t>
   </si>
   <si>
     <t xml:space="preserve">13.3014221191406</t>
@@ -2777,7 +2777,7 @@
     <t xml:space="preserve">13.0345849990845</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4793119430542</t>
+    <t xml:space="preserve">13.4793128967285</t>
   </si>
   <si>
     <t xml:space="preserve">14.1908769607544</t>
@@ -2786,16 +2786,16 @@
     <t xml:space="preserve">14.3202533721924</t>
   </si>
   <si>
-    <t xml:space="preserve">14.611349105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.797324180603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0399055480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0803337097168</t>
+    <t xml:space="preserve">14.6113481521606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7973260879517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0399045944214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0803327560425</t>
   </si>
   <si>
     <t xml:space="preserve">15.2339677810669</t>
@@ -2807,10 +2807,10 @@
     <t xml:space="preserve">15.0722484588623</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9024429321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9186153411865</t>
+    <t xml:space="preserve">14.9024448394775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9186172485352</t>
   </si>
   <si>
     <t xml:space="preserve">15.0641613006592</t>
@@ -2819,13 +2819,13 @@
     <t xml:space="preserve">15.2258806228638</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6544370651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8242425918579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4927196502686</t>
+    <t xml:space="preserve">15.6544389724731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8242444992065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4927177429199</t>
   </si>
   <si>
     <t xml:space="preserve">15.3148288726807</t>
@@ -2834,7 +2834,7 @@
     <t xml:space="preserve">15.4522895812988</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4442043304443</t>
+    <t xml:space="preserve">15.4442024230957</t>
   </si>
   <si>
     <t xml:space="preserve">15.3633432388306</t>
@@ -2843,28 +2843,28 @@
     <t xml:space="preserve">15.201623916626</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3795166015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3229141235352</t>
+    <t xml:space="preserve">15.3795146942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3229160308838</t>
   </si>
   <si>
     <t xml:space="preserve">15.2501401901245</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2824840545654</t>
+    <t xml:space="preserve">15.2824850082397</t>
   </si>
   <si>
     <t xml:space="preserve">15.2743968963623</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3390846252441</t>
+    <t xml:space="preserve">15.3390865325928</t>
   </si>
   <si>
     <t xml:space="preserve">15.5250635147095</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6948690414429</t>
+    <t xml:space="preserve">15.6948671340942</t>
   </si>
   <si>
     <t xml:space="preserve">15.9051036834717</t>
@@ -2876,19 +2876,19 @@
     <t xml:space="preserve">15.7272109985352</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7999858856201</t>
+    <t xml:space="preserve">15.7999877929688</t>
   </si>
   <si>
     <t xml:space="preserve">15.8808450698853</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9131908416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7757272720337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5412340164185</t>
+    <t xml:space="preserve">15.9131889343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.775731086731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5412359237671</t>
   </si>
   <si>
     <t xml:space="preserve">15.5574073791504</t>
@@ -2900,7 +2900,7 @@
     <t xml:space="preserve">15.7595567703247</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7029523849487</t>
+    <t xml:space="preserve">15.7029542922974</t>
   </si>
   <si>
     <t xml:space="preserve">15.6220951080322</t>
@@ -2909,7 +2909,7 @@
     <t xml:space="preserve">15.8565883636475</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1315116882324</t>
+    <t xml:space="preserve">16.1315097808838</t>
   </si>
   <si>
     <t xml:space="preserve">16.5924110412598</t>
@@ -2918,10 +2918,10 @@
     <t xml:space="preserve">16.5438938140869</t>
   </si>
   <si>
-    <t xml:space="preserve">16.34983253479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4953784942627</t>
+    <t xml:space="preserve">16.3498306274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4953804016113</t>
   </si>
   <si>
     <t xml:space="preserve">16.6570987701416</t>
@@ -2939,22 +2939,22 @@
     <t xml:space="preserve">16.7379589080811</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9320240020752</t>
+    <t xml:space="preserve">16.9320220947266</t>
   </si>
   <si>
     <t xml:space="preserve">16.8026466369629</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1099147796631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2231178283691</t>
+    <t xml:space="preserve">17.1099128723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2231159210205</t>
   </si>
   <si>
     <t xml:space="preserve">17.0214805603027</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8030395507812</t>
+    <t xml:space="preserve">16.8030414581299</t>
   </si>
   <si>
     <t xml:space="preserve">16.5846004486084</t>
@@ -2972,22 +2972,22 @@
     <t xml:space="preserve">16.3745632171631</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2821445465088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3829650878906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4501781463623</t>
+    <t xml:space="preserve">16.2821464538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.382963180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4501762390137</t>
   </si>
   <si>
     <t xml:space="preserve">16.5005855560303</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8534507751465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3241558074951</t>
+    <t xml:space="preserve">16.8534488677979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3241539001465</t>
   </si>
   <si>
     <t xml:space="preserve">16.3073501586914</t>
@@ -2999,7 +2999,7 @@
     <t xml:space="preserve">16.4585781097412</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3157520294189</t>
+    <t xml:space="preserve">16.3157539367676</t>
   </si>
   <si>
     <t xml:space="preserve">16.2317371368408</t>
@@ -3017,7 +3017,7 @@
     <t xml:space="preserve">16.3913669586182</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5930023193359</t>
+    <t xml:space="preserve">16.5930042266846</t>
   </si>
   <si>
     <t xml:space="preserve">16.4669799804688</t>
@@ -3026,7 +3026,7 @@
     <t xml:space="preserve">16.6518135070801</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7610340118408</t>
+    <t xml:space="preserve">16.7610321044922</t>
   </si>
   <si>
     <t xml:space="preserve">16.5089874267578</t>
@@ -3038,13 +3038,13 @@
     <t xml:space="preserve">17.0046768188477</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1054954528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3071308135986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.441556930542</t>
+    <t xml:space="preserve">17.1054973602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3071327209473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4415550231934</t>
   </si>
   <si>
     <t xml:space="preserve">17.7776165008545</t>
@@ -3053,13 +3053,13 @@
     <t xml:space="preserve">17.8616313934326</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6936016082764</t>
+    <t xml:space="preserve">17.6935997009277</t>
   </si>
   <si>
     <t xml:space="preserve">17.3407363891602</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9878730773926</t>
+    <t xml:space="preserve">16.9878711700439</t>
   </si>
   <si>
     <t xml:space="preserve">16.819845199585</t>
@@ -3074,7 +3074,7 @@
     <t xml:space="preserve">17.0718898773193</t>
   </si>
   <si>
-    <t xml:space="preserve">16.887056350708</t>
+    <t xml:space="preserve">16.8870544433594</t>
   </si>
   <si>
     <t xml:space="preserve">17.0886917114258</t>
@@ -3086,16 +3086,16 @@
     <t xml:space="preserve">16.7946395874023</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7274284362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0382843017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0550842285156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9038581848145</t>
+    <t xml:space="preserve">16.7274265289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0382823944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0550861358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9038600921631</t>
   </si>
   <si>
     <t xml:space="preserve">16.6014060974121</t>
@@ -3104,7 +3104,7 @@
     <t xml:space="preserve">16.1141147613525</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8116598129272</t>
+    <t xml:space="preserve">15.8116617202759</t>
   </si>
   <si>
     <t xml:space="preserve">15.6100244522095</t>
@@ -3116,46 +3116,46 @@
     <t xml:space="preserve">15.6772365570068</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6856374740601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6604318618774</t>
+    <t xml:space="preserve">15.6856393814087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6604337692261</t>
   </si>
   <si>
     <t xml:space="preserve">15.4335927963257</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5848188400269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.500804901123</t>
+    <t xml:space="preserve">15.5848207473755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5008068084717</t>
   </si>
   <si>
     <t xml:space="preserve">15.5932207107544</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5428133010864</t>
+    <t xml:space="preserve">15.5428113937378</t>
   </si>
   <si>
     <t xml:space="preserve">15.803258895874</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3579816818237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4755992889404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8200635910034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9460868835449</t>
+    <t xml:space="preserve">15.3579797744751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4756011962891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8200626373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9460849761963</t>
   </si>
   <si>
     <t xml:space="preserve">15.7948589324951</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0048942565918</t>
+    <t xml:space="preserve">16.0048961639404</t>
   </si>
   <si>
     <t xml:space="preserve">16.1057147979736</t>
@@ -3176,7 +3176,7 @@
     <t xml:space="preserve">15.9040775299072</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2569427490234</t>
+    <t xml:space="preserve">16.2569408416748</t>
   </si>
   <si>
     <t xml:space="preserve">15.8284645080566</t>
@@ -3185,16 +3185,16 @@
     <t xml:space="preserve">15.77805519104</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8536701202393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5344095230103</t>
+    <t xml:space="preserve">15.8536682128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5344114303589</t>
   </si>
   <si>
     <t xml:space="preserve">15.3915853500366</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2907667160034</t>
+    <t xml:space="preserve">15.2907686233521</t>
   </si>
   <si>
     <t xml:space="preserve">15.34117603302</t>
@@ -3203,7 +3203,7 @@
     <t xml:space="preserve">14.8454856872559</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9715089797974</t>
+    <t xml:space="preserve">14.9715099334717</t>
   </si>
   <si>
     <t xml:space="preserve">15.0219173431396</t>
@@ -3224,7 +3224,7 @@
     <t xml:space="preserve">15.2991676330566</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2319574356079</t>
+    <t xml:space="preserve">15.2319555282593</t>
   </si>
   <si>
     <t xml:space="preserve">15.1983509063721</t>
@@ -3236,7 +3236,7 @@
     <t xml:space="preserve">15.3075704574585</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5092077255249</t>
+    <t xml:space="preserve">15.5092058181763</t>
   </si>
   <si>
     <t xml:space="preserve">15.618426322937</t>
@@ -3248,7 +3248,7 @@
     <t xml:space="preserve">15.0471220016479</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8874931335449</t>
+    <t xml:space="preserve">14.8874940872192</t>
   </si>
   <si>
     <t xml:space="preserve">14.8202810287476</t>
@@ -3257,7 +3257,7 @@
     <t xml:space="preserve">14.7026605606079</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8538885116577</t>
+    <t xml:space="preserve">14.8538875579834</t>
   </si>
   <si>
     <t xml:space="preserve">14.4758195877075</t>
@@ -3266,10 +3266,10 @@
     <t xml:space="preserve">14.3834037780762</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4926223754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4506158828735</t>
+    <t xml:space="preserve">14.4926233291626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4506149291992</t>
   </si>
   <si>
     <t xml:space="preserve">14.164963722229</t>
@@ -3278,25 +3278,25 @@
     <t xml:space="preserve">14.2237739562988</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4842205047607</t>
+    <t xml:space="preserve">14.4842214584351</t>
   </si>
   <si>
     <t xml:space="preserve">14.6186447143555</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0387210845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9967136383057</t>
+    <t xml:space="preserve">15.0387201309204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.99671459198</t>
   </si>
   <si>
     <t xml:space="preserve">14.8790922164917</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5178270339966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2825841903687</t>
+    <t xml:space="preserve">14.5178279876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.282585144043</t>
   </si>
   <si>
     <t xml:space="preserve">13.912917137146</t>
@@ -3317,10 +3317,10 @@
     <t xml:space="preserve">13.9381217956543</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0305395126343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7196826934814</t>
+    <t xml:space="preserve">14.0305404663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7196817398071</t>
   </si>
   <si>
     <t xml:space="preserve">13.6944770812988</t>
@@ -3329,7 +3329,7 @@
     <t xml:space="preserve">13.8373031616211</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2069702148438</t>
+    <t xml:space="preserve">14.2069711685181</t>
   </si>
   <si>
     <t xml:space="preserve">14.2993879318237</t>
@@ -3353,13 +3353,13 @@
     <t xml:space="preserve">13.6188640594482</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9801292419434</t>
+    <t xml:space="preserve">13.9801301956177</t>
   </si>
   <si>
     <t xml:space="preserve">13.7364854812622</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4172286987305</t>
+    <t xml:space="preserve">13.4172277450562</t>
   </si>
   <si>
     <t xml:space="preserve">13.2239933013916</t>
@@ -3374,7 +3374,7 @@
     <t xml:space="preserve">13.4760398864746</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7532892227173</t>
+    <t xml:space="preserve">13.7532901763916</t>
   </si>
   <si>
     <t xml:space="preserve">13.887713432312</t>
@@ -3383,7 +3383,7 @@
     <t xml:space="preserve">14.1817655563354</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0053339004517</t>
+    <t xml:space="preserve">14.005334854126</t>
   </si>
   <si>
     <t xml:space="preserve">14.0137357711792</t>
@@ -3395,25 +3395,25 @@
     <t xml:space="preserve">13.9717273712158</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3581981658936</t>
+    <t xml:space="preserve">14.3581991195679</t>
   </si>
   <si>
     <t xml:space="preserve">14.6606531143188</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5262298583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.190167427063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2321758270264</t>
+    <t xml:space="preserve">14.5262289047241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1901683807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2321767807007</t>
   </si>
   <si>
     <t xml:space="preserve">14.0473413467407</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9213190078735</t>
+    <t xml:space="preserve">13.9213180541992</t>
   </si>
   <si>
     <t xml:space="preserve">13.9969329833984</t>
@@ -3425,10 +3425,10 @@
     <t xml:space="preserve">13.635666847229</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7112808227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7028799057007</t>
+    <t xml:space="preserve">13.7112798690796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7028789520264</t>
   </si>
   <si>
     <t xml:space="preserve">13.5516519546509</t>
@@ -3449,7 +3449,7 @@
     <t xml:space="preserve">13.3920230865479</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5348491668701</t>
+    <t xml:space="preserve">13.5348501205444</t>
   </si>
   <si>
     <t xml:space="preserve">13.4004249572754</t>
@@ -3458,19 +3458,19 @@
     <t xml:space="preserve">13.5264492034912</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7448883056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5852575302124</t>
+    <t xml:space="preserve">13.7448873519897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5852584838867</t>
   </si>
   <si>
     <t xml:space="preserve">14.0893497467041</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2153720855713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9465246200562</t>
+    <t xml:space="preserve">14.2153730392456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9465236663818</t>
   </si>
   <si>
     <t xml:space="preserve">13.8205013275146</t>
@@ -3485,16 +3485,16 @@
     <t xml:space="preserve">13.0643644332886</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9131364822388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1147727966309</t>
+    <t xml:space="preserve">12.9131374359131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1147737503052</t>
   </si>
   <si>
     <t xml:space="preserve">12.7504749298096</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3506336212158</t>
+    <t xml:space="preserve">12.3506326675415</t>
   </si>
   <si>
     <t xml:space="preserve">12.2884359359741</t>
@@ -3530,28 +3530,28 @@
     <t xml:space="preserve">12.5727663040161</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6527347564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4927988052368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1551561355591</t>
+    <t xml:space="preserve">12.652735710144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4927997589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1551570892334</t>
   </si>
   <si>
     <t xml:space="preserve">12.0129909515381</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0929584503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2084674835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1995830535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2973222732544</t>
+    <t xml:space="preserve">12.0929574966431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2084684371948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1995820999146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2973213195801</t>
   </si>
   <si>
     <t xml:space="preserve">12.2795505523682</t>
@@ -3560,7 +3560,7 @@
     <t xml:space="preserve">12.3861751556396</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3062076568604</t>
+    <t xml:space="preserve">12.306206703186</t>
   </si>
   <si>
     <t xml:space="preserve">12.4394874572754</t>
@@ -3581,25 +3581,25 @@
     <t xml:space="preserve">12.1373853683472</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0840740203857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1196155548096</t>
+    <t xml:space="preserve">12.0840730667114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1196146011353</t>
   </si>
   <si>
     <t xml:space="preserve">12.0041055679321</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8974809646606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8708248138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8263988494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7730865478516</t>
+    <t xml:space="preserve">11.897481918335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8708238601685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.826397895813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7730855941772</t>
   </si>
   <si>
     <t xml:space="preserve">11.4443283081055</t>
@@ -3620,7 +3620,7 @@
     <t xml:space="preserve">10.6624174118042</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3247747421265</t>
+    <t xml:space="preserve">10.3247737884521</t>
   </si>
   <si>
     <t xml:space="preserve">10.1648378372192</t>
@@ -3635,19 +3635,19 @@
     <t xml:space="preserve">10.7868127822876</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6446466445923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5380229949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3780870437622</t>
+    <t xml:space="preserve">10.644645690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5380220413208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3780860900879</t>
   </si>
   <si>
     <t xml:space="preserve">10.555793762207</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1470680236816</t>
+    <t xml:space="preserve">10.1470670700073</t>
   </si>
   <si>
     <t xml:space="preserve">9.91604804992676</t>
@@ -3665,7 +3665,7 @@
     <t xml:space="preserve">9.70279979705811</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89827823638916</t>
+    <t xml:space="preserve">9.89827728271484</t>
   </si>
   <si>
     <t xml:space="preserve">10.2003793716431</t>
@@ -3683,7 +3683,7 @@
     <t xml:space="preserve">9.80053901672363</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93381977081299</t>
+    <t xml:space="preserve">9.93381881713867</t>
   </si>
   <si>
     <t xml:space="preserve">9.81830978393555</t>
@@ -3698,31 +3698,31 @@
     <t xml:space="preserve">10.1737232208252</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4935960769653</t>
+    <t xml:space="preserve">10.4935970306396</t>
   </si>
   <si>
     <t xml:space="preserve">10.5735635757446</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5913352966309</t>
+    <t xml:space="preserve">10.5913343429565</t>
   </si>
   <si>
     <t xml:space="preserve">10.2625770568848</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7157297134399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1155710220337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3465900421143</t>
+    <t xml:space="preserve">10.7157306671143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1155700683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3465890884399</t>
   </si>
   <si>
     <t xml:space="preserve">11.3643598556519</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3288192749023</t>
+    <t xml:space="preserve">11.328818321228</t>
   </si>
   <si>
     <t xml:space="preserve">11.3732452392578</t>
@@ -3764,10 +3764,10 @@
     <t xml:space="preserve">11.6931180953979</t>
   </si>
   <si>
-    <t xml:space="preserve">11.542067527771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7819709777832</t>
+    <t xml:space="preserve">11.5420665740967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7819719314575</t>
   </si>
   <si>
     <t xml:space="preserve">11.817512512207</t>
@@ -3776,16 +3776,16 @@
     <t xml:space="preserve">11.6309204101562</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6842317581177</t>
+    <t xml:space="preserve">11.684232711792</t>
   </si>
   <si>
     <t xml:space="preserve">11.7642002105713</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9507923126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9152507781982</t>
+    <t xml:space="preserve">11.9507932662964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9152517318726</t>
   </si>
   <si>
     <t xml:space="preserve">11.9241371154785</t>
@@ -3800,7 +3800,7 @@
     <t xml:space="preserve">11.5154113769531</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6398067474365</t>
+    <t xml:space="preserve">11.6398057937622</t>
   </si>
   <si>
     <t xml:space="preserve">11.7375450134277</t>
@@ -3812,7 +3812,7 @@
     <t xml:space="preserve">11.7464303970337</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9419069290161</t>
+    <t xml:space="preserve">11.9419078826904</t>
   </si>
   <si>
     <t xml:space="preserve">12.0574169158936</t>
@@ -3830,16 +3830,16 @@
     <t xml:space="preserve">12.7149333953857</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7415895462036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6083078384399</t>
+    <t xml:space="preserve">12.7415885925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6083087921143</t>
   </si>
   <si>
     <t xml:space="preserve">12.5549964904785</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7771310806274</t>
+    <t xml:space="preserve">12.7771301269531</t>
   </si>
   <si>
     <t xml:space="preserve">12.6971626281738</t>
@@ -3851,19 +3851,19 @@
     <t xml:space="preserve">12.794900894165</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7060470581055</t>
+    <t xml:space="preserve">12.7060480117798</t>
   </si>
   <si>
     <t xml:space="preserve">12.6260795593262</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5638828277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4217157363892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2617797851562</t>
+    <t xml:space="preserve">12.5638818740845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4217166900635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2617807388306</t>
   </si>
   <si>
     <t xml:space="preserve">12.3684043884277</t>
@@ -3878,7 +3878,7 @@
     <t xml:space="preserve">11.0533723831177</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9112071990967</t>
+    <t xml:space="preserve">10.9112062454224</t>
   </si>
   <si>
     <t xml:space="preserve">11.1511116027832</t>
@@ -3887,16 +3887,16 @@
     <t xml:space="preserve">11.0977993011475</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3821315765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.186653137207</t>
+    <t xml:space="preserve">11.3821306228638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1866540908813</t>
   </si>
   <si>
     <t xml:space="preserve">11.4976396560669</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2932767868042</t>
+    <t xml:space="preserve">11.2932777404785</t>
   </si>
   <si>
     <t xml:space="preserve">11.3110475540161</t>
@@ -3920,7 +3920,7 @@
     <t xml:space="preserve">11.5242967605591</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8352823257446</t>
+    <t xml:space="preserve">11.8352832794189</t>
   </si>
   <si>
     <t xml:space="preserve">11.6042642593384</t>
@@ -3929,16 +3929,16 @@
     <t xml:space="preserve">11.9063663482666</t>
   </si>
   <si>
-    <t xml:space="preserve">12.039647102356</t>
+    <t xml:space="preserve">12.0396461486816</t>
   </si>
   <si>
     <t xml:space="preserve">12.172926902771</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0485315322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9952192306519</t>
+    <t xml:space="preserve">12.0485324859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9952201843262</t>
   </si>
   <si>
     <t xml:space="preserve">12.2440090179443</t>
@@ -3950,7 +3950,7 @@
     <t xml:space="preserve">12.315092086792</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3772897720337</t>
+    <t xml:space="preserve">12.377290725708</t>
   </si>
   <si>
     <t xml:space="preserve">12.1785717010498</t>
@@ -4572,6 +4572,9 @@
   </si>
   <si>
     <t xml:space="preserve">15.1800003051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1400003433228</t>
   </si>
 </sst>
 </file>
@@ -22897,7 +22900,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G692" t="s">
-        <v>442</v>
+        <v>507</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -22923,7 +22926,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G693" t="s">
-        <v>442</v>
+        <v>507</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -23027,7 +23030,7 @@
         <v>13.2299995422363</v>
       </c>
       <c r="G697" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -23053,7 +23056,7 @@
         <v>13.2799997329712</v>
       </c>
       <c r="G698" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -23105,7 +23108,7 @@
         <v>13.210000038147</v>
       </c>
       <c r="G700" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -23131,7 +23134,7 @@
         <v>12.9099998474121</v>
       </c>
       <c r="G701" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -23157,7 +23160,7 @@
         <v>12.75</v>
       </c>
       <c r="G702" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -23183,7 +23186,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G703" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -23313,7 +23316,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G708" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -23339,7 +23342,7 @@
         <v>12.25</v>
       </c>
       <c r="G709" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -23365,7 +23368,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G710" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -23391,7 +23394,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G711" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -23417,7 +23420,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G712" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -23443,7 +23446,7 @@
         <v>12.1099996566772</v>
       </c>
       <c r="G713" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -23469,7 +23472,7 @@
         <v>11.9700002670288</v>
       </c>
       <c r="G714" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -23495,7 +23498,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G715" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -23521,7 +23524,7 @@
         <v>11.6400003433228</v>
       </c>
       <c r="G716" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -23547,7 +23550,7 @@
         <v>11.5900001525879</v>
       </c>
       <c r="G717" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -23573,7 +23576,7 @@
         <v>11.3299999237061</v>
       </c>
       <c r="G718" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -23599,7 +23602,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G719" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -23625,7 +23628,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G720" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -23651,7 +23654,7 @@
         <v>11.1800003051758</v>
       </c>
       <c r="G721" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -23677,7 +23680,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G722" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -23703,7 +23706,7 @@
         <v>11.5</v>
       </c>
       <c r="G723" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -23729,7 +23732,7 @@
         <v>11.6099996566772</v>
       </c>
       <c r="G724" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -23755,7 +23758,7 @@
         <v>11.6700000762939</v>
       </c>
       <c r="G725" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -23781,7 +23784,7 @@
         <v>11.8100004196167</v>
       </c>
       <c r="G726" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -23807,7 +23810,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G727" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -23833,7 +23836,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G728" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -23859,7 +23862,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G729" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -23885,7 +23888,7 @@
         <v>11.8699998855591</v>
       </c>
       <c r="G730" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -23911,7 +23914,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G731" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -23937,7 +23940,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G732" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -23963,7 +23966,7 @@
         <v>12.7700004577637</v>
       </c>
       <c r="G733" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -24015,7 +24018,7 @@
         <v>12.4099998474121</v>
       </c>
       <c r="G735" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -24041,7 +24044,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G736" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -24067,7 +24070,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G737" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -24093,7 +24096,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G738" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -24119,7 +24122,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G739" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -24145,7 +24148,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G740" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -24171,7 +24174,7 @@
         <v>12.0100002288818</v>
       </c>
       <c r="G741" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -24197,7 +24200,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G742" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -24223,7 +24226,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G743" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -24249,7 +24252,7 @@
         <v>12</v>
       </c>
       <c r="G744" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -24275,7 +24278,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G745" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -24301,7 +24304,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G746" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -24327,7 +24330,7 @@
         <v>12</v>
       </c>
       <c r="G747" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -24353,7 +24356,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G748" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -24379,7 +24382,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G749" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -24405,7 +24408,7 @@
         <v>11.789999961853</v>
       </c>
       <c r="G750" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -24431,7 +24434,7 @@
         <v>11.8900003433228</v>
       </c>
       <c r="G751" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -24457,7 +24460,7 @@
         <v>11.5699996948242</v>
       </c>
       <c r="G752" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -24483,7 +24486,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G753" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -24509,7 +24512,7 @@
         <v>11.8100004196167</v>
       </c>
       <c r="G754" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -24535,7 +24538,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G755" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -24561,7 +24564,7 @@
         <v>12.1300001144409</v>
       </c>
       <c r="G756" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -24587,7 +24590,7 @@
         <v>11.75</v>
       </c>
       <c r="G757" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -24613,7 +24616,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G758" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -24639,7 +24642,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G759" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -24665,7 +24668,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G760" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -24691,7 +24694,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G761" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -24717,7 +24720,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G762" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -24743,7 +24746,7 @@
         <v>12.0100002288818</v>
       </c>
       <c r="G763" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -24769,7 +24772,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G764" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -24795,7 +24798,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G765" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -24821,7 +24824,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G766" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -24847,7 +24850,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G767" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -24873,7 +24876,7 @@
         <v>12.2399997711182</v>
       </c>
       <c r="G768" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -24899,7 +24902,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G769" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -24925,7 +24928,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G770" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -24951,7 +24954,7 @@
         <v>12.4799995422363</v>
       </c>
       <c r="G771" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -24977,7 +24980,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G772" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -25081,7 +25084,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G776" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -25185,7 +25188,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G780" t="s">
-        <v>442</v>
+        <v>507</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -25211,7 +25214,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G781" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -25237,7 +25240,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G782" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -25393,7 +25396,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G788" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -25419,7 +25422,7 @@
         <v>13.5</v>
       </c>
       <c r="G789" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -25445,7 +25448,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G790" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -25471,7 +25474,7 @@
         <v>13.1800003051758</v>
       </c>
       <c r="G791" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -25523,7 +25526,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G793" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -25549,7 +25552,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G794" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -25575,7 +25578,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G795" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -25601,7 +25604,7 @@
         <v>13.539999961853</v>
       </c>
       <c r="G796" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -25627,7 +25630,7 @@
         <v>13.5699996948242</v>
       </c>
       <c r="G797" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -25653,7 +25656,7 @@
         <v>13.4099998474121</v>
       </c>
       <c r="G798" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -25705,7 +25708,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G800" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -25731,7 +25734,7 @@
         <v>13.960000038147</v>
       </c>
       <c r="G801" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -25757,7 +25760,7 @@
         <v>13.8900003433228</v>
       </c>
       <c r="G802" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -25783,7 +25786,7 @@
         <v>13.9200000762939</v>
       </c>
       <c r="G803" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -25809,7 +25812,7 @@
         <v>13.75</v>
       </c>
       <c r="G804" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -25835,7 +25838,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G805" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -25861,7 +25864,7 @@
         <v>13.8800001144409</v>
       </c>
       <c r="G806" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -25887,7 +25890,7 @@
         <v>14.1199998855591</v>
       </c>
       <c r="G807" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -25913,7 +25916,7 @@
         <v>14.4300003051758</v>
       </c>
       <c r="G808" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -25939,7 +25942,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G809" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -25965,7 +25968,7 @@
         <v>14.9499998092651</v>
       </c>
       <c r="G810" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -25991,7 +25994,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G811" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -26017,7 +26020,7 @@
         <v>14.9899997711182</v>
       </c>
       <c r="G812" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -26043,7 +26046,7 @@
         <v>15.0500001907349</v>
       </c>
       <c r="G813" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -26069,7 +26072,7 @@
         <v>14.9399995803833</v>
       </c>
       <c r="G814" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -26095,7 +26098,7 @@
         <v>15.0900001525879</v>
       </c>
       <c r="G815" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -26121,7 +26124,7 @@
         <v>15.0600004196167</v>
       </c>
       <c r="G816" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -26147,7 +26150,7 @@
         <v>15.0900001525879</v>
       </c>
       <c r="G817" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -26173,7 +26176,7 @@
         <v>15.1800003051758</v>
       </c>
       <c r="G818" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -26199,7 +26202,7 @@
         <v>14.9399995803833</v>
       </c>
       <c r="G819" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -26225,7 +26228,7 @@
         <v>15.1099996566772</v>
       </c>
       <c r="G820" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -26251,7 +26254,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G821" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -26277,7 +26280,7 @@
         <v>14.9899997711182</v>
       </c>
       <c r="G822" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -26303,7 +26306,7 @@
         <v>15.1499996185303</v>
       </c>
       <c r="G823" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -26329,7 +26332,7 @@
         <v>15.1300001144409</v>
       </c>
       <c r="G824" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -26355,7 +26358,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G825" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -26381,7 +26384,7 @@
         <v>15.0699996948242</v>
       </c>
       <c r="G826" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -26407,7 +26410,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G827" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -26433,7 +26436,7 @@
         <v>15.3800001144409</v>
       </c>
       <c r="G828" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -26459,7 +26462,7 @@
         <v>16</v>
       </c>
       <c r="G829" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -26485,7 +26488,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G830" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -26511,7 +26514,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G831" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -26537,7 +26540,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G832" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -26563,7 +26566,7 @@
         <v>15.9399995803833</v>
       </c>
       <c r="G833" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -26589,7 +26592,7 @@
         <v>16.1200008392334</v>
       </c>
       <c r="G834" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -26615,7 +26618,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G835" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -26641,7 +26644,7 @@
         <v>15.9200000762939</v>
       </c>
       <c r="G836" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -26667,7 +26670,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G837" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -26693,7 +26696,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G838" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -26719,7 +26722,7 @@
         <v>15.4799995422363</v>
       </c>
       <c r="G839" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -26745,7 +26748,7 @@
         <v>15.5</v>
       </c>
       <c r="G840" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -26771,7 +26774,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G841" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -26797,7 +26800,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G842" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -26823,7 +26826,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G843" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -26849,7 +26852,7 @@
         <v>16.0400009155273</v>
       </c>
       <c r="G844" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -26875,7 +26878,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G845" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -26901,7 +26904,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G846" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -26927,7 +26930,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G847" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -26953,7 +26956,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G848" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -26979,7 +26982,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G849" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -27005,7 +27008,7 @@
         <v>16.3600006103516</v>
       </c>
       <c r="G850" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -27031,7 +27034,7 @@
         <v>16.3600006103516</v>
       </c>
       <c r="G851" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -27057,7 +27060,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G852" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -27083,7 +27086,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G853" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -27109,7 +27112,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G854" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -27135,7 +27138,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G855" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -27161,7 +27164,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G856" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -27187,7 +27190,7 @@
         <v>16.7199993133545</v>
       </c>
       <c r="G857" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -27213,7 +27216,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G858" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -27239,7 +27242,7 @@
         <v>16.5400009155273</v>
       </c>
       <c r="G859" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -27265,7 +27268,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G860" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -27291,7 +27294,7 @@
         <v>16.6200008392334</v>
       </c>
       <c r="G861" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -27317,7 +27320,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G862" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -27343,7 +27346,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G863" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -27369,7 +27372,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G864" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -27395,7 +27398,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G865" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -27421,7 +27424,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G866" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -27447,7 +27450,7 @@
         <v>16.6200008392334</v>
       </c>
       <c r="G867" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -27473,7 +27476,7 @@
         <v>16.6399993896484</v>
       </c>
       <c r="G868" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -27499,7 +27502,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G869" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -27525,7 +27528,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G870" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -27551,7 +27554,7 @@
         <v>17</v>
       </c>
       <c r="G871" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -27577,7 +27580,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G872" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -27603,7 +27606,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G873" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -27629,7 +27632,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G874" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -27655,7 +27658,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G875" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -27681,7 +27684,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G876" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -27707,7 +27710,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G877" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -27733,7 +27736,7 @@
         <v>17.6399993896484</v>
       </c>
       <c r="G878" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -27759,7 +27762,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G879" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -27785,7 +27788,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G880" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -27811,7 +27814,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G881" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -27837,7 +27840,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G882" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -27863,7 +27866,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G883" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -27889,7 +27892,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G884" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -27915,7 +27918,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G885" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -27941,7 +27944,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G886" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -27967,7 +27970,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G887" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -27993,7 +27996,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G888" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -28019,7 +28022,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G889" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -28045,7 +28048,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G890" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -28071,7 +28074,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G891" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -28097,7 +28100,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G892" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -28123,7 +28126,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G893" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -28149,7 +28152,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G894" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -28175,7 +28178,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G895" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -28201,7 +28204,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G896" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -28227,7 +28230,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G897" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -28253,7 +28256,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G898" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -28279,7 +28282,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G899" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -28305,7 +28308,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G900" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -28331,7 +28334,7 @@
         <v>17.5</v>
       </c>
       <c r="G901" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -28357,7 +28360,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G902" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -28383,7 +28386,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G903" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -28409,7 +28412,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G904" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -28435,7 +28438,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G905" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -28461,7 +28464,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G906" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -28487,7 +28490,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G907" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -28513,7 +28516,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G908" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -28539,7 +28542,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G909" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -28565,7 +28568,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G910" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -28591,7 +28594,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G911" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -28617,7 +28620,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G912" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -28643,7 +28646,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G913" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -28669,7 +28672,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G914" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -28695,7 +28698,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G915" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -28721,7 +28724,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G916" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -28747,7 +28750,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G917" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -28773,7 +28776,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G918" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -28799,7 +28802,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G919" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -28825,7 +28828,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G920" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -28851,7 +28854,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G921" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -28877,7 +28880,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G922" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -28903,7 +28906,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G923" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -28929,7 +28932,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G924" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -28955,7 +28958,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G925" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -28981,7 +28984,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G926" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -29007,7 +29010,7 @@
         <v>17.5</v>
       </c>
       <c r="G927" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -29033,7 +29036,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G928" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -29059,7 +29062,7 @@
         <v>17.5</v>
       </c>
       <c r="G929" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -29085,7 +29088,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G930" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -29111,7 +29114,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G931" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -29137,7 +29140,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G932" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -29163,7 +29166,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G933" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -29189,7 +29192,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G934" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -29215,7 +29218,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G935" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -29241,7 +29244,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G936" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -29267,7 +29270,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G937" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -29293,7 +29296,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G938" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -29319,7 +29322,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G939" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -29345,7 +29348,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G940" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -29371,7 +29374,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G941" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -29397,7 +29400,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G942" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -29423,7 +29426,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G943" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -29449,7 +29452,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G944" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -29475,7 +29478,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G945" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -29501,7 +29504,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G946" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -29527,7 +29530,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G947" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -29553,7 +29556,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G948" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -29579,7 +29582,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G949" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -29605,7 +29608,7 @@
         <v>18.0400009155273</v>
       </c>
       <c r="G950" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -29631,7 +29634,7 @@
         <v>18.2600002288818</v>
       </c>
       <c r="G951" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -29657,7 +29660,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G952" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -29683,7 +29686,7 @@
         <v>18.3199996948242</v>
       </c>
       <c r="G953" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -29709,7 +29712,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G954" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -29735,7 +29738,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G955" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -29761,7 +29764,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G956" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -29787,7 +29790,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G957" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -29813,7 +29816,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G958" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -29839,7 +29842,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G959" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -29865,7 +29868,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G960" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -29891,7 +29894,7 @@
         <v>17.5</v>
       </c>
       <c r="G961" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -29917,7 +29920,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G962" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -29943,7 +29946,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G963" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -29969,7 +29972,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G964" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -29995,7 +29998,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G965" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -30021,7 +30024,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G966" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -30047,7 +30050,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G967" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -30073,7 +30076,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G968" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -30099,7 +30102,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G969" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -30125,7 +30128,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G970" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -30151,7 +30154,7 @@
         <v>17.5</v>
       </c>
       <c r="G971" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -30177,7 +30180,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G972" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -30203,7 +30206,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G973" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -30229,7 +30232,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G974" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -30255,7 +30258,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G975" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -30281,7 +30284,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G976" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -30307,7 +30310,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G977" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -30333,7 +30336,7 @@
         <v>17.9400005340576</v>
       </c>
       <c r="G978" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -30359,7 +30362,7 @@
         <v>17.9799995422363</v>
       </c>
       <c r="G979" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -30385,7 +30388,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G980" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -30411,7 +30414,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G981" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -30437,7 +30440,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G982" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -30463,7 +30466,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G983" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -30489,7 +30492,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G984" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -30515,7 +30518,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G985" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -30541,7 +30544,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G986" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -30567,7 +30570,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G987" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -30593,7 +30596,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G988" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -30619,7 +30622,7 @@
         <v>18.3400001525879</v>
       </c>
       <c r="G989" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -30645,7 +30648,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G990" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -30671,7 +30674,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G991" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -30697,7 +30700,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G992" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -30723,7 +30726,7 @@
         <v>18.4400005340576</v>
       </c>
       <c r="G993" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -30749,7 +30752,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G994" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -30775,7 +30778,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G995" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -30801,7 +30804,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G996" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -30827,7 +30830,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="G997" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -30853,7 +30856,7 @@
         <v>18.3400001525879</v>
       </c>
       <c r="G998" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -30879,7 +30882,7 @@
         <v>18.2199993133545</v>
       </c>
       <c r="G999" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -30905,7 +30908,7 @@
         <v>18.3400001525879</v>
       </c>
       <c r="G1000" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -30931,7 +30934,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1001" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -30957,7 +30960,7 @@
         <v>18.2399997711182</v>
       </c>
       <c r="G1002" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -30983,7 +30986,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G1003" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -31009,7 +31012,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G1004" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -31035,7 +31038,7 @@
         <v>18.9400005340576</v>
       </c>
       <c r="G1005" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -31061,7 +31064,7 @@
         <v>19.0200004577637</v>
       </c>
       <c r="G1006" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -31087,7 +31090,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1007" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -31113,7 +31116,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G1008" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -31139,7 +31142,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G1009" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -31165,7 +31168,7 @@
         <v>18.4799995422363</v>
       </c>
       <c r="G1010" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -31191,7 +31194,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G1011" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -31217,7 +31220,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G1012" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -31243,7 +31246,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G1013" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -31269,7 +31272,7 @@
         <v>18.4200000762939</v>
       </c>
       <c r="G1014" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -31295,7 +31298,7 @@
         <v>18.4400005340576</v>
       </c>
       <c r="G1015" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -31321,7 +31324,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1016" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -31347,7 +31350,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1017" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -31373,7 +31376,7 @@
         <v>18.0799999237061</v>
       </c>
       <c r="G1018" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -31399,7 +31402,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1019" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -31425,7 +31428,7 @@
         <v>17.9799995422363</v>
       </c>
       <c r="G1020" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -31451,7 +31454,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G1021" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -31477,7 +31480,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G1022" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -31503,7 +31506,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G1023" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -31529,7 +31532,7 @@
         <v>19.5599994659424</v>
       </c>
       <c r="G1024" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -31555,7 +31558,7 @@
         <v>19.5799999237061</v>
       </c>
       <c r="G1025" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -31581,7 +31584,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1026" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -31607,7 +31610,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1027" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -31633,7 +31636,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G1028" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -31659,7 +31662,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1029" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -31685,7 +31688,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1030" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -31711,7 +31714,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1031" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -31737,7 +31740,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1032" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -31763,7 +31766,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1033" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -31789,7 +31792,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G1034" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -31815,7 +31818,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1035" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -31841,7 +31844,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1036" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -31867,7 +31870,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1037" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -31893,7 +31896,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G1038" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -31919,7 +31922,7 @@
         <v>21.25</v>
       </c>
       <c r="G1039" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -31945,7 +31948,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1040" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -31971,7 +31974,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1041" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -31997,7 +32000,7 @@
         <v>21</v>
       </c>
       <c r="G1042" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -32023,7 +32026,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G1043" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -32049,7 +32052,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1044" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -32075,7 +32078,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1045" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -32101,7 +32104,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1046" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -32127,7 +32130,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G1047" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -32153,7 +32156,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1048" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -32179,7 +32182,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1049" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -32205,7 +32208,7 @@
         <v>21.5</v>
       </c>
       <c r="G1050" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -32231,7 +32234,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1051" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -32257,7 +32260,7 @@
         <v>21.25</v>
       </c>
       <c r="G1052" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -32283,7 +32286,7 @@
         <v>20.25</v>
       </c>
       <c r="G1053" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -32309,7 +32312,7 @@
         <v>19.9400005340576</v>
       </c>
       <c r="G1054" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -32335,7 +32338,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1055" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -32361,7 +32364,7 @@
         <v>19.5</v>
       </c>
       <c r="G1056" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -32387,7 +32390,7 @@
         <v>18.9400005340576</v>
       </c>
       <c r="G1057" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -32413,7 +32416,7 @@
         <v>19.0599994659424</v>
       </c>
       <c r="G1058" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -32439,7 +32442,7 @@
         <v>19.3600006103516</v>
       </c>
       <c r="G1059" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -32465,7 +32468,7 @@
         <v>19.6399993896484</v>
       </c>
       <c r="G1060" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -32491,7 +32494,7 @@
         <v>19.6599998474121</v>
       </c>
       <c r="G1061" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -32517,7 +32520,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G1062" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -32543,7 +32546,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G1063" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -32569,7 +32572,7 @@
         <v>16</v>
       </c>
       <c r="G1064" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -32595,7 +32598,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G1065" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -32621,7 +32624,7 @@
         <v>13.3599996566772</v>
       </c>
       <c r="G1066" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -32647,7 +32650,7 @@
         <v>13.8199996948242</v>
       </c>
       <c r="G1067" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -32673,7 +32676,7 @@
         <v>12.960000038147</v>
       </c>
       <c r="G1068" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -32699,7 +32702,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G1069" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -32725,7 +32728,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G1070" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -32751,7 +32754,7 @@
         <v>12.5799999237061</v>
       </c>
       <c r="G1071" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -32777,7 +32780,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G1072" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -32803,7 +32806,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G1073" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -32829,7 +32832,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1074" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -32855,7 +32858,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1075" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -32881,7 +32884,7 @@
         <v>14.3400001525879</v>
       </c>
       <c r="G1076" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -32907,7 +32910,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1077" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -32933,7 +32936,7 @@
         <v>14.5200004577637</v>
       </c>
       <c r="G1078" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -32959,7 +32962,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1079" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -32985,7 +32988,7 @@
         <v>14.75</v>
       </c>
       <c r="G1080" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -33011,7 +33014,7 @@
         <v>15.1700000762939</v>
       </c>
       <c r="G1081" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -33037,7 +33040,7 @@
         <v>14.9200000762939</v>
       </c>
       <c r="G1082" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -33063,7 +33066,7 @@
         <v>14.8699998855591</v>
       </c>
       <c r="G1083" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -33089,7 +33092,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1084" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -33115,7 +33118,7 @@
         <v>14.9799995422363</v>
       </c>
       <c r="G1085" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -33141,7 +33144,7 @@
         <v>15.3100004196167</v>
       </c>
       <c r="G1086" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -33167,7 +33170,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1087" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -33193,7 +33196,7 @@
         <v>13.8199996948242</v>
       </c>
       <c r="G1088" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -33219,7 +33222,7 @@
         <v>14.4499998092651</v>
       </c>
       <c r="G1089" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -33245,7 +33248,7 @@
         <v>14.5100002288818</v>
       </c>
       <c r="G1090" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -33271,7 +33274,7 @@
         <v>14.4099998474121</v>
       </c>
       <c r="G1091" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -33297,7 +33300,7 @@
         <v>14.2299995422363</v>
       </c>
       <c r="G1092" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -33323,7 +33326,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1093" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -33349,7 +33352,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1094" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -33375,7 +33378,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1095" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -33401,7 +33404,7 @@
         <v>14.75</v>
       </c>
       <c r="G1096" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -33427,7 +33430,7 @@
         <v>14.8100004196167</v>
       </c>
       <c r="G1097" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -33453,7 +33456,7 @@
         <v>15.3900003433228</v>
       </c>
       <c r="G1098" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -33479,7 +33482,7 @@
         <v>15.25</v>
       </c>
       <c r="G1099" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -33505,7 +33508,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1100" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -33531,7 +33534,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1101" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -33557,7 +33560,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1102" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -33583,7 +33586,7 @@
         <v>15.1800003051758</v>
       </c>
       <c r="G1103" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -33609,7 +33612,7 @@
         <v>15.5799999237061</v>
       </c>
       <c r="G1104" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -33635,7 +33638,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G1105" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -33661,7 +33664,7 @@
         <v>16.4099998474121</v>
       </c>
       <c r="G1106" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -33687,7 +33690,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G1107" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -33713,7 +33716,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G1108" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -33739,7 +33742,7 @@
         <v>17</v>
       </c>
       <c r="G1109" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -33765,7 +33768,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G1110" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -33791,7 +33794,7 @@
         <v>16.75</v>
       </c>
       <c r="G1111" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -33817,7 +33820,7 @@
         <v>16.8299999237061</v>
       </c>
       <c r="G1112" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -33843,7 +33846,7 @@
         <v>16.7900009155273</v>
       </c>
       <c r="G1113" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -33869,7 +33872,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G1114" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -33895,7 +33898,7 @@
         <v>17.2700004577637</v>
       </c>
       <c r="G1115" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -33921,7 +33924,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G1116" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -33947,7 +33950,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G1117" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -33973,7 +33976,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G1118" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -33999,7 +34002,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1119" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -34025,7 +34028,7 @@
         <v>17.5499992370605</v>
       </c>
       <c r="G1120" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -34051,7 +34054,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G1121" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -34077,7 +34080,7 @@
         <v>18.4099998474121</v>
       </c>
       <c r="G1122" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -34103,7 +34106,7 @@
         <v>18.6800003051758</v>
       </c>
       <c r="G1123" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -34129,7 +34132,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1124" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -34155,7 +34158,7 @@
         <v>19</v>
       </c>
       <c r="G1125" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -34181,7 +34184,7 @@
         <v>18.3099994659424</v>
       </c>
       <c r="G1126" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -34207,7 +34210,7 @@
         <v>18.2299995422363</v>
       </c>
       <c r="G1127" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -34233,7 +34236,7 @@
         <v>17.7099990844727</v>
       </c>
       <c r="G1128" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -34259,7 +34262,7 @@
         <v>17.6700000762939</v>
       </c>
       <c r="G1129" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -34285,7 +34288,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1130" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -34311,7 +34314,7 @@
         <v>18.25</v>
       </c>
       <c r="G1131" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -34337,7 +34340,7 @@
         <v>18.25</v>
       </c>
       <c r="G1132" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -34363,7 +34366,7 @@
         <v>17.9899997711182</v>
       </c>
       <c r="G1133" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -34389,7 +34392,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G1134" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -34415,7 +34418,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1135" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -34441,7 +34444,7 @@
         <v>17.4099998474121</v>
       </c>
       <c r="G1136" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -34467,7 +34470,7 @@
         <v>17</v>
       </c>
       <c r="G1137" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -34493,7 +34496,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G1138" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -34519,7 +34522,7 @@
         <v>17.0300006866455</v>
       </c>
       <c r="G1139" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -34545,7 +34548,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G1140" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -34571,7 +34574,7 @@
         <v>17.0900001525879</v>
       </c>
       <c r="G1141" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -34597,7 +34600,7 @@
         <v>17.3700008392334</v>
       </c>
       <c r="G1142" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -34623,7 +34626,7 @@
         <v>17.5300006866455</v>
       </c>
       <c r="G1143" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -34649,7 +34652,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1144" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -34675,7 +34678,7 @@
         <v>17.5100002288818</v>
       </c>
       <c r="G1145" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -34701,7 +34704,7 @@
         <v>17.2900009155273</v>
       </c>
       <c r="G1146" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -34727,7 +34730,7 @@
         <v>17.3700008392334</v>
       </c>
       <c r="G1147" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -34753,7 +34756,7 @@
         <v>16.9899997711182</v>
       </c>
       <c r="G1148" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -34779,7 +34782,7 @@
         <v>16.9300003051758</v>
       </c>
       <c r="G1149" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -34805,7 +34808,7 @@
         <v>16.9899997711182</v>
       </c>
       <c r="G1150" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -34831,7 +34834,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G1151" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -34857,7 +34860,7 @@
         <v>16.5799999237061</v>
       </c>
       <c r="G1152" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -34883,7 +34886,7 @@
         <v>16.7700004577637</v>
       </c>
       <c r="G1153" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -34909,7 +34912,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1154" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -34935,7 +34938,7 @@
         <v>17.2099990844727</v>
       </c>
       <c r="G1155" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -34961,7 +34964,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G1156" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -34987,7 +34990,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1157" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -35013,7 +35016,7 @@
         <v>17.0699996948242</v>
       </c>
       <c r="G1158" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -35039,7 +35042,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G1159" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -35065,7 +35068,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1160" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -35091,7 +35094,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G1161" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -35117,7 +35120,7 @@
         <v>17.25</v>
       </c>
       <c r="G1162" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -35143,7 +35146,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1163" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -35169,7 +35172,7 @@
         <v>17.3899993896484</v>
       </c>
       <c r="G1164" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -35195,7 +35198,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G1165" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -35221,7 +35224,7 @@
         <v>18.0300006866455</v>
       </c>
       <c r="G1166" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -35247,7 +35250,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1167" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -35273,7 +35276,7 @@
         <v>17.5</v>
       </c>
       <c r="G1168" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -35299,7 +35302,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G1169" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -35325,7 +35328,7 @@
         <v>17.9300003051758</v>
       </c>
       <c r="G1170" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -35351,7 +35354,7 @@
         <v>17.8899993896484</v>
       </c>
       <c r="G1171" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -35377,7 +35380,7 @@
         <v>17.9699993133545</v>
       </c>
       <c r="G1172" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -35403,7 +35406,7 @@
         <v>18.2099990844727</v>
       </c>
       <c r="G1173" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -35429,7 +35432,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G1174" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -35455,7 +35458,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G1175" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -35481,7 +35484,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G1176" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -35507,7 +35510,7 @@
         <v>17.6299991607666</v>
       </c>
       <c r="G1177" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -35533,7 +35536,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1178" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -35559,7 +35562,7 @@
         <v>17.2900009155273</v>
       </c>
       <c r="G1179" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -35585,7 +35588,7 @@
         <v>17.6299991607666</v>
       </c>
       <c r="G1180" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -35611,7 +35614,7 @@
         <v>17.6299991607666</v>
       </c>
       <c r="G1181" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -35637,7 +35640,7 @@
         <v>17.3899993896484</v>
       </c>
       <c r="G1182" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -35663,7 +35666,7 @@
         <v>17.2900009155273</v>
       </c>
       <c r="G1183" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -35689,7 +35692,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1184" t="s">
-        <v>843</v>
+        <v>690</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -35715,7 +35718,7 @@
         <v>17.25</v>
       </c>
       <c r="G1185" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -35923,7 +35926,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G1193" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -36157,7 +36160,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G1202" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -36183,7 +36186,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G1203" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -36625,7 +36628,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1220" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -36885,7 +36888,7 @@
         <v>17.3700008392334</v>
       </c>
       <c r="G1230" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -36911,7 +36914,7 @@
         <v>17.2099990844727</v>
       </c>
       <c r="G1231" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -36989,7 +36992,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1234" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -37015,7 +37018,7 @@
         <v>17.8899993896484</v>
       </c>
       <c r="G1235" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -37041,7 +37044,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1236" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -37119,7 +37122,7 @@
         <v>17.5100002288818</v>
       </c>
       <c r="G1239" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -37353,7 +37356,7 @@
         <v>17.8899993896484</v>
       </c>
       <c r="G1248" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -37431,7 +37434,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G1251" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -37509,7 +37512,7 @@
         <v>16.9300003051758</v>
       </c>
       <c r="G1254" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -37821,7 +37824,7 @@
         <v>16.7700004577637</v>
       </c>
       <c r="G1266" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -37847,7 +37850,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G1267" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -37873,7 +37876,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1268" t="s">
-        <v>843</v>
+        <v>690</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -37925,7 +37928,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1270" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -37951,7 +37954,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1271" t="s">
-        <v>843</v>
+        <v>690</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -38029,7 +38032,7 @@
         <v>17.0699996948242</v>
       </c>
       <c r="G1274" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -38081,7 +38084,7 @@
         <v>17.25</v>
       </c>
       <c r="G1276" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -38159,7 +38162,7 @@
         <v>17.3899993896484</v>
       </c>
       <c r="G1279" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -38237,7 +38240,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1282" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -38341,7 +38344,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G1286" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -38419,7 +38422,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G1289" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -38679,7 +38682,7 @@
         <v>17.5100002288818</v>
       </c>
       <c r="G1299" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -38731,7 +38734,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G1301" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -38757,7 +38760,7 @@
         <v>17.4099998474121</v>
       </c>
       <c r="G1302" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -38887,7 +38890,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G1307" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -39251,7 +39254,7 @@
         <v>17.8899993896484</v>
       </c>
       <c r="G1321" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -39277,7 +39280,7 @@
         <v>17.9699993133545</v>
       </c>
       <c r="G1322" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -60995,7 +60998,7 @@
     </row>
     <row r="2158">
       <c r="A2158" s="1" t="n">
-        <v>45467.649525463</v>
+        <v>45467.2916666667</v>
       </c>
       <c r="B2158" t="n">
         <v>606312</v>
@@ -61007,7 +61010,7 @@
         <v>14.8199996948242</v>
       </c>
       <c r="E2158" t="n">
-        <v>16.4699993133545</v>
+        <v>15.3500003814697</v>
       </c>
       <c r="F2158" t="n">
         <v>15.1800003051758</v>
@@ -61016,6 +61019,32 @@
         <v>1519</v>
       </c>
       <c r="H2158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" s="1" t="n">
+        <v>45468.6496064815</v>
+      </c>
+      <c r="B2159" t="n">
+        <v>394684</v>
+      </c>
+      <c r="C2159" t="n">
+        <v>15.4200000762939</v>
+      </c>
+      <c r="D2159" t="n">
+        <v>14.8999996185303</v>
+      </c>
+      <c r="E2159" t="n">
+        <v>15.2600002288818</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>15.1400003433228</v>
+      </c>
+      <c r="G2159" t="s">
+        <v>1520</v>
+      </c>
+      <c r="H2159" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ACE.MI.xlsx
+++ b/data/ACE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="1521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="1522">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,22 +44,22 @@
     <t xml:space="preserve">ACE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01142120361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68703746795654</t>
+    <t xml:space="preserve">9.0114221572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68703651428223</t>
   </si>
   <si>
     <t xml:space="preserve">8.82976627349854</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8751802444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01790904998779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21254062652588</t>
+    <t xml:space="preserve">8.87518119812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01791000366211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2125415802002</t>
   </si>
   <si>
     <t xml:space="preserve">9.08927536010742</t>
@@ -68,31 +68,31 @@
     <t xml:space="preserve">8.69352436065674</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73893928527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58972072601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28479862213135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34318733215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5183572769165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53133106231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6610860824585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77786540985107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88815689086914</t>
+    <t xml:space="preserve">8.738938331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58972263336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28480052947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34318828582764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51835823059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53133201599121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66108703613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77786445617676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88815593719482</t>
   </si>
   <si>
     <t xml:space="preserve">8.90113162994385</t>
@@ -101,31 +101,31 @@
     <t xml:space="preserve">8.78435325622559</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75840377807617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7194766998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36265087127686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94743967056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80470943450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65549230575562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81119680404663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02529048919678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9863657951355</t>
+    <t xml:space="preserve">8.75840282440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71947574615479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36265277862549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94743871688843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80470848083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65549182891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81119775772095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02528858184814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98636484146118</t>
   </si>
   <si>
     <t xml:space="preserve">8.01231670379639</t>
@@ -134,22 +134,22 @@
     <t xml:space="preserve">8.00582885742188</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79173517227173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95392751693726</t>
+    <t xml:space="preserve">7.7917332649231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95392656326294</t>
   </si>
   <si>
     <t xml:space="preserve">8.0382661819458</t>
   </si>
   <si>
-    <t xml:space="preserve">7.902024269104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04475402832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96041345596313</t>
+    <t xml:space="preserve">7.90202522277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04475498199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96041440963745</t>
   </si>
   <si>
     <t xml:space="preserve">8.09665584564209</t>
@@ -161,31 +161,31 @@
     <t xml:space="preserve">7.92797613143921</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88256120681763</t>
+    <t xml:space="preserve">7.88256025314331</t>
   </si>
   <si>
     <t xml:space="preserve">8.38860321044922</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77137756347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08278846740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18010330200195</t>
+    <t xml:space="preserve">8.77137565612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08278656005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18010234832764</t>
   </si>
   <si>
     <t xml:space="preserve">9.17361545562744</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24497985839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19307899475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86220550537109</t>
+    <t xml:space="preserve">9.24498081207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19307994842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86220455169678</t>
   </si>
   <si>
     <t xml:space="preserve">8.81030368804932</t>
@@ -194,16 +194,16 @@
     <t xml:space="preserve">8.7259635925293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8492317199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89464378356934</t>
+    <t xml:space="preserve">8.84923076629639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89464473724365</t>
   </si>
   <si>
     <t xml:space="preserve">8.98547267913818</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82328033447266</t>
+    <t xml:space="preserve">8.82327938079834</t>
   </si>
   <si>
     <t xml:space="preserve">8.79732894897461</t>
@@ -212,10 +212,10 @@
     <t xml:space="preserve">8.73245048522949</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86869335174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62864685058594</t>
+    <t xml:space="preserve">8.86869239807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62864780426025</t>
   </si>
   <si>
     <t xml:space="preserve">8.27182483673096</t>
@@ -224,43 +224,43 @@
     <t xml:space="preserve">8.2393856048584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09016799926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15504550933838</t>
+    <t xml:space="preserve">8.09016895294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15504455566406</t>
   </si>
   <si>
     <t xml:space="preserve">8.21992301940918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26533508300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33021354675293</t>
+    <t xml:space="preserve">8.26533603668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33021450042725</t>
   </si>
   <si>
     <t xml:space="preserve">8.42104148864746</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36913967132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33670139312744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23289680480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14207077026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46645545959473</t>
+    <t xml:space="preserve">8.36913871765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33670043945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23289775848389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14206981658936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46645641326904</t>
   </si>
   <si>
     <t xml:space="preserve">8.49240589141846</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55728244781494</t>
+    <t xml:space="preserve">8.55728340148926</t>
   </si>
   <si>
     <t xml:space="preserve">8.39509010314941</t>
@@ -269,64 +269,64 @@
     <t xml:space="preserve">8.25236129760742</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19397163391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41455459594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38211441040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47294235229492</t>
+    <t xml:space="preserve">8.19397068023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41455364227295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38211536407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47294330596924</t>
   </si>
   <si>
     <t xml:space="preserve">8.57674598693848</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61567306518555</t>
+    <t xml:space="preserve">8.61567211151123</t>
   </si>
   <si>
     <t xml:space="preserve">8.56377029418945</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43401622772217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12260627746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87607479095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91499948501587</t>
+    <t xml:space="preserve">8.43401718139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12260723114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87607383728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91499853134155</t>
   </si>
   <si>
     <t xml:space="preserve">7.76578330993652</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52573871612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17540168762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29217910766602</t>
+    <t xml:space="preserve">7.52573823928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17540216445923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29218006134033</t>
   </si>
   <si>
     <t xml:space="preserve">7.29866933822632</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45437335968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42045879364014</t>
+    <t xml:space="preserve">7.45437383651733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42045831680298</t>
   </si>
   <si>
     <t xml:space="preserve">7.37976169586182</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47472190856934</t>
+    <t xml:space="preserve">7.47472286224365</t>
   </si>
   <si>
     <t xml:space="preserve">7.38654518127441</t>
@@ -335,46 +335,46 @@
     <t xml:space="preserve">6.99313879013062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67434406280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79643583297729</t>
+    <t xml:space="preserve">6.67434358596802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79643535614014</t>
   </si>
   <si>
     <t xml:space="preserve">6.91852617263794</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4136757850647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32549858093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36619520187378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25767040252686</t>
+    <t xml:space="preserve">7.41367673873901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32549905776978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3661961555481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25766897201538</t>
   </si>
   <si>
     <t xml:space="preserve">7.10166358947754</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06775045394897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14236116409302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1830587387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05418300628662</t>
+    <t xml:space="preserve">7.06774997711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14236164093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18305921554565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05418395996094</t>
   </si>
   <si>
     <t xml:space="preserve">7.23732233047485</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25088596343994</t>
+    <t xml:space="preserve">7.2508864402771</t>
   </si>
   <si>
     <t xml:space="preserve">7.21697235107422</t>
@@ -401,13 +401,13 @@
     <t xml:space="preserve">8.38362598419189</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54641532897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55998134613037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45145416259766</t>
+    <t xml:space="preserve">8.54641628265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55998039245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45145511627197</t>
   </si>
   <si>
     <t xml:space="preserve">8.4311056137085</t>
@@ -428,85 +428,85 @@
     <t xml:space="preserve">8.2750997543335</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12587738037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1190938949585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10552978515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13265991210938</t>
+    <t xml:space="preserve">8.12587833404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11909580230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10552787780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13266086578369</t>
   </si>
   <si>
     <t xml:space="preserve">8.07839679718018</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92917346954346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01056861877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0648307800293</t>
+    <t xml:space="preserve">7.92917442321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01056957244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06483173370361</t>
   </si>
   <si>
     <t xml:space="preserve">8.18014049530029</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15300941467285</t>
+    <t xml:space="preserve">8.15300846099854</t>
   </si>
   <si>
     <t xml:space="preserve">8.05126571655273</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08517932891846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05804824829102</t>
+    <t xml:space="preserve">8.08518028259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05804920196533</t>
   </si>
   <si>
     <t xml:space="preserve">7.85456323623657</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71890592575073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73925304412842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82064819335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66464328765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59003114700317</t>
+    <t xml:space="preserve">7.71890497207642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7392520904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82064628601074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66464233398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5900297164917</t>
   </si>
   <si>
     <t xml:space="preserve">7.56289911270142</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51541948318481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53576803207397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55611610412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5222020149231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50185394287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4950704574585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52898454666138</t>
+    <t xml:space="preserve">7.51541996002197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5357666015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55611562728882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52220344543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50185298919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49506950378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52898597717285</t>
   </si>
   <si>
     <t xml:space="preserve">7.50863599777222</t>
@@ -515,16 +515,16 @@
     <t xml:space="preserve">7.40010976791382</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29158401489258</t>
+    <t xml:space="preserve">7.29158496856689</t>
   </si>
   <si>
     <t xml:space="preserve">7.37297868728638</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31193256378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5696816444397</t>
+    <t xml:space="preserve">7.31193208694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56968307495117</t>
   </si>
   <si>
     <t xml:space="preserve">7.69177389144897</t>
@@ -536,13 +536,13 @@
     <t xml:space="preserve">7.90204238891602</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87491178512573</t>
+    <t xml:space="preserve">7.8749098777771</t>
   </si>
   <si>
     <t xml:space="preserve">7.99700260162354</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94952249526978</t>
+    <t xml:space="preserve">7.94952344894409</t>
   </si>
   <si>
     <t xml:space="preserve">7.96987199783325</t>
@@ -551,16 +551,16 @@
     <t xml:space="preserve">8.00378608703613</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84099674224854</t>
+    <t xml:space="preserve">7.84099769592285</t>
   </si>
   <si>
     <t xml:space="preserve">7.73247051239014</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80708169937134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71212244033813</t>
+    <t xml:space="preserve">7.80708360671997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71212148666382</t>
   </si>
   <si>
     <t xml:space="preserve">7.64429330825806</t>
@@ -569,64 +569,64 @@
     <t xml:space="preserve">7.16270971298218</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87782907485962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89817762374878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85069751739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78286981582642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73538970947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7794771194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83034896850586</t>
+    <t xml:space="preserve">6.87783002853394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89817810058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85069799423218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78287029266357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73539018630981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77947759628296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8303484916687</t>
   </si>
   <si>
     <t xml:space="preserve">6.95922374725342</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8371319770813</t>
+    <t xml:space="preserve">6.83713245391846</t>
   </si>
   <si>
     <t xml:space="preserve">6.90496063232422</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82356643676758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7286057472229</t>
+    <t xml:space="preserve">6.82356739044189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72860670089722</t>
   </si>
   <si>
     <t xml:space="preserve">7.18984174728394</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43402481079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59681272506714</t>
+    <t xml:space="preserve">7.43402576446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59681224822998</t>
   </si>
   <si>
     <t xml:space="preserve">7.83421421051025</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7799506187439</t>
+    <t xml:space="preserve">7.77995157241821</t>
   </si>
   <si>
     <t xml:space="preserve">7.77316904067993</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7256875038147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86812925338745</t>
+    <t xml:space="preserve">7.72568798065186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86812734603882</t>
   </si>
   <si>
     <t xml:space="preserve">7.86134481430054</t>
@@ -635,28 +635,28 @@
     <t xml:space="preserve">8.02413463592529</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03769969940186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07161426544189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26153469085693</t>
+    <t xml:space="preserve">8.03770065307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07161331176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26153564453125</t>
   </si>
   <si>
     <t xml:space="preserve">8.15979099273682</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20727252960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68499040603638</t>
+    <t xml:space="preserve">8.20727157592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68499135971069</t>
   </si>
   <si>
     <t xml:space="preserve">7.74603652954102</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81386661529541</t>
+    <t xml:space="preserve">7.81386566162109</t>
   </si>
   <si>
     <t xml:space="preserve">7.7528190612793</t>
@@ -665,19 +665,19 @@
     <t xml:space="preserve">8.09874439239502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04448223114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97665548324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99021911621094</t>
+    <t xml:space="preserve">8.04448318481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97665452957153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99021863937378</t>
   </si>
   <si>
     <t xml:space="preserve">8.09196281433105</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13944244384766</t>
+    <t xml:space="preserve">8.13944339752197</t>
   </si>
   <si>
     <t xml:space="preserve">8.20048904418945</t>
@@ -686,16 +686,16 @@
     <t xml:space="preserve">8.11231231689453</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98343753814697</t>
+    <t xml:space="preserve">7.9834361076355</t>
   </si>
   <si>
     <t xml:space="preserve">8.34292888641357</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22083759307861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29544925689697</t>
+    <t xml:space="preserve">8.22083854675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29544830322266</t>
   </si>
   <si>
     <t xml:space="preserve">8.41075706481934</t>
@@ -704,16 +704,16 @@
     <t xml:space="preserve">8.47180271148682</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51250171661377</t>
+    <t xml:space="preserve">8.51250076293945</t>
   </si>
   <si>
     <t xml:space="preserve">8.5871114730835</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67528915405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62780952453613</t>
+    <t xml:space="preserve">8.67528820037842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62781047821045</t>
   </si>
   <si>
     <t xml:space="preserve">8.61424350738525</t>
@@ -731,25 +731,25 @@
     <t xml:space="preserve">8.85164451599121</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82451152801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81772899627686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74311828613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9533863067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91947364807129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78381443023682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86520957946777</t>
+    <t xml:space="preserve">8.82451438903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81773090362549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74311923980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95338726043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91947269439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78381538391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86520862579346</t>
   </si>
   <si>
     <t xml:space="preserve">9.00765037536621</t>
@@ -764,25 +764,25 @@
     <t xml:space="preserve">8.96017074584961</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21791934967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08226203918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22470283508301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25183582305908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34001064300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55027866363525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60454368591309</t>
+    <t xml:space="preserve">9.21791839599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08226108551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22470188140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25183391571045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34001159667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55027961730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60454273223877</t>
   </si>
   <si>
     <t xml:space="preserve">9.42140579223633</t>
@@ -794,28 +794,28 @@
     <t xml:space="preserve">9.41462230682373</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61132621765137</t>
+    <t xml:space="preserve">9.61132717132568</t>
   </si>
   <si>
     <t xml:space="preserve">9.43497180938721</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44853687286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63167285919189</t>
+    <t xml:space="preserve">9.44853591918945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63167381286621</t>
   </si>
   <si>
     <t xml:space="preserve">9.71306705474854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74019908905029</t>
+    <t xml:space="preserve">9.74020004272461</t>
   </si>
   <si>
     <t xml:space="preserve">9.78089714050293</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87585735321045</t>
+    <t xml:space="preserve">9.87585830688477</t>
   </si>
   <si>
     <t xml:space="preserve">9.76054954528809</t>
@@ -827,13 +827,13 @@
     <t xml:space="preserve">9.82159328460693</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85550785064697</t>
+    <t xml:space="preserve">9.85550975799561</t>
   </si>
   <si>
     <t xml:space="preserve">9.76733207702637</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94368648529053</t>
+    <t xml:space="preserve">9.94368553161621</t>
   </si>
   <si>
     <t xml:space="preserve">9.95046901702881</t>
@@ -845,34 +845,34 @@
     <t xml:space="preserve">9.99116611480713</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84872722625732</t>
+    <t xml:space="preserve">9.84872627258301</t>
   </si>
   <si>
     <t xml:space="preserve">9.79446220397949</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95746803283691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85115909576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0425138473511</t>
+    <t xml:space="preserve">9.95746898651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85116004943848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0425148010254</t>
   </si>
   <si>
     <t xml:space="preserve">9.94329261779785</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88659572601318</t>
+    <t xml:space="preserve">9.88659477233887</t>
   </si>
   <si>
     <t xml:space="preserve">9.92203235626221</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63854598999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51806259155273</t>
+    <t xml:space="preserve">9.63854503631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51806354522705</t>
   </si>
   <si>
     <t xml:space="preserve">9.57476139068604</t>
@@ -887,19 +887,19 @@
     <t xml:space="preserve">9.25583839416504</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35505771636963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2204008102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3479700088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46136665344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28418827056885</t>
+    <t xml:space="preserve">9.35505867004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22040367126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34797096252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4613676071167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28418731689453</t>
   </si>
   <si>
     <t xml:space="preserve">9.46845245361328</t>
@@ -908,13 +908,13 @@
     <t xml:space="preserve">9.5038890838623</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52514934539795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6314582824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5322380065918</t>
+    <t xml:space="preserve">9.52515029907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63145732879639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53223705291748</t>
   </si>
   <si>
     <t xml:space="preserve">9.54641151428223</t>
@@ -923,25 +923,25 @@
     <t xml:space="preserve">9.42593002319336</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49680233001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29127502441406</t>
+    <t xml:space="preserve">9.49680137634277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29127311706543</t>
   </si>
   <si>
     <t xml:space="preserve">9.34088516235352</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31962299346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92274188995361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9865255355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94400310516357</t>
+    <t xml:space="preserve">9.31962203979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9227409362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98652744293213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94400215148926</t>
   </si>
   <si>
     <t xml:space="preserve">8.95817756652832</t>
@@ -950,7 +950,7 @@
     <t xml:space="preserve">9.09283351898193</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93691635131836</t>
+    <t xml:space="preserve">8.93691539764404</t>
   </si>
   <si>
     <t xml:space="preserve">8.83769607543945</t>
@@ -959,16 +959,16 @@
     <t xml:space="preserve">8.7243013381958</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86604309082031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87313079833984</t>
+    <t xml:space="preserve">8.86604404449463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87313270568848</t>
   </si>
   <si>
     <t xml:space="preserve">8.80225944519043</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81643390655518</t>
+    <t xml:space="preserve">8.81643295288086</t>
   </si>
   <si>
     <t xml:space="preserve">8.77391147613525</t>
@@ -980,16 +980,16 @@
     <t xml:space="preserve">8.71721363067627</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66760349273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65342807769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63216781616211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57547092437744</t>
+    <t xml:space="preserve">8.6676025390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65342903137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63216876983643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57546997070312</t>
   </si>
   <si>
     <t xml:space="preserve">8.54712200164795</t>
@@ -1007,10 +1007,10 @@
     <t xml:space="preserve">8.78808498382568</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22749042510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39049339294434</t>
+    <t xml:space="preserve">9.22749137878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39049530029297</t>
   </si>
   <si>
     <t xml:space="preserve">9.17079162597656</t>
@@ -1022,28 +1022,28 @@
     <t xml:space="preserve">9.08574676513672</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09992122650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21331405639648</t>
+    <t xml:space="preserve">9.09992218017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21331596374512</t>
   </si>
   <si>
     <t xml:space="preserve">9.27001285552979</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14953136444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15661716461182</t>
+    <t xml:space="preserve">9.14952945709229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15661811828613</t>
   </si>
   <si>
     <t xml:space="preserve">9.19914054870605</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29836177825928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38340663909912</t>
+    <t xml:space="preserve">9.29836082458496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38340759277344</t>
   </si>
   <si>
     <t xml:space="preserve">9.32670974731445</t>
@@ -1061,7 +1061,7 @@
     <t xml:space="preserve">9.72359180450439</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67397975921631</t>
+    <t xml:space="preserve">9.67398071289062</t>
   </si>
   <si>
     <t xml:space="preserve">9.80154991149902</t>
@@ -1076,7 +1076,7 @@
     <t xml:space="preserve">9.90785789489746</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8228120803833</t>
+    <t xml:space="preserve">9.82281112670898</t>
   </si>
   <si>
     <t xml:space="preserve">9.96455574035645</t>
@@ -1085,7 +1085,7 @@
     <t xml:space="preserve">9.93620586395264</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2976503372192</t>
+    <t xml:space="preserve">10.2976522445679</t>
   </si>
   <si>
     <t xml:space="preserve">10.326000213623</t>
@@ -1094,7 +1094,7 @@
     <t xml:space="preserve">10.347261428833</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2905654907227</t>
+    <t xml:space="preserve">10.2905645370483</t>
   </si>
   <si>
     <t xml:space="preserve">10.2196922302246</t>
@@ -1103,19 +1103,19 @@
     <t xml:space="preserve">10.198431968689</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1559085845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0283393859863</t>
+    <t xml:space="preserve">10.1559076309204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.028338432312</t>
   </si>
   <si>
     <t xml:space="preserve">10.1700830459595</t>
   </si>
   <si>
-    <t xml:space="preserve">10.12047290802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4323072433472</t>
+    <t xml:space="preserve">10.1204719543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4323081970215</t>
   </si>
   <si>
     <t xml:space="preserve">10.4110460281372</t>
@@ -1127,49 +1127,49 @@
     <t xml:space="preserve">10.4819173812866</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4252214431763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.382698059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3614358901978</t>
+    <t xml:space="preserve">10.4252223968506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3826971054077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3614349365234</t>
   </si>
   <si>
     <t xml:space="preserve">10.7370548248291</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9773082733154</t>
+    <t xml:space="preserve">11.9773092269897</t>
   </si>
   <si>
     <t xml:space="preserve">12.1048784255981</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0198307037354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0481824874878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9843978881836</t>
+    <t xml:space="preserve">12.0198316574097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0481815338135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9843969345093</t>
   </si>
   <si>
     <t xml:space="preserve">11.9702224731445</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0340061187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8780899047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5875158309937</t>
+    <t xml:space="preserve">12.0340070724487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8780889511108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5875148773193</t>
   </si>
   <si>
     <t xml:space="preserve">11.49538230896</t>
   </si>
   <si>
-    <t xml:space="preserve">11.381986618042</t>
+    <t xml:space="preserve">11.3819885253906</t>
   </si>
   <si>
     <t xml:space="preserve">11.6867351531982</t>
@@ -1178,16 +1178,16 @@
     <t xml:space="preserve">11.3182039260864</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0772409439087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9354963302612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0559778213501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0347166061401</t>
+    <t xml:space="preserve">11.0772399902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9354982376099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0559797286987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0347175598145</t>
   </si>
   <si>
     <t xml:space="preserve">10.914234161377</t>
@@ -1199,13 +1199,13 @@
     <t xml:space="preserve">11.1268501281738</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3252906799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4245119094849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5024709701538</t>
+    <t xml:space="preserve">11.3252897262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4245109558105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5024700164795</t>
   </si>
   <si>
     <t xml:space="preserve">11.3040285110474</t>
@@ -1214,40 +1214,40 @@
     <t xml:space="preserve">11.2189826965332</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1197633743286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1693725585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3394651412964</t>
+    <t xml:space="preserve">11.1197624206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1693735122681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3394641876221</t>
   </si>
   <si>
     <t xml:space="preserve">11.4457721710205</t>
   </si>
   <si>
-    <t xml:space="preserve">11.509557723999</t>
+    <t xml:space="preserve">11.5095567703247</t>
   </si>
   <si>
     <t xml:space="preserve">11.5591669082642</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6442127227783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4386835098267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3465528488159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2756795883179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2331571578979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0843267440796</t>
+    <t xml:space="preserve">11.6442136764526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.438684463501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3465518951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2756805419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2331581115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0843276977539</t>
   </si>
   <si>
     <t xml:space="preserve">11.0276298522949</t>
@@ -1268,19 +1268,19 @@
     <t xml:space="preserve">10.666184425354</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3897848129272</t>
+    <t xml:space="preserve">10.3897838592529</t>
   </si>
   <si>
     <t xml:space="preserve">10.5031785964966</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5244398117065</t>
+    <t xml:space="preserve">10.5244417190552</t>
   </si>
   <si>
     <t xml:space="preserve">10.5953130722046</t>
   </si>
   <si>
-    <t xml:space="preserve">10.552788734436</t>
+    <t xml:space="preserve">10.5527896881104</t>
   </si>
   <si>
     <t xml:space="preserve">10.4393949508667</t>
@@ -1292,10 +1292,10 @@
     <t xml:space="preserve">9.95038032531738</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87950897216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0921239852905</t>
+    <t xml:space="preserve">9.87950706481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0921230316162</t>
   </si>
   <si>
     <t xml:space="preserve">10.1133852005005</t>
@@ -1310,34 +1310,34 @@
     <t xml:space="preserve">9.99999046325684</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78028774261475</t>
+    <t xml:space="preserve">9.78028869628906</t>
   </si>
   <si>
     <t xml:space="preserve">9.64563179016113</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56058597564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65980815887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48971462249756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60310840606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76611328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70941734313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66689586639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58893489837646</t>
+    <t xml:space="preserve">9.56058692932129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65980625152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48971366882324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60311031341553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76611423492432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70941638946533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66689395904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58893394470215</t>
   </si>
   <si>
     <t xml:space="preserve">9.73067760467529</t>
@@ -1346,10 +1346,10 @@
     <t xml:space="preserve">9.86533546447754</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97872829437256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0708618164062</t>
+    <t xml:space="preserve">9.97872924804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0708637237549</t>
   </si>
   <si>
     <t xml:space="preserve">10.2551288604736</t>
@@ -1358,64 +1358,64 @@
     <t xml:space="preserve">10.2622146606445</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2267808914185</t>
+    <t xml:space="preserve">10.2267799377441</t>
   </si>
   <si>
     <t xml:space="preserve">10.4181337356567</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2763891220093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2126064300537</t>
+    <t xml:space="preserve">10.2763900756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2126054763794</t>
   </si>
   <si>
     <t xml:space="preserve">9.91494464874268</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1629953384399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73776435852051</t>
+    <t xml:space="preserve">10.1629962921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73776531219482</t>
   </si>
   <si>
     <t xml:space="preserve">9.43301677703857</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2062292098999</t>
+    <t xml:space="preserve">9.20622730255127</t>
   </si>
   <si>
     <t xml:space="preserve">9.45427989959717</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82989883422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69353866577148</t>
+    <t xml:space="preserve">9.8298978805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69353771209717</t>
   </si>
   <si>
     <t xml:space="preserve">9.72325038909912</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67125415802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53754901885986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5746898651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47812747955322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49298191070557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45584106445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41127395629883</t>
+    <t xml:space="preserve">9.67125511169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53754997253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57469081878662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47812652587891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49298286437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45584297180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41127490997314</t>
   </si>
   <si>
     <t xml:space="preserve">9.46327114105225</t>
@@ -1433,16 +1433,16 @@
     <t xml:space="preserve">9.8346700668335</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6415433883667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53012180328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55240535736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65639877319336</t>
+    <t xml:space="preserve">9.64154052734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53012275695801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55240631103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65639686584473</t>
   </si>
   <si>
     <t xml:space="preserve">9.70096588134766</t>
@@ -1460,43 +1460,43 @@
     <t xml:space="preserve">9.87923812866211</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84952545166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0500831604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.15407371521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0055150985718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0649394989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1020793914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1317911148071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0203714370728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1095056533813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97580146789551</t>
+    <t xml:space="preserve">9.84952640533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0500812530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1540746688843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0055131912231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0649385452271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1020784378052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1317892074585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0203704833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1095066070557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97580337524414</t>
   </si>
   <si>
     <t xml:space="preserve">9.89409351348877</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94608974456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7381067276001</t>
+    <t xml:space="preserve">9.94609069824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73810577392578</t>
   </si>
   <si>
     <t xml:space="preserve">9.78267383575439</t>
@@ -1505,28 +1505,28 @@
     <t xml:space="preserve">9.71582126617432</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67868232727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51526641845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23300266265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12158203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08444118499756</t>
+    <t xml:space="preserve">9.67868137359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51526546478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23300361633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12158298492432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08444213867188</t>
   </si>
   <si>
     <t xml:space="preserve">9.19586277008057</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39641857147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43355846405029</t>
+    <t xml:space="preserve">9.39641761779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43355751037598</t>
   </si>
   <si>
     <t xml:space="preserve">9.56726169586182</t>
@@ -1538,13 +1538,13 @@
     <t xml:space="preserve">9.73067855834961</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82724094390869</t>
+    <t xml:space="preserve">9.82724189758301</t>
   </si>
   <si>
     <t xml:space="preserve">9.86438179016113</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81238460540771</t>
+    <t xml:space="preserve">9.81238555908203</t>
   </si>
   <si>
     <t xml:space="preserve">9.58954620361328</t>
@@ -1559,7 +1559,7 @@
     <t xml:space="preserve">9.15129375457764</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09929656982422</t>
+    <t xml:space="preserve">9.09929847717285</t>
   </si>
   <si>
     <t xml:space="preserve">8.90616989135742</t>
@@ -1568,34 +1568,34 @@
     <t xml:space="preserve">8.8764591217041</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78732299804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99530506134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89131450653076</t>
+    <t xml:space="preserve">8.78732204437256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99530601501465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89131355285645</t>
   </si>
   <si>
     <t xml:space="preserve">8.65361785888672</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64619064331055</t>
+    <t xml:space="preserve">8.64618968963623</t>
   </si>
   <si>
     <t xml:space="preserve">8.60905075073242</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41592216491699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43820762634277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44563484191895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3045015335083</t>
+    <t xml:space="preserve">8.41592121124268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43820571899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44563388824463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30450344085693</t>
   </si>
   <si>
     <t xml:space="preserve">8.52734184265137</t>
@@ -1604,16 +1604,16 @@
     <t xml:space="preserve">8.54219818115234</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62390613555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66847324371338</t>
+    <t xml:space="preserve">8.6239070892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6684741973877</t>
   </si>
   <si>
     <t xml:space="preserve">8.7724666595459</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75018215179443</t>
+    <t xml:space="preserve">8.75018310546875</t>
   </si>
   <si>
     <t xml:space="preserve">8.89874172210693</t>
@@ -1625,16 +1625,16 @@
     <t xml:space="preserve">9.58211803436279</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50783729553223</t>
+    <t xml:space="preserve">9.50783824920654</t>
   </si>
   <si>
     <t xml:space="preserve">9.48555469512939</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21814727783203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2255744934082</t>
+    <t xml:space="preserve">9.21814632415771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22557544708252</t>
   </si>
   <si>
     <t xml:space="preserve">9.06215763092041</t>
@@ -1646,7 +1646,7 @@
     <t xml:space="preserve">8.9730224609375</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83931732177734</t>
+    <t xml:space="preserve">8.83931827545166</t>
   </si>
   <si>
     <t xml:space="preserve">8.9210262298584</t>
@@ -1655,55 +1655,55 @@
     <t xml:space="preserve">8.91359806060791</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79475116729736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75760936737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83189010620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59419441223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21071910858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01016235351562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72789764404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57933807373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76503944396973</t>
+    <t xml:space="preserve">8.79475021362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75761032104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83189105987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59419345855713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21071815490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01016139984131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72789859771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57933902740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76503753662109</t>
   </si>
   <si>
     <t xml:space="preserve">8.85417461395264</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0250186920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7798957824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9284553527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09186935424805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24785804748535</t>
+    <t xml:space="preserve">9.02501773834229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77989292144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92845439910889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09187126159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24785900115967</t>
   </si>
   <si>
     <t xml:space="preserve">9.27014255523682</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32213878631592</t>
+    <t xml:space="preserve">9.32213973999023</t>
   </si>
   <si>
     <t xml:space="preserve">9.68610954284668</t>
@@ -1712,10 +1712,10 @@
     <t xml:space="preserve">9.95351791381836</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0277986526489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91637897491455</t>
+    <t xml:space="preserve">10.0277976989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91637802124023</t>
   </si>
   <si>
     <t xml:space="preserve">9.79010200500488</t>
@@ -1724,22 +1724,22 @@
     <t xml:space="preserve">9.99065780639648</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1169347763062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0575103759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.079794883728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96094512939453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.139217376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3694849014282</t>
+    <t xml:space="preserve">10.1169338226318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0575094223022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0797939300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96094608306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1392164230347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3694868087769</t>
   </si>
   <si>
     <t xml:space="preserve">10.3174896240234</t>
@@ -1748,31 +1748,31 @@
     <t xml:space="preserve">10.3397741317749</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2134981155396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3249177932739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3100624084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4883346557617</t>
+    <t xml:space="preserve">10.2134971618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3249187469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3100614547729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4883337020874</t>
   </si>
   <si>
     <t xml:space="preserve">10.7186031341553</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8077373504639</t>
+    <t xml:space="preserve">10.8077383041382</t>
   </si>
   <si>
     <t xml:space="preserve">11.1048574447632</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2608461380005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1345682144165</t>
+    <t xml:space="preserve">11.2608451843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1345691680908</t>
   </si>
   <si>
     <t xml:space="preserve">11.1791381835938</t>
@@ -1781,28 +1781,28 @@
     <t xml:space="preserve">11.0974292755127</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2088489532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1865663528442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2757024765015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.223705291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2905578613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.25341796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2385625839233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2162771224976</t>
+    <t xml:space="preserve">11.2088499069214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1865653991699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2757015228271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2237062454224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2905569076538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2534170150757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.238561630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2162780761719</t>
   </si>
   <si>
     <t xml:space="preserve">11.1939935684204</t>
@@ -1811,10 +1811,10 @@
     <t xml:space="preserve">11.424262046814</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8847980499268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8996524810791</t>
+    <t xml:space="preserve">11.8847970962524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8996543884277</t>
   </si>
   <si>
     <t xml:space="preserve">12.0333585739136</t>
@@ -1823,55 +1823,55 @@
     <t xml:space="preserve">11.8402299880981</t>
   </si>
   <si>
-    <t xml:space="preserve">11.973934173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.959077835083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8253736495972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.676815032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4985418319702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5133981704712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7065267562866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9145088195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.944221496582</t>
+    <t xml:space="preserve">11.9739351272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9590787887573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8253755569458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6768140792847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4985408782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5133972167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7065258026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9145107269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9442224502563</t>
   </si>
   <si>
     <t xml:space="preserve">12.0185022354126</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0036449432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1522073745728</t>
+    <t xml:space="preserve">12.0036458969116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1522064208984</t>
   </si>
   <si>
     <t xml:space="preserve">12.0779256820679</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4047565460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4938936233521</t>
+    <t xml:space="preserve">12.4047584533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4938926696777</t>
   </si>
   <si>
     <t xml:space="preserve">12.6721649169922</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5384607315063</t>
+    <t xml:space="preserve">12.538459777832</t>
   </si>
   <si>
     <t xml:space="preserve">12.4196128845215</t>
@@ -1880,7 +1880,7 @@
     <t xml:space="preserve">12.3750457763672</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2859115600586</t>
+    <t xml:space="preserve">12.28590965271</t>
   </si>
   <si>
     <t xml:space="preserve">12.2264852523804</t>
@@ -1889,73 +1889,73 @@
     <t xml:space="preserve">12.3453340530396</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4493265151978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4641819000244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3899011611938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4344701766968</t>
+    <t xml:space="preserve">12.4493255615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4641828536987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3899021148682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4344682693481</t>
   </si>
   <si>
     <t xml:space="preserve">12.3601884841919</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6275978088379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7613000869751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.850438117981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8801507949829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9247169494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0138549804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0881328582764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.102988243103</t>
+    <t xml:space="preserve">12.6275959014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7613010406494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8504371643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8801488876343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9247179031372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0138540267944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.088134765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1029891967773</t>
   </si>
   <si>
     <t xml:space="preserve">13.1178464889526</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1772689819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2515497207642</t>
+    <t xml:space="preserve">13.1772699356079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2515506744385</t>
   </si>
   <si>
     <t xml:space="preserve">13.2218370437622</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2961177825928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4121408462524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2574424743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.226505279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9635219573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9480514526367</t>
+    <t xml:space="preserve">13.2961187362671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4121389389038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2574434280396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2265043258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9635210037231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9480504989624</t>
   </si>
   <si>
     <t xml:space="preserve">12.886173248291</t>
@@ -1964,37 +1964,37 @@
     <t xml:space="preserve">13.0253992080688</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3966684341431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3193225860596</t>
+    <t xml:space="preserve">13.3966693878174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3193206787109</t>
   </si>
   <si>
     <t xml:space="preserve">13.1182165145874</t>
   </si>
   <si>
-    <t xml:space="preserve">13.164626121521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.334792137146</t>
+    <t xml:space="preserve">13.1646270751953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3347902297974</t>
   </si>
   <si>
     <t xml:space="preserve">13.272912979126</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4740171432495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3811988830566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3657312393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4276103973389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5358972549438</t>
+    <t xml:space="preserve">13.4740190505981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.381199836731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3657321929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4276084899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5358963012695</t>
   </si>
   <si>
     <t xml:space="preserve">13.2883825302124</t>
@@ -2015,28 +2015,28 @@
     <t xml:space="preserve">13.4894876480103</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6751222610474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7215309143066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6596527099609</t>
+    <t xml:space="preserve">13.6751232147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.721531867981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6596536636353</t>
   </si>
   <si>
     <t xml:space="preserve">13.5823040008545</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7524709701538</t>
+    <t xml:space="preserve">13.7524728775024</t>
   </si>
   <si>
     <t xml:space="preserve">13.7060623168945</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6905937194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6287136077881</t>
+    <t xml:space="preserve">13.6905918121338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6287155151367</t>
   </si>
   <si>
     <t xml:space="preserve">13.5513668060303</t>
@@ -2045,13 +2045,13 @@
     <t xml:space="preserve">13.7679395675659</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5977745056152</t>
+    <t xml:space="preserve">13.5977735519409</t>
   </si>
   <si>
     <t xml:space="preserve">13.1955642700195</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4585475921631</t>
+    <t xml:space="preserve">13.4585485458374</t>
   </si>
   <si>
     <t xml:space="preserve">13.1336860656738</t>
@@ -2060,10 +2060,10 @@
     <t xml:space="preserve">14.0773334503174</t>
   </si>
   <si>
-    <t xml:space="preserve">13.953574180603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1237411499023</t>
+    <t xml:space="preserve">13.9535751342773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.123740196228</t>
   </si>
   <si>
     <t xml:space="preserve">13.9690437316895</t>
@@ -2078,139 +2078,139 @@
     <t xml:space="preserve">13.7988805770874</t>
   </si>
   <si>
-    <t xml:space="preserve">13.783411026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5204267501831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8916969299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8762283325195</t>
+    <t xml:space="preserve">13.783408164978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5204257965088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.891697883606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8762273788452</t>
   </si>
   <si>
     <t xml:space="preserve">13.9071674346924</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8607568740845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7370004653931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.402193069458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5878286361694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.185619354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3867235183716</t>
+    <t xml:space="preserve">13.8607578277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7370023727417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4021949768066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5878276824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1856203079224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3867254257202</t>
   </si>
   <si>
     <t xml:space="preserve">14.6187686920166</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4176626205444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2629680633545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5104808807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6032962799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0928010940552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1082715988159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.061863899231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4331321716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6497087478638</t>
+    <t xml:space="preserve">14.4176635742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2629690170288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5104818344116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6032981872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0928020477295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1082696914673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.061861038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4331331253052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6497068405151</t>
   </si>
   <si>
     <t xml:space="preserve">14.7115850448608</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4640741348267</t>
+    <t xml:space="preserve">14.4640731811523</t>
   </si>
   <si>
     <t xml:space="preserve">14.3248453140259</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2939052581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2474985122681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1546802520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9845142364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8452863693237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5259504318237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.129264831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1447334289551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3149013519287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5082693099976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7403135299683</t>
+    <t xml:space="preserve">14.293906211853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2474975585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1546792984009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9845151901245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8452892303467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5259523391724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1292638778687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1447324752808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3148994445801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5082674026489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7403154373169</t>
   </si>
   <si>
     <t xml:space="preserve">15.6242914199829</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7016401290894</t>
+    <t xml:space="preserve">15.7016382217407</t>
   </si>
   <si>
     <t xml:space="preserve">16.0883808135986</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2817478179932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6684875488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8618583679199</t>
+    <t xml:space="preserve">16.2817497253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6684894561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8618602752686</t>
   </si>
   <si>
     <t xml:space="preserve">16.7845115661621</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5137939453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4364452362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3590984344482</t>
+    <t xml:space="preserve">16.5137958526611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4364471435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.359094619751</t>
   </si>
   <si>
     <t xml:space="preserve">16.2430763244629</t>
@@ -2222,76 +2222,76 @@
     <t xml:space="preserve">16.1657276153564</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9336833953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.972357749939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6298141479492</t>
+    <t xml:space="preserve">15.9336843490601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9723567962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6298160552979</t>
   </si>
   <si>
     <t xml:space="preserve">15.6629657745361</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4231882095337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5469436645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0828552246094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7425241470337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9745683670044</t>
+    <t xml:space="preserve">15.4231863021851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5469455718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0828561782837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7425231933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9745664596558</t>
   </si>
   <si>
     <t xml:space="preserve">15.1911420822144</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2066125869751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3756771087646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0044059753418</t>
+    <t xml:space="preserve">15.2066116333008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3756761550903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0044069290161</t>
   </si>
   <si>
     <t xml:space="preserve">10.3336896896362</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6894903182983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0242986679077</t>
+    <t xml:space="preserve">10.689489364624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0242977142334</t>
   </si>
   <si>
     <t xml:space="preserve">10.0861759185791</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59114837646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73037624359131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97789001464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016464233398</t>
+    <t xml:space="preserve">9.59114933013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73037528991699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97788906097412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016454696655</t>
   </si>
   <si>
     <t xml:space="preserve">11.0452919006348</t>
   </si>
   <si>
-    <t xml:space="preserve">11.199987411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0916996002197</t>
+    <t xml:space="preserve">11.1999864578247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.091700553894</t>
   </si>
   <si>
     <t xml:space="preserve">11.4475011825562</t>
@@ -2303,28 +2303,28 @@
     <t xml:space="preserve">11.4088268280029</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7336874008179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5403175354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5016441345215</t>
+    <t xml:space="preserve">11.7336883544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5403184890747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5016431808472</t>
   </si>
   <si>
     <t xml:space="preserve">11.524847984314</t>
   </si>
   <si>
-    <t xml:space="preserve">11.586727142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8419761657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3392143249512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1767816543579</t>
+    <t xml:space="preserve">11.5867261886597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8419752120972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3392133712769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1767835617065</t>
   </si>
   <si>
     <t xml:space="preserve">11.2231922149658</t>
@@ -2336,19 +2336,19 @@
     <t xml:space="preserve">11.0066175460815</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4552364349365</t>
+    <t xml:space="preserve">11.4552345275879</t>
   </si>
   <si>
     <t xml:space="preserve">11.9038543701172</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7955675125122</t>
+    <t xml:space="preserve">11.7955665588379</t>
   </si>
   <si>
     <t xml:space="preserve">12.0662851333618</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5303726196289</t>
+    <t xml:space="preserve">12.5303735733032</t>
   </si>
   <si>
     <t xml:space="preserve">12.1436328887939</t>
@@ -2357,7 +2357,7 @@
     <t xml:space="preserve">11.7414226531982</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0508146286011</t>
+    <t xml:space="preserve">12.0508155822754</t>
   </si>
   <si>
     <t xml:space="preserve">12.2828588485718</t>
@@ -2366,16 +2366,16 @@
     <t xml:space="preserve">12.6928033828735</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0099296569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1491565704346</t>
+    <t xml:space="preserve">13.0099287033081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1491546630859</t>
   </si>
   <si>
     <t xml:space="preserve">12.9557857513428</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0176649093628</t>
+    <t xml:space="preserve">13.0176639556885</t>
   </si>
   <si>
     <t xml:space="preserve">12.9867267608643</t>
@@ -2384,16 +2384,16 @@
     <t xml:space="preserve">13.3579969406128</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4972219467163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4198751449585</t>
+    <t xml:space="preserve">13.4972229003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4198741912842</t>
   </si>
   <si>
     <t xml:space="preserve">13.5745697021484</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2397632598877</t>
+    <t xml:space="preserve">14.2397623062134</t>
   </si>
   <si>
     <t xml:space="preserve">14.4486045837402</t>
@@ -2402,82 +2402,82 @@
     <t xml:space="preserve">14.5414199829102</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6961154937744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1624135971069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1005363464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6983270645142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.667387008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.116005897522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9149017333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8674383163452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0776739120483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7461500167847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6006021499634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7704076766968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0210733413696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8189239501953</t>
+    <t xml:space="preserve">14.6961145401001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1624145507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1005373001099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6983251571655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6673879623413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1160049438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9149007797241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8674402236938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0776748657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.746148109436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6006011962891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7704086303711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0210723876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.818922996521</t>
   </si>
   <si>
     <t xml:space="preserve">14.0453319549561</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1747064590454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0695877075195</t>
+    <t xml:space="preserve">14.1747074127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0695886611938</t>
   </si>
   <si>
     <t xml:space="preserve">14.1585350036621</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9806432723999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7380628585815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6895484924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5359144210815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4065380096436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.560173034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9159555435181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.762321472168</t>
+    <t xml:space="preserve">13.9806442260742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7380619049072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6895475387573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5359134674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4065389633179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5601711273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9159545898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7623224258423</t>
   </si>
   <si>
     <t xml:space="preserve">13.9563856124878</t>
@@ -2489,46 +2489,46 @@
     <t xml:space="preserve">13.3903656005859</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1801309585571</t>
+    <t xml:space="preserve">13.1801319122314</t>
   </si>
   <si>
     <t xml:space="preserve">13.3580236434937</t>
   </si>
   <si>
-    <t xml:space="preserve">13.948299407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8270101547241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0615015029907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2798233032227</t>
+    <t xml:space="preserve">13.9483003616333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8270092010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.061502456665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.279824256897</t>
   </si>
   <si>
     <t xml:space="preserve">14.5790042877197</t>
   </si>
   <si>
-    <t xml:space="preserve">14.13427734375</t>
+    <t xml:space="preserve">14.1342754364014</t>
   </si>
   <si>
     <t xml:space="preserve">14.1504487991333</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1666202545166</t>
+    <t xml:space="preserve">14.1666212081909</t>
   </si>
   <si>
     <t xml:space="preserve">14.4981441497803</t>
   </si>
   <si>
-    <t xml:space="preserve">14.465799331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5304880142212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7245512008667</t>
+    <t xml:space="preserve">14.4658012390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5304889678955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.724552154541</t>
   </si>
   <si>
     <t xml:space="preserve">14.4253721237183</t>
@@ -2537,43 +2537,43 @@
     <t xml:space="preserve">14.3283395767212</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0534152984619</t>
+    <t xml:space="preserve">14.0534162521362</t>
   </si>
   <si>
     <t xml:space="preserve">14.2555656433105</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2313079833984</t>
+    <t xml:space="preserve">14.2313070297241</t>
   </si>
   <si>
     <t xml:space="preserve">14.093846321106</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3525972366333</t>
+    <t xml:space="preserve">14.3525981903076</t>
   </si>
   <si>
     <t xml:space="preserve">14.2070503234863</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9240417480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.263650894165</t>
+    <t xml:space="preserve">13.9240398406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2636518478394</t>
   </si>
   <si>
     <t xml:space="preserve">14.1019325256348</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4334573745728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1989622116089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1100177764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4900588989258</t>
+    <t xml:space="preserve">14.4334583282471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1989631652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1100187301636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4900579452515</t>
   </si>
   <si>
     <t xml:space="preserve">14.5709180831909</t>
@@ -2582,19 +2582,19 @@
     <t xml:space="preserve">14.6032619476318</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2232227325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9887275695801</t>
+    <t xml:space="preserve">14.2232208251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9887285232544</t>
   </si>
   <si>
     <t xml:space="preserve">14.1827926635742</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3768558502197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6517782211304</t>
+    <t xml:space="preserve">14.376856803894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6517791748047</t>
   </si>
   <si>
     <t xml:space="preserve">14.5385751724243</t>
@@ -2603,22 +2603,22 @@
     <t xml:space="preserve">14.5547466278076</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7326374053955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5870895385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5062322616577</t>
+    <t xml:space="preserve">14.7326383590698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5870904922485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5062303543091</t>
   </si>
   <si>
     <t xml:space="preserve">14.4819717407227</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6760349273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7002954483032</t>
+    <t xml:space="preserve">14.6760358810425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7002935409546</t>
   </si>
   <si>
     <t xml:space="preserve">14.999475479126</t>
@@ -2630,40 +2630,40 @@
     <t xml:space="preserve">14.8377552032471</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4577140808105</t>
+    <t xml:space="preserve">14.4577150344849</t>
   </si>
   <si>
     <t xml:space="preserve">14.33642578125</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9321269989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8836107254028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9078693389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9968128204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7784948348999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4172859191895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4011135101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4415435791016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2151365280151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1181039810181</t>
+    <t xml:space="preserve">13.9321260452271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8836116790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9078702926636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9968147277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7784938812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4172840118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4011116027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4415445327759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2151346206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1181030273438</t>
   </si>
   <si>
     <t xml:space="preserve">14.1423625946045</t>
@@ -2672,28 +2672,28 @@
     <t xml:space="preserve">14.6679496765137</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2717370986938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6491174697876</t>
+    <t xml:space="preserve">14.2717380523682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.649115562439</t>
   </si>
   <si>
     <t xml:space="preserve">13.4873991012573</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4227113723755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4469680786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3499364852905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1720457077026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1882171630859</t>
+    <t xml:space="preserve">13.4227104187012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.446967124939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3499374389648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.172046661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1882181167603</t>
   </si>
   <si>
     <t xml:space="preserve">13.2124757766724</t>
@@ -2702,7 +2702,7 @@
     <t xml:space="preserve">13.2771635055542</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3984518051147</t>
+    <t xml:space="preserve">13.3984527587891</t>
   </si>
   <si>
     <t xml:space="preserve">13.5278272628784</t>
@@ -2711,13 +2711,13 @@
     <t xml:space="preserve">13.7542362213135</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9402132034302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0372457504272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0291595458984</t>
+    <t xml:space="preserve">13.9402122497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0372447967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0291585922241</t>
   </si>
   <si>
     <t xml:space="preserve">13.7946643829346</t>
@@ -2729,10 +2729,10 @@
     <t xml:space="preserve">13.4712266921997</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5197420120239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4550552368164</t>
+    <t xml:space="preserve">13.5197410583496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4550533294678</t>
   </si>
   <si>
     <t xml:space="preserve">13.2205619812012</t>
@@ -2741,34 +2741,34 @@
     <t xml:space="preserve">13.3661098480225</t>
   </si>
   <si>
-    <t xml:space="preserve">13.341851234436</t>
+    <t xml:space="preserve">13.3418502807617</t>
   </si>
   <si>
     <t xml:space="preserve">13.8108367919922</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7057209014893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9644708633423</t>
+    <t xml:space="preserve">13.7057199478149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9644718170166</t>
   </si>
   <si>
     <t xml:space="preserve">13.8997840881348</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5844287872314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3095073699951</t>
+    <t xml:space="preserve">13.5844297409058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3095064163208</t>
   </si>
   <si>
     <t xml:space="preserve">13.3175926208496</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2286472320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2043886184692</t>
+    <t xml:space="preserve">13.22864818573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2043895721436</t>
   </si>
   <si>
     <t xml:space="preserve">13.3014221191406</t>
@@ -2783,58 +2783,58 @@
     <t xml:space="preserve">14.1908769607544</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3202533721924</t>
+    <t xml:space="preserve">14.3202514648438</t>
   </si>
   <si>
     <t xml:space="preserve">14.6113481521606</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7973260879517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0399045944214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0803327560425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2339677810669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2097091674805</t>
+    <t xml:space="preserve">14.797324180603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0399055480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0803346633911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2339687347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2097101211548</t>
   </si>
   <si>
     <t xml:space="preserve">15.0722484588623</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9024448394775</t>
+    <t xml:space="preserve">14.9024429321289</t>
   </si>
   <si>
     <t xml:space="preserve">14.9186172485352</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0641613006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2258806228638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6544389724731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8242444992065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4927177429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3148288726807</t>
+    <t xml:space="preserve">15.0641622543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2258825302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6544370651245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8242435455322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4927186965942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3148279190063</t>
   </si>
   <si>
     <t xml:space="preserve">15.4522895812988</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4442024230957</t>
+    <t xml:space="preserve">15.44420337677</t>
   </si>
   <si>
     <t xml:space="preserve">15.3633432388306</t>
@@ -2843,70 +2843,70 @@
     <t xml:space="preserve">15.201623916626</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3795146942139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3229160308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2501401901245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2824850082397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2743968963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3390865325928</t>
+    <t xml:space="preserve">15.3795156478882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3229141235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2501392364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2824840545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2743978500366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3390846252441</t>
   </si>
   <si>
     <t xml:space="preserve">15.5250635147095</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6948671340942</t>
+    <t xml:space="preserve">15.6948680877686</t>
   </si>
   <si>
     <t xml:space="preserve">15.9051036834717</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7838153839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7272109985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7999877929688</t>
+    <t xml:space="preserve">15.7838144302368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7272129058838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7999868392944</t>
   </si>
   <si>
     <t xml:space="preserve">15.8808450698853</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9131889343262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.775731086731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5412359237671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5574073791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6706104278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7595567703247</t>
+    <t xml:space="preserve">15.9131898880005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.775728225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5412340164185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5574064254761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6706094741821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7595539093018</t>
   </si>
   <si>
     <t xml:space="preserve">15.7029542922974</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6220951080322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8565883636475</t>
+    <t xml:space="preserve">15.6220941543579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8565864562988</t>
   </si>
   <si>
     <t xml:space="preserve">16.1315097808838</t>
@@ -2915,13 +2915,13 @@
     <t xml:space="preserve">16.5924110412598</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5438938140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3498306274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4953804016113</t>
+    <t xml:space="preserve">16.5438957214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.34983253479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4953784942627</t>
   </si>
   <si>
     <t xml:space="preserve">16.6570987701416</t>
@@ -2948,25 +2948,25 @@
     <t xml:space="preserve">17.1099128723145</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2231159210205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0214805603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8030414581299</t>
+    <t xml:space="preserve">17.2231178283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0214786529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8030395507812</t>
   </si>
   <si>
     <t xml:space="preserve">16.5846004486084</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5173892974854</t>
+    <t xml:space="preserve">16.5173873901367</t>
   </si>
   <si>
     <t xml:space="preserve">16.609806060791</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4165725708008</t>
+    <t xml:space="preserve">16.4165706634521</t>
   </si>
   <si>
     <t xml:space="preserve">16.3745632171631</t>
@@ -2975,31 +2975,31 @@
     <t xml:space="preserve">16.2821464538574</t>
   </si>
   <si>
-    <t xml:space="preserve">16.382963180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4501762390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5005855560303</t>
+    <t xml:space="preserve">16.3829650878906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4501781463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5005874633789</t>
   </si>
   <si>
     <t xml:space="preserve">16.8534488677979</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3241539001465</t>
+    <t xml:space="preserve">16.3241558074951</t>
   </si>
   <si>
     <t xml:space="preserve">16.3073501586914</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4417762756348</t>
+    <t xml:space="preserve">16.4417743682861</t>
   </si>
   <si>
     <t xml:space="preserve">16.4585781097412</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3157539367676</t>
+    <t xml:space="preserve">16.3157520294189</t>
   </si>
   <si>
     <t xml:space="preserve">16.2317371368408</t>
@@ -3017,7 +3017,7 @@
     <t xml:space="preserve">16.3913669586182</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5930042266846</t>
+    <t xml:space="preserve">16.5930023193359</t>
   </si>
   <si>
     <t xml:space="preserve">16.4669799804688</t>
@@ -3026,7 +3026,7 @@
     <t xml:space="preserve">16.6518135070801</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7610321044922</t>
+    <t xml:space="preserve">16.7610340118408</t>
   </si>
   <si>
     <t xml:space="preserve">16.5089874267578</t>
@@ -3038,13 +3038,13 @@
     <t xml:space="preserve">17.0046768188477</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1054973602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3071327209473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4415550231934</t>
+    <t xml:space="preserve">17.1054954528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3071308135986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.441556930542</t>
   </si>
   <si>
     <t xml:space="preserve">17.7776165008545</t>
@@ -3053,16 +3053,16 @@
     <t xml:space="preserve">17.8616313934326</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6935997009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3407363891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9878711700439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.819845199585</t>
+    <t xml:space="preserve">17.6936016082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3407382965088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9878730773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8198432922363</t>
   </si>
   <si>
     <t xml:space="preserve">17.1727085113525</t>
@@ -3074,88 +3074,88 @@
     <t xml:space="preserve">17.0718898773193</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8870544433594</t>
+    <t xml:space="preserve">16.887056350708</t>
   </si>
   <si>
     <t xml:space="preserve">17.0886917114258</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8366470336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7946395874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7274265289307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0382823944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0550861358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9038600921631</t>
+    <t xml:space="preserve">16.83664894104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7946376800537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7274284362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0382843017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0550842285156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9038581848145</t>
   </si>
   <si>
     <t xml:space="preserve">16.6014060974121</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1141147613525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8116617202759</t>
+    <t xml:space="preserve">16.1141166687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8116607666016</t>
   </si>
   <si>
     <t xml:space="preserve">15.6100244522095</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4924039840698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6772365570068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6856393814087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6604337692261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4335927963257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5848207473755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5008068084717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5932207107544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5428113937378</t>
+    <t xml:space="preserve">15.4924049377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6772356033325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6856374740601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6604328155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.43359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5848188400269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.500804901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5932216644287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5428133010864</t>
   </si>
   <si>
     <t xml:space="preserve">15.803258895874</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3579797744751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4756011962891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8200626373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9460849761963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7948589324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0048961639404</t>
+    <t xml:space="preserve">15.3579807281494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4756002426147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8200635910034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9460868835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7948579788208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0048942565918</t>
   </si>
   <si>
     <t xml:space="preserve">16.1057147979736</t>
@@ -3164,10 +3164,10 @@
     <t xml:space="preserve">15.7612524032593</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7360467910767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.055305480957</t>
+    <t xml:space="preserve">15.7360458374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0553073883057</t>
   </si>
   <si>
     <t xml:space="preserve">15.9628877639771</t>
@@ -3176,25 +3176,25 @@
     <t xml:space="preserve">15.9040775299072</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2569408416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8284645080566</t>
+    <t xml:space="preserve">16.2569427490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.828465461731</t>
   </si>
   <si>
     <t xml:space="preserve">15.77805519104</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8536682128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5344114303589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3915853500366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2907686233521</t>
+    <t xml:space="preserve">15.8536691665649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5344104766846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3915843963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2907676696777</t>
   </si>
   <si>
     <t xml:space="preserve">15.34117603302</t>
@@ -3203,13 +3203,13 @@
     <t xml:space="preserve">14.8454856872559</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9715099334717</t>
+    <t xml:space="preserve">14.9715089797974</t>
   </si>
   <si>
     <t xml:space="preserve">15.0219173431396</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2571611404419</t>
+    <t xml:space="preserve">15.2571620941162</t>
   </si>
   <si>
     <t xml:space="preserve">15.0135173797607</t>
@@ -3218,7 +3218,7 @@
     <t xml:space="preserve">14.9799108505249</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3831834793091</t>
+    <t xml:space="preserve">15.3831853866577</t>
   </si>
   <si>
     <t xml:space="preserve">15.2991676330566</t>
@@ -3227,7 +3227,7 @@
     <t xml:space="preserve">15.2319555282593</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1983509063721</t>
+    <t xml:space="preserve">15.1983499526978</t>
   </si>
   <si>
     <t xml:space="preserve">15.2235546112061</t>
@@ -3242,10 +3242,10 @@
     <t xml:space="preserve">15.618426322937</t>
   </si>
   <si>
-    <t xml:space="preserve">15.24875831604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0471220016479</t>
+    <t xml:space="preserve">15.2487592697144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0471229553223</t>
   </si>
   <si>
     <t xml:space="preserve">14.8874940872192</t>
@@ -3257,7 +3257,7 @@
     <t xml:space="preserve">14.7026605606079</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8538875579834</t>
+    <t xml:space="preserve">14.8538885116577</t>
   </si>
   <si>
     <t xml:space="preserve">14.4758195877075</t>
@@ -3266,10 +3266,10 @@
     <t xml:space="preserve">14.3834037780762</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4926233291626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4506149291992</t>
+    <t xml:space="preserve">14.4926223754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4506158828735</t>
   </si>
   <si>
     <t xml:space="preserve">14.164963722229</t>
@@ -3278,49 +3278,49 @@
     <t xml:space="preserve">14.2237739562988</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4842214584351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6186447143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0387201309204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.99671459198</t>
+    <t xml:space="preserve">14.4842205047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6186437606812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.038722038269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9967136383057</t>
   </si>
   <si>
     <t xml:space="preserve">14.8790922164917</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5178279876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.282585144043</t>
+    <t xml:space="preserve">14.5178270339966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2825841903687</t>
   </si>
   <si>
     <t xml:space="preserve">13.912917137146</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1397590637207</t>
+    <t xml:space="preserve">14.1397581100464</t>
   </si>
   <si>
     <t xml:space="preserve">14.1313571929932</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8625078201294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0389404296875</t>
+    <t xml:space="preserve">13.8625087738037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0389394760132</t>
   </si>
   <si>
     <t xml:space="preserve">13.9381217956543</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0305404663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7196817398071</t>
+    <t xml:space="preserve">14.0305395126343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7196826934814</t>
   </si>
   <si>
     <t xml:space="preserve">13.6944770812988</t>
@@ -3329,22 +3329,22 @@
     <t xml:space="preserve">13.8373031616211</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2069711685181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2993879318237</t>
+    <t xml:space="preserve">14.2069702148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.299388885498</t>
   </si>
   <si>
     <t xml:space="preserve">13.8120994567871</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6272659301758</t>
+    <t xml:space="preserve">13.6272649765015</t>
   </si>
   <si>
     <t xml:space="preserve">13.4592351913452</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2996072769165</t>
+    <t xml:space="preserve">13.2996063232422</t>
   </si>
   <si>
     <t xml:space="preserve">13.1903867721558</t>
@@ -3353,19 +3353,19 @@
     <t xml:space="preserve">13.6188640594482</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9801301956177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7364854812622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4172277450562</t>
+    <t xml:space="preserve">13.9801292419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7364864349365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4172286987305</t>
   </si>
   <si>
     <t xml:space="preserve">13.2239933013916</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5768575668335</t>
+    <t xml:space="preserve">13.5768566131592</t>
   </si>
   <si>
     <t xml:space="preserve">13.5096445083618</t>
@@ -3374,7 +3374,7 @@
     <t xml:space="preserve">13.4760398864746</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7532901763916</t>
+    <t xml:space="preserve">13.7532892227173</t>
   </si>
   <si>
     <t xml:space="preserve">13.887713432312</t>
@@ -3383,10 +3383,10 @@
     <t xml:space="preserve">14.1817655563354</t>
   </si>
   <si>
-    <t xml:space="preserve">14.005334854126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0137357711792</t>
+    <t xml:space="preserve">14.0053339004517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0137367248535</t>
   </si>
   <si>
     <t xml:space="preserve">14.0641450881958</t>
@@ -3395,40 +3395,40 @@
     <t xml:space="preserve">13.9717273712158</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3581991195679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6606531143188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5262289047241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1901683807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2321767807007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0473413467407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9213180541992</t>
+    <t xml:space="preserve">14.3581981658936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6606540679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5262298583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1901664733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2321758270264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.047342300415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9213190078735</t>
   </si>
   <si>
     <t xml:space="preserve">13.9969329833984</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8457050323486</t>
+    <t xml:space="preserve">13.8457059860229</t>
   </si>
   <si>
     <t xml:space="preserve">13.635666847229</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7112798690796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7028789520264</t>
+    <t xml:space="preserve">13.7112808227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7028799057007</t>
   </si>
   <si>
     <t xml:space="preserve">13.5516519546509</t>
@@ -3437,7 +3437,7 @@
     <t xml:space="preserve">13.3416147232056</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4844388961792</t>
+    <t xml:space="preserve">13.4844398498535</t>
   </si>
   <si>
     <t xml:space="preserve">13.1063718795776</t>
@@ -3452,10 +3452,10 @@
     <t xml:space="preserve">13.5348501205444</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4004249572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5264492034912</t>
+    <t xml:space="preserve">13.4004259109497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5264482498169</t>
   </si>
   <si>
     <t xml:space="preserve">13.7448873519897</t>
@@ -3467,13 +3467,13 @@
     <t xml:space="preserve">14.0893497467041</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2153730392456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9465236663818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8205013275146</t>
+    <t xml:space="preserve">14.2153720855713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9465246200562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.820502281189</t>
   </si>
   <si>
     <t xml:space="preserve">13.8961153030396</t>
@@ -3482,19 +3482,19 @@
     <t xml:space="preserve">13.2744026184082</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0643644332886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9131374359131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1147737503052</t>
+    <t xml:space="preserve">13.0643634796143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9131364822388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1147727966309</t>
   </si>
   <si>
     <t xml:space="preserve">12.7504749298096</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3506326675415</t>
+    <t xml:space="preserve">12.3506336212158</t>
   </si>
   <si>
     <t xml:space="preserve">12.2884359359741</t>
@@ -3530,28 +3530,28 @@
     <t xml:space="preserve">12.5727663040161</t>
   </si>
   <si>
-    <t xml:space="preserve">12.652735710144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4927997589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1551570892334</t>
+    <t xml:space="preserve">12.6527347564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4927988052368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1551561355591</t>
   </si>
   <si>
     <t xml:space="preserve">12.0129909515381</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0929574966431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2084684371948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1995820999146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2973213195801</t>
+    <t xml:space="preserve">12.0929584503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2084674835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1995830535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2973222732544</t>
   </si>
   <si>
     <t xml:space="preserve">12.2795505523682</t>
@@ -3560,7 +3560,7 @@
     <t xml:space="preserve">12.3861751556396</t>
   </si>
   <si>
-    <t xml:space="preserve">12.306206703186</t>
+    <t xml:space="preserve">12.3062076568604</t>
   </si>
   <si>
     <t xml:space="preserve">12.4394874572754</t>
@@ -3581,25 +3581,25 @@
     <t xml:space="preserve">12.1373853683472</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0840730667114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1196146011353</t>
+    <t xml:space="preserve">12.0840740203857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1196155548096</t>
   </si>
   <si>
     <t xml:space="preserve">12.0041055679321</t>
   </si>
   <si>
-    <t xml:space="preserve">11.897481918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8708238601685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.826397895813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7730855941772</t>
+    <t xml:space="preserve">11.8974809646606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8708248138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8263988494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7730865478516</t>
   </si>
   <si>
     <t xml:space="preserve">11.4443283081055</t>
@@ -3620,7 +3620,7 @@
     <t xml:space="preserve">10.6624174118042</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3247737884521</t>
+    <t xml:space="preserve">10.3247747421265</t>
   </si>
   <si>
     <t xml:space="preserve">10.1648378372192</t>
@@ -3635,19 +3635,19 @@
     <t xml:space="preserve">10.7868127822876</t>
   </si>
   <si>
-    <t xml:space="preserve">10.644645690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5380220413208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3780860900879</t>
+    <t xml:space="preserve">10.6446466445923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5380229949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3780870437622</t>
   </si>
   <si>
     <t xml:space="preserve">10.555793762207</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1470670700073</t>
+    <t xml:space="preserve">10.1470680236816</t>
   </si>
   <si>
     <t xml:space="preserve">9.91604804992676</t>
@@ -3665,7 +3665,7 @@
     <t xml:space="preserve">9.70279979705811</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89827728271484</t>
+    <t xml:space="preserve">9.89827823638916</t>
   </si>
   <si>
     <t xml:space="preserve">10.2003793716431</t>
@@ -3683,7 +3683,7 @@
     <t xml:space="preserve">9.80053901672363</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93381881713867</t>
+    <t xml:space="preserve">9.93381977081299</t>
   </si>
   <si>
     <t xml:space="preserve">9.81830978393555</t>
@@ -3698,31 +3698,31 @@
     <t xml:space="preserve">10.1737232208252</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4935970306396</t>
+    <t xml:space="preserve">10.4935960769653</t>
   </si>
   <si>
     <t xml:space="preserve">10.5735635757446</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5913343429565</t>
+    <t xml:space="preserve">10.5913352966309</t>
   </si>
   <si>
     <t xml:space="preserve">10.2625770568848</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7157306671143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1155700683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3465890884399</t>
+    <t xml:space="preserve">10.7157297134399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1155710220337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3465900421143</t>
   </si>
   <si>
     <t xml:space="preserve">11.3643598556519</t>
   </si>
   <si>
-    <t xml:space="preserve">11.328818321228</t>
+    <t xml:space="preserve">11.3288192749023</t>
   </si>
   <si>
     <t xml:space="preserve">11.3732452392578</t>
@@ -3764,10 +3764,10 @@
     <t xml:space="preserve">11.6931180953979</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5420665740967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7819719314575</t>
+    <t xml:space="preserve">11.542067527771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7819709777832</t>
   </si>
   <si>
     <t xml:space="preserve">11.817512512207</t>
@@ -3776,16 +3776,16 @@
     <t xml:space="preserve">11.6309204101562</t>
   </si>
   <si>
-    <t xml:space="preserve">11.684232711792</t>
+    <t xml:space="preserve">11.6842317581177</t>
   </si>
   <si>
     <t xml:space="preserve">11.7642002105713</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9507932662964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9152517318726</t>
+    <t xml:space="preserve">11.9507923126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9152507781982</t>
   </si>
   <si>
     <t xml:space="preserve">11.9241371154785</t>
@@ -3800,7 +3800,7 @@
     <t xml:space="preserve">11.5154113769531</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6398057937622</t>
+    <t xml:space="preserve">11.6398067474365</t>
   </si>
   <si>
     <t xml:space="preserve">11.7375450134277</t>
@@ -3812,7 +3812,7 @@
     <t xml:space="preserve">11.7464303970337</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9419078826904</t>
+    <t xml:space="preserve">11.9419069290161</t>
   </si>
   <si>
     <t xml:space="preserve">12.0574169158936</t>
@@ -3830,16 +3830,16 @@
     <t xml:space="preserve">12.7149333953857</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7415885925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6083087921143</t>
+    <t xml:space="preserve">12.7415895462036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6083078384399</t>
   </si>
   <si>
     <t xml:space="preserve">12.5549964904785</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7771301269531</t>
+    <t xml:space="preserve">12.7771310806274</t>
   </si>
   <si>
     <t xml:space="preserve">12.6971626281738</t>
@@ -3851,19 +3851,19 @@
     <t xml:space="preserve">12.794900894165</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7060480117798</t>
+    <t xml:space="preserve">12.7060470581055</t>
   </si>
   <si>
     <t xml:space="preserve">12.6260795593262</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5638818740845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4217166900635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2617807388306</t>
+    <t xml:space="preserve">12.5638828277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4217157363892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2617797851562</t>
   </si>
   <si>
     <t xml:space="preserve">12.3684043884277</t>
@@ -3878,7 +3878,7 @@
     <t xml:space="preserve">11.0533723831177</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9112062454224</t>
+    <t xml:space="preserve">10.9112071990967</t>
   </si>
   <si>
     <t xml:space="preserve">11.1511116027832</t>
@@ -3887,16 +3887,16 @@
     <t xml:space="preserve">11.0977993011475</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3821306228638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1866540908813</t>
+    <t xml:space="preserve">11.3821315765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.186653137207</t>
   </si>
   <si>
     <t xml:space="preserve">11.4976396560669</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2932777404785</t>
+    <t xml:space="preserve">11.2932767868042</t>
   </si>
   <si>
     <t xml:space="preserve">11.3110475540161</t>
@@ -3920,7 +3920,7 @@
     <t xml:space="preserve">11.5242967605591</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8352832794189</t>
+    <t xml:space="preserve">11.8352823257446</t>
   </si>
   <si>
     <t xml:space="preserve">11.6042642593384</t>
@@ -3929,16 +3929,16 @@
     <t xml:space="preserve">11.9063663482666</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0396461486816</t>
+    <t xml:space="preserve">12.039647102356</t>
   </si>
   <si>
     <t xml:space="preserve">12.172926902771</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0485324859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9952201843262</t>
+    <t xml:space="preserve">12.0485315322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9952192306519</t>
   </si>
   <si>
     <t xml:space="preserve">12.2440090179443</t>
@@ -3950,7 +3950,7 @@
     <t xml:space="preserve">12.315092086792</t>
   </si>
   <si>
-    <t xml:space="preserve">12.377290725708</t>
+    <t xml:space="preserve">12.3772897720337</t>
   </si>
   <si>
     <t xml:space="preserve">12.1785717010498</t>
@@ -4575,6 +4575,9 @@
   </si>
   <si>
     <t xml:space="preserve">15.1400003433228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0500001907349</t>
   </si>
 </sst>
 </file>
@@ -61024,7 +61027,7 @@
     </row>
     <row r="2159">
       <c r="A2159" s="1" t="n">
-        <v>45468.6496064815</v>
+        <v>45468.2916666667</v>
       </c>
       <c r="B2159" t="n">
         <v>394684</v>
@@ -61045,6 +61048,32 @@
         <v>1520</v>
       </c>
       <c r="H2159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" s="1" t="n">
+        <v>45469.6495833333</v>
+      </c>
+      <c r="B2160" t="n">
+        <v>93138</v>
+      </c>
+      <c r="C2160" t="n">
+        <v>15.2299995422363</v>
+      </c>
+      <c r="D2160" t="n">
+        <v>14.8900003433228</v>
+      </c>
+      <c r="E2160" t="n">
+        <v>15.2299995422363</v>
+      </c>
+      <c r="F2160" t="n">
+        <v>15.0500001907349</v>
+      </c>
+      <c r="G2160" t="s">
+        <v>1521</v>
+      </c>
+      <c r="H2160" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ACE.MI.xlsx
+++ b/data/ACE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="1526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="1527">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,16 +38,16 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99844551086426</t>
+    <t xml:space="preserve">8.99844741821289</t>
   </si>
   <si>
     <t xml:space="preserve">ACE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0114221572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68703746795654</t>
+    <t xml:space="preserve">9.01142311096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68703842163086</t>
   </si>
   <si>
     <t xml:space="preserve">8.82976627349854</t>
@@ -56,37 +56,37 @@
     <t xml:space="preserve">8.87518119812012</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01791000366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21254062652588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08927536010742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69352531433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73893928527832</t>
+    <t xml:space="preserve">9.01790904998779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2125415802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08927440643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69352436065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.738938331604</t>
   </si>
   <si>
     <t xml:space="preserve">8.5897216796875</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28480052947998</t>
+    <t xml:space="preserve">8.28479957580566</t>
   </si>
   <si>
     <t xml:space="preserve">8.34318828582764</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51835823059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53133106231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66108703613281</t>
+    <t xml:space="preserve">8.51835632324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53133201599121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6610860824585</t>
   </si>
   <si>
     <t xml:space="preserve">8.77786540985107</t>
@@ -95,112 +95,112 @@
     <t xml:space="preserve">8.88815593719482</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90113162994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78435134887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75840187072754</t>
+    <t xml:space="preserve">8.90113067626953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78435325622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75840282440186</t>
   </si>
   <si>
     <t xml:space="preserve">8.7194766998291</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36265182495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94743824005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80470991134644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65549182891846</t>
+    <t xml:space="preserve">8.36264991760254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94743776321411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80470848083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6554913520813</t>
   </si>
   <si>
     <t xml:space="preserve">7.81119632720947</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02529144287109</t>
+    <t xml:space="preserve">8.02529048919678</t>
   </si>
   <si>
     <t xml:space="preserve">7.98636484146118</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01231479644775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00582885742188</t>
+    <t xml:space="preserve">8.01231670379639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00582790374756</t>
   </si>
   <si>
     <t xml:space="preserve">7.7917332649231</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95392608642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03826713562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90202474594116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.044753074646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96041536331177</t>
+    <t xml:space="preserve">7.95392656326294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0382661819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90202617645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04475402832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96041440963745</t>
   </si>
   <si>
     <t xml:space="preserve">8.09665489196777</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99934005737305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92797565460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88256216049194</t>
+    <t xml:space="preserve">7.99933910369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92797613143921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88256025314331</t>
   </si>
   <si>
     <t xml:space="preserve">8.38860416412354</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77137851715088</t>
+    <t xml:space="preserve">8.77137756347656</t>
   </si>
   <si>
     <t xml:space="preserve">9.08278751373291</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18010139465332</t>
+    <t xml:space="preserve">9.18010234832764</t>
   </si>
   <si>
     <t xml:space="preserve">9.17361545562744</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24497890472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19307804107666</t>
+    <t xml:space="preserve">9.24497985839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19307899475098</t>
   </si>
   <si>
     <t xml:space="preserve">8.86220455169678</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81030178070068</t>
+    <t xml:space="preserve">8.81030368804932</t>
   </si>
   <si>
     <t xml:space="preserve">8.72596263885498</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8492317199707</t>
+    <t xml:space="preserve">8.84923076629639</t>
   </si>
   <si>
     <t xml:space="preserve">8.89464378356934</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98547077178955</t>
+    <t xml:space="preserve">8.98547172546387</t>
   </si>
   <si>
     <t xml:space="preserve">8.82327938079834</t>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">8.73245143890381</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86869335174561</t>
+    <t xml:space="preserve">8.86869239807129</t>
   </si>
   <si>
     <t xml:space="preserve">8.62864780426025</t>
@@ -224,55 +224,55 @@
     <t xml:space="preserve">8.2393856048584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09016895294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15504455566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21992301940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26533603668213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33021354675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42104053497314</t>
+    <t xml:space="preserve">8.09016799926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15504550933838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2199239730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26533508300781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33021259307861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42104148864746</t>
   </si>
   <si>
     <t xml:space="preserve">8.36913871765137</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33670043945312</t>
+    <t xml:space="preserve">8.33670234680176</t>
   </si>
   <si>
     <t xml:space="preserve">8.23289775848389</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14206886291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46645641326904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49240684509277</t>
+    <t xml:space="preserve">8.14207077026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46645450592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49240589141846</t>
   </si>
   <si>
     <t xml:space="preserve">8.55728244781494</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3950891494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25236034393311</t>
+    <t xml:space="preserve">8.39509010314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25236225128174</t>
   </si>
   <si>
     <t xml:space="preserve">8.19397163391113</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41455364227295</t>
+    <t xml:space="preserve">8.41455459594727</t>
   </si>
   <si>
     <t xml:space="preserve">8.38211441040039</t>
@@ -281,136 +281,136 @@
     <t xml:space="preserve">8.47294330596924</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57674694061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61567115783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56377029418945</t>
+    <t xml:space="preserve">8.57674598693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61567306518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56377220153809</t>
   </si>
   <si>
     <t xml:space="preserve">8.43401718139648</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1226053237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87607479095459</t>
+    <t xml:space="preserve">8.12260627746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87607574462891</t>
   </si>
   <si>
     <t xml:space="preserve">7.91499948501587</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76578283309937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52573871612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17540216445923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29218053817749</t>
+    <t xml:space="preserve">7.76578235626221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52573776245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17540168762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29218006134033</t>
   </si>
   <si>
     <t xml:space="preserve">7.29866790771484</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45437335968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42045879364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37976264953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47472333908081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38654518127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99313879013062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6743426322937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79643583297729</t>
+    <t xml:space="preserve">7.45437240600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42045831680298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37976121902466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47472190856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38654470443726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99313735961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67434406280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79643630981445</t>
   </si>
   <si>
     <t xml:space="preserve">6.9185266494751</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41367673873901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32549905776978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36619567871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2576699256897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10166454315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0677490234375</t>
+    <t xml:space="preserve">7.4136757850647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32549858093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36619710922241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25766944885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10166358947754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06775045394897</t>
   </si>
   <si>
     <t xml:space="preserve">7.14236068725586</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18305921554565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05418395996094</t>
+    <t xml:space="preserve">7.1830587387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05418348312378</t>
   </si>
   <si>
     <t xml:space="preserve">7.2373218536377</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25088691711426</t>
+    <t xml:space="preserve">7.25088596343994</t>
   </si>
   <si>
     <t xml:space="preserve">7.21697330474854</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48828744888306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4815034866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9359564781189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90882444381714</t>
+    <t xml:space="preserve">7.48828887939453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48150444030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93595695495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9088249206543</t>
   </si>
   <si>
     <t xml:space="preserve">8.44467163085938</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41753959655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38362598419189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54641437530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55998039245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45145606994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4311056137085</t>
+    <t xml:space="preserve">8.41754055023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38362693786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54641532897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55998229980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45145511627197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43110656738281</t>
   </si>
   <si>
     <t xml:space="preserve">8.47858619689941</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">8.32258033752441</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19370746612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24118518829346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2750997543335</t>
+    <t xml:space="preserve">8.19370555877686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24118423461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27509880065918</t>
   </si>
   <si>
     <t xml:space="preserve">8.12587738037109</t>
@@ -434,25 +434,25 @@
     <t xml:space="preserve">8.1190938949585</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10552978515625</t>
+    <t xml:space="preserve">8.10552787780762</t>
   </si>
   <si>
     <t xml:space="preserve">8.13265991210938</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07839775085449</t>
+    <t xml:space="preserve">8.07839584350586</t>
   </si>
   <si>
     <t xml:space="preserve">7.92917346954346</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01056861877441</t>
+    <t xml:space="preserve">8.01056957244873</t>
   </si>
   <si>
     <t xml:space="preserve">8.0648307800293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18014144897461</t>
+    <t xml:space="preserve">8.18014240264893</t>
   </si>
   <si>
     <t xml:space="preserve">8.15300846099854</t>
@@ -461,7 +461,7 @@
     <t xml:space="preserve">8.05126571655273</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08518028259277</t>
+    <t xml:space="preserve">8.08517932891846</t>
   </si>
   <si>
     <t xml:space="preserve">8.05804824829102</t>
@@ -470,37 +470,37 @@
     <t xml:space="preserve">7.85456275939941</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71890449523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73925352096558</t>
+    <t xml:space="preserve">7.7189040184021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73925304412842</t>
   </si>
   <si>
     <t xml:space="preserve">7.82064819335938</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66464185714722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5900297164917</t>
+    <t xml:space="preserve">7.66464328765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59002923965454</t>
   </si>
   <si>
     <t xml:space="preserve">7.56289911270142</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51541900634766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5357666015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55611705780029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52220153808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50185394287109</t>
+    <t xml:space="preserve">7.5154185295105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53576707839966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55611562728882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5222020149231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50185298919678</t>
   </si>
   <si>
     <t xml:space="preserve">7.49507141113281</t>
@@ -509,10 +509,10 @@
     <t xml:space="preserve">7.52898550033569</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50863599777222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40010976791382</t>
+    <t xml:space="preserve">7.50863552093506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40011167526245</t>
   </si>
   <si>
     <t xml:space="preserve">7.29158401489258</t>
@@ -521,28 +521,28 @@
     <t xml:space="preserve">7.37297868728638</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31193256378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56968116760254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69177293777466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75960111618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90204334259033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87491178512573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99700355529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94952201843262</t>
+    <t xml:space="preserve">7.31193447113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56968069076538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69177389144897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75960159301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90204238891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87491083145142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99700260162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94952154159546</t>
   </si>
   <si>
     <t xml:space="preserve">7.96987199783325</t>
@@ -551,28 +551,28 @@
     <t xml:space="preserve">8.00378608703613</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84099626541138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73247146606445</t>
+    <t xml:space="preserve">7.84099769592285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73246955871582</t>
   </si>
   <si>
     <t xml:space="preserve">7.80708265304565</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71212339401245</t>
+    <t xml:space="preserve">7.71212244033813</t>
   </si>
   <si>
     <t xml:space="preserve">7.64429330825806</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16270923614502</t>
+    <t xml:space="preserve">7.16270971298218</t>
   </si>
   <si>
     <t xml:space="preserve">6.87782907485962</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89817762374878</t>
+    <t xml:space="preserve">6.89817810058594</t>
   </si>
   <si>
     <t xml:space="preserve">6.85069847106934</t>
@@ -581,37 +581,37 @@
     <t xml:space="preserve">6.78286933898926</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73538970947266</t>
+    <t xml:space="preserve">6.73538827896118</t>
   </si>
   <si>
     <t xml:space="preserve">6.77947759628296</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83034896850586</t>
+    <t xml:space="preserve">6.83034944534302</t>
   </si>
   <si>
     <t xml:space="preserve">6.95922374725342</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83713245391846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90496158599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82356691360474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72860622406006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18984127044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43402528762817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59681463241577</t>
+    <t xml:space="preserve">6.8371319770813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90496063232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82356595993042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7286057472229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18984174728394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43402576446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5968132019043</t>
   </si>
   <si>
     <t xml:space="preserve">7.83421421051025</t>
@@ -620,22 +620,22 @@
     <t xml:space="preserve">7.7799506187439</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77316808700562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72568941116333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86812782287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86134576797485</t>
+    <t xml:space="preserve">7.7731671333313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72568798065186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86812829971313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86134481430054</t>
   </si>
   <si>
     <t xml:space="preserve">8.02413463592529</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03769874572754</t>
+    <t xml:space="preserve">8.03770065307617</t>
   </si>
   <si>
     <t xml:space="preserve">8.07161426544189</t>
@@ -650,13 +650,13 @@
     <t xml:space="preserve">8.20727157592773</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68499088287354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74603700637817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81386566162109</t>
+    <t xml:space="preserve">7.68499040603638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74603652954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81386661529541</t>
   </si>
   <si>
     <t xml:space="preserve">7.75282001495361</t>
@@ -665,25 +665,25 @@
     <t xml:space="preserve">8.09874534606934</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04448318481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97665357589722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9902195930481</t>
+    <t xml:space="preserve">8.04448223114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97665452957153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99022006988525</t>
   </si>
   <si>
     <t xml:space="preserve">8.09196376800537</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13944339752197</t>
+    <t xml:space="preserve">8.13944244384766</t>
   </si>
   <si>
     <t xml:space="preserve">8.20048904418945</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11231231689453</t>
+    <t xml:space="preserve">8.11231136322021</t>
   </si>
   <si>
     <t xml:space="preserve">7.98343753814697</t>
@@ -692,16 +692,16 @@
     <t xml:space="preserve">8.34292984008789</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22083854675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29544830322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41075611114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47180461883545</t>
+    <t xml:space="preserve">8.22083759307861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29544925689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41075706481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47180366516113</t>
   </si>
   <si>
     <t xml:space="preserve">8.51250076293945</t>
@@ -716,34 +716,34 @@
     <t xml:space="preserve">8.62781047821045</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61424255371094</t>
+    <t xml:space="preserve">8.61424350738525</t>
   </si>
   <si>
     <t xml:space="preserve">8.60746097564697</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65494155883789</t>
+    <t xml:space="preserve">8.65494060516357</t>
   </si>
   <si>
     <t xml:space="preserve">8.85842704772949</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85164451599121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82451152801514</t>
+    <t xml:space="preserve">8.85164356231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82451248168945</t>
   </si>
   <si>
     <t xml:space="preserve">8.81772994995117</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74311923980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95338726043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91947269439697</t>
+    <t xml:space="preserve">8.7431173324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95338821411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91947364807129</t>
   </si>
   <si>
     <t xml:space="preserve">8.78381538391113</t>
@@ -755,10 +755,10 @@
     <t xml:space="preserve">9.00765037536621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01443290710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02121639251709</t>
+    <t xml:space="preserve">9.01443195343018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02121543884277</t>
   </si>
   <si>
     <t xml:space="preserve">8.96016979217529</t>
@@ -767,40 +767,40 @@
     <t xml:space="preserve">9.21791934967041</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08226108551025</t>
+    <t xml:space="preserve">9.0822639465332</t>
   </si>
   <si>
     <t xml:space="preserve">9.22470283508301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25183296203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34001159667969</t>
+    <t xml:space="preserve">9.25183486938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34001064300537</t>
   </si>
   <si>
     <t xml:space="preserve">9.55027961730957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60454273223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42140579223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36714267730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41462326049805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61132526397705</t>
+    <t xml:space="preserve">9.60454368591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42140674591064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36714363098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41462230682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61132621765137</t>
   </si>
   <si>
     <t xml:space="preserve">9.43497085571289</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44853687286377</t>
+    <t xml:space="preserve">9.44853591918945</t>
   </si>
   <si>
     <t xml:space="preserve">9.63167381286621</t>
@@ -809,25 +809,25 @@
     <t xml:space="preserve">9.71306800842285</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74020004272461</t>
+    <t xml:space="preserve">9.74019908905029</t>
   </si>
   <si>
     <t xml:space="preserve">9.78089809417725</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87585735321045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76054859161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86907386779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82159519195557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85550785064697</t>
+    <t xml:space="preserve">9.87585830688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76054954528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86907482147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82159423828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85550880432129</t>
   </si>
   <si>
     <t xml:space="preserve">9.76733207702637</t>
@@ -842,19 +842,19 @@
     <t xml:space="preserve">9.88263988494873</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99116516113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84872627258301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79446315765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9574670791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85116004943848</t>
+    <t xml:space="preserve">9.99116611480713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84872722625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79446220397949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95746803283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85115909576416</t>
   </si>
   <si>
     <t xml:space="preserve">10.0425138473511</t>
@@ -863,7 +863,7 @@
     <t xml:space="preserve">9.94329261779785</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88659572601318</t>
+    <t xml:space="preserve">9.8865966796875</t>
   </si>
   <si>
     <t xml:space="preserve">9.92203235626221</t>
@@ -872,25 +872,25 @@
     <t xml:space="preserve">9.63854598999023</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51806449890137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57476043701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4046688079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24166393280029</t>
+    <t xml:space="preserve">9.51806354522705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57476139068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40466785430908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24166297912598</t>
   </si>
   <si>
     <t xml:space="preserve">9.25583839416504</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35505867004395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22040271759033</t>
+    <t xml:space="preserve">9.35505962371826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22040176391602</t>
   </si>
   <si>
     <t xml:space="preserve">9.34797096252441</t>
@@ -905,37 +905,37 @@
     <t xml:space="preserve">9.46845245361328</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50388813018799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52515125274658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63145923614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53223896026611</t>
+    <t xml:space="preserve">9.5038890838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52515029907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6314582824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53223705291748</t>
   </si>
   <si>
     <t xml:space="preserve">9.54641246795654</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42593097686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49680233001709</t>
+    <t xml:space="preserve">9.42593002319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49680137634277</t>
   </si>
   <si>
     <t xml:space="preserve">9.29127407073975</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3408842086792</t>
+    <t xml:space="preserve">9.34088516235352</t>
   </si>
   <si>
     <t xml:space="preserve">9.31962299346924</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92274188995361</t>
+    <t xml:space="preserve">8.92274284362793</t>
   </si>
   <si>
     <t xml:space="preserve">8.9865255355835</t>
@@ -944,22 +944,22 @@
     <t xml:space="preserve">8.94400405883789</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95817852020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09283447265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93691635131836</t>
+    <t xml:space="preserve">8.95817756652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09283351898193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93691539764404</t>
   </si>
   <si>
     <t xml:space="preserve">8.83769512176514</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72430229187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86604309082031</t>
+    <t xml:space="preserve">8.7243013381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86604404449463</t>
   </si>
   <si>
     <t xml:space="preserve">8.87313079833984</t>
@@ -974,25 +974,25 @@
     <t xml:space="preserve">8.77391147613525</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78099918365479</t>
+    <t xml:space="preserve">8.78099727630615</t>
   </si>
   <si>
     <t xml:space="preserve">8.71721458435059</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6676025390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65342998504639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63216686248779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57547092437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54712295532227</t>
+    <t xml:space="preserve">8.66760349273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65342807769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63216876983643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57546997070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54712390899658</t>
   </si>
   <si>
     <t xml:space="preserve">8.5967321395874</t>
@@ -1007,7 +1007,7 @@
     <t xml:space="preserve">8.78808498382568</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22749042510986</t>
+    <t xml:space="preserve">9.22748947143555</t>
   </si>
   <si>
     <t xml:space="preserve">9.39049434661865</t>
@@ -1016,19 +1016,19 @@
     <t xml:space="preserve">9.17079162597656</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0786600112915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08574771881104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09992027282715</t>
+    <t xml:space="preserve">9.07865905761719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08574676513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09992122650146</t>
   </si>
   <si>
     <t xml:space="preserve">9.2133150100708</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27001190185547</t>
+    <t xml:space="preserve">9.27001285552979</t>
   </si>
   <si>
     <t xml:space="preserve">9.1495304107666</t>
@@ -1046,13 +1046,13 @@
     <t xml:space="preserve">9.38340663909912</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32671070098877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30544757843018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61019515991211</t>
+    <t xml:space="preserve">9.32670974731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30544853210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61019706726074</t>
   </si>
   <si>
     <t xml:space="preserve">9.62437057495117</t>
@@ -1064,10 +1064,10 @@
     <t xml:space="preserve">9.67398071289062</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80154991149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84407329559326</t>
+    <t xml:space="preserve">9.80154895782471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84407424926758</t>
   </si>
   <si>
     <t xml:space="preserve">9.98581504821777</t>
@@ -1076,34 +1076,34 @@
     <t xml:space="preserve">9.90785694122314</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8228120803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96455574035645</t>
+    <t xml:space="preserve">9.82281303405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96455383300781</t>
   </si>
   <si>
     <t xml:space="preserve">9.93620681762695</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2976522445679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3259983062744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3472604751587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2905645370483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2196922302246</t>
+    <t xml:space="preserve">10.2976512908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.326000213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3472623825073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2905654907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2196931838989</t>
   </si>
   <si>
     <t xml:space="preserve">10.198431968689</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1559085845947</t>
+    <t xml:space="preserve">10.1559076309204</t>
   </si>
   <si>
     <t xml:space="preserve">10.0283393859863</t>
@@ -1112,55 +1112,55 @@
     <t xml:space="preserve">10.1700820922852</t>
   </si>
   <si>
-    <t xml:space="preserve">10.12047290802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4323091506958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4110469818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3756113052368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4819164276123</t>
+    <t xml:space="preserve">10.1204719543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4323072433472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4110460281372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3756103515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4819173812866</t>
   </si>
   <si>
     <t xml:space="preserve">10.4252214431763</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3826971054077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3614358901978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7370557785034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9773092269897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1048803329468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0198316574097</t>
+    <t xml:space="preserve">10.3826990127563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3614349365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7370548248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9773101806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1048784255981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0198307037354</t>
   </si>
   <si>
     <t xml:space="preserve">12.0481815338135</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9843978881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9702224731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0340061187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8780899047852</t>
+    <t xml:space="preserve">11.984395980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9702234268188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0340070724487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8780908584595</t>
   </si>
   <si>
     <t xml:space="preserve">11.5875158309937</t>
@@ -1169,34 +1169,34 @@
     <t xml:space="preserve">11.49538230896</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3819885253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6867370605469</t>
+    <t xml:space="preserve">11.3819875717163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6867361068726</t>
   </si>
   <si>
     <t xml:space="preserve">11.3182039260864</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0772399902344</t>
+    <t xml:space="preserve">11.0772390365601</t>
   </si>
   <si>
     <t xml:space="preserve">10.9354972839355</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0559787750244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0347166061401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.914234161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9567575454712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1268501281738</t>
+    <t xml:space="preserve">11.0559778213501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0347175598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9142351150513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9567584991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1268510818481</t>
   </si>
   <si>
     <t xml:space="preserve">11.3252906799316</t>
@@ -1205,7 +1205,7 @@
     <t xml:space="preserve">11.4245109558105</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5024709701538</t>
+    <t xml:space="preserve">11.5024700164795</t>
   </si>
   <si>
     <t xml:space="preserve">11.3040294647217</t>
@@ -1217,16 +1217,16 @@
     <t xml:space="preserve">11.1197624206543</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1693725585938</t>
+    <t xml:space="preserve">11.1693735122681</t>
   </si>
   <si>
     <t xml:space="preserve">11.3394651412964</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4457721710205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.509557723999</t>
+    <t xml:space="preserve">11.4457731246948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5095567703247</t>
   </si>
   <si>
     <t xml:space="preserve">11.5591659545898</t>
@@ -1235,10 +1235,10 @@
     <t xml:space="preserve">11.6442127227783</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4386835098267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3465538024902</t>
+    <t xml:space="preserve">11.438684463501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3465528488159</t>
   </si>
   <si>
     <t xml:space="preserve">11.2756805419922</t>
@@ -1247,16 +1247,16 @@
     <t xml:space="preserve">11.2331571578979</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0843267440796</t>
+    <t xml:space="preserve">11.0843276977539</t>
   </si>
   <si>
     <t xml:space="preserve">11.0276298522949</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0063695907593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8433637619019</t>
+    <t xml:space="preserve">11.0063676834106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8433628082275</t>
   </si>
   <si>
     <t xml:space="preserve">10.5669641494751</t>
@@ -1265,22 +1265,22 @@
     <t xml:space="preserve">10.3330869674683</t>
   </si>
   <si>
-    <t xml:space="preserve">10.666184425354</t>
+    <t xml:space="preserve">10.6661834716797</t>
   </si>
   <si>
     <t xml:space="preserve">10.3897848129272</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5031795501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5244407653809</t>
+    <t xml:space="preserve">10.5031785964966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5244398117065</t>
   </si>
   <si>
     <t xml:space="preserve">10.5953130722046</t>
   </si>
   <si>
-    <t xml:space="preserve">10.552788734436</t>
+    <t xml:space="preserve">10.5527896881104</t>
   </si>
   <si>
     <t xml:space="preserve">10.4393949508667</t>
@@ -1289,25 +1289,25 @@
     <t xml:space="preserve">10.1488208770752</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95037937164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87950706481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0921230316162</t>
+    <t xml:space="preserve">9.95038032531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87950992584229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0921239852905</t>
   </si>
   <si>
     <t xml:space="preserve">10.1133852005005</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1275606155396</t>
+    <t xml:space="preserve">10.1275596618652</t>
   </si>
   <si>
     <t xml:space="preserve">9.90077018737793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99999141693115</t>
+    <t xml:space="preserve">9.99999046325684</t>
   </si>
   <si>
     <t xml:space="preserve">9.78028774261475</t>
@@ -1316,19 +1316,19 @@
     <t xml:space="preserve">9.64563179016113</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56058597564697</t>
+    <t xml:space="preserve">9.56058502197266</t>
   </si>
   <si>
     <t xml:space="preserve">9.65980815887451</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48971462249756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60310840606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76611423492432</t>
+    <t xml:space="preserve">9.48971652984619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60310935974121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76611328125</t>
   </si>
   <si>
     <t xml:space="preserve">9.70941638946533</t>
@@ -1343,22 +1343,22 @@
     <t xml:space="preserve">9.73067855834961</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86533451080322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97872829437256</t>
+    <t xml:space="preserve">9.86533546447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97872924804688</t>
   </si>
   <si>
     <t xml:space="preserve">10.0708627700806</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2551288604736</t>
+    <t xml:space="preserve">10.2551298141479</t>
   </si>
   <si>
     <t xml:space="preserve">10.2622156143188</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2267808914185</t>
+    <t xml:space="preserve">10.2267799377441</t>
   </si>
   <si>
     <t xml:space="preserve">10.4181337356567</t>
@@ -1370,40 +1370,40 @@
     <t xml:space="preserve">10.2126054763794</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91494464874268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1629953384399</t>
+    <t xml:space="preserve">9.91494560241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1629943847656</t>
   </si>
   <si>
     <t xml:space="preserve">9.73776531219482</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43301773071289</t>
+    <t xml:space="preserve">9.43301677703857</t>
   </si>
   <si>
     <t xml:space="preserve">9.20622730255127</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45427989959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82989883422852</t>
+    <t xml:space="preserve">9.45427894592285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82989978790283</t>
   </si>
   <si>
     <t xml:space="preserve">9.69353866577148</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72325038909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67125415802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53754997253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57469081878662</t>
+    <t xml:space="preserve">9.72325134277344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67125511169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5375509262085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5746898651123</t>
   </si>
   <si>
     <t xml:space="preserve">9.47812652587891</t>
@@ -1412,22 +1412,22 @@
     <t xml:space="preserve">9.49298191070557</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45584201812744</t>
+    <t xml:space="preserve">9.45584106445312</t>
   </si>
   <si>
     <t xml:space="preserve">9.41127395629883</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46327114105225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44098663330078</t>
+    <t xml:space="preserve">9.46327018737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44098567962646</t>
   </si>
   <si>
     <t xml:space="preserve">9.61925792694092</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70839500427246</t>
+    <t xml:space="preserve">9.70839405059814</t>
   </si>
   <si>
     <t xml:space="preserve">9.8346700668335</t>
@@ -1436,7 +1436,7 @@
     <t xml:space="preserve">9.64154243469238</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53012275695801</t>
+    <t xml:space="preserve">9.53012371063232</t>
   </si>
   <si>
     <t xml:space="preserve">9.55240535736084</t>
@@ -1448,13 +1448,13 @@
     <t xml:space="preserve">9.70096588134766</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54497814178467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60440254211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81981563568115</t>
+    <t xml:space="preserve">9.54497909545898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60440158843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81981468200684</t>
   </si>
   <si>
     <t xml:space="preserve">9.87923812866211</t>
@@ -1466,46 +1466,46 @@
     <t xml:space="preserve">10.0500822067261</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1540746688843</t>
+    <t xml:space="preserve">10.15407371521</t>
   </si>
   <si>
     <t xml:space="preserve">10.0055141448975</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0649394989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1020784378052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1317911148071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0203704833984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1095056533813</t>
+    <t xml:space="preserve">10.0649375915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1020774841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1317901611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0203695297241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.109504699707</t>
   </si>
   <si>
     <t xml:space="preserve">9.97580242156982</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89409351348877</t>
+    <t xml:space="preserve">9.89409446716309</t>
   </si>
   <si>
     <t xml:space="preserve">9.94608974456787</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7381067276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78267478942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71582126617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67868041992188</t>
+    <t xml:space="preserve">9.73810577392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78267383575439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71582221984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67868232727051</t>
   </si>
   <si>
     <t xml:space="preserve">9.51526641845703</t>
@@ -1514,13 +1514,13 @@
     <t xml:space="preserve">9.23300266265869</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12158298492432</t>
+    <t xml:space="preserve">9.12158203125</t>
   </si>
   <si>
     <t xml:space="preserve">9.08444213867188</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19586277008057</t>
+    <t xml:space="preserve">9.19586181640625</t>
   </si>
   <si>
     <t xml:space="preserve">9.39641857147217</t>
@@ -1529,34 +1529,37 @@
     <t xml:space="preserve">9.43355751037598</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5672607421875</t>
+    <t xml:space="preserve">9.56726264953613</t>
   </si>
   <si>
     <t xml:space="preserve">9.66382598876953</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82724094390869</t>
+    <t xml:space="preserve">9.73067951202393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82724189758301</t>
   </si>
   <si>
     <t xml:space="preserve">9.86438179016113</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81238460540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58954524993896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4706974029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59697437286377</t>
+    <t xml:space="preserve">9.81238651275635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58954620361328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47069835662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59697532653809</t>
   </si>
   <si>
     <t xml:space="preserve">9.15129375457764</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09929847717285</t>
+    <t xml:space="preserve">9.09929752349854</t>
   </si>
   <si>
     <t xml:space="preserve">8.90616989135742</t>
@@ -1568,7 +1571,7 @@
     <t xml:space="preserve">8.78732299804688</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99530601501465</t>
+    <t xml:space="preserve">8.99530696868896</t>
   </si>
   <si>
     <t xml:space="preserve">8.89131450653076</t>
@@ -1577,19 +1580,19 @@
     <t xml:space="preserve">8.65361785888672</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64619064331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60905075073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41592121124268</t>
+    <t xml:space="preserve">8.64618968963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60904979705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41592216491699</t>
   </si>
   <si>
     <t xml:space="preserve">8.43820571899414</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44563484191895</t>
+    <t xml:space="preserve">8.44563388824463</t>
   </si>
   <si>
     <t xml:space="preserve">8.3045015335083</t>
@@ -1598,40 +1601,40 @@
     <t xml:space="preserve">8.52734184265137</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54219913482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62390613555908</t>
+    <t xml:space="preserve">8.54219722747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62390518188477</t>
   </si>
   <si>
     <t xml:space="preserve">8.6684741973877</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7724666595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75018215179443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89874267578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8170337677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58211708068848</t>
+    <t xml:space="preserve">8.77246761322021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75018310546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89874172210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81703472137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58211898803711</t>
   </si>
   <si>
     <t xml:space="preserve">9.50783824920654</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48555469512939</t>
+    <t xml:space="preserve">9.48555374145508</t>
   </si>
   <si>
     <t xml:space="preserve">9.21814727783203</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22557353973389</t>
+    <t xml:space="preserve">9.2255744934082</t>
   </si>
   <si>
     <t xml:space="preserve">9.06215763092041</t>
@@ -1646,10 +1649,10 @@
     <t xml:space="preserve">8.83931827545166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92102718353271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91359710693359</t>
+    <t xml:space="preserve">8.9210262298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91359901428223</t>
   </si>
   <si>
     <t xml:space="preserve">8.79475021362305</t>
@@ -1658,25 +1661,25 @@
     <t xml:space="preserve">8.75761032104492</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83189010620117</t>
+    <t xml:space="preserve">8.83189105987549</t>
   </si>
   <si>
     <t xml:space="preserve">8.59419441223145</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21071815490723</t>
+    <t xml:space="preserve">9.21071720123291</t>
   </si>
   <si>
     <t xml:space="preserve">9.01016330718994</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72789859771729</t>
+    <t xml:space="preserve">8.72789764404297</t>
   </si>
   <si>
     <t xml:space="preserve">8.57933807373047</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76503944396973</t>
+    <t xml:space="preserve">8.76503849029541</t>
   </si>
   <si>
     <t xml:space="preserve">8.85417461395264</t>
@@ -1685,7 +1688,7 @@
     <t xml:space="preserve">9.02501773834229</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77989387512207</t>
+    <t xml:space="preserve">8.77989482879639</t>
   </si>
   <si>
     <t xml:space="preserve">8.92845439910889</t>
@@ -1694,7 +1697,7 @@
     <t xml:space="preserve">9.09187030792236</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24785804748535</t>
+    <t xml:space="preserve">9.24785709381104</t>
   </si>
   <si>
     <t xml:space="preserve">9.2701416015625</t>
@@ -1703,19 +1706,19 @@
     <t xml:space="preserve">9.3221378326416</t>
   </si>
   <si>
-    <t xml:space="preserve">9.686110496521</t>
+    <t xml:space="preserve">9.68610954284668</t>
   </si>
   <si>
     <t xml:space="preserve">9.95351886749268</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0277986526489</t>
+    <t xml:space="preserve">10.0277967453003</t>
   </si>
   <si>
     <t xml:space="preserve">9.91637802124023</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79010200500488</t>
+    <t xml:space="preserve">9.7901029586792</t>
   </si>
   <si>
     <t xml:space="preserve">9.99065780639648</t>
@@ -1724,25 +1727,25 @@
     <t xml:space="preserve">10.1169347763062</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0575084686279</t>
+    <t xml:space="preserve">10.0575103759766</t>
   </si>
   <si>
     <t xml:space="preserve">10.0797939300537</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96094512939453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.139217376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3694858551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3174896240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3397741317749</t>
+    <t xml:space="preserve">9.96094608306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1392164230347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3694868087769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3174905776978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3397750854492</t>
   </si>
   <si>
     <t xml:space="preserve">10.2134981155396</t>
@@ -1754,10 +1757,10 @@
     <t xml:space="preserve">10.3100624084473</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4883337020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7186031341553</t>
+    <t xml:space="preserve">10.4883346557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.718602180481</t>
   </si>
   <si>
     <t xml:space="preserve">10.8077373504639</t>
@@ -1772,25 +1775,25 @@
     <t xml:space="preserve">11.1345691680908</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1791381835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0974292755127</t>
+    <t xml:space="preserve">11.1791372299194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.097430229187</t>
   </si>
   <si>
     <t xml:space="preserve">11.2088499069214</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1865663528442</t>
+    <t xml:space="preserve">11.1865673065186</t>
   </si>
   <si>
     <t xml:space="preserve">11.2757015228271</t>
   </si>
   <si>
-    <t xml:space="preserve">11.223705291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2905588150024</t>
+    <t xml:space="preserve">11.2237062454224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2905578613281</t>
   </si>
   <si>
     <t xml:space="preserve">11.25341796875</t>
@@ -1802,10 +1805,10 @@
     <t xml:space="preserve">11.2162780761719</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1939935684204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.424262046814</t>
+    <t xml:space="preserve">11.1939945220947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4242610931396</t>
   </si>
   <si>
     <t xml:space="preserve">11.8847980499268</t>
@@ -1820,22 +1823,22 @@
     <t xml:space="preserve">11.8402299880981</t>
   </si>
   <si>
-    <t xml:space="preserve">11.973934173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.959077835083</t>
+    <t xml:space="preserve">11.9739351272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9590787887573</t>
   </si>
   <si>
     <t xml:space="preserve">11.8253736495972</t>
   </si>
   <si>
-    <t xml:space="preserve">11.676815032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4985418319702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5133991241455</t>
+    <t xml:space="preserve">11.6768140792847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4985408782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5133981704712</t>
   </si>
   <si>
     <t xml:space="preserve">11.7065258026123</t>
@@ -1856,16 +1859,16 @@
     <t xml:space="preserve">12.1522064208984</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0779256820679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4047584533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4938945770264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6721658706665</t>
+    <t xml:space="preserve">12.0779247283936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4047574996948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4938936233521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6721649169922</t>
   </si>
   <si>
     <t xml:space="preserve">12.5384616851807</t>
@@ -1874,7 +1877,7 @@
     <t xml:space="preserve">12.4196128845215</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3750448226929</t>
+    <t xml:space="preserve">12.3750457763672</t>
   </si>
   <si>
     <t xml:space="preserve">12.2859106063843</t>
@@ -1889,13 +1892,13 @@
     <t xml:space="preserve">12.4493255615234</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4641828536987</t>
+    <t xml:space="preserve">12.4641809463501</t>
   </si>
   <si>
     <t xml:space="preserve">12.3899021148682</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4344692230225</t>
+    <t xml:space="preserve">12.4344682693481</t>
   </si>
   <si>
     <t xml:space="preserve">12.3601903915405</t>
@@ -1904,97 +1907,97 @@
     <t xml:space="preserve">12.6275978088379</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7613019943237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8504362106323</t>
+    <t xml:space="preserve">12.7613010406494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8504371643066</t>
   </si>
   <si>
     <t xml:space="preserve">12.8801507949829</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9247159957886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0138549804688</t>
+    <t xml:space="preserve">12.9247169494629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0138540267944</t>
   </si>
   <si>
     <t xml:space="preserve">13.0881328582764</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1029901504517</t>
+    <t xml:space="preserve">13.102988243103</t>
   </si>
   <si>
     <t xml:space="preserve">13.117844581604</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1772708892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2515497207642</t>
+    <t xml:space="preserve">13.1772699356079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2515487670898</t>
   </si>
   <si>
     <t xml:space="preserve">13.2218360900879</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2961158752441</t>
+    <t xml:space="preserve">13.2961177825928</t>
   </si>
   <si>
     <t xml:space="preserve">13.4121398925781</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2574424743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2265033721924</t>
+    <t xml:space="preserve">13.2574434280396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2265062332153</t>
   </si>
   <si>
     <t xml:space="preserve">12.9635210037231</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9480514526367</t>
+    <t xml:space="preserve">12.9480504989624</t>
   </si>
   <si>
     <t xml:space="preserve">12.886173248291</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0253992080688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3966684341431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3193216323853</t>
+    <t xml:space="preserve">13.0254001617432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3966693878174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3193225860596</t>
   </si>
   <si>
     <t xml:space="preserve">13.1182165145874</t>
   </si>
   <si>
-    <t xml:space="preserve">13.164626121521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.334792137146</t>
+    <t xml:space="preserve">13.1646270751953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3347911834717</t>
   </si>
   <si>
     <t xml:space="preserve">13.2729120254517</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4740190505981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3811988830566</t>
+    <t xml:space="preserve">13.4740171432495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.381199836731</t>
   </si>
   <si>
     <t xml:space="preserve">13.3657312393188</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4276094436646</t>
+    <t xml:space="preserve">13.4276103973389</t>
   </si>
   <si>
     <t xml:space="preserve">13.5358963012695</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2883834838867</t>
+    <t xml:space="preserve">13.2883825302124</t>
   </si>
   <si>
     <t xml:space="preserve">13.3038520812988</t>
@@ -2003,91 +2006,91 @@
     <t xml:space="preserve">13.1800956726074</t>
   </si>
   <si>
-    <t xml:space="preserve">13.504955291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.443078994751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4894886016846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6751232147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.721531867981</t>
+    <t xml:space="preserve">13.5049562454224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4430780410767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4894876480103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6751222610474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7215309143066</t>
   </si>
   <si>
     <t xml:space="preserve">13.6596527099609</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5823059082031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7524700164795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7060623168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6905918121338</t>
+    <t xml:space="preserve">13.5823040008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7524709701538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7060613632202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6905937194824</t>
   </si>
   <si>
     <t xml:space="preserve">13.6287136077881</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5513668060303</t>
+    <t xml:space="preserve">13.551365852356</t>
   </si>
   <si>
     <t xml:space="preserve">13.7679386138916</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5977754592896</t>
+    <t xml:space="preserve">13.5977745056152</t>
   </si>
   <si>
     <t xml:space="preserve">13.1955642700195</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4585475921631</t>
+    <t xml:space="preserve">13.4585485458374</t>
   </si>
   <si>
     <t xml:space="preserve">13.1336870193481</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0773334503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9535760879517</t>
+    <t xml:space="preserve">14.0773344039917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9535751342773</t>
   </si>
   <si>
     <t xml:space="preserve">14.1237411499023</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9690437316895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1701488494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.566837310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7988796234131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7834091186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5204257965088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.891695022583</t>
+    <t xml:space="preserve">13.9690456390381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1701498031616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5668354034424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7988786697388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7834100723267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5204267501831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8916969299316</t>
   </si>
   <si>
     <t xml:space="preserve">13.8762283325195</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9071655273438</t>
+    <t xml:space="preserve">13.9071664810181</t>
   </si>
   <si>
     <t xml:space="preserve">13.8607568740845</t>
@@ -2096,19 +2099,19 @@
     <t xml:space="preserve">13.7370004653931</t>
   </si>
   <si>
-    <t xml:space="preserve">14.402193069458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5878305435181</t>
+    <t xml:space="preserve">14.4021940231323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5878295898438</t>
   </si>
   <si>
     <t xml:space="preserve">14.185619354248</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3867244720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6187677383423</t>
+    <t xml:space="preserve">14.3867225646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.618766784668</t>
   </si>
   <si>
     <t xml:space="preserve">14.4176616668701</t>
@@ -2117,22 +2120,22 @@
     <t xml:space="preserve">14.2629680633545</t>
   </si>
   <si>
-    <t xml:space="preserve">14.510479927063</t>
+    <t xml:space="preserve">14.5104808807373</t>
   </si>
   <si>
     <t xml:space="preserve">14.6032972335815</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0928020477295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1082725524902</t>
+    <t xml:space="preserve">14.0928010940552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1082706451416</t>
   </si>
   <si>
     <t xml:space="preserve">14.0618629455566</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4331321716309</t>
+    <t xml:space="preserve">14.4331340789795</t>
   </si>
   <si>
     <t xml:space="preserve">14.6497068405151</t>
@@ -2141,16 +2144,16 @@
     <t xml:space="preserve">14.7115850448608</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4640731811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3248472213745</t>
+    <t xml:space="preserve">14.464072227478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3248453140259</t>
   </si>
   <si>
     <t xml:space="preserve">14.2939052581787</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2474975585938</t>
+    <t xml:space="preserve">14.2474994659424</t>
   </si>
   <si>
     <t xml:space="preserve">14.1546802520752</t>
@@ -2159,22 +2162,22 @@
     <t xml:space="preserve">13.9845151901245</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8452863693237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5259504318237</t>
+    <t xml:space="preserve">13.8452882766724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5259494781494</t>
   </si>
   <si>
     <t xml:space="preserve">15.129264831543</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1447334289551</t>
+    <t xml:space="preserve">15.1447353363037</t>
   </si>
   <si>
     <t xml:space="preserve">15.3148994445801</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5082712173462</t>
+    <t xml:space="preserve">15.5082693099976</t>
   </si>
   <si>
     <t xml:space="preserve">15.7403154373169</t>
@@ -2183,25 +2186,25 @@
     <t xml:space="preserve">15.6242914199829</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7016382217407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0883808135986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2817497253418</t>
+    <t xml:space="preserve">15.7016401290894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.08837890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2817478179932</t>
   </si>
   <si>
     <t xml:space="preserve">16.6684875488281</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8618564605713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7845096588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5137958526611</t>
+    <t xml:space="preserve">16.8618602752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7845115661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5137920379639</t>
   </si>
   <si>
     <t xml:space="preserve">16.4364452362061</t>
@@ -2210,7 +2213,7 @@
     <t xml:space="preserve">16.3590965270996</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2430744171143</t>
+    <t xml:space="preserve">16.2430763244629</t>
   </si>
   <si>
     <t xml:space="preserve">16.1270542144775</t>
@@ -2219,34 +2222,34 @@
     <t xml:space="preserve">16.1657276153564</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9336833953857</t>
+    <t xml:space="preserve">15.9336853027344</t>
   </si>
   <si>
     <t xml:space="preserve">15.972357749939</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6298141479492</t>
+    <t xml:space="preserve">16.6298160552979</t>
   </si>
   <si>
     <t xml:space="preserve">15.6629676818848</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4231863021851</t>
+    <t xml:space="preserve">15.4231882095337</t>
   </si>
   <si>
     <t xml:space="preserve">15.5469436645508</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0828561782837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.742525100708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9745693206787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1911420822144</t>
+    <t xml:space="preserve">15.0828552246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7425231933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9745674133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.191143989563</t>
   </si>
   <si>
     <t xml:space="preserve">15.2066125869751</t>
@@ -2258,10 +2261,10 @@
     <t xml:space="preserve">12.0044069290161</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3336887359619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6894903182983</t>
+    <t xml:space="preserve">10.3336896896362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6894912719727</t>
   </si>
   <si>
     <t xml:space="preserve">10.0242986679077</t>
@@ -2270,16 +2273,16 @@
     <t xml:space="preserve">10.0861759185791</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59114933013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73037528991699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9778881072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016454696655</t>
+    <t xml:space="preserve">9.59114837646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73037433624268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97789001464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016464233398</t>
   </si>
   <si>
     <t xml:space="preserve">11.0452919006348</t>
@@ -2288,7 +2291,7 @@
     <t xml:space="preserve">11.1999864578247</t>
   </si>
   <si>
-    <t xml:space="preserve">11.091700553894</t>
+    <t xml:space="preserve">11.0916996002197</t>
   </si>
   <si>
     <t xml:space="preserve">11.4475011825562</t>
@@ -2297,7 +2300,7 @@
     <t xml:space="preserve">11.2309265136719</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4088258743286</t>
+    <t xml:space="preserve">11.4088268280029</t>
   </si>
   <si>
     <t xml:space="preserve">11.7336883544922</t>
@@ -2306,34 +2309,34 @@
     <t xml:space="preserve">11.5403184890747</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5016450881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5248470306396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.586727142334</t>
+    <t xml:space="preserve">11.5016441345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.524847984314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5867280960083</t>
   </si>
   <si>
     <t xml:space="preserve">11.8419761657715</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3392143249512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1767816543579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2231922149658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1458435058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0066165924072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4552364349365</t>
+    <t xml:space="preserve">11.3392133712769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1767826080322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2231912612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1458444595337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0066175460815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4552354812622</t>
   </si>
   <si>
     <t xml:space="preserve">11.9038543701172</t>
@@ -2342,10 +2345,10 @@
     <t xml:space="preserve">11.7955675125122</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0662851333618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5303735733032</t>
+    <t xml:space="preserve">12.0662841796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5303726196289</t>
   </si>
   <si>
     <t xml:space="preserve">12.1436328887939</t>
@@ -2363,13 +2366,13 @@
     <t xml:space="preserve">12.6928033828735</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0099306106567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1491565704346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9557867050171</t>
+    <t xml:space="preserve">13.0099296569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1491575241089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9557857513428</t>
   </si>
   <si>
     <t xml:space="preserve">13.0176649093628</t>
@@ -2378,67 +2381,67 @@
     <t xml:space="preserve">12.9867267608643</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3579950332642</t>
+    <t xml:space="preserve">13.3579969406128</t>
   </si>
   <si>
     <t xml:space="preserve">13.4972219467163</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4198741912842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5745706558228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.239764213562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4486026763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5414199829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6961164474487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1624135971069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1005353927612</t>
+    <t xml:space="preserve">13.4198751449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5745697021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2397623062134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4486036300659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5414190292358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6961145401001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1624155044556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1005363464355</t>
   </si>
   <si>
     <t xml:space="preserve">13.6983270645142</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6673879623413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.116005897522</t>
+    <t xml:space="preserve">13.667387008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1160068511963</t>
   </si>
   <si>
     <t xml:space="preserve">13.9149007797241</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8674402236938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0776748657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7461490631104</t>
+    <t xml:space="preserve">13.8674383163452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0776739120483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7461500167847</t>
   </si>
   <si>
     <t xml:space="preserve">13.6006021499634</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7704086303711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0210723876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.818922996521</t>
+    <t xml:space="preserve">13.7704076766968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0210733413696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8189239501953</t>
   </si>
   <si>
     <t xml:space="preserve">14.0453319549561</t>
@@ -2447,7 +2450,7 @@
     <t xml:space="preserve">14.1747064590454</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0695886611938</t>
+    <t xml:space="preserve">14.0695877075195</t>
   </si>
   <si>
     <t xml:space="preserve">14.1585350036621</t>
@@ -2465,16 +2468,16 @@
     <t xml:space="preserve">13.5359144210815</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4065389633179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5601711273193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9159536361694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7623224258423</t>
+    <t xml:space="preserve">13.4065380096436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.560173034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9159555435181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.762321472168</t>
   </si>
   <si>
     <t xml:space="preserve">13.9563856124878</t>
@@ -2492,22 +2495,22 @@
     <t xml:space="preserve">13.3580236434937</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9483003616333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8270092010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.061502456665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.279824256897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.579005241394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1342754364014</t>
+    <t xml:space="preserve">13.948299407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8270101547241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0615015029907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2798233032227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5790042877197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.13427734375</t>
   </si>
   <si>
     <t xml:space="preserve">14.1504487991333</t>
@@ -2516,22 +2519,22 @@
     <t xml:space="preserve">14.1666202545166</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4981451034546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4658002853394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5304889678955</t>
+    <t xml:space="preserve">14.4981441497803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.465799331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5304880142212</t>
   </si>
   <si>
     <t xml:space="preserve">14.7245512008667</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4253730773926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3283386230469</t>
+    <t xml:space="preserve">14.4253721237183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3283395767212</t>
   </si>
   <si>
     <t xml:space="preserve">14.0534152984619</t>
@@ -2540,22 +2543,19 @@
     <t xml:space="preserve">14.2555656433105</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2313070297241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8916969299316</t>
+    <t xml:space="preserve">14.2313079833984</t>
   </si>
   <si>
     <t xml:space="preserve">14.093846321106</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3525981903076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.207049369812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9240398406982</t>
+    <t xml:space="preserve">14.3525972366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2070503234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9240417480469</t>
   </si>
   <si>
     <t xml:space="preserve">14.263650894165</t>
@@ -2564,16 +2564,16 @@
     <t xml:space="preserve">14.1019325256348</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4334583282471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1989631652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1100187301636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4900579452515</t>
+    <t xml:space="preserve">14.4334573745728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1989622116089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1100177764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4900588989258</t>
   </si>
   <si>
     <t xml:space="preserve">14.5709180831909</t>
@@ -2582,10 +2582,10 @@
     <t xml:space="preserve">14.6032619476318</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2232208251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9887285232544</t>
+    <t xml:space="preserve">14.2232227325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9887275695801</t>
   </si>
   <si>
     <t xml:space="preserve">14.1827926635742</t>
@@ -2600,43 +2600,43 @@
     <t xml:space="preserve">14.5385751724243</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5547456741333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7326364517212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5870914459229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5062313079834</t>
+    <t xml:space="preserve">14.5547466278076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7326374053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5870895385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5062322616577</t>
   </si>
   <si>
     <t xml:space="preserve">14.4819717407227</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6760358810425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7002935409546</t>
+    <t xml:space="preserve">14.6760349273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7002954483032</t>
   </si>
   <si>
     <t xml:space="preserve">14.999475479126</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8458423614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8377571105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4577150344849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3364267349243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9321260452271</t>
+    <t xml:space="preserve">14.8458414077759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8377552032471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4577140808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.33642578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9321269989014</t>
   </si>
   <si>
     <t xml:space="preserve">13.8836107254028</t>
@@ -2645,37 +2645,37 @@
     <t xml:space="preserve">13.9078693389893</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9968137741089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7784957885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4172849655151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4011116027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4415445327759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2151355743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1181030273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1423616409302</t>
+    <t xml:space="preserve">13.9968128204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7784948348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4172859191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4011135101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4415435791016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2151365280151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1181039810181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1423625946045</t>
   </si>
   <si>
     <t xml:space="preserve">14.6679496765137</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2717380523682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6491165161133</t>
+    <t xml:space="preserve">14.2717370986938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6491174697876</t>
   </si>
   <si>
     <t xml:space="preserve">13.4873991012573</t>
@@ -2687,10 +2687,10 @@
     <t xml:space="preserve">13.4469680786133</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3499374389648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.172046661377</t>
+    <t xml:space="preserve">13.3499364852905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1720457077026</t>
   </si>
   <si>
     <t xml:space="preserve">13.1882171630859</t>
@@ -2702,22 +2702,22 @@
     <t xml:space="preserve">13.2771635055542</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3984527587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5278282165527</t>
+    <t xml:space="preserve">13.3984518051147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5278272628784</t>
   </si>
   <si>
     <t xml:space="preserve">13.7542362213135</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9402122497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0372447967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0291585922241</t>
+    <t xml:space="preserve">13.9402132034302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0372457504272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0291595458984</t>
   </si>
   <si>
     <t xml:space="preserve">13.7946643829346</t>
@@ -2732,7 +2732,7 @@
     <t xml:space="preserve">13.5197420120239</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4550542831421</t>
+    <t xml:space="preserve">13.4550552368164</t>
   </si>
   <si>
     <t xml:space="preserve">13.2205619812012</t>
@@ -2747,7 +2747,7 @@
     <t xml:space="preserve">13.8108367919922</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7057199478149</t>
+    <t xml:space="preserve">13.7057209014893</t>
   </si>
   <si>
     <t xml:space="preserve">13.9644708633423</t>
@@ -2756,49 +2756,49 @@
     <t xml:space="preserve">13.8997840881348</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5844297409058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3095064163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3175916671753</t>
+    <t xml:space="preserve">13.5844287872314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3095073699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3175926208496</t>
   </si>
   <si>
     <t xml:space="preserve">13.2286472320557</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2043895721436</t>
+    <t xml:space="preserve">13.2043886184692</t>
   </si>
   <si>
     <t xml:space="preserve">13.3014221191406</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0345840454102</t>
+    <t xml:space="preserve">13.0345849990845</t>
   </si>
   <si>
     <t xml:space="preserve">13.4793128967285</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1908779144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3202505111694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6113471984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.797324180603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0399055480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0803337097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2339696884155</t>
+    <t xml:space="preserve">14.1908769607544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3202533721924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6113481521606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7973260879517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0399045944214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0803327560425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2339677810669</t>
   </si>
   <si>
     <t xml:space="preserve">15.2097091674805</t>
@@ -2807,13 +2807,13 @@
     <t xml:space="preserve">15.0722484588623</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9024429321289</t>
+    <t xml:space="preserve">14.9024448394775</t>
   </si>
   <si>
     <t xml:space="preserve">14.9186172485352</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0641622543335</t>
+    <t xml:space="preserve">15.0641613006592</t>
   </si>
   <si>
     <t xml:space="preserve">15.2258806228638</t>
@@ -2825,10 +2825,10 @@
     <t xml:space="preserve">15.8242444992065</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4927196502686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.314826965332</t>
+    <t xml:space="preserve">15.4927177429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3148288726807</t>
   </si>
   <si>
     <t xml:space="preserve">15.4522895812988</t>
@@ -2849,10 +2849,10 @@
     <t xml:space="preserve">15.3229160308838</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2501420974731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2824821472168</t>
+    <t xml:space="preserve">15.2501401901245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2824850082397</t>
   </si>
   <si>
     <t xml:space="preserve">15.2743968963623</t>
@@ -2870,40 +2870,40 @@
     <t xml:space="preserve">15.9051036834717</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7838134765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7272129058838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7999858856201</t>
+    <t xml:space="preserve">15.7838153839111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7272109985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7999877929688</t>
   </si>
   <si>
     <t xml:space="preserve">15.8808450698853</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9131908416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7757291793823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5412340164185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5574054718018</t>
+    <t xml:space="preserve">15.9131889343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.775731086731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5412359237671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5574073791504</t>
   </si>
   <si>
     <t xml:space="preserve">15.6706104278564</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7595548629761</t>
+    <t xml:space="preserve">15.7595567703247</t>
   </si>
   <si>
     <t xml:space="preserve">15.7029542922974</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6220932006836</t>
+    <t xml:space="preserve">15.6220951080322</t>
   </si>
   <si>
     <t xml:space="preserve">15.8565883636475</t>
@@ -2918,10 +2918,10 @@
     <t xml:space="preserve">16.5438938140869</t>
   </si>
   <si>
-    <t xml:space="preserve">16.34983253479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4953784942627</t>
+    <t xml:space="preserve">16.3498306274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4953804016113</t>
   </si>
   <si>
     <t xml:space="preserve">16.6570987701416</t>
@@ -2936,19 +2936,19 @@
     <t xml:space="preserve">16.6247539520264</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7379608154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9320240020752</t>
+    <t xml:space="preserve">16.7379589080811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9320220947266</t>
   </si>
   <si>
     <t xml:space="preserve">16.8026466369629</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1099147796631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2231178283691</t>
+    <t xml:space="preserve">17.1099128723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2231159210205</t>
   </si>
   <si>
     <t xml:space="preserve">17.0214805603027</t>
@@ -4590,6 +4590,9 @@
   </si>
   <si>
     <t xml:space="preserve">14.960000038147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0799999237061</t>
   </si>
 </sst>
 </file>
@@ -22915,7 +22918,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G692" t="s">
-        <v>442</v>
+        <v>507</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -22941,7 +22944,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G693" t="s">
-        <v>442</v>
+        <v>507</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -23045,7 +23048,7 @@
         <v>13.2299995422363</v>
       </c>
       <c r="G697" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -23071,7 +23074,7 @@
         <v>13.2799997329712</v>
       </c>
       <c r="G698" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -23123,7 +23126,7 @@
         <v>13.210000038147</v>
       </c>
       <c r="G700" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -23149,7 +23152,7 @@
         <v>12.9099998474121</v>
       </c>
       <c r="G701" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -23175,7 +23178,7 @@
         <v>12.75</v>
       </c>
       <c r="G702" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -23201,7 +23204,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G703" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -23331,7 +23334,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G708" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -23357,7 +23360,7 @@
         <v>12.25</v>
       </c>
       <c r="G709" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -23383,7 +23386,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G710" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -23409,7 +23412,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G711" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -23435,7 +23438,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G712" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -23461,7 +23464,7 @@
         <v>12.1099996566772</v>
       </c>
       <c r="G713" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -23487,7 +23490,7 @@
         <v>11.9700002670288</v>
       </c>
       <c r="G714" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -23513,7 +23516,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G715" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -23539,7 +23542,7 @@
         <v>11.6400003433228</v>
       </c>
       <c r="G716" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -23565,7 +23568,7 @@
         <v>11.5900001525879</v>
       </c>
       <c r="G717" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -23591,7 +23594,7 @@
         <v>11.3299999237061</v>
       </c>
       <c r="G718" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -23617,7 +23620,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G719" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -23643,7 +23646,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G720" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -23669,7 +23672,7 @@
         <v>11.1800003051758</v>
       </c>
       <c r="G721" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -23695,7 +23698,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G722" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -23721,7 +23724,7 @@
         <v>11.5</v>
       </c>
       <c r="G723" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -23747,7 +23750,7 @@
         <v>11.6099996566772</v>
       </c>
       <c r="G724" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -23773,7 +23776,7 @@
         <v>11.6700000762939</v>
       </c>
       <c r="G725" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -23799,7 +23802,7 @@
         <v>11.8100004196167</v>
       </c>
       <c r="G726" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -23825,7 +23828,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G727" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -23851,7 +23854,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G728" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -23877,7 +23880,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G729" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -23903,7 +23906,7 @@
         <v>11.8699998855591</v>
       </c>
       <c r="G730" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -23929,7 +23932,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G731" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -23955,7 +23958,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G732" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -23981,7 +23984,7 @@
         <v>12.7700004577637</v>
       </c>
       <c r="G733" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -24033,7 +24036,7 @@
         <v>12.4099998474121</v>
       </c>
       <c r="G735" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -24059,7 +24062,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G736" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -24085,7 +24088,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G737" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -24111,7 +24114,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G738" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -24137,7 +24140,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G739" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -24163,7 +24166,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G740" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -24189,7 +24192,7 @@
         <v>12.0100002288818</v>
       </c>
       <c r="G741" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -24215,7 +24218,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G742" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -24241,7 +24244,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G743" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -24267,7 +24270,7 @@
         <v>12</v>
       </c>
       <c r="G744" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -24293,7 +24296,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G745" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -24319,7 +24322,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G746" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -24345,7 +24348,7 @@
         <v>12</v>
       </c>
       <c r="G747" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -24371,7 +24374,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G748" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -24397,7 +24400,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G749" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -24423,7 +24426,7 @@
         <v>11.789999961853</v>
       </c>
       <c r="G750" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -24449,7 +24452,7 @@
         <v>11.8900003433228</v>
       </c>
       <c r="G751" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -24475,7 +24478,7 @@
         <v>11.5699996948242</v>
       </c>
       <c r="G752" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -24501,7 +24504,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G753" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -24527,7 +24530,7 @@
         <v>11.8100004196167</v>
       </c>
       <c r="G754" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -24553,7 +24556,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G755" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -24579,7 +24582,7 @@
         <v>12.1300001144409</v>
       </c>
       <c r="G756" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -24605,7 +24608,7 @@
         <v>11.75</v>
       </c>
       <c r="G757" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -24631,7 +24634,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G758" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -24657,7 +24660,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G759" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -24683,7 +24686,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G760" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -24709,7 +24712,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G761" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -24735,7 +24738,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G762" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -24761,7 +24764,7 @@
         <v>12.0100002288818</v>
       </c>
       <c r="G763" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -24787,7 +24790,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G764" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -24813,7 +24816,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G765" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -24839,7 +24842,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G766" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -24865,7 +24868,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G767" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -24891,7 +24894,7 @@
         <v>12.2399997711182</v>
       </c>
       <c r="G768" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -24917,7 +24920,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G769" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -24943,7 +24946,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G770" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -24969,7 +24972,7 @@
         <v>12.4799995422363</v>
       </c>
       <c r="G771" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -24995,7 +24998,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G772" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -25099,7 +25102,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G776" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -25203,7 +25206,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G780" t="s">
-        <v>442</v>
+        <v>507</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -25229,7 +25232,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G781" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -25255,7 +25258,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G782" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -25411,7 +25414,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G788" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -25437,7 +25440,7 @@
         <v>13.5</v>
       </c>
       <c r="G789" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -25463,7 +25466,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G790" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -25489,7 +25492,7 @@
         <v>13.1800003051758</v>
       </c>
       <c r="G791" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -25541,7 +25544,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G793" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -25567,7 +25570,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G794" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -25593,7 +25596,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G795" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -25619,7 +25622,7 @@
         <v>13.539999961853</v>
       </c>
       <c r="G796" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -25645,7 +25648,7 @@
         <v>13.5699996948242</v>
       </c>
       <c r="G797" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -25671,7 +25674,7 @@
         <v>13.4099998474121</v>
       </c>
       <c r="G798" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -25723,7 +25726,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G800" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -25749,7 +25752,7 @@
         <v>13.960000038147</v>
       </c>
       <c r="G801" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -25775,7 +25778,7 @@
         <v>13.8900003433228</v>
       </c>
       <c r="G802" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -25801,7 +25804,7 @@
         <v>13.9200000762939</v>
       </c>
       <c r="G803" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -25827,7 +25830,7 @@
         <v>13.75</v>
       </c>
       <c r="G804" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -25853,7 +25856,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G805" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -25879,7 +25882,7 @@
         <v>13.8800001144409</v>
       </c>
       <c r="G806" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -25905,7 +25908,7 @@
         <v>14.1199998855591</v>
       </c>
       <c r="G807" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -25931,7 +25934,7 @@
         <v>14.4300003051758</v>
       </c>
       <c r="G808" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -25957,7 +25960,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G809" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -25983,7 +25986,7 @@
         <v>14.9499998092651</v>
       </c>
       <c r="G810" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -26009,7 +26012,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G811" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -26035,7 +26038,7 @@
         <v>14.9899997711182</v>
       </c>
       <c r="G812" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -26061,7 +26064,7 @@
         <v>15.0500001907349</v>
       </c>
       <c r="G813" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -26087,7 +26090,7 @@
         <v>14.9399995803833</v>
       </c>
       <c r="G814" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -26113,7 +26116,7 @@
         <v>15.0900001525879</v>
       </c>
       <c r="G815" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -26139,7 +26142,7 @@
         <v>15.0600004196167</v>
       </c>
       <c r="G816" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -26165,7 +26168,7 @@
         <v>15.0900001525879</v>
       </c>
       <c r="G817" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -26191,7 +26194,7 @@
         <v>15.1800003051758</v>
       </c>
       <c r="G818" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -26217,7 +26220,7 @@
         <v>14.9399995803833</v>
       </c>
       <c r="G819" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -26243,7 +26246,7 @@
         <v>15.1099996566772</v>
       </c>
       <c r="G820" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -26269,7 +26272,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G821" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -26295,7 +26298,7 @@
         <v>14.9899997711182</v>
       </c>
       <c r="G822" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -26321,7 +26324,7 @@
         <v>15.1499996185303</v>
       </c>
       <c r="G823" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -26347,7 +26350,7 @@
         <v>15.1300001144409</v>
       </c>
       <c r="G824" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -26373,7 +26376,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G825" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -26399,7 +26402,7 @@
         <v>15.0699996948242</v>
       </c>
       <c r="G826" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -26425,7 +26428,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G827" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -26451,7 +26454,7 @@
         <v>15.3800001144409</v>
       </c>
       <c r="G828" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -26477,7 +26480,7 @@
         <v>16</v>
       </c>
       <c r="G829" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -26503,7 +26506,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G830" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -26529,7 +26532,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G831" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -26555,7 +26558,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G832" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -26581,7 +26584,7 @@
         <v>15.9399995803833</v>
       </c>
       <c r="G833" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -26607,7 +26610,7 @@
         <v>16.1200008392334</v>
       </c>
       <c r="G834" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -26633,7 +26636,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G835" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -26659,7 +26662,7 @@
         <v>15.9200000762939</v>
       </c>
       <c r="G836" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -26685,7 +26688,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G837" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -26711,7 +26714,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G838" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -26737,7 +26740,7 @@
         <v>15.4799995422363</v>
       </c>
       <c r="G839" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -26763,7 +26766,7 @@
         <v>15.5</v>
       </c>
       <c r="G840" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -26789,7 +26792,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G841" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -26815,7 +26818,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G842" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -26841,7 +26844,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G843" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -26867,7 +26870,7 @@
         <v>16.0400009155273</v>
       </c>
       <c r="G844" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -26893,7 +26896,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G845" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -26919,7 +26922,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G846" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -26945,7 +26948,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G847" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -26971,7 +26974,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G848" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -26997,7 +27000,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G849" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -27023,7 +27026,7 @@
         <v>16.3600006103516</v>
       </c>
       <c r="G850" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -27049,7 +27052,7 @@
         <v>16.3600006103516</v>
       </c>
       <c r="G851" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -27075,7 +27078,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G852" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -27101,7 +27104,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G853" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -27127,7 +27130,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G854" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -27153,7 +27156,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G855" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -27179,7 +27182,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G856" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -27205,7 +27208,7 @@
         <v>16.7199993133545</v>
       </c>
       <c r="G857" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -27231,7 +27234,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G858" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -27257,7 +27260,7 @@
         <v>16.5400009155273</v>
       </c>
       <c r="G859" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -27283,7 +27286,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G860" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -27309,7 +27312,7 @@
         <v>16.6200008392334</v>
       </c>
       <c r="G861" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -27335,7 +27338,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G862" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -27361,7 +27364,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G863" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -27387,7 +27390,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G864" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -27413,7 +27416,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G865" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -27439,7 +27442,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G866" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -27465,7 +27468,7 @@
         <v>16.6200008392334</v>
       </c>
       <c r="G867" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -27491,7 +27494,7 @@
         <v>16.6399993896484</v>
       </c>
       <c r="G868" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -27517,7 +27520,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G869" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -27543,7 +27546,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G870" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -27569,7 +27572,7 @@
         <v>17</v>
       </c>
       <c r="G871" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -27595,7 +27598,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G872" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -27621,7 +27624,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G873" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -27647,7 +27650,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G874" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -27673,7 +27676,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G875" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -27699,7 +27702,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G876" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -27725,7 +27728,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G877" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -27751,7 +27754,7 @@
         <v>17.6399993896484</v>
       </c>
       <c r="G878" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -27777,7 +27780,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G879" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -27803,7 +27806,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G880" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -27829,7 +27832,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G881" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -27855,7 +27858,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G882" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -27881,7 +27884,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G883" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -27907,7 +27910,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G884" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -27933,7 +27936,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G885" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -27959,7 +27962,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G886" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -27985,7 +27988,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G887" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -28011,7 +28014,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G888" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -28037,7 +28040,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G889" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -28063,7 +28066,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G890" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -28089,7 +28092,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G891" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -28115,7 +28118,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G892" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -28141,7 +28144,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G893" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -28167,7 +28170,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G894" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -28193,7 +28196,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G895" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -28219,7 +28222,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G896" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -28245,7 +28248,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G897" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -28271,7 +28274,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G898" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -28297,7 +28300,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G899" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -28323,7 +28326,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G900" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -28349,7 +28352,7 @@
         <v>17.5</v>
       </c>
       <c r="G901" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -28375,7 +28378,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G902" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -28401,7 +28404,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G903" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -28427,7 +28430,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G904" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -28453,7 +28456,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G905" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -28479,7 +28482,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G906" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -28505,7 +28508,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G907" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -28531,7 +28534,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G908" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -28557,7 +28560,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G909" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -28583,7 +28586,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G910" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -28609,7 +28612,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G911" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -28635,7 +28638,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G912" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -28661,7 +28664,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G913" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -28687,7 +28690,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G914" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -28713,7 +28716,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G915" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -28739,7 +28742,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G916" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -28765,7 +28768,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G917" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -28791,7 +28794,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G918" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -28817,7 +28820,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G919" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -28843,7 +28846,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G920" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -28869,7 +28872,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G921" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -28895,7 +28898,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G922" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -28921,7 +28924,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G923" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -28947,7 +28950,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G924" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -28973,7 +28976,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G925" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -28999,7 +29002,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G926" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -29025,7 +29028,7 @@
         <v>17.5</v>
       </c>
       <c r="G927" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -29051,7 +29054,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G928" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -29077,7 +29080,7 @@
         <v>17.5</v>
       </c>
       <c r="G929" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -29103,7 +29106,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G930" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -29129,7 +29132,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G931" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -29155,7 +29158,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G932" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -29181,7 +29184,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G933" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -29207,7 +29210,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G934" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -29233,7 +29236,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G935" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -29259,7 +29262,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G936" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -29285,7 +29288,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G937" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -29311,7 +29314,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G938" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -29337,7 +29340,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G939" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -29363,7 +29366,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G940" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -29389,7 +29392,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G941" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -29415,7 +29418,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G942" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -29441,7 +29444,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G943" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -29467,7 +29470,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G944" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -29493,7 +29496,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G945" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -29519,7 +29522,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G946" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -29545,7 +29548,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G947" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -29571,7 +29574,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G948" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -29597,7 +29600,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G949" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -29623,7 +29626,7 @@
         <v>18.0400009155273</v>
       </c>
       <c r="G950" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -29649,7 +29652,7 @@
         <v>18.2600002288818</v>
       </c>
       <c r="G951" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -29675,7 +29678,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G952" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -29701,7 +29704,7 @@
         <v>18.3199996948242</v>
       </c>
       <c r="G953" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -29727,7 +29730,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G954" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -29753,7 +29756,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G955" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -29779,7 +29782,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G956" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -29805,7 +29808,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G957" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -29831,7 +29834,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G958" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -29857,7 +29860,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G959" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -29883,7 +29886,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G960" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -29909,7 +29912,7 @@
         <v>17.5</v>
       </c>
       <c r="G961" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -29935,7 +29938,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G962" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -29961,7 +29964,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G963" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -29987,7 +29990,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G964" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -30013,7 +30016,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G965" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -30039,7 +30042,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G966" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -30065,7 +30068,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G967" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -30091,7 +30094,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G968" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -30117,7 +30120,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G969" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -30143,7 +30146,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G970" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -30169,7 +30172,7 @@
         <v>17.5</v>
       </c>
       <c r="G971" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -30195,7 +30198,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G972" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -30221,7 +30224,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G973" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -30247,7 +30250,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G974" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -30273,7 +30276,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G975" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -30299,7 +30302,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G976" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -30325,7 +30328,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G977" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -30351,7 +30354,7 @@
         <v>17.9400005340576</v>
       </c>
       <c r="G978" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -30377,7 +30380,7 @@
         <v>17.9799995422363</v>
       </c>
       <c r="G979" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -30403,7 +30406,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G980" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -30429,7 +30432,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G981" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -30455,7 +30458,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G982" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -30481,7 +30484,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G983" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -30507,7 +30510,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G984" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -30533,7 +30536,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G985" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -30559,7 +30562,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G986" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -30585,7 +30588,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G987" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -30611,7 +30614,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G988" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -30637,7 +30640,7 @@
         <v>18.3400001525879</v>
       </c>
       <c r="G989" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -30663,7 +30666,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G990" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -30689,7 +30692,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G991" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -30715,7 +30718,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G992" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -30741,7 +30744,7 @@
         <v>18.4400005340576</v>
       </c>
       <c r="G993" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -30767,7 +30770,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G994" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -30793,7 +30796,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G995" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -30819,7 +30822,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G996" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -30845,7 +30848,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="G997" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -30871,7 +30874,7 @@
         <v>18.3400001525879</v>
       </c>
       <c r="G998" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -30897,7 +30900,7 @@
         <v>18.2199993133545</v>
       </c>
       <c r="G999" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -30923,7 +30926,7 @@
         <v>18.3400001525879</v>
       </c>
       <c r="G1000" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -30949,7 +30952,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1001" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -30975,7 +30978,7 @@
         <v>18.2399997711182</v>
       </c>
       <c r="G1002" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -31001,7 +31004,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G1003" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -31027,7 +31030,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G1004" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -31053,7 +31056,7 @@
         <v>18.9400005340576</v>
       </c>
       <c r="G1005" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -31079,7 +31082,7 @@
         <v>19.0200004577637</v>
       </c>
       <c r="G1006" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -31105,7 +31108,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1007" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -31131,7 +31134,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G1008" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -31157,7 +31160,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G1009" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -31183,7 +31186,7 @@
         <v>18.4799995422363</v>
       </c>
       <c r="G1010" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -31209,7 +31212,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G1011" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -31235,7 +31238,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G1012" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -31261,7 +31264,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G1013" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -31287,7 +31290,7 @@
         <v>18.4200000762939</v>
       </c>
       <c r="G1014" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -31313,7 +31316,7 @@
         <v>18.4400005340576</v>
       </c>
       <c r="G1015" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -31339,7 +31342,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1016" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -31365,7 +31368,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1017" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -31391,7 +31394,7 @@
         <v>18.0799999237061</v>
       </c>
       <c r="G1018" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -31417,7 +31420,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1019" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -31443,7 +31446,7 @@
         <v>17.9799995422363</v>
       </c>
       <c r="G1020" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -31469,7 +31472,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G1021" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -31495,7 +31498,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G1022" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -31521,7 +31524,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G1023" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -31547,7 +31550,7 @@
         <v>19.5599994659424</v>
       </c>
       <c r="G1024" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -31573,7 +31576,7 @@
         <v>19.5799999237061</v>
       </c>
       <c r="G1025" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -31599,7 +31602,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1026" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -31625,7 +31628,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1027" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -31651,7 +31654,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G1028" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -31677,7 +31680,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1029" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -31703,7 +31706,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1030" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -31729,7 +31732,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1031" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -31755,7 +31758,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1032" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -31781,7 +31784,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1033" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -31807,7 +31810,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G1034" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -31833,7 +31836,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1035" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -31859,7 +31862,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1036" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -31885,7 +31888,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1037" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -31911,7 +31914,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G1038" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -31937,7 +31940,7 @@
         <v>21.25</v>
       </c>
       <c r="G1039" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -31963,7 +31966,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1040" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -31989,7 +31992,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1041" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -32015,7 +32018,7 @@
         <v>21</v>
       </c>
       <c r="G1042" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -32041,7 +32044,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G1043" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -32067,7 +32070,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1044" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -32093,7 +32096,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1045" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -32119,7 +32122,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1046" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -32145,7 +32148,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G1047" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -32171,7 +32174,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1048" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -32197,7 +32200,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1049" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -32223,7 +32226,7 @@
         <v>21.5</v>
       </c>
       <c r="G1050" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -32249,7 +32252,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1051" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -32275,7 +32278,7 @@
         <v>21.25</v>
       </c>
       <c r="G1052" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -32301,7 +32304,7 @@
         <v>20.25</v>
       </c>
       <c r="G1053" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -32327,7 +32330,7 @@
         <v>19.9400005340576</v>
       </c>
       <c r="G1054" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -32353,7 +32356,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1055" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -32379,7 +32382,7 @@
         <v>19.5</v>
       </c>
       <c r="G1056" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -32405,7 +32408,7 @@
         <v>18.9400005340576</v>
       </c>
       <c r="G1057" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -32431,7 +32434,7 @@
         <v>19.0599994659424</v>
       </c>
       <c r="G1058" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -32457,7 +32460,7 @@
         <v>19.3600006103516</v>
       </c>
       <c r="G1059" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -32483,7 +32486,7 @@
         <v>19.6399993896484</v>
       </c>
       <c r="G1060" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -32509,7 +32512,7 @@
         <v>19.6599998474121</v>
       </c>
       <c r="G1061" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -32535,7 +32538,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G1062" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -32561,7 +32564,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G1063" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -32587,7 +32590,7 @@
         <v>16</v>
       </c>
       <c r="G1064" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -32613,7 +32616,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G1065" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -32639,7 +32642,7 @@
         <v>13.3599996566772</v>
       </c>
       <c r="G1066" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -32665,7 +32668,7 @@
         <v>13.8199996948242</v>
       </c>
       <c r="G1067" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -32691,7 +32694,7 @@
         <v>12.960000038147</v>
       </c>
       <c r="G1068" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -32717,7 +32720,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G1069" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -32743,7 +32746,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G1070" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -32769,7 +32772,7 @@
         <v>12.5799999237061</v>
       </c>
       <c r="G1071" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -32795,7 +32798,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G1072" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -32821,7 +32824,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G1073" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -32847,7 +32850,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1074" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -32873,7 +32876,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1075" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -32899,7 +32902,7 @@
         <v>14.3400001525879</v>
       </c>
       <c r="G1076" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -32925,7 +32928,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1077" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -32951,7 +32954,7 @@
         <v>14.5200004577637</v>
       </c>
       <c r="G1078" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -32977,7 +32980,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1079" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -33003,7 +33006,7 @@
         <v>14.75</v>
       </c>
       <c r="G1080" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -33029,7 +33032,7 @@
         <v>15.1700000762939</v>
       </c>
       <c r="G1081" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -33055,7 +33058,7 @@
         <v>14.9200000762939</v>
       </c>
       <c r="G1082" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -33081,7 +33084,7 @@
         <v>14.8699998855591</v>
       </c>
       <c r="G1083" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -33107,7 +33110,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1084" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -33133,7 +33136,7 @@
         <v>14.9799995422363</v>
       </c>
       <c r="G1085" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -33159,7 +33162,7 @@
         <v>15.3100004196167</v>
       </c>
       <c r="G1086" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -33185,7 +33188,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1087" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -33211,7 +33214,7 @@
         <v>13.8199996948242</v>
       </c>
       <c r="G1088" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -33237,7 +33240,7 @@
         <v>14.4499998092651</v>
       </c>
       <c r="G1089" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -33263,7 +33266,7 @@
         <v>14.5100002288818</v>
       </c>
       <c r="G1090" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -33289,7 +33292,7 @@
         <v>14.4099998474121</v>
       </c>
       <c r="G1091" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -33315,7 +33318,7 @@
         <v>14.2299995422363</v>
       </c>
       <c r="G1092" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -33341,7 +33344,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1093" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -33367,7 +33370,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1094" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -33393,7 +33396,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1095" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -33419,7 +33422,7 @@
         <v>14.75</v>
       </c>
       <c r="G1096" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -33445,7 +33448,7 @@
         <v>14.8100004196167</v>
       </c>
       <c r="G1097" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -33471,7 +33474,7 @@
         <v>15.3900003433228</v>
       </c>
       <c r="G1098" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -33497,7 +33500,7 @@
         <v>15.25</v>
       </c>
       <c r="G1099" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -33523,7 +33526,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1100" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -33549,7 +33552,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1101" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -33575,7 +33578,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1102" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -33601,7 +33604,7 @@
         <v>15.1800003051758</v>
       </c>
       <c r="G1103" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -33627,7 +33630,7 @@
         <v>15.5799999237061</v>
       </c>
       <c r="G1104" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -33653,7 +33656,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G1105" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -33679,7 +33682,7 @@
         <v>16.4099998474121</v>
       </c>
       <c r="G1106" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -33705,7 +33708,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G1107" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -33731,7 +33734,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G1108" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -33757,7 +33760,7 @@
         <v>17</v>
       </c>
       <c r="G1109" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -33783,7 +33786,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G1110" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -33809,7 +33812,7 @@
         <v>16.75</v>
       </c>
       <c r="G1111" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -33835,7 +33838,7 @@
         <v>16.8299999237061</v>
       </c>
       <c r="G1112" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -33861,7 +33864,7 @@
         <v>16.7900009155273</v>
       </c>
       <c r="G1113" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -33887,7 +33890,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G1114" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -33913,7 +33916,7 @@
         <v>17.2700004577637</v>
       </c>
       <c r="G1115" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -33939,7 +33942,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G1116" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -33965,7 +33968,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G1117" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -33991,7 +33994,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G1118" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -34017,7 +34020,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1119" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -34043,7 +34046,7 @@
         <v>17.5499992370605</v>
       </c>
       <c r="G1120" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -34069,7 +34072,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G1121" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -34095,7 +34098,7 @@
         <v>18.4099998474121</v>
       </c>
       <c r="G1122" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -34121,7 +34124,7 @@
         <v>18.6800003051758</v>
       </c>
       <c r="G1123" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -34147,7 +34150,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1124" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -34173,7 +34176,7 @@
         <v>19</v>
       </c>
       <c r="G1125" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -34199,7 +34202,7 @@
         <v>18.3099994659424</v>
       </c>
       <c r="G1126" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -34225,7 +34228,7 @@
         <v>18.2299995422363</v>
       </c>
       <c r="G1127" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -34251,7 +34254,7 @@
         <v>17.7099990844727</v>
       </c>
       <c r="G1128" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -34277,7 +34280,7 @@
         <v>17.6700000762939</v>
       </c>
       <c r="G1129" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -34303,7 +34306,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1130" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -34329,7 +34332,7 @@
         <v>18.25</v>
       </c>
       <c r="G1131" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -34355,7 +34358,7 @@
         <v>18.25</v>
       </c>
       <c r="G1132" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -34381,7 +34384,7 @@
         <v>17.9899997711182</v>
       </c>
       <c r="G1133" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -34407,7 +34410,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G1134" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -34433,7 +34436,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1135" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -34459,7 +34462,7 @@
         <v>17.4099998474121</v>
       </c>
       <c r="G1136" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -34485,7 +34488,7 @@
         <v>17</v>
       </c>
       <c r="G1137" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -34511,7 +34514,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G1138" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -34537,7 +34540,7 @@
         <v>17.0300006866455</v>
       </c>
       <c r="G1139" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -34563,7 +34566,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G1140" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -34589,7 +34592,7 @@
         <v>17.0900001525879</v>
       </c>
       <c r="G1141" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -34615,7 +34618,7 @@
         <v>17.3700008392334</v>
       </c>
       <c r="G1142" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -34641,7 +34644,7 @@
         <v>17.5300006866455</v>
       </c>
       <c r="G1143" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -34667,7 +34670,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1144" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -34693,7 +34696,7 @@
         <v>17.5100002288818</v>
       </c>
       <c r="G1145" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -34719,7 +34722,7 @@
         <v>17.2900009155273</v>
       </c>
       <c r="G1146" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -34745,7 +34748,7 @@
         <v>17.3700008392334</v>
       </c>
       <c r="G1147" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -34771,7 +34774,7 @@
         <v>16.9899997711182</v>
       </c>
       <c r="G1148" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -34797,7 +34800,7 @@
         <v>16.9300003051758</v>
       </c>
       <c r="G1149" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -34823,7 +34826,7 @@
         <v>16.9899997711182</v>
       </c>
       <c r="G1150" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -34849,7 +34852,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G1151" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -34875,7 +34878,7 @@
         <v>16.5799999237061</v>
       </c>
       <c r="G1152" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -34901,7 +34904,7 @@
         <v>16.7700004577637</v>
       </c>
       <c r="G1153" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -34927,7 +34930,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1154" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -34953,7 +34956,7 @@
         <v>17.2099990844727</v>
       </c>
       <c r="G1155" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -34979,7 +34982,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G1156" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -35005,7 +35008,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1157" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -35031,7 +35034,7 @@
         <v>17.0699996948242</v>
       </c>
       <c r="G1158" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -35057,7 +35060,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G1159" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -35083,7 +35086,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1160" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -35109,7 +35112,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G1161" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -35135,7 +35138,7 @@
         <v>17.25</v>
       </c>
       <c r="G1162" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -35161,7 +35164,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1163" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -35187,7 +35190,7 @@
         <v>17.3899993896484</v>
       </c>
       <c r="G1164" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -35213,7 +35216,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G1165" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -35239,7 +35242,7 @@
         <v>18.0300006866455</v>
       </c>
       <c r="G1166" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -35265,7 +35268,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1167" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -35291,7 +35294,7 @@
         <v>17.5</v>
       </c>
       <c r="G1168" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -35317,7 +35320,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G1169" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -35343,7 +35346,7 @@
         <v>17.9300003051758</v>
       </c>
       <c r="G1170" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -35369,7 +35372,7 @@
         <v>17.8899993896484</v>
       </c>
       <c r="G1171" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -35395,7 +35398,7 @@
         <v>17.9699993133545</v>
       </c>
       <c r="G1172" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -35421,7 +35424,7 @@
         <v>18.2099990844727</v>
       </c>
       <c r="G1173" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -35447,7 +35450,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G1174" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -35473,7 +35476,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G1175" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -35499,7 +35502,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G1176" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -35525,7 +35528,7 @@
         <v>17.6299991607666</v>
       </c>
       <c r="G1177" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -35551,7 +35554,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1178" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -35577,7 +35580,7 @@
         <v>17.2900009155273</v>
       </c>
       <c r="G1179" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -35603,7 +35606,7 @@
         <v>17.6299991607666</v>
       </c>
       <c r="G1180" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -35629,7 +35632,7 @@
         <v>17.6299991607666</v>
       </c>
       <c r="G1181" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -35655,7 +35658,7 @@
         <v>17.3899993896484</v>
       </c>
       <c r="G1182" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -35681,7 +35684,7 @@
         <v>17.2900009155273</v>
       </c>
       <c r="G1183" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -35707,7 +35710,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1184" t="s">
-        <v>843</v>
+        <v>690</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -35733,7 +35736,7 @@
         <v>17.25</v>
       </c>
       <c r="G1185" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -35941,7 +35944,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G1193" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -36175,7 +36178,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G1202" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -36201,7 +36204,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G1203" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -36643,7 +36646,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1220" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -36903,7 +36906,7 @@
         <v>17.3700008392334</v>
       </c>
       <c r="G1230" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -36929,7 +36932,7 @@
         <v>17.2099990844727</v>
       </c>
       <c r="G1231" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -37007,7 +37010,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1234" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -37033,7 +37036,7 @@
         <v>17.8899993896484</v>
       </c>
       <c r="G1235" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -37059,7 +37062,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1236" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -37137,7 +37140,7 @@
         <v>17.5100002288818</v>
       </c>
       <c r="G1239" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -37371,7 +37374,7 @@
         <v>17.8899993896484</v>
       </c>
       <c r="G1248" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -37449,7 +37452,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G1251" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -37527,7 +37530,7 @@
         <v>16.9300003051758</v>
       </c>
       <c r="G1254" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -37839,7 +37842,7 @@
         <v>16.7700004577637</v>
       </c>
       <c r="G1266" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -37865,7 +37868,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G1267" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -37891,7 +37894,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1268" t="s">
-        <v>843</v>
+        <v>690</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -37943,7 +37946,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1270" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -37969,7 +37972,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1271" t="s">
-        <v>843</v>
+        <v>690</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -38047,7 +38050,7 @@
         <v>17.0699996948242</v>
       </c>
       <c r="G1274" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -38099,7 +38102,7 @@
         <v>17.25</v>
       </c>
       <c r="G1276" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -38177,7 +38180,7 @@
         <v>17.3899993896484</v>
       </c>
       <c r="G1279" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -38255,7 +38258,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1282" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -38359,7 +38362,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G1286" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -38437,7 +38440,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G1289" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -38697,7 +38700,7 @@
         <v>17.5100002288818</v>
       </c>
       <c r="G1299" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -38749,7 +38752,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G1301" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -38775,7 +38778,7 @@
         <v>17.4099998474121</v>
       </c>
       <c r="G1302" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -38905,7 +38908,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G1307" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -39269,7 +39272,7 @@
         <v>17.8899993896484</v>
       </c>
       <c r="G1321" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -39295,7 +39298,7 @@
         <v>17.9699993133545</v>
       </c>
       <c r="G1322" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -61169,7 +61172,7 @@
     </row>
     <row r="2164">
       <c r="A2164" s="1" t="n">
-        <v>45475.6494791667</v>
+        <v>45475.2916666667</v>
       </c>
       <c r="B2164" t="n">
         <v>83647</v>
@@ -61190,6 +61193,32 @@
         <v>1525</v>
       </c>
       <c r="H2164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" s="1" t="n">
+        <v>45476.6493634259</v>
+      </c>
+      <c r="B2165" t="n">
+        <v>126171</v>
+      </c>
+      <c r="C2165" t="n">
+        <v>15.2700004577637</v>
+      </c>
+      <c r="D2165" t="n">
+        <v>15.0100002288818</v>
+      </c>
+      <c r="E2165" t="n">
+        <v>15.0200004577637</v>
+      </c>
+      <c r="F2165" t="n">
+        <v>15.0799999237061</v>
+      </c>
+      <c r="G2165" t="s">
+        <v>1526</v>
+      </c>
+      <c r="H2165" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ACE.MI.xlsx
+++ b/data/ACE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="1530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="1531">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,34 +38,34 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99844837188721</t>
+    <t xml:space="preserve">8.99844646453857</t>
   </si>
   <si>
     <t xml:space="preserve">ACE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0114221572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68703651428223</t>
+    <t xml:space="preserve">9.01142311096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68703842163086</t>
   </si>
   <si>
     <t xml:space="preserve">8.82976627349854</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87518119812012</t>
+    <t xml:space="preserve">8.8751802444458</t>
   </si>
   <si>
     <t xml:space="preserve">9.01790904998779</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21254062652588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08927440643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69352531433105</t>
+    <t xml:space="preserve">9.2125415802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08927536010742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69352436065674</t>
   </si>
   <si>
     <t xml:space="preserve">8.73893928527832</t>
@@ -80,28 +80,28 @@
     <t xml:space="preserve">8.34318923950195</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51835632324219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53133201599121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6610860824585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77786540985107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88815593719482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90113067626953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78435230255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75840091705322</t>
+    <t xml:space="preserve">8.51835536956787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53133296966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66108798980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77786445617676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88815689086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90113258361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78435325622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75840187072754</t>
   </si>
   <si>
     <t xml:space="preserve">8.71947479248047</t>
@@ -110,73 +110,73 @@
     <t xml:space="preserve">8.36265277862549</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94743728637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80470848083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65549230575562</t>
+    <t xml:space="preserve">7.94743871688843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80470895767212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65549182891846</t>
   </si>
   <si>
     <t xml:space="preserve">7.81119680404663</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02529048919678</t>
+    <t xml:space="preserve">8.02529239654541</t>
   </si>
   <si>
     <t xml:space="preserve">7.98636627197266</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01231670379639</t>
+    <t xml:space="preserve">8.01231575012207</t>
   </si>
   <si>
     <t xml:space="preserve">8.00582885742188</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79173469543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95392751693726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03826713562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90202474594116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04475498199463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96041488647461</t>
+    <t xml:space="preserve">7.79173517227173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95392656326294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0382661819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90202522277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04475402832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96041440963745</t>
   </si>
   <si>
     <t xml:space="preserve">8.09665584564209</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99933910369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92797613143921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88256168365479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38860416412354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77137756347656</t>
+    <t xml:space="preserve">7.99934005737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92797708511353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88256120681763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3886022567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77137660980225</t>
   </si>
   <si>
     <t xml:space="preserve">9.08278656005859</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18010330200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17361450195312</t>
+    <t xml:space="preserve">9.18010234832764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17361545562744</t>
   </si>
   <si>
     <t xml:space="preserve">9.24497985839844</t>
@@ -185,13 +185,13 @@
     <t xml:space="preserve">9.19307804107666</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86220359802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.810302734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72596454620361</t>
+    <t xml:space="preserve">8.86220550537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81030464172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7259635925293</t>
   </si>
   <si>
     <t xml:space="preserve">8.84922885894775</t>
@@ -200,31 +200,31 @@
     <t xml:space="preserve">8.89464378356934</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98547077178955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82327938079834</t>
+    <t xml:space="preserve">8.98547267913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82328033447266</t>
   </si>
   <si>
     <t xml:space="preserve">8.79732799530029</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73245048522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86869335174561</t>
+    <t xml:space="preserve">8.73245143890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86869239807129</t>
   </si>
   <si>
     <t xml:space="preserve">8.62864780426025</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27182388305664</t>
+    <t xml:space="preserve">8.27182292938232</t>
   </si>
   <si>
     <t xml:space="preserve">8.2393856048584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09016799926758</t>
+    <t xml:space="preserve">8.09016895294189</t>
   </si>
   <si>
     <t xml:space="preserve">8.15504455566406</t>
@@ -233,22 +233,22 @@
     <t xml:space="preserve">8.21992301940918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26533603668213</t>
+    <t xml:space="preserve">8.26533699035645</t>
   </si>
   <si>
     <t xml:space="preserve">8.33021354675293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42104148864746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36913967132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33670234680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23289680480957</t>
+    <t xml:space="preserve">8.42104053497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36913776397705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33670139312744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23289775848389</t>
   </si>
   <si>
     <t xml:space="preserve">8.14206981658936</t>
@@ -263,19 +263,19 @@
     <t xml:space="preserve">8.55728244781494</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39509105682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25236225128174</t>
+    <t xml:space="preserve">8.39509010314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25236129760742</t>
   </si>
   <si>
     <t xml:space="preserve">8.19397163391113</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41455364227295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38211536407471</t>
+    <t xml:space="preserve">8.41455554962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38211631774902</t>
   </si>
   <si>
     <t xml:space="preserve">8.47294330596924</t>
@@ -284,7 +284,7 @@
     <t xml:space="preserve">8.57674598693848</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61567211151123</t>
+    <t xml:space="preserve">8.61567115783691</t>
   </si>
   <si>
     <t xml:space="preserve">8.56377124786377</t>
@@ -293,88 +293,88 @@
     <t xml:space="preserve">8.43401622772217</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12260627746582</t>
+    <t xml:space="preserve">8.1226053237915</t>
   </si>
   <si>
     <t xml:space="preserve">7.87607431411743</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91499900817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76578426361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52573919296265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17540264129639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29218101501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29866790771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45437431335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42045974731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37976121902466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47472286224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38654565811157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99313831329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67434406280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79643535614014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91852569580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4136757850647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32549858093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3661961555481</t>
+    <t xml:space="preserve">7.91499996185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76578330993652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52573871612549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17540216445923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29218006134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29866886138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45437288284302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42045831680298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37976169586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47472333908081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38654470443726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99313879013062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67434310913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79643440246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91852617263794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41367626190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32549810409546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36619567871094</t>
   </si>
   <si>
     <t xml:space="preserve">7.2576699256897</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10166263580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06774854660034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14236164093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1830587387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05418395996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2373218536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25088691711426</t>
+    <t xml:space="preserve">7.10166358947754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06774950027466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14236068725586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18305921554565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05418348312378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23732233047485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25088739395142</t>
   </si>
   <si>
     <t xml:space="preserve">7.21697282791138</t>
@@ -383,73 +383,73 @@
     <t xml:space="preserve">7.4882869720459</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48150396347046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9359564781189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90882539749146</t>
+    <t xml:space="preserve">7.48150444030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93595695495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90882396697998</t>
   </si>
   <si>
     <t xml:space="preserve">8.44467163085938</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41753959655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38362598419189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54641532897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55998229980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45145511627197</t>
+    <t xml:space="preserve">8.41754055023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38362503051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54641437530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55998134613037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45145606994629</t>
   </si>
   <si>
     <t xml:space="preserve">8.43110847473145</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47858619689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32258129119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19370555877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24118614196777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27509880065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12587642669678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11909580230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10552787780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13265895843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07839584350586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92917442321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01056861877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06483268737793</t>
+    <t xml:space="preserve">8.4785852432251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32258033752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19370651245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24118518829346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2750997543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12587738037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11909484863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10552883148193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13266086578369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07839775085449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92917346954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0105676651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0648307800293</t>
   </si>
   <si>
     <t xml:space="preserve">8.18014049530029</t>
@@ -458,46 +458,46 @@
     <t xml:space="preserve">8.15300941467285</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05126476287842</t>
+    <t xml:space="preserve">8.05126571655273</t>
   </si>
   <si>
     <t xml:space="preserve">8.08518028259277</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05804920196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85456323623657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71890497207642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73925352096558</t>
+    <t xml:space="preserve">8.05804824829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85456228256226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71890544891357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73925256729126</t>
   </si>
   <si>
     <t xml:space="preserve">7.82064914703369</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66464233398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59003019332886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5628981590271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51541805267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53576755523682</t>
+    <t xml:space="preserve">7.66464376449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59003067016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56290006637573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51541900634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53576803207397</t>
   </si>
   <si>
     <t xml:space="preserve">7.55611705780029</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52220153808594</t>
+    <t xml:space="preserve">7.52220249176025</t>
   </si>
   <si>
     <t xml:space="preserve">7.50185394287109</t>
@@ -506,16 +506,16 @@
     <t xml:space="preserve">7.49507141113281</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52898597717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50863647460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40011072158813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29158353805542</t>
+    <t xml:space="preserve">7.52898550033569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50863695144653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40011024475098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29158544540405</t>
   </si>
   <si>
     <t xml:space="preserve">7.37297964096069</t>
@@ -524,139 +524,139 @@
     <t xml:space="preserve">7.3119330406189</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56968212127686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69177389144897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75960159301758</t>
+    <t xml:space="preserve">7.5696816444397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69177341461182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75960254669189</t>
   </si>
   <si>
     <t xml:space="preserve">7.90204238891602</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87491130828857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99700307846069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94952297210693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96987104415894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00378608703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84099578857422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73246955871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80708122253418</t>
+    <t xml:space="preserve">7.8749098777771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99700260162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94952249526978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96987152099609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00378513336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84099626541138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73247051239014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80708265304565</t>
   </si>
   <si>
     <t xml:space="preserve">7.71212148666382</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64429426193237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16271018981934</t>
+    <t xml:space="preserve">7.64429378509521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16270971298218</t>
   </si>
   <si>
     <t xml:space="preserve">6.87782907485962</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8981785774231</t>
+    <t xml:space="preserve">6.89817714691162</t>
   </si>
   <si>
     <t xml:space="preserve">6.85069799423218</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78286933898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73538875579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77947759628296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83034896850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95922327041626</t>
+    <t xml:space="preserve">6.7828688621521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73538970947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77947807312012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8303484916687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95922374725342</t>
   </si>
   <si>
     <t xml:space="preserve">6.8371319770813</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90496110916138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82356691360474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72860622406006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18984127044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4340238571167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59681415557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83421468734741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77995109558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77316808700562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72568798065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86812973022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86134386062622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02413368225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03770065307617</t>
+    <t xml:space="preserve">6.90496063232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82356643676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72860670089722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18984174728394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43402481079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59681367874146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83421516418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77995157241821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7731671333313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72568893432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86812877655029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86134624481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02413463592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03769969940186</t>
   </si>
   <si>
     <t xml:space="preserve">8.07161426544189</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26153469085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15979099273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20727252960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68499040603638</t>
+    <t xml:space="preserve">8.26153564453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15979194641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20727157592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68498992919922</t>
   </si>
   <si>
     <t xml:space="preserve">7.74603700637817</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81386566162109</t>
+    <t xml:space="preserve">7.81386518478394</t>
   </si>
   <si>
     <t xml:space="preserve">7.7528190612793</t>
@@ -665,61 +665,61 @@
     <t xml:space="preserve">8.09874534606934</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04448223114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97665357589722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99021911621094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09196376800537</t>
+    <t xml:space="preserve">8.04448318481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97665405273438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99022054672241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09196281433105</t>
   </si>
   <si>
     <t xml:space="preserve">8.13944244384766</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20048904418945</t>
+    <t xml:space="preserve">8.20048809051514</t>
   </si>
   <si>
     <t xml:space="preserve">8.11231136322021</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98343753814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34292984008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2208366394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29544925689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41075801849365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47180271148682</t>
+    <t xml:space="preserve">7.98343801498413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34292888641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22083568572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29545021057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41075706481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47180366516113</t>
   </si>
   <si>
     <t xml:space="preserve">8.51250076293945</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5871114730835</t>
+    <t xml:space="preserve">8.58711242675781</t>
   </si>
   <si>
     <t xml:space="preserve">8.67529010772705</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62781047821045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61424350738525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60746002197266</t>
+    <t xml:space="preserve">8.62780952453613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61424446105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60746097564697</t>
   </si>
   <si>
     <t xml:space="preserve">8.65494155883789</t>
@@ -734,31 +734,31 @@
     <t xml:space="preserve">8.82451343536377</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81772899627686</t>
+    <t xml:space="preserve">8.81772994995117</t>
   </si>
   <si>
     <t xml:space="preserve">8.74311923980713</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95338821411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91947269439697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78381443023682</t>
+    <t xml:space="preserve">8.95338726043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91947460174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78381633758545</t>
   </si>
   <si>
     <t xml:space="preserve">8.86521053314209</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00764942169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01443290710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02121543884277</t>
+    <t xml:space="preserve">9.00764846801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01443195343018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02121639251709</t>
   </si>
   <si>
     <t xml:space="preserve">8.96016979217529</t>
@@ -767,7 +767,7 @@
     <t xml:space="preserve">9.21791934967041</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08226108551025</t>
+    <t xml:space="preserve">9.08226299285889</t>
   </si>
   <si>
     <t xml:space="preserve">9.22470283508301</t>
@@ -782,13 +782,13 @@
     <t xml:space="preserve">9.55027961730957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60454368591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42140483856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36714172363281</t>
+    <t xml:space="preserve">9.60454177856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42140579223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36714267730713</t>
   </si>
   <si>
     <t xml:space="preserve">9.41462230682373</t>
@@ -800,7 +800,7 @@
     <t xml:space="preserve">9.43497085571289</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44853591918945</t>
+    <t xml:space="preserve">9.44853782653809</t>
   </si>
   <si>
     <t xml:space="preserve">9.63167381286621</t>
@@ -809,46 +809,46 @@
     <t xml:space="preserve">9.71306800842285</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74020099639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78089809417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87585830688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76054859161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86907386779785</t>
+    <t xml:space="preserve">9.74019813537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78089618682861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87585735321045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76054954528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86907482147217</t>
   </si>
   <si>
     <t xml:space="preserve">9.82159423828125</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85550975799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76733207702637</t>
+    <t xml:space="preserve">9.85550880432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76733112335205</t>
   </si>
   <si>
     <t xml:space="preserve">9.94368648529053</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95046901702881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88264083862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99116516113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84872436523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79446220397949</t>
+    <t xml:space="preserve">9.95046997070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88263893127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99116706848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84872627258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79446315765381</t>
   </si>
   <si>
     <t xml:space="preserve">9.9574670791626</t>
@@ -860,7 +860,7 @@
     <t xml:space="preserve">10.0425138473511</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94329452514648</t>
+    <t xml:space="preserve">9.94329261779785</t>
   </si>
   <si>
     <t xml:space="preserve">9.8865966796875</t>
@@ -872,7 +872,7 @@
     <t xml:space="preserve">9.63854598999023</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51806354522705</t>
+    <t xml:space="preserve">9.51806449890137</t>
   </si>
   <si>
     <t xml:space="preserve">9.57476139068604</t>
@@ -881,22 +881,22 @@
     <t xml:space="preserve">9.4046688079834</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24166488647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25583839416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35505962371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22040367126465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34797096252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46136569976807</t>
+    <t xml:space="preserve">9.24166297912598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25583744049072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35505867004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22040271759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3479700088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46136665344238</t>
   </si>
   <si>
     <t xml:space="preserve">9.28418731689453</t>
@@ -905,16 +905,16 @@
     <t xml:space="preserve">9.46845245361328</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5038890838623</t>
+    <t xml:space="preserve">9.50388813018799</t>
   </si>
   <si>
     <t xml:space="preserve">9.52514934539795</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6314582824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5322380065918</t>
+    <t xml:space="preserve">9.63145732879639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53223705291748</t>
   </si>
   <si>
     <t xml:space="preserve">9.54641246795654</t>
@@ -926,55 +926,55 @@
     <t xml:space="preserve">9.49680233001709</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29127311706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34088516235352</t>
+    <t xml:space="preserve">9.29127407073975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34088325500488</t>
   </si>
   <si>
     <t xml:space="preserve">9.31962299346924</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9227409362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98652648925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94400405883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95817756652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09283351898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93691444396973</t>
+    <t xml:space="preserve">8.92274188995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98652744293213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94400215148926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.958176612854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09283256530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93691539764404</t>
   </si>
   <si>
     <t xml:space="preserve">8.83769512176514</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72430229187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86604595184326</t>
+    <t xml:space="preserve">8.7243013381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86604404449463</t>
   </si>
   <si>
     <t xml:space="preserve">8.87313079833984</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80225849151611</t>
+    <t xml:space="preserve">8.80225944519043</t>
   </si>
   <si>
     <t xml:space="preserve">8.81643295288086</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77391242980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78099822998047</t>
+    <t xml:space="preserve">8.77391147613525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78099918365479</t>
   </si>
   <si>
     <t xml:space="preserve">8.71721363067627</t>
@@ -983,7 +983,7 @@
     <t xml:space="preserve">8.66760349273682</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65342998504639</t>
+    <t xml:space="preserve">8.65342807769775</t>
   </si>
   <si>
     <t xml:space="preserve">8.63216781616211</t>
@@ -995,25 +995,25 @@
     <t xml:space="preserve">8.54712200164795</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5967321395874</t>
+    <t xml:space="preserve">8.59673118591309</t>
   </si>
   <si>
     <t xml:space="preserve">8.75973606109619</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68177700042725</t>
+    <t xml:space="preserve">8.68177795410156</t>
   </si>
   <si>
     <t xml:space="preserve">8.78808498382568</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22749042510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39049434661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17079162597656</t>
+    <t xml:space="preserve">9.22748947143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39049530029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17079257965088</t>
   </si>
   <si>
     <t xml:space="preserve">9.07865905761719</t>
@@ -1028,7 +1028,7 @@
     <t xml:space="preserve">9.2133150100708</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27001094818115</t>
+    <t xml:space="preserve">9.27001285552979</t>
   </si>
   <si>
     <t xml:space="preserve">9.1495304107666</t>
@@ -1040,31 +1040,31 @@
     <t xml:space="preserve">9.19914054870605</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29836177825928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38340663909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32670974731445</t>
+    <t xml:space="preserve">9.29836273193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38340759277344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32671070098877</t>
   </si>
   <si>
     <t xml:space="preserve">9.30544757843018</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61019611358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62437057495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72359085083008</t>
+    <t xml:space="preserve">9.61019706726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62437152862549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72359180450439</t>
   </si>
   <si>
     <t xml:space="preserve">9.67398071289062</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80154991149902</t>
+    <t xml:space="preserve">9.80155086517334</t>
   </si>
   <si>
     <t xml:space="preserve">9.84407329559326</t>
@@ -1073,10 +1073,10 @@
     <t xml:space="preserve">9.98581695556641</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90785598754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82281112670898</t>
+    <t xml:space="preserve">9.90785694122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8228120803833</t>
   </si>
   <si>
     <t xml:space="preserve">9.96455574035645</t>
@@ -1088,16 +1088,16 @@
     <t xml:space="preserve">10.2976522445679</t>
   </si>
   <si>
-    <t xml:space="preserve">10.326000213623</t>
+    <t xml:space="preserve">10.3259992599487</t>
   </si>
   <si>
     <t xml:space="preserve">10.347261428833</t>
   </si>
   <si>
-    <t xml:space="preserve">10.290563583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2196931838989</t>
+    <t xml:space="preserve">10.2905654907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2196912765503</t>
   </si>
   <si>
     <t xml:space="preserve">10.198431968689</t>
@@ -1112,7 +1112,7 @@
     <t xml:space="preserve">10.1700830459595</t>
   </si>
   <si>
-    <t xml:space="preserve">10.12047290802</t>
+    <t xml:space="preserve">10.1204719543457</t>
   </si>
   <si>
     <t xml:space="preserve">10.4323081970215</t>
@@ -1124,10 +1124,10 @@
     <t xml:space="preserve">10.3756113052368</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4819173812866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.425220489502</t>
+    <t xml:space="preserve">10.4819192886353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4252214431763</t>
   </si>
   <si>
     <t xml:space="preserve">10.3826971054077</t>
@@ -1136,25 +1136,25 @@
     <t xml:space="preserve">10.3614358901978</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7370548248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9773092269897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1048793792725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.019832611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0481805801392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9843969345093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9702234268188</t>
+    <t xml:space="preserve">10.7370557785034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9773101806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1048803329468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0198316574097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0481815338135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9843988418579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9702215194702</t>
   </si>
   <si>
     <t xml:space="preserve">12.0340070724487</t>
@@ -1163,31 +1163,31 @@
     <t xml:space="preserve">11.8780899047852</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5875158309937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.49538230896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3819885253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6867361068726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3182039260864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0772390365601</t>
+    <t xml:space="preserve">11.587516784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4953813552856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3819875717163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6867351531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3182029724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0772409439087</t>
   </si>
   <si>
     <t xml:space="preserve">10.9354972839355</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0559787750244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0347166061401</t>
+    <t xml:space="preserve">11.0559778213501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0347156524658</t>
   </si>
   <si>
     <t xml:space="preserve">10.9142351150513</t>
@@ -1196,16 +1196,16 @@
     <t xml:space="preserve">10.9567575454712</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1268501281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3252897262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4245109558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5024700164795</t>
+    <t xml:space="preserve">11.1268491744995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3252906799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4245119094849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5024690628052</t>
   </si>
   <si>
     <t xml:space="preserve">11.3040285110474</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">11.5591669082642</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6442136764526</t>
+    <t xml:space="preserve">11.6442127227783</t>
   </si>
   <si>
     <t xml:space="preserve">11.438684463501</t>
@@ -1241,10 +1241,10 @@
     <t xml:space="preserve">11.3465518951416</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2756805419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2331571578979</t>
+    <t xml:space="preserve">11.2756814956665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2331581115723</t>
   </si>
   <si>
     <t xml:space="preserve">11.0843267440796</t>
@@ -1253,43 +1253,43 @@
     <t xml:space="preserve">11.0276298522949</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0063695907593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8433637619019</t>
+    <t xml:space="preserve">11.0063676834106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8433628082275</t>
   </si>
   <si>
     <t xml:space="preserve">10.5669631958008</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3330869674683</t>
+    <t xml:space="preserve">10.3330879211426</t>
   </si>
   <si>
     <t xml:space="preserve">10.666184425354</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3897838592529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5031795501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5244417190552</t>
+    <t xml:space="preserve">10.3897857666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5031785964966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5244407653809</t>
   </si>
   <si>
     <t xml:space="preserve">10.5953121185303</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5527906417847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4393939971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1488199234009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95038032531738</t>
+    <t xml:space="preserve">10.5527896881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4393949508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1488208770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9503812789917</t>
   </si>
   <si>
     <t xml:space="preserve">9.87950801849365</t>
@@ -1298,13 +1298,13 @@
     <t xml:space="preserve">10.0921239852905</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1133852005005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1275606155396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90076923370361</t>
+    <t xml:space="preserve">10.1133861541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1275596618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90077018737793</t>
   </si>
   <si>
     <t xml:space="preserve">9.99999046325684</t>
@@ -1313,16 +1313,16 @@
     <t xml:space="preserve">9.78028869628906</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64563083648682</t>
+    <t xml:space="preserve">9.64563179016113</t>
   </si>
   <si>
     <t xml:space="preserve">9.56058597564697</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6598072052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48971462249756</t>
+    <t xml:space="preserve">9.65980625152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48971557617188</t>
   </si>
   <si>
     <t xml:space="preserve">9.60311031341553</t>
@@ -1334,223 +1334,223 @@
     <t xml:space="preserve">9.70941734313965</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66689300537109</t>
+    <t xml:space="preserve">9.66689395904541</t>
   </si>
   <si>
     <t xml:space="preserve">9.58893489837646</t>
   </si>
   <si>
+    <t xml:space="preserve">9.73067760467529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86533451080322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97873020172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0708627700806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2551279067993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2622156143188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2267799377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4181327819824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2763910293579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2126064300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91494369506836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1629953384399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73776531219482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43301773071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20622825622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45427894592285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82989883422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69353866577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72325038909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67125415802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5375509262085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57469081878662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47812652587891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49298191070557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45584106445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41127395629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46327114105225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44098663330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61925792694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70839500427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8346700668335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64154148101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53012084960938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55240631103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65639877319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70096588134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54497814178467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60440254211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81981372833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87923812866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84952735900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0500822067261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1540727615356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0055141448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0649385452271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1020784378052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1317901611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0203704833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.109504699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97580337524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89409446716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9460916519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73810577392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78267478942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71582126617432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67868137359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51526641845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23300266265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12158203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08444309234619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19586181640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39641761779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43355751037598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56726264953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66382694244385</t>
+  </si>
+  <si>
     <t xml:space="preserve">9.73067855834961</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86533546447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97872924804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0708637237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2551279067993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2622156143188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2267799377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4181337356567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2763910293579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2126054763794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91494369506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1629962921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73776435852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43301773071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2062292098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45427989959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82989978790283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69353771209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72325134277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67125511169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5375509262085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5746898651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47812747955322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49298095703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45584106445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41127395629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46326923370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44098567962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61925792694092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70839500427246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83467102050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64154148101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53012275695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55240535736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65639781951904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70096683502197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54497814178467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60440254211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81981468200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87923812866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84952640533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0500822067261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1540746688843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0055150985718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0649394989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1020784378052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1317901611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0203704833984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.109504699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97580337524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89409446716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94609069824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73810577392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78267478942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71582126617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67868137359619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51526641845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23300170898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12158203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08444213867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19586277008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39641857147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43355846405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56726169586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66382598876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73067951202393</t>
-  </si>
-  <si>
     <t xml:space="preserve">9.82724189758301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86438179016113</t>
+    <t xml:space="preserve">9.86438083648682</t>
   </si>
   <si>
     <t xml:space="preserve">9.81238555908203</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58954524993896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47069835662842</t>
+    <t xml:space="preserve">9.58954620361328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4706974029541</t>
   </si>
   <si>
     <t xml:space="preserve">9.59697532653809</t>
@@ -1559,7 +1559,7 @@
     <t xml:space="preserve">9.15129375457764</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09929847717285</t>
+    <t xml:space="preserve">9.09929752349854</t>
   </si>
   <si>
     <t xml:space="preserve">8.90616989135742</t>
@@ -1568,19 +1568,19 @@
     <t xml:space="preserve">8.87645816802979</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78732299804688</t>
+    <t xml:space="preserve">8.78732204437256</t>
   </si>
   <si>
     <t xml:space="preserve">8.99530601501465</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89131450653076</t>
+    <t xml:space="preserve">8.89131546020508</t>
   </si>
   <si>
     <t xml:space="preserve">8.65361785888672</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64618968963623</t>
+    <t xml:space="preserve">8.64619064331055</t>
   </si>
   <si>
     <t xml:space="preserve">8.60905075073242</t>
@@ -1592,16 +1592,16 @@
     <t xml:space="preserve">8.43820667266846</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44563484191895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30450248718262</t>
+    <t xml:space="preserve">8.44563388824463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3045015335083</t>
   </si>
   <si>
     <t xml:space="preserve">8.52734279632568</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54219722747803</t>
+    <t xml:space="preserve">8.54219818115234</t>
   </si>
   <si>
     <t xml:space="preserve">8.62390613555908</t>
@@ -1610,16 +1610,16 @@
     <t xml:space="preserve">8.66847515106201</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7724666595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75018310546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89874362945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81703281402588</t>
+    <t xml:space="preserve">8.77246570587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75018215179443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89874172210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8170337677002</t>
   </si>
   <si>
     <t xml:space="preserve">9.58211708068848</t>
@@ -1634,37 +1634,37 @@
     <t xml:space="preserve">9.21814632415771</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22557353973389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06215763092041</t>
+    <t xml:space="preserve">9.2255744934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06215858459473</t>
   </si>
   <si>
     <t xml:space="preserve">8.95816707611084</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97302341461182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83931827545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9210262298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91359806060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79475021362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75761032104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83189010620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59419250488281</t>
+    <t xml:space="preserve">8.9730224609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83931922912598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92102718353271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91359901428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79475116729736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75760936737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83188915252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59419441223145</t>
   </si>
   <si>
     <t xml:space="preserve">9.21071815490723</t>
@@ -1679,13 +1679,13 @@
     <t xml:space="preserve">8.57933902740479</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76503753662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85417461395264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0250186920166</t>
+    <t xml:space="preserve">8.76503849029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85417366027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02501773834229</t>
   </si>
   <si>
     <t xml:space="preserve">8.77989482879639</t>
@@ -1700,7 +1700,7 @@
     <t xml:space="preserve">9.24785900115967</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2701416015625</t>
+    <t xml:space="preserve">9.27014255523682</t>
   </si>
   <si>
     <t xml:space="preserve">9.32213878631592</t>
@@ -1715,52 +1715,52 @@
     <t xml:space="preserve">10.0277976989746</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91637802124023</t>
+    <t xml:space="preserve">9.91637897491455</t>
   </si>
   <si>
     <t xml:space="preserve">9.79010200500488</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99065685272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1169338226318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0575103759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0797929763794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96094608306885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.139217376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3694868087769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3174896240234</t>
+    <t xml:space="preserve">9.99065780639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1169347763062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0575094223022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0797939300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96094512939453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1392183303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3694858551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3174905776978</t>
   </si>
   <si>
     <t xml:space="preserve">10.3397741317749</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2134971618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3249177932739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3100614547729</t>
+    <t xml:space="preserve">10.2134981155396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3249168395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3100624084473</t>
   </si>
   <si>
     <t xml:space="preserve">10.4883337020874</t>
   </si>
   <si>
-    <t xml:space="preserve">10.718602180481</t>
+    <t xml:space="preserve">10.7186031341553</t>
   </si>
   <si>
     <t xml:space="preserve">10.8077373504639</t>
@@ -1769,7 +1769,7 @@
     <t xml:space="preserve">11.1048583984375</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2608442306519</t>
+    <t xml:space="preserve">11.2608451843262</t>
   </si>
   <si>
     <t xml:space="preserve">11.1345701217651</t>
@@ -1778,7 +1778,7 @@
     <t xml:space="preserve">11.1791381835938</t>
   </si>
   <si>
-    <t xml:space="preserve">11.097430229187</t>
+    <t xml:space="preserve">11.0974292755127</t>
   </si>
   <si>
     <t xml:space="preserve">11.2088499069214</t>
@@ -1790,34 +1790,34 @@
     <t xml:space="preserve">11.2757024765015</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2237062454224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2905569076538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2534170150757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2385625839233</t>
+    <t xml:space="preserve">11.223705291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2905578613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.25341796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.238561630249</t>
   </si>
   <si>
     <t xml:space="preserve">11.2162780761719</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1939945220947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4242610931396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8847980499268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8996534347534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0333585739136</t>
+    <t xml:space="preserve">11.1939935684204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.424262046814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8847970962524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8996543884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0333576202393</t>
   </si>
   <si>
     <t xml:space="preserve">11.8402290344238</t>
@@ -1838,28 +1838,28 @@
     <t xml:space="preserve">11.4985418319702</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5133972167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.706524848938</t>
+    <t xml:space="preserve">11.5133981704712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7065258026123</t>
   </si>
   <si>
     <t xml:space="preserve">11.9145107269287</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9442224502563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0185012817383</t>
+    <t xml:space="preserve">11.944221496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0185022354126</t>
   </si>
   <si>
     <t xml:space="preserve">12.0036458969116</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1522064208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0779256820679</t>
+    <t xml:space="preserve">12.1522073745728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0779247283936</t>
   </si>
   <si>
     <t xml:space="preserve">12.4047584533691</t>
@@ -1871,25 +1871,25 @@
     <t xml:space="preserve">12.6721658706665</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5384607315063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4196138381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3750457763672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2859106063843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2264852523804</t>
+    <t xml:space="preserve">12.5384616851807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4196119308472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3750448226929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2859115600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2264842987061</t>
   </si>
   <si>
     <t xml:space="preserve">12.3453340530396</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4493265151978</t>
+    <t xml:space="preserve">12.4493255615234</t>
   </si>
   <si>
     <t xml:space="preserve">12.4641819000244</t>
@@ -1898,7 +1898,7 @@
     <t xml:space="preserve">12.3899021148682</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4344682693481</t>
+    <t xml:space="preserve">12.4344692230225</t>
   </si>
   <si>
     <t xml:space="preserve">12.3601894378662</t>
@@ -1907,13 +1907,13 @@
     <t xml:space="preserve">12.6275978088379</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7613019943237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8504371643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8801498413086</t>
+    <t xml:space="preserve">12.7613010406494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8504362106323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8801507949829</t>
   </si>
   <si>
     <t xml:space="preserve">12.9247169494629</t>
@@ -1928,10 +1928,10 @@
     <t xml:space="preserve">13.1029891967773</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1178455352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1772699356079</t>
+    <t xml:space="preserve">13.117844581604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1772708892822</t>
   </si>
   <si>
     <t xml:space="preserve">13.2515497207642</t>
@@ -1955,13 +1955,13 @@
     <t xml:space="preserve">12.9635219573975</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9480504989624</t>
+    <t xml:space="preserve">12.9480514526367</t>
   </si>
   <si>
     <t xml:space="preserve">12.886173248291</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0253992080688</t>
+    <t xml:space="preserve">13.0253982543945</t>
   </si>
   <si>
     <t xml:space="preserve">13.3966693878174</t>
@@ -1973,13 +1973,13 @@
     <t xml:space="preserve">13.1182165145874</t>
   </si>
   <si>
-    <t xml:space="preserve">13.164626121521</t>
+    <t xml:space="preserve">13.1646270751953</t>
   </si>
   <si>
     <t xml:space="preserve">13.334792137146</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2729120254517</t>
+    <t xml:space="preserve">13.272912979126</t>
   </si>
   <si>
     <t xml:space="preserve">13.4740180969238</t>
@@ -1988,61 +1988,61 @@
     <t xml:space="preserve">13.381199836731</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3657312393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4276094436646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5358953475952</t>
+    <t xml:space="preserve">13.3657321929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4276084899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5358943939209</t>
   </si>
   <si>
     <t xml:space="preserve">13.2883834838867</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3038511276245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1800947189331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.504955291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.443078994751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4894876480103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6751232147217</t>
+    <t xml:space="preserve">13.3038520812988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1800956726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5049562454224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4430780410767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4894886016846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6751222610474</t>
   </si>
   <si>
     <t xml:space="preserve">13.721531867981</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6596527099609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5823049545288</t>
+    <t xml:space="preserve">13.6596517562866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5823040008545</t>
   </si>
   <si>
     <t xml:space="preserve">13.7524719238281</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7060623168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6905918121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6287136077881</t>
+    <t xml:space="preserve">13.7060613632202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6905908584595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6287145614624</t>
   </si>
   <si>
     <t xml:space="preserve">13.5513668060303</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7679386138916</t>
+    <t xml:space="preserve">13.7679395675659</t>
   </si>
   <si>
     <t xml:space="preserve">13.5977745056152</t>
@@ -2054,7 +2054,7 @@
     <t xml:space="preserve">13.4585475921631</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1336879730225</t>
+    <t xml:space="preserve">13.1336870193481</t>
   </si>
   <si>
     <t xml:space="preserve">14.0773344039917</t>
@@ -2066,10 +2066,10 @@
     <t xml:space="preserve">14.123740196228</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9690437316895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.170147895813</t>
+    <t xml:space="preserve">13.9690446853638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1701488494873</t>
   </si>
   <si>
     <t xml:space="preserve">13.566837310791</t>
@@ -2081,49 +2081,49 @@
     <t xml:space="preserve">13.7834091186523</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5204267501831</t>
+    <t xml:space="preserve">13.5204257965088</t>
   </si>
   <si>
     <t xml:space="preserve">13.8916959762573</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8762283325195</t>
+    <t xml:space="preserve">13.8762292861938</t>
   </si>
   <si>
     <t xml:space="preserve">13.9071664810181</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8607578277588</t>
+    <t xml:space="preserve">13.8607587814331</t>
   </si>
   <si>
     <t xml:space="preserve">13.7370004653931</t>
   </si>
   <si>
-    <t xml:space="preserve">14.402193069458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5878295898438</t>
+    <t xml:space="preserve">14.4021940231323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5878305435181</t>
   </si>
   <si>
     <t xml:space="preserve">14.1856203079224</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3867235183716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.618766784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4176626205444</t>
+    <t xml:space="preserve">14.3867244720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6187677383423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4176616668701</t>
   </si>
   <si>
     <t xml:space="preserve">14.2629680633545</t>
   </si>
   <si>
-    <t xml:space="preserve">14.510479927063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6032972335815</t>
+    <t xml:space="preserve">14.5104789733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6032962799072</t>
   </si>
   <si>
     <t xml:space="preserve">14.0928010940552</t>
@@ -2132,13 +2132,13 @@
     <t xml:space="preserve">14.1082715988159</t>
   </si>
   <si>
-    <t xml:space="preserve">14.061861038208</t>
+    <t xml:space="preserve">14.0618619918823</t>
   </si>
   <si>
     <t xml:space="preserve">14.4331321716309</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6497068405151</t>
+    <t xml:space="preserve">14.6497077941895</t>
   </si>
   <si>
     <t xml:space="preserve">14.7115850448608</t>
@@ -2147,13 +2147,13 @@
     <t xml:space="preserve">14.4640741348267</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3248462677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2939043045044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2474975585938</t>
+    <t xml:space="preserve">14.3248453140259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2939052581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2474985122681</t>
   </si>
   <si>
     <t xml:space="preserve">14.1546802520752</t>
@@ -2162,16 +2162,16 @@
     <t xml:space="preserve">13.9845151901245</t>
   </si>
   <si>
-    <t xml:space="preserve">13.845287322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5259494781494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.129264831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1447334289551</t>
+    <t xml:space="preserve">13.8452882766724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5259504318237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1292638778687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1447324752808</t>
   </si>
   <si>
     <t xml:space="preserve">15.3148994445801</t>
@@ -2192,7 +2192,7 @@
     <t xml:space="preserve">16.08837890625</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2817478179932</t>
+    <t xml:space="preserve">16.2817497253418</t>
   </si>
   <si>
     <t xml:space="preserve">16.6684894561768</t>
@@ -2201,13 +2201,13 @@
     <t xml:space="preserve">16.8618583679199</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7845096588135</t>
+    <t xml:space="preserve">16.7845115661621</t>
   </si>
   <si>
     <t xml:space="preserve">16.5137939453125</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4364452362061</t>
+    <t xml:space="preserve">16.4364471435547</t>
   </si>
   <si>
     <t xml:space="preserve">16.3590965270996</t>
@@ -2222,7 +2222,7 @@
     <t xml:space="preserve">16.1657276153564</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9336833953857</t>
+    <t xml:space="preserve">15.9336824417114</t>
   </si>
   <si>
     <t xml:space="preserve">15.972357749939</t>
@@ -2231,37 +2231,37 @@
     <t xml:space="preserve">16.6298160552979</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6629676818848</t>
+    <t xml:space="preserve">15.6629657745361</t>
   </si>
   <si>
     <t xml:space="preserve">15.4231882095337</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5469436645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0828552246094</t>
+    <t xml:space="preserve">15.5469455718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0828561782837</t>
   </si>
   <si>
     <t xml:space="preserve">14.742525100708</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9745693206787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1911420822144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2066125869751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3756771087646</t>
+    <t xml:space="preserve">14.974570274353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.191143989563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2066116333008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3756761550903</t>
   </si>
   <si>
     <t xml:space="preserve">12.0044069290161</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3336896896362</t>
+    <t xml:space="preserve">10.3336887359619</t>
   </si>
   <si>
     <t xml:space="preserve">10.6894903182983</t>
@@ -2270,7 +2270,7 @@
     <t xml:space="preserve">10.0242977142334</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0861759185791</t>
+    <t xml:space="preserve">10.0861768722534</t>
   </si>
   <si>
     <t xml:space="preserve">9.59114933013916</t>
@@ -2279,22 +2279,22 @@
     <t xml:space="preserve">9.73037528991699</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9778881072998</t>
+    <t xml:space="preserve">9.97788906097412</t>
   </si>
   <si>
     <t xml:space="preserve">10.1016464233398</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0452919006348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1999864578247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0917015075684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4475011825562</t>
+    <t xml:space="preserve">11.0452909469604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.199987411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.091700553894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4475002288818</t>
   </si>
   <si>
     <t xml:space="preserve">11.2309265136719</t>
@@ -2309,13 +2309,13 @@
     <t xml:space="preserve">11.5403184890747</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5016450881958</t>
+    <t xml:space="preserve">11.5016441345215</t>
   </si>
   <si>
     <t xml:space="preserve">11.524847984314</t>
   </si>
   <si>
-    <t xml:space="preserve">11.586727142334</t>
+    <t xml:space="preserve">11.5867261886597</t>
   </si>
   <si>
     <t xml:space="preserve">11.8419752120972</t>
@@ -2336,46 +2336,46 @@
     <t xml:space="preserve">11.0066165924072</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4552364349365</t>
+    <t xml:space="preserve">11.4552354812622</t>
   </si>
   <si>
     <t xml:space="preserve">11.9038534164429</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7955675125122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0662851333618</t>
+    <t xml:space="preserve">11.7955665588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0662860870361</t>
   </si>
   <si>
     <t xml:space="preserve">12.5303735733032</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1436328887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7414236068726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0508146286011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2828588485718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6928033828735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0099306106567</t>
+    <t xml:space="preserve">12.1436319351196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7414226531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0508155822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2828598022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6928024291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0099296569824</t>
   </si>
   <si>
     <t xml:space="preserve">13.1491565704346</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9557867050171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0176658630371</t>
+    <t xml:space="preserve">12.9557876586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0176649093628</t>
   </si>
   <si>
     <t xml:space="preserve">12.9867267608643</t>
@@ -2384,25 +2384,25 @@
     <t xml:space="preserve">13.3579950332642</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4972229003906</t>
+    <t xml:space="preserve">13.4972238540649</t>
   </si>
   <si>
     <t xml:space="preserve">13.4198741912842</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5745706558228</t>
+    <t xml:space="preserve">13.5745697021484</t>
   </si>
   <si>
     <t xml:space="preserve">14.2397623062134</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4486036300659</t>
+    <t xml:space="preserve">14.4486026763916</t>
   </si>
   <si>
     <t xml:space="preserve">14.5414190292358</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6961164474487</t>
+    <t xml:space="preserve">14.6961154937744</t>
   </si>
   <si>
     <t xml:space="preserve">14.1624145507812</t>
@@ -2414,16 +2414,16 @@
     <t xml:space="preserve">13.6983270645142</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6673889160156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1160049438477</t>
+    <t xml:space="preserve">13.6673879623413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.116005897522</t>
   </si>
   <si>
     <t xml:space="preserve">13.9149007797241</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8674383163452</t>
+    <t xml:space="preserve">13.8674392700195</t>
   </si>
   <si>
     <t xml:space="preserve">14.0776748657227</t>
@@ -2432,7 +2432,7 @@
     <t xml:space="preserve">13.7461490631104</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6006021499634</t>
+    <t xml:space="preserve">13.6006011962891</t>
   </si>
   <si>
     <t xml:space="preserve">13.7704076766968</t>
@@ -2453,25 +2453,25 @@
     <t xml:space="preserve">14.0695877075195</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1585350036621</t>
+    <t xml:space="preserve">14.1585340499878</t>
   </si>
   <si>
     <t xml:space="preserve">13.9806442260742</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7380638122559</t>
+    <t xml:space="preserve">13.7380628585815</t>
   </si>
   <si>
     <t xml:space="preserve">13.6895484924316</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5359144210815</t>
+    <t xml:space="preserve">13.5359134674072</t>
   </si>
   <si>
     <t xml:space="preserve">13.4065380096436</t>
   </si>
   <si>
-    <t xml:space="preserve">13.560173034668</t>
+    <t xml:space="preserve">13.5601720809937</t>
   </si>
   <si>
     <t xml:space="preserve">13.9159545898438</t>
@@ -2489,7 +2489,7 @@
     <t xml:space="preserve">13.3903656005859</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1801309585571</t>
+    <t xml:space="preserve">13.1801319122314</t>
   </si>
   <si>
     <t xml:space="preserve">13.3580226898193</t>
@@ -2501,7 +2501,7 @@
     <t xml:space="preserve">13.8270092010498</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0615015029907</t>
+    <t xml:space="preserve">14.061502456665</t>
   </si>
   <si>
     <t xml:space="preserve">14.279824256897</t>
@@ -2522,19 +2522,19 @@
     <t xml:space="preserve">14.4981451034546</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4658002853394</t>
+    <t xml:space="preserve">14.4658012390137</t>
   </si>
   <si>
     <t xml:space="preserve">14.5304880142212</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7245512008667</t>
+    <t xml:space="preserve">14.7245502471924</t>
   </si>
   <si>
     <t xml:space="preserve">14.4253721237183</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3283386230469</t>
+    <t xml:space="preserve">14.3283395767212</t>
   </si>
   <si>
     <t xml:space="preserve">14.0534162521362</t>
@@ -2543,25 +2543,25 @@
     <t xml:space="preserve">14.2555656433105</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2313079833984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8916969299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0938453674316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3525972366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.207049369812</t>
+    <t xml:space="preserve">14.2313089370728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.891697883606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.093846321106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3525981903076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2070503234863</t>
   </si>
   <si>
     <t xml:space="preserve">13.9240398406982</t>
   </si>
   <si>
-    <t xml:space="preserve">14.263650894165</t>
+    <t xml:space="preserve">14.2636499404907</t>
   </si>
   <si>
     <t xml:space="preserve">14.1019334793091</t>
@@ -2570,16 +2570,16 @@
     <t xml:space="preserve">14.4334564208984</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1989631652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1100177764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4900588989258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5709199905396</t>
+    <t xml:space="preserve">14.1989641189575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1100196838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4900598526001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5709190368652</t>
   </si>
   <si>
     <t xml:space="preserve">14.6032619476318</t>
@@ -2588,13 +2588,13 @@
     <t xml:space="preserve">14.2232227325439</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9887275695801</t>
+    <t xml:space="preserve">13.9887285232544</t>
   </si>
   <si>
     <t xml:space="preserve">14.1827926635742</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3768558502197</t>
+    <t xml:space="preserve">14.376856803894</t>
   </si>
   <si>
     <t xml:space="preserve">14.6517782211304</t>
@@ -2606,19 +2606,19 @@
     <t xml:space="preserve">14.5547456741333</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7326374053955</t>
+    <t xml:space="preserve">14.7326383590698</t>
   </si>
   <si>
     <t xml:space="preserve">14.5870914459229</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5062313079834</t>
+    <t xml:space="preserve">14.5062303543091</t>
   </si>
   <si>
     <t xml:space="preserve">14.4819717407227</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6760349273682</t>
+    <t xml:space="preserve">14.6760358810425</t>
   </si>
   <si>
     <t xml:space="preserve">14.7002935409546</t>
@@ -2630,28 +2630,28 @@
     <t xml:space="preserve">14.8458414077759</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8377571105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4577140808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3364248275757</t>
+    <t xml:space="preserve">14.8377552032471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4577131271362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3364238739014</t>
   </si>
   <si>
     <t xml:space="preserve">13.9321269989014</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8836107254028</t>
+    <t xml:space="preserve">13.8836116790771</t>
   </si>
   <si>
     <t xml:space="preserve">13.9078702926636</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9968128204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7784938812256</t>
+    <t xml:space="preserve">13.9968137741089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7784929275513</t>
   </si>
   <si>
     <t xml:space="preserve">14.4172859191895</t>
@@ -2663,28 +2663,28 @@
     <t xml:space="preserve">14.4415445327759</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2151355743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1181020736694</t>
+    <t xml:space="preserve">14.2151346206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1181030273438</t>
   </si>
   <si>
     <t xml:space="preserve">14.1423616409302</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6679496765137</t>
+    <t xml:space="preserve">14.667950630188</t>
   </si>
   <si>
     <t xml:space="preserve">14.2717380523682</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6491174697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4873991012573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4227123260498</t>
+    <t xml:space="preserve">13.6491165161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.487398147583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4227113723755</t>
   </si>
   <si>
     <t xml:space="preserve">13.4469680786133</t>
@@ -2693,13 +2693,13 @@
     <t xml:space="preserve">13.3499374389648</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1720457077026</t>
+    <t xml:space="preserve">13.172046661377</t>
   </si>
   <si>
     <t xml:space="preserve">13.1882181167603</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2124767303467</t>
+    <t xml:space="preserve">13.2124757766724</t>
   </si>
   <si>
     <t xml:space="preserve">13.2771635055542</t>
@@ -2711,10 +2711,10 @@
     <t xml:space="preserve">13.5278272628784</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7542352676392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9402122497559</t>
+    <t xml:space="preserve">13.7542343139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9402132034302</t>
   </si>
   <si>
     <t xml:space="preserve">14.0372457504272</t>
@@ -2726,7 +2726,7 @@
     <t xml:space="preserve">13.7946643829346</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4388837814331</t>
+    <t xml:space="preserve">13.4388828277588</t>
   </si>
   <si>
     <t xml:space="preserve">13.4712266921997</t>
@@ -2735,25 +2735,25 @@
     <t xml:space="preserve">13.5197420120239</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4550542831421</t>
+    <t xml:space="preserve">13.4550533294678</t>
   </si>
   <si>
     <t xml:space="preserve">13.2205619812012</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3661098480225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.341851234436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8108386993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7057199478149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9644708633423</t>
+    <t xml:space="preserve">13.3661088943481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3418502807617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8108367919922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7057189941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9644718170166</t>
   </si>
   <si>
     <t xml:space="preserve">13.8997831344604</t>
@@ -2762,7 +2762,7 @@
     <t xml:space="preserve">13.5844287872314</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3095073699951</t>
+    <t xml:space="preserve">13.3095064163208</t>
   </si>
   <si>
     <t xml:space="preserve">13.3175926208496</t>
@@ -2789,25 +2789,25 @@
     <t xml:space="preserve">14.3202533721924</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6113481521606</t>
+    <t xml:space="preserve">14.611349105835</t>
   </si>
   <si>
     <t xml:space="preserve">14.797324180603</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0399045944214</t>
+    <t xml:space="preserve">15.0399055480957</t>
   </si>
   <si>
     <t xml:space="preserve">15.0803346633911</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2339677810669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2097091674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0722465515137</t>
+    <t xml:space="preserve">15.2339687347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2097101211548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0722484588623</t>
   </si>
   <si>
     <t xml:space="preserve">14.9024429321289</t>
@@ -2816,28 +2816,28 @@
     <t xml:space="preserve">14.9186153411865</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0641613006592</t>
+    <t xml:space="preserve">15.0641622543335</t>
   </si>
   <si>
     <t xml:space="preserve">15.2258825302124</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6544389724731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8242444992065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4927177429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.314826965332</t>
+    <t xml:space="preserve">15.6544370651245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8242416381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4927186965942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3148279190063</t>
   </si>
   <si>
     <t xml:space="preserve">15.4522895812988</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4442043304443</t>
+    <t xml:space="preserve">15.44420337677</t>
   </si>
   <si>
     <t xml:space="preserve">15.3633432388306</t>
@@ -2846,19 +2846,19 @@
     <t xml:space="preserve">15.201623916626</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3795166015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3229160308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2501401901245</t>
+    <t xml:space="preserve">15.3795156478882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3229141235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2501392364502</t>
   </si>
   <si>
     <t xml:space="preserve">15.2824840545654</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2743988037109</t>
+    <t xml:space="preserve">15.2743978500366</t>
   </si>
   <si>
     <t xml:space="preserve">15.3390846252441</t>
@@ -2867,49 +2867,49 @@
     <t xml:space="preserve">15.5250635147095</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6948671340942</t>
+    <t xml:space="preserve">15.6948680877686</t>
   </si>
   <si>
     <t xml:space="preserve">15.9051036834717</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7838153839111</t>
+    <t xml:space="preserve">15.7838144302368</t>
   </si>
   <si>
     <t xml:space="preserve">15.7272109985352</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7999877929688</t>
+    <t xml:space="preserve">15.7999849319458</t>
   </si>
   <si>
     <t xml:space="preserve">15.8808450698853</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9131889343262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7757291793823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5412359237671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5574073791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6706085205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7595567703247</t>
+    <t xml:space="preserve">15.9131898880005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7757263183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5412340164185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5574064254761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6706094741821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7595558166504</t>
   </si>
   <si>
     <t xml:space="preserve">15.7029523849487</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6220951080322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8565902709961</t>
+    <t xml:space="preserve">15.6220941543579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8565883636475</t>
   </si>
   <si>
     <t xml:space="preserve">16.1315116882324</t>
@@ -2918,19 +2918,19 @@
     <t xml:space="preserve">16.5924110412598</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5438957214355</t>
+    <t xml:space="preserve">16.5438938140869</t>
   </si>
   <si>
     <t xml:space="preserve">16.34983253479</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4953804016113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.657096862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8188190460205</t>
+    <t xml:space="preserve">16.4953784942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6570987701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8188171386719</t>
   </si>
   <si>
     <t xml:space="preserve">16.7217864990234</t>
@@ -2939,7 +2939,7 @@
     <t xml:space="preserve">16.6247539520264</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7379608154297</t>
+    <t xml:space="preserve">16.7379589080811</t>
   </si>
   <si>
     <t xml:space="preserve">16.9320220947266</t>
@@ -2954,7 +2954,7 @@
     <t xml:space="preserve">17.2231178283691</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0214805603027</t>
+    <t xml:space="preserve">17.0214786529541</t>
   </si>
   <si>
     <t xml:space="preserve">16.8030395507812</t>
@@ -2963,19 +2963,19 @@
     <t xml:space="preserve">16.5846004486084</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5173892974854</t>
+    <t xml:space="preserve">16.5173873901367</t>
   </si>
   <si>
     <t xml:space="preserve">16.609806060791</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4165725708008</t>
+    <t xml:space="preserve">16.4165706634521</t>
   </si>
   <si>
     <t xml:space="preserve">16.3745632171631</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2821445465088</t>
+    <t xml:space="preserve">16.2821464538574</t>
   </si>
   <si>
     <t xml:space="preserve">16.3829650878906</t>
@@ -2984,10 +2984,10 @@
     <t xml:space="preserve">16.4501781463623</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5005855560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8534507751465</t>
+    <t xml:space="preserve">16.5005874633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8534488677979</t>
   </si>
   <si>
     <t xml:space="preserve">16.3241558074951</t>
@@ -2996,7 +2996,7 @@
     <t xml:space="preserve">16.3073501586914</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4417762756348</t>
+    <t xml:space="preserve">16.4417743682861</t>
   </si>
   <si>
     <t xml:space="preserve">16.4585781097412</t>
@@ -3059,13 +3059,13 @@
     <t xml:space="preserve">17.6936016082764</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3407363891602</t>
+    <t xml:space="preserve">17.3407382965088</t>
   </si>
   <si>
     <t xml:space="preserve">16.9878730773926</t>
   </si>
   <si>
-    <t xml:space="preserve">16.819845199585</t>
+    <t xml:space="preserve">16.8198432922363</t>
   </si>
   <si>
     <t xml:space="preserve">17.1727085113525</t>
@@ -3083,10 +3083,10 @@
     <t xml:space="preserve">17.0886917114258</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8366470336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7946395874023</t>
+    <t xml:space="preserve">16.83664894104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7946376800537</t>
   </si>
   <si>
     <t xml:space="preserve">16.7274284362793</t>
@@ -3104,28 +3104,28 @@
     <t xml:space="preserve">16.6014060974121</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1141147613525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8116598129272</t>
+    <t xml:space="preserve">16.1141166687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8116607666016</t>
   </si>
   <si>
     <t xml:space="preserve">15.6100244522095</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4924039840698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6772365570068</t>
+    <t xml:space="preserve">15.4924049377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6772356033325</t>
   </si>
   <si>
     <t xml:space="preserve">15.6856374740601</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6604318618774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4335927963257</t>
+    <t xml:space="preserve">15.6604328155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.43359375</t>
   </si>
   <si>
     <t xml:space="preserve">15.5848188400269</t>
@@ -3134,7 +3134,7 @@
     <t xml:space="preserve">15.500804901123</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5932207107544</t>
+    <t xml:space="preserve">15.5932216644287</t>
   </si>
   <si>
     <t xml:space="preserve">15.5428133010864</t>
@@ -3143,10 +3143,10 @@
     <t xml:space="preserve">15.803258895874</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3579816818237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4755992889404</t>
+    <t xml:space="preserve">15.3579807281494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4756002426147</t>
   </si>
   <si>
     <t xml:space="preserve">15.8200635910034</t>
@@ -3155,7 +3155,7 @@
     <t xml:space="preserve">15.9460868835449</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7948589324951</t>
+    <t xml:space="preserve">15.7948579788208</t>
   </si>
   <si>
     <t xml:space="preserve">16.0048942565918</t>
@@ -3167,10 +3167,10 @@
     <t xml:space="preserve">15.7612524032593</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7360467910767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.055305480957</t>
+    <t xml:space="preserve">15.7360458374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0553073883057</t>
   </si>
   <si>
     <t xml:space="preserve">15.9628877639771</t>
@@ -3182,22 +3182,22 @@
     <t xml:space="preserve">16.2569427490234</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8284645080566</t>
+    <t xml:space="preserve">15.828465461731</t>
   </si>
   <si>
     <t xml:space="preserve">15.77805519104</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8536701202393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5344095230103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3915853500366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2907667160034</t>
+    <t xml:space="preserve">15.8536691665649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5344104766846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3915843963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2907676696777</t>
   </si>
   <si>
     <t xml:space="preserve">15.34117603302</t>
@@ -3212,7 +3212,7 @@
     <t xml:space="preserve">15.0219173431396</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2571611404419</t>
+    <t xml:space="preserve">15.2571620941162</t>
   </si>
   <si>
     <t xml:space="preserve">15.0135173797607</t>
@@ -3221,16 +3221,16 @@
     <t xml:space="preserve">14.9799108505249</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3831834793091</t>
+    <t xml:space="preserve">15.3831853866577</t>
   </si>
   <si>
     <t xml:space="preserve">15.2991676330566</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2319574356079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1983509063721</t>
+    <t xml:space="preserve">15.2319555282593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1983499526978</t>
   </si>
   <si>
     <t xml:space="preserve">15.2235546112061</t>
@@ -3239,19 +3239,19 @@
     <t xml:space="preserve">15.3075704574585</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5092077255249</t>
+    <t xml:space="preserve">15.5092058181763</t>
   </si>
   <si>
     <t xml:space="preserve">15.618426322937</t>
   </si>
   <si>
-    <t xml:space="preserve">15.24875831604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0471220016479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8874931335449</t>
+    <t xml:space="preserve">15.2487592697144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0471229553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8874940872192</t>
   </si>
   <si>
     <t xml:space="preserve">14.8202810287476</t>
@@ -3284,10 +3284,10 @@
     <t xml:space="preserve">14.4842205047607</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6186447143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0387210845947</t>
+    <t xml:space="preserve">14.6186437606812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.038722038269</t>
   </si>
   <si>
     <t xml:space="preserve">14.9967136383057</t>
@@ -3305,16 +3305,16 @@
     <t xml:space="preserve">13.912917137146</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1397590637207</t>
+    <t xml:space="preserve">14.1397581100464</t>
   </si>
   <si>
     <t xml:space="preserve">14.1313571929932</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8625078201294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0389404296875</t>
+    <t xml:space="preserve">13.8625087738037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0389394760132</t>
   </si>
   <si>
     <t xml:space="preserve">13.9381217956543</t>
@@ -3335,19 +3335,19 @@
     <t xml:space="preserve">14.2069702148438</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2993879318237</t>
+    <t xml:space="preserve">14.299388885498</t>
   </si>
   <si>
     <t xml:space="preserve">13.8120994567871</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6272659301758</t>
+    <t xml:space="preserve">13.6272649765015</t>
   </si>
   <si>
     <t xml:space="preserve">13.4592351913452</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2996072769165</t>
+    <t xml:space="preserve">13.2996063232422</t>
   </si>
   <si>
     <t xml:space="preserve">13.1903867721558</t>
@@ -3359,7 +3359,7 @@
     <t xml:space="preserve">13.9801292419434</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7364854812622</t>
+    <t xml:space="preserve">13.7364864349365</t>
   </si>
   <si>
     <t xml:space="preserve">13.4172286987305</t>
@@ -3368,7 +3368,7 @@
     <t xml:space="preserve">13.2239933013916</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5768575668335</t>
+    <t xml:space="preserve">13.5768566131592</t>
   </si>
   <si>
     <t xml:space="preserve">13.5096445083618</t>
@@ -3389,7 +3389,7 @@
     <t xml:space="preserve">14.0053339004517</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0137357711792</t>
+    <t xml:space="preserve">14.0137367248535</t>
   </si>
   <si>
     <t xml:space="preserve">14.0641450881958</t>
@@ -3401,19 +3401,19 @@
     <t xml:space="preserve">14.3581981658936</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6606531143188</t>
+    <t xml:space="preserve">14.6606540679932</t>
   </si>
   <si>
     <t xml:space="preserve">14.5262298583984</t>
   </si>
   <si>
-    <t xml:space="preserve">14.190167427063</t>
+    <t xml:space="preserve">14.1901664733887</t>
   </si>
   <si>
     <t xml:space="preserve">14.2321758270264</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0473413467407</t>
+    <t xml:space="preserve">14.047342300415</t>
   </si>
   <si>
     <t xml:space="preserve">13.9213190078735</t>
@@ -3422,7 +3422,7 @@
     <t xml:space="preserve">13.9969329833984</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8457050323486</t>
+    <t xml:space="preserve">13.8457059860229</t>
   </si>
   <si>
     <t xml:space="preserve">13.635666847229</t>
@@ -3440,7 +3440,7 @@
     <t xml:space="preserve">13.3416147232056</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4844388961792</t>
+    <t xml:space="preserve">13.4844398498535</t>
   </si>
   <si>
     <t xml:space="preserve">13.1063718795776</t>
@@ -3452,19 +3452,19 @@
     <t xml:space="preserve">13.3920230865479</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5348491668701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4004249572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5264492034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7448883056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5852575302124</t>
+    <t xml:space="preserve">13.5348501205444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4004259109497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5264482498169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7448873519897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5852584838867</t>
   </si>
   <si>
     <t xml:space="preserve">14.0893497467041</t>
@@ -3476,7 +3476,7 @@
     <t xml:space="preserve">13.9465246200562</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8205013275146</t>
+    <t xml:space="preserve">13.820502281189</t>
   </si>
   <si>
     <t xml:space="preserve">13.8961153030396</t>
@@ -3485,7 +3485,7 @@
     <t xml:space="preserve">13.2744026184082</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0643644332886</t>
+    <t xml:space="preserve">13.0643634796143</t>
   </si>
   <si>
     <t xml:space="preserve">12.9131364822388</t>
@@ -4602,6 +4602,9 @@
   </si>
   <si>
     <t xml:space="preserve">15.4700002670288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1899995803833</t>
   </si>
 </sst>
 </file>
@@ -61259,7 +61262,7 @@
     </row>
     <row r="2167">
       <c r="A2167" s="1" t="n">
-        <v>45478.6494444444</v>
+        <v>45478.2916666667</v>
       </c>
       <c r="B2167" t="n">
         <v>131226</v>
@@ -61280,6 +61283,32 @@
         <v>1529</v>
       </c>
       <c r="H2167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" s="1" t="n">
+        <v>45481.6494212963</v>
+      </c>
+      <c r="B2168" t="n">
+        <v>134773</v>
+      </c>
+      <c r="C2168" t="n">
+        <v>15.5200004577637</v>
+      </c>
+      <c r="D2168" t="n">
+        <v>15.1599998474121</v>
+      </c>
+      <c r="E2168" t="n">
+        <v>15.4799995422363</v>
+      </c>
+      <c r="F2168" t="n">
+        <v>15.1899995803833</v>
+      </c>
+      <c r="G2168" t="s">
+        <v>1530</v>
+      </c>
+      <c r="H2168" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ACE.MI.xlsx
+++ b/data/ACE.MI.xlsx
@@ -38,28 +38,28 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99844741821289</t>
+    <t xml:space="preserve">8.99844646453857</t>
   </si>
   <si>
     <t xml:space="preserve">ACE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01142406463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68703842163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82976627349854</t>
+    <t xml:space="preserve">9.01142311096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68703746795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82976722717285</t>
   </si>
   <si>
     <t xml:space="preserve">8.8751802444458</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01791000366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21254062652588</t>
+    <t xml:space="preserve">9.01790904998779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21253967285156</t>
   </si>
   <si>
     <t xml:space="preserve">9.08927631378174</t>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">8.69352436065674</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73893928527832</t>
+    <t xml:space="preserve">8.738938331604</t>
   </si>
   <si>
     <t xml:space="preserve">8.5897216796875</t>
@@ -77,25 +77,25 @@
     <t xml:space="preserve">8.28479957580566</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34318923950195</t>
+    <t xml:space="preserve">8.34319019317627</t>
   </si>
   <si>
     <t xml:space="preserve">8.5183572769165</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53133296966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66108798980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77786445617676</t>
+    <t xml:space="preserve">8.53133106231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6610860824585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77786540985107</t>
   </si>
   <si>
     <t xml:space="preserve">8.88815593719482</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90113162994385</t>
+    <t xml:space="preserve">8.90113067626953</t>
   </si>
   <si>
     <t xml:space="preserve">8.78435230255127</t>
@@ -110,7 +110,7 @@
     <t xml:space="preserve">8.36265277862549</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94743824005127</t>
+    <t xml:space="preserve">7.94743919372559</t>
   </si>
   <si>
     <t xml:space="preserve">7.80470943450928</t>
@@ -119,22 +119,22 @@
     <t xml:space="preserve">7.65549230575562</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81119632720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02529144287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98636531829834</t>
+    <t xml:space="preserve">7.81119680404663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02529239654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98636627197266</t>
   </si>
   <si>
     <t xml:space="preserve">8.01231575012207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00582981109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79173374176025</t>
+    <t xml:space="preserve">8.00582790374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79173469543457</t>
   </si>
   <si>
     <t xml:space="preserve">7.95392560958862</t>
@@ -143,64 +143,64 @@
     <t xml:space="preserve">8.0382661819458</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90202379226685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04475402832031</t>
+    <t xml:space="preserve">7.90202474594116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04475498199463</t>
   </si>
   <si>
     <t xml:space="preserve">7.96041393280029</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09665584564209</t>
+    <t xml:space="preserve">8.09665679931641</t>
   </si>
   <si>
     <t xml:space="preserve">7.99934005737305</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92797517776489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88256168365479</t>
+    <t xml:space="preserve">7.92797708511353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88256072998047</t>
   </si>
   <si>
     <t xml:space="preserve">8.3886022567749</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77137756347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08278656005859</t>
+    <t xml:space="preserve">8.77137851715088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08278751373291</t>
   </si>
   <si>
     <t xml:space="preserve">9.18010234832764</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17361450195312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24497985839844</t>
+    <t xml:space="preserve">9.17361545562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24498081207275</t>
   </si>
   <si>
     <t xml:space="preserve">9.19307899475098</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86220550537109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81030368804932</t>
+    <t xml:space="preserve">8.86220455169678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.810302734375</t>
   </si>
   <si>
     <t xml:space="preserve">8.72596263885498</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84922981262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89464282989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98547172546387</t>
+    <t xml:space="preserve">8.84923076629639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89464378356934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98547267913818</t>
   </si>
   <si>
     <t xml:space="preserve">8.82327938079834</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">8.79732704162598</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73245048522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86869239807129</t>
+    <t xml:space="preserve">8.73245143890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86869335174561</t>
   </si>
   <si>
     <t xml:space="preserve">8.62864780426025</t>
@@ -221,43 +221,43 @@
     <t xml:space="preserve">8.27182388305664</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23938465118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09016799926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15504550933838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21992206573486</t>
+    <t xml:space="preserve">8.2393856048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09016895294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15504455566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21992111206055</t>
   </si>
   <si>
     <t xml:space="preserve">8.26533603668213</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33021450042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42104053497314</t>
+    <t xml:space="preserve">8.33021354675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42104148864746</t>
   </si>
   <si>
     <t xml:space="preserve">8.36913967132568</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33670234680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23289775848389</t>
+    <t xml:space="preserve">8.33670139312744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23289680480957</t>
   </si>
   <si>
     <t xml:space="preserve">8.14206981658936</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46645450592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49240684509277</t>
+    <t xml:space="preserve">8.46645545959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49240589141846</t>
   </si>
   <si>
     <t xml:space="preserve">8.55728244781494</t>
@@ -269,13 +269,13 @@
     <t xml:space="preserve">8.25236129760742</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19397163391113</t>
+    <t xml:space="preserve">8.19397258758545</t>
   </si>
   <si>
     <t xml:space="preserve">8.41455364227295</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38211631774902</t>
+    <t xml:space="preserve">8.38211441040039</t>
   </si>
   <si>
     <t xml:space="preserve">8.47294330596924</t>
@@ -287,10 +287,10 @@
     <t xml:space="preserve">8.61567211151123</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56377124786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43401718139648</t>
+    <t xml:space="preserve">8.56377029418945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43401622772217</t>
   </si>
   <si>
     <t xml:space="preserve">8.12260627746582</t>
@@ -302,46 +302,46 @@
     <t xml:space="preserve">7.91499948501587</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76578283309937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52573919296265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17540264129639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29218006134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.298668384552</t>
+    <t xml:space="preserve">7.76578426361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52573823928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17540216445923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29218101501465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29866886138916</t>
   </si>
   <si>
     <t xml:space="preserve">7.45437335968018</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42045831680298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37976121902466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47472190856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38654518127441</t>
+    <t xml:space="preserve">7.42045879364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37976217269897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47472095489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38654470443726</t>
   </si>
   <si>
     <t xml:space="preserve">6.99313879013062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67434358596802</t>
+    <t xml:space="preserve">6.67434310913086</t>
   </si>
   <si>
     <t xml:space="preserve">6.79643487930298</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91852569580078</t>
+    <t xml:space="preserve">6.91852617263794</t>
   </si>
   <si>
     <t xml:space="preserve">7.4136757850647</t>
@@ -350,49 +350,49 @@
     <t xml:space="preserve">7.32549858093262</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36619472503662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25766944885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10166311264038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06774997711182</t>
+    <t xml:space="preserve">7.36619567871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2576699256897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1016640663147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06774950027466</t>
   </si>
   <si>
     <t xml:space="preserve">7.14236116409302</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18305921554565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05418252944946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23732233047485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25088691711426</t>
+    <t xml:space="preserve">7.18305826187134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0541844367981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23732137680054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25088596343994</t>
   </si>
   <si>
     <t xml:space="preserve">7.21697330474854</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48828792572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48150444030762</t>
+    <t xml:space="preserve">7.48828744888306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48150396347046</t>
   </si>
   <si>
     <t xml:space="preserve">7.93595695495605</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90882396697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44467163085938</t>
+    <t xml:space="preserve">7.9088249206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44467258453369</t>
   </si>
   <si>
     <t xml:space="preserve">8.41753959655762</t>
@@ -401,58 +401,58 @@
     <t xml:space="preserve">8.38362693786621</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54641532897949</t>
+    <t xml:space="preserve">8.54641628265381</t>
   </si>
   <si>
     <t xml:space="preserve">8.55998134613037</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45145511627197</t>
+    <t xml:space="preserve">8.45145606994629</t>
   </si>
   <si>
     <t xml:space="preserve">8.43110656738281</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47858715057373</t>
+    <t xml:space="preserve">8.4785852432251</t>
   </si>
   <si>
     <t xml:space="preserve">8.32258033752441</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19370651245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24118614196777</t>
+    <t xml:space="preserve">8.19370460510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24118518829346</t>
   </si>
   <si>
     <t xml:space="preserve">8.2750997543335</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12587738037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1190938949585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10552787780762</t>
+    <t xml:space="preserve">8.12587833404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11909580230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10552883148193</t>
   </si>
   <si>
     <t xml:space="preserve">8.13265991210938</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07839775085449</t>
+    <t xml:space="preserve">8.07839679718018</t>
   </si>
   <si>
     <t xml:space="preserve">7.92917251586914</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01056861877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0648307800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18014144897461</t>
+    <t xml:space="preserve">8.01056957244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06483173370361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18014049530029</t>
   </si>
   <si>
     <t xml:space="preserve">8.15300846099854</t>
@@ -464,22 +464,22 @@
     <t xml:space="preserve">8.08518028259277</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05804920196533</t>
+    <t xml:space="preserve">8.05804824829102</t>
   </si>
   <si>
     <t xml:space="preserve">7.85456275939941</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71890497207642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7392520904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82064914703369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66464328765869</t>
+    <t xml:space="preserve">7.71890592575073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73925399780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82064819335938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66464233398438</t>
   </si>
   <si>
     <t xml:space="preserve">7.59003019332886</t>
@@ -488,25 +488,25 @@
     <t xml:space="preserve">7.56289958953857</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5154185295105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53576707839966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55611610412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52220106124878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50185394287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49507141113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52898454666138</t>
+    <t xml:space="preserve">7.51541805267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5357666015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55611658096313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52220249176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50185346603394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4950704574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52898550033569</t>
   </si>
   <si>
     <t xml:space="preserve">7.50863599777222</t>
@@ -515,22 +515,22 @@
     <t xml:space="preserve">7.40011072158813</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29158401489258</t>
+    <t xml:space="preserve">7.29158449172974</t>
   </si>
   <si>
     <t xml:space="preserve">7.37297868728638</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31193161010742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5696816444397</t>
+    <t xml:space="preserve">7.31193208694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56968259811401</t>
   </si>
   <si>
     <t xml:space="preserve">7.69177389144897</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75960159301758</t>
+    <t xml:space="preserve">7.75960063934326</t>
   </si>
   <si>
     <t xml:space="preserve">7.90204238891602</t>
@@ -539,22 +539,22 @@
     <t xml:space="preserve">7.87491178512573</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99700164794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94952154159546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96987199783325</t>
+    <t xml:space="preserve">7.99700260162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94952249526978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96987104415894</t>
   </si>
   <si>
     <t xml:space="preserve">8.00378608703613</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84099674224854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73246955871582</t>
+    <t xml:space="preserve">7.84099769592285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73247146606445</t>
   </si>
   <si>
     <t xml:space="preserve">7.80708360671997</t>
@@ -563,85 +563,85 @@
     <t xml:space="preserve">7.71212244033813</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64429330825806</t>
+    <t xml:space="preserve">7.64429378509521</t>
   </si>
   <si>
     <t xml:space="preserve">7.16271018981934</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87782955169678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89817762374878</t>
+    <t xml:space="preserve">6.87783002853394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89817810058594</t>
   </si>
   <si>
     <t xml:space="preserve">6.85069894790649</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78286933898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73538827896118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77947807312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83034896850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95922327041626</t>
+    <t xml:space="preserve">6.7828688621521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73538875579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77947759628296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83034944534302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95922374725342</t>
   </si>
   <si>
     <t xml:space="preserve">6.8371319770813</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90496015548706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82356739044189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72860622406006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18984222412109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4340238571167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59681415557861</t>
+    <t xml:space="preserve">6.90496063232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82356643676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72860670089722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18984127044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43402481079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59681367874146</t>
   </si>
   <si>
     <t xml:space="preserve">7.83421421051025</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7799506187439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7731671333313</t>
+    <t xml:space="preserve">7.77994966506958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77316808700562</t>
   </si>
   <si>
     <t xml:space="preserve">7.72568798065186</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86812925338745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86134576797485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02413463592529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03770065307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07161426544189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26153373718262</t>
+    <t xml:space="preserve">7.86812829971313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86134481430054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02413558959961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03769969940186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07161331176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26153469085693</t>
   </si>
   <si>
     <t xml:space="preserve">8.15979194641113</t>
@@ -650,46 +650,46 @@
     <t xml:space="preserve">8.20727157592773</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68498992919922</t>
+    <t xml:space="preserve">7.68499135971069</t>
   </si>
   <si>
     <t xml:space="preserve">7.74603652954102</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81386566162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75282001495361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09874439239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04448318481445</t>
+    <t xml:space="preserve">7.81386470794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7528190612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09874534606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04448413848877</t>
   </si>
   <si>
     <t xml:space="preserve">7.97665452957153</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99022006988525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09196281433105</t>
+    <t xml:space="preserve">7.99021911621094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09196186065674</t>
   </si>
   <si>
     <t xml:space="preserve">8.13944244384766</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20048904418945</t>
+    <t xml:space="preserve">8.20048809051514</t>
   </si>
   <si>
     <t xml:space="preserve">8.11231231689453</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98343753814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34292984008789</t>
+    <t xml:space="preserve">7.98343706130981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34292888641357</t>
   </si>
   <si>
     <t xml:space="preserve">8.22083759307861</t>
@@ -698,7 +698,7 @@
     <t xml:space="preserve">8.29544925689697</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41075706481934</t>
+    <t xml:space="preserve">8.41075801849365</t>
   </si>
   <si>
     <t xml:space="preserve">8.47180271148682</t>
@@ -707,7 +707,7 @@
     <t xml:space="preserve">8.51250076293945</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5871114730835</t>
+    <t xml:space="preserve">8.58711242675781</t>
   </si>
   <si>
     <t xml:space="preserve">8.67528915405273</t>
@@ -716,76 +716,76 @@
     <t xml:space="preserve">8.62780952453613</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61424255371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60746097564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65494060516357</t>
+    <t xml:space="preserve">8.61424350738525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60746002197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65494155883789</t>
   </si>
   <si>
     <t xml:space="preserve">8.85842704772949</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85164356231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82451248168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81772994995117</t>
+    <t xml:space="preserve">8.85164451599121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82451438903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81772899627686</t>
   </si>
   <si>
     <t xml:space="preserve">8.74311923980713</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95338821411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91947364807129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78381443023682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86521053314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00764942169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01443195343018</t>
+    <t xml:space="preserve">8.95338726043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91947174072266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78381538391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86520957946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00765037536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01443290710449</t>
   </si>
   <si>
     <t xml:space="preserve">9.02121543884277</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96016979217529</t>
+    <t xml:space="preserve">8.96017074584961</t>
   </si>
   <si>
     <t xml:space="preserve">9.21791934967041</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08226299285889</t>
+    <t xml:space="preserve">9.08226203918457</t>
   </si>
   <si>
     <t xml:space="preserve">9.22470283508301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25183391571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34001064300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55027866363525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60454273223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42140674591064</t>
+    <t xml:space="preserve">9.25183486938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34001159667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55027961730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6045446395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42140579223633</t>
   </si>
   <si>
     <t xml:space="preserve">9.36714172363281</t>
@@ -797,13 +797,13 @@
     <t xml:space="preserve">9.61132621765137</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43497085571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44853782653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63167381286621</t>
+    <t xml:space="preserve">9.43497276306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44853687286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63167285919189</t>
   </si>
   <si>
     <t xml:space="preserve">9.71306800842285</t>
@@ -812,13 +812,13 @@
     <t xml:space="preserve">9.74020004272461</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78089904785156</t>
+    <t xml:space="preserve">9.78089714050293</t>
   </si>
   <si>
     <t xml:space="preserve">9.87585830688477</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76054954528809</t>
+    <t xml:space="preserve">9.76054859161377</t>
   </si>
   <si>
     <t xml:space="preserve">9.86907482147217</t>
@@ -827,16 +827,16 @@
     <t xml:space="preserve">9.82159423828125</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85550785064697</t>
+    <t xml:space="preserve">9.85550880432129</t>
   </si>
   <si>
     <t xml:space="preserve">9.76733207702637</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94368743896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95047092437744</t>
+    <t xml:space="preserve">9.94368648529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95046901702881</t>
   </si>
   <si>
     <t xml:space="preserve">9.88263988494873</t>
@@ -851,10 +851,10 @@
     <t xml:space="preserve">9.79446220397949</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95746803283691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85116004943848</t>
+    <t xml:space="preserve">9.9574670791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85115909576416</t>
   </si>
   <si>
     <t xml:space="preserve">10.0425138473511</t>
@@ -866,7 +866,7 @@
     <t xml:space="preserve">9.88659572601318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92203140258789</t>
+    <t xml:space="preserve">9.92203235626221</t>
   </si>
   <si>
     <t xml:space="preserve">9.63854598999023</t>
@@ -875,7 +875,7 @@
     <t xml:space="preserve">9.51806449890137</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57476139068604</t>
+    <t xml:space="preserve">9.57476234436035</t>
   </si>
   <si>
     <t xml:space="preserve">9.40466976165771</t>
@@ -887,25 +887,25 @@
     <t xml:space="preserve">9.25583839416504</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35505962371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22040176391602</t>
+    <t xml:space="preserve">9.35505867004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22040367126465</t>
   </si>
   <si>
     <t xml:space="preserve">9.34797096252441</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4613676071167</t>
+    <t xml:space="preserve">9.46136569976807</t>
   </si>
   <si>
     <t xml:space="preserve">9.28418827056885</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46845245361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5038890838623</t>
+    <t xml:space="preserve">9.4684534072876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50388717651367</t>
   </si>
   <si>
     <t xml:space="preserve">9.52515029907227</t>
@@ -917,7 +917,7 @@
     <t xml:space="preserve">9.53223705291748</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54641246795654</t>
+    <t xml:space="preserve">9.54641151428223</t>
   </si>
   <si>
     <t xml:space="preserve">9.42593002319336</t>
@@ -926,16 +926,16 @@
     <t xml:space="preserve">9.49680137634277</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29127407073975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3408842086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31962299346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92274188995361</t>
+    <t xml:space="preserve">9.29127502441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34088516235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31962108612061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92273998260498</t>
   </si>
   <si>
     <t xml:space="preserve">8.98652648925781</t>
@@ -953,10 +953,10 @@
     <t xml:space="preserve">8.93691635131836</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83769512176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7243013381958</t>
+    <t xml:space="preserve">8.83769607543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72430229187012</t>
   </si>
   <si>
     <t xml:space="preserve">8.86604404449463</t>
@@ -968,7 +968,7 @@
     <t xml:space="preserve">8.80225944519043</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81643390655518</t>
+    <t xml:space="preserve">8.81643295288086</t>
   </si>
   <si>
     <t xml:space="preserve">8.77391147613525</t>
@@ -977,37 +977,37 @@
     <t xml:space="preserve">8.78099822998047</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71721458435059</t>
+    <t xml:space="preserve">8.71721363067627</t>
   </si>
   <si>
     <t xml:space="preserve">8.66760349273682</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65342903137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63216686248779</t>
+    <t xml:space="preserve">8.65342998504639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63216781616211</t>
   </si>
   <si>
     <t xml:space="preserve">8.57546997070312</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54712295532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5967321395874</t>
+    <t xml:space="preserve">8.54712200164795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59673309326172</t>
   </si>
   <si>
     <t xml:space="preserve">8.75973701477051</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68177700042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78808498382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22748947143555</t>
+    <t xml:space="preserve">8.68177890777588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7880859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22749042510986</t>
   </si>
   <si>
     <t xml:space="preserve">9.39049434661865</t>
@@ -1019,25 +1019,25 @@
     <t xml:space="preserve">9.0786600112915</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08574676513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09992122650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2133150100708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27001285552979</t>
+    <t xml:space="preserve">9.08574485778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09992027282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21331405639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27001190185547</t>
   </si>
   <si>
     <t xml:space="preserve">9.1495304107666</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15661907196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19913959503174</t>
+    <t xml:space="preserve">9.15661716461182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19914054870605</t>
   </si>
   <si>
     <t xml:space="preserve">9.29836177825928</t>
@@ -1046,7 +1046,7 @@
     <t xml:space="preserve">9.38340663909912</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32671070098877</t>
+    <t xml:space="preserve">9.32670974731445</t>
   </si>
   <si>
     <t xml:space="preserve">9.30544853210449</t>
@@ -1055,22 +1055,22 @@
     <t xml:space="preserve">9.61019611358643</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62437152862549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72359180450439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67398166656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80154991149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84407424926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98581600189209</t>
+    <t xml:space="preserve">9.62437057495117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72359085083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67397975921631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80155086517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84407329559326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98581695556641</t>
   </si>
   <si>
     <t xml:space="preserve">9.90785694122314</t>
@@ -1079,31 +1079,31 @@
     <t xml:space="preserve">9.8228120803833</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96455478668213</t>
+    <t xml:space="preserve">9.96455383300781</t>
   </si>
   <si>
     <t xml:space="preserve">9.93620586395264</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2976503372192</t>
+    <t xml:space="preserve">10.2976512908936</t>
   </si>
   <si>
     <t xml:space="preserve">10.326000213623</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3472604751587</t>
+    <t xml:space="preserve">10.3472623825073</t>
   </si>
   <si>
     <t xml:space="preserve">10.2905645370483</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2196941375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.198431968689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1559076309204</t>
+    <t xml:space="preserve">10.2196922302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1984310150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1559085845947</t>
   </si>
   <si>
     <t xml:space="preserve">10.028338432312</t>
@@ -1112,28 +1112,28 @@
     <t xml:space="preserve">10.1700830459595</t>
   </si>
   <si>
-    <t xml:space="preserve">10.12047290802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4323081970215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4110469818115</t>
+    <t xml:space="preserve">10.1204719543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4323072433472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4110450744629</t>
   </si>
   <si>
     <t xml:space="preserve">10.3756113052368</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4819173812866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4252214431763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.382698059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3614358901978</t>
+    <t xml:space="preserve">10.4819183349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.425220489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3826971054077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3614349365234</t>
   </si>
   <si>
     <t xml:space="preserve">10.7370557785034</t>
@@ -1145,10 +1145,10 @@
     <t xml:space="preserve">12.1048793792725</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0198316574097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0481815338135</t>
+    <t xml:space="preserve">12.019832611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0481805801392</t>
   </si>
   <si>
     <t xml:space="preserve">11.9843969345093</t>
@@ -1157,16 +1157,16 @@
     <t xml:space="preserve">11.9702224731445</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0340061187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8780899047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.587516784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.49538230896</t>
+    <t xml:space="preserve">12.0340051651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8780889511108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5875148773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4953832626343</t>
   </si>
   <si>
     <t xml:space="preserve">11.3819875717163</t>
@@ -1181,73 +1181,73 @@
     <t xml:space="preserve">11.0772399902344</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9354972839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0559787750244</t>
+    <t xml:space="preserve">10.9354963302612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0559778213501</t>
   </si>
   <si>
     <t xml:space="preserve">11.0347166061401</t>
   </si>
   <si>
-    <t xml:space="preserve">10.914234161377</t>
+    <t xml:space="preserve">10.9142351150513</t>
   </si>
   <si>
     <t xml:space="preserve">10.9567584991455</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1268501281738</t>
+    <t xml:space="preserve">11.1268491744995</t>
   </si>
   <si>
     <t xml:space="preserve">11.3252906799316</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4245128631592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5024700164795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3040294647217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2189826965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1197624206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1693716049194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3394651412964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4457721710205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.509557723999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5591669082642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.644214630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4386835098267</t>
+    <t xml:space="preserve">11.4245119094849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5024690628052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3040285110474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2189836502075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1197633743286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1693725585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3394641876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4457712173462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5095567703247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5591678619385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6442127227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.438684463501</t>
   </si>
   <si>
     <t xml:space="preserve">11.3465528488159</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2756805419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2331581115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0843267440796</t>
+    <t xml:space="preserve">11.2756795883179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2331571578979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0843286514282</t>
   </si>
   <si>
     <t xml:space="preserve">11.0276298522949</t>
@@ -1259,22 +1259,22 @@
     <t xml:space="preserve">10.8433628082275</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5669631958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3330869674683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6661853790283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3897857666016</t>
+    <t xml:space="preserve">10.5669641494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3330879211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6661834716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3897848129272</t>
   </si>
   <si>
     <t xml:space="preserve">10.5031795501709</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5244398117065</t>
+    <t xml:space="preserve">10.5244407653809</t>
   </si>
   <si>
     <t xml:space="preserve">10.5953121185303</t>
@@ -1292,7 +1292,7 @@
     <t xml:space="preserve">9.95038032531738</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87950801849365</t>
+    <t xml:space="preserve">9.87950992584229</t>
   </si>
   <si>
     <t xml:space="preserve">10.0921239852905</t>
@@ -1304,52 +1304,52 @@
     <t xml:space="preserve">10.1275596618652</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90077114105225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99999141693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78028869628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64563179016113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56058597564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6598072052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48971557617188</t>
+    <t xml:space="preserve">9.90077018737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99999046325684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78028774261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64563274383545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56058692932129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65980625152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48971462249756</t>
   </si>
   <si>
     <t xml:space="preserve">9.60310935974121</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76611423492432</t>
+    <t xml:space="preserve">9.76611328125</t>
   </si>
   <si>
     <t xml:space="preserve">9.70941734313965</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66689395904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58893394470215</t>
+    <t xml:space="preserve">9.66689491271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58893489837646</t>
   </si>
   <si>
     <t xml:space="preserve">9.73067855834961</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86533355712891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97872829437256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0708627700806</t>
+    <t xml:space="preserve">9.86533546447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97872924804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0708618164062</t>
   </si>
   <si>
     <t xml:space="preserve">10.2551279067993</t>
@@ -1358,7 +1358,7 @@
     <t xml:space="preserve">10.2622156143188</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2267808914185</t>
+    <t xml:space="preserve">10.2267799377441</t>
   </si>
   <si>
     <t xml:space="preserve">10.4181327819824</t>
@@ -1370,40 +1370,40 @@
     <t xml:space="preserve">10.2126054763794</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91494369506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1629953384399</t>
+    <t xml:space="preserve">9.91494560241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1629972457886</t>
   </si>
   <si>
     <t xml:space="preserve">9.73776531219482</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43301773071289</t>
+    <t xml:space="preserve">9.43301868438721</t>
   </si>
   <si>
     <t xml:space="preserve">9.20622730255127</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45427989959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82989883422852</t>
+    <t xml:space="preserve">9.45427894592285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8298978805542</t>
   </si>
   <si>
     <t xml:space="preserve">9.69353866577148</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72325038909912</t>
+    <t xml:space="preserve">9.72325134277344</t>
   </si>
   <si>
     <t xml:space="preserve">9.67125511169434</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5375509262085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5746898651123</t>
+    <t xml:space="preserve">9.53754901885986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57469081878662</t>
   </si>
   <si>
     <t xml:space="preserve">9.47812652587891</t>
@@ -1412,88 +1412,88 @@
     <t xml:space="preserve">9.49298191070557</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45584106445312</t>
+    <t xml:space="preserve">9.45584201812744</t>
   </si>
   <si>
     <t xml:space="preserve">9.41127395629883</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46327018737793</t>
+    <t xml:space="preserve">9.46326923370361</t>
   </si>
   <si>
     <t xml:space="preserve">9.44098567962646</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6192569732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70839500427246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8346700668335</t>
+    <t xml:space="preserve">9.61925792694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70839405059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83466911315918</t>
   </si>
   <si>
     <t xml:space="preserve">9.64154148101807</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53012180328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55240631103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65639877319336</t>
+    <t xml:space="preserve">9.53012275695801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55240726470947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65639686584473</t>
   </si>
   <si>
     <t xml:space="preserve">9.70096588134766</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54497814178467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60440254211426</t>
+    <t xml:space="preserve">9.54497909545898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60440349578857</t>
   </si>
   <si>
     <t xml:space="preserve">9.81981468200684</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87923812866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84952640533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0500822067261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.15407371521</t>
+    <t xml:space="preserve">9.87923717498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84952545166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0500812530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1540746688843</t>
   </si>
   <si>
     <t xml:space="preserve">10.0055141448975</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0649394989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1020784378052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1317901611328</t>
+    <t xml:space="preserve">10.0649385452271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1020793914795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1317911148071</t>
   </si>
   <si>
     <t xml:space="preserve">10.0203704833984</t>
   </si>
   <si>
-    <t xml:space="preserve">10.109504699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97580337524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89409446716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94609069824219</t>
+    <t xml:space="preserve">10.1095066070557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97580242156982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89409255981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94608974456787</t>
   </si>
   <si>
     <t xml:space="preserve">9.73810577392578</t>
@@ -1502,7 +1502,7 @@
     <t xml:space="preserve">9.78267478942871</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71582221984863</t>
+    <t xml:space="preserve">9.71582126617432</t>
   </si>
   <si>
     <t xml:space="preserve">9.67868137359619</t>
@@ -1514,13 +1514,13 @@
     <t xml:space="preserve">9.23300266265869</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12158203125</t>
+    <t xml:space="preserve">9.12158298492432</t>
   </si>
   <si>
     <t xml:space="preserve">9.08444118499756</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19586181640625</t>
+    <t xml:space="preserve">9.19586277008057</t>
   </si>
   <si>
     <t xml:space="preserve">9.39641761779785</t>
@@ -1529,76 +1529,76 @@
     <t xml:space="preserve">9.43355846405029</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56726169586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66382598876953</t>
+    <t xml:space="preserve">9.56726264953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66382789611816</t>
   </si>
   <si>
     <t xml:space="preserve">9.73067951202393</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82724285125732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86438083648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81238460540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58954429626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4706974029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59697532653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15129375457764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09929752349854</t>
+    <t xml:space="preserve">9.82724189758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86438274383545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81238651275635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58954524993896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47069835662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59697437286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15129280090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09929847717285</t>
   </si>
   <si>
     <t xml:space="preserve">8.90616989135742</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87645816802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78732299804688</t>
+    <t xml:space="preserve">8.8764591217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78732204437256</t>
   </si>
   <si>
     <t xml:space="preserve">8.99530601501465</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89131450653076</t>
+    <t xml:space="preserve">8.89131546020508</t>
   </si>
   <si>
     <t xml:space="preserve">8.65361881256104</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64618968963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60905075073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41592121124268</t>
+    <t xml:space="preserve">8.64619064331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60904979705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41592311859131</t>
   </si>
   <si>
     <t xml:space="preserve">8.43820667266846</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44563388824463</t>
+    <t xml:space="preserve">8.44563484191895</t>
   </si>
   <si>
     <t xml:space="preserve">8.30450248718262</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52734279632568</t>
+    <t xml:space="preserve">8.52734184265137</t>
   </si>
   <si>
     <t xml:space="preserve">8.54219818115234</t>
@@ -1607,31 +1607,31 @@
     <t xml:space="preserve">8.62390613555908</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66847515106201</t>
+    <t xml:space="preserve">8.66847324371338</t>
   </si>
   <si>
     <t xml:space="preserve">8.7724666595459</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75018310546875</t>
+    <t xml:space="preserve">8.75018215179443</t>
   </si>
   <si>
     <t xml:space="preserve">8.89874267578125</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81703472137451</t>
+    <t xml:space="preserve">8.8170337677002</t>
   </si>
   <si>
     <t xml:space="preserve">9.58211803436279</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50783729553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48555564880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21814727783203</t>
+    <t xml:space="preserve">9.50783920288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48555469512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2181453704834</t>
   </si>
   <si>
     <t xml:space="preserve">9.22557353973389</t>
@@ -1640,49 +1640,49 @@
     <t xml:space="preserve">9.06215763092041</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95816802978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9730224609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83931827545166</t>
+    <t xml:space="preserve">8.95816612243652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97302150726318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83931732177734</t>
   </si>
   <si>
     <t xml:space="preserve">8.92102718353271</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91359901428223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79475116729736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75760936737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83189010620117</t>
+    <t xml:space="preserve">8.91359806060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79475021362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75761127471924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8318920135498</t>
   </si>
   <si>
     <t xml:space="preserve">8.59419441223145</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21071815490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01016235351562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72789859771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57933807373047</t>
+    <t xml:space="preserve">9.21071910858154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01016330718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72789764404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57933902740479</t>
   </si>
   <si>
     <t xml:space="preserve">8.76503849029541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85417366027832</t>
+    <t xml:space="preserve">8.85417556762695</t>
   </si>
   <si>
     <t xml:space="preserve">9.02501773834229</t>
@@ -1694,7 +1694,7 @@
     <t xml:space="preserve">8.92845439910889</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09187126159668</t>
+    <t xml:space="preserve">9.09187030792236</t>
   </si>
   <si>
     <t xml:space="preserve">9.24785804748535</t>
@@ -1703,13 +1703,13 @@
     <t xml:space="preserve">9.2701416015625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32213878631592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68610954284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95351886749268</t>
+    <t xml:space="preserve">9.3221378326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.686110496521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95351791381836</t>
   </si>
   <si>
     <t xml:space="preserve">10.0277976989746</t>
@@ -1718,13 +1718,13 @@
     <t xml:space="preserve">9.91637802124023</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79010200500488</t>
+    <t xml:space="preserve">9.7901029586792</t>
   </si>
   <si>
     <t xml:space="preserve">9.99065780639648</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1169338226318</t>
+    <t xml:space="preserve">10.1169328689575</t>
   </si>
   <si>
     <t xml:space="preserve">10.0575094223022</t>
@@ -1739,13 +1739,13 @@
     <t xml:space="preserve">10.139217376709</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3694868087769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3174896240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3397741317749</t>
+    <t xml:space="preserve">10.3694858551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3174905776978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3397750854492</t>
   </si>
   <si>
     <t xml:space="preserve">10.2134981155396</t>
@@ -1754,7 +1754,7 @@
     <t xml:space="preserve">10.3249177932739</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3100633621216</t>
+    <t xml:space="preserve">10.3100624084473</t>
   </si>
   <si>
     <t xml:space="preserve">10.4883337020874</t>
@@ -1763,22 +1763,22 @@
     <t xml:space="preserve">10.718602180481</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8077373504639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1048583984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2608442306519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1345691680908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1791391372681</t>
-  </si>
-  <s